--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="290">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -646,6 +646,9 @@
     <t>['44', '45+4', '90+2']</t>
   </si>
   <si>
+    <t>['55', '57']</t>
+  </si>
+  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -878,6 +881,9 @@
   </si>
   <si>
     <t>['65', '73']</t>
+  </si>
+  <si>
+    <t>['13', '22', '37']</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP140"/>
+  <dimension ref="A1:BP141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1910,7 +1916,7 @@
         <v>101</v>
       </c>
       <c r="P4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -1991,7 +1997,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ4">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2322,7 +2328,7 @@
         <v>103</v>
       </c>
       <c r="P6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2734,7 +2740,7 @@
         <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2812,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
         <v>0.6</v>
@@ -2940,7 +2946,7 @@
         <v>106</v>
       </c>
       <c r="P9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3146,7 +3152,7 @@
         <v>107</v>
       </c>
       <c r="P10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3352,7 +3358,7 @@
         <v>108</v>
       </c>
       <c r="P11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3558,7 +3564,7 @@
         <v>109</v>
       </c>
       <c r="P12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3764,7 +3770,7 @@
         <v>110</v>
       </c>
       <c r="P13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -4382,7 +4388,7 @@
         <v>111</v>
       </c>
       <c r="P16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -5206,7 +5212,7 @@
         <v>115</v>
       </c>
       <c r="P20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -5412,7 +5418,7 @@
         <v>116</v>
       </c>
       <c r="P21" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5618,7 +5624,7 @@
         <v>117</v>
       </c>
       <c r="P22" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5824,7 +5830,7 @@
         <v>118</v>
       </c>
       <c r="P23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6442,7 +6448,7 @@
         <v>121</v>
       </c>
       <c r="P26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6648,7 +6654,7 @@
         <v>122</v>
       </c>
       <c r="P27" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6854,7 +6860,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7472,7 +7478,7 @@
         <v>123</v>
       </c>
       <c r="P31" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q31">
         <v>2.37</v>
@@ -7884,7 +7890,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -8090,7 +8096,7 @@
         <v>126</v>
       </c>
       <c r="P34" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -8502,7 +8508,7 @@
         <v>128</v>
       </c>
       <c r="P36" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8708,7 +8714,7 @@
         <v>129</v>
       </c>
       <c r="P37" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -8914,7 +8920,7 @@
         <v>130</v>
       </c>
       <c r="P38" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9326,7 +9332,7 @@
         <v>104</v>
       </c>
       <c r="P40" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9532,7 +9538,7 @@
         <v>131</v>
       </c>
       <c r="P41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -9944,7 +9950,7 @@
         <v>132</v>
       </c>
       <c r="P43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q43">
         <v>2.05</v>
@@ -10150,7 +10156,7 @@
         <v>133</v>
       </c>
       <c r="P44" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10356,7 +10362,7 @@
         <v>134</v>
       </c>
       <c r="P45" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -11180,7 +11186,7 @@
         <v>138</v>
       </c>
       <c r="P49" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11386,7 +11392,7 @@
         <v>139</v>
       </c>
       <c r="P50" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -12416,7 +12422,7 @@
         <v>144</v>
       </c>
       <c r="P55" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12622,7 +12628,7 @@
         <v>145</v>
       </c>
       <c r="P56" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -13034,7 +13040,7 @@
         <v>147</v>
       </c>
       <c r="P58" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -13446,7 +13452,7 @@
         <v>149</v>
       </c>
       <c r="P60" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -14476,7 +14482,7 @@
         <v>154</v>
       </c>
       <c r="P65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14682,7 +14688,7 @@
         <v>155</v>
       </c>
       <c r="P66" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14888,7 +14894,7 @@
         <v>104</v>
       </c>
       <c r="P67" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15094,7 +15100,7 @@
         <v>156</v>
       </c>
       <c r="P68" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15175,7 +15181,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ68">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR68">
         <v>1.18</v>
@@ -15506,7 +15512,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15790,7 +15796,7 @@
         <v>3</v>
       </c>
       <c r="AP71">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ71">
         <v>2.25</v>
@@ -15918,7 +15924,7 @@
         <v>159</v>
       </c>
       <c r="P72" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16124,7 +16130,7 @@
         <v>160</v>
       </c>
       <c r="P73" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16536,7 +16542,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16742,7 +16748,7 @@
         <v>162</v>
       </c>
       <c r="P76" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q76">
         <v>3.1</v>
@@ -16948,7 +16954,7 @@
         <v>163</v>
       </c>
       <c r="P77" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17154,7 +17160,7 @@
         <v>164</v>
       </c>
       <c r="P78" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17566,7 +17572,7 @@
         <v>166</v>
       </c>
       <c r="P80" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17978,7 +17984,7 @@
         <v>168</v>
       </c>
       <c r="P82" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18265,7 +18271,7 @@
         <v>2</v>
       </c>
       <c r="AQ83">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR83">
         <v>1.98</v>
@@ -18802,7 +18808,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -19008,7 +19014,7 @@
         <v>172</v>
       </c>
       <c r="P87" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q87">
         <v>2.2</v>
@@ -19214,7 +19220,7 @@
         <v>173</v>
       </c>
       <c r="P88" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19626,7 +19632,7 @@
         <v>175</v>
       </c>
       <c r="P90" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19832,7 +19838,7 @@
         <v>176</v>
       </c>
       <c r="P91" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -20038,7 +20044,7 @@
         <v>177</v>
       </c>
       <c r="P92" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q92">
         <v>2.88</v>
@@ -20244,7 +20250,7 @@
         <v>178</v>
       </c>
       <c r="P93" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20450,7 +20456,7 @@
         <v>179</v>
       </c>
       <c r="P94" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q94">
         <v>2.75</v>
@@ -20656,7 +20662,7 @@
         <v>180</v>
       </c>
       <c r="P95" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q95">
         <v>3.1</v>
@@ -21274,7 +21280,7 @@
         <v>182</v>
       </c>
       <c r="P98" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21480,7 +21486,7 @@
         <v>183</v>
       </c>
       <c r="P99" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -22098,7 +22104,7 @@
         <v>185</v>
       </c>
       <c r="P102" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q102">
         <v>3.1</v>
@@ -22304,7 +22310,7 @@
         <v>186</v>
       </c>
       <c r="P103" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q103">
         <v>2.3</v>
@@ -22510,7 +22516,7 @@
         <v>187</v>
       </c>
       <c r="P104" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22797,7 +22803,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ105">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR105">
         <v>1.76</v>
@@ -22922,7 +22928,7 @@
         <v>188</v>
       </c>
       <c r="P106" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23128,7 +23134,7 @@
         <v>189</v>
       </c>
       <c r="P107" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q107">
         <v>2.75</v>
@@ -23540,7 +23546,7 @@
         <v>190</v>
       </c>
       <c r="P109" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q109">
         <v>2.6</v>
@@ -23746,7 +23752,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q110">
         <v>2.88</v>
@@ -23952,7 +23958,7 @@
         <v>191</v>
       </c>
       <c r="P111" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24364,7 +24370,7 @@
         <v>142</v>
       </c>
       <c r="P113" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24570,7 +24576,7 @@
         <v>192</v>
       </c>
       <c r="P114" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q114">
         <v>1.91</v>
@@ -24776,7 +24782,7 @@
         <v>193</v>
       </c>
       <c r="P115" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q115">
         <v>2.1</v>
@@ -25188,7 +25194,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25600,7 +25606,7 @@
         <v>104</v>
       </c>
       <c r="P119" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q119">
         <v>2.88</v>
@@ -26012,7 +26018,7 @@
         <v>196</v>
       </c>
       <c r="P121" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q121">
         <v>2.3</v>
@@ -26424,7 +26430,7 @@
         <v>198</v>
       </c>
       <c r="P123" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q123">
         <v>2.5</v>
@@ -26630,7 +26636,7 @@
         <v>104</v>
       </c>
       <c r="P124" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -26836,7 +26842,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q125">
         <v>2.6</v>
@@ -27042,7 +27048,7 @@
         <v>199</v>
       </c>
       <c r="P126" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q126">
         <v>2.05</v>
@@ -27454,7 +27460,7 @@
         <v>201</v>
       </c>
       <c r="P128" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -27660,7 +27666,7 @@
         <v>202</v>
       </c>
       <c r="P129" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q129">
         <v>2.5</v>
@@ -27738,7 +27744,7 @@
         <v>1.6</v>
       </c>
       <c r="AP129">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ129">
         <v>1.83</v>
@@ -28072,7 +28078,7 @@
         <v>204</v>
       </c>
       <c r="P131" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q131">
         <v>2.3</v>
@@ -28359,7 +28365,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ132">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR132">
         <v>1.89</v>
@@ -28690,7 +28696,7 @@
         <v>152</v>
       </c>
       <c r="P134" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -28896,7 +28902,7 @@
         <v>206</v>
       </c>
       <c r="P135" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29720,7 +29726,7 @@
         <v>119</v>
       </c>
       <c r="P139" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -29926,7 +29932,7 @@
         <v>209</v>
       </c>
       <c r="P140" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -30083,6 +30089,212 @@
       </c>
       <c r="BP140">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7295269</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45412.85416666666</v>
+      </c>
+      <c r="F141">
+        <v>3</v>
+      </c>
+      <c r="G141" t="s">
+        <v>76</v>
+      </c>
+      <c r="H141" t="s">
+        <v>92</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>3</v>
+      </c>
+      <c r="K141">
+        <v>3</v>
+      </c>
+      <c r="L141">
+        <v>2</v>
+      </c>
+      <c r="M141">
+        <v>3</v>
+      </c>
+      <c r="N141">
+        <v>5</v>
+      </c>
+      <c r="O141" t="s">
+        <v>210</v>
+      </c>
+      <c r="P141" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q141">
+        <v>2.88</v>
+      </c>
+      <c r="R141">
+        <v>2.1</v>
+      </c>
+      <c r="S141">
+        <v>4</v>
+      </c>
+      <c r="T141">
+        <v>1.44</v>
+      </c>
+      <c r="U141">
+        <v>2.63</v>
+      </c>
+      <c r="V141">
+        <v>3</v>
+      </c>
+      <c r="W141">
+        <v>1.36</v>
+      </c>
+      <c r="X141">
+        <v>9</v>
+      </c>
+      <c r="Y141">
+        <v>1.07</v>
+      </c>
+      <c r="Z141">
+        <v>2.3</v>
+      </c>
+      <c r="AA141">
+        <v>3.2</v>
+      </c>
+      <c r="AB141">
+        <v>3.1</v>
+      </c>
+      <c r="AC141">
+        <v>1.02</v>
+      </c>
+      <c r="AD141">
+        <v>8.5</v>
+      </c>
+      <c r="AE141">
+        <v>1.3</v>
+      </c>
+      <c r="AF141">
+        <v>3.1</v>
+      </c>
+      <c r="AG141">
+        <v>2.25</v>
+      </c>
+      <c r="AH141">
+        <v>1.57</v>
+      </c>
+      <c r="AI141">
+        <v>1.78</v>
+      </c>
+      <c r="AJ141">
+        <v>2</v>
+      </c>
+      <c r="AK141">
+        <v>1.32</v>
+      </c>
+      <c r="AL141">
+        <v>1.31</v>
+      </c>
+      <c r="AM141">
+        <v>1.72</v>
+      </c>
+      <c r="AN141">
+        <v>1.33</v>
+      </c>
+      <c r="AO141">
+        <v>0.2</v>
+      </c>
+      <c r="AP141">
+        <v>1</v>
+      </c>
+      <c r="AQ141">
+        <v>0.67</v>
+      </c>
+      <c r="AR141">
+        <v>1.56</v>
+      </c>
+      <c r="AS141">
+        <v>1.47</v>
+      </c>
+      <c r="AT141">
+        <v>3.03</v>
+      </c>
+      <c r="AU141">
+        <v>7</v>
+      </c>
+      <c r="AV141">
+        <v>5</v>
+      </c>
+      <c r="AW141">
+        <v>4</v>
+      </c>
+      <c r="AX141">
+        <v>5</v>
+      </c>
+      <c r="AY141">
+        <v>11</v>
+      </c>
+      <c r="AZ141">
+        <v>10</v>
+      </c>
+      <c r="BA141">
+        <v>9</v>
+      </c>
+      <c r="BB141">
+        <v>10</v>
+      </c>
+      <c r="BC141">
+        <v>19</v>
+      </c>
+      <c r="BD141">
+        <v>1.72</v>
+      </c>
+      <c r="BE141">
+        <v>7.5</v>
+      </c>
+      <c r="BF141">
+        <v>2.45</v>
+      </c>
+      <c r="BG141">
+        <v>1.27</v>
+      </c>
+      <c r="BH141">
+        <v>3.15</v>
+      </c>
+      <c r="BI141">
+        <v>1.5</v>
+      </c>
+      <c r="BJ141">
+        <v>2.3</v>
+      </c>
+      <c r="BK141">
+        <v>1.87</v>
+      </c>
+      <c r="BL141">
+        <v>1.82</v>
+      </c>
+      <c r="BM141">
+        <v>2.35</v>
+      </c>
+      <c r="BN141">
+        <v>1.48</v>
+      </c>
+      <c r="BO141">
+        <v>3.1</v>
+      </c>
+      <c r="BP141">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="302">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -649,6 +649,30 @@
     <t>['55', '57']</t>
   </si>
   <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['54', '90+1']</t>
+  </si>
+  <si>
+    <t>['9', '33']</t>
+  </si>
+  <si>
+    <t>['48', '50', '62', '68', '75', '81']</t>
+  </si>
+  <si>
+    <t>['5', '55', '59']</t>
+  </si>
+  <si>
+    <t>['45+3', '52', '82']</t>
+  </si>
+  <si>
+    <t>['11', '20', '47', '81']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -884,6 +908,18 @@
   </si>
   <si>
     <t>['13', '22', '37']</t>
+  </si>
+  <si>
+    <t>['54', '60']</t>
+  </si>
+  <si>
+    <t>['42', '79']</t>
+  </si>
+  <si>
+    <t>['30', '90+7']</t>
+  </si>
+  <si>
+    <t>['64']</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP141"/>
+  <dimension ref="A1:BP153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1582,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
         <v>1.83</v>
@@ -1916,7 +1952,7 @@
         <v>101</v>
       </c>
       <c r="P4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -2200,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ5">
         <v>0.25</v>
@@ -2328,7 +2364,7 @@
         <v>103</v>
       </c>
       <c r="P6" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2406,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2612,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ7">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2740,7 +2776,7 @@
         <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2946,7 +2982,7 @@
         <v>106</v>
       </c>
       <c r="P9" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3027,7 +3063,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ9">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3152,7 +3188,7 @@
         <v>107</v>
       </c>
       <c r="P10" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3358,7 +3394,7 @@
         <v>108</v>
       </c>
       <c r="P11" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3436,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ11">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3564,7 +3600,7 @@
         <v>109</v>
       </c>
       <c r="P12" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3770,7 +3806,7 @@
         <v>110</v>
       </c>
       <c r="P13" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -4260,10 +4296,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4388,7 +4424,7 @@
         <v>111</v>
       </c>
       <c r="P16" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4878,10 +4914,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5084,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -5212,7 +5248,7 @@
         <v>115</v>
       </c>
       <c r="P20" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -5290,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ20">
         <v>0.2</v>
@@ -5418,7 +5454,7 @@
         <v>116</v>
       </c>
       <c r="P21" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5496,10 +5532,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5624,7 +5660,7 @@
         <v>117</v>
       </c>
       <c r="P22" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5705,7 +5741,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ22">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>2.26</v>
@@ -5830,7 +5866,7 @@
         <v>118</v>
       </c>
       <c r="P23" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5908,10 +5944,10 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR23">
         <v>1.42</v>
@@ -6117,7 +6153,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6448,7 +6484,7 @@
         <v>121</v>
       </c>
       <c r="P26" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6654,7 +6690,7 @@
         <v>122</v>
       </c>
       <c r="P27" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6860,7 +6896,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6938,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ28">
         <v>1.67</v>
@@ -7478,7 +7514,7 @@
         <v>123</v>
       </c>
       <c r="P31" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="Q31">
         <v>2.37</v>
@@ -7559,7 +7595,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ31">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -7762,7 +7798,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ32">
         <v>0.2</v>
@@ -7890,7 +7926,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -7968,10 +8004,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ33">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR33">
         <v>0</v>
@@ -8096,7 +8132,7 @@
         <v>126</v>
       </c>
       <c r="P34" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -8383,7 +8419,7 @@
         <v>2</v>
       </c>
       <c r="AQ35">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR35">
         <v>0</v>
@@ -8508,7 +8544,7 @@
         <v>128</v>
       </c>
       <c r="P36" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8586,10 +8622,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ36">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR36">
         <v>1.61</v>
@@ -8714,7 +8750,7 @@
         <v>129</v>
       </c>
       <c r="P37" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -8795,7 +8831,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ37">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR37">
         <v>1.02</v>
@@ -8920,7 +8956,7 @@
         <v>130</v>
       </c>
       <c r="P38" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8998,7 +9034,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
         <v>1.33</v>
@@ -9207,7 +9243,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ39">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>1.7</v>
@@ -9332,7 +9368,7 @@
         <v>104</v>
       </c>
       <c r="P40" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9410,7 +9446,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ40">
         <v>2.5</v>
@@ -9538,7 +9574,7 @@
         <v>131</v>
       </c>
       <c r="P41" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -9616,7 +9652,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ41">
         <v>1.67</v>
@@ -9950,7 +9986,7 @@
         <v>132</v>
       </c>
       <c r="P43" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="Q43">
         <v>2.05</v>
@@ -10028,10 +10064,10 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ43">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR43">
         <v>1.61</v>
@@ -10156,7 +10192,7 @@
         <v>133</v>
       </c>
       <c r="P44" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10234,10 +10270,10 @@
         <v>2.33</v>
       </c>
       <c r="AP44">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ44">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>0.84</v>
@@ -10362,7 +10398,7 @@
         <v>134</v>
       </c>
       <c r="P45" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10440,7 +10476,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ45">
         <v>2</v>
@@ -10855,7 +10891,7 @@
         <v>2</v>
       </c>
       <c r="AQ47">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR47">
         <v>1.86</v>
@@ -11186,7 +11222,7 @@
         <v>138</v>
       </c>
       <c r="P49" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11267,7 +11303,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ49">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR49">
         <v>0.89</v>
@@ -11392,7 +11428,7 @@
         <v>139</v>
       </c>
       <c r="P50" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11676,10 +11712,10 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ51">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR51">
         <v>1.66</v>
@@ -12091,7 +12127,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ53">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR53">
         <v>1.47</v>
@@ -12294,7 +12330,7 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ54">
         <v>0.2</v>
@@ -12422,7 +12458,7 @@
         <v>144</v>
       </c>
       <c r="P55" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12503,7 +12539,7 @@
         <v>2</v>
       </c>
       <c r="AQ55">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR55">
         <v>2.22</v>
@@ -12628,7 +12664,7 @@
         <v>145</v>
       </c>
       <c r="P56" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12709,7 +12745,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ56">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR56">
         <v>2.29</v>
@@ -12912,7 +12948,7 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -13040,7 +13076,7 @@
         <v>147</v>
       </c>
       <c r="P58" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -13452,7 +13488,7 @@
         <v>149</v>
       </c>
       <c r="P60" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13530,7 +13566,7 @@
         <v>0.5</v>
       </c>
       <c r="AP60">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ60">
         <v>1.83</v>
@@ -13736,7 +13772,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ61">
         <v>0.75</v>
@@ -14148,7 +14184,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14354,7 +14390,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ64">
         <v>0.5</v>
@@ -14482,7 +14518,7 @@
         <v>154</v>
       </c>
       <c r="P65" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14688,7 +14724,7 @@
         <v>155</v>
       </c>
       <c r="P66" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14894,7 +14930,7 @@
         <v>104</v>
       </c>
       <c r="P67" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15100,7 +15136,7 @@
         <v>156</v>
       </c>
       <c r="P68" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15178,7 +15214,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ68">
         <v>0.67</v>
@@ -15512,7 +15548,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15593,7 +15629,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ70">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR70">
         <v>1.13</v>
@@ -15799,7 +15835,7 @@
         <v>1</v>
       </c>
       <c r="AQ71">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR71">
         <v>1.95</v>
@@ -15924,7 +15960,7 @@
         <v>159</v>
       </c>
       <c r="P72" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16005,7 +16041,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ72">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR72">
         <v>1.16</v>
@@ -16130,7 +16166,7 @@
         <v>160</v>
       </c>
       <c r="P73" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16208,10 +16244,10 @@
         <v>3</v>
       </c>
       <c r="AP73">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ73">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR73">
         <v>1.41</v>
@@ -16414,10 +16450,10 @@
         <v>1.75</v>
       </c>
       <c r="AP74">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ74">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR74">
         <v>1.9</v>
@@ -16542,7 +16578,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16620,7 +16656,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ75">
         <v>0.25</v>
@@ -16748,7 +16784,7 @@
         <v>162</v>
       </c>
       <c r="P76" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="Q76">
         <v>3.1</v>
@@ -16826,10 +16862,10 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ76">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR76">
         <v>1.96</v>
@@ -16954,7 +16990,7 @@
         <v>163</v>
       </c>
       <c r="P77" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17032,10 +17068,10 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ77">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR77">
         <v>1.72</v>
@@ -17160,7 +17196,7 @@
         <v>164</v>
       </c>
       <c r="P78" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17241,7 +17277,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ78">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR78">
         <v>0.95</v>
@@ -17444,7 +17480,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ79">
         <v>0.17</v>
@@ -17572,7 +17608,7 @@
         <v>166</v>
       </c>
       <c r="P80" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17650,7 +17686,7 @@
         <v>0.5</v>
       </c>
       <c r="AP80">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ80">
         <v>0.75</v>
@@ -17856,10 +17892,10 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ81">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR81">
         <v>1.42</v>
@@ -17984,7 +18020,7 @@
         <v>168</v>
       </c>
       <c r="P82" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18062,10 +18098,10 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ82">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR82">
         <v>1.3</v>
@@ -18474,7 +18510,7 @@
         <v>0.67</v>
       </c>
       <c r="AP84">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ84">
         <v>0.6</v>
@@ -18808,7 +18844,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -19014,7 +19050,7 @@
         <v>172</v>
       </c>
       <c r="P87" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="Q87">
         <v>2.2</v>
@@ -19092,7 +19128,7 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ87">
         <v>1.33</v>
@@ -19220,7 +19256,7 @@
         <v>173</v>
       </c>
       <c r="P88" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19301,7 +19337,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ88">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR88">
         <v>1.49</v>
@@ -19504,7 +19540,7 @@
         <v>1.33</v>
       </c>
       <c r="AP89">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ89">
         <v>1.17</v>
@@ -19632,7 +19668,7 @@
         <v>175</v>
       </c>
       <c r="P90" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19838,7 +19874,7 @@
         <v>176</v>
       </c>
       <c r="P91" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -20044,7 +20080,7 @@
         <v>177</v>
       </c>
       <c r="P92" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="Q92">
         <v>2.88</v>
@@ -20250,7 +20286,7 @@
         <v>178</v>
       </c>
       <c r="P93" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20328,7 +20364,7 @@
         <v>3</v>
       </c>
       <c r="AP93">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ93">
         <v>1.5</v>
@@ -20456,7 +20492,7 @@
         <v>179</v>
       </c>
       <c r="P94" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="Q94">
         <v>2.75</v>
@@ -20662,7 +20698,7 @@
         <v>180</v>
       </c>
       <c r="P95" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="Q95">
         <v>3.1</v>
@@ -20740,10 +20776,10 @@
         <v>1.67</v>
       </c>
       <c r="AP95">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ95">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR95">
         <v>1.11</v>
@@ -20949,7 +20985,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ96">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR96">
         <v>1.49</v>
@@ -21155,7 +21191,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ97">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR97">
         <v>1.52</v>
@@ -21280,7 +21316,7 @@
         <v>182</v>
       </c>
       <c r="P98" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21361,7 +21397,7 @@
         <v>1</v>
       </c>
       <c r="AQ98">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR98">
         <v>1.65</v>
@@ -21486,7 +21522,7 @@
         <v>183</v>
       </c>
       <c r="P99" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21567,7 +21603,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ99">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR99">
         <v>1.42</v>
@@ -21773,7 +21809,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ100">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR100">
         <v>1.76</v>
@@ -22104,7 +22140,7 @@
         <v>185</v>
       </c>
       <c r="P102" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="Q102">
         <v>3.1</v>
@@ -22185,7 +22221,7 @@
         <v>2</v>
       </c>
       <c r="AQ102">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR102">
         <v>0</v>
@@ -22310,7 +22346,7 @@
         <v>186</v>
       </c>
       <c r="P103" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="Q103">
         <v>2.3</v>
@@ -22388,7 +22424,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ103">
         <v>1.17</v>
@@ -22516,7 +22552,7 @@
         <v>187</v>
       </c>
       <c r="P104" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22594,7 +22630,7 @@
         <v>0</v>
       </c>
       <c r="AP104">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ104">
         <v>1</v>
@@ -22928,7 +22964,7 @@
         <v>188</v>
       </c>
       <c r="P106" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23134,7 +23170,7 @@
         <v>189</v>
       </c>
       <c r="P107" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="Q107">
         <v>2.75</v>
@@ -23418,7 +23454,7 @@
         <v>0.67</v>
       </c>
       <c r="AP108">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ108">
         <v>0.75</v>
@@ -23546,7 +23582,7 @@
         <v>190</v>
       </c>
       <c r="P109" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="Q109">
         <v>2.6</v>
@@ -23624,7 +23660,7 @@
         <v>1.75</v>
       </c>
       <c r="AP109">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ109">
         <v>1.67</v>
@@ -23752,7 +23788,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="Q110">
         <v>2.88</v>
@@ -23830,7 +23866,7 @@
         <v>1.25</v>
       </c>
       <c r="AP110">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ110">
         <v>1.33</v>
@@ -23958,7 +23994,7 @@
         <v>191</v>
       </c>
       <c r="P111" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24036,10 +24072,10 @@
         <v>2</v>
       </c>
       <c r="AP111">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ111">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR111">
         <v>1.97</v>
@@ -24370,7 +24406,7 @@
         <v>142</v>
       </c>
       <c r="P113" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24576,7 +24612,7 @@
         <v>192</v>
       </c>
       <c r="P114" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="Q114">
         <v>1.91</v>
@@ -24654,7 +24690,7 @@
         <v>0.5</v>
       </c>
       <c r="AP114">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ114">
         <v>0.33</v>
@@ -24782,7 +24818,7 @@
         <v>193</v>
       </c>
       <c r="P115" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="Q115">
         <v>2.1</v>
@@ -24863,7 +24899,7 @@
         <v>2</v>
       </c>
       <c r="AQ115">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR115">
         <v>1.63</v>
@@ -25066,10 +25102,10 @@
         <v>0</v>
       </c>
       <c r="AP116">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ116">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR116">
         <v>1.54</v>
@@ -25194,7 +25230,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25272,10 +25308,10 @@
         <v>1.75</v>
       </c>
       <c r="AP117">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ117">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR117">
         <v>1.94</v>
@@ -25606,7 +25642,7 @@
         <v>104</v>
       </c>
       <c r="P119" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q119">
         <v>2.88</v>
@@ -25684,7 +25720,7 @@
         <v>1.25</v>
       </c>
       <c r="AP119">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ119">
         <v>1.83</v>
@@ -25890,7 +25926,7 @@
         <v>0.33</v>
       </c>
       <c r="AP120">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ120">
         <v>1</v>
@@ -26018,7 +26054,7 @@
         <v>196</v>
       </c>
       <c r="P121" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="Q121">
         <v>2.3</v>
@@ -26099,7 +26135,7 @@
         <v>1</v>
       </c>
       <c r="AQ121">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR121">
         <v>1.55</v>
@@ -26305,7 +26341,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ122">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR122">
         <v>1.34</v>
@@ -26430,7 +26466,7 @@
         <v>198</v>
       </c>
       <c r="P123" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="Q123">
         <v>2.5</v>
@@ -26511,7 +26547,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ123">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR123">
         <v>2.06</v>
@@ -26636,7 +26672,7 @@
         <v>104</v>
       </c>
       <c r="P124" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -26842,7 +26878,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="Q125">
         <v>2.6</v>
@@ -26920,10 +26956,10 @@
         <v>2</v>
       </c>
       <c r="AP125">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ125">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR125">
         <v>1.42</v>
@@ -27048,7 +27084,7 @@
         <v>199</v>
       </c>
       <c r="P126" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="Q126">
         <v>2.05</v>
@@ -27460,7 +27496,7 @@
         <v>201</v>
       </c>
       <c r="P128" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -27538,7 +27574,7 @@
         <v>0.8</v>
       </c>
       <c r="AP128">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ128">
         <v>1.17</v>
@@ -27666,7 +27702,7 @@
         <v>202</v>
       </c>
       <c r="P129" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="Q129">
         <v>2.5</v>
@@ -28078,7 +28114,7 @@
         <v>204</v>
       </c>
       <c r="P131" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="Q131">
         <v>2.3</v>
@@ -28362,7 +28398,7 @@
         <v>0.25</v>
       </c>
       <c r="AP132">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ132">
         <v>0.67</v>
@@ -28571,7 +28607,7 @@
         <v>2</v>
       </c>
       <c r="AQ133">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR133">
         <v>1.78</v>
@@ -28696,7 +28732,7 @@
         <v>152</v>
       </c>
       <c r="P134" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -28902,7 +28938,7 @@
         <v>206</v>
       </c>
       <c r="P135" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29189,7 +29225,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ136">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR136">
         <v>1.75</v>
@@ -29392,7 +29428,7 @@
         <v>0.33</v>
       </c>
       <c r="AP137">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ137">
         <v>0.5</v>
@@ -29726,7 +29762,7 @@
         <v>119</v>
       </c>
       <c r="P139" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -29804,7 +29840,7 @@
         <v>0</v>
       </c>
       <c r="AP139">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ139">
         <v>0.17</v>
@@ -29932,7 +29968,7 @@
         <v>209</v>
       </c>
       <c r="P140" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -30013,7 +30049,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ140">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR140">
         <v>2</v>
@@ -30138,7 +30174,7 @@
         <v>210</v>
       </c>
       <c r="P141" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30295,6 +30331,2478 @@
       </c>
       <c r="BP141">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7295375</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45416.85416666666</v>
+      </c>
+      <c r="F142">
+        <v>11</v>
+      </c>
+      <c r="G142" t="s">
+        <v>96</v>
+      </c>
+      <c r="H142" t="s">
+        <v>85</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>2</v>
+      </c>
+      <c r="N142">
+        <v>3</v>
+      </c>
+      <c r="O142" t="s">
+        <v>211</v>
+      </c>
+      <c r="P142" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q142">
+        <v>2.2</v>
+      </c>
+      <c r="R142">
+        <v>2.5</v>
+      </c>
+      <c r="S142">
+        <v>4.33</v>
+      </c>
+      <c r="T142">
+        <v>1.25</v>
+      </c>
+      <c r="U142">
+        <v>3.75</v>
+      </c>
+      <c r="V142">
+        <v>2.2</v>
+      </c>
+      <c r="W142">
+        <v>1.62</v>
+      </c>
+      <c r="X142">
+        <v>5</v>
+      </c>
+      <c r="Y142">
+        <v>1.17</v>
+      </c>
+      <c r="Z142">
+        <v>1.75</v>
+      </c>
+      <c r="AA142">
+        <v>4</v>
+      </c>
+      <c r="AB142">
+        <v>4.2</v>
+      </c>
+      <c r="AC142">
+        <v>1.01</v>
+      </c>
+      <c r="AD142">
+        <v>11</v>
+      </c>
+      <c r="AE142">
+        <v>1.12</v>
+      </c>
+      <c r="AF142">
+        <v>5</v>
+      </c>
+      <c r="AG142">
+        <v>1.59</v>
+      </c>
+      <c r="AH142">
+        <v>2.16</v>
+      </c>
+      <c r="AI142">
+        <v>1.53</v>
+      </c>
+      <c r="AJ142">
+        <v>2.38</v>
+      </c>
+      <c r="AK142">
+        <v>1.22</v>
+      </c>
+      <c r="AL142">
+        <v>1.22</v>
+      </c>
+      <c r="AM142">
+        <v>2.14</v>
+      </c>
+      <c r="AN142">
+        <v>2</v>
+      </c>
+      <c r="AO142">
+        <v>2.25</v>
+      </c>
+      <c r="AP142">
+        <v>1.67</v>
+      </c>
+      <c r="AQ142">
+        <v>2.4</v>
+      </c>
+      <c r="AR142">
+        <v>1.86</v>
+      </c>
+      <c r="AS142">
+        <v>1.49</v>
+      </c>
+      <c r="AT142">
+        <v>3.35</v>
+      </c>
+      <c r="AU142">
+        <v>6</v>
+      </c>
+      <c r="AV142">
+        <v>6</v>
+      </c>
+      <c r="AW142">
+        <v>8</v>
+      </c>
+      <c r="AX142">
+        <v>2</v>
+      </c>
+      <c r="AY142">
+        <v>14</v>
+      </c>
+      <c r="AZ142">
+        <v>8</v>
+      </c>
+      <c r="BA142">
+        <v>13</v>
+      </c>
+      <c r="BB142">
+        <v>9</v>
+      </c>
+      <c r="BC142">
+        <v>22</v>
+      </c>
+      <c r="BD142">
+        <v>1.55</v>
+      </c>
+      <c r="BE142">
+        <v>8.5</v>
+      </c>
+      <c r="BF142">
+        <v>2.88</v>
+      </c>
+      <c r="BG142">
+        <v>1.17</v>
+      </c>
+      <c r="BH142">
+        <v>4.1</v>
+      </c>
+      <c r="BI142">
+        <v>1.32</v>
+      </c>
+      <c r="BJ142">
+        <v>2.9</v>
+      </c>
+      <c r="BK142">
+        <v>1.55</v>
+      </c>
+      <c r="BL142">
+        <v>2.2</v>
+      </c>
+      <c r="BM142">
+        <v>1.91</v>
+      </c>
+      <c r="BN142">
+        <v>1.77</v>
+      </c>
+      <c r="BO142">
+        <v>2.4</v>
+      </c>
+      <c r="BP142">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7295376</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45416.85416666666</v>
+      </c>
+      <c r="F143">
+        <v>11</v>
+      </c>
+      <c r="G143" t="s">
+        <v>73</v>
+      </c>
+      <c r="H143" t="s">
+        <v>81</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>2</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>2</v>
+      </c>
+      <c r="O143" t="s">
+        <v>212</v>
+      </c>
+      <c r="P143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q143">
+        <v>2.38</v>
+      </c>
+      <c r="R143">
+        <v>2.38</v>
+      </c>
+      <c r="S143">
+        <v>4.33</v>
+      </c>
+      <c r="T143">
+        <v>1.3</v>
+      </c>
+      <c r="U143">
+        <v>3.4</v>
+      </c>
+      <c r="V143">
+        <v>2.38</v>
+      </c>
+      <c r="W143">
+        <v>1.53</v>
+      </c>
+      <c r="X143">
+        <v>6</v>
+      </c>
+      <c r="Y143">
+        <v>1.13</v>
+      </c>
+      <c r="Z143">
+        <v>1.95</v>
+      </c>
+      <c r="AA143">
+        <v>3.75</v>
+      </c>
+      <c r="AB143">
+        <v>3.5</v>
+      </c>
+      <c r="AC143">
+        <v>1.04</v>
+      </c>
+      <c r="AD143">
+        <v>10</v>
+      </c>
+      <c r="AE143">
+        <v>1.2</v>
+      </c>
+      <c r="AF143">
+        <v>4.33</v>
+      </c>
+      <c r="AG143">
+        <v>1.53</v>
+      </c>
+      <c r="AH143">
+        <v>2.3</v>
+      </c>
+      <c r="AI143">
+        <v>1.62</v>
+      </c>
+      <c r="AJ143">
+        <v>2.2</v>
+      </c>
+      <c r="AK143">
+        <v>1.27</v>
+      </c>
+      <c r="AL143">
+        <v>1.26</v>
+      </c>
+      <c r="AM143">
+        <v>1.92</v>
+      </c>
+      <c r="AN143">
+        <v>2</v>
+      </c>
+      <c r="AO143">
+        <v>0.83</v>
+      </c>
+      <c r="AP143">
+        <v>2.17</v>
+      </c>
+      <c r="AQ143">
+        <v>0.71</v>
+      </c>
+      <c r="AR143">
+        <v>1.31</v>
+      </c>
+      <c r="AS143">
+        <v>1.23</v>
+      </c>
+      <c r="AT143">
+        <v>2.54</v>
+      </c>
+      <c r="AU143">
+        <v>4</v>
+      </c>
+      <c r="AV143">
+        <v>4</v>
+      </c>
+      <c r="AW143">
+        <v>6</v>
+      </c>
+      <c r="AX143">
+        <v>3</v>
+      </c>
+      <c r="AY143">
+        <v>10</v>
+      </c>
+      <c r="AZ143">
+        <v>7</v>
+      </c>
+      <c r="BA143">
+        <v>3</v>
+      </c>
+      <c r="BB143">
+        <v>3</v>
+      </c>
+      <c r="BC143">
+        <v>6</v>
+      </c>
+      <c r="BD143">
+        <v>1.65</v>
+      </c>
+      <c r="BE143">
+        <v>7.5</v>
+      </c>
+      <c r="BF143">
+        <v>2.65</v>
+      </c>
+      <c r="BG143">
+        <v>1.26</v>
+      </c>
+      <c r="BH143">
+        <v>3.2</v>
+      </c>
+      <c r="BI143">
+        <v>1.49</v>
+      </c>
+      <c r="BJ143">
+        <v>2.35</v>
+      </c>
+      <c r="BK143">
+        <v>1.85</v>
+      </c>
+      <c r="BL143">
+        <v>1.84</v>
+      </c>
+      <c r="BM143">
+        <v>2.33</v>
+      </c>
+      <c r="BN143">
+        <v>1.5</v>
+      </c>
+      <c r="BO143">
+        <v>3.05</v>
+      </c>
+      <c r="BP143">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7295377</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45416.85416666666</v>
+      </c>
+      <c r="F144">
+        <v>11</v>
+      </c>
+      <c r="G144" t="s">
+        <v>74</v>
+      </c>
+      <c r="H144" t="s">
+        <v>76</v>
+      </c>
+      <c r="I144">
+        <v>2</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>3</v>
+      </c>
+      <c r="L144">
+        <v>2</v>
+      </c>
+      <c r="M144">
+        <v>2</v>
+      </c>
+      <c r="N144">
+        <v>4</v>
+      </c>
+      <c r="O144" t="s">
+        <v>213</v>
+      </c>
+      <c r="P144" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q144">
+        <v>2.88</v>
+      </c>
+      <c r="R144">
+        <v>2.3</v>
+      </c>
+      <c r="S144">
+        <v>3.4</v>
+      </c>
+      <c r="T144">
+        <v>1.33</v>
+      </c>
+      <c r="U144">
+        <v>3.25</v>
+      </c>
+      <c r="V144">
+        <v>2.5</v>
+      </c>
+      <c r="W144">
+        <v>1.5</v>
+      </c>
+      <c r="X144">
+        <v>6.5</v>
+      </c>
+      <c r="Y144">
+        <v>1.11</v>
+      </c>
+      <c r="Z144">
+        <v>2.8</v>
+      </c>
+      <c r="AA144">
+        <v>3.1</v>
+      </c>
+      <c r="AB144">
+        <v>2.63</v>
+      </c>
+      <c r="AC144">
+        <v>1.05</v>
+      </c>
+      <c r="AD144">
+        <v>9.5</v>
+      </c>
+      <c r="AE144">
+        <v>1.22</v>
+      </c>
+      <c r="AF144">
+        <v>4.2</v>
+      </c>
+      <c r="AG144">
+        <v>1.65</v>
+      </c>
+      <c r="AH144">
+        <v>2.06</v>
+      </c>
+      <c r="AI144">
+        <v>1.53</v>
+      </c>
+      <c r="AJ144">
+        <v>2.38</v>
+      </c>
+      <c r="AK144">
+        <v>1.42</v>
+      </c>
+      <c r="AL144">
+        <v>1.29</v>
+      </c>
+      <c r="AM144">
+        <v>1.62</v>
+      </c>
+      <c r="AN144">
+        <v>1.8</v>
+      </c>
+      <c r="AO144">
+        <v>1.8</v>
+      </c>
+      <c r="AP144">
+        <v>1.67</v>
+      </c>
+      <c r="AQ144">
+        <v>1.67</v>
+      </c>
+      <c r="AR144">
+        <v>1.84</v>
+      </c>
+      <c r="AS144">
+        <v>1.46</v>
+      </c>
+      <c r="AT144">
+        <v>3.3</v>
+      </c>
+      <c r="AU144">
+        <v>6</v>
+      </c>
+      <c r="AV144">
+        <v>4</v>
+      </c>
+      <c r="AW144">
+        <v>0</v>
+      </c>
+      <c r="AX144">
+        <v>3</v>
+      </c>
+      <c r="AY144">
+        <v>6</v>
+      </c>
+      <c r="AZ144">
+        <v>7</v>
+      </c>
+      <c r="BA144">
+        <v>4</v>
+      </c>
+      <c r="BB144">
+        <v>5</v>
+      </c>
+      <c r="BC144">
+        <v>9</v>
+      </c>
+      <c r="BD144">
+        <v>1.83</v>
+      </c>
+      <c r="BE144">
+        <v>8</v>
+      </c>
+      <c r="BF144">
+        <v>2.25</v>
+      </c>
+      <c r="BG144">
+        <v>1.19</v>
+      </c>
+      <c r="BH144">
+        <v>3.85</v>
+      </c>
+      <c r="BI144">
+        <v>1.36</v>
+      </c>
+      <c r="BJ144">
+        <v>2.75</v>
+      </c>
+      <c r="BK144">
+        <v>1.62</v>
+      </c>
+      <c r="BL144">
+        <v>2.1</v>
+      </c>
+      <c r="BM144">
+        <v>2</v>
+      </c>
+      <c r="BN144">
+        <v>1.7</v>
+      </c>
+      <c r="BO144">
+        <v>2.55</v>
+      </c>
+      <c r="BP144">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7295378</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45416.85416666666</v>
+      </c>
+      <c r="F145">
+        <v>11</v>
+      </c>
+      <c r="G145" t="s">
+        <v>70</v>
+      </c>
+      <c r="H145" t="s">
+        <v>97</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>6</v>
+      </c>
+      <c r="M145">
+        <v>2</v>
+      </c>
+      <c r="N145">
+        <v>8</v>
+      </c>
+      <c r="O145" t="s">
+        <v>214</v>
+      </c>
+      <c r="P145" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q145">
+        <v>2.38</v>
+      </c>
+      <c r="R145">
+        <v>2.4</v>
+      </c>
+      <c r="S145">
+        <v>4.33</v>
+      </c>
+      <c r="T145">
+        <v>1.3</v>
+      </c>
+      <c r="U145">
+        <v>3.4</v>
+      </c>
+      <c r="V145">
+        <v>2.38</v>
+      </c>
+      <c r="W145">
+        <v>1.53</v>
+      </c>
+      <c r="X145">
+        <v>6</v>
+      </c>
+      <c r="Y145">
+        <v>1.13</v>
+      </c>
+      <c r="Z145">
+        <v>1.95</v>
+      </c>
+      <c r="AA145">
+        <v>3.75</v>
+      </c>
+      <c r="AB145">
+        <v>3.5</v>
+      </c>
+      <c r="AC145">
+        <v>1.03</v>
+      </c>
+      <c r="AD145">
+        <v>17.5</v>
+      </c>
+      <c r="AE145">
+        <v>1.2</v>
+      </c>
+      <c r="AF145">
+        <v>4.78</v>
+      </c>
+      <c r="AG145">
+        <v>1.65</v>
+      </c>
+      <c r="AH145">
+        <v>2.06</v>
+      </c>
+      <c r="AI145">
+        <v>1.62</v>
+      </c>
+      <c r="AJ145">
+        <v>2.2</v>
+      </c>
+      <c r="AK145">
+        <v>1.25</v>
+      </c>
+      <c r="AL145">
+        <v>1.2</v>
+      </c>
+      <c r="AM145">
+        <v>2.05</v>
+      </c>
+      <c r="AN145">
+        <v>1.83</v>
+      </c>
+      <c r="AO145">
+        <v>1.5</v>
+      </c>
+      <c r="AP145">
+        <v>2</v>
+      </c>
+      <c r="AQ145">
+        <v>1.29</v>
+      </c>
+      <c r="AR145">
+        <v>1.66</v>
+      </c>
+      <c r="AS145">
+        <v>1.13</v>
+      </c>
+      <c r="AT145">
+        <v>2.79</v>
+      </c>
+      <c r="AU145">
+        <v>8</v>
+      </c>
+      <c r="AV145">
+        <v>6</v>
+      </c>
+      <c r="AW145">
+        <v>5</v>
+      </c>
+      <c r="AX145">
+        <v>7</v>
+      </c>
+      <c r="AY145">
+        <v>13</v>
+      </c>
+      <c r="AZ145">
+        <v>13</v>
+      </c>
+      <c r="BA145">
+        <v>3</v>
+      </c>
+      <c r="BB145">
+        <v>3</v>
+      </c>
+      <c r="BC145">
+        <v>6</v>
+      </c>
+      <c r="BD145">
+        <v>1.57</v>
+      </c>
+      <c r="BE145">
+        <v>8</v>
+      </c>
+      <c r="BF145">
+        <v>2.88</v>
+      </c>
+      <c r="BG145">
+        <v>1.25</v>
+      </c>
+      <c r="BH145">
+        <v>3.25</v>
+      </c>
+      <c r="BI145">
+        <v>1.48</v>
+      </c>
+      <c r="BJ145">
+        <v>2.38</v>
+      </c>
+      <c r="BK145">
+        <v>1.82</v>
+      </c>
+      <c r="BL145">
+        <v>1.87</v>
+      </c>
+      <c r="BM145">
+        <v>2.28</v>
+      </c>
+      <c r="BN145">
+        <v>1.52</v>
+      </c>
+      <c r="BO145">
+        <v>3</v>
+      </c>
+      <c r="BP145">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7295379</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45416.85416666666</v>
+      </c>
+      <c r="F146">
+        <v>11</v>
+      </c>
+      <c r="G146" t="s">
+        <v>75</v>
+      </c>
+      <c r="H146" t="s">
+        <v>82</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>1</v>
+      </c>
+      <c r="O146" t="s">
+        <v>104</v>
+      </c>
+      <c r="P146" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q146">
+        <v>2.63</v>
+      </c>
+      <c r="R146">
+        <v>2.25</v>
+      </c>
+      <c r="S146">
+        <v>3.75</v>
+      </c>
+      <c r="T146">
+        <v>1.33</v>
+      </c>
+      <c r="U146">
+        <v>3.25</v>
+      </c>
+      <c r="V146">
+        <v>2.63</v>
+      </c>
+      <c r="W146">
+        <v>1.44</v>
+      </c>
+      <c r="X146">
+        <v>6.5</v>
+      </c>
+      <c r="Y146">
+        <v>1.11</v>
+      </c>
+      <c r="Z146">
+        <v>2.05</v>
+      </c>
+      <c r="AA146">
+        <v>3.2</v>
+      </c>
+      <c r="AB146">
+        <v>3.75</v>
+      </c>
+      <c r="AC146">
+        <v>1.02</v>
+      </c>
+      <c r="AD146">
+        <v>10</v>
+      </c>
+      <c r="AE146">
+        <v>1.25</v>
+      </c>
+      <c r="AF146">
+        <v>3.6</v>
+      </c>
+      <c r="AG146">
+        <v>1.83</v>
+      </c>
+      <c r="AH146">
+        <v>2.03</v>
+      </c>
+      <c r="AI146">
+        <v>1.62</v>
+      </c>
+      <c r="AJ146">
+        <v>2.2</v>
+      </c>
+      <c r="AK146">
+        <v>1.33</v>
+      </c>
+      <c r="AL146">
+        <v>1.3</v>
+      </c>
+      <c r="AM146">
+        <v>1.73</v>
+      </c>
+      <c r="AN146">
+        <v>1</v>
+      </c>
+      <c r="AO146">
+        <v>2</v>
+      </c>
+      <c r="AP146">
+        <v>0.83</v>
+      </c>
+      <c r="AQ146">
+        <v>2.17</v>
+      </c>
+      <c r="AR146">
+        <v>1.7</v>
+      </c>
+      <c r="AS146">
+        <v>1.54</v>
+      </c>
+      <c r="AT146">
+        <v>3.24</v>
+      </c>
+      <c r="AU146">
+        <v>4</v>
+      </c>
+      <c r="AV146">
+        <v>4</v>
+      </c>
+      <c r="AW146">
+        <v>2</v>
+      </c>
+      <c r="AX146">
+        <v>2</v>
+      </c>
+      <c r="AY146">
+        <v>6</v>
+      </c>
+      <c r="AZ146">
+        <v>6</v>
+      </c>
+      <c r="BA146">
+        <v>5</v>
+      </c>
+      <c r="BB146">
+        <v>3</v>
+      </c>
+      <c r="BC146">
+        <v>8</v>
+      </c>
+      <c r="BD146">
+        <v>1.68</v>
+      </c>
+      <c r="BE146">
+        <v>8</v>
+      </c>
+      <c r="BF146">
+        <v>2.5</v>
+      </c>
+      <c r="BG146">
+        <v>1.21</v>
+      </c>
+      <c r="BH146">
+        <v>3.6</v>
+      </c>
+      <c r="BI146">
+        <v>1.4</v>
+      </c>
+      <c r="BJ146">
+        <v>2.6</v>
+      </c>
+      <c r="BK146">
+        <v>1.68</v>
+      </c>
+      <c r="BL146">
+        <v>2.02</v>
+      </c>
+      <c r="BM146">
+        <v>2.1</v>
+      </c>
+      <c r="BN146">
+        <v>1.62</v>
+      </c>
+      <c r="BO146">
+        <v>2.7</v>
+      </c>
+      <c r="BP146">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7295380</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45416.85416666666</v>
+      </c>
+      <c r="F147">
+        <v>11</v>
+      </c>
+      <c r="G147" t="s">
+        <v>91</v>
+      </c>
+      <c r="H147" t="s">
+        <v>72</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>3</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>4</v>
+      </c>
+      <c r="O147" t="s">
+        <v>215</v>
+      </c>
+      <c r="P147" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q147">
+        <v>3.4</v>
+      </c>
+      <c r="R147">
+        <v>2.38</v>
+      </c>
+      <c r="S147">
+        <v>2.75</v>
+      </c>
+      <c r="T147">
+        <v>1.29</v>
+      </c>
+      <c r="U147">
+        <v>3.5</v>
+      </c>
+      <c r="V147">
+        <v>2.38</v>
+      </c>
+      <c r="W147">
+        <v>1.53</v>
+      </c>
+      <c r="X147">
+        <v>5.5</v>
+      </c>
+      <c r="Y147">
+        <v>1.14</v>
+      </c>
+      <c r="Z147">
+        <v>2.8</v>
+      </c>
+      <c r="AA147">
+        <v>3.6</v>
+      </c>
+      <c r="AB147">
+        <v>2.3</v>
+      </c>
+      <c r="AC147">
+        <v>1.01</v>
+      </c>
+      <c r="AD147">
+        <v>10.5</v>
+      </c>
+      <c r="AE147">
+        <v>1.16</v>
+      </c>
+      <c r="AF147">
+        <v>4.4</v>
+      </c>
+      <c r="AG147">
+        <v>1.53</v>
+      </c>
+      <c r="AH147">
+        <v>2.3</v>
+      </c>
+      <c r="AI147">
+        <v>1.53</v>
+      </c>
+      <c r="AJ147">
+        <v>2.38</v>
+      </c>
+      <c r="AK147">
+        <v>1.68</v>
+      </c>
+      <c r="AL147">
+        <v>1.28</v>
+      </c>
+      <c r="AM147">
+        <v>1.39</v>
+      </c>
+      <c r="AN147">
+        <v>0.75</v>
+      </c>
+      <c r="AO147">
+        <v>0.25</v>
+      </c>
+      <c r="AP147">
+        <v>1.2</v>
+      </c>
+      <c r="AQ147">
+        <v>0.2</v>
+      </c>
+      <c r="AR147">
+        <v>1.42</v>
+      </c>
+      <c r="AS147">
+        <v>1.62</v>
+      </c>
+      <c r="AT147">
+        <v>3.04</v>
+      </c>
+      <c r="AU147">
+        <v>4</v>
+      </c>
+      <c r="AV147">
+        <v>8</v>
+      </c>
+      <c r="AW147">
+        <v>7</v>
+      </c>
+      <c r="AX147">
+        <v>6</v>
+      </c>
+      <c r="AY147">
+        <v>11</v>
+      </c>
+      <c r="AZ147">
+        <v>14</v>
+      </c>
+      <c r="BA147">
+        <v>4</v>
+      </c>
+      <c r="BB147">
+        <v>7</v>
+      </c>
+      <c r="BC147">
+        <v>11</v>
+      </c>
+      <c r="BD147">
+        <v>2.17</v>
+      </c>
+      <c r="BE147">
+        <v>8</v>
+      </c>
+      <c r="BF147">
+        <v>1.89</v>
+      </c>
+      <c r="BG147">
+        <v>1.18</v>
+      </c>
+      <c r="BH147">
+        <v>4</v>
+      </c>
+      <c r="BI147">
+        <v>1.34</v>
+      </c>
+      <c r="BJ147">
+        <v>2.8</v>
+      </c>
+      <c r="BK147">
+        <v>1.61</v>
+      </c>
+      <c r="BL147">
+        <v>2.12</v>
+      </c>
+      <c r="BM147">
+        <v>1.98</v>
+      </c>
+      <c r="BN147">
+        <v>1.7</v>
+      </c>
+      <c r="BO147">
+        <v>2.5</v>
+      </c>
+      <c r="BP147">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7295381</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45416.85416666666</v>
+      </c>
+      <c r="F148">
+        <v>11</v>
+      </c>
+      <c r="G148" t="s">
+        <v>95</v>
+      </c>
+      <c r="H148" t="s">
+        <v>78</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>3</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>4</v>
+      </c>
+      <c r="O148" t="s">
+        <v>216</v>
+      </c>
+      <c r="P148" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q148">
+        <v>2.88</v>
+      </c>
+      <c r="R148">
+        <v>2.1</v>
+      </c>
+      <c r="S148">
+        <v>3.75</v>
+      </c>
+      <c r="T148">
+        <v>1.4</v>
+      </c>
+      <c r="U148">
+        <v>2.75</v>
+      </c>
+      <c r="V148">
+        <v>3</v>
+      </c>
+      <c r="W148">
+        <v>1.36</v>
+      </c>
+      <c r="X148">
+        <v>8</v>
+      </c>
+      <c r="Y148">
+        <v>1.08</v>
+      </c>
+      <c r="Z148">
+        <v>1.95</v>
+      </c>
+      <c r="AA148">
+        <v>3.6</v>
+      </c>
+      <c r="AB148">
+        <v>3.6</v>
+      </c>
+      <c r="AC148">
+        <v>1.02</v>
+      </c>
+      <c r="AD148">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE148">
+        <v>1.28</v>
+      </c>
+      <c r="AF148">
+        <v>3.22</v>
+      </c>
+      <c r="AG148">
+        <v>2</v>
+      </c>
+      <c r="AH148">
+        <v>1.85</v>
+      </c>
+      <c r="AI148">
+        <v>1.8</v>
+      </c>
+      <c r="AJ148">
+        <v>1.95</v>
+      </c>
+      <c r="AK148">
+        <v>1.35</v>
+      </c>
+      <c r="AL148">
+        <v>1.31</v>
+      </c>
+      <c r="AM148">
+        <v>1.67</v>
+      </c>
+      <c r="AN148">
+        <v>2.25</v>
+      </c>
+      <c r="AO148">
+        <v>0.25</v>
+      </c>
+      <c r="AP148">
+        <v>2.4</v>
+      </c>
+      <c r="AQ148">
+        <v>0.2</v>
+      </c>
+      <c r="AR148">
+        <v>1.55</v>
+      </c>
+      <c r="AS148">
+        <v>1.09</v>
+      </c>
+      <c r="AT148">
+        <v>2.64</v>
+      </c>
+      <c r="AU148">
+        <v>7</v>
+      </c>
+      <c r="AV148">
+        <v>3</v>
+      </c>
+      <c r="AW148">
+        <v>2</v>
+      </c>
+      <c r="AX148">
+        <v>4</v>
+      </c>
+      <c r="AY148">
+        <v>9</v>
+      </c>
+      <c r="AZ148">
+        <v>7</v>
+      </c>
+      <c r="BA148">
+        <v>6</v>
+      </c>
+      <c r="BB148">
+        <v>4</v>
+      </c>
+      <c r="BC148">
+        <v>10</v>
+      </c>
+      <c r="BD148">
+        <v>1.74</v>
+      </c>
+      <c r="BE148">
+        <v>7.5</v>
+      </c>
+      <c r="BF148">
+        <v>2.43</v>
+      </c>
+      <c r="BG148">
+        <v>1.22</v>
+      </c>
+      <c r="BH148">
+        <v>3.5</v>
+      </c>
+      <c r="BI148">
+        <v>1.43</v>
+      </c>
+      <c r="BJ148">
+        <v>2.5</v>
+      </c>
+      <c r="BK148">
+        <v>1.74</v>
+      </c>
+      <c r="BL148">
+        <v>1.95</v>
+      </c>
+      <c r="BM148">
+        <v>2.18</v>
+      </c>
+      <c r="BN148">
+        <v>1.58</v>
+      </c>
+      <c r="BO148">
+        <v>2.8</v>
+      </c>
+      <c r="BP148">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7295383</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45416.89583333334</v>
+      </c>
+      <c r="F149">
+        <v>11</v>
+      </c>
+      <c r="G149" t="s">
+        <v>79</v>
+      </c>
+      <c r="H149" t="s">
+        <v>80</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149" t="s">
+        <v>104</v>
+      </c>
+      <c r="P149" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q149">
+        <v>2.6</v>
+      </c>
+      <c r="R149">
+        <v>2.2</v>
+      </c>
+      <c r="S149">
+        <v>4</v>
+      </c>
+      <c r="T149">
+        <v>1.36</v>
+      </c>
+      <c r="U149">
+        <v>3</v>
+      </c>
+      <c r="V149">
+        <v>2.75</v>
+      </c>
+      <c r="W149">
+        <v>1.4</v>
+      </c>
+      <c r="X149">
+        <v>7</v>
+      </c>
+      <c r="Y149">
+        <v>1.1</v>
+      </c>
+      <c r="Z149">
+        <v>1.91</v>
+      </c>
+      <c r="AA149">
+        <v>3.6</v>
+      </c>
+      <c r="AB149">
+        <v>3.75</v>
+      </c>
+      <c r="AC149">
+        <v>1.04</v>
+      </c>
+      <c r="AD149">
+        <v>12</v>
+      </c>
+      <c r="AE149">
+        <v>1.28</v>
+      </c>
+      <c r="AF149">
+        <v>3.75</v>
+      </c>
+      <c r="AG149">
+        <v>1.88</v>
+      </c>
+      <c r="AH149">
+        <v>1.98</v>
+      </c>
+      <c r="AI149">
+        <v>1.75</v>
+      </c>
+      <c r="AJ149">
+        <v>2</v>
+      </c>
+      <c r="AK149">
+        <v>1.28</v>
+      </c>
+      <c r="AL149">
+        <v>1.25</v>
+      </c>
+      <c r="AM149">
+        <v>1.85</v>
+      </c>
+      <c r="AN149">
+        <v>1.4</v>
+      </c>
+      <c r="AO149">
+        <v>0.75</v>
+      </c>
+      <c r="AP149">
+        <v>1.33</v>
+      </c>
+      <c r="AQ149">
+        <v>0.8</v>
+      </c>
+      <c r="AR149">
+        <v>1.71</v>
+      </c>
+      <c r="AS149">
+        <v>1.64</v>
+      </c>
+      <c r="AT149">
+        <v>3.35</v>
+      </c>
+      <c r="AU149">
+        <v>8</v>
+      </c>
+      <c r="AV149">
+        <v>4</v>
+      </c>
+      <c r="AW149">
+        <v>11</v>
+      </c>
+      <c r="AX149">
+        <v>10</v>
+      </c>
+      <c r="AY149">
+        <v>19</v>
+      </c>
+      <c r="AZ149">
+        <v>14</v>
+      </c>
+      <c r="BA149">
+        <v>5</v>
+      </c>
+      <c r="BB149">
+        <v>7</v>
+      </c>
+      <c r="BC149">
+        <v>12</v>
+      </c>
+      <c r="BD149">
+        <v>1.61</v>
+      </c>
+      <c r="BE149">
+        <v>8</v>
+      </c>
+      <c r="BF149">
+        <v>2.7</v>
+      </c>
+      <c r="BG149">
+        <v>1.21</v>
+      </c>
+      <c r="BH149">
+        <v>3.6</v>
+      </c>
+      <c r="BI149">
+        <v>1.4</v>
+      </c>
+      <c r="BJ149">
+        <v>2.6</v>
+      </c>
+      <c r="BK149">
+        <v>1.7</v>
+      </c>
+      <c r="BL149">
+        <v>2</v>
+      </c>
+      <c r="BM149">
+        <v>2.1</v>
+      </c>
+      <c r="BN149">
+        <v>1.62</v>
+      </c>
+      <c r="BO149">
+        <v>2.7</v>
+      </c>
+      <c r="BP149">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7295384</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45416.89583333334</v>
+      </c>
+      <c r="F150">
+        <v>11</v>
+      </c>
+      <c r="G150" t="s">
+        <v>83</v>
+      </c>
+      <c r="H150" t="s">
+        <v>98</v>
+      </c>
+      <c r="I150">
+        <v>2</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>2</v>
+      </c>
+      <c r="L150">
+        <v>4</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
+        <v>5</v>
+      </c>
+      <c r="O150" t="s">
+        <v>217</v>
+      </c>
+      <c r="P150" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q150">
+        <v>2.5</v>
+      </c>
+      <c r="R150">
+        <v>2.3</v>
+      </c>
+      <c r="S150">
+        <v>4.33</v>
+      </c>
+      <c r="T150">
+        <v>1.33</v>
+      </c>
+      <c r="U150">
+        <v>3.25</v>
+      </c>
+      <c r="V150">
+        <v>2.63</v>
+      </c>
+      <c r="W150">
+        <v>1.44</v>
+      </c>
+      <c r="X150">
+        <v>6.5</v>
+      </c>
+      <c r="Y150">
+        <v>1.11</v>
+      </c>
+      <c r="Z150">
+        <v>2.1</v>
+      </c>
+      <c r="AA150">
+        <v>3.4</v>
+      </c>
+      <c r="AB150">
+        <v>3.4</v>
+      </c>
+      <c r="AC150">
+        <v>1.04</v>
+      </c>
+      <c r="AD150">
+        <v>13</v>
+      </c>
+      <c r="AE150">
+        <v>1.26</v>
+      </c>
+      <c r="AF150">
+        <v>4</v>
+      </c>
+      <c r="AG150">
+        <v>1.57</v>
+      </c>
+      <c r="AH150">
+        <v>2.21</v>
+      </c>
+      <c r="AI150">
+        <v>1.67</v>
+      </c>
+      <c r="AJ150">
+        <v>2.1</v>
+      </c>
+      <c r="AK150">
+        <v>1.25</v>
+      </c>
+      <c r="AL150">
+        <v>1.22</v>
+      </c>
+      <c r="AM150">
+        <v>1.98</v>
+      </c>
+      <c r="AN150">
+        <v>1.17</v>
+      </c>
+      <c r="AO150">
+        <v>1.14</v>
+      </c>
+      <c r="AP150">
+        <v>1.43</v>
+      </c>
+      <c r="AQ150">
+        <v>1</v>
+      </c>
+      <c r="AR150">
+        <v>1.24</v>
+      </c>
+      <c r="AS150">
+        <v>1.08</v>
+      </c>
+      <c r="AT150">
+        <v>2.32</v>
+      </c>
+      <c r="AU150">
+        <v>8</v>
+      </c>
+      <c r="AV150">
+        <v>5</v>
+      </c>
+      <c r="AW150">
+        <v>7</v>
+      </c>
+      <c r="AX150">
+        <v>6</v>
+      </c>
+      <c r="AY150">
+        <v>15</v>
+      </c>
+      <c r="AZ150">
+        <v>11</v>
+      </c>
+      <c r="BA150">
+        <v>7</v>
+      </c>
+      <c r="BB150">
+        <v>5</v>
+      </c>
+      <c r="BC150">
+        <v>12</v>
+      </c>
+      <c r="BD150">
+        <v>1.59</v>
+      </c>
+      <c r="BE150">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF150">
+        <v>2.81</v>
+      </c>
+      <c r="BG150">
+        <v>1.26</v>
+      </c>
+      <c r="BH150">
+        <v>3.34</v>
+      </c>
+      <c r="BI150">
+        <v>1.57</v>
+      </c>
+      <c r="BJ150">
+        <v>2.39</v>
+      </c>
+      <c r="BK150">
+        <v>1.9</v>
+      </c>
+      <c r="BL150">
+        <v>1.8</v>
+      </c>
+      <c r="BM150">
+        <v>2.43</v>
+      </c>
+      <c r="BN150">
+        <v>1.55</v>
+      </c>
+      <c r="BO150">
+        <v>3.28</v>
+      </c>
+      <c r="BP150">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7295382</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45416.93402777778</v>
+      </c>
+      <c r="F151">
+        <v>11</v>
+      </c>
+      <c r="G151" t="s">
+        <v>88</v>
+      </c>
+      <c r="H151" t="s">
+        <v>93</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>1</v>
+      </c>
+      <c r="O151" t="s">
+        <v>104</v>
+      </c>
+      <c r="P151" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q151">
+        <v>2.5</v>
+      </c>
+      <c r="R151">
+        <v>2.3</v>
+      </c>
+      <c r="S151">
+        <v>4</v>
+      </c>
+      <c r="T151">
+        <v>1.33</v>
+      </c>
+      <c r="U151">
+        <v>3.25</v>
+      </c>
+      <c r="V151">
+        <v>2.5</v>
+      </c>
+      <c r="W151">
+        <v>1.5</v>
+      </c>
+      <c r="X151">
+        <v>6.5</v>
+      </c>
+      <c r="Y151">
+        <v>1.11</v>
+      </c>
+      <c r="Z151">
+        <v>2.15</v>
+      </c>
+      <c r="AA151">
+        <v>3.6</v>
+      </c>
+      <c r="AB151">
+        <v>3.1</v>
+      </c>
+      <c r="AC151">
+        <v>1.03</v>
+      </c>
+      <c r="AD151">
+        <v>15</v>
+      </c>
+      <c r="AE151">
+        <v>1.22</v>
+      </c>
+      <c r="AF151">
+        <v>4.33</v>
+      </c>
+      <c r="AG151">
+        <v>1.65</v>
+      </c>
+      <c r="AH151">
+        <v>2.06</v>
+      </c>
+      <c r="AI151">
+        <v>1.62</v>
+      </c>
+      <c r="AJ151">
+        <v>2.2</v>
+      </c>
+      <c r="AK151">
+        <v>1.32</v>
+      </c>
+      <c r="AL151">
+        <v>1.22</v>
+      </c>
+      <c r="AM151">
+        <v>1.85</v>
+      </c>
+      <c r="AN151">
+        <v>1.4</v>
+      </c>
+      <c r="AO151">
+        <v>0</v>
+      </c>
+      <c r="AP151">
+        <v>1.17</v>
+      </c>
+      <c r="AQ151">
+        <v>0.6</v>
+      </c>
+      <c r="AR151">
+        <v>1.35</v>
+      </c>
+      <c r="AS151">
+        <v>1.36</v>
+      </c>
+      <c r="AT151">
+        <v>2.71</v>
+      </c>
+      <c r="AU151">
+        <v>4</v>
+      </c>
+      <c r="AV151">
+        <v>5</v>
+      </c>
+      <c r="AW151">
+        <v>9</v>
+      </c>
+      <c r="AX151">
+        <v>5</v>
+      </c>
+      <c r="AY151">
+        <v>13</v>
+      </c>
+      <c r="AZ151">
+        <v>10</v>
+      </c>
+      <c r="BA151">
+        <v>7</v>
+      </c>
+      <c r="BB151">
+        <v>4</v>
+      </c>
+      <c r="BC151">
+        <v>11</v>
+      </c>
+      <c r="BD151">
+        <v>1.67</v>
+      </c>
+      <c r="BE151">
+        <v>8</v>
+      </c>
+      <c r="BF151">
+        <v>2.55</v>
+      </c>
+      <c r="BG151">
+        <v>1.19</v>
+      </c>
+      <c r="BH151">
+        <v>3.85</v>
+      </c>
+      <c r="BI151">
+        <v>1.36</v>
+      </c>
+      <c r="BJ151">
+        <v>2.7</v>
+      </c>
+      <c r="BK151">
+        <v>1.64</v>
+      </c>
+      <c r="BL151">
+        <v>2.08</v>
+      </c>
+      <c r="BM151">
+        <v>2.04</v>
+      </c>
+      <c r="BN151">
+        <v>1.67</v>
+      </c>
+      <c r="BO151">
+        <v>2.55</v>
+      </c>
+      <c r="BP151">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7295385</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45416.9375</v>
+      </c>
+      <c r="F152">
+        <v>11</v>
+      </c>
+      <c r="G152" t="s">
+        <v>86</v>
+      </c>
+      <c r="H152" t="s">
+        <v>89</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>1</v>
+      </c>
+      <c r="O152" t="s">
+        <v>218</v>
+      </c>
+      <c r="P152" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q152">
+        <v>2.3</v>
+      </c>
+      <c r="R152">
+        <v>2.38</v>
+      </c>
+      <c r="S152">
+        <v>4.5</v>
+      </c>
+      <c r="T152">
+        <v>1.33</v>
+      </c>
+      <c r="U152">
+        <v>3.25</v>
+      </c>
+      <c r="V152">
+        <v>2.5</v>
+      </c>
+      <c r="W152">
+        <v>1.5</v>
+      </c>
+      <c r="X152">
+        <v>6</v>
+      </c>
+      <c r="Y152">
+        <v>1.13</v>
+      </c>
+      <c r="Z152">
+        <v>2</v>
+      </c>
+      <c r="AA152">
+        <v>3.4</v>
+      </c>
+      <c r="AB152">
+        <v>3.75</v>
+      </c>
+      <c r="AC152">
+        <v>1.01</v>
+      </c>
+      <c r="AD152">
+        <v>14.5</v>
+      </c>
+      <c r="AE152">
+        <v>1.22</v>
+      </c>
+      <c r="AF152">
+        <v>4.33</v>
+      </c>
+      <c r="AG152">
+        <v>1.62</v>
+      </c>
+      <c r="AH152">
+        <v>2.11</v>
+      </c>
+      <c r="AI152">
+        <v>1.67</v>
+      </c>
+      <c r="AJ152">
+        <v>2.1</v>
+      </c>
+      <c r="AK152">
+        <v>1.2</v>
+      </c>
+      <c r="AL152">
+        <v>1.22</v>
+      </c>
+      <c r="AM152">
+        <v>2.1</v>
+      </c>
+      <c r="AN152">
+        <v>1.75</v>
+      </c>
+      <c r="AO152">
+        <v>1.25</v>
+      </c>
+      <c r="AP152">
+        <v>2</v>
+      </c>
+      <c r="AQ152">
+        <v>1</v>
+      </c>
+      <c r="AR152">
+        <v>1.48</v>
+      </c>
+      <c r="AS152">
+        <v>1.36</v>
+      </c>
+      <c r="AT152">
+        <v>2.84</v>
+      </c>
+      <c r="AU152">
+        <v>6</v>
+      </c>
+      <c r="AV152">
+        <v>2</v>
+      </c>
+      <c r="AW152">
+        <v>7</v>
+      </c>
+      <c r="AX152">
+        <v>5</v>
+      </c>
+      <c r="AY152">
+        <v>13</v>
+      </c>
+      <c r="AZ152">
+        <v>7</v>
+      </c>
+      <c r="BA152">
+        <v>7</v>
+      </c>
+      <c r="BB152">
+        <v>2</v>
+      </c>
+      <c r="BC152">
+        <v>9</v>
+      </c>
+      <c r="BD152">
+        <v>1.49</v>
+      </c>
+      <c r="BE152">
+        <v>8.5</v>
+      </c>
+      <c r="BF152">
+        <v>3.1</v>
+      </c>
+      <c r="BG152">
+        <v>1.19</v>
+      </c>
+      <c r="BH152">
+        <v>3.9</v>
+      </c>
+      <c r="BI152">
+        <v>1.36</v>
+      </c>
+      <c r="BJ152">
+        <v>2.75</v>
+      </c>
+      <c r="BK152">
+        <v>1.63</v>
+      </c>
+      <c r="BL152">
+        <v>2.1</v>
+      </c>
+      <c r="BM152">
+        <v>2.02</v>
+      </c>
+      <c r="BN152">
+        <v>1.68</v>
+      </c>
+      <c r="BO152">
+        <v>2.55</v>
+      </c>
+      <c r="BP152">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7295374</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45416.97916666666</v>
+      </c>
+      <c r="F153">
+        <v>11</v>
+      </c>
+      <c r="G153" t="s">
+        <v>87</v>
+      </c>
+      <c r="H153" t="s">
+        <v>77</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+      <c r="O153" t="s">
+        <v>104</v>
+      </c>
+      <c r="P153" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q153">
+        <v>2.2</v>
+      </c>
+      <c r="R153">
+        <v>2.38</v>
+      </c>
+      <c r="S153">
+        <v>5</v>
+      </c>
+      <c r="T153">
+        <v>1.3</v>
+      </c>
+      <c r="U153">
+        <v>3.4</v>
+      </c>
+      <c r="V153">
+        <v>2.5</v>
+      </c>
+      <c r="W153">
+        <v>1.5</v>
+      </c>
+      <c r="X153">
+        <v>6</v>
+      </c>
+      <c r="Y153">
+        <v>1.13</v>
+      </c>
+      <c r="Z153">
+        <v>1.75</v>
+      </c>
+      <c r="AA153">
+        <v>3.75</v>
+      </c>
+      <c r="AB153">
+        <v>4.33</v>
+      </c>
+      <c r="AC153">
+        <v>1.03</v>
+      </c>
+      <c r="AD153">
+        <v>15</v>
+      </c>
+      <c r="AE153">
+        <v>1.2</v>
+      </c>
+      <c r="AF153">
+        <v>4.5</v>
+      </c>
+      <c r="AG153">
+        <v>1.79</v>
+      </c>
+      <c r="AH153">
+        <v>1.88</v>
+      </c>
+      <c r="AI153">
+        <v>1.7</v>
+      </c>
+      <c r="AJ153">
+        <v>2.05</v>
+      </c>
+      <c r="AK153">
+        <v>1.18</v>
+      </c>
+      <c r="AL153">
+        <v>1.2</v>
+      </c>
+      <c r="AM153">
+        <v>2.3</v>
+      </c>
+      <c r="AN153">
+        <v>1.4</v>
+      </c>
+      <c r="AO153">
+        <v>1</v>
+      </c>
+      <c r="AP153">
+        <v>1.33</v>
+      </c>
+      <c r="AQ153">
+        <v>1</v>
+      </c>
+      <c r="AR153">
+        <v>1.44</v>
+      </c>
+      <c r="AS153">
+        <v>0.71</v>
+      </c>
+      <c r="AT153">
+        <v>2.15</v>
+      </c>
+      <c r="AU153">
+        <v>7</v>
+      </c>
+      <c r="AV153">
+        <v>2</v>
+      </c>
+      <c r="AW153">
+        <v>11</v>
+      </c>
+      <c r="AX153">
+        <v>2</v>
+      </c>
+      <c r="AY153">
+        <v>18</v>
+      </c>
+      <c r="AZ153">
+        <v>4</v>
+      </c>
+      <c r="BA153">
+        <v>10</v>
+      </c>
+      <c r="BB153">
+        <v>2</v>
+      </c>
+      <c r="BC153">
+        <v>12</v>
+      </c>
+      <c r="BD153">
+        <v>1.42</v>
+      </c>
+      <c r="BE153">
+        <v>9</v>
+      </c>
+      <c r="BF153">
+        <v>3.45</v>
+      </c>
+      <c r="BG153">
+        <v>1.19</v>
+      </c>
+      <c r="BH153">
+        <v>3.85</v>
+      </c>
+      <c r="BI153">
+        <v>1.36</v>
+      </c>
+      <c r="BJ153">
+        <v>2.7</v>
+      </c>
+      <c r="BK153">
+        <v>1.63</v>
+      </c>
+      <c r="BL153">
+        <v>2.1</v>
+      </c>
+      <c r="BM153">
+        <v>2.02</v>
+      </c>
+      <c r="BN153">
+        <v>1.68</v>
+      </c>
+      <c r="BO153">
+        <v>2.55</v>
+      </c>
+      <c r="BP153">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="303">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -921,6 +921,9 @@
   <si>
     <t>['64']</t>
   </si>
+  <si>
+    <t>['16', '86']</t>
+  </si>
 </sst>
 </file>
 
@@ -1281,7 +1284,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP153"/>
+  <dimension ref="A1:BP155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3887,7 +3890,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ13">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -6977,7 +6980,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ28">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -7180,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -7592,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ31">
         <v>0.71</v>
@@ -9037,7 +9040,7 @@
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR38">
         <v>1.58</v>
@@ -9655,7 +9658,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ41">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR41">
         <v>0.83</v>
@@ -10682,10 +10685,10 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ46">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR46">
         <v>1.94</v>
@@ -11094,7 +11097,7 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ48">
         <v>1.17</v>
@@ -14599,7 +14602,7 @@
         <v>1</v>
       </c>
       <c r="AQ65">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR65">
         <v>1.39</v>
@@ -18922,7 +18925,7 @@
         <v>0</v>
       </c>
       <c r="AP86">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ86">
         <v>0.5</v>
@@ -19131,7 +19134,7 @@
         <v>2</v>
       </c>
       <c r="AQ87">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR87">
         <v>1.69</v>
@@ -19955,7 +19958,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ91">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR91">
         <v>2.05</v>
@@ -21188,7 +21191,7 @@
         <v>1.4</v>
       </c>
       <c r="AP97">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ97">
         <v>1</v>
@@ -21806,7 +21809,7 @@
         <v>0</v>
       </c>
       <c r="AP100">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ100">
         <v>0.6</v>
@@ -23663,7 +23666,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ109">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR109">
         <v>1.44</v>
@@ -23869,7 +23872,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ110">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR110">
         <v>1.31</v>
@@ -25514,7 +25517,7 @@
         <v>1</v>
       </c>
       <c r="AP118">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ118">
         <v>0.8</v>
@@ -26750,7 +26753,7 @@
         <v>3</v>
       </c>
       <c r="AP124">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ124">
         <v>2.5</v>
@@ -27371,7 +27374,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ127">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR127">
         <v>1.28</v>
@@ -27986,7 +27989,7 @@
         <v>0.25</v>
       </c>
       <c r="AP130">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ130">
         <v>0.2</v>
@@ -28813,7 +28816,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ134">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR134">
         <v>1.41</v>
@@ -32803,6 +32806,418 @@
       </c>
       <c r="BP153">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7295386</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45417.70833333334</v>
+      </c>
+      <c r="F154">
+        <v>11</v>
+      </c>
+      <c r="G154" t="s">
+        <v>94</v>
+      </c>
+      <c r="H154" t="s">
+        <v>90</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>2</v>
+      </c>
+      <c r="N154">
+        <v>2</v>
+      </c>
+      <c r="O154" t="s">
+        <v>104</v>
+      </c>
+      <c r="P154" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q154">
+        <v>2.4</v>
+      </c>
+      <c r="R154">
+        <v>2.25</v>
+      </c>
+      <c r="S154">
+        <v>4.5</v>
+      </c>
+      <c r="T154">
+        <v>1.36</v>
+      </c>
+      <c r="U154">
+        <v>3</v>
+      </c>
+      <c r="V154">
+        <v>2.63</v>
+      </c>
+      <c r="W154">
+        <v>1.44</v>
+      </c>
+      <c r="X154">
+        <v>7</v>
+      </c>
+      <c r="Y154">
+        <v>1.1</v>
+      </c>
+      <c r="Z154">
+        <v>1.93</v>
+      </c>
+      <c r="AA154">
+        <v>3.4</v>
+      </c>
+      <c r="AB154">
+        <v>3.98</v>
+      </c>
+      <c r="AC154">
+        <v>1.05</v>
+      </c>
+      <c r="AD154">
+        <v>12.25</v>
+      </c>
+      <c r="AE154">
+        <v>1.27</v>
+      </c>
+      <c r="AF154">
+        <v>3.77</v>
+      </c>
+      <c r="AG154">
+        <v>1.85</v>
+      </c>
+      <c r="AH154">
+        <v>1.85</v>
+      </c>
+      <c r="AI154">
+        <v>1.75</v>
+      </c>
+      <c r="AJ154">
+        <v>2</v>
+      </c>
+      <c r="AK154">
+        <v>1.23</v>
+      </c>
+      <c r="AL154">
+        <v>1.3</v>
+      </c>
+      <c r="AM154">
+        <v>1.95</v>
+      </c>
+      <c r="AN154">
+        <v>2.17</v>
+      </c>
+      <c r="AO154">
+        <v>1.33</v>
+      </c>
+      <c r="AP154">
+        <v>1.86</v>
+      </c>
+      <c r="AQ154">
+        <v>1.57</v>
+      </c>
+      <c r="AR154">
+        <v>1.8</v>
+      </c>
+      <c r="AS154">
+        <v>1.37</v>
+      </c>
+      <c r="AT154">
+        <v>3.17</v>
+      </c>
+      <c r="AU154">
+        <v>4</v>
+      </c>
+      <c r="AV154">
+        <v>5</v>
+      </c>
+      <c r="AW154">
+        <v>10</v>
+      </c>
+      <c r="AX154">
+        <v>3</v>
+      </c>
+      <c r="AY154">
+        <v>14</v>
+      </c>
+      <c r="AZ154">
+        <v>8</v>
+      </c>
+      <c r="BA154">
+        <v>4</v>
+      </c>
+      <c r="BB154">
+        <v>3</v>
+      </c>
+      <c r="BC154">
+        <v>7</v>
+      </c>
+      <c r="BD154">
+        <v>1.55</v>
+      </c>
+      <c r="BE154">
+        <v>8</v>
+      </c>
+      <c r="BF154">
+        <v>2.9</v>
+      </c>
+      <c r="BG154">
+        <v>1.22</v>
+      </c>
+      <c r="BH154">
+        <v>3.55</v>
+      </c>
+      <c r="BI154">
+        <v>1.41</v>
+      </c>
+      <c r="BJ154">
+        <v>2.55</v>
+      </c>
+      <c r="BK154">
+        <v>1.71</v>
+      </c>
+      <c r="BL154">
+        <v>1.98</v>
+      </c>
+      <c r="BM154">
+        <v>2.14</v>
+      </c>
+      <c r="BN154">
+        <v>1.6</v>
+      </c>
+      <c r="BO154">
+        <v>2.75</v>
+      </c>
+      <c r="BP154">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7295387</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45417.82291666666</v>
+      </c>
+      <c r="F155">
+        <v>11</v>
+      </c>
+      <c r="G155" t="s">
+        <v>92</v>
+      </c>
+      <c r="H155" t="s">
+        <v>84</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="O155" t="s">
+        <v>104</v>
+      </c>
+      <c r="P155" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q155">
+        <v>2.5</v>
+      </c>
+      <c r="R155">
+        <v>2.4</v>
+      </c>
+      <c r="S155">
+        <v>3.75</v>
+      </c>
+      <c r="T155">
+        <v>1.29</v>
+      </c>
+      <c r="U155">
+        <v>3.5</v>
+      </c>
+      <c r="V155">
+        <v>2.38</v>
+      </c>
+      <c r="W155">
+        <v>1.53</v>
+      </c>
+      <c r="X155">
+        <v>5.5</v>
+      </c>
+      <c r="Y155">
+        <v>1.14</v>
+      </c>
+      <c r="Z155">
+        <v>2.22</v>
+      </c>
+      <c r="AA155">
+        <v>3.75</v>
+      </c>
+      <c r="AB155">
+        <v>2.86</v>
+      </c>
+      <c r="AC155">
+        <v>1.04</v>
+      </c>
+      <c r="AD155">
+        <v>10</v>
+      </c>
+      <c r="AE155">
+        <v>1.16</v>
+      </c>
+      <c r="AF155">
+        <v>4.4</v>
+      </c>
+      <c r="AG155">
+        <v>1.54</v>
+      </c>
+      <c r="AH155">
+        <v>2.26</v>
+      </c>
+      <c r="AI155">
+        <v>1.53</v>
+      </c>
+      <c r="AJ155">
+        <v>2.38</v>
+      </c>
+      <c r="AK155">
+        <v>1.3</v>
+      </c>
+      <c r="AL155">
+        <v>1.26</v>
+      </c>
+      <c r="AM155">
+        <v>1.84</v>
+      </c>
+      <c r="AN155">
+        <v>1.25</v>
+      </c>
+      <c r="AO155">
+        <v>1.67</v>
+      </c>
+      <c r="AP155">
+        <v>1.2</v>
+      </c>
+      <c r="AQ155">
+        <v>1.57</v>
+      </c>
+      <c r="AR155">
+        <v>1.55</v>
+      </c>
+      <c r="AS155">
+        <v>1.61</v>
+      </c>
+      <c r="AT155">
+        <v>3.16</v>
+      </c>
+      <c r="AU155">
+        <v>5</v>
+      </c>
+      <c r="AV155">
+        <v>4</v>
+      </c>
+      <c r="AW155">
+        <v>7</v>
+      </c>
+      <c r="AX155">
+        <v>6</v>
+      </c>
+      <c r="AY155">
+        <v>12</v>
+      </c>
+      <c r="AZ155">
+        <v>10</v>
+      </c>
+      <c r="BA155">
+        <v>12</v>
+      </c>
+      <c r="BB155">
+        <v>5</v>
+      </c>
+      <c r="BC155">
+        <v>17</v>
+      </c>
+      <c r="BD155">
+        <v>1.67</v>
+      </c>
+      <c r="BE155">
+        <v>8</v>
+      </c>
+      <c r="BF155">
+        <v>2.55</v>
+      </c>
+      <c r="BG155">
+        <v>1.18</v>
+      </c>
+      <c r="BH155">
+        <v>4</v>
+      </c>
+      <c r="BI155">
+        <v>1.34</v>
+      </c>
+      <c r="BJ155">
+        <v>2.8</v>
+      </c>
+      <c r="BK155">
+        <v>1.6</v>
+      </c>
+      <c r="BL155">
+        <v>2.14</v>
+      </c>
+      <c r="BM155">
+        <v>1.98</v>
+      </c>
+      <c r="BN155">
+        <v>1.71</v>
+      </c>
+      <c r="BO155">
+        <v>2.5</v>
+      </c>
+      <c r="BP155">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="324">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -673,6 +673,42 @@
     <t>['81']</t>
   </si>
   <si>
+    <t>['16', '48']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['22', '32']</t>
+  </si>
+  <si>
+    <t>['6', '43', '84', '90+3']</t>
+  </si>
+  <si>
+    <t>['12', '66']</t>
+  </si>
+  <si>
+    <t>['55', '89']</t>
+  </si>
+  <si>
+    <t>['4', '56']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['2', '56', '67']</t>
+  </si>
+  <si>
+    <t>['33', '42']</t>
+  </si>
+  <si>
+    <t>['54', '90+4']</t>
+  </si>
+  <si>
+    <t>['18', '36', '57']</t>
+  </si>
+  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -686,9 +722,6 @@
   </si>
   <si>
     <t>['6']</t>
-  </si>
-  <si>
-    <t>['61']</t>
   </si>
   <si>
     <t>['74']</t>
@@ -923,6 +956,36 @@
   </si>
   <si>
     <t>['16', '86']</t>
+  </si>
+  <si>
+    <t>['19', '44', '55']</t>
+  </si>
+  <si>
+    <t>['44', '45+3', '59']</t>
+  </si>
+  <si>
+    <t>['24', '90']</t>
+  </si>
+  <si>
+    <t>['21', '41', '46']</t>
+  </si>
+  <si>
+    <t>['23', '44', '77']</t>
+  </si>
+  <si>
+    <t>['74', '76']</t>
+  </si>
+  <si>
+    <t>['31', '78']</t>
+  </si>
+  <si>
+    <t>['46']</t>
+  </si>
+  <si>
+    <t>['44', '45+6', '66']</t>
+  </si>
+  <si>
+    <t>['20', '40']</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP155"/>
+  <dimension ref="A1:BP168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1624,7 +1687,7 @@
         <v>2</v>
       </c>
       <c r="AQ2">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1827,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ3">
         <v>0.5</v>
@@ -1955,7 +2018,7 @@
         <v>101</v>
       </c>
       <c r="P4" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -2033,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ4">
         <v>0.67</v>
@@ -2239,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ5">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2367,7 +2430,7 @@
         <v>103</v>
       </c>
       <c r="P6" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2448,7 +2511,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ6">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2779,7 +2842,7 @@
         <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2857,10 +2920,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ8">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2985,7 +3048,7 @@
         <v>106</v>
       </c>
       <c r="P9" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3191,7 +3254,7 @@
         <v>107</v>
       </c>
       <c r="P10" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3269,10 +3332,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ10">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3397,7 +3460,7 @@
         <v>108</v>
       </c>
       <c r="P11" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3603,7 +3666,7 @@
         <v>109</v>
       </c>
       <c r="P12" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3681,10 +3744,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3809,7 +3872,7 @@
         <v>110</v>
       </c>
       <c r="P13" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -4427,7 +4490,7 @@
         <v>111</v>
       </c>
       <c r="P16" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4505,10 +4568,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5126,7 +5189,7 @@
         <v>2</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR19">
         <v>1.77</v>
@@ -5251,7 +5314,7 @@
         <v>115</v>
       </c>
       <c r="P20" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -5457,7 +5520,7 @@
         <v>116</v>
       </c>
       <c r="P21" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5538,7 +5601,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ21">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5663,7 +5726,7 @@
         <v>117</v>
       </c>
       <c r="P22" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5741,7 +5804,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5869,7 +5932,7 @@
         <v>118</v>
       </c>
       <c r="P23" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6153,7 +6216,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ24">
         <v>1.67</v>
@@ -6359,10 +6422,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR25">
         <v>1.45</v>
@@ -6487,7 +6550,7 @@
         <v>121</v>
       </c>
       <c r="P26" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6565,10 +6628,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ26">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6693,7 +6756,7 @@
         <v>122</v>
       </c>
       <c r="P27" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6774,7 +6837,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ27">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR27">
         <v>1.01</v>
@@ -6899,7 +6962,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7186,7 +7249,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7517,7 +7580,7 @@
         <v>123</v>
       </c>
       <c r="P31" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="Q31">
         <v>2.37</v>
@@ -7801,7 +7864,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
         <v>0.2</v>
@@ -7929,7 +7992,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -8007,10 +8070,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ33">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR33">
         <v>0</v>
@@ -8135,7 +8198,7 @@
         <v>126</v>
       </c>
       <c r="P34" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -8213,10 +8276,10 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ34">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR34">
         <v>1.35</v>
@@ -8419,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ35">
         <v>0.2</v>
@@ -8547,7 +8610,7 @@
         <v>128</v>
       </c>
       <c r="P36" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8753,7 +8816,7 @@
         <v>129</v>
       </c>
       <c r="P37" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -8959,7 +9022,7 @@
         <v>130</v>
       </c>
       <c r="P38" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9243,7 +9306,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9371,7 +9434,7 @@
         <v>104</v>
       </c>
       <c r="P40" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9452,7 +9515,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ40">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR40">
         <v>1.38</v>
@@ -9577,7 +9640,7 @@
         <v>131</v>
       </c>
       <c r="P41" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -9864,7 +9927,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ42">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR42">
         <v>1.46</v>
@@ -9989,7 +10052,7 @@
         <v>132</v>
       </c>
       <c r="P43" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="Q43">
         <v>2.05</v>
@@ -10195,7 +10258,7 @@
         <v>133</v>
       </c>
       <c r="P44" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10401,7 +10464,7 @@
         <v>134</v>
       </c>
       <c r="P45" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10482,7 +10545,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR45">
         <v>1.94</v>
@@ -10891,7 +10954,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ47">
         <v>1.29</v>
@@ -11225,7 +11288,7 @@
         <v>138</v>
       </c>
       <c r="P49" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11431,7 +11494,7 @@
         <v>139</v>
       </c>
       <c r="P50" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11509,10 +11572,10 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ50">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR50">
         <v>1.92</v>
@@ -11921,10 +11984,10 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ52">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR52">
         <v>1.83</v>
@@ -12461,7 +12524,7 @@
         <v>144</v>
       </c>
       <c r="P55" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12539,7 +12602,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ55">
         <v>0.8</v>
@@ -12667,7 +12730,7 @@
         <v>145</v>
       </c>
       <c r="P56" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12748,7 +12811,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ56">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR56">
         <v>2.29</v>
@@ -12951,10 +13014,10 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR57">
         <v>2.19</v>
@@ -13079,7 +13142,7 @@
         <v>147</v>
       </c>
       <c r="P58" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -13160,7 +13223,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ58">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR58">
         <v>2.02</v>
@@ -13363,10 +13426,10 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ59">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR59">
         <v>1.89</v>
@@ -13491,7 +13554,7 @@
         <v>149</v>
       </c>
       <c r="P60" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13572,7 +13635,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ60">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR60">
         <v>1.63</v>
@@ -13775,7 +13838,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ61">
         <v>0.75</v>
@@ -13984,7 +14047,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ62">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR62">
         <v>1.57</v>
@@ -14190,7 +14253,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR63">
         <v>1.92</v>
@@ -14393,7 +14456,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ64">
         <v>0.5</v>
@@ -14521,7 +14584,7 @@
         <v>154</v>
       </c>
       <c r="P65" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14599,7 +14662,7 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ65">
         <v>1.57</v>
@@ -14727,7 +14790,7 @@
         <v>155</v>
       </c>
       <c r="P66" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14805,10 +14868,10 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR66">
         <v>1.49</v>
@@ -14933,7 +14996,7 @@
         <v>104</v>
       </c>
       <c r="P67" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15011,10 +15074,10 @@
         <v>0</v>
       </c>
       <c r="AP67">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ67">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR67">
         <v>1.06</v>
@@ -15139,7 +15202,7 @@
         <v>156</v>
       </c>
       <c r="P68" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15423,10 +15486,10 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ69">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR69">
         <v>1.68</v>
@@ -15551,7 +15614,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15835,7 +15898,7 @@
         <v>3</v>
       </c>
       <c r="AP71">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ71">
         <v>2.4</v>
@@ -15963,7 +16026,7 @@
         <v>159</v>
       </c>
       <c r="P72" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16041,7 +16104,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ72">
         <v>0.2</v>
@@ -16169,7 +16232,7 @@
         <v>160</v>
       </c>
       <c r="P73" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16247,10 +16310,10 @@
         <v>3</v>
       </c>
       <c r="AP73">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ73">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR73">
         <v>1.41</v>
@@ -16581,7 +16644,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16662,7 +16725,7 @@
         <v>2</v>
       </c>
       <c r="AQ75">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR75">
         <v>1.58</v>
@@ -16787,7 +16850,7 @@
         <v>162</v>
       </c>
       <c r="P76" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="Q76">
         <v>3.1</v>
@@ -16993,7 +17056,7 @@
         <v>163</v>
       </c>
       <c r="P77" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17071,7 +17134,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -17199,7 +17262,7 @@
         <v>164</v>
       </c>
       <c r="P78" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17486,7 +17549,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ79">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR79">
         <v>1.49</v>
@@ -17611,7 +17674,7 @@
         <v>166</v>
       </c>
       <c r="P80" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -18023,7 +18086,7 @@
         <v>168</v>
       </c>
       <c r="P82" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18307,7 +18370,7 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ83">
         <v>0.67</v>
@@ -18513,10 +18576,10 @@
         <v>0.67</v>
       </c>
       <c r="AP84">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ84">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR84">
         <v>1.97</v>
@@ -18847,7 +18910,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -19053,7 +19116,7 @@
         <v>172</v>
       </c>
       <c r="P87" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="Q87">
         <v>2.2</v>
@@ -19259,7 +19322,7 @@
         <v>173</v>
       </c>
       <c r="P88" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19671,7 +19734,7 @@
         <v>175</v>
       </c>
       <c r="P90" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19749,10 +19812,10 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ90">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR90">
         <v>1.72</v>
@@ -19877,7 +19940,7 @@
         <v>176</v>
       </c>
       <c r="P91" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -19955,7 +20018,7 @@
         <v>2.33</v>
       </c>
       <c r="AP91">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ91">
         <v>1.57</v>
@@ -20083,7 +20146,7 @@
         <v>177</v>
       </c>
       <c r="P92" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="Q92">
         <v>2.88</v>
@@ -20164,7 +20227,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ92">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR92">
         <v>1.12</v>
@@ -20289,7 +20352,7 @@
         <v>178</v>
       </c>
       <c r="P93" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20370,7 +20433,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ93">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR93">
         <v>1.63</v>
@@ -20495,7 +20558,7 @@
         <v>179</v>
       </c>
       <c r="P94" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="Q94">
         <v>2.75</v>
@@ -20576,7 +20639,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ94">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR94">
         <v>1.29</v>
@@ -20701,7 +20764,7 @@
         <v>180</v>
       </c>
       <c r="P95" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="Q95">
         <v>3.1</v>
@@ -20985,7 +21048,7 @@
         <v>0</v>
       </c>
       <c r="AP96">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ96">
         <v>0.2</v>
@@ -21319,7 +21382,7 @@
         <v>182</v>
       </c>
       <c r="P98" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21397,7 +21460,7 @@
         <v>1</v>
       </c>
       <c r="AP98">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ98">
         <v>0.71</v>
@@ -21525,7 +21588,7 @@
         <v>183</v>
       </c>
       <c r="P99" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21812,7 +21875,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ100">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR100">
         <v>1.76</v>
@@ -22015,10 +22078,10 @@
         <v>0.5</v>
       </c>
       <c r="AP101">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ101">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR101">
         <v>1.68</v>
@@ -22143,7 +22206,7 @@
         <v>185</v>
       </c>
       <c r="P102" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="Q102">
         <v>3.1</v>
@@ -22221,10 +22284,10 @@
         <v>2.33</v>
       </c>
       <c r="AP102">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ102">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR102">
         <v>0</v>
@@ -22349,7 +22412,7 @@
         <v>186</v>
       </c>
       <c r="P103" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="Q103">
         <v>2.3</v>
@@ -22427,7 +22490,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ103">
         <v>1.17</v>
@@ -22555,7 +22618,7 @@
         <v>187</v>
       </c>
       <c r="P104" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22636,7 +22699,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ104">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR104">
         <v>1.9</v>
@@ -22839,7 +22902,7 @@
         <v>0</v>
       </c>
       <c r="AP105">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ105">
         <v>0.67</v>
@@ -22967,7 +23030,7 @@
         <v>188</v>
       </c>
       <c r="P106" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23045,10 +23108,10 @@
         <v>1.33</v>
       </c>
       <c r="AP106">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ106">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR106">
         <v>1.67</v>
@@ -23173,7 +23236,7 @@
         <v>189</v>
       </c>
       <c r="P107" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="Q107">
         <v>2.75</v>
@@ -23254,7 +23317,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ107">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR107">
         <v>1.55</v>
@@ -23585,7 +23648,7 @@
         <v>190</v>
       </c>
       <c r="P109" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="Q109">
         <v>2.6</v>
@@ -23791,7 +23854,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="Q110">
         <v>2.88</v>
@@ -23997,7 +24060,7 @@
         <v>191</v>
       </c>
       <c r="P111" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24075,7 +24138,7 @@
         <v>2</v>
       </c>
       <c r="AP111">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ111">
         <v>1.67</v>
@@ -24281,10 +24344,10 @@
         <v>0.5</v>
       </c>
       <c r="AP112">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ112">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR112">
         <v>1.79</v>
@@ -24409,7 +24472,7 @@
         <v>142</v>
       </c>
       <c r="P113" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24487,10 +24550,10 @@
         <v>1</v>
       </c>
       <c r="AP113">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ113">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR113">
         <v>1.35</v>
@@ -24615,7 +24678,7 @@
         <v>192</v>
       </c>
       <c r="P114" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="Q114">
         <v>1.91</v>
@@ -24696,7 +24759,7 @@
         <v>2</v>
       </c>
       <c r="AQ114">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR114">
         <v>1.72</v>
@@ -24821,7 +24884,7 @@
         <v>193</v>
       </c>
       <c r="P115" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="Q115">
         <v>2.1</v>
@@ -24899,7 +24962,7 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ115">
         <v>0.71</v>
@@ -25105,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="AP116">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ116">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR116">
         <v>1.54</v>
@@ -25233,7 +25296,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25311,10 +25374,10 @@
         <v>1.75</v>
       </c>
       <c r="AP117">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ117">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR117">
         <v>1.94</v>
@@ -25520,7 +25583,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ118">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR118">
         <v>1.77</v>
@@ -25645,7 +25708,7 @@
         <v>104</v>
       </c>
       <c r="P119" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="Q119">
         <v>2.88</v>
@@ -25726,7 +25789,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ119">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR119">
         <v>1.52</v>
@@ -25932,7 +25995,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ120">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR120">
         <v>1.68</v>
@@ -26057,7 +26120,7 @@
         <v>196</v>
       </c>
       <c r="P121" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="Q121">
         <v>2.3</v>
@@ -26135,7 +26198,7 @@
         <v>0.67</v>
       </c>
       <c r="AP121">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ121">
         <v>0.8</v>
@@ -26341,7 +26404,7 @@
         <v>0.33</v>
       </c>
       <c r="AP122">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ122">
         <v>0.2</v>
@@ -26469,7 +26532,7 @@
         <v>198</v>
       </c>
       <c r="P123" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="Q123">
         <v>2.5</v>
@@ -26547,7 +26610,7 @@
         <v>1.6</v>
       </c>
       <c r="AP123">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ123">
         <v>1.29</v>
@@ -26675,7 +26738,7 @@
         <v>104</v>
       </c>
       <c r="P124" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -26756,7 +26819,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ124">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR124">
         <v>1.78</v>
@@ -26881,7 +26944,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="Q125">
         <v>2.6</v>
@@ -26959,7 +27022,7 @@
         <v>2</v>
       </c>
       <c r="AP125">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ125">
         <v>2.4</v>
@@ -27087,7 +27150,7 @@
         <v>199</v>
       </c>
       <c r="P126" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="Q126">
         <v>2.05</v>
@@ -27165,10 +27228,10 @@
         <v>0</v>
       </c>
       <c r="AP126">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ126">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR126">
         <v>1.66</v>
@@ -27499,7 +27562,7 @@
         <v>201</v>
       </c>
       <c r="P128" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -27705,7 +27768,7 @@
         <v>202</v>
       </c>
       <c r="P129" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="Q129">
         <v>2.5</v>
@@ -27783,10 +27846,10 @@
         <v>1.6</v>
       </c>
       <c r="AP129">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ129">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR129">
         <v>1.61</v>
@@ -28117,7 +28180,7 @@
         <v>204</v>
       </c>
       <c r="P131" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="Q131">
         <v>2.3</v>
@@ -28195,10 +28258,10 @@
         <v>3</v>
       </c>
       <c r="AP131">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ131">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR131">
         <v>1.71</v>
@@ -28607,7 +28670,7 @@
         <v>1.17</v>
       </c>
       <c r="AP133">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ133">
         <v>1</v>
@@ -28735,7 +28798,7 @@
         <v>152</v>
       </c>
       <c r="P134" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -28941,7 +29004,7 @@
         <v>206</v>
       </c>
       <c r="P135" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29022,7 +29085,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ135">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR135">
         <v>1.64</v>
@@ -29637,10 +29700,10 @@
         <v>2</v>
       </c>
       <c r="AP138">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ138">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR138">
         <v>1.63</v>
@@ -29765,7 +29828,7 @@
         <v>119</v>
       </c>
       <c r="P139" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -29846,7 +29909,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ139">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR139">
         <v>1.15</v>
@@ -29971,7 +30034,7 @@
         <v>209</v>
       </c>
       <c r="P140" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -30049,7 +30112,7 @@
         <v>1</v>
       </c>
       <c r="AP140">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ140">
         <v>0.71</v>
@@ -30177,7 +30240,7 @@
         <v>210</v>
       </c>
       <c r="P141" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30255,7 +30318,7 @@
         <v>0.2</v>
       </c>
       <c r="AP141">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ141">
         <v>0.67</v>
@@ -30383,7 +30446,7 @@
         <v>211</v>
       </c>
       <c r="P142" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30461,7 +30524,7 @@
         <v>2.25</v>
       </c>
       <c r="AP142">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ142">
         <v>2.4</v>
@@ -30667,7 +30730,7 @@
         <v>0.83</v>
       </c>
       <c r="AP143">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ143">
         <v>0.71</v>
@@ -30795,7 +30858,7 @@
         <v>213</v>
       </c>
       <c r="P144" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="Q144">
         <v>2.88</v>
@@ -31001,7 +31064,7 @@
         <v>214</v>
       </c>
       <c r="P145" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="Q145">
         <v>2.38</v>
@@ -31288,7 +31351,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ146">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR146">
         <v>1.7</v>
@@ -31697,7 +31760,7 @@
         <v>0.25</v>
       </c>
       <c r="AP148">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ148">
         <v>0.2</v>
@@ -32031,7 +32094,7 @@
         <v>217</v>
       </c>
       <c r="P150" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32318,7 +32381,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ151">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR151">
         <v>1.35</v>
@@ -32730,7 +32793,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ153">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR153">
         <v>1.44</v>
@@ -32855,7 +32918,7 @@
         <v>104</v>
       </c>
       <c r="P154" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="Q154">
         <v>2.4</v>
@@ -33218,6 +33281,2684 @@
       </c>
       <c r="BP155">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7295388</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45423.85416666666</v>
+      </c>
+      <c r="F156">
+        <v>12</v>
+      </c>
+      <c r="G156" t="s">
+        <v>96</v>
+      </c>
+      <c r="H156" t="s">
+        <v>74</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>2</v>
+      </c>
+      <c r="K156">
+        <v>3</v>
+      </c>
+      <c r="L156">
+        <v>2</v>
+      </c>
+      <c r="M156">
+        <v>3</v>
+      </c>
+      <c r="N156">
+        <v>5</v>
+      </c>
+      <c r="O156" t="s">
+        <v>219</v>
+      </c>
+      <c r="P156" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q156">
+        <v>2.2</v>
+      </c>
+      <c r="R156">
+        <v>2.5</v>
+      </c>
+      <c r="S156">
+        <v>4.33</v>
+      </c>
+      <c r="T156">
+        <v>1.25</v>
+      </c>
+      <c r="U156">
+        <v>3.75</v>
+      </c>
+      <c r="V156">
+        <v>2.1</v>
+      </c>
+      <c r="W156">
+        <v>1.67</v>
+      </c>
+      <c r="X156">
+        <v>5</v>
+      </c>
+      <c r="Y156">
+        <v>1.17</v>
+      </c>
+      <c r="Z156">
+        <v>1.72</v>
+      </c>
+      <c r="AA156">
+        <v>3.95</v>
+      </c>
+      <c r="AB156">
+        <v>3.8</v>
+      </c>
+      <c r="AC156">
+        <v>1.01</v>
+      </c>
+      <c r="AD156">
+        <v>19.5</v>
+      </c>
+      <c r="AE156">
+        <v>1.17</v>
+      </c>
+      <c r="AF156">
+        <v>5</v>
+      </c>
+      <c r="AG156">
+        <v>1.4</v>
+      </c>
+      <c r="AH156">
+        <v>2.82</v>
+      </c>
+      <c r="AI156">
+        <v>1.5</v>
+      </c>
+      <c r="AJ156">
+        <v>2.5</v>
+      </c>
+      <c r="AK156">
+        <v>1.18</v>
+      </c>
+      <c r="AL156">
+        <v>1.18</v>
+      </c>
+      <c r="AM156">
+        <v>2.15</v>
+      </c>
+      <c r="AN156">
+        <v>1.67</v>
+      </c>
+      <c r="AO156">
+        <v>0.8</v>
+      </c>
+      <c r="AP156">
+        <v>1.43</v>
+      </c>
+      <c r="AQ156">
+        <v>1.17</v>
+      </c>
+      <c r="AR156">
+        <v>1.86</v>
+      </c>
+      <c r="AS156">
+        <v>1.3</v>
+      </c>
+      <c r="AT156">
+        <v>3.16</v>
+      </c>
+      <c r="AU156">
+        <v>4</v>
+      </c>
+      <c r="AV156">
+        <v>7</v>
+      </c>
+      <c r="AW156">
+        <v>4</v>
+      </c>
+      <c r="AX156">
+        <v>7</v>
+      </c>
+      <c r="AY156">
+        <v>8</v>
+      </c>
+      <c r="AZ156">
+        <v>14</v>
+      </c>
+      <c r="BA156">
+        <v>7</v>
+      </c>
+      <c r="BB156">
+        <v>6</v>
+      </c>
+      <c r="BC156">
+        <v>13</v>
+      </c>
+      <c r="BD156">
+        <v>1.53</v>
+      </c>
+      <c r="BE156">
+        <v>8</v>
+      </c>
+      <c r="BF156">
+        <v>2.95</v>
+      </c>
+      <c r="BG156">
+        <v>1.23</v>
+      </c>
+      <c r="BH156">
+        <v>3.45</v>
+      </c>
+      <c r="BI156">
+        <v>1.43</v>
+      </c>
+      <c r="BJ156">
+        <v>2.5</v>
+      </c>
+      <c r="BK156">
+        <v>1.74</v>
+      </c>
+      <c r="BL156">
+        <v>1.95</v>
+      </c>
+      <c r="BM156">
+        <v>2.18</v>
+      </c>
+      <c r="BN156">
+        <v>1.57</v>
+      </c>
+      <c r="BO156">
+        <v>2.85</v>
+      </c>
+      <c r="BP156">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7295389</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45423.85416666666</v>
+      </c>
+      <c r="F157">
+        <v>12</v>
+      </c>
+      <c r="G157" t="s">
+        <v>73</v>
+      </c>
+      <c r="H157" t="s">
+        <v>83</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>1</v>
+      </c>
+      <c r="O157" t="s">
+        <v>220</v>
+      </c>
+      <c r="P157" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q157">
+        <v>2.63</v>
+      </c>
+      <c r="R157">
+        <v>2.1</v>
+      </c>
+      <c r="S157">
+        <v>4.33</v>
+      </c>
+      <c r="T157">
+        <v>1.4</v>
+      </c>
+      <c r="U157">
+        <v>2.75</v>
+      </c>
+      <c r="V157">
+        <v>3</v>
+      </c>
+      <c r="W157">
+        <v>1.36</v>
+      </c>
+      <c r="X157">
+        <v>8</v>
+      </c>
+      <c r="Y157">
+        <v>1.08</v>
+      </c>
+      <c r="Z157">
+        <v>1.89</v>
+      </c>
+      <c r="AA157">
+        <v>3.35</v>
+      </c>
+      <c r="AB157">
+        <v>3.7</v>
+      </c>
+      <c r="AC157">
+        <v>1.02</v>
+      </c>
+      <c r="AD157">
+        <v>8.6</v>
+      </c>
+      <c r="AE157">
+        <v>1.3</v>
+      </c>
+      <c r="AF157">
+        <v>3.1</v>
+      </c>
+      <c r="AG157">
+        <v>2</v>
+      </c>
+      <c r="AH157">
+        <v>1.79</v>
+      </c>
+      <c r="AI157">
+        <v>1.8</v>
+      </c>
+      <c r="AJ157">
+        <v>1.95</v>
+      </c>
+      <c r="AK157">
+        <v>1.28</v>
+      </c>
+      <c r="AL157">
+        <v>1.3</v>
+      </c>
+      <c r="AM157">
+        <v>1.81</v>
+      </c>
+      <c r="AN157">
+        <v>2.17</v>
+      </c>
+      <c r="AO157">
+        <v>0.33</v>
+      </c>
+      <c r="AP157">
+        <v>2.29</v>
+      </c>
+      <c r="AQ157">
+        <v>0.25</v>
+      </c>
+      <c r="AR157">
+        <v>1.3</v>
+      </c>
+      <c r="AS157">
+        <v>1.17</v>
+      </c>
+      <c r="AT157">
+        <v>2.47</v>
+      </c>
+      <c r="AU157">
+        <v>4</v>
+      </c>
+      <c r="AV157">
+        <v>3</v>
+      </c>
+      <c r="AW157">
+        <v>2</v>
+      </c>
+      <c r="AX157">
+        <v>1</v>
+      </c>
+      <c r="AY157">
+        <v>6</v>
+      </c>
+      <c r="AZ157">
+        <v>4</v>
+      </c>
+      <c r="BA157">
+        <v>3</v>
+      </c>
+      <c r="BB157">
+        <v>0</v>
+      </c>
+      <c r="BC157">
+        <v>3</v>
+      </c>
+      <c r="BD157">
+        <v>1.5</v>
+      </c>
+      <c r="BE157">
+        <v>8.5</v>
+      </c>
+      <c r="BF157">
+        <v>2.9</v>
+      </c>
+      <c r="BG157">
+        <v>1.4</v>
+      </c>
+      <c r="BH157">
+        <v>2.72</v>
+      </c>
+      <c r="BI157">
+        <v>1.67</v>
+      </c>
+      <c r="BJ157">
+        <v>2.19</v>
+      </c>
+      <c r="BK157">
+        <v>2.08</v>
+      </c>
+      <c r="BL157">
+        <v>1.74</v>
+      </c>
+      <c r="BM157">
+        <v>2.49</v>
+      </c>
+      <c r="BN157">
+        <v>1.52</v>
+      </c>
+      <c r="BO157">
+        <v>4.25</v>
+      </c>
+      <c r="BP157">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7295391</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45423.85416666666</v>
+      </c>
+      <c r="F158">
+        <v>12</v>
+      </c>
+      <c r="G158" t="s">
+        <v>98</v>
+      </c>
+      <c r="H158" t="s">
+        <v>70</v>
+      </c>
+      <c r="I158">
+        <v>2</v>
+      </c>
+      <c r="J158">
+        <v>2</v>
+      </c>
+      <c r="K158">
+        <v>4</v>
+      </c>
+      <c r="L158">
+        <v>2</v>
+      </c>
+      <c r="M158">
+        <v>3</v>
+      </c>
+      <c r="N158">
+        <v>5</v>
+      </c>
+      <c r="O158" t="s">
+        <v>221</v>
+      </c>
+      <c r="P158" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q158">
+        <v>3.75</v>
+      </c>
+      <c r="R158">
+        <v>2.4</v>
+      </c>
+      <c r="S158">
+        <v>2.4</v>
+      </c>
+      <c r="T158">
+        <v>1.29</v>
+      </c>
+      <c r="U158">
+        <v>3.5</v>
+      </c>
+      <c r="V158">
+        <v>2.25</v>
+      </c>
+      <c r="W158">
+        <v>1.57</v>
+      </c>
+      <c r="X158">
+        <v>5.5</v>
+      </c>
+      <c r="Y158">
+        <v>1.14</v>
+      </c>
+      <c r="Z158">
+        <v>3.3</v>
+      </c>
+      <c r="AA158">
+        <v>3.75</v>
+      </c>
+      <c r="AB158">
+        <v>1.89</v>
+      </c>
+      <c r="AC158">
+        <v>1.01</v>
+      </c>
+      <c r="AD158">
+        <v>12</v>
+      </c>
+      <c r="AE158">
+        <v>1.12</v>
+      </c>
+      <c r="AF158">
+        <v>5</v>
+      </c>
+      <c r="AG158">
+        <v>1.45</v>
+      </c>
+      <c r="AH158">
+        <v>2.63</v>
+      </c>
+      <c r="AI158">
+        <v>1.5</v>
+      </c>
+      <c r="AJ158">
+        <v>2.5</v>
+      </c>
+      <c r="AK158">
+        <v>2.01</v>
+      </c>
+      <c r="AL158">
+        <v>1.24</v>
+      </c>
+      <c r="AM158">
+        <v>1.26</v>
+      </c>
+      <c r="AN158">
+        <v>2</v>
+      </c>
+      <c r="AO158">
+        <v>2</v>
+      </c>
+      <c r="AP158">
+        <v>1.33</v>
+      </c>
+      <c r="AQ158">
+        <v>2.17</v>
+      </c>
+      <c r="AR158">
+        <v>1.25</v>
+      </c>
+      <c r="AS158">
+        <v>1.43</v>
+      </c>
+      <c r="AT158">
+        <v>2.68</v>
+      </c>
+      <c r="AU158">
+        <v>7</v>
+      </c>
+      <c r="AV158">
+        <v>5</v>
+      </c>
+      <c r="AW158">
+        <v>4</v>
+      </c>
+      <c r="AX158">
+        <v>2</v>
+      </c>
+      <c r="AY158">
+        <v>11</v>
+      </c>
+      <c r="AZ158">
+        <v>7</v>
+      </c>
+      <c r="BA158">
+        <v>10</v>
+      </c>
+      <c r="BB158">
+        <v>3</v>
+      </c>
+      <c r="BC158">
+        <v>13</v>
+      </c>
+      <c r="BD158">
+        <v>2.35</v>
+      </c>
+      <c r="BE158">
+        <v>7</v>
+      </c>
+      <c r="BF158">
+        <v>1.8</v>
+      </c>
+      <c r="BG158">
+        <v>1.46</v>
+      </c>
+      <c r="BH158">
+        <v>2.43</v>
+      </c>
+      <c r="BI158">
+        <v>1.81</v>
+      </c>
+      <c r="BJ158">
+        <v>1.88</v>
+      </c>
+      <c r="BK158">
+        <v>2.32</v>
+      </c>
+      <c r="BL158">
+        <v>1.5</v>
+      </c>
+      <c r="BM158">
+        <v>3.1</v>
+      </c>
+      <c r="BN158">
+        <v>1.28</v>
+      </c>
+      <c r="BO158">
+        <v>4.5</v>
+      </c>
+      <c r="BP158">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7295392</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45423.85416666666</v>
+      </c>
+      <c r="F159">
+        <v>12</v>
+      </c>
+      <c r="G159" t="s">
+        <v>97</v>
+      </c>
+      <c r="H159" t="s">
+        <v>93</v>
+      </c>
+      <c r="I159">
+        <v>2</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+      <c r="K159">
+        <v>3</v>
+      </c>
+      <c r="L159">
+        <v>4</v>
+      </c>
+      <c r="M159">
+        <v>2</v>
+      </c>
+      <c r="N159">
+        <v>6</v>
+      </c>
+      <c r="O159" t="s">
+        <v>222</v>
+      </c>
+      <c r="P159" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q159">
+        <v>2.1</v>
+      </c>
+      <c r="R159">
+        <v>2.3</v>
+      </c>
+      <c r="S159">
+        <v>5.5</v>
+      </c>
+      <c r="T159">
+        <v>1.33</v>
+      </c>
+      <c r="U159">
+        <v>3.25</v>
+      </c>
+      <c r="V159">
+        <v>2.63</v>
+      </c>
+      <c r="W159">
+        <v>1.44</v>
+      </c>
+      <c r="X159">
+        <v>7</v>
+      </c>
+      <c r="Y159">
+        <v>1.1</v>
+      </c>
+      <c r="Z159">
+        <v>1.52</v>
+      </c>
+      <c r="AA159">
+        <v>3.95</v>
+      </c>
+      <c r="AB159">
+        <v>5.3</v>
+      </c>
+      <c r="AC159">
+        <v>1.02</v>
+      </c>
+      <c r="AD159">
+        <v>10</v>
+      </c>
+      <c r="AE159">
+        <v>1.22</v>
+      </c>
+      <c r="AF159">
+        <v>3.8</v>
+      </c>
+      <c r="AG159">
+        <v>1.73</v>
+      </c>
+      <c r="AH159">
+        <v>2.08</v>
+      </c>
+      <c r="AI159">
+        <v>1.91</v>
+      </c>
+      <c r="AJ159">
+        <v>1.91</v>
+      </c>
+      <c r="AK159">
+        <v>1.17</v>
+      </c>
+      <c r="AL159">
+        <v>1.22</v>
+      </c>
+      <c r="AM159">
+        <v>2.38</v>
+      </c>
+      <c r="AN159">
+        <v>2</v>
+      </c>
+      <c r="AO159">
+        <v>0.6</v>
+      </c>
+      <c r="AP159">
+        <v>2.2</v>
+      </c>
+      <c r="AQ159">
+        <v>0.5</v>
+      </c>
+      <c r="AR159">
+        <v>1.78</v>
+      </c>
+      <c r="AS159">
+        <v>1.34</v>
+      </c>
+      <c r="AT159">
+        <v>3.12</v>
+      </c>
+      <c r="AU159">
+        <v>7</v>
+      </c>
+      <c r="AV159">
+        <v>7</v>
+      </c>
+      <c r="AW159">
+        <v>3</v>
+      </c>
+      <c r="AX159">
+        <v>1</v>
+      </c>
+      <c r="AY159">
+        <v>10</v>
+      </c>
+      <c r="AZ159">
+        <v>8</v>
+      </c>
+      <c r="BA159">
+        <v>2</v>
+      </c>
+      <c r="BB159">
+        <v>7</v>
+      </c>
+      <c r="BC159">
+        <v>9</v>
+      </c>
+      <c r="BD159">
+        <v>1.44</v>
+      </c>
+      <c r="BE159">
+        <v>8.5</v>
+      </c>
+      <c r="BF159">
+        <v>3.45</v>
+      </c>
+      <c r="BG159">
+        <v>1.32</v>
+      </c>
+      <c r="BH159">
+        <v>2.88</v>
+      </c>
+      <c r="BI159">
+        <v>1.58</v>
+      </c>
+      <c r="BJ159">
+        <v>2.16</v>
+      </c>
+      <c r="BK159">
+        <v>1.98</v>
+      </c>
+      <c r="BL159">
+        <v>1.71</v>
+      </c>
+      <c r="BM159">
+        <v>2.55</v>
+      </c>
+      <c r="BN159">
+        <v>1.41</v>
+      </c>
+      <c r="BO159">
+        <v>3.4</v>
+      </c>
+      <c r="BP159">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7295395</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45423.85416666666</v>
+      </c>
+      <c r="F160">
+        <v>12</v>
+      </c>
+      <c r="G160" t="s">
+        <v>76</v>
+      </c>
+      <c r="H160" t="s">
+        <v>75</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>2</v>
+      </c>
+      <c r="K160">
+        <v>3</v>
+      </c>
+      <c r="L160">
+        <v>2</v>
+      </c>
+      <c r="M160">
+        <v>3</v>
+      </c>
+      <c r="N160">
+        <v>5</v>
+      </c>
+      <c r="O160" t="s">
+        <v>223</v>
+      </c>
+      <c r="P160" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q160">
+        <v>2.5</v>
+      </c>
+      <c r="R160">
+        <v>2.25</v>
+      </c>
+      <c r="S160">
+        <v>4.33</v>
+      </c>
+      <c r="T160">
+        <v>1.33</v>
+      </c>
+      <c r="U160">
+        <v>3.25</v>
+      </c>
+      <c r="V160">
+        <v>2.63</v>
+      </c>
+      <c r="W160">
+        <v>1.44</v>
+      </c>
+      <c r="X160">
+        <v>6.5</v>
+      </c>
+      <c r="Y160">
+        <v>1.11</v>
+      </c>
+      <c r="Z160">
+        <v>1.82</v>
+      </c>
+      <c r="AA160">
+        <v>3.6</v>
+      </c>
+      <c r="AB160">
+        <v>3.7</v>
+      </c>
+      <c r="AC160">
+        <v>1.02</v>
+      </c>
+      <c r="AD160">
+        <v>10.5</v>
+      </c>
+      <c r="AE160">
+        <v>1.21</v>
+      </c>
+      <c r="AF160">
+        <v>3.75</v>
+      </c>
+      <c r="AG160">
+        <v>1.74</v>
+      </c>
+      <c r="AH160">
+        <v>2.07</v>
+      </c>
+      <c r="AI160">
+        <v>1.7</v>
+      </c>
+      <c r="AJ160">
+        <v>2.05</v>
+      </c>
+      <c r="AK160">
+        <v>1.26</v>
+      </c>
+      <c r="AL160">
+        <v>1.27</v>
+      </c>
+      <c r="AM160">
+        <v>1.91</v>
+      </c>
+      <c r="AN160">
+        <v>1</v>
+      </c>
+      <c r="AO160">
+        <v>1</v>
+      </c>
+      <c r="AP160">
+        <v>0.8</v>
+      </c>
+      <c r="AQ160">
+        <v>1.4</v>
+      </c>
+      <c r="AR160">
+        <v>1.52</v>
+      </c>
+      <c r="AS160">
+        <v>1.24</v>
+      </c>
+      <c r="AT160">
+        <v>2.76</v>
+      </c>
+      <c r="AU160">
+        <v>7</v>
+      </c>
+      <c r="AV160">
+        <v>5</v>
+      </c>
+      <c r="AW160">
+        <v>15</v>
+      </c>
+      <c r="AX160">
+        <v>6</v>
+      </c>
+      <c r="AY160">
+        <v>22</v>
+      </c>
+      <c r="AZ160">
+        <v>11</v>
+      </c>
+      <c r="BA160">
+        <v>7</v>
+      </c>
+      <c r="BB160">
+        <v>6</v>
+      </c>
+      <c r="BC160">
+        <v>13</v>
+      </c>
+      <c r="BD160">
+        <v>1.58</v>
+      </c>
+      <c r="BE160">
+        <v>7.5</v>
+      </c>
+      <c r="BF160">
+        <v>2.8</v>
+      </c>
+      <c r="BG160">
+        <v>1.41</v>
+      </c>
+      <c r="BH160">
+        <v>2.55</v>
+      </c>
+      <c r="BI160">
+        <v>1.75</v>
+      </c>
+      <c r="BJ160">
+        <v>1.94</v>
+      </c>
+      <c r="BK160">
+        <v>2.2</v>
+      </c>
+      <c r="BL160">
+        <v>1.56</v>
+      </c>
+      <c r="BM160">
+        <v>2.9</v>
+      </c>
+      <c r="BN160">
+        <v>1.32</v>
+      </c>
+      <c r="BO160">
+        <v>4</v>
+      </c>
+      <c r="BP160">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7295396</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45423.85416666666</v>
+      </c>
+      <c r="F161">
+        <v>12</v>
+      </c>
+      <c r="G161" t="s">
+        <v>95</v>
+      </c>
+      <c r="H161" t="s">
+        <v>94</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>2</v>
+      </c>
+      <c r="K161">
+        <v>2</v>
+      </c>
+      <c r="L161">
+        <v>2</v>
+      </c>
+      <c r="M161">
+        <v>3</v>
+      </c>
+      <c r="N161">
+        <v>5</v>
+      </c>
+      <c r="O161" t="s">
+        <v>224</v>
+      </c>
+      <c r="P161" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q161">
+        <v>3.4</v>
+      </c>
+      <c r="R161">
+        <v>2.1</v>
+      </c>
+      <c r="S161">
+        <v>3.1</v>
+      </c>
+      <c r="T161">
+        <v>1.4</v>
+      </c>
+      <c r="U161">
+        <v>2.75</v>
+      </c>
+      <c r="V161">
+        <v>2.75</v>
+      </c>
+      <c r="W161">
+        <v>1.4</v>
+      </c>
+      <c r="X161">
+        <v>8</v>
+      </c>
+      <c r="Y161">
+        <v>1.08</v>
+      </c>
+      <c r="Z161">
+        <v>2.7</v>
+      </c>
+      <c r="AA161">
+        <v>3.2</v>
+      </c>
+      <c r="AB161">
+        <v>2.4</v>
+      </c>
+      <c r="AC161">
+        <v>1.05</v>
+      </c>
+      <c r="AD161">
+        <v>9.5</v>
+      </c>
+      <c r="AE161">
+        <v>1.3</v>
+      </c>
+      <c r="AF161">
+        <v>3.35</v>
+      </c>
+      <c r="AG161">
+        <v>1.97</v>
+      </c>
+      <c r="AH161">
+        <v>1.82</v>
+      </c>
+      <c r="AI161">
+        <v>1.8</v>
+      </c>
+      <c r="AJ161">
+        <v>1.95</v>
+      </c>
+      <c r="AK161">
+        <v>1.55</v>
+      </c>
+      <c r="AL161">
+        <v>1.28</v>
+      </c>
+      <c r="AM161">
+        <v>1.45</v>
+      </c>
+      <c r="AN161">
+        <v>2.4</v>
+      </c>
+      <c r="AO161">
+        <v>0.25</v>
+      </c>
+      <c r="AP161">
+        <v>2</v>
+      </c>
+      <c r="AQ161">
+        <v>0.8</v>
+      </c>
+      <c r="AR161">
+        <v>1.51</v>
+      </c>
+      <c r="AS161">
+        <v>1</v>
+      </c>
+      <c r="AT161">
+        <v>2.51</v>
+      </c>
+      <c r="AU161">
+        <v>12</v>
+      </c>
+      <c r="AV161">
+        <v>5</v>
+      </c>
+      <c r="AW161">
+        <v>2</v>
+      </c>
+      <c r="AX161">
+        <v>2</v>
+      </c>
+      <c r="AY161">
+        <v>14</v>
+      </c>
+      <c r="AZ161">
+        <v>7</v>
+      </c>
+      <c r="BA161">
+        <v>6</v>
+      </c>
+      <c r="BB161">
+        <v>4</v>
+      </c>
+      <c r="BC161">
+        <v>10</v>
+      </c>
+      <c r="BD161">
+        <v>2.02</v>
+      </c>
+      <c r="BE161">
+        <v>7</v>
+      </c>
+      <c r="BF161">
+        <v>2.05</v>
+      </c>
+      <c r="BG161">
+        <v>1.34</v>
+      </c>
+      <c r="BH161">
+        <v>2.8</v>
+      </c>
+      <c r="BI161">
+        <v>1.63</v>
+      </c>
+      <c r="BJ161">
+        <v>2.1</v>
+      </c>
+      <c r="BK161">
+        <v>2.04</v>
+      </c>
+      <c r="BL161">
+        <v>1.67</v>
+      </c>
+      <c r="BM161">
+        <v>2.63</v>
+      </c>
+      <c r="BN161">
+        <v>1.38</v>
+      </c>
+      <c r="BO161">
+        <v>3.55</v>
+      </c>
+      <c r="BP161">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7295390</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45423.86458333334</v>
+      </c>
+      <c r="F162">
+        <v>12</v>
+      </c>
+      <c r="G162" t="s">
+        <v>71</v>
+      </c>
+      <c r="H162" t="s">
+        <v>82</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>2</v>
+      </c>
+      <c r="N162">
+        <v>3</v>
+      </c>
+      <c r="O162" t="s">
+        <v>162</v>
+      </c>
+      <c r="P162" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q162">
+        <v>2.5</v>
+      </c>
+      <c r="R162">
+        <v>2.3</v>
+      </c>
+      <c r="S162">
+        <v>4.33</v>
+      </c>
+      <c r="T162">
+        <v>1.33</v>
+      </c>
+      <c r="U162">
+        <v>3.25</v>
+      </c>
+      <c r="V162">
+        <v>2.63</v>
+      </c>
+      <c r="W162">
+        <v>1.44</v>
+      </c>
+      <c r="X162">
+        <v>6.5</v>
+      </c>
+      <c r="Y162">
+        <v>1.11</v>
+      </c>
+      <c r="Z162">
+        <v>1.77</v>
+      </c>
+      <c r="AA162">
+        <v>3.7</v>
+      </c>
+      <c r="AB162">
+        <v>3.8</v>
+      </c>
+      <c r="AC162">
+        <v>1.04</v>
+      </c>
+      <c r="AD162">
+        <v>13.25</v>
+      </c>
+      <c r="AE162">
+        <v>1.24</v>
+      </c>
+      <c r="AF162">
+        <v>4.17</v>
+      </c>
+      <c r="AG162">
+        <v>1.71</v>
+      </c>
+      <c r="AH162">
+        <v>2.1</v>
+      </c>
+      <c r="AI162">
+        <v>1.67</v>
+      </c>
+      <c r="AJ162">
+        <v>2.1</v>
+      </c>
+      <c r="AK162">
+        <v>1.23</v>
+      </c>
+      <c r="AL162">
+        <v>1.3</v>
+      </c>
+      <c r="AM162">
+        <v>1.9</v>
+      </c>
+      <c r="AN162">
+        <v>2</v>
+      </c>
+      <c r="AO162">
+        <v>2.17</v>
+      </c>
+      <c r="AP162">
+        <v>1.71</v>
+      </c>
+      <c r="AQ162">
+        <v>2.29</v>
+      </c>
+      <c r="AR162">
+        <v>1.7</v>
+      </c>
+      <c r="AS162">
+        <v>1.44</v>
+      </c>
+      <c r="AT162">
+        <v>3.14</v>
+      </c>
+      <c r="AU162">
+        <v>5</v>
+      </c>
+      <c r="AV162">
+        <v>6</v>
+      </c>
+      <c r="AW162">
+        <v>7</v>
+      </c>
+      <c r="AX162">
+        <v>2</v>
+      </c>
+      <c r="AY162">
+        <v>12</v>
+      </c>
+      <c r="AZ162">
+        <v>8</v>
+      </c>
+      <c r="BA162">
+        <v>4</v>
+      </c>
+      <c r="BB162">
+        <v>4</v>
+      </c>
+      <c r="BC162">
+        <v>8</v>
+      </c>
+      <c r="BD162">
+        <v>1.58</v>
+      </c>
+      <c r="BE162">
+        <v>7.5</v>
+      </c>
+      <c r="BF162">
+        <v>2.8</v>
+      </c>
+      <c r="BG162">
+        <v>1.29</v>
+      </c>
+      <c r="BH162">
+        <v>3.05</v>
+      </c>
+      <c r="BI162">
+        <v>1.54</v>
+      </c>
+      <c r="BJ162">
+        <v>2.25</v>
+      </c>
+      <c r="BK162">
+        <v>1.92</v>
+      </c>
+      <c r="BL162">
+        <v>1.77</v>
+      </c>
+      <c r="BM162">
+        <v>2.43</v>
+      </c>
+      <c r="BN162">
+        <v>1.45</v>
+      </c>
+      <c r="BO162">
+        <v>3.2</v>
+      </c>
+      <c r="BP162">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7295397</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45423.89583333334</v>
+      </c>
+      <c r="F163">
+        <v>12</v>
+      </c>
+      <c r="G163" t="s">
+        <v>78</v>
+      </c>
+      <c r="H163" t="s">
+        <v>77</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <v>2</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+      <c r="N163">
+        <v>3</v>
+      </c>
+      <c r="O163" t="s">
+        <v>225</v>
+      </c>
+      <c r="P163" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q163">
+        <v>2.6</v>
+      </c>
+      <c r="R163">
+        <v>2.2</v>
+      </c>
+      <c r="S163">
+        <v>4.33</v>
+      </c>
+      <c r="T163">
+        <v>1.4</v>
+      </c>
+      <c r="U163">
+        <v>2.75</v>
+      </c>
+      <c r="V163">
+        <v>2.75</v>
+      </c>
+      <c r="W163">
+        <v>1.4</v>
+      </c>
+      <c r="X163">
+        <v>8</v>
+      </c>
+      <c r="Y163">
+        <v>1.08</v>
+      </c>
+      <c r="Z163">
+        <v>1.87</v>
+      </c>
+      <c r="AA163">
+        <v>3.45</v>
+      </c>
+      <c r="AB163">
+        <v>3.65</v>
+      </c>
+      <c r="AC163">
+        <v>1.05</v>
+      </c>
+      <c r="AD163">
+        <v>11</v>
+      </c>
+      <c r="AE163">
+        <v>1.32</v>
+      </c>
+      <c r="AF163">
+        <v>3.4</v>
+      </c>
+      <c r="AG163">
+        <v>1.93</v>
+      </c>
+      <c r="AH163">
+        <v>1.85</v>
+      </c>
+      <c r="AI163">
+        <v>1.8</v>
+      </c>
+      <c r="AJ163">
+        <v>1.95</v>
+      </c>
+      <c r="AK163">
+        <v>1.26</v>
+      </c>
+      <c r="AL163">
+        <v>1.26</v>
+      </c>
+      <c r="AM163">
+        <v>1.88</v>
+      </c>
+      <c r="AN163">
+        <v>1.4</v>
+      </c>
+      <c r="AO163">
+        <v>1</v>
+      </c>
+      <c r="AP163">
+        <v>1.67</v>
+      </c>
+      <c r="AQ163">
+        <v>0.83</v>
+      </c>
+      <c r="AR163">
+        <v>1.68</v>
+      </c>
+      <c r="AS163">
+        <v>0.68</v>
+      </c>
+      <c r="AT163">
+        <v>2.36</v>
+      </c>
+      <c r="AU163">
+        <v>4</v>
+      </c>
+      <c r="AV163">
+        <v>6</v>
+      </c>
+      <c r="AW163">
+        <v>2</v>
+      </c>
+      <c r="AX163">
+        <v>7</v>
+      </c>
+      <c r="AY163">
+        <v>6</v>
+      </c>
+      <c r="AZ163">
+        <v>13</v>
+      </c>
+      <c r="BA163">
+        <v>0</v>
+      </c>
+      <c r="BB163">
+        <v>8</v>
+      </c>
+      <c r="BC163">
+        <v>8</v>
+      </c>
+      <c r="BD163">
+        <v>1.64</v>
+      </c>
+      <c r="BE163">
+        <v>7.5</v>
+      </c>
+      <c r="BF163">
+        <v>2.65</v>
+      </c>
+      <c r="BG163">
+        <v>1.32</v>
+      </c>
+      <c r="BH163">
+        <v>2.88</v>
+      </c>
+      <c r="BI163">
+        <v>1.6</v>
+      </c>
+      <c r="BJ163">
+        <v>2.15</v>
+      </c>
+      <c r="BK163">
+        <v>1.98</v>
+      </c>
+      <c r="BL163">
+        <v>1.71</v>
+      </c>
+      <c r="BM163">
+        <v>2.55</v>
+      </c>
+      <c r="BN163">
+        <v>1.41</v>
+      </c>
+      <c r="BO163">
+        <v>3.4</v>
+      </c>
+      <c r="BP163">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7295398</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45423.89583333334</v>
+      </c>
+      <c r="F164">
+        <v>12</v>
+      </c>
+      <c r="G164" t="s">
+        <v>89</v>
+      </c>
+      <c r="H164" t="s">
+        <v>79</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>2</v>
+      </c>
+      <c r="N164">
+        <v>3</v>
+      </c>
+      <c r="O164" t="s">
+        <v>226</v>
+      </c>
+      <c r="P164" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q164">
+        <v>2.75</v>
+      </c>
+      <c r="R164">
+        <v>2.1</v>
+      </c>
+      <c r="S164">
+        <v>4</v>
+      </c>
+      <c r="T164">
+        <v>1.4</v>
+      </c>
+      <c r="U164">
+        <v>2.75</v>
+      </c>
+      <c r="V164">
+        <v>3</v>
+      </c>
+      <c r="W164">
+        <v>1.36</v>
+      </c>
+      <c r="X164">
+        <v>8</v>
+      </c>
+      <c r="Y164">
+        <v>1.08</v>
+      </c>
+      <c r="Z164">
+        <v>1.97</v>
+      </c>
+      <c r="AA164">
+        <v>3.35</v>
+      </c>
+      <c r="AB164">
+        <v>3.4</v>
+      </c>
+      <c r="AC164">
+        <v>1.07</v>
+      </c>
+      <c r="AD164">
+        <v>9.5</v>
+      </c>
+      <c r="AE164">
+        <v>1.33</v>
+      </c>
+      <c r="AF164">
+        <v>3.3</v>
+      </c>
+      <c r="AG164">
+        <v>1.95</v>
+      </c>
+      <c r="AH164">
+        <v>1.83</v>
+      </c>
+      <c r="AI164">
+        <v>1.8</v>
+      </c>
+      <c r="AJ164">
+        <v>1.95</v>
+      </c>
+      <c r="AK164">
+        <v>1.3</v>
+      </c>
+      <c r="AL164">
+        <v>1.3</v>
+      </c>
+      <c r="AM164">
+        <v>1.75</v>
+      </c>
+      <c r="AN164">
+        <v>1</v>
+      </c>
+      <c r="AO164">
+        <v>1.5</v>
+      </c>
+      <c r="AP164">
+        <v>0.86</v>
+      </c>
+      <c r="AQ164">
+        <v>1.8</v>
+      </c>
+      <c r="AR164">
+        <v>1.45</v>
+      </c>
+      <c r="AS164">
+        <v>0.82</v>
+      </c>
+      <c r="AT164">
+        <v>2.27</v>
+      </c>
+      <c r="AU164">
+        <v>7</v>
+      </c>
+      <c r="AV164">
+        <v>8</v>
+      </c>
+      <c r="AW164">
+        <v>3</v>
+      </c>
+      <c r="AX164">
+        <v>4</v>
+      </c>
+      <c r="AY164">
+        <v>10</v>
+      </c>
+      <c r="AZ164">
+        <v>12</v>
+      </c>
+      <c r="BA164">
+        <v>7</v>
+      </c>
+      <c r="BB164">
+        <v>3</v>
+      </c>
+      <c r="BC164">
+        <v>10</v>
+      </c>
+      <c r="BD164">
+        <v>1.68</v>
+      </c>
+      <c r="BE164">
+        <v>7.5</v>
+      </c>
+      <c r="BF164">
+        <v>2.55</v>
+      </c>
+      <c r="BG164">
+        <v>1.33</v>
+      </c>
+      <c r="BH164">
+        <v>2.85</v>
+      </c>
+      <c r="BI164">
+        <v>1.61</v>
+      </c>
+      <c r="BJ164">
+        <v>2.12</v>
+      </c>
+      <c r="BK164">
+        <v>2</v>
+      </c>
+      <c r="BL164">
+        <v>1.68</v>
+      </c>
+      <c r="BM164">
+        <v>2.6</v>
+      </c>
+      <c r="BN164">
+        <v>1.4</v>
+      </c>
+      <c r="BO164">
+        <v>3.5</v>
+      </c>
+      <c r="BP164">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7295399</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45423.89583333334</v>
+      </c>
+      <c r="F165">
+        <v>12</v>
+      </c>
+      <c r="G165" t="s">
+        <v>80</v>
+      </c>
+      <c r="H165" t="s">
+        <v>88</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>3</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+      <c r="N165">
+        <v>4</v>
+      </c>
+      <c r="O165" t="s">
+        <v>227</v>
+      </c>
+      <c r="P165" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q165">
+        <v>2.3</v>
+      </c>
+      <c r="R165">
+        <v>2.38</v>
+      </c>
+      <c r="S165">
+        <v>4.5</v>
+      </c>
+      <c r="T165">
+        <v>1.3</v>
+      </c>
+      <c r="U165">
+        <v>3.4</v>
+      </c>
+      <c r="V165">
+        <v>2.5</v>
+      </c>
+      <c r="W165">
+        <v>1.5</v>
+      </c>
+      <c r="X165">
+        <v>6</v>
+      </c>
+      <c r="Y165">
+        <v>1.13</v>
+      </c>
+      <c r="Z165">
+        <v>1.72</v>
+      </c>
+      <c r="AA165">
+        <v>3.7</v>
+      </c>
+      <c r="AB165">
+        <v>4</v>
+      </c>
+      <c r="AC165">
+        <v>1.03</v>
+      </c>
+      <c r="AD165">
+        <v>15</v>
+      </c>
+      <c r="AE165">
+        <v>1.22</v>
+      </c>
+      <c r="AF165">
+        <v>4.33</v>
+      </c>
+      <c r="AG165">
+        <v>1.68</v>
+      </c>
+      <c r="AH165">
+        <v>2.16</v>
+      </c>
+      <c r="AI165">
+        <v>1.62</v>
+      </c>
+      <c r="AJ165">
+        <v>2.2</v>
+      </c>
+      <c r="AK165">
+        <v>1.22</v>
+      </c>
+      <c r="AL165">
+        <v>1.22</v>
+      </c>
+      <c r="AM165">
+        <v>2.1</v>
+      </c>
+      <c r="AN165">
+        <v>1.8</v>
+      </c>
+      <c r="AO165">
+        <v>0.6</v>
+      </c>
+      <c r="AP165">
+        <v>2</v>
+      </c>
+      <c r="AQ165">
+        <v>0.5</v>
+      </c>
+      <c r="AR165">
+        <v>1.69</v>
+      </c>
+      <c r="AS165">
+        <v>1.07</v>
+      </c>
+      <c r="AT165">
+        <v>2.76</v>
+      </c>
+      <c r="AU165">
+        <v>8</v>
+      </c>
+      <c r="AV165">
+        <v>6</v>
+      </c>
+      <c r="AW165">
+        <v>15</v>
+      </c>
+      <c r="AX165">
+        <v>6</v>
+      </c>
+      <c r="AY165">
+        <v>23</v>
+      </c>
+      <c r="AZ165">
+        <v>12</v>
+      </c>
+      <c r="BA165">
+        <v>5</v>
+      </c>
+      <c r="BB165">
+        <v>3</v>
+      </c>
+      <c r="BC165">
+        <v>8</v>
+      </c>
+      <c r="BD165">
+        <v>1.52</v>
+      </c>
+      <c r="BE165">
+        <v>8.5</v>
+      </c>
+      <c r="BF165">
+        <v>3</v>
+      </c>
+      <c r="BG165">
+        <v>1.18</v>
+      </c>
+      <c r="BH165">
+        <v>4</v>
+      </c>
+      <c r="BI165">
+        <v>1.33</v>
+      </c>
+      <c r="BJ165">
+        <v>2.85</v>
+      </c>
+      <c r="BK165">
+        <v>1.58</v>
+      </c>
+      <c r="BL165">
+        <v>2.17</v>
+      </c>
+      <c r="BM165">
+        <v>1.95</v>
+      </c>
+      <c r="BN165">
+        <v>1.74</v>
+      </c>
+      <c r="BO165">
+        <v>2.45</v>
+      </c>
+      <c r="BP165">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7295400</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45423.9375</v>
+      </c>
+      <c r="F166">
+        <v>12</v>
+      </c>
+      <c r="G166" t="s">
+        <v>90</v>
+      </c>
+      <c r="H166" t="s">
+        <v>91</v>
+      </c>
+      <c r="I166">
+        <v>2</v>
+      </c>
+      <c r="J166">
+        <v>2</v>
+      </c>
+      <c r="K166">
+        <v>4</v>
+      </c>
+      <c r="L166">
+        <v>2</v>
+      </c>
+      <c r="M166">
+        <v>3</v>
+      </c>
+      <c r="N166">
+        <v>5</v>
+      </c>
+      <c r="O166" t="s">
+        <v>228</v>
+      </c>
+      <c r="P166" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q166">
+        <v>2.3</v>
+      </c>
+      <c r="R166">
+        <v>2.38</v>
+      </c>
+      <c r="S166">
+        <v>4.5</v>
+      </c>
+      <c r="T166">
+        <v>1.3</v>
+      </c>
+      <c r="U166">
+        <v>3.4</v>
+      </c>
+      <c r="V166">
+        <v>2.5</v>
+      </c>
+      <c r="W166">
+        <v>1.5</v>
+      </c>
+      <c r="X166">
+        <v>6</v>
+      </c>
+      <c r="Y166">
+        <v>1.13</v>
+      </c>
+      <c r="Z166">
+        <v>1.66</v>
+      </c>
+      <c r="AA166">
+        <v>3.85</v>
+      </c>
+      <c r="AB166">
+        <v>4.25</v>
+      </c>
+      <c r="AC166">
+        <v>1.03</v>
+      </c>
+      <c r="AD166">
+        <v>17</v>
+      </c>
+      <c r="AE166">
+        <v>1.2</v>
+      </c>
+      <c r="AF166">
+        <v>4.5</v>
+      </c>
+      <c r="AG166">
+        <v>1.64</v>
+      </c>
+      <c r="AH166">
+        <v>2.23</v>
+      </c>
+      <c r="AI166">
+        <v>1.67</v>
+      </c>
+      <c r="AJ166">
+        <v>2.1</v>
+      </c>
+      <c r="AK166">
+        <v>1.22</v>
+      </c>
+      <c r="AL166">
+        <v>1.2</v>
+      </c>
+      <c r="AM166">
+        <v>2.15</v>
+      </c>
+      <c r="AN166">
+        <v>1.75</v>
+      </c>
+      <c r="AO166">
+        <v>0.17</v>
+      </c>
+      <c r="AP166">
+        <v>1.4</v>
+      </c>
+      <c r="AQ166">
+        <v>0.57</v>
+      </c>
+      <c r="AR166">
+        <v>1.32</v>
+      </c>
+      <c r="AS166">
+        <v>1.34</v>
+      </c>
+      <c r="AT166">
+        <v>2.66</v>
+      </c>
+      <c r="AU166">
+        <v>7</v>
+      </c>
+      <c r="AV166">
+        <v>5</v>
+      </c>
+      <c r="AW166">
+        <v>4</v>
+      </c>
+      <c r="AX166">
+        <v>2</v>
+      </c>
+      <c r="AY166">
+        <v>11</v>
+      </c>
+      <c r="AZ166">
+        <v>7</v>
+      </c>
+      <c r="BA166">
+        <v>7</v>
+      </c>
+      <c r="BB166">
+        <v>5</v>
+      </c>
+      <c r="BC166">
+        <v>12</v>
+      </c>
+      <c r="BD166">
+        <v>1.47</v>
+      </c>
+      <c r="BE166">
+        <v>8.5</v>
+      </c>
+      <c r="BF166">
+        <v>3.2</v>
+      </c>
+      <c r="BG166">
+        <v>1.21</v>
+      </c>
+      <c r="BH166">
+        <v>3.6</v>
+      </c>
+      <c r="BI166">
+        <v>1.4</v>
+      </c>
+      <c r="BJ166">
+        <v>2.6</v>
+      </c>
+      <c r="BK166">
+        <v>1.68</v>
+      </c>
+      <c r="BL166">
+        <v>2</v>
+      </c>
+      <c r="BM166">
+        <v>2.1</v>
+      </c>
+      <c r="BN166">
+        <v>1.63</v>
+      </c>
+      <c r="BO166">
+        <v>2.65</v>
+      </c>
+      <c r="BP166">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7295401</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45423.97916666666</v>
+      </c>
+      <c r="F167">
+        <v>12</v>
+      </c>
+      <c r="G167" t="s">
+        <v>84</v>
+      </c>
+      <c r="H167" t="s">
+        <v>86</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>2</v>
+      </c>
+      <c r="K167">
+        <v>2</v>
+      </c>
+      <c r="L167">
+        <v>2</v>
+      </c>
+      <c r="M167">
+        <v>2</v>
+      </c>
+      <c r="N167">
+        <v>4</v>
+      </c>
+      <c r="O167" t="s">
+        <v>229</v>
+      </c>
+      <c r="P167" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q167">
+        <v>2.5</v>
+      </c>
+      <c r="R167">
+        <v>2.5</v>
+      </c>
+      <c r="S167">
+        <v>3.75</v>
+      </c>
+      <c r="T167">
+        <v>1.25</v>
+      </c>
+      <c r="U167">
+        <v>3.75</v>
+      </c>
+      <c r="V167">
+        <v>2.2</v>
+      </c>
+      <c r="W167">
+        <v>1.62</v>
+      </c>
+      <c r="X167">
+        <v>5</v>
+      </c>
+      <c r="Y167">
+        <v>1.17</v>
+      </c>
+      <c r="Z167">
+        <v>1.91</v>
+      </c>
+      <c r="AA167">
+        <v>3.8</v>
+      </c>
+      <c r="AB167">
+        <v>3.2</v>
+      </c>
+      <c r="AC167">
+        <v>1.01</v>
+      </c>
+      <c r="AD167">
+        <v>2.66</v>
+      </c>
+      <c r="AE167">
+        <v>1.13</v>
+      </c>
+      <c r="AF167">
+        <v>5</v>
+      </c>
+      <c r="AG167">
+        <v>1.53</v>
+      </c>
+      <c r="AH167">
+        <v>2.4</v>
+      </c>
+      <c r="AI167">
+        <v>1.44</v>
+      </c>
+      <c r="AJ167">
+        <v>2.63</v>
+      </c>
+      <c r="AK167">
+        <v>1.32</v>
+      </c>
+      <c r="AL167">
+        <v>1.2</v>
+      </c>
+      <c r="AM167">
+        <v>1.88</v>
+      </c>
+      <c r="AN167">
+        <v>2</v>
+      </c>
+      <c r="AO167">
+        <v>1.83</v>
+      </c>
+      <c r="AP167">
+        <v>1.8</v>
+      </c>
+      <c r="AQ167">
+        <v>1.71</v>
+      </c>
+      <c r="AR167">
+        <v>1.69</v>
+      </c>
+      <c r="AS167">
+        <v>1.53</v>
+      </c>
+      <c r="AT167">
+        <v>3.22</v>
+      </c>
+      <c r="AU167">
+        <v>7</v>
+      </c>
+      <c r="AV167">
+        <v>5</v>
+      </c>
+      <c r="AW167">
+        <v>7</v>
+      </c>
+      <c r="AX167">
+        <v>4</v>
+      </c>
+      <c r="AY167">
+        <v>14</v>
+      </c>
+      <c r="AZ167">
+        <v>9</v>
+      </c>
+      <c r="BA167">
+        <v>12</v>
+      </c>
+      <c r="BB167">
+        <v>3</v>
+      </c>
+      <c r="BC167">
+        <v>15</v>
+      </c>
+      <c r="BD167">
+        <v>1.61</v>
+      </c>
+      <c r="BE167">
+        <v>8.5</v>
+      </c>
+      <c r="BF167">
+        <v>2.65</v>
+      </c>
+      <c r="BG167">
+        <v>1.12</v>
+      </c>
+      <c r="BH167">
+        <v>4.95</v>
+      </c>
+      <c r="BI167">
+        <v>1.29</v>
+      </c>
+      <c r="BJ167">
+        <v>3.05</v>
+      </c>
+      <c r="BK167">
+        <v>1.52</v>
+      </c>
+      <c r="BL167">
+        <v>2.3</v>
+      </c>
+      <c r="BM167">
+        <v>1.86</v>
+      </c>
+      <c r="BN167">
+        <v>1.83</v>
+      </c>
+      <c r="BO167">
+        <v>2.33</v>
+      </c>
+      <c r="BP167">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7295402</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45423.97916666666</v>
+      </c>
+      <c r="F168">
+        <v>12</v>
+      </c>
+      <c r="G168" t="s">
+        <v>72</v>
+      </c>
+      <c r="H168" t="s">
+        <v>87</v>
+      </c>
+      <c r="I168">
+        <v>2</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>2</v>
+      </c>
+      <c r="L168">
+        <v>3</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>3</v>
+      </c>
+      <c r="O168" t="s">
+        <v>230</v>
+      </c>
+      <c r="P168" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q168">
+        <v>2.1</v>
+      </c>
+      <c r="R168">
+        <v>2.5</v>
+      </c>
+      <c r="S168">
+        <v>4.75</v>
+      </c>
+      <c r="T168">
+        <v>1.29</v>
+      </c>
+      <c r="U168">
+        <v>3.5</v>
+      </c>
+      <c r="V168">
+        <v>2.38</v>
+      </c>
+      <c r="W168">
+        <v>1.53</v>
+      </c>
+      <c r="X168">
+        <v>5.5</v>
+      </c>
+      <c r="Y168">
+        <v>1.14</v>
+      </c>
+      <c r="Z168">
+        <v>1.54</v>
+      </c>
+      <c r="AA168">
+        <v>4.1</v>
+      </c>
+      <c r="AB168">
+        <v>4.9</v>
+      </c>
+      <c r="AC168">
+        <v>1.02</v>
+      </c>
+      <c r="AD168">
+        <v>17</v>
+      </c>
+      <c r="AE168">
+        <v>1.19</v>
+      </c>
+      <c r="AF168">
+        <v>4.75</v>
+      </c>
+      <c r="AG168">
+        <v>1.58</v>
+      </c>
+      <c r="AH168">
+        <v>2.33</v>
+      </c>
+      <c r="AI168">
+        <v>1.62</v>
+      </c>
+      <c r="AJ168">
+        <v>2.2</v>
+      </c>
+      <c r="AK168">
+        <v>1.18</v>
+      </c>
+      <c r="AL168">
+        <v>1.19</v>
+      </c>
+      <c r="AM168">
+        <v>2.35</v>
+      </c>
+      <c r="AN168">
+        <v>2.33</v>
+      </c>
+      <c r="AO168">
+        <v>2.5</v>
+      </c>
+      <c r="AP168">
+        <v>2.43</v>
+      </c>
+      <c r="AQ168">
+        <v>2</v>
+      </c>
+      <c r="AR168">
+        <v>2.08</v>
+      </c>
+      <c r="AS168">
+        <v>1.09</v>
+      </c>
+      <c r="AT168">
+        <v>3.17</v>
+      </c>
+      <c r="AU168">
+        <v>8</v>
+      </c>
+      <c r="AV168">
+        <v>4</v>
+      </c>
+      <c r="AW168">
+        <v>3</v>
+      </c>
+      <c r="AX168">
+        <v>5</v>
+      </c>
+      <c r="AY168">
+        <v>11</v>
+      </c>
+      <c r="AZ168">
+        <v>9</v>
+      </c>
+      <c r="BA168">
+        <v>5</v>
+      </c>
+      <c r="BB168">
+        <v>5</v>
+      </c>
+      <c r="BC168">
+        <v>10</v>
+      </c>
+      <c r="BD168">
+        <v>1.41</v>
+      </c>
+      <c r="BE168">
+        <v>9</v>
+      </c>
+      <c r="BF168">
+        <v>3.55</v>
+      </c>
+      <c r="BG168">
+        <v>1.18</v>
+      </c>
+      <c r="BH168">
+        <v>4</v>
+      </c>
+      <c r="BI168">
+        <v>1.33</v>
+      </c>
+      <c r="BJ168">
+        <v>2.85</v>
+      </c>
+      <c r="BK168">
+        <v>1.58</v>
+      </c>
+      <c r="BL168">
+        <v>2.18</v>
+      </c>
+      <c r="BM168">
+        <v>1.94</v>
+      </c>
+      <c r="BN168">
+        <v>1.75</v>
+      </c>
+      <c r="BO168">
+        <v>2.43</v>
+      </c>
+      <c r="BP168">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="325">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -709,6 +709,9 @@
     <t>['18', '36', '57']</t>
   </si>
   <si>
+    <t>['15']</t>
+  </si>
+  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -928,9 +931,6 @@
     <t>['34', '89']</t>
   </si>
   <si>
-    <t>['15']</t>
-  </si>
-  <si>
     <t>['32', '67', '83', '88']</t>
   </si>
   <si>
@@ -986,6 +986,9 @@
   </si>
   <si>
     <t>['20', '40']</t>
+  </si>
+  <si>
+    <t>['19', '50']</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP168"/>
+  <dimension ref="A1:BP169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1684,10 +1687,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ2">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1890,10 +1893,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.71</v>
+        <v>1.36</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>1.09</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2018,7 +2021,7 @@
         <v>101</v>
       </c>
       <c r="P4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -2096,10 +2099,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.43</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>0.67</v>
+        <v>1.08</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2302,10 +2305,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ5">
-        <v>0.8</v>
+        <v>1.42</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2430,7 +2433,7 @@
         <v>103</v>
       </c>
       <c r="P6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2508,10 +2511,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ6">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2714,10 +2717,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.83</v>
+        <v>1.09</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2842,7 +2845,7 @@
         <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2920,10 +2923,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.8</v>
+        <v>1.27</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3048,7 +3051,7 @@
         <v>106</v>
       </c>
       <c r="P9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3126,10 +3129,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3254,7 +3257,7 @@
         <v>107</v>
       </c>
       <c r="P10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3332,10 +3335,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0.57</v>
+        <v>0.83</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3538,10 +3541,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3666,7 +3669,7 @@
         <v>109</v>
       </c>
       <c r="P12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3744,10 +3747,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="AQ12">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3872,7 +3875,7 @@
         <v>110</v>
       </c>
       <c r="P13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3950,10 +3953,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.25</v>
+        <v>0.83</v>
       </c>
       <c r="AQ13">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4156,10 +4159,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
-        <v>1.17</v>
+        <v>1.58</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4362,10 +4365,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4490,7 +4493,7 @@
         <v>111</v>
       </c>
       <c r="P16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4565,13 +4568,13 @@
         <v>0</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ16">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4768,16 +4771,16 @@
         <v>1.49</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
-        <v>0.75</v>
+        <v>1.36</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4974,16 +4977,16 @@
         <v>1.41</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ18">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5180,16 +5183,16 @@
         <v>2.15</v>
       </c>
       <c r="AN19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ19">
-        <v>1.4</v>
+        <v>1.09</v>
       </c>
       <c r="AR19">
         <v>1.77</v>
@@ -5314,7 +5317,7 @@
         <v>115</v>
       </c>
       <c r="P20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -5389,13 +5392,13 @@
         <v>0</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="AQ20">
-        <v>0.2</v>
+        <v>1.42</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5520,7 +5523,7 @@
         <v>116</v>
       </c>
       <c r="P21" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5592,16 +5595,16 @@
         <v>1.62</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.17</v>
+        <v>0.83</v>
       </c>
       <c r="AQ21">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5726,7 +5729,7 @@
         <v>117</v>
       </c>
       <c r="P22" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5804,10 +5807,10 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR22">
         <v>2.26</v>
@@ -5932,7 +5935,7 @@
         <v>118</v>
       </c>
       <c r="P23" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6010,10 +6013,10 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="AQ23">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="AR23">
         <v>1.42</v>
@@ -6210,16 +6213,16 @@
         <v>1.72</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP24">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="AQ24">
-        <v>1.67</v>
+        <v>1.27</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6422,10 +6425,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="AQ25">
-        <v>0.8</v>
+        <v>1.42</v>
       </c>
       <c r="AR25">
         <v>1.45</v>
@@ -6550,7 +6553,7 @@
         <v>121</v>
       </c>
       <c r="P26" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6625,13 +6628,13 @@
         <v>0</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ26">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6756,7 +6759,7 @@
         <v>122</v>
       </c>
       <c r="P27" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6831,13 +6834,13 @@
         <v>3</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.25</v>
+        <v>0.83</v>
       </c>
       <c r="AQ27">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR27">
         <v>1.01</v>
@@ -6962,7 +6965,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7037,13 +7040,13 @@
         <v>0</v>
       </c>
       <c r="AO28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.2</v>
+        <v>0.83</v>
       </c>
       <c r="AQ28">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -7246,10 +7249,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="AQ29">
-        <v>0.83</v>
+        <v>1.33</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7452,10 +7455,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>0.8</v>
+        <v>0.64</v>
       </c>
       <c r="AQ30">
-        <v>1.17</v>
+        <v>1.58</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7580,7 +7583,7 @@
         <v>123</v>
       </c>
       <c r="P31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q31">
         <v>2.37</v>
@@ -7655,13 +7658,13 @@
         <v>0</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP31">
-        <v>1.86</v>
+        <v>1.42</v>
       </c>
       <c r="AQ31">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -7858,16 +7861,16 @@
         <v>1.67</v>
       </c>
       <c r="AN32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="AQ32">
-        <v>0.2</v>
+        <v>1.42</v>
       </c>
       <c r="AR32">
         <v>0</v>
@@ -7992,7 +7995,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -8070,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.43</v>
+        <v>1.09</v>
       </c>
       <c r="AQ33">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="AR33">
         <v>0</v>
@@ -8198,7 +8201,7 @@
         <v>126</v>
       </c>
       <c r="P34" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -8270,16 +8273,16 @@
         <v>2.45</v>
       </c>
       <c r="AN34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.71</v>
+        <v>1.36</v>
       </c>
       <c r="AQ34">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="AR34">
         <v>1.35</v>
@@ -8476,16 +8479,16 @@
         <v>2.25</v>
       </c>
       <c r="AN35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO35">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ35">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>0</v>
@@ -8610,7 +8613,7 @@
         <v>128</v>
       </c>
       <c r="P36" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8682,16 +8685,16 @@
         <v>1.87</v>
       </c>
       <c r="AN36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP36">
-        <v>0.83</v>
+        <v>1.09</v>
       </c>
       <c r="AQ36">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR36">
         <v>1.61</v>
@@ -8816,7 +8819,7 @@
         <v>129</v>
       </c>
       <c r="P37" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -8888,16 +8891,16 @@
         <v>1.7</v>
       </c>
       <c r="AN37">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="AQ37">
-        <v>0.8</v>
+        <v>1.45</v>
       </c>
       <c r="AR37">
         <v>1.02</v>
@@ -9022,7 +9025,7 @@
         <v>130</v>
       </c>
       <c r="P38" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9094,16 +9097,16 @@
         <v>2.12</v>
       </c>
       <c r="AN38">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO38">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ38">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR38">
         <v>1.58</v>
@@ -9300,16 +9303,16 @@
         <v>2.25</v>
       </c>
       <c r="AN39">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO39">
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>2.43</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR39">
         <v>1.7</v>
@@ -9434,7 +9437,7 @@
         <v>104</v>
       </c>
       <c r="P40" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9509,13 +9512,13 @@
         <v>0</v>
       </c>
       <c r="AO40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.2</v>
+        <v>0.83</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="AR40">
         <v>1.38</v>
@@ -9640,7 +9643,7 @@
         <v>131</v>
       </c>
       <c r="P41" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -9715,13 +9718,13 @@
         <v>1</v>
       </c>
       <c r="AO41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR41">
         <v>0.83</v>
@@ -9918,16 +9921,16 @@
         <v>1.95</v>
       </c>
       <c r="AN42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR42">
         <v>1.46</v>
@@ -10052,7 +10055,7 @@
         <v>132</v>
       </c>
       <c r="P43" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q43">
         <v>2.05</v>
@@ -10124,16 +10127,16 @@
         <v>2.4</v>
       </c>
       <c r="AN43">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO43">
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR43">
         <v>1.61</v>
@@ -10258,7 +10261,7 @@
         <v>133</v>
       </c>
       <c r="P44" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10330,16 +10333,16 @@
         <v>1.83</v>
       </c>
       <c r="AN44">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO44">
         <v>2.33</v>
       </c>
       <c r="AP44">
-        <v>1.17</v>
+        <v>0.83</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR44">
         <v>0.84</v>
@@ -10464,7 +10467,7 @@
         <v>134</v>
       </c>
       <c r="P45" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10536,16 +10539,16 @@
         <v>1.48</v>
       </c>
       <c r="AN45">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AO45">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AP45">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ45">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AR45">
         <v>1.94</v>
@@ -10742,16 +10745,16 @@
         <v>2.3</v>
       </c>
       <c r="AN46">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO46">
+        <v>1.33</v>
+      </c>
+      <c r="AP46">
+        <v>1.08</v>
+      </c>
+      <c r="AQ46">
         <v>1.5</v>
-      </c>
-      <c r="AP46">
-        <v>1.2</v>
-      </c>
-      <c r="AQ46">
-        <v>1.57</v>
       </c>
       <c r="AR46">
         <v>1.94</v>
@@ -10948,16 +10951,16 @@
         <v>1.8</v>
       </c>
       <c r="AN47">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO47">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AP47">
-        <v>1.71</v>
+        <v>1.36</v>
       </c>
       <c r="AQ47">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="AR47">
         <v>1.86</v>
@@ -11157,13 +11160,13 @@
         <v>0</v>
       </c>
       <c r="AO48">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AP48">
-        <v>1.86</v>
+        <v>1.42</v>
       </c>
       <c r="AQ48">
-        <v>1.17</v>
+        <v>1.58</v>
       </c>
       <c r="AR48">
         <v>1.35</v>
@@ -11288,7 +11291,7 @@
         <v>138</v>
       </c>
       <c r="P49" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11360,16 +11363,16 @@
         <v>1.51</v>
       </c>
       <c r="AN49">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AO49">
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="AQ49">
-        <v>1.67</v>
+        <v>1.27</v>
       </c>
       <c r="AR49">
         <v>0.89</v>
@@ -11494,7 +11497,7 @@
         <v>139</v>
       </c>
       <c r="P50" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11566,16 +11569,16 @@
         <v>1.6</v>
       </c>
       <c r="AN50">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AQ50">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="AR50">
         <v>1.92</v>
@@ -11775,13 +11778,13 @@
         <v>0.5</v>
       </c>
       <c r="AO51">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP51">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="AQ51">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR51">
         <v>1.66</v>
@@ -11984,10 +11987,10 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="AQ52">
-        <v>0.57</v>
+        <v>0.83</v>
       </c>
       <c r="AR52">
         <v>1.83</v>
@@ -12184,16 +12187,16 @@
         <v>1.43</v>
       </c>
       <c r="AN53">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AO53">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP53">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AQ53">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR53">
         <v>1.47</v>
@@ -12393,13 +12396,13 @@
         <v>1</v>
       </c>
       <c r="AO54">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
-        <v>0.2</v>
+        <v>1.42</v>
       </c>
       <c r="AR54">
         <v>1.06</v>
@@ -12524,7 +12527,7 @@
         <v>144</v>
       </c>
       <c r="P55" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12596,16 +12599,16 @@
         <v>1.9</v>
       </c>
       <c r="AN55">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AO55">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP55">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ55">
-        <v>0.8</v>
+        <v>1.45</v>
       </c>
       <c r="AR55">
         <v>2.22</v>
@@ -12730,7 +12733,7 @@
         <v>145</v>
       </c>
       <c r="P56" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12805,13 +12808,13 @@
         <v>0</v>
       </c>
       <c r="AO56">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AP56">
-        <v>0.8</v>
+        <v>0.64</v>
       </c>
       <c r="AQ56">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AR56">
         <v>2.29</v>
@@ -13008,16 +13011,16 @@
         <v>1.85</v>
       </c>
       <c r="AN57">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO57">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP57">
-        <v>1.43</v>
+        <v>1.09</v>
       </c>
       <c r="AQ57">
-        <v>1.4</v>
+        <v>1.09</v>
       </c>
       <c r="AR57">
         <v>2.19</v>
@@ -13142,7 +13145,7 @@
         <v>147</v>
       </c>
       <c r="P58" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -13217,13 +13220,13 @@
         <v>0</v>
       </c>
       <c r="AO58">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP58">
-        <v>0.8</v>
+        <v>0.64</v>
       </c>
       <c r="AQ58">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="AR58">
         <v>2.02</v>
@@ -13420,16 +13423,16 @@
         <v>1.62</v>
       </c>
       <c r="AN59">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="AO59">
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ59">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AR59">
         <v>1.89</v>
@@ -13554,7 +13557,7 @@
         <v>149</v>
       </c>
       <c r="P60" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13626,16 +13629,16 @@
         <v>1.98</v>
       </c>
       <c r="AN60">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AO60">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="AQ60">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="AR60">
         <v>1.63</v>
@@ -13832,16 +13835,16 @@
         <v>1.42</v>
       </c>
       <c r="AN61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO61">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AP61">
-        <v>2.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ61">
-        <v>0.75</v>
+        <v>1.36</v>
       </c>
       <c r="AR61">
         <v>1.43</v>
@@ -14038,16 +14041,16 @@
         <v>1.83</v>
       </c>
       <c r="AN62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO62">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AP62">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AQ62">
-        <v>0.8</v>
+        <v>1.42</v>
       </c>
       <c r="AR62">
         <v>1.57</v>
@@ -14244,16 +14247,16 @@
         <v>2.15</v>
       </c>
       <c r="AN63">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AO63">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AP63">
-        <v>0.83</v>
+        <v>1.09</v>
       </c>
       <c r="AQ63">
-        <v>0.83</v>
+        <v>1.33</v>
       </c>
       <c r="AR63">
         <v>1.92</v>
@@ -14450,16 +14453,16 @@
         <v>1.62</v>
       </c>
       <c r="AN64">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="AO64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP64">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="AQ64">
-        <v>0.5</v>
+        <v>1.09</v>
       </c>
       <c r="AR64">
         <v>1.04</v>
@@ -14584,7 +14587,7 @@
         <v>154</v>
       </c>
       <c r="P65" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14656,16 +14659,16 @@
         <v>1.85</v>
       </c>
       <c r="AN65">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO65">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP65">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="AQ65">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR65">
         <v>1.39</v>
@@ -14790,7 +14793,7 @@
         <v>155</v>
       </c>
       <c r="P66" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14862,16 +14865,16 @@
         <v>1.77</v>
       </c>
       <c r="AN66">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO66">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="AQ66">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR66">
         <v>1.49</v>
@@ -14996,7 +14999,7 @@
         <v>104</v>
       </c>
       <c r="P67" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15068,16 +15071,16 @@
         <v>1.7</v>
       </c>
       <c r="AN67">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO67">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ67">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AR67">
         <v>1.06</v>
@@ -15202,7 +15205,7 @@
         <v>156</v>
       </c>
       <c r="P68" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15277,13 +15280,13 @@
         <v>0</v>
       </c>
       <c r="AO68">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AP68">
-        <v>1.2</v>
+        <v>0.83</v>
       </c>
       <c r="AQ68">
-        <v>0.67</v>
+        <v>1.08</v>
       </c>
       <c r="AR68">
         <v>1.18</v>
@@ -15480,16 +15483,16 @@
         <v>2.45</v>
       </c>
       <c r="AN69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO69">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP69">
-        <v>2.43</v>
+        <v>1.5</v>
       </c>
       <c r="AQ69">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AR69">
         <v>1.68</v>
@@ -15614,7 +15617,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15686,16 +15689,16 @@
         <v>1.67</v>
       </c>
       <c r="AN70">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO70">
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.25</v>
+        <v>0.83</v>
       </c>
       <c r="AQ70">
-        <v>1.67</v>
+        <v>1.27</v>
       </c>
       <c r="AR70">
         <v>1.13</v>
@@ -15892,16 +15895,16 @@
         <v>2.02</v>
       </c>
       <c r="AN71">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO71">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AP71">
-        <v>0.8</v>
+        <v>1.27</v>
       </c>
       <c r="AQ71">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR71">
         <v>1.95</v>
@@ -16026,7 +16029,7 @@
         <v>159</v>
       </c>
       <c r="P72" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16098,16 +16101,16 @@
         <v>1.39</v>
       </c>
       <c r="AN72">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO72">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AP72">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ72">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR72">
         <v>1.16</v>
@@ -16232,7 +16235,7 @@
         <v>160</v>
       </c>
       <c r="P73" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16304,16 +16307,16 @@
         <v>1.52</v>
       </c>
       <c r="AN73">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="AO73">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="AP73">
-        <v>2.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ73">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AR73">
         <v>1.41</v>
@@ -16510,16 +16513,16 @@
         <v>2.05</v>
       </c>
       <c r="AN74">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AO74">
         <v>1.75</v>
       </c>
       <c r="AP74">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ74">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR74">
         <v>1.9</v>
@@ -16644,7 +16647,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16716,16 +16719,16 @@
         <v>2.08</v>
       </c>
       <c r="AN75">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO75">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AP75">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ75">
-        <v>0.8</v>
+        <v>1.42</v>
       </c>
       <c r="AR75">
         <v>1.58</v>
@@ -16850,7 +16853,7 @@
         <v>162</v>
       </c>
       <c r="P76" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q76">
         <v>3.1</v>
@@ -16922,16 +16925,16 @@
         <v>1.45</v>
       </c>
       <c r="AN76">
-        <v>1.33</v>
+        <v>0.8</v>
       </c>
       <c r="AO76">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AP76">
-        <v>0.83</v>
+        <v>1.09</v>
       </c>
       <c r="AQ76">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="AR76">
         <v>1.96</v>
@@ -17056,7 +17059,7 @@
         <v>163</v>
       </c>
       <c r="P77" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17128,16 +17131,16 @@
         <v>1.55</v>
       </c>
       <c r="AN77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO77">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AP77">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR77">
         <v>1.72</v>
@@ -17262,7 +17265,7 @@
         <v>164</v>
       </c>
       <c r="P78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17334,16 +17337,16 @@
         <v>1.5</v>
       </c>
       <c r="AN78">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AO78">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AP78">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="AQ78">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AR78">
         <v>0.95</v>
@@ -17540,16 +17543,16 @@
         <v>2</v>
       </c>
       <c r="AN79">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AO79">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AP79">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="AQ79">
-        <v>0.57</v>
+        <v>0.83</v>
       </c>
       <c r="AR79">
         <v>1.49</v>
@@ -17674,7 +17677,7 @@
         <v>166</v>
       </c>
       <c r="P80" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17746,16 +17749,16 @@
         <v>1.32</v>
       </c>
       <c r="AN80">
-        <v>1.67</v>
+        <v>1.2</v>
       </c>
       <c r="AO80">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AP80">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="AQ80">
-        <v>0.75</v>
+        <v>1.36</v>
       </c>
       <c r="AR80">
         <v>1.03</v>
@@ -17952,16 +17955,16 @@
         <v>1.9</v>
       </c>
       <c r="AN81">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AO81">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AP81">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ81">
-        <v>0.8</v>
+        <v>1.45</v>
       </c>
       <c r="AR81">
         <v>1.42</v>
@@ -18086,7 +18089,7 @@
         <v>168</v>
       </c>
       <c r="P82" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18158,16 +18161,16 @@
         <v>2</v>
       </c>
       <c r="AN82">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AO82">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP82">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="AQ82">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR82">
         <v>1.3</v>
@@ -18364,16 +18367,16 @@
         <v>1.85</v>
       </c>
       <c r="AN83">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AO83">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP83">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ83">
-        <v>0.67</v>
+        <v>1.08</v>
       </c>
       <c r="AR83">
         <v>1.98</v>
@@ -18570,16 +18573,16 @@
         <v>2.05</v>
       </c>
       <c r="AN84">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO84">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.43</v>
+        <v>1.09</v>
       </c>
       <c r="AQ84">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="AR84">
         <v>1.97</v>
@@ -18776,16 +18779,16 @@
         <v>1.62</v>
       </c>
       <c r="AN85">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="AO85">
-        <v>0.33</v>
+        <v>1.33</v>
       </c>
       <c r="AP85">
-        <v>0.8</v>
+        <v>0.64</v>
       </c>
       <c r="AQ85">
-        <v>0.2</v>
+        <v>1.42</v>
       </c>
       <c r="AR85">
         <v>1.75</v>
@@ -18910,7 +18913,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18982,16 +18985,16 @@
         <v>1.77</v>
       </c>
       <c r="AN86">
-        <v>1.5</v>
+        <v>0.67</v>
       </c>
       <c r="AO86">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AP86">
-        <v>1.86</v>
+        <v>1.42</v>
       </c>
       <c r="AQ86">
-        <v>0.5</v>
+        <v>1.09</v>
       </c>
       <c r="AR86">
         <v>1.69</v>
@@ -19116,7 +19119,7 @@
         <v>172</v>
       </c>
       <c r="P87" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q87">
         <v>2.2</v>
@@ -19188,16 +19191,16 @@
         <v>2.05</v>
       </c>
       <c r="AN87">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AO87">
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ87">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR87">
         <v>1.69</v>
@@ -19322,7 +19325,7 @@
         <v>173</v>
       </c>
       <c r="P88" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19394,16 +19397,16 @@
         <v>1.72</v>
       </c>
       <c r="AN88">
+        <v>2</v>
+      </c>
+      <c r="AO88">
+        <v>1.83</v>
+      </c>
+      <c r="AP88">
+        <v>2</v>
+      </c>
+      <c r="AQ88">
         <v>1.67</v>
-      </c>
-      <c r="AO88">
-        <v>1.25</v>
-      </c>
-      <c r="AP88">
-        <v>1.6</v>
-      </c>
-      <c r="AQ88">
-        <v>1.29</v>
       </c>
       <c r="AR88">
         <v>1.49</v>
@@ -19600,16 +19603,16 @@
         <v>2.15</v>
       </c>
       <c r="AN89">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO89">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AP89">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="AQ89">
-        <v>1.17</v>
+        <v>1.58</v>
       </c>
       <c r="AR89">
         <v>1.37</v>
@@ -19806,16 +19809,16 @@
         <v>2.35</v>
       </c>
       <c r="AN90">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="AO90">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP90">
-        <v>1.71</v>
+        <v>1.36</v>
       </c>
       <c r="AQ90">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR90">
         <v>1.72</v>
@@ -19940,7 +19943,7 @@
         <v>176</v>
       </c>
       <c r="P91" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -20012,16 +20015,16 @@
         <v>2.2</v>
       </c>
       <c r="AN91">
-        <v>2.33</v>
+        <v>1.17</v>
       </c>
       <c r="AO91">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AP91">
-        <v>2.43</v>
+        <v>1.5</v>
       </c>
       <c r="AQ91">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR91">
         <v>2.05</v>
@@ -20146,7 +20149,7 @@
         <v>177</v>
       </c>
       <c r="P92" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q92">
         <v>2.88</v>
@@ -20218,16 +20221,16 @@
         <v>1.68</v>
       </c>
       <c r="AN92">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AO92">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP92">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="AQ92">
-        <v>0.57</v>
+        <v>0.83</v>
       </c>
       <c r="AR92">
         <v>1.12</v>
@@ -20352,7 +20355,7 @@
         <v>178</v>
       </c>
       <c r="P93" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20424,16 +20427,16 @@
         <v>1.65</v>
       </c>
       <c r="AN93">
-        <v>1.5</v>
+        <v>0.83</v>
       </c>
       <c r="AO93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP93">
-        <v>1.17</v>
+        <v>0.83</v>
       </c>
       <c r="AQ93">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AR93">
         <v>1.63</v>
@@ -20558,7 +20561,7 @@
         <v>179</v>
       </c>
       <c r="P94" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q94">
         <v>2.75</v>
@@ -20633,13 +20636,13 @@
         <v>2</v>
       </c>
       <c r="AO94">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AP94">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AQ94">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="AR94">
         <v>1.29</v>
@@ -20764,7 +20767,7 @@
         <v>180</v>
       </c>
       <c r="P95" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q95">
         <v>3.1</v>
@@ -20836,16 +20839,16 @@
         <v>1.55</v>
       </c>
       <c r="AN95">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AO95">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AP95">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="AQ95">
-        <v>1.67</v>
+        <v>1.27</v>
       </c>
       <c r="AR95">
         <v>1.11</v>
@@ -21042,16 +21045,16 @@
         <v>2</v>
       </c>
       <c r="AN96">
-        <v>1.67</v>
+        <v>1.17</v>
       </c>
       <c r="AO96">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AP96">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="AQ96">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AR96">
         <v>1.49</v>
@@ -21248,16 +21251,16 @@
         <v>2.05</v>
       </c>
       <c r="AN97">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AO97">
         <v>1.4</v>
       </c>
       <c r="AP97">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="AQ97">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR97">
         <v>1.52</v>
@@ -21382,7 +21385,7 @@
         <v>182</v>
       </c>
       <c r="P98" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21454,16 +21457,16 @@
         <v>1.9</v>
       </c>
       <c r="AN98">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO98">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AP98">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="AQ98">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR98">
         <v>1.65</v>
@@ -21588,7 +21591,7 @@
         <v>183</v>
       </c>
       <c r="P99" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21660,16 +21663,16 @@
         <v>1.47</v>
       </c>
       <c r="AN99">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AO99">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AP99">
-        <v>1.25</v>
+        <v>0.83</v>
       </c>
       <c r="AQ99">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR99">
         <v>1.42</v>
@@ -21866,16 +21869,16 @@
         <v>2.1</v>
       </c>
       <c r="AN100">
-        <v>1.33</v>
+        <v>0.71</v>
       </c>
       <c r="AO100">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AP100">
-        <v>1.86</v>
+        <v>1.42</v>
       </c>
       <c r="AQ100">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="AR100">
         <v>1.76</v>
@@ -22072,16 +22075,16 @@
         <v>2.34</v>
       </c>
       <c r="AN101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO101">
-        <v>0.5</v>
+        <v>1.14</v>
       </c>
       <c r="AP101">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ101">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="AR101">
         <v>1.68</v>
@@ -22206,7 +22209,7 @@
         <v>185</v>
       </c>
       <c r="P102" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q102">
         <v>3.1</v>
@@ -22278,16 +22281,16 @@
         <v>1.54</v>
       </c>
       <c r="AN102">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AO102">
-        <v>2.33</v>
+        <v>1.71</v>
       </c>
       <c r="AP102">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="AQ102">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AR102">
         <v>0</v>
@@ -22412,7 +22415,7 @@
         <v>186</v>
       </c>
       <c r="P103" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q103">
         <v>2.3</v>
@@ -22484,16 +22487,16 @@
         <v>2.1</v>
       </c>
       <c r="AN103">
-        <v>2.33</v>
+        <v>1.14</v>
       </c>
       <c r="AO103">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="AP103">
-        <v>2.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ103">
-        <v>1.17</v>
+        <v>1.58</v>
       </c>
       <c r="AR103">
         <v>1.41</v>
@@ -22618,7 +22621,7 @@
         <v>187</v>
       </c>
       <c r="P104" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22690,16 +22693,16 @@
         <v>1.78</v>
       </c>
       <c r="AN104">
-        <v>2</v>
+        <v>1.43</v>
       </c>
       <c r="AO104">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="AP104">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ104">
-        <v>1.4</v>
+        <v>1.09</v>
       </c>
       <c r="AR104">
         <v>1.9</v>
@@ -22896,16 +22899,16 @@
         <v>1.47</v>
       </c>
       <c r="AN105">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO105">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="AP105">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AQ105">
-        <v>0.67</v>
+        <v>1.08</v>
       </c>
       <c r="AR105">
         <v>1.76</v>
@@ -23030,7 +23033,7 @@
         <v>188</v>
       </c>
       <c r="P106" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23102,16 +23105,16 @@
         <v>1.57</v>
       </c>
       <c r="AN106">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AO106">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP106">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="AQ106">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AR106">
         <v>1.67</v>
@@ -23236,7 +23239,7 @@
         <v>189</v>
       </c>
       <c r="P107" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q107">
         <v>2.75</v>
@@ -23308,16 +23311,16 @@
         <v>1.8</v>
       </c>
       <c r="AN107">
+        <v>1.83</v>
+      </c>
+      <c r="AO107">
         <v>1.67</v>
       </c>
-      <c r="AO107">
-        <v>1.5</v>
-      </c>
       <c r="AP107">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AQ107">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AR107">
         <v>1.55</v>
@@ -23514,16 +23517,16 @@
         <v>1.62</v>
       </c>
       <c r="AN108">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AO108">
-        <v>0.67</v>
+        <v>1.71</v>
       </c>
       <c r="AP108">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ108">
-        <v>0.75</v>
+        <v>1.36</v>
       </c>
       <c r="AR108">
         <v>1.42</v>
@@ -23648,7 +23651,7 @@
         <v>190</v>
       </c>
       <c r="P109" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q109">
         <v>2.6</v>
@@ -23720,16 +23723,16 @@
         <v>1.62</v>
       </c>
       <c r="AN109">
-        <v>1.75</v>
+        <v>2.17</v>
       </c>
       <c r="AO109">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AP109">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="AQ109">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR109">
         <v>1.44</v>
@@ -23854,7 +23857,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q110">
         <v>2.88</v>
@@ -23926,16 +23929,16 @@
         <v>1.72</v>
       </c>
       <c r="AN110">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="AO110">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AP110">
-        <v>1.2</v>
+        <v>0.83</v>
       </c>
       <c r="AQ110">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR110">
         <v>1.31</v>
@@ -24060,7 +24063,7 @@
         <v>191</v>
       </c>
       <c r="P111" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24132,16 +24135,16 @@
         <v>1.6</v>
       </c>
       <c r="AN111">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AO111">
         <v>2</v>
       </c>
       <c r="AP111">
-        <v>1.43</v>
+        <v>1.09</v>
       </c>
       <c r="AQ111">
-        <v>1.67</v>
+        <v>1.27</v>
       </c>
       <c r="AR111">
         <v>1.97</v>
@@ -24338,16 +24341,16 @@
         <v>2.1</v>
       </c>
       <c r="AN112">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="AO112">
-        <v>0.5</v>
+        <v>1.29</v>
       </c>
       <c r="AP112">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="AQ112">
-        <v>0.83</v>
+        <v>1.33</v>
       </c>
       <c r="AR112">
         <v>1.79</v>
@@ -24472,7 +24475,7 @@
         <v>142</v>
       </c>
       <c r="P113" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24544,16 +24547,16 @@
         <v>1.53</v>
       </c>
       <c r="AN113">
-        <v>3</v>
+        <v>1.43</v>
       </c>
       <c r="AO113">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AP113">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="AQ113">
-        <v>1.4</v>
+        <v>1.09</v>
       </c>
       <c r="AR113">
         <v>1.35</v>
@@ -24678,7 +24681,7 @@
         <v>192</v>
       </c>
       <c r="P114" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q114">
         <v>1.91</v>
@@ -24750,16 +24753,16 @@
         <v>2.75</v>
       </c>
       <c r="AN114">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AO114">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP114">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ114">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AR114">
         <v>1.72</v>
@@ -24884,7 +24887,7 @@
         <v>193</v>
       </c>
       <c r="P115" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q115">
         <v>2.1</v>
@@ -24956,16 +24959,16 @@
         <v>2.3</v>
       </c>
       <c r="AN115">
-        <v>2.5</v>
+        <v>1.63</v>
       </c>
       <c r="AO115">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AP115">
-        <v>1.71</v>
+        <v>1.36</v>
       </c>
       <c r="AQ115">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR115">
         <v>1.63</v>
@@ -25162,16 +25165,16 @@
         <v>1.66</v>
       </c>
       <c r="AN116">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AO116">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="AP116">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="AQ116">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="AR116">
         <v>1.54</v>
@@ -25296,7 +25299,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25368,16 +25371,16 @@
         <v>1.65</v>
       </c>
       <c r="AN117">
-        <v>2.5</v>
+        <v>1.57</v>
       </c>
       <c r="AO117">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AP117">
-        <v>1.43</v>
+        <v>1.09</v>
       </c>
       <c r="AQ117">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AR117">
         <v>1.94</v>
@@ -25574,16 +25577,16 @@
         <v>1.65</v>
       </c>
       <c r="AN118">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AO118">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP118">
-        <v>1.86</v>
+        <v>1.42</v>
       </c>
       <c r="AQ118">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR118">
         <v>1.77</v>
@@ -25708,7 +25711,7 @@
         <v>104</v>
       </c>
       <c r="P119" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q119">
         <v>2.88</v>
@@ -25780,16 +25783,16 @@
         <v>1.65</v>
       </c>
       <c r="AN119">
-        <v>2</v>
+        <v>1.13</v>
       </c>
       <c r="AO119">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AP119">
-        <v>1.17</v>
+        <v>0.83</v>
       </c>
       <c r="AQ119">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="AR119">
         <v>1.52</v>
@@ -25986,16 +25989,16 @@
         <v>2.15</v>
       </c>
       <c r="AN120">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="AO120">
-        <v>0.33</v>
+        <v>1.13</v>
       </c>
       <c r="AP120">
+        <v>1.55</v>
+      </c>
+      <c r="AQ120">
         <v>1.33</v>
-      </c>
-      <c r="AQ120">
-        <v>0.83</v>
       </c>
       <c r="AR120">
         <v>1.68</v>
@@ -26120,7 +26123,7 @@
         <v>196</v>
       </c>
       <c r="P121" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q121">
         <v>2.3</v>
@@ -26192,16 +26195,16 @@
         <v>2.05</v>
       </c>
       <c r="AN121">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO121">
-        <v>0.67</v>
+        <v>1.38</v>
       </c>
       <c r="AP121">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="AQ121">
-        <v>0.8</v>
+        <v>1.45</v>
       </c>
       <c r="AR121">
         <v>1.55</v>
@@ -26398,16 +26401,16 @@
         <v>1.9</v>
       </c>
       <c r="AN122">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO122">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AP122">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ122">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AR122">
         <v>1.34</v>
@@ -26532,7 +26535,7 @@
         <v>198</v>
       </c>
       <c r="P123" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q123">
         <v>2.5</v>
@@ -26604,16 +26607,16 @@
         <v>1.95</v>
       </c>
       <c r="AN123">
-        <v>2.5</v>
+        <v>1.38</v>
       </c>
       <c r="AO123">
-        <v>1.6</v>
+        <v>1.88</v>
       </c>
       <c r="AP123">
-        <v>2.43</v>
+        <v>1.5</v>
       </c>
       <c r="AQ123">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="AR123">
         <v>2.06</v>
@@ -26738,7 +26741,7 @@
         <v>104</v>
       </c>
       <c r="P124" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -26810,16 +26813,16 @@
         <v>1.88</v>
       </c>
       <c r="AN124">
-        <v>1.67</v>
+        <v>0.86</v>
       </c>
       <c r="AO124">
-        <v>3</v>
+        <v>1.86</v>
       </c>
       <c r="AP124">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="AQ124">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="AR124">
         <v>1.78</v>
@@ -26944,7 +26947,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q125">
         <v>2.6</v>
@@ -27016,16 +27019,16 @@
         <v>1.83</v>
       </c>
       <c r="AN125">
-        <v>2.5</v>
+        <v>1.38</v>
       </c>
       <c r="AO125">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AP125">
-        <v>2.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ125">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR125">
         <v>1.42</v>
@@ -27150,7 +27153,7 @@
         <v>199</v>
       </c>
       <c r="P126" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q126">
         <v>2.05</v>
@@ -27222,16 +27225,16 @@
         <v>2.36</v>
       </c>
       <c r="AN126">
+        <v>1.88</v>
+      </c>
+      <c r="AO126">
+        <v>0.38</v>
+      </c>
+      <c r="AP126">
         <v>1.67</v>
       </c>
-      <c r="AO126">
-        <v>0</v>
-      </c>
-      <c r="AP126">
-        <v>1.8</v>
-      </c>
       <c r="AQ126">
-        <v>0.57</v>
+        <v>0.83</v>
       </c>
       <c r="AR126">
         <v>1.66</v>
@@ -27428,16 +27431,16 @@
         <v>1.44</v>
       </c>
       <c r="AN127">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AO127">
         <v>2</v>
       </c>
       <c r="AP127">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="AQ127">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR127">
         <v>1.28</v>
@@ -27562,7 +27565,7 @@
         <v>201</v>
       </c>
       <c r="P128" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -27634,16 +27637,16 @@
         <v>2.4</v>
       </c>
       <c r="AN128">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AO128">
-        <v>0.8</v>
+        <v>1.44</v>
       </c>
       <c r="AP128">
-        <v>0.83</v>
+        <v>1.09</v>
       </c>
       <c r="AQ128">
-        <v>1.17</v>
+        <v>1.58</v>
       </c>
       <c r="AR128">
         <v>1.86</v>
@@ -27768,7 +27771,7 @@
         <v>202</v>
       </c>
       <c r="P129" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q129">
         <v>2.5</v>
@@ -27840,16 +27843,16 @@
         <v>1.85</v>
       </c>
       <c r="AN129">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AO129">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AP129">
-        <v>0.8</v>
+        <v>1.27</v>
       </c>
       <c r="AQ129">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="AR129">
         <v>1.61</v>
@@ -28046,16 +28049,16 @@
         <v>1.95</v>
       </c>
       <c r="AN130">
-        <v>2</v>
+        <v>1.22</v>
       </c>
       <c r="AO130">
-        <v>0.25</v>
+        <v>1.22</v>
       </c>
       <c r="AP130">
-        <v>1.86</v>
+        <v>1.42</v>
       </c>
       <c r="AQ130">
-        <v>0.2</v>
+        <v>1.42</v>
       </c>
       <c r="AR130">
         <v>1.79</v>
@@ -28180,7 +28183,7 @@
         <v>204</v>
       </c>
       <c r="P131" t="s">
-        <v>304</v>
+        <v>231</v>
       </c>
       <c r="Q131">
         <v>2.3</v>
@@ -28252,16 +28255,16 @@
         <v>2.15</v>
       </c>
       <c r="AN131">
-        <v>2.33</v>
+        <v>1.78</v>
       </c>
       <c r="AO131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP131">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ131">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="AR131">
         <v>1.71</v>
@@ -28458,16 +28461,16 @@
         <v>1.57</v>
       </c>
       <c r="AN132">
-        <v>1.5</v>
+        <v>1.11</v>
       </c>
       <c r="AO132">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="AP132">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ132">
-        <v>0.67</v>
+        <v>1.08</v>
       </c>
       <c r="AR132">
         <v>1.89</v>
@@ -28664,16 +28667,16 @@
         <v>2.6</v>
       </c>
       <c r="AN133">
-        <v>2.2</v>
+        <v>1.56</v>
       </c>
       <c r="AO133">
-        <v>1.17</v>
+        <v>1.38</v>
       </c>
       <c r="AP133">
-        <v>1.71</v>
+        <v>1.36</v>
       </c>
       <c r="AQ133">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR133">
         <v>1.78</v>
@@ -28798,7 +28801,7 @@
         <v>152</v>
       </c>
       <c r="P134" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -28870,16 +28873,16 @@
         <v>2.05</v>
       </c>
       <c r="AN134">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="AO134">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AP134">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AQ134">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR134">
         <v>1.41</v>
@@ -29076,16 +29079,16 @@
         <v>1.4</v>
       </c>
       <c r="AN135">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO135">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AP135">
-        <v>0.8</v>
+        <v>0.64</v>
       </c>
       <c r="AQ135">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AR135">
         <v>1.64</v>
@@ -29282,16 +29285,16 @@
         <v>1.75</v>
       </c>
       <c r="AN136">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AO136">
-        <v>1.67</v>
+        <v>1.22</v>
       </c>
       <c r="AP136">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AQ136">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR136">
         <v>1.75</v>
@@ -29488,16 +29491,16 @@
         <v>1.67</v>
       </c>
       <c r="AN137">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO137">
-        <v>0.33</v>
+        <v>1.38</v>
       </c>
       <c r="AP137">
-        <v>1.17</v>
+        <v>0.83</v>
       </c>
       <c r="AQ137">
-        <v>0.5</v>
+        <v>1.09</v>
       </c>
       <c r="AR137">
         <v>1.51</v>
@@ -29694,16 +29697,16 @@
         <v>1.55</v>
       </c>
       <c r="AN138">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="AO138">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="AP138">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AQ138">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AR138">
         <v>1.63</v>
@@ -29900,16 +29903,16 @@
         <v>1.77</v>
       </c>
       <c r="AN139">
-        <v>1.2</v>
+        <v>0.88</v>
       </c>
       <c r="AO139">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP139">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="AQ139">
-        <v>0.57</v>
+        <v>0.83</v>
       </c>
       <c r="AR139">
         <v>1.15</v>
@@ -30106,16 +30109,16 @@
         <v>2.75</v>
       </c>
       <c r="AN140">
-        <v>2.2</v>
+        <v>1.33</v>
       </c>
       <c r="AO140">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AP140">
-        <v>2.43</v>
+        <v>1.5</v>
       </c>
       <c r="AQ140">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR140">
         <v>2</v>
@@ -30312,16 +30315,16 @@
         <v>1.72</v>
       </c>
       <c r="AN141">
-        <v>1.33</v>
+        <v>1.63</v>
       </c>
       <c r="AO141">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AP141">
-        <v>0.8</v>
+        <v>1.27</v>
       </c>
       <c r="AQ141">
-        <v>0.67</v>
+        <v>1.08</v>
       </c>
       <c r="AR141">
         <v>1.56</v>
@@ -30518,16 +30521,16 @@
         <v>2.14</v>
       </c>
       <c r="AN142">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO142">
-        <v>2.25</v>
+        <v>1.89</v>
       </c>
       <c r="AP142">
-        <v>1.43</v>
+        <v>1.09</v>
       </c>
       <c r="AQ142">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR142">
         <v>1.86</v>
@@ -30724,16 +30727,16 @@
         <v>1.92</v>
       </c>
       <c r="AN143">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="AO143">
+        <v>1</v>
+      </c>
+      <c r="AP143">
+        <v>1.42</v>
+      </c>
+      <c r="AQ143">
         <v>0.83</v>
-      </c>
-      <c r="AP143">
-        <v>2.29</v>
-      </c>
-      <c r="AQ143">
-        <v>0.71</v>
       </c>
       <c r="AR143">
         <v>1.31</v>
@@ -30930,16 +30933,16 @@
         <v>1.62</v>
       </c>
       <c r="AN144">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="AO144">
-        <v>1.8</v>
+        <v>1.44</v>
       </c>
       <c r="AP144">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ144">
-        <v>1.67</v>
+        <v>1.27</v>
       </c>
       <c r="AR144">
         <v>1.84</v>
@@ -31136,16 +31139,16 @@
         <v>2.05</v>
       </c>
       <c r="AN145">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AO145">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AP145">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ145">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="AR145">
         <v>1.66</v>
@@ -31345,13 +31348,13 @@
         <v>1</v>
       </c>
       <c r="AO146">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AP146">
-        <v>0.83</v>
+        <v>1.09</v>
       </c>
       <c r="AQ146">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AR146">
         <v>1.7</v>
@@ -31548,16 +31551,16 @@
         <v>1.39</v>
       </c>
       <c r="AN147">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="AO147">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="AP147">
-        <v>1.2</v>
+        <v>0.83</v>
       </c>
       <c r="AQ147">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR147">
         <v>1.42</v>
@@ -31754,16 +31757,16 @@
         <v>1.67</v>
       </c>
       <c r="AN148">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="AO148">
-        <v>0.25</v>
+        <v>0.89</v>
       </c>
       <c r="AP148">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="AQ148">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AR148">
         <v>1.55</v>
@@ -31960,16 +31963,16 @@
         <v>1.85</v>
       </c>
       <c r="AN149">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AO149">
-        <v>0.75</v>
+        <v>1.33</v>
       </c>
       <c r="AP149">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="AQ149">
-        <v>0.8</v>
+        <v>1.45</v>
       </c>
       <c r="AR149">
         <v>1.71</v>
@@ -32166,16 +32169,16 @@
         <v>1.98</v>
       </c>
       <c r="AN150">
-        <v>1.17</v>
+        <v>0.89</v>
       </c>
       <c r="AO150">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AP150">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="AQ150">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR150">
         <v>1.24</v>
@@ -32372,16 +32375,16 @@
         <v>1.85</v>
       </c>
       <c r="AN151">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AO151">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="AP151">
-        <v>1.17</v>
+        <v>0.83</v>
       </c>
       <c r="AQ151">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="AR151">
         <v>1.35</v>
@@ -32578,16 +32581,16 @@
         <v>2.1</v>
       </c>
       <c r="AN152">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AO152">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="AP152">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ152">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR152">
         <v>1.48</v>
@@ -32784,16 +32787,16 @@
         <v>2.3</v>
       </c>
       <c r="AN153">
-        <v>1.4</v>
+        <v>1.89</v>
       </c>
       <c r="AO153">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP153">
+        <v>1.64</v>
+      </c>
+      <c r="AQ153">
         <v>1.33</v>
-      </c>
-      <c r="AQ153">
-        <v>0.83</v>
       </c>
       <c r="AR153">
         <v>1.44</v>
@@ -32990,16 +32993,16 @@
         <v>1.95</v>
       </c>
       <c r="AN154">
-        <v>2.17</v>
+        <v>1.4</v>
       </c>
       <c r="AO154">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP154">
-        <v>1.86</v>
+        <v>1.42</v>
       </c>
       <c r="AQ154">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR154">
         <v>1.8</v>
@@ -33196,16 +33199,16 @@
         <v>1.84</v>
       </c>
       <c r="AN155">
-        <v>1.25</v>
+        <v>0.9</v>
       </c>
       <c r="AO155">
+        <v>1.8</v>
+      </c>
+      <c r="AP155">
+        <v>1.08</v>
+      </c>
+      <c r="AQ155">
         <v>1.67</v>
-      </c>
-      <c r="AP155">
-        <v>1.2</v>
-      </c>
-      <c r="AQ155">
-        <v>1.57</v>
       </c>
       <c r="AR155">
         <v>1.55</v>
@@ -33402,16 +33405,16 @@
         <v>2.15</v>
       </c>
       <c r="AN156">
-        <v>1.67</v>
+        <v>1.2</v>
       </c>
       <c r="AO156">
-        <v>0.8</v>
+        <v>1.27</v>
       </c>
       <c r="AP156">
-        <v>1.43</v>
+        <v>1.09</v>
       </c>
       <c r="AQ156">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR156">
         <v>1.86</v>
@@ -33608,16 +33611,16 @@
         <v>1.81</v>
       </c>
       <c r="AN157">
-        <v>2.17</v>
+        <v>1.27</v>
       </c>
       <c r="AO157">
-        <v>0.33</v>
+        <v>1.1</v>
       </c>
       <c r="AP157">
-        <v>2.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ157">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AR157">
         <v>1.3</v>
@@ -33814,16 +33817,16 @@
         <v>1.26</v>
       </c>
       <c r="AN158">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AO158">
         <v>2</v>
       </c>
       <c r="AP158">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="AQ158">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AR158">
         <v>1.25</v>
@@ -34020,16 +34023,16 @@
         <v>2.38</v>
       </c>
       <c r="AN159">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AO159">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AP159">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ159">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="AR159">
         <v>1.78</v>
@@ -34226,16 +34229,16 @@
         <v>1.91</v>
       </c>
       <c r="AN160">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AO160">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AP160">
-        <v>0.8</v>
+        <v>1.27</v>
       </c>
       <c r="AQ160">
-        <v>1.4</v>
+        <v>1.09</v>
       </c>
       <c r="AR160">
         <v>1.52</v>
@@ -34432,16 +34435,16 @@
         <v>1.45</v>
       </c>
       <c r="AN161">
-        <v>2.4</v>
+        <v>1.73</v>
       </c>
       <c r="AO161">
-        <v>0.25</v>
+        <v>1.27</v>
       </c>
       <c r="AP161">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="AQ161">
-        <v>0.8</v>
+        <v>1.42</v>
       </c>
       <c r="AR161">
         <v>1.51</v>
@@ -34638,16 +34641,16 @@
         <v>1.9</v>
       </c>
       <c r="AN162">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO162">
-        <v>2.17</v>
+        <v>1.91</v>
       </c>
       <c r="AP162">
-        <v>1.71</v>
+        <v>1.36</v>
       </c>
       <c r="AQ162">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AR162">
         <v>1.7</v>
@@ -34844,16 +34847,16 @@
         <v>1.88</v>
       </c>
       <c r="AN163">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="AO163">
-        <v>1</v>
+        <v>1.45</v>
       </c>
       <c r="AP163">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AQ163">
-        <v>0.83</v>
+        <v>1.33</v>
       </c>
       <c r="AR163">
         <v>1.68</v>
@@ -35053,13 +35056,13 @@
         <v>1</v>
       </c>
       <c r="AO164">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP164">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="AQ164">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AR164">
         <v>1.45</v>
@@ -35256,16 +35259,16 @@
         <v>2.1</v>
       </c>
       <c r="AN165">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="AO165">
-        <v>0.6</v>
+        <v>0.91</v>
       </c>
       <c r="AP165">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="AQ165">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="AR165">
         <v>1.69</v>
@@ -35462,16 +35465,16 @@
         <v>2.15</v>
       </c>
       <c r="AN166">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="AO166">
-        <v>0.17</v>
+        <v>0.64</v>
       </c>
       <c r="AP166">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ166">
-        <v>0.57</v>
+        <v>0.83</v>
       </c>
       <c r="AR166">
         <v>1.32</v>
@@ -35668,16 +35671,16 @@
         <v>1.88</v>
       </c>
       <c r="AN167">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="AO167">
+        <v>1.91</v>
+      </c>
+      <c r="AP167">
+        <v>1.67</v>
+      </c>
+      <c r="AQ167">
         <v>1.83</v>
-      </c>
-      <c r="AP167">
-        <v>1.8</v>
-      </c>
-      <c r="AQ167">
-        <v>1.71</v>
       </c>
       <c r="AR167">
         <v>1.69</v>
@@ -35874,16 +35877,16 @@
         <v>2.35</v>
       </c>
       <c r="AN168">
-        <v>2.33</v>
+        <v>1.36</v>
       </c>
       <c r="AO168">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="AP168">
-        <v>2.43</v>
+        <v>1.5</v>
       </c>
       <c r="AQ168">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="AR168">
         <v>2.08</v>
@@ -35959,6 +35962,212 @@
       </c>
       <c r="BP168">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7295403</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45424.73958333334</v>
+      </c>
+      <c r="F169">
+        <v>12</v>
+      </c>
+      <c r="G169" t="s">
+        <v>81</v>
+      </c>
+      <c r="H169" t="s">
+        <v>92</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>2</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <v>2</v>
+      </c>
+      <c r="N169">
+        <v>3</v>
+      </c>
+      <c r="O169" t="s">
+        <v>231</v>
+      </c>
+      <c r="P169" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q169">
+        <v>3.2</v>
+      </c>
+      <c r="R169">
+        <v>2.2</v>
+      </c>
+      <c r="S169">
+        <v>3.2</v>
+      </c>
+      <c r="T169">
+        <v>1.36</v>
+      </c>
+      <c r="U169">
+        <v>3</v>
+      </c>
+      <c r="V169">
+        <v>2.75</v>
+      </c>
+      <c r="W169">
+        <v>1.4</v>
+      </c>
+      <c r="X169">
+        <v>7</v>
+      </c>
+      <c r="Y169">
+        <v>1.1</v>
+      </c>
+      <c r="Z169">
+        <v>2.5</v>
+      </c>
+      <c r="AA169">
+        <v>3.5</v>
+      </c>
+      <c r="AB169">
+        <v>2.7</v>
+      </c>
+      <c r="AC169">
+        <v>1.02</v>
+      </c>
+      <c r="AD169">
+        <v>10</v>
+      </c>
+      <c r="AE169">
+        <v>1.25</v>
+      </c>
+      <c r="AF169">
+        <v>3.6</v>
+      </c>
+      <c r="AG169">
+        <v>1.78</v>
+      </c>
+      <c r="AH169">
+        <v>1.95</v>
+      </c>
+      <c r="AI169">
+        <v>1.7</v>
+      </c>
+      <c r="AJ169">
+        <v>2.05</v>
+      </c>
+      <c r="AK169">
+        <v>1.48</v>
+      </c>
+      <c r="AL169">
+        <v>1.25</v>
+      </c>
+      <c r="AM169">
+        <v>1.5</v>
+      </c>
+      <c r="AN169">
+        <v>0.91</v>
+      </c>
+      <c r="AO169">
+        <v>0.91</v>
+      </c>
+      <c r="AP169">
+        <v>0.83</v>
+      </c>
+      <c r="AQ169">
+        <v>1.08</v>
+      </c>
+      <c r="AR169">
+        <v>1.32</v>
+      </c>
+      <c r="AS169">
+        <v>1.41</v>
+      </c>
+      <c r="AT169">
+        <v>2.73</v>
+      </c>
+      <c r="AU169">
+        <v>3</v>
+      </c>
+      <c r="AV169">
+        <v>6</v>
+      </c>
+      <c r="AW169">
+        <v>5</v>
+      </c>
+      <c r="AX169">
+        <v>0</v>
+      </c>
+      <c r="AY169">
+        <v>8</v>
+      </c>
+      <c r="AZ169">
+        <v>6</v>
+      </c>
+      <c r="BA169">
+        <v>4</v>
+      </c>
+      <c r="BB169">
+        <v>6</v>
+      </c>
+      <c r="BC169">
+        <v>10</v>
+      </c>
+      <c r="BD169">
+        <v>1.96</v>
+      </c>
+      <c r="BE169">
+        <v>7</v>
+      </c>
+      <c r="BF169">
+        <v>2.12</v>
+      </c>
+      <c r="BG169">
+        <v>1.33</v>
+      </c>
+      <c r="BH169">
+        <v>2.85</v>
+      </c>
+      <c r="BI169">
+        <v>1.6</v>
+      </c>
+      <c r="BJ169">
+        <v>2.14</v>
+      </c>
+      <c r="BK169">
+        <v>2.02</v>
+      </c>
+      <c r="BL169">
+        <v>1.68</v>
+      </c>
+      <c r="BM169">
+        <v>2.6</v>
+      </c>
+      <c r="BN169">
+        <v>1.4</v>
+      </c>
+      <c r="BO169">
+        <v>3.55</v>
+      </c>
+      <c r="BP169">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -1687,10 +1687,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1893,10 +1893,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.36</v>
+        <v>1.71</v>
       </c>
       <c r="AQ3">
-        <v>1.09</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2099,10 +2099,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>2.43</v>
       </c>
       <c r="AQ4">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2305,10 +2305,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.42</v>
+        <v>2.29</v>
       </c>
       <c r="AQ5">
-        <v>1.42</v>
+        <v>0.8</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2511,10 +2511,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ6">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2717,10 +2717,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.09</v>
+        <v>0.83</v>
       </c>
       <c r="AQ7">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2923,10 +2923,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.27</v>
+        <v>0.8</v>
       </c>
       <c r="AQ8">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3129,10 +3129,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3335,10 +3335,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ10">
-        <v>0.83</v>
+        <v>0.57</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3541,10 +3541,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="AQ11">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3747,10 +3747,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3953,10 +3953,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4159,10 +4159,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ14">
-        <v>1.58</v>
+        <v>1.17</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4365,10 +4365,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="AQ15">
-        <v>1.67</v>
+        <v>1.29</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4568,13 +4568,13 @@
         <v>0</v>
       </c>
       <c r="AO16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ16">
-        <v>2.08</v>
+        <v>2.17</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4771,16 +4771,16 @@
         <v>1.49</v>
       </c>
       <c r="AN17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ17">
-        <v>1.36</v>
+        <v>0.75</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4977,16 +4977,16 @@
         <v>1.41</v>
       </c>
       <c r="AN18">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5183,16 +5183,16 @@
         <v>2.15</v>
       </c>
       <c r="AN19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
-        <v>1.09</v>
+        <v>1.4</v>
       </c>
       <c r="AR19">
         <v>1.77</v>
@@ -5392,13 +5392,13 @@
         <v>0</v>
       </c>
       <c r="AO20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="AQ20">
-        <v>1.42</v>
+        <v>0.2</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5595,16 +5595,16 @@
         <v>1.62</v>
       </c>
       <c r="AN21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.83</v>
+        <v>1.17</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5807,10 +5807,10 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ22">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>2.26</v>
@@ -6013,10 +6013,10 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="AQ23">
-        <v>1.67</v>
+        <v>1.29</v>
       </c>
       <c r="AR23">
         <v>1.42</v>
@@ -6213,16 +6213,16 @@
         <v>1.72</v>
       </c>
       <c r="AN24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ24">
-        <v>1.27</v>
+        <v>1.67</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6425,10 +6425,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
-        <v>1.42</v>
+        <v>0.8</v>
       </c>
       <c r="AR25">
         <v>1.45</v>
@@ -6628,13 +6628,13 @@
         <v>0</v>
       </c>
       <c r="AO26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6834,13 +6834,13 @@
         <v>3</v>
       </c>
       <c r="AO27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR27">
         <v>1.01</v>
@@ -7040,13 +7040,13 @@
         <v>0</v>
       </c>
       <c r="AO28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.83</v>
+        <v>1.2</v>
       </c>
       <c r="AQ28">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -7249,10 +7249,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AQ29">
-        <v>1.33</v>
+        <v>0.83</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7455,10 +7455,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AQ30">
-        <v>1.58</v>
+        <v>1.17</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7658,13 +7658,13 @@
         <v>0</v>
       </c>
       <c r="AO31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.42</v>
+        <v>1.86</v>
       </c>
       <c r="AQ31">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -7861,16 +7861,16 @@
         <v>1.67</v>
       </c>
       <c r="AN32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.58</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
-        <v>1.42</v>
+        <v>0.2</v>
       </c>
       <c r="AR32">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.09</v>
+        <v>1.43</v>
       </c>
       <c r="AQ33">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="AR33">
         <v>0</v>
@@ -8273,16 +8273,16 @@
         <v>2.45</v>
       </c>
       <c r="AN34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO34">
+        <v>1</v>
+      </c>
+      <c r="AP34">
+        <v>1.71</v>
+      </c>
+      <c r="AQ34">
         <v>0.5</v>
-      </c>
-      <c r="AP34">
-        <v>1.36</v>
-      </c>
-      <c r="AQ34">
-        <v>0.83</v>
       </c>
       <c r="AR34">
         <v>1.35</v>
@@ -8479,16 +8479,16 @@
         <v>2.25</v>
       </c>
       <c r="AN35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO35">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AR35">
         <v>0</v>
@@ -8685,16 +8685,16 @@
         <v>1.87</v>
       </c>
       <c r="AN36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.09</v>
+        <v>0.83</v>
       </c>
       <c r="AQ36">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AR36">
         <v>1.61</v>
@@ -8891,16 +8891,16 @@
         <v>1.7</v>
       </c>
       <c r="AN37">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="AQ37">
-        <v>1.45</v>
+        <v>0.8</v>
       </c>
       <c r="AR37">
         <v>1.02</v>
@@ -9097,16 +9097,16 @@
         <v>2.12</v>
       </c>
       <c r="AN38">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AO38">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AR38">
         <v>1.58</v>
@@ -9303,16 +9303,16 @@
         <v>2.25</v>
       </c>
       <c r="AN39">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO39">
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>2.43</v>
       </c>
       <c r="AQ39">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>1.7</v>
@@ -9512,13 +9512,13 @@
         <v>0</v>
       </c>
       <c r="AO40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP40">
-        <v>0.83</v>
+        <v>1.2</v>
       </c>
       <c r="AQ40">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AR40">
         <v>1.38</v>
@@ -9718,13 +9718,13 @@
         <v>1</v>
       </c>
       <c r="AO41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="AQ41">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR41">
         <v>0.83</v>
@@ -9921,16 +9921,16 @@
         <v>1.95</v>
       </c>
       <c r="AN42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ42">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR42">
         <v>1.46</v>
@@ -10127,16 +10127,16 @@
         <v>2.4</v>
       </c>
       <c r="AN43">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO43">
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ43">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR43">
         <v>1.61</v>
@@ -10333,16 +10333,16 @@
         <v>1.83</v>
       </c>
       <c r="AN44">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO44">
         <v>2.33</v>
       </c>
       <c r="AP44">
-        <v>0.83</v>
+        <v>1.17</v>
       </c>
       <c r="AQ44">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>0.84</v>
@@ -10539,16 +10539,16 @@
         <v>1.48</v>
       </c>
       <c r="AN45">
+        <v>3</v>
+      </c>
+      <c r="AO45">
+        <v>1</v>
+      </c>
+      <c r="AP45">
         <v>1.67</v>
       </c>
-      <c r="AO45">
-        <v>1.75</v>
-      </c>
-      <c r="AP45">
-        <v>1.42</v>
-      </c>
       <c r="AQ45">
-        <v>2.08</v>
+        <v>2.17</v>
       </c>
       <c r="AR45">
         <v>1.94</v>
@@ -10745,16 +10745,16 @@
         <v>2.3</v>
       </c>
       <c r="AN46">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO46">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AQ46">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AR46">
         <v>1.94</v>
@@ -10951,16 +10951,16 @@
         <v>1.8</v>
       </c>
       <c r="AN47">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO47">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.36</v>
+        <v>1.71</v>
       </c>
       <c r="AQ47">
-        <v>1.67</v>
+        <v>1.29</v>
       </c>
       <c r="AR47">
         <v>1.86</v>
@@ -11160,13 +11160,13 @@
         <v>0</v>
       </c>
       <c r="AO48">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AP48">
-        <v>1.42</v>
+        <v>1.86</v>
       </c>
       <c r="AQ48">
-        <v>1.58</v>
+        <v>1.17</v>
       </c>
       <c r="AR48">
         <v>1.35</v>
@@ -11363,16 +11363,16 @@
         <v>1.51</v>
       </c>
       <c r="AN49">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AO49">
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="AQ49">
-        <v>1.27</v>
+        <v>1.67</v>
       </c>
       <c r="AR49">
         <v>0.89</v>
@@ -11569,16 +11569,16 @@
         <v>1.6</v>
       </c>
       <c r="AN50">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP50">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ50">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AR50">
         <v>1.92</v>
@@ -11778,13 +11778,13 @@
         <v>0.5</v>
       </c>
       <c r="AO51">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="AQ51">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR51">
         <v>1.66</v>
@@ -11987,10 +11987,10 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ52">
-        <v>0.83</v>
+        <v>0.57</v>
       </c>
       <c r="AR52">
         <v>1.83</v>
@@ -12187,16 +12187,16 @@
         <v>1.43</v>
       </c>
       <c r="AN53">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AO53">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ53">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="AR53">
         <v>1.47</v>
@@ -12396,13 +12396,13 @@
         <v>1</v>
       </c>
       <c r="AO54">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="AQ54">
-        <v>1.42</v>
+        <v>0.2</v>
       </c>
       <c r="AR54">
         <v>1.06</v>
@@ -12599,16 +12599,16 @@
         <v>1.9</v>
       </c>
       <c r="AN55">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AO55">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP55">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ55">
-        <v>1.45</v>
+        <v>0.8</v>
       </c>
       <c r="AR55">
         <v>2.22</v>
@@ -12808,13 +12808,13 @@
         <v>0</v>
       </c>
       <c r="AO56">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AP56">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AQ56">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="AR56">
         <v>2.29</v>
@@ -13011,16 +13011,16 @@
         <v>1.85</v>
       </c>
       <c r="AN57">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO57">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP57">
-        <v>1.09</v>
+        <v>1.43</v>
       </c>
       <c r="AQ57">
-        <v>1.09</v>
+        <v>1.4</v>
       </c>
       <c r="AR57">
         <v>2.19</v>
@@ -13220,13 +13220,13 @@
         <v>0</v>
       </c>
       <c r="AO58">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AQ58">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="AR58">
         <v>2.02</v>
@@ -13423,16 +13423,16 @@
         <v>1.62</v>
       </c>
       <c r="AN59">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="AO59">
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="AQ59">
-        <v>2.08</v>
+        <v>2.17</v>
       </c>
       <c r="AR59">
         <v>1.89</v>
@@ -13629,16 +13629,16 @@
         <v>1.98</v>
       </c>
       <c r="AN60">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AO60">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP60">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="AQ60">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR60">
         <v>1.63</v>
@@ -13835,16 +13835,16 @@
         <v>1.42</v>
       </c>
       <c r="AN61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO61">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.42</v>
+        <v>2.29</v>
       </c>
       <c r="AQ61">
-        <v>1.36</v>
+        <v>0.75</v>
       </c>
       <c r="AR61">
         <v>1.43</v>
@@ -14041,16 +14041,16 @@
         <v>1.83</v>
       </c>
       <c r="AN62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO62">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AP62">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ62">
-        <v>1.42</v>
+        <v>0.8</v>
       </c>
       <c r="AR62">
         <v>1.57</v>
@@ -14247,16 +14247,16 @@
         <v>2.15</v>
       </c>
       <c r="AN63">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AO63">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AP63">
-        <v>1.09</v>
+        <v>0.83</v>
       </c>
       <c r="AQ63">
-        <v>1.33</v>
+        <v>0.83</v>
       </c>
       <c r="AR63">
         <v>1.92</v>
@@ -14453,16 +14453,16 @@
         <v>1.62</v>
       </c>
       <c r="AN64">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="AO64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP64">
-        <v>1.58</v>
+        <v>2</v>
       </c>
       <c r="AQ64">
-        <v>1.09</v>
+        <v>0.5</v>
       </c>
       <c r="AR64">
         <v>1.04</v>
@@ -14659,16 +14659,16 @@
         <v>1.85</v>
       </c>
       <c r="AN65">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO65">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP65">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ65">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR65">
         <v>1.39</v>
@@ -14865,16 +14865,16 @@
         <v>1.77</v>
       </c>
       <c r="AN66">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO66">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR66">
         <v>1.49</v>
@@ -15071,16 +15071,16 @@
         <v>1.7</v>
       </c>
       <c r="AN67">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AO67">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP67">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ67">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="AR67">
         <v>1.06</v>
@@ -15280,13 +15280,13 @@
         <v>0</v>
       </c>
       <c r="AO68">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AP68">
-        <v>0.83</v>
+        <v>1.2</v>
       </c>
       <c r="AQ68">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR68">
         <v>1.18</v>
@@ -15483,16 +15483,16 @@
         <v>2.45</v>
       </c>
       <c r="AN69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO69">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP69">
-        <v>1.5</v>
+        <v>2.43</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AR69">
         <v>1.68</v>
@@ -15689,16 +15689,16 @@
         <v>1.67</v>
       </c>
       <c r="AN70">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO70">
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ70">
-        <v>1.27</v>
+        <v>1.67</v>
       </c>
       <c r="AR70">
         <v>1.13</v>
@@ -15895,16 +15895,16 @@
         <v>2.02</v>
       </c>
       <c r="AN71">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO71">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AP71">
-        <v>1.27</v>
+        <v>0.8</v>
       </c>
       <c r="AQ71">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AR71">
         <v>1.95</v>
@@ -16101,16 +16101,16 @@
         <v>1.39</v>
       </c>
       <c r="AN72">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO72">
+        <v>0</v>
+      </c>
+      <c r="AP72">
         <v>1.4</v>
       </c>
-      <c r="AP72">
-        <v>1.5</v>
-      </c>
       <c r="AQ72">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="AR72">
         <v>1.16</v>
@@ -16307,16 +16307,16 @@
         <v>1.52</v>
       </c>
       <c r="AN73">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="AO73">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="AP73">
-        <v>1.42</v>
+        <v>2.29</v>
       </c>
       <c r="AQ73">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="AR73">
         <v>1.41</v>
@@ -16513,16 +16513,16 @@
         <v>2.05</v>
       </c>
       <c r="AN74">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AO74">
         <v>1.75</v>
       </c>
       <c r="AP74">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ74">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR74">
         <v>1.9</v>
@@ -16719,16 +16719,16 @@
         <v>2.08</v>
       </c>
       <c r="AN75">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO75">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AP75">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ75">
-        <v>1.42</v>
+        <v>0.8</v>
       </c>
       <c r="AR75">
         <v>1.58</v>
@@ -16925,16 +16925,16 @@
         <v>1.45</v>
       </c>
       <c r="AN76">
-        <v>0.8</v>
+        <v>1.33</v>
       </c>
       <c r="AO76">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.09</v>
+        <v>0.83</v>
       </c>
       <c r="AQ76">
-        <v>1.67</v>
+        <v>1.29</v>
       </c>
       <c r="AR76">
         <v>1.96</v>
@@ -17131,16 +17131,16 @@
         <v>1.55</v>
       </c>
       <c r="AN77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO77">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.58</v>
+        <v>2</v>
       </c>
       <c r="AQ77">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AR77">
         <v>1.72</v>
@@ -17337,16 +17337,16 @@
         <v>1.5</v>
       </c>
       <c r="AN78">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AO78">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AP78">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AR78">
         <v>0.95</v>
@@ -17543,16 +17543,16 @@
         <v>2</v>
       </c>
       <c r="AN79">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AO79">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AP79">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="AQ79">
-        <v>0.83</v>
+        <v>0.57</v>
       </c>
       <c r="AR79">
         <v>1.49</v>
@@ -17749,16 +17749,16 @@
         <v>1.32</v>
       </c>
       <c r="AN80">
-        <v>1.2</v>
+        <v>1.67</v>
       </c>
       <c r="AO80">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AP80">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="AQ80">
-        <v>1.36</v>
+        <v>0.75</v>
       </c>
       <c r="AR80">
         <v>1.03</v>
@@ -17955,16 +17955,16 @@
         <v>1.9</v>
       </c>
       <c r="AN81">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AO81">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AP81">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ81">
-        <v>1.45</v>
+        <v>0.8</v>
       </c>
       <c r="AR81">
         <v>1.42</v>
@@ -18161,16 +18161,16 @@
         <v>2</v>
       </c>
       <c r="AN82">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="AO82">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="AQ82">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR82">
         <v>1.3</v>
@@ -18367,16 +18367,16 @@
         <v>1.85</v>
       </c>
       <c r="AN83">
+        <v>1</v>
+      </c>
+      <c r="AO83">
+        <v>0</v>
+      </c>
+      <c r="AP83">
         <v>1.8</v>
       </c>
-      <c r="AO83">
-        <v>0.5</v>
-      </c>
-      <c r="AP83">
-        <v>1.67</v>
-      </c>
       <c r="AQ83">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR83">
         <v>1.98</v>
@@ -18573,16 +18573,16 @@
         <v>2.05</v>
       </c>
       <c r="AN84">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO84">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AP84">
-        <v>1.09</v>
+        <v>1.43</v>
       </c>
       <c r="AQ84">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="AR84">
         <v>1.97</v>
@@ -18779,16 +18779,16 @@
         <v>1.62</v>
       </c>
       <c r="AN85">
+        <v>0.33</v>
+      </c>
+      <c r="AO85">
+        <v>0.33</v>
+      </c>
+      <c r="AP85">
+        <v>0.8</v>
+      </c>
+      <c r="AQ85">
         <v>0.2</v>
-      </c>
-      <c r="AO85">
-        <v>1.33</v>
-      </c>
-      <c r="AP85">
-        <v>0.64</v>
-      </c>
-      <c r="AQ85">
-        <v>1.42</v>
       </c>
       <c r="AR85">
         <v>1.75</v>
@@ -18985,16 +18985,16 @@
         <v>1.77</v>
       </c>
       <c r="AN86">
-        <v>0.67</v>
+        <v>1.5</v>
       </c>
       <c r="AO86">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AP86">
-        <v>1.42</v>
+        <v>1.86</v>
       </c>
       <c r="AQ86">
-        <v>1.09</v>
+        <v>0.5</v>
       </c>
       <c r="AR86">
         <v>1.69</v>
@@ -19191,16 +19191,16 @@
         <v>2.05</v>
       </c>
       <c r="AN87">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AO87">
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ87">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AR87">
         <v>1.69</v>
@@ -19397,16 +19397,16 @@
         <v>1.72</v>
       </c>
       <c r="AN88">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO88">
-        <v>1.83</v>
+        <v>1.25</v>
       </c>
       <c r="AP88">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ88">
-        <v>1.67</v>
+        <v>1.29</v>
       </c>
       <c r="AR88">
         <v>1.49</v>
@@ -19603,16 +19603,16 @@
         <v>2.15</v>
       </c>
       <c r="AN89">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO89">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AP89">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="AQ89">
-        <v>1.58</v>
+        <v>1.17</v>
       </c>
       <c r="AR89">
         <v>1.37</v>
@@ -19809,16 +19809,16 @@
         <v>2.35</v>
       </c>
       <c r="AN90">
-        <v>1.83</v>
+        <v>3</v>
       </c>
       <c r="AO90">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.36</v>
+        <v>1.71</v>
       </c>
       <c r="AQ90">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR90">
         <v>1.72</v>
@@ -20015,16 +20015,16 @@
         <v>2.2</v>
       </c>
       <c r="AN91">
-        <v>1.17</v>
+        <v>2.33</v>
       </c>
       <c r="AO91">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AP91">
-        <v>1.5</v>
+        <v>2.43</v>
       </c>
       <c r="AQ91">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR91">
         <v>2.05</v>
@@ -20221,16 +20221,16 @@
         <v>1.68</v>
       </c>
       <c r="AN92">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO92">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP92">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="AQ92">
-        <v>0.83</v>
+        <v>0.57</v>
       </c>
       <c r="AR92">
         <v>1.12</v>
@@ -20427,16 +20427,16 @@
         <v>1.65</v>
       </c>
       <c r="AN93">
-        <v>0.83</v>
+        <v>1.5</v>
       </c>
       <c r="AO93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP93">
-        <v>0.83</v>
+        <v>1.17</v>
       </c>
       <c r="AQ93">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="AR93">
         <v>1.63</v>
@@ -20636,13 +20636,13 @@
         <v>2</v>
       </c>
       <c r="AO94">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ94">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR94">
         <v>1.29</v>
@@ -20839,16 +20839,16 @@
         <v>1.55</v>
       </c>
       <c r="AN95">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AO95">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AP95">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="AQ95">
-        <v>1.27</v>
+        <v>1.67</v>
       </c>
       <c r="AR95">
         <v>1.11</v>
@@ -21045,16 +21045,16 @@
         <v>2</v>
       </c>
       <c r="AN96">
-        <v>1.17</v>
+        <v>1.67</v>
       </c>
       <c r="AO96">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AP96">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="AQ96">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AR96">
         <v>1.49</v>
@@ -21251,16 +21251,16 @@
         <v>2.05</v>
       </c>
       <c r="AN97">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AO97">
         <v>1.4</v>
       </c>
       <c r="AP97">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AQ97">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR97">
         <v>1.52</v>
@@ -21457,16 +21457,16 @@
         <v>1.9</v>
       </c>
       <c r="AN98">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO98">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AP98">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ98">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR98">
         <v>1.65</v>
@@ -21663,16 +21663,16 @@
         <v>1.47</v>
       </c>
       <c r="AN99">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AO99">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AP99">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ99">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="AR99">
         <v>1.42</v>
@@ -21869,16 +21869,16 @@
         <v>2.1</v>
       </c>
       <c r="AN100">
-        <v>0.71</v>
+        <v>1.33</v>
       </c>
       <c r="AO100">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AP100">
-        <v>1.42</v>
+        <v>1.86</v>
       </c>
       <c r="AQ100">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="AR100">
         <v>1.76</v>
@@ -22075,16 +22075,16 @@
         <v>2.34</v>
       </c>
       <c r="AN101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO101">
-        <v>1.14</v>
+        <v>0.5</v>
       </c>
       <c r="AP101">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="AQ101">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="AR101">
         <v>1.68</v>
@@ -22281,16 +22281,16 @@
         <v>1.54</v>
       </c>
       <c r="AN102">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AO102">
-        <v>1.71</v>
+        <v>2.33</v>
       </c>
       <c r="AP102">
-        <v>1.09</v>
+        <v>1.33</v>
       </c>
       <c r="AQ102">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="AR102">
         <v>0</v>
@@ -22487,16 +22487,16 @@
         <v>2.1</v>
       </c>
       <c r="AN103">
-        <v>1.14</v>
+        <v>2.33</v>
       </c>
       <c r="AO103">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.42</v>
+        <v>2.29</v>
       </c>
       <c r="AQ103">
-        <v>1.58</v>
+        <v>1.17</v>
       </c>
       <c r="AR103">
         <v>1.41</v>
@@ -22693,16 +22693,16 @@
         <v>1.78</v>
       </c>
       <c r="AN104">
-        <v>1.43</v>
+        <v>2</v>
       </c>
       <c r="AO104">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="AP104">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ104">
-        <v>1.09</v>
+        <v>1.4</v>
       </c>
       <c r="AR104">
         <v>1.9</v>
@@ -22899,16 +22899,16 @@
         <v>1.47</v>
       </c>
       <c r="AN105">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO105">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="AP105">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ105">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR105">
         <v>1.76</v>
@@ -23105,16 +23105,16 @@
         <v>1.57</v>
       </c>
       <c r="AN106">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AO106">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP106">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ106">
-        <v>2.08</v>
+        <v>2.17</v>
       </c>
       <c r="AR106">
         <v>1.67</v>
@@ -23311,16 +23311,16 @@
         <v>1.8</v>
       </c>
       <c r="AN107">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AO107">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AP107">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ107">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="AR107">
         <v>1.55</v>
@@ -23517,16 +23517,16 @@
         <v>1.62</v>
       </c>
       <c r="AN108">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="AO108">
-        <v>1.71</v>
+        <v>0.67</v>
       </c>
       <c r="AP108">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ108">
-        <v>1.36</v>
+        <v>0.75</v>
       </c>
       <c r="AR108">
         <v>1.42</v>
@@ -23723,16 +23723,16 @@
         <v>1.62</v>
       </c>
       <c r="AN109">
-        <v>2.17</v>
+        <v>1.75</v>
       </c>
       <c r="AO109">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="AP109">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="AQ109">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR109">
         <v>1.44</v>
@@ -23929,16 +23929,16 @@
         <v>1.72</v>
       </c>
       <c r="AN110">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="AO110">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AP110">
-        <v>0.83</v>
+        <v>1.2</v>
       </c>
       <c r="AQ110">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AR110">
         <v>1.31</v>
@@ -24135,16 +24135,16 @@
         <v>1.6</v>
       </c>
       <c r="AN111">
+        <v>3</v>
+      </c>
+      <c r="AO111">
+        <v>2</v>
+      </c>
+      <c r="AP111">
+        <v>1.43</v>
+      </c>
+      <c r="AQ111">
         <v>1.67</v>
-      </c>
-      <c r="AO111">
-        <v>2</v>
-      </c>
-      <c r="AP111">
-        <v>1.09</v>
-      </c>
-      <c r="AQ111">
-        <v>1.27</v>
       </c>
       <c r="AR111">
         <v>1.97</v>
@@ -24341,16 +24341,16 @@
         <v>2.1</v>
       </c>
       <c r="AN112">
-        <v>1.14</v>
+        <v>1.5</v>
       </c>
       <c r="AO112">
-        <v>1.29</v>
+        <v>0.5</v>
       </c>
       <c r="AP112">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="AQ112">
-        <v>1.33</v>
+        <v>0.83</v>
       </c>
       <c r="AR112">
         <v>1.79</v>
@@ -24547,16 +24547,16 @@
         <v>1.53</v>
       </c>
       <c r="AN113">
-        <v>1.43</v>
+        <v>3</v>
       </c>
       <c r="AO113">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AP113">
-        <v>1.09</v>
+        <v>1.33</v>
       </c>
       <c r="AQ113">
-        <v>1.09</v>
+        <v>1.4</v>
       </c>
       <c r="AR113">
         <v>1.35</v>
@@ -24753,16 +24753,16 @@
         <v>2.75</v>
       </c>
       <c r="AN114">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AO114">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP114">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ114">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AR114">
         <v>1.72</v>
@@ -24959,16 +24959,16 @@
         <v>2.3</v>
       </c>
       <c r="AN115">
-        <v>1.63</v>
+        <v>2.5</v>
       </c>
       <c r="AO115">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AP115">
-        <v>1.36</v>
+        <v>1.71</v>
       </c>
       <c r="AQ115">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR115">
         <v>1.63</v>
@@ -25165,16 +25165,16 @@
         <v>1.66</v>
       </c>
       <c r="AN116">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AO116">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="AP116">
-        <v>1.58</v>
+        <v>2</v>
       </c>
       <c r="AQ116">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="AR116">
         <v>1.54</v>
@@ -25371,16 +25371,16 @@
         <v>1.65</v>
       </c>
       <c r="AN117">
-        <v>1.57</v>
+        <v>2.5</v>
       </c>
       <c r="AO117">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP117">
-        <v>1.09</v>
+        <v>1.43</v>
       </c>
       <c r="AQ117">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="AR117">
         <v>1.94</v>
@@ -25577,16 +25577,16 @@
         <v>1.65</v>
       </c>
       <c r="AN118">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AO118">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP118">
-        <v>1.42</v>
+        <v>1.86</v>
       </c>
       <c r="AQ118">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR118">
         <v>1.77</v>
@@ -25783,16 +25783,16 @@
         <v>1.65</v>
       </c>
       <c r="AN119">
-        <v>1.13</v>
+        <v>2</v>
       </c>
       <c r="AO119">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP119">
-        <v>0.83</v>
+        <v>1.17</v>
       </c>
       <c r="AQ119">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR119">
         <v>1.52</v>
@@ -25989,16 +25989,16 @@
         <v>2.15</v>
       </c>
       <c r="AN120">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AO120">
-        <v>1.13</v>
+        <v>0.33</v>
       </c>
       <c r="AP120">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="AQ120">
-        <v>1.33</v>
+        <v>0.83</v>
       </c>
       <c r="AR120">
         <v>1.68</v>
@@ -26195,16 +26195,16 @@
         <v>2.05</v>
       </c>
       <c r="AN121">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AO121">
-        <v>1.38</v>
+        <v>0.67</v>
       </c>
       <c r="AP121">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ121">
-        <v>1.45</v>
+        <v>0.8</v>
       </c>
       <c r="AR121">
         <v>1.55</v>
@@ -26401,16 +26401,16 @@
         <v>1.9</v>
       </c>
       <c r="AN122">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO122">
-        <v>0.71</v>
+        <v>0.33</v>
       </c>
       <c r="AP122">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ122">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AR122">
         <v>1.34</v>
@@ -26607,16 +26607,16 @@
         <v>1.95</v>
       </c>
       <c r="AN123">
-        <v>1.38</v>
+        <v>2.5</v>
       </c>
       <c r="AO123">
-        <v>1.88</v>
+        <v>1.6</v>
       </c>
       <c r="AP123">
-        <v>1.5</v>
+        <v>2.43</v>
       </c>
       <c r="AQ123">
-        <v>1.67</v>
+        <v>1.29</v>
       </c>
       <c r="AR123">
         <v>2.06</v>
@@ -26813,16 +26813,16 @@
         <v>1.88</v>
       </c>
       <c r="AN124">
-        <v>0.86</v>
+        <v>1.67</v>
       </c>
       <c r="AO124">
-        <v>1.86</v>
+        <v>3</v>
       </c>
       <c r="AP124">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AQ124">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AR124">
         <v>1.78</v>
@@ -27019,16 +27019,16 @@
         <v>1.83</v>
       </c>
       <c r="AN125">
-        <v>1.38</v>
+        <v>2.5</v>
       </c>
       <c r="AO125">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="AP125">
-        <v>1.42</v>
+        <v>2.29</v>
       </c>
       <c r="AQ125">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AR125">
         <v>1.42</v>
@@ -27225,16 +27225,16 @@
         <v>2.36</v>
       </c>
       <c r="AN126">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AO126">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="AP126">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ126">
-        <v>0.83</v>
+        <v>0.57</v>
       </c>
       <c r="AR126">
         <v>1.66</v>
@@ -27431,16 +27431,16 @@
         <v>1.44</v>
       </c>
       <c r="AN127">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="AO127">
         <v>2</v>
       </c>
       <c r="AP127">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="AQ127">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR127">
         <v>1.28</v>
@@ -27637,16 +27637,16 @@
         <v>2.4</v>
       </c>
       <c r="AN128">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AO128">
-        <v>1.44</v>
+        <v>0.8</v>
       </c>
       <c r="AP128">
-        <v>1.09</v>
+        <v>0.83</v>
       </c>
       <c r="AQ128">
-        <v>1.58</v>
+        <v>1.17</v>
       </c>
       <c r="AR128">
         <v>1.86</v>
@@ -27843,16 +27843,16 @@
         <v>1.85</v>
       </c>
       <c r="AN129">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AO129">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AP129">
-        <v>1.27</v>
+        <v>0.8</v>
       </c>
       <c r="AQ129">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR129">
         <v>1.61</v>
@@ -28049,16 +28049,16 @@
         <v>1.95</v>
       </c>
       <c r="AN130">
-        <v>1.22</v>
+        <v>2</v>
       </c>
       <c r="AO130">
-        <v>1.22</v>
+        <v>0.25</v>
       </c>
       <c r="AP130">
-        <v>1.42</v>
+        <v>1.86</v>
       </c>
       <c r="AQ130">
-        <v>1.42</v>
+        <v>0.2</v>
       </c>
       <c r="AR130">
         <v>1.79</v>
@@ -28255,16 +28255,16 @@
         <v>2.15</v>
       </c>
       <c r="AN131">
-        <v>1.78</v>
+        <v>2.33</v>
       </c>
       <c r="AO131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP131">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="AQ131">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AR131">
         <v>1.71</v>
@@ -28461,16 +28461,16 @@
         <v>1.57</v>
       </c>
       <c r="AN132">
-        <v>1.11</v>
+        <v>1.5</v>
       </c>
       <c r="AO132">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="AP132">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ132">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR132">
         <v>1.89</v>
@@ -28667,16 +28667,16 @@
         <v>2.6</v>
       </c>
       <c r="AN133">
-        <v>1.56</v>
+        <v>2.2</v>
       </c>
       <c r="AO133">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="AP133">
-        <v>1.36</v>
+        <v>1.71</v>
       </c>
       <c r="AQ133">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR133">
         <v>1.78</v>
@@ -28873,16 +28873,16 @@
         <v>2.05</v>
       </c>
       <c r="AN134">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AO134">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AP134">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ134">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AR134">
         <v>1.41</v>
@@ -29079,16 +29079,16 @@
         <v>1.4</v>
       </c>
       <c r="AN135">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO135">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AP135">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AQ135">
-        <v>2.08</v>
+        <v>2.17</v>
       </c>
       <c r="AR135">
         <v>1.64</v>
@@ -29285,16 +29285,16 @@
         <v>1.75</v>
       </c>
       <c r="AN136">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AO136">
-        <v>1.22</v>
+        <v>1.67</v>
       </c>
       <c r="AP136">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ136">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AR136">
         <v>1.75</v>
@@ -29491,16 +29491,16 @@
         <v>1.67</v>
       </c>
       <c r="AN137">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO137">
-        <v>1.38</v>
+        <v>0.33</v>
       </c>
       <c r="AP137">
-        <v>0.83</v>
+        <v>1.17</v>
       </c>
       <c r="AQ137">
-        <v>1.09</v>
+        <v>0.5</v>
       </c>
       <c r="AR137">
         <v>1.51</v>
@@ -29697,16 +29697,16 @@
         <v>1.55</v>
       </c>
       <c r="AN138">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="AO138">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="AP138">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ138">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="AR138">
         <v>1.63</v>
@@ -29903,16 +29903,16 @@
         <v>1.77</v>
       </c>
       <c r="AN139">
-        <v>0.88</v>
+        <v>1.2</v>
       </c>
       <c r="AO139">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP139">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="AQ139">
-        <v>0.83</v>
+        <v>0.57</v>
       </c>
       <c r="AR139">
         <v>1.15</v>
@@ -30109,16 +30109,16 @@
         <v>2.75</v>
       </c>
       <c r="AN140">
-        <v>1.33</v>
+        <v>2.2</v>
       </c>
       <c r="AO140">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AP140">
-        <v>1.5</v>
+        <v>2.43</v>
       </c>
       <c r="AQ140">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR140">
         <v>2</v>
@@ -30315,16 +30315,16 @@
         <v>1.72</v>
       </c>
       <c r="AN141">
-        <v>1.63</v>
+        <v>1.33</v>
       </c>
       <c r="AO141">
-        <v>0.67</v>
+        <v>0.2</v>
       </c>
       <c r="AP141">
-        <v>1.27</v>
+        <v>0.8</v>
       </c>
       <c r="AQ141">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR141">
         <v>1.56</v>
@@ -30521,16 +30521,16 @@
         <v>2.14</v>
       </c>
       <c r="AN142">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO142">
-        <v>1.89</v>
+        <v>2.25</v>
       </c>
       <c r="AP142">
-        <v>1.09</v>
+        <v>1.43</v>
       </c>
       <c r="AQ142">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AR142">
         <v>1.86</v>
@@ -30727,16 +30727,16 @@
         <v>1.92</v>
       </c>
       <c r="AN143">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="AO143">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AP143">
-        <v>1.42</v>
+        <v>2.29</v>
       </c>
       <c r="AQ143">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR143">
         <v>1.31</v>
@@ -30933,16 +30933,16 @@
         <v>1.62</v>
       </c>
       <c r="AN144">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="AO144">
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="AP144">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ144">
-        <v>1.27</v>
+        <v>1.67</v>
       </c>
       <c r="AR144">
         <v>1.84</v>
@@ -31139,16 +31139,16 @@
         <v>2.05</v>
       </c>
       <c r="AN145">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AO145">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AP145">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ145">
-        <v>1.67</v>
+        <v>1.29</v>
       </c>
       <c r="AR145">
         <v>1.66</v>
@@ -31348,13 +31348,13 @@
         <v>1</v>
       </c>
       <c r="AO146">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AP146">
-        <v>1.09</v>
+        <v>0.83</v>
       </c>
       <c r="AQ146">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="AR146">
         <v>1.7</v>
@@ -31551,16 +31551,16 @@
         <v>1.39</v>
       </c>
       <c r="AN147">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AO147">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="AP147">
-        <v>0.83</v>
+        <v>1.2</v>
       </c>
       <c r="AQ147">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="AR147">
         <v>1.42</v>
@@ -31757,16 +31757,16 @@
         <v>1.67</v>
       </c>
       <c r="AN148">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="AO148">
-        <v>0.89</v>
+        <v>0.25</v>
       </c>
       <c r="AP148">
-        <v>1.58</v>
+        <v>2</v>
       </c>
       <c r="AQ148">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AR148">
         <v>1.55</v>
@@ -31963,16 +31963,16 @@
         <v>1.85</v>
       </c>
       <c r="AN149">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AO149">
+        <v>0.75</v>
+      </c>
+      <c r="AP149">
         <v>1.33</v>
       </c>
-      <c r="AP149">
-        <v>1.55</v>
-      </c>
       <c r="AQ149">
-        <v>1.45</v>
+        <v>0.8</v>
       </c>
       <c r="AR149">
         <v>1.71</v>
@@ -32169,16 +32169,16 @@
         <v>1.98</v>
       </c>
       <c r="AN150">
-        <v>0.89</v>
+        <v>1.17</v>
       </c>
       <c r="AO150">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AP150">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="AQ150">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR150">
         <v>1.24</v>
@@ -32375,16 +32375,16 @@
         <v>1.85</v>
       </c>
       <c r="AN151">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AO151">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="AP151">
-        <v>0.83</v>
+        <v>1.17</v>
       </c>
       <c r="AQ151">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="AR151">
         <v>1.35</v>
@@ -32581,16 +32581,16 @@
         <v>2.1</v>
       </c>
       <c r="AN152">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AO152">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="AP152">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ152">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AR152">
         <v>1.48</v>
@@ -32787,16 +32787,16 @@
         <v>2.3</v>
       </c>
       <c r="AN153">
-        <v>1.89</v>
+        <v>1.4</v>
       </c>
       <c r="AO153">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP153">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="AQ153">
-        <v>1.33</v>
+        <v>0.83</v>
       </c>
       <c r="AR153">
         <v>1.44</v>
@@ -32993,16 +32993,16 @@
         <v>1.95</v>
       </c>
       <c r="AN154">
-        <v>1.4</v>
+        <v>2.17</v>
       </c>
       <c r="AO154">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP154">
-        <v>1.42</v>
+        <v>1.86</v>
       </c>
       <c r="AQ154">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AR154">
         <v>1.8</v>
@@ -33199,16 +33199,16 @@
         <v>1.84</v>
       </c>
       <c r="AN155">
-        <v>0.9</v>
+        <v>1.25</v>
       </c>
       <c r="AO155">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AP155">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AQ155">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR155">
         <v>1.55</v>
@@ -33405,16 +33405,16 @@
         <v>2.15</v>
       </c>
       <c r="AN156">
-        <v>1.2</v>
+        <v>1.67</v>
       </c>
       <c r="AO156">
-        <v>1.27</v>
+        <v>0.8</v>
       </c>
       <c r="AP156">
-        <v>1.09</v>
+        <v>1.43</v>
       </c>
       <c r="AQ156">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR156">
         <v>1.86</v>
@@ -33611,16 +33611,16 @@
         <v>1.81</v>
       </c>
       <c r="AN157">
-        <v>1.27</v>
+        <v>2.17</v>
       </c>
       <c r="AO157">
-        <v>1.1</v>
+        <v>0.33</v>
       </c>
       <c r="AP157">
-        <v>1.42</v>
+        <v>2.29</v>
       </c>
       <c r="AQ157">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AR157">
         <v>1.3</v>
@@ -33817,16 +33817,16 @@
         <v>1.26</v>
       </c>
       <c r="AN158">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="AO158">
         <v>2</v>
       </c>
       <c r="AP158">
-        <v>1.09</v>
+        <v>1.33</v>
       </c>
       <c r="AQ158">
-        <v>2.08</v>
+        <v>2.17</v>
       </c>
       <c r="AR158">
         <v>1.25</v>
@@ -34023,16 +34023,16 @@
         <v>2.38</v>
       </c>
       <c r="AN159">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="AO159">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AP159">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="AQ159">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="AR159">
         <v>1.78</v>
@@ -34229,16 +34229,16 @@
         <v>1.91</v>
       </c>
       <c r="AN160">
+        <v>1</v>
+      </c>
+      <c r="AO160">
+        <v>1</v>
+      </c>
+      <c r="AP160">
+        <v>0.8</v>
+      </c>
+      <c r="AQ160">
         <v>1.4</v>
-      </c>
-      <c r="AO160">
-        <v>0.9</v>
-      </c>
-      <c r="AP160">
-        <v>1.27</v>
-      </c>
-      <c r="AQ160">
-        <v>1.09</v>
       </c>
       <c r="AR160">
         <v>1.52</v>
@@ -34435,16 +34435,16 @@
         <v>1.45</v>
       </c>
       <c r="AN161">
-        <v>1.73</v>
+        <v>2.4</v>
       </c>
       <c r="AO161">
-        <v>1.27</v>
+        <v>0.25</v>
       </c>
       <c r="AP161">
-        <v>1.58</v>
+        <v>2</v>
       </c>
       <c r="AQ161">
-        <v>1.42</v>
+        <v>0.8</v>
       </c>
       <c r="AR161">
         <v>1.51</v>
@@ -34641,16 +34641,16 @@
         <v>1.9</v>
       </c>
       <c r="AN162">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO162">
-        <v>1.91</v>
+        <v>2.17</v>
       </c>
       <c r="AP162">
-        <v>1.36</v>
+        <v>1.71</v>
       </c>
       <c r="AQ162">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="AR162">
         <v>1.7</v>
@@ -34847,16 +34847,16 @@
         <v>1.88</v>
       </c>
       <c r="AN163">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="AO163">
-        <v>1.45</v>
+        <v>1</v>
       </c>
       <c r="AP163">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ163">
-        <v>1.33</v>
+        <v>0.83</v>
       </c>
       <c r="AR163">
         <v>1.68</v>
@@ -35056,13 +35056,13 @@
         <v>1</v>
       </c>
       <c r="AO164">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AP164">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ164">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="AR164">
         <v>1.45</v>
@@ -35259,16 +35259,16 @@
         <v>2.1</v>
       </c>
       <c r="AN165">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="AO165">
-        <v>0.91</v>
+        <v>0.6</v>
       </c>
       <c r="AP165">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="AQ165">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="AR165">
         <v>1.69</v>
@@ -35465,16 +35465,16 @@
         <v>2.15</v>
       </c>
       <c r="AN166">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AO166">
-        <v>0.64</v>
+        <v>0.17</v>
       </c>
       <c r="AP166">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ166">
-        <v>0.83</v>
+        <v>0.57</v>
       </c>
       <c r="AR166">
         <v>1.32</v>
@@ -35671,16 +35671,16 @@
         <v>1.88</v>
       </c>
       <c r="AN167">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="AO167">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AP167">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ167">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR167">
         <v>1.69</v>
@@ -35877,16 +35877,16 @@
         <v>2.35</v>
       </c>
       <c r="AN168">
-        <v>1.36</v>
+        <v>2.33</v>
       </c>
       <c r="AO168">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="AP168">
-        <v>1.5</v>
+        <v>2.43</v>
       </c>
       <c r="AQ168">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AR168">
         <v>2.08</v>
@@ -36083,16 +36083,16 @@
         <v>1.5</v>
       </c>
       <c r="AN169">
-        <v>0.91</v>
+        <v>1.25</v>
       </c>
       <c r="AO169">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="AP169">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ169">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR169">
         <v>1.32</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="337">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -712,6 +712,24 @@
     <t>['15']</t>
   </si>
   <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['30', '80']</t>
+  </si>
+  <si>
+    <t>['81', '90+1']</t>
+  </si>
+  <si>
+    <t>['27', '58']</t>
+  </si>
+  <si>
+    <t>['74', '80', '90', '90+10']</t>
+  </si>
+  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -842,9 +860,6 @@
   </si>
   <si>
     <t>['52', '77']</t>
-  </si>
-  <si>
-    <t>['65']</t>
   </si>
   <si>
     <t>['45', '88']</t>
@@ -989,6 +1004,27 @@
   </si>
   <si>
     <t>['19', '50']</t>
+  </si>
+  <si>
+    <t>['45+2', '52', '57', '90+3']</t>
+  </si>
+  <si>
+    <t>['19', '59', '89']</t>
+  </si>
+  <si>
+    <t>['2', '45+1']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['61', '68']</t>
+  </si>
+  <si>
+    <t>['59', '90+5']</t>
+  </si>
+  <si>
+    <t>['31', '34']</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP169"/>
+  <dimension ref="A1:BP182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1896,7 +1932,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2021,7 +2057,7 @@
         <v>101</v>
       </c>
       <c r="P4" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -2102,7 +2138,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2308,7 +2344,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ5">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2433,7 +2469,7 @@
         <v>103</v>
       </c>
       <c r="P6" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2511,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ6">
         <v>0.5</v>
@@ -2717,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2845,7 +2881,7 @@
         <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2923,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ8">
         <v>0.5</v>
@@ -3051,7 +3087,7 @@
         <v>106</v>
       </c>
       <c r="P9" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3129,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>2.4</v>
@@ -3257,7 +3293,7 @@
         <v>107</v>
       </c>
       <c r="P10" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3338,7 +3374,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ10">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3669,7 +3705,7 @@
         <v>109</v>
       </c>
       <c r="P12" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3747,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ12">
         <v>1.71</v>
@@ -3875,7 +3911,7 @@
         <v>110</v>
       </c>
       <c r="P13" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3953,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13">
         <v>1.57</v>
@@ -4159,10 +4195,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ14">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4365,10 +4401,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ15">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4493,7 +4529,7 @@
         <v>111</v>
       </c>
       <c r="P16" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4574,7 +4610,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ16">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4777,10 +4813,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4983,10 +5019,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ18">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5317,7 +5353,7 @@
         <v>115</v>
       </c>
       <c r="P20" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -5398,7 +5434,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ20">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5523,7 +5559,7 @@
         <v>116</v>
       </c>
       <c r="P21" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5601,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>2.29</v>
@@ -5729,7 +5765,7 @@
         <v>117</v>
       </c>
       <c r="P22" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5935,7 +5971,7 @@
         <v>118</v>
       </c>
       <c r="P23" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6016,7 +6052,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ23">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR23">
         <v>1.42</v>
@@ -6425,10 +6461,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ25">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR25">
         <v>1.45</v>
@@ -6553,7 +6589,7 @@
         <v>121</v>
       </c>
       <c r="P26" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6631,7 +6667,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ26">
         <v>0.25</v>
@@ -6759,7 +6795,7 @@
         <v>122</v>
       </c>
       <c r="P27" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6837,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ27">
         <v>1.17</v>
@@ -6965,7 +7001,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7046,7 +7082,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ28">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -7458,7 +7494,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ30">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7583,7 +7619,7 @@
         <v>123</v>
       </c>
       <c r="P31" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q31">
         <v>2.37</v>
@@ -7870,7 +7906,7 @@
         <v>2</v>
       </c>
       <c r="AQ32">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR32">
         <v>0</v>
@@ -7995,7 +8031,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -8201,7 +8237,7 @@
         <v>126</v>
       </c>
       <c r="P34" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -8613,7 +8649,7 @@
         <v>128</v>
       </c>
       <c r="P36" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8691,7 +8727,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ36">
         <v>2.4</v>
@@ -8819,7 +8855,7 @@
         <v>129</v>
       </c>
       <c r="P37" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -8897,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
         <v>0.8</v>
@@ -9025,7 +9061,7 @@
         <v>130</v>
       </c>
       <c r="P38" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9103,7 +9139,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ38">
         <v>1.57</v>
@@ -9437,7 +9473,7 @@
         <v>104</v>
       </c>
       <c r="P40" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9518,7 +9554,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR40">
         <v>1.38</v>
@@ -9643,7 +9679,7 @@
         <v>131</v>
       </c>
       <c r="P41" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -9721,10 +9757,10 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ41">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR41">
         <v>0.83</v>
@@ -9927,7 +9963,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ42">
         <v>1.17</v>
@@ -10055,7 +10091,7 @@
         <v>132</v>
       </c>
       <c r="P43" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q43">
         <v>2.05</v>
@@ -10261,7 +10297,7 @@
         <v>133</v>
       </c>
       <c r="P44" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10339,7 +10375,7 @@
         <v>2.33</v>
       </c>
       <c r="AP44">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
         <v>1</v>
@@ -10467,7 +10503,7 @@
         <v>134</v>
       </c>
       <c r="P45" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10545,10 +10581,10 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ45">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR45">
         <v>1.94</v>
@@ -10960,7 +10996,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ47">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
         <v>1.86</v>
@@ -11166,7 +11202,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ48">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.35</v>
@@ -11291,7 +11327,7 @@
         <v>138</v>
       </c>
       <c r="P49" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11369,7 +11405,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
         <v>1.67</v>
@@ -11497,7 +11533,7 @@
         <v>139</v>
       </c>
       <c r="P50" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11578,7 +11614,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ50">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR50">
         <v>1.92</v>
@@ -11990,7 +12026,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ52">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR52">
         <v>1.83</v>
@@ -12193,10 +12229,10 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR53">
         <v>1.47</v>
@@ -12399,10 +12435,10 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ54">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR54">
         <v>1.06</v>
@@ -12527,7 +12563,7 @@
         <v>144</v>
       </c>
       <c r="P55" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12733,7 +12769,7 @@
         <v>145</v>
       </c>
       <c r="P56" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -13145,7 +13181,7 @@
         <v>147</v>
       </c>
       <c r="P58" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -13432,7 +13468,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ59">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR59">
         <v>1.89</v>
@@ -13557,7 +13593,7 @@
         <v>149</v>
       </c>
       <c r="P60" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13844,7 +13880,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ61">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR61">
         <v>1.43</v>
@@ -14047,10 +14083,10 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ62">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR62">
         <v>1.57</v>
@@ -14253,7 +14289,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ63">
         <v>0.83</v>
@@ -14462,7 +14498,7 @@
         <v>2</v>
       </c>
       <c r="AQ64">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR64">
         <v>1.04</v>
@@ -14587,7 +14623,7 @@
         <v>154</v>
       </c>
       <c r="P65" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14668,7 +14704,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ65">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR65">
         <v>1.39</v>
@@ -14793,7 +14829,7 @@
         <v>155</v>
       </c>
       <c r="P66" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14871,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ66">
         <v>1.17</v>
@@ -14999,7 +15035,7 @@
         <v>104</v>
       </c>
       <c r="P67" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15077,10 +15113,10 @@
         <v>0</v>
       </c>
       <c r="AP67">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ67">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR67">
         <v>1.06</v>
@@ -15205,7 +15241,7 @@
         <v>156</v>
       </c>
       <c r="P68" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15286,7 +15322,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ68">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR68">
         <v>1.18</v>
@@ -15617,7 +15653,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15695,7 +15731,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ70">
         <v>1.67</v>
@@ -15901,7 +15937,7 @@
         <v>3</v>
       </c>
       <c r="AP71">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ71">
         <v>2.4</v>
@@ -16029,7 +16065,7 @@
         <v>159</v>
       </c>
       <c r="P72" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16107,10 +16143,10 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ72">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR72">
         <v>1.16</v>
@@ -16235,7 +16271,7 @@
         <v>160</v>
       </c>
       <c r="P73" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16519,7 +16555,7 @@
         <v>1.75</v>
       </c>
       <c r="AP74">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ74">
         <v>1</v>
@@ -16647,7 +16683,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16728,7 +16764,7 @@
         <v>2</v>
       </c>
       <c r="AQ75">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR75">
         <v>1.58</v>
@@ -16853,7 +16889,7 @@
         <v>162</v>
       </c>
       <c r="P76" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q76">
         <v>3.1</v>
@@ -16931,10 +16967,10 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ76">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR76">
         <v>1.96</v>
@@ -17059,7 +17095,7 @@
         <v>163</v>
       </c>
       <c r="P77" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17265,7 +17301,7 @@
         <v>164</v>
       </c>
       <c r="P78" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17343,7 +17379,7 @@
         <v>0</v>
       </c>
       <c r="AP78">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ78">
         <v>0.2</v>
@@ -17552,7 +17588,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ79">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR79">
         <v>1.49</v>
@@ -17677,7 +17713,7 @@
         <v>166</v>
       </c>
       <c r="P80" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17755,10 +17791,10 @@
         <v>0.5</v>
       </c>
       <c r="AP80">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ80">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR80">
         <v>1.03</v>
@@ -17961,7 +17997,7 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ81">
         <v>0.8</v>
@@ -18089,7 +18125,7 @@
         <v>168</v>
       </c>
       <c r="P82" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18376,7 +18412,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ83">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR83">
         <v>1.98</v>
@@ -18788,7 +18824,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ85">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR85">
         <v>1.75</v>
@@ -18913,7 +18949,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18994,7 +19030,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ86">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR86">
         <v>1.69</v>
@@ -19119,7 +19155,7 @@
         <v>172</v>
       </c>
       <c r="P87" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q87">
         <v>2.2</v>
@@ -19325,7 +19361,7 @@
         <v>173</v>
       </c>
       <c r="P88" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19403,10 +19439,10 @@
         <v>1.25</v>
       </c>
       <c r="AP88">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ88">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR88">
         <v>1.49</v>
@@ -19612,7 +19648,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ89">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR89">
         <v>1.37</v>
@@ -19943,7 +19979,7 @@
         <v>176</v>
       </c>
       <c r="P91" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -20024,7 +20060,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ91">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR91">
         <v>2.05</v>
@@ -20149,7 +20185,7 @@
         <v>177</v>
       </c>
       <c r="P92" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q92">
         <v>2.88</v>
@@ -20227,10 +20263,10 @@
         <v>0</v>
       </c>
       <c r="AP92">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ92">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR92">
         <v>1.12</v>
@@ -20355,7 +20391,7 @@
         <v>178</v>
       </c>
       <c r="P93" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20433,10 +20469,10 @@
         <v>3</v>
       </c>
       <c r="AP93">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ93">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR93">
         <v>1.63</v>
@@ -20561,7 +20597,7 @@
         <v>179</v>
       </c>
       <c r="P94" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q94">
         <v>2.75</v>
@@ -20639,7 +20675,7 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ94">
         <v>1.71</v>
@@ -20767,7 +20803,7 @@
         <v>180</v>
       </c>
       <c r="P95" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q95">
         <v>3.1</v>
@@ -20845,7 +20881,7 @@
         <v>1.67</v>
       </c>
       <c r="AP95">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ95">
         <v>1.67</v>
@@ -21051,7 +21087,7 @@
         <v>0</v>
       </c>
       <c r="AP96">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ96">
         <v>0.2</v>
@@ -21385,7 +21421,7 @@
         <v>182</v>
       </c>
       <c r="P98" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21591,7 +21627,7 @@
         <v>183</v>
       </c>
       <c r="P99" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21669,10 +21705,10 @@
         <v>0</v>
       </c>
       <c r="AP99">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ99">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR99">
         <v>1.42</v>
@@ -22209,7 +22245,7 @@
         <v>185</v>
       </c>
       <c r="P102" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q102">
         <v>3.1</v>
@@ -22287,7 +22323,7 @@
         <v>2.33</v>
       </c>
       <c r="AP102">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ102">
         <v>2.29</v>
@@ -22415,7 +22451,7 @@
         <v>186</v>
       </c>
       <c r="P103" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q103">
         <v>2.3</v>
@@ -22496,7 +22532,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ103">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR103">
         <v>1.41</v>
@@ -22621,7 +22657,7 @@
         <v>187</v>
       </c>
       <c r="P104" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22699,7 +22735,7 @@
         <v>0</v>
       </c>
       <c r="AP104">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ104">
         <v>1.4</v>
@@ -22908,7 +22944,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ105">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR105">
         <v>1.76</v>
@@ -23033,7 +23069,7 @@
         <v>188</v>
       </c>
       <c r="P106" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23114,7 +23150,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ106">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR106">
         <v>1.67</v>
@@ -23239,7 +23275,7 @@
         <v>189</v>
       </c>
       <c r="P107" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q107">
         <v>2.75</v>
@@ -23317,10 +23353,10 @@
         <v>1.5</v>
       </c>
       <c r="AP107">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ107">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR107">
         <v>1.55</v>
@@ -23523,10 +23559,10 @@
         <v>0.67</v>
       </c>
       <c r="AP108">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ108">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR108">
         <v>1.42</v>
@@ -23651,7 +23687,7 @@
         <v>190</v>
       </c>
       <c r="P109" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q109">
         <v>2.6</v>
@@ -23732,7 +23768,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ109">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR109">
         <v>1.44</v>
@@ -23857,7 +23893,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q110">
         <v>2.88</v>
@@ -24063,7 +24099,7 @@
         <v>191</v>
       </c>
       <c r="P111" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24347,7 +24383,7 @@
         <v>0.5</v>
       </c>
       <c r="AP112">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ112">
         <v>0.83</v>
@@ -24475,7 +24511,7 @@
         <v>142</v>
       </c>
       <c r="P113" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24553,7 +24589,7 @@
         <v>1</v>
       </c>
       <c r="AP113">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ113">
         <v>1.4</v>
@@ -24681,7 +24717,7 @@
         <v>192</v>
       </c>
       <c r="P114" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q114">
         <v>1.91</v>
@@ -24887,7 +24923,7 @@
         <v>193</v>
       </c>
       <c r="P115" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q115">
         <v>2.1</v>
@@ -25299,7 +25335,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25711,7 +25747,7 @@
         <v>104</v>
       </c>
       <c r="P119" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q119">
         <v>2.88</v>
@@ -25789,7 +25825,7 @@
         <v>1.25</v>
       </c>
       <c r="AP119">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ119">
         <v>1.71</v>
@@ -26123,7 +26159,7 @@
         <v>196</v>
       </c>
       <c r="P121" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q121">
         <v>2.3</v>
@@ -26407,7 +26443,7 @@
         <v>0.33</v>
       </c>
       <c r="AP122">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ122">
         <v>0.2</v>
@@ -26535,7 +26571,7 @@
         <v>198</v>
       </c>
       <c r="P123" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q123">
         <v>2.5</v>
@@ -26616,7 +26652,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ123">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR123">
         <v>2.06</v>
@@ -26741,7 +26777,7 @@
         <v>104</v>
       </c>
       <c r="P124" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -26822,7 +26858,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ124">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR124">
         <v>1.78</v>
@@ -26947,7 +26983,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q125">
         <v>2.6</v>
@@ -27153,7 +27189,7 @@
         <v>199</v>
       </c>
       <c r="P126" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q126">
         <v>2.05</v>
@@ -27234,7 +27270,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ126">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR126">
         <v>1.66</v>
@@ -27437,10 +27473,10 @@
         <v>2</v>
       </c>
       <c r="AP127">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ127">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR127">
         <v>1.28</v>
@@ -27565,7 +27601,7 @@
         <v>201</v>
       </c>
       <c r="P128" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -27643,10 +27679,10 @@
         <v>0.8</v>
       </c>
       <c r="AP128">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ128">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR128">
         <v>1.86</v>
@@ -27771,7 +27807,7 @@
         <v>202</v>
       </c>
       <c r="P129" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q129">
         <v>2.5</v>
@@ -27849,7 +27885,7 @@
         <v>1.6</v>
       </c>
       <c r="AP129">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ129">
         <v>1.71</v>
@@ -28058,7 +28094,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ130">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR130">
         <v>1.79</v>
@@ -28264,7 +28300,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ131">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR131">
         <v>1.71</v>
@@ -28467,10 +28503,10 @@
         <v>0.25</v>
       </c>
       <c r="AP132">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ132">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR132">
         <v>1.89</v>
@@ -28801,7 +28837,7 @@
         <v>152</v>
       </c>
       <c r="P134" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -28879,7 +28915,7 @@
         <v>1.6</v>
       </c>
       <c r="AP134">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ134">
         <v>1.57</v>
@@ -29007,7 +29043,7 @@
         <v>206</v>
       </c>
       <c r="P135" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29088,7 +29124,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ135">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR135">
         <v>1.64</v>
@@ -29291,7 +29327,7 @@
         <v>1.67</v>
       </c>
       <c r="AP136">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ136">
         <v>1</v>
@@ -29497,10 +29533,10 @@
         <v>0.33</v>
       </c>
       <c r="AP137">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ137">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR137">
         <v>1.51</v>
@@ -29706,7 +29742,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ138">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR138">
         <v>1.63</v>
@@ -29831,7 +29867,7 @@
         <v>119</v>
       </c>
       <c r="P139" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -29909,10 +29945,10 @@
         <v>0</v>
       </c>
       <c r="AP139">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ139">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR139">
         <v>1.15</v>
@@ -30037,7 +30073,7 @@
         <v>209</v>
       </c>
       <c r="P140" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -30243,7 +30279,7 @@
         <v>210</v>
       </c>
       <c r="P141" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30321,10 +30357,10 @@
         <v>0.2</v>
       </c>
       <c r="AP141">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ141">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR141">
         <v>1.56</v>
@@ -30449,7 +30485,7 @@
         <v>211</v>
       </c>
       <c r="P142" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30861,7 +30897,7 @@
         <v>213</v>
       </c>
       <c r="P144" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q144">
         <v>2.88</v>
@@ -30939,7 +30975,7 @@
         <v>1.8</v>
       </c>
       <c r="AP144">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ144">
         <v>1.67</v>
@@ -31067,7 +31103,7 @@
         <v>214</v>
       </c>
       <c r="P145" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q145">
         <v>2.38</v>
@@ -31148,7 +31184,7 @@
         <v>2</v>
       </c>
       <c r="AQ145">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR145">
         <v>1.66</v>
@@ -31351,7 +31387,7 @@
         <v>2</v>
       </c>
       <c r="AP146">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ146">
         <v>2.29</v>
@@ -31560,7 +31596,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ147">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR147">
         <v>1.42</v>
@@ -32097,7 +32133,7 @@
         <v>217</v>
       </c>
       <c r="P150" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32175,7 +32211,7 @@
         <v>1.14</v>
       </c>
       <c r="AP150">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ150">
         <v>1</v>
@@ -32381,7 +32417,7 @@
         <v>0</v>
       </c>
       <c r="AP151">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ151">
         <v>0.5</v>
@@ -32587,7 +32623,7 @@
         <v>1.25</v>
       </c>
       <c r="AP152">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ152">
         <v>1</v>
@@ -32921,7 +32957,7 @@
         <v>104</v>
       </c>
       <c r="P154" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q154">
         <v>2.4</v>
@@ -33208,7 +33244,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ155">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR155">
         <v>1.55</v>
@@ -33333,7 +33369,7 @@
         <v>219</v>
       </c>
       <c r="P156" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33745,7 +33781,7 @@
         <v>221</v>
       </c>
       <c r="P158" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -33823,10 +33859,10 @@
         <v>2</v>
       </c>
       <c r="AP158">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ158">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR158">
         <v>1.25</v>
@@ -33951,7 +33987,7 @@
         <v>222</v>
       </c>
       <c r="P159" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q159">
         <v>2.1</v>
@@ -34157,7 +34193,7 @@
         <v>223</v>
       </c>
       <c r="P160" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q160">
         <v>2.5</v>
@@ -34235,7 +34271,7 @@
         <v>1</v>
       </c>
       <c r="AP160">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ160">
         <v>1.4</v>
@@ -34363,7 +34399,7 @@
         <v>224</v>
       </c>
       <c r="P161" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q161">
         <v>3.4</v>
@@ -34444,7 +34480,7 @@
         <v>2</v>
       </c>
       <c r="AQ161">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR161">
         <v>1.51</v>
@@ -34569,7 +34605,7 @@
         <v>162</v>
       </c>
       <c r="P162" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34981,7 +35017,7 @@
         <v>226</v>
       </c>
       <c r="P164" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q164">
         <v>2.75</v>
@@ -35062,7 +35098,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ164">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR164">
         <v>1.45</v>
@@ -35187,7 +35223,7 @@
         <v>227</v>
       </c>
       <c r="P165" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q165">
         <v>2.3</v>
@@ -35265,7 +35301,7 @@
         <v>0.6</v>
       </c>
       <c r="AP165">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ165">
         <v>0.5</v>
@@ -35393,7 +35429,7 @@
         <v>228</v>
       </c>
       <c r="P166" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q166">
         <v>2.3</v>
@@ -35471,10 +35507,10 @@
         <v>0.17</v>
       </c>
       <c r="AP166">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ166">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR166">
         <v>1.32</v>
@@ -35599,7 +35635,7 @@
         <v>229</v>
       </c>
       <c r="P167" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q167">
         <v>2.5</v>
@@ -35886,7 +35922,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ168">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR168">
         <v>2.08</v>
@@ -36011,7 +36047,7 @@
         <v>231</v>
       </c>
       <c r="P169" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q169">
         <v>3.2</v>
@@ -36089,10 +36125,10 @@
         <v>0.67</v>
       </c>
       <c r="AP169">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ169">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR169">
         <v>1.32</v>
@@ -36168,6 +36204,2684 @@
       </c>
       <c r="BP169">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7295404</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45427.85416666666</v>
+      </c>
+      <c r="F170">
+        <v>13</v>
+      </c>
+      <c r="G170" t="s">
+        <v>82</v>
+      </c>
+      <c r="H170" t="s">
+        <v>96</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>1</v>
+      </c>
+      <c r="O170" t="s">
+        <v>118</v>
+      </c>
+      <c r="P170" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q170">
+        <v>2.4</v>
+      </c>
+      <c r="R170">
+        <v>2.3</v>
+      </c>
+      <c r="S170">
+        <v>4.33</v>
+      </c>
+      <c r="T170">
+        <v>1.33</v>
+      </c>
+      <c r="U170">
+        <v>3.25</v>
+      </c>
+      <c r="V170">
+        <v>2.5</v>
+      </c>
+      <c r="W170">
+        <v>1.5</v>
+      </c>
+      <c r="X170">
+        <v>6</v>
+      </c>
+      <c r="Y170">
+        <v>1.13</v>
+      </c>
+      <c r="Z170">
+        <v>1.62</v>
+      </c>
+      <c r="AA170">
+        <v>3.75</v>
+      </c>
+      <c r="AB170">
+        <v>4.8</v>
+      </c>
+      <c r="AC170">
+        <v>1.03</v>
+      </c>
+      <c r="AD170">
+        <v>15</v>
+      </c>
+      <c r="AE170">
+        <v>1.26</v>
+      </c>
+      <c r="AF170">
+        <v>4</v>
+      </c>
+      <c r="AG170">
+        <v>1.65</v>
+      </c>
+      <c r="AH170">
+        <v>2.1</v>
+      </c>
+      <c r="AI170">
+        <v>1.67</v>
+      </c>
+      <c r="AJ170">
+        <v>2.1</v>
+      </c>
+      <c r="AK170">
+        <v>1.22</v>
+      </c>
+      <c r="AL170">
+        <v>1.2</v>
+      </c>
+      <c r="AM170">
+        <v>2.15</v>
+      </c>
+      <c r="AN170">
+        <v>1.6</v>
+      </c>
+      <c r="AO170">
+        <v>0.5</v>
+      </c>
+      <c r="AP170">
+        <v>1.83</v>
+      </c>
+      <c r="AQ170">
+        <v>0.4</v>
+      </c>
+      <c r="AR170">
+        <v>1.59</v>
+      </c>
+      <c r="AS170">
+        <v>1.42</v>
+      </c>
+      <c r="AT170">
+        <v>3.01</v>
+      </c>
+      <c r="AU170">
+        <v>6</v>
+      </c>
+      <c r="AV170">
+        <v>2</v>
+      </c>
+      <c r="AW170">
+        <v>2</v>
+      </c>
+      <c r="AX170">
+        <v>5</v>
+      </c>
+      <c r="AY170">
+        <v>8</v>
+      </c>
+      <c r="AZ170">
+        <v>7</v>
+      </c>
+      <c r="BA170">
+        <v>7</v>
+      </c>
+      <c r="BB170">
+        <v>3</v>
+      </c>
+      <c r="BC170">
+        <v>10</v>
+      </c>
+      <c r="BD170">
+        <v>1.67</v>
+      </c>
+      <c r="BE170">
+        <v>9.5</v>
+      </c>
+      <c r="BF170">
+        <v>2.58</v>
+      </c>
+      <c r="BG170">
+        <v>1.17</v>
+      </c>
+      <c r="BH170">
+        <v>4.2</v>
+      </c>
+      <c r="BI170">
+        <v>1.35</v>
+      </c>
+      <c r="BJ170">
+        <v>2.84</v>
+      </c>
+      <c r="BK170">
+        <v>1.68</v>
+      </c>
+      <c r="BL170">
+        <v>2.17</v>
+      </c>
+      <c r="BM170">
+        <v>2.07</v>
+      </c>
+      <c r="BN170">
+        <v>1.75</v>
+      </c>
+      <c r="BO170">
+        <v>2.69</v>
+      </c>
+      <c r="BP170">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7295405</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45427.85416666666</v>
+      </c>
+      <c r="F171">
+        <v>13</v>
+      </c>
+      <c r="G171" t="s">
+        <v>74</v>
+      </c>
+      <c r="H171" t="s">
+        <v>97</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>4</v>
+      </c>
+      <c r="N171">
+        <v>5</v>
+      </c>
+      <c r="O171" t="s">
+        <v>232</v>
+      </c>
+      <c r="P171" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q171">
+        <v>3.1</v>
+      </c>
+      <c r="R171">
+        <v>2.25</v>
+      </c>
+      <c r="S171">
+        <v>3.2</v>
+      </c>
+      <c r="T171">
+        <v>1.33</v>
+      </c>
+      <c r="U171">
+        <v>3.25</v>
+      </c>
+      <c r="V171">
+        <v>2.63</v>
+      </c>
+      <c r="W171">
+        <v>1.44</v>
+      </c>
+      <c r="X171">
+        <v>7</v>
+      </c>
+      <c r="Y171">
+        <v>1.1</v>
+      </c>
+      <c r="Z171">
+        <v>2.05</v>
+      </c>
+      <c r="AA171">
+        <v>3.4</v>
+      </c>
+      <c r="AB171">
+        <v>3.2</v>
+      </c>
+      <c r="AC171">
+        <v>1.05</v>
+      </c>
+      <c r="AD171">
+        <v>13.25</v>
+      </c>
+      <c r="AE171">
+        <v>1.26</v>
+      </c>
+      <c r="AF171">
+        <v>3.95</v>
+      </c>
+      <c r="AG171">
+        <v>1.75</v>
+      </c>
+      <c r="AH171">
+        <v>1.95</v>
+      </c>
+      <c r="AI171">
+        <v>1.62</v>
+      </c>
+      <c r="AJ171">
+        <v>2.2</v>
+      </c>
+      <c r="AK171">
+        <v>1.45</v>
+      </c>
+      <c r="AL171">
+        <v>1.25</v>
+      </c>
+      <c r="AM171">
+        <v>1.5</v>
+      </c>
+      <c r="AN171">
+        <v>1.67</v>
+      </c>
+      <c r="AO171">
+        <v>1.29</v>
+      </c>
+      <c r="AP171">
+        <v>1.43</v>
+      </c>
+      <c r="AQ171">
+        <v>1.5</v>
+      </c>
+      <c r="AR171">
+        <v>1.72</v>
+      </c>
+      <c r="AS171">
+        <v>1.19</v>
+      </c>
+      <c r="AT171">
+        <v>2.91</v>
+      </c>
+      <c r="AU171">
+        <v>8</v>
+      </c>
+      <c r="AV171">
+        <v>8</v>
+      </c>
+      <c r="AW171">
+        <v>8</v>
+      </c>
+      <c r="AX171">
+        <v>2</v>
+      </c>
+      <c r="AY171">
+        <v>16</v>
+      </c>
+      <c r="AZ171">
+        <v>10</v>
+      </c>
+      <c r="BA171">
+        <v>10</v>
+      </c>
+      <c r="BB171">
+        <v>5</v>
+      </c>
+      <c r="BC171">
+        <v>15</v>
+      </c>
+      <c r="BD171">
+        <v>1.77</v>
+      </c>
+      <c r="BE171">
+        <v>8.9</v>
+      </c>
+      <c r="BF171">
+        <v>2.4</v>
+      </c>
+      <c r="BG171">
+        <v>1.25</v>
+      </c>
+      <c r="BH171">
+        <v>3.42</v>
+      </c>
+      <c r="BI171">
+        <v>1.55</v>
+      </c>
+      <c r="BJ171">
+        <v>2.43</v>
+      </c>
+      <c r="BK171">
+        <v>2</v>
+      </c>
+      <c r="BL171">
+        <v>1.73</v>
+      </c>
+      <c r="BM171">
+        <v>2.37</v>
+      </c>
+      <c r="BN171">
+        <v>1.57</v>
+      </c>
+      <c r="BO171">
+        <v>3.18</v>
+      </c>
+      <c r="BP171">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7295406</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45427.85416666666</v>
+      </c>
+      <c r="F172">
+        <v>13</v>
+      </c>
+      <c r="G172" t="s">
+        <v>98</v>
+      </c>
+      <c r="H172" t="s">
+        <v>71</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>1</v>
+      </c>
+      <c r="K172">
+        <v>2</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>3</v>
+      </c>
+      <c r="N172">
+        <v>4</v>
+      </c>
+      <c r="O172" t="s">
+        <v>233</v>
+      </c>
+      <c r="P172" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q172">
+        <v>3.5</v>
+      </c>
+      <c r="R172">
+        <v>2.25</v>
+      </c>
+      <c r="S172">
+        <v>2.88</v>
+      </c>
+      <c r="T172">
+        <v>1.33</v>
+      </c>
+      <c r="U172">
+        <v>3.25</v>
+      </c>
+      <c r="V172">
+        <v>2.63</v>
+      </c>
+      <c r="W172">
+        <v>1.44</v>
+      </c>
+      <c r="X172">
+        <v>7</v>
+      </c>
+      <c r="Y172">
+        <v>1.1</v>
+      </c>
+      <c r="Z172">
+        <v>2.9</v>
+      </c>
+      <c r="AA172">
+        <v>3.5</v>
+      </c>
+      <c r="AB172">
+        <v>2.15</v>
+      </c>
+      <c r="AC172">
+        <v>1.04</v>
+      </c>
+      <c r="AD172">
+        <v>14.75</v>
+      </c>
+      <c r="AE172">
+        <v>1.25</v>
+      </c>
+      <c r="AF172">
+        <v>4.05</v>
+      </c>
+      <c r="AG172">
+        <v>1.75</v>
+      </c>
+      <c r="AH172">
+        <v>1.95</v>
+      </c>
+      <c r="AI172">
+        <v>1.67</v>
+      </c>
+      <c r="AJ172">
+        <v>2.1</v>
+      </c>
+      <c r="AK172">
+        <v>1.78</v>
+      </c>
+      <c r="AL172">
+        <v>1.24</v>
+      </c>
+      <c r="AM172">
+        <v>1.33</v>
+      </c>
+      <c r="AN172">
+        <v>1.33</v>
+      </c>
+      <c r="AO172">
+        <v>0.75</v>
+      </c>
+      <c r="AP172">
+        <v>1</v>
+      </c>
+      <c r="AQ172">
+        <v>1.2</v>
+      </c>
+      <c r="AR172">
+        <v>1.44</v>
+      </c>
+      <c r="AS172">
+        <v>1.2</v>
+      </c>
+      <c r="AT172">
+        <v>2.64</v>
+      </c>
+      <c r="AU172">
+        <v>4</v>
+      </c>
+      <c r="AV172">
+        <v>7</v>
+      </c>
+      <c r="AW172">
+        <v>4</v>
+      </c>
+      <c r="AX172">
+        <v>3</v>
+      </c>
+      <c r="AY172">
+        <v>8</v>
+      </c>
+      <c r="AZ172">
+        <v>10</v>
+      </c>
+      <c r="BA172">
+        <v>1</v>
+      </c>
+      <c r="BB172">
+        <v>2</v>
+      </c>
+      <c r="BC172">
+        <v>3</v>
+      </c>
+      <c r="BD172">
+        <v>2.28</v>
+      </c>
+      <c r="BE172">
+        <v>8.5</v>
+      </c>
+      <c r="BF172">
+        <v>1.86</v>
+      </c>
+      <c r="BG172">
+        <v>1.33</v>
+      </c>
+      <c r="BH172">
+        <v>2.91</v>
+      </c>
+      <c r="BI172">
+        <v>1.7</v>
+      </c>
+      <c r="BJ172">
+        <v>2.05</v>
+      </c>
+      <c r="BK172">
+        <v>1.95</v>
+      </c>
+      <c r="BL172">
+        <v>1.77</v>
+      </c>
+      <c r="BM172">
+        <v>2.76</v>
+      </c>
+      <c r="BN172">
+        <v>1.39</v>
+      </c>
+      <c r="BO172">
+        <v>3.84</v>
+      </c>
+      <c r="BP172">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7295407</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45427.85416666666</v>
+      </c>
+      <c r="F173">
+        <v>13</v>
+      </c>
+      <c r="G173" t="s">
+        <v>75</v>
+      </c>
+      <c r="H173" t="s">
+        <v>70</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+      <c r="O173" t="s">
+        <v>104</v>
+      </c>
+      <c r="P173" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q173">
+        <v>3.4</v>
+      </c>
+      <c r="R173">
+        <v>2.3</v>
+      </c>
+      <c r="S173">
+        <v>2.75</v>
+      </c>
+      <c r="T173">
+        <v>1.3</v>
+      </c>
+      <c r="U173">
+        <v>3.4</v>
+      </c>
+      <c r="V173">
+        <v>2.5</v>
+      </c>
+      <c r="W173">
+        <v>1.5</v>
+      </c>
+      <c r="X173">
+        <v>6</v>
+      </c>
+      <c r="Y173">
+        <v>1.13</v>
+      </c>
+      <c r="Z173">
+        <v>2.88</v>
+      </c>
+      <c r="AA173">
+        <v>3.6</v>
+      </c>
+      <c r="AB173">
+        <v>2.15</v>
+      </c>
+      <c r="AC173">
+        <v>1.03</v>
+      </c>
+      <c r="AD173">
+        <v>17</v>
+      </c>
+      <c r="AE173">
+        <v>1.2</v>
+      </c>
+      <c r="AF173">
+        <v>4.65</v>
+      </c>
+      <c r="AG173">
+        <v>1.6</v>
+      </c>
+      <c r="AH173">
+        <v>2.3</v>
+      </c>
+      <c r="AI173">
+        <v>1.57</v>
+      </c>
+      <c r="AJ173">
+        <v>2.25</v>
+      </c>
+      <c r="AK173">
+        <v>1.62</v>
+      </c>
+      <c r="AL173">
+        <v>1.22</v>
+      </c>
+      <c r="AM173">
+        <v>1.38</v>
+      </c>
+      <c r="AN173">
+        <v>0.83</v>
+      </c>
+      <c r="AO173">
+        <v>2.17</v>
+      </c>
+      <c r="AP173">
+        <v>0.86</v>
+      </c>
+      <c r="AQ173">
+        <v>2</v>
+      </c>
+      <c r="AR173">
+        <v>1.59</v>
+      </c>
+      <c r="AS173">
+        <v>1.38</v>
+      </c>
+      <c r="AT173">
+        <v>2.97</v>
+      </c>
+      <c r="AU173">
+        <v>4</v>
+      </c>
+      <c r="AV173">
+        <v>4</v>
+      </c>
+      <c r="AW173">
+        <v>4</v>
+      </c>
+      <c r="AX173">
+        <v>2</v>
+      </c>
+      <c r="AY173">
+        <v>8</v>
+      </c>
+      <c r="AZ173">
+        <v>6</v>
+      </c>
+      <c r="BA173">
+        <v>8</v>
+      </c>
+      <c r="BB173">
+        <v>4</v>
+      </c>
+      <c r="BC173">
+        <v>12</v>
+      </c>
+      <c r="BD173">
+        <v>1.65</v>
+      </c>
+      <c r="BE173">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF173">
+        <v>2.68</v>
+      </c>
+      <c r="BG173">
+        <v>1.38</v>
+      </c>
+      <c r="BH173">
+        <v>2.71</v>
+      </c>
+      <c r="BI173">
+        <v>1.8</v>
+      </c>
+      <c r="BJ173">
+        <v>1.9</v>
+      </c>
+      <c r="BK173">
+        <v>2.05</v>
+      </c>
+      <c r="BL173">
+        <v>1.7</v>
+      </c>
+      <c r="BM173">
+        <v>2.66</v>
+      </c>
+      <c r="BN173">
+        <v>1.43</v>
+      </c>
+      <c r="BO173">
+        <v>4.2</v>
+      </c>
+      <c r="BP173">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7295408</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45427.85416666666</v>
+      </c>
+      <c r="F174">
+        <v>13</v>
+      </c>
+      <c r="G174" t="s">
+        <v>76</v>
+      </c>
+      <c r="H174" t="s">
+        <v>94</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>2</v>
+      </c>
+      <c r="K174">
+        <v>2</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>2</v>
+      </c>
+      <c r="N174">
+        <v>3</v>
+      </c>
+      <c r="O174" t="s">
+        <v>121</v>
+      </c>
+      <c r="P174" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q174">
+        <v>2.5</v>
+      </c>
+      <c r="R174">
+        <v>2.25</v>
+      </c>
+      <c r="S174">
+        <v>4.33</v>
+      </c>
+      <c r="T174">
+        <v>1.36</v>
+      </c>
+      <c r="U174">
+        <v>3</v>
+      </c>
+      <c r="V174">
+        <v>2.63</v>
+      </c>
+      <c r="W174">
+        <v>1.44</v>
+      </c>
+      <c r="X174">
+        <v>7</v>
+      </c>
+      <c r="Y174">
+        <v>1.1</v>
+      </c>
+      <c r="Z174">
+        <v>1.7</v>
+      </c>
+      <c r="AA174">
+        <v>3.6</v>
+      </c>
+      <c r="AB174">
+        <v>4.4</v>
+      </c>
+      <c r="AC174">
+        <v>1.04</v>
+      </c>
+      <c r="AD174">
+        <v>13</v>
+      </c>
+      <c r="AE174">
+        <v>1.28</v>
+      </c>
+      <c r="AF174">
+        <v>3.75</v>
+      </c>
+      <c r="AG174">
+        <v>1.75</v>
+      </c>
+      <c r="AH174">
+        <v>1.95</v>
+      </c>
+      <c r="AI174">
+        <v>1.7</v>
+      </c>
+      <c r="AJ174">
+        <v>2.05</v>
+      </c>
+      <c r="AK174">
+        <v>1.28</v>
+      </c>
+      <c r="AL174">
+        <v>1.24</v>
+      </c>
+      <c r="AM174">
+        <v>1.9</v>
+      </c>
+      <c r="AN174">
+        <v>0.8</v>
+      </c>
+      <c r="AO174">
+        <v>0.8</v>
+      </c>
+      <c r="AP174">
+        <v>0.67</v>
+      </c>
+      <c r="AQ174">
+        <v>1.17</v>
+      </c>
+      <c r="AR174">
+        <v>1.71</v>
+      </c>
+      <c r="AS174">
+        <v>1.04</v>
+      </c>
+      <c r="AT174">
+        <v>2.75</v>
+      </c>
+      <c r="AU174">
+        <v>6</v>
+      </c>
+      <c r="AV174">
+        <v>8</v>
+      </c>
+      <c r="AW174">
+        <v>14</v>
+      </c>
+      <c r="AX174">
+        <v>3</v>
+      </c>
+      <c r="AY174">
+        <v>20</v>
+      </c>
+      <c r="AZ174">
+        <v>11</v>
+      </c>
+      <c r="BA174">
+        <v>9</v>
+      </c>
+      <c r="BB174">
+        <v>3</v>
+      </c>
+      <c r="BC174">
+        <v>12</v>
+      </c>
+      <c r="BD174">
+        <v>1.62</v>
+      </c>
+      <c r="BE174">
+        <v>8.5</v>
+      </c>
+      <c r="BF174">
+        <v>2.6</v>
+      </c>
+      <c r="BG174">
+        <v>1.3</v>
+      </c>
+      <c r="BH174">
+        <v>3.3</v>
+      </c>
+      <c r="BI174">
+        <v>1.55</v>
+      </c>
+      <c r="BJ174">
+        <v>2.41</v>
+      </c>
+      <c r="BK174">
+        <v>2.05</v>
+      </c>
+      <c r="BL174">
+        <v>1.7</v>
+      </c>
+      <c r="BM174">
+        <v>2.36</v>
+      </c>
+      <c r="BN174">
+        <v>1.57</v>
+      </c>
+      <c r="BO174">
+        <v>3.1</v>
+      </c>
+      <c r="BP174">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7295409</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45427.89583333334</v>
+      </c>
+      <c r="F175">
+        <v>13</v>
+      </c>
+      <c r="G175" t="s">
+        <v>77</v>
+      </c>
+      <c r="H175" t="s">
+        <v>79</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>1</v>
+      </c>
+      <c r="O175" t="s">
+        <v>175</v>
+      </c>
+      <c r="P175" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q175">
+        <v>3.1</v>
+      </c>
+      <c r="R175">
+        <v>2.2</v>
+      </c>
+      <c r="S175">
+        <v>3.4</v>
+      </c>
+      <c r="T175">
+        <v>1.4</v>
+      </c>
+      <c r="U175">
+        <v>2.75</v>
+      </c>
+      <c r="V175">
+        <v>2.75</v>
+      </c>
+      <c r="W175">
+        <v>1.4</v>
+      </c>
+      <c r="X175">
+        <v>8</v>
+      </c>
+      <c r="Y175">
+        <v>1.08</v>
+      </c>
+      <c r="Z175">
+        <v>2.4</v>
+      </c>
+      <c r="AA175">
+        <v>3.2</v>
+      </c>
+      <c r="AB175">
+        <v>2.8</v>
+      </c>
+      <c r="AC175">
+        <v>1.05</v>
+      </c>
+      <c r="AD175">
+        <v>13.25</v>
+      </c>
+      <c r="AE175">
+        <v>1.26</v>
+      </c>
+      <c r="AF175">
+        <v>3.92</v>
+      </c>
+      <c r="AG175">
+        <v>1.85</v>
+      </c>
+      <c r="AH175">
+        <v>1.85</v>
+      </c>
+      <c r="AI175">
+        <v>1.75</v>
+      </c>
+      <c r="AJ175">
+        <v>2</v>
+      </c>
+      <c r="AK175">
+        <v>1.38</v>
+      </c>
+      <c r="AL175">
+        <v>1.25</v>
+      </c>
+      <c r="AM175">
+        <v>1.68</v>
+      </c>
+      <c r="AN175">
+        <v>1.83</v>
+      </c>
+      <c r="AO175">
+        <v>1.8</v>
+      </c>
+      <c r="AP175">
+        <v>2</v>
+      </c>
+      <c r="AQ175">
+        <v>1.5</v>
+      </c>
+      <c r="AR175">
+        <v>1.26</v>
+      </c>
+      <c r="AS175">
+        <v>0.98</v>
+      </c>
+      <c r="AT175">
+        <v>2.24</v>
+      </c>
+      <c r="AU175">
+        <v>5</v>
+      </c>
+      <c r="AV175">
+        <v>7</v>
+      </c>
+      <c r="AW175">
+        <v>7</v>
+      </c>
+      <c r="AX175">
+        <v>4</v>
+      </c>
+      <c r="AY175">
+        <v>12</v>
+      </c>
+      <c r="AZ175">
+        <v>11</v>
+      </c>
+      <c r="BA175">
+        <v>7</v>
+      </c>
+      <c r="BB175">
+        <v>5</v>
+      </c>
+      <c r="BC175">
+        <v>12</v>
+      </c>
+      <c r="BD175">
+        <v>1.78</v>
+      </c>
+      <c r="BE175">
+        <v>9</v>
+      </c>
+      <c r="BF175">
+        <v>2.38</v>
+      </c>
+      <c r="BG175">
+        <v>1.2</v>
+      </c>
+      <c r="BH175">
+        <v>3.88</v>
+      </c>
+      <c r="BI175">
+        <v>1.4</v>
+      </c>
+      <c r="BJ175">
+        <v>2.72</v>
+      </c>
+      <c r="BK175">
+        <v>1.74</v>
+      </c>
+      <c r="BL175">
+        <v>2.07</v>
+      </c>
+      <c r="BM175">
+        <v>2.05</v>
+      </c>
+      <c r="BN175">
+        <v>1.7</v>
+      </c>
+      <c r="BO175">
+        <v>2.84</v>
+      </c>
+      <c r="BP175">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7295410</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45427.89583333334</v>
+      </c>
+      <c r="F176">
+        <v>13</v>
+      </c>
+      <c r="G176" t="s">
+        <v>88</v>
+      </c>
+      <c r="H176" t="s">
+        <v>73</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176">
+        <v>1</v>
+      </c>
+      <c r="O176" t="s">
+        <v>104</v>
+      </c>
+      <c r="P176" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q176">
+        <v>2.75</v>
+      </c>
+      <c r="R176">
+        <v>2.2</v>
+      </c>
+      <c r="S176">
+        <v>3.75</v>
+      </c>
+      <c r="T176">
+        <v>1.36</v>
+      </c>
+      <c r="U176">
+        <v>3</v>
+      </c>
+      <c r="V176">
+        <v>2.75</v>
+      </c>
+      <c r="W176">
+        <v>1.4</v>
+      </c>
+      <c r="X176">
+        <v>7</v>
+      </c>
+      <c r="Y176">
+        <v>1.1</v>
+      </c>
+      <c r="Z176">
+        <v>2.05</v>
+      </c>
+      <c r="AA176">
+        <v>3.4</v>
+      </c>
+      <c r="AB176">
+        <v>3.3</v>
+      </c>
+      <c r="AC176">
+        <v>1.05</v>
+      </c>
+      <c r="AD176">
+        <v>13.25</v>
+      </c>
+      <c r="AE176">
+        <v>1.26</v>
+      </c>
+      <c r="AF176">
+        <v>3.9</v>
+      </c>
+      <c r="AG176">
+        <v>1.8</v>
+      </c>
+      <c r="AH176">
+        <v>1.9</v>
+      </c>
+      <c r="AI176">
+        <v>1.7</v>
+      </c>
+      <c r="AJ176">
+        <v>2.05</v>
+      </c>
+      <c r="AK176">
+        <v>1.4</v>
+      </c>
+      <c r="AL176">
+        <v>1.3</v>
+      </c>
+      <c r="AM176">
+        <v>1.62</v>
+      </c>
+      <c r="AN176">
+        <v>1.17</v>
+      </c>
+      <c r="AO176">
+        <v>0.2</v>
+      </c>
+      <c r="AP176">
+        <v>1</v>
+      </c>
+      <c r="AQ176">
+        <v>0.67</v>
+      </c>
+      <c r="AR176">
+        <v>1.41</v>
+      </c>
+      <c r="AS176">
+        <v>1.27</v>
+      </c>
+      <c r="AT176">
+        <v>2.68</v>
+      </c>
+      <c r="AU176">
+        <v>5</v>
+      </c>
+      <c r="AV176">
+        <v>3</v>
+      </c>
+      <c r="AW176">
+        <v>4</v>
+      </c>
+      <c r="AX176">
+        <v>5</v>
+      </c>
+      <c r="AY176">
+        <v>9</v>
+      </c>
+      <c r="AZ176">
+        <v>8</v>
+      </c>
+      <c r="BA176">
+        <v>10</v>
+      </c>
+      <c r="BB176">
+        <v>7</v>
+      </c>
+      <c r="BC176">
+        <v>17</v>
+      </c>
+      <c r="BD176">
+        <v>1.94</v>
+      </c>
+      <c r="BE176">
+        <v>8.9</v>
+      </c>
+      <c r="BF176">
+        <v>2.15</v>
+      </c>
+      <c r="BG176">
+        <v>1.24</v>
+      </c>
+      <c r="BH176">
+        <v>3.48</v>
+      </c>
+      <c r="BI176">
+        <v>1.53</v>
+      </c>
+      <c r="BJ176">
+        <v>2.45</v>
+      </c>
+      <c r="BK176">
+        <v>1.85</v>
+      </c>
+      <c r="BL176">
+        <v>1.85</v>
+      </c>
+      <c r="BM176">
+        <v>2.32</v>
+      </c>
+      <c r="BN176">
+        <v>1.58</v>
+      </c>
+      <c r="BO176">
+        <v>3.14</v>
+      </c>
+      <c r="BP176">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7295411</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45427.89583333334</v>
+      </c>
+      <c r="F177">
+        <v>13</v>
+      </c>
+      <c r="G177" t="s">
+        <v>85</v>
+      </c>
+      <c r="H177" t="s">
+        <v>84</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>1</v>
+      </c>
+      <c r="L177">
+        <v>2</v>
+      </c>
+      <c r="M177">
+        <v>2</v>
+      </c>
+      <c r="N177">
+        <v>4</v>
+      </c>
+      <c r="O177" t="s">
+        <v>234</v>
+      </c>
+      <c r="P177" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q177">
+        <v>2.63</v>
+      </c>
+      <c r="R177">
+        <v>2.5</v>
+      </c>
+      <c r="S177">
+        <v>3.25</v>
+      </c>
+      <c r="T177">
+        <v>1.25</v>
+      </c>
+      <c r="U177">
+        <v>3.75</v>
+      </c>
+      <c r="V177">
+        <v>2.1</v>
+      </c>
+      <c r="W177">
+        <v>1.67</v>
+      </c>
+      <c r="X177">
+        <v>4.5</v>
+      </c>
+      <c r="Y177">
+        <v>1.18</v>
+      </c>
+      <c r="Z177">
+        <v>2.05</v>
+      </c>
+      <c r="AA177">
+        <v>3.65</v>
+      </c>
+      <c r="AB177">
+        <v>3.1</v>
+      </c>
+      <c r="AC177">
+        <v>1.01</v>
+      </c>
+      <c r="AD177">
+        <v>19.5</v>
+      </c>
+      <c r="AE177">
+        <v>1.17</v>
+      </c>
+      <c r="AF177">
+        <v>5</v>
+      </c>
+      <c r="AG177">
+        <v>1.45</v>
+      </c>
+      <c r="AH177">
+        <v>2.55</v>
+      </c>
+      <c r="AI177">
+        <v>1.4</v>
+      </c>
+      <c r="AJ177">
+        <v>2.75</v>
+      </c>
+      <c r="AK177">
+        <v>1.32</v>
+      </c>
+      <c r="AL177">
+        <v>1.22</v>
+      </c>
+      <c r="AM177">
+        <v>1.83</v>
+      </c>
+      <c r="AN177">
+        <v>1.6</v>
+      </c>
+      <c r="AO177">
+        <v>1.57</v>
+      </c>
+      <c r="AP177">
+        <v>1.5</v>
+      </c>
+      <c r="AQ177">
+        <v>1.5</v>
+      </c>
+      <c r="AR177">
+        <v>1.64</v>
+      </c>
+      <c r="AS177">
+        <v>1.56</v>
+      </c>
+      <c r="AT177">
+        <v>3.2</v>
+      </c>
+      <c r="AU177">
+        <v>9</v>
+      </c>
+      <c r="AV177">
+        <v>6</v>
+      </c>
+      <c r="AW177">
+        <v>12</v>
+      </c>
+      <c r="AX177">
+        <v>0</v>
+      </c>
+      <c r="AY177">
+        <v>21</v>
+      </c>
+      <c r="AZ177">
+        <v>6</v>
+      </c>
+      <c r="BA177">
+        <v>6</v>
+      </c>
+      <c r="BB177">
+        <v>2</v>
+      </c>
+      <c r="BC177">
+        <v>8</v>
+      </c>
+      <c r="BD177">
+        <v>1.79</v>
+      </c>
+      <c r="BE177">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF177">
+        <v>2.31</v>
+      </c>
+      <c r="BG177">
+        <v>1.11</v>
+      </c>
+      <c r="BH177">
+        <v>5.5</v>
+      </c>
+      <c r="BI177">
+        <v>1.18</v>
+      </c>
+      <c r="BJ177">
+        <v>4.05</v>
+      </c>
+      <c r="BK177">
+        <v>1.36</v>
+      </c>
+      <c r="BL177">
+        <v>2.79</v>
+      </c>
+      <c r="BM177">
+        <v>2</v>
+      </c>
+      <c r="BN177">
+        <v>1.73</v>
+      </c>
+      <c r="BO177">
+        <v>1.95</v>
+      </c>
+      <c r="BP177">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7295412</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45427.89583333334</v>
+      </c>
+      <c r="F178">
+        <v>13</v>
+      </c>
+      <c r="G178" t="s">
+        <v>83</v>
+      </c>
+      <c r="H178" t="s">
+        <v>95</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>2</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>2</v>
+      </c>
+      <c r="O178" t="s">
+        <v>235</v>
+      </c>
+      <c r="P178" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q178">
+        <v>2.38</v>
+      </c>
+      <c r="R178">
+        <v>2.25</v>
+      </c>
+      <c r="S178">
+        <v>5</v>
+      </c>
+      <c r="T178">
+        <v>1.36</v>
+      </c>
+      <c r="U178">
+        <v>3</v>
+      </c>
+      <c r="V178">
+        <v>2.75</v>
+      </c>
+      <c r="W178">
+        <v>1.4</v>
+      </c>
+      <c r="X178">
+        <v>7</v>
+      </c>
+      <c r="Y178">
+        <v>1.1</v>
+      </c>
+      <c r="Z178">
+        <v>1.7</v>
+      </c>
+      <c r="AA178">
+        <v>3.75</v>
+      </c>
+      <c r="AB178">
+        <v>4.33</v>
+      </c>
+      <c r="AC178">
+        <v>1.05</v>
+      </c>
+      <c r="AD178">
+        <v>13</v>
+      </c>
+      <c r="AE178">
+        <v>1.28</v>
+      </c>
+      <c r="AF178">
+        <v>3.72</v>
+      </c>
+      <c r="AG178">
+        <v>1.85</v>
+      </c>
+      <c r="AH178">
+        <v>1.85</v>
+      </c>
+      <c r="AI178">
+        <v>1.8</v>
+      </c>
+      <c r="AJ178">
+        <v>1.95</v>
+      </c>
+      <c r="AK178">
+        <v>1.22</v>
+      </c>
+      <c r="AL178">
+        <v>1.22</v>
+      </c>
+      <c r="AM178">
+        <v>2.1</v>
+      </c>
+      <c r="AN178">
+        <v>1.43</v>
+      </c>
+      <c r="AO178">
+        <v>1.17</v>
+      </c>
+      <c r="AP178">
+        <v>1.63</v>
+      </c>
+      <c r="AQ178">
+        <v>1</v>
+      </c>
+      <c r="AR178">
+        <v>1.32</v>
+      </c>
+      <c r="AS178">
+        <v>1.07</v>
+      </c>
+      <c r="AT178">
+        <v>2.39</v>
+      </c>
+      <c r="AU178">
+        <v>4</v>
+      </c>
+      <c r="AV178">
+        <v>3</v>
+      </c>
+      <c r="AW178">
+        <v>3</v>
+      </c>
+      <c r="AX178">
+        <v>3</v>
+      </c>
+      <c r="AY178">
+        <v>7</v>
+      </c>
+      <c r="AZ178">
+        <v>6</v>
+      </c>
+      <c r="BA178">
+        <v>5</v>
+      </c>
+      <c r="BB178">
+        <v>2</v>
+      </c>
+      <c r="BC178">
+        <v>7</v>
+      </c>
+      <c r="BD178">
+        <v>1.49</v>
+      </c>
+      <c r="BE178">
+        <v>9.5</v>
+      </c>
+      <c r="BF178">
+        <v>3.15</v>
+      </c>
+      <c r="BG178">
+        <v>1.25</v>
+      </c>
+      <c r="BH178">
+        <v>3.42</v>
+      </c>
+      <c r="BI178">
+        <v>1.53</v>
+      </c>
+      <c r="BJ178">
+        <v>2.49</v>
+      </c>
+      <c r="BK178">
+        <v>1.9</v>
+      </c>
+      <c r="BL178">
+        <v>1.8</v>
+      </c>
+      <c r="BM178">
+        <v>2.34</v>
+      </c>
+      <c r="BN178">
+        <v>1.59</v>
+      </c>
+      <c r="BO178">
+        <v>3.18</v>
+      </c>
+      <c r="BP178">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7295413</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45427.89583333334</v>
+      </c>
+      <c r="F179">
+        <v>13</v>
+      </c>
+      <c r="G179" t="s">
+        <v>80</v>
+      </c>
+      <c r="H179" t="s">
+        <v>72</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>2</v>
+      </c>
+      <c r="N179">
+        <v>2</v>
+      </c>
+      <c r="O179" t="s">
+        <v>104</v>
+      </c>
+      <c r="P179" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q179">
+        <v>3.1</v>
+      </c>
+      <c r="R179">
+        <v>2.3</v>
+      </c>
+      <c r="S179">
+        <v>3.1</v>
+      </c>
+      <c r="T179">
+        <v>1.33</v>
+      </c>
+      <c r="U179">
+        <v>3.25</v>
+      </c>
+      <c r="V179">
+        <v>2.5</v>
+      </c>
+      <c r="W179">
+        <v>1.5</v>
+      </c>
+      <c r="X179">
+        <v>6.5</v>
+      </c>
+      <c r="Y179">
+        <v>1.11</v>
+      </c>
+      <c r="Z179">
+        <v>2.5</v>
+      </c>
+      <c r="AA179">
+        <v>3.5</v>
+      </c>
+      <c r="AB179">
+        <v>2.5</v>
+      </c>
+      <c r="AC179">
+        <v>1.04</v>
+      </c>
+      <c r="AD179">
+        <v>15.5</v>
+      </c>
+      <c r="AE179">
+        <v>1.22</v>
+      </c>
+      <c r="AF179">
+        <v>4.38</v>
+      </c>
+      <c r="AG179">
+        <v>1.6</v>
+      </c>
+      <c r="AH179">
+        <v>2.2</v>
+      </c>
+      <c r="AI179">
+        <v>1.57</v>
+      </c>
+      <c r="AJ179">
+        <v>2.25</v>
+      </c>
+      <c r="AK179">
+        <v>1.4</v>
+      </c>
+      <c r="AL179">
+        <v>1.24</v>
+      </c>
+      <c r="AM179">
+        <v>1.68</v>
+      </c>
+      <c r="AN179">
+        <v>2</v>
+      </c>
+      <c r="AO179">
+        <v>0.2</v>
+      </c>
+      <c r="AP179">
+        <v>1.71</v>
+      </c>
+      <c r="AQ179">
+        <v>0.67</v>
+      </c>
+      <c r="AR179">
+        <v>1.84</v>
+      </c>
+      <c r="AS179">
+        <v>1.68</v>
+      </c>
+      <c r="AT179">
+        <v>3.52</v>
+      </c>
+      <c r="AU179">
+        <v>8</v>
+      </c>
+      <c r="AV179">
+        <v>4</v>
+      </c>
+      <c r="AW179">
+        <v>2</v>
+      </c>
+      <c r="AX179">
+        <v>5</v>
+      </c>
+      <c r="AY179">
+        <v>10</v>
+      </c>
+      <c r="AZ179">
+        <v>9</v>
+      </c>
+      <c r="BA179">
+        <v>8</v>
+      </c>
+      <c r="BB179">
+        <v>6</v>
+      </c>
+      <c r="BC179">
+        <v>14</v>
+      </c>
+      <c r="BD179">
+        <v>1.86</v>
+      </c>
+      <c r="BE179">
+        <v>9.5</v>
+      </c>
+      <c r="BF179">
+        <v>2.22</v>
+      </c>
+      <c r="BG179">
+        <v>1.13</v>
+      </c>
+      <c r="BH179">
+        <v>4.85</v>
+      </c>
+      <c r="BI179">
+        <v>1.28</v>
+      </c>
+      <c r="BJ179">
+        <v>3.2</v>
+      </c>
+      <c r="BK179">
+        <v>1.77</v>
+      </c>
+      <c r="BL179">
+        <v>1.95</v>
+      </c>
+      <c r="BM179">
+        <v>1.9</v>
+      </c>
+      <c r="BN179">
+        <v>1.8</v>
+      </c>
+      <c r="BO179">
+        <v>2.37</v>
+      </c>
+      <c r="BP179">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7295414</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45427.9375</v>
+      </c>
+      <c r="F180">
+        <v>13</v>
+      </c>
+      <c r="G180" t="s">
+        <v>90</v>
+      </c>
+      <c r="H180" t="s">
+        <v>87</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>1</v>
+      </c>
+      <c r="O180" t="s">
+        <v>147</v>
+      </c>
+      <c r="P180" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q180">
+        <v>2.75</v>
+      </c>
+      <c r="R180">
+        <v>2.25</v>
+      </c>
+      <c r="S180">
+        <v>3.6</v>
+      </c>
+      <c r="T180">
+        <v>1.33</v>
+      </c>
+      <c r="U180">
+        <v>3.25</v>
+      </c>
+      <c r="V180">
+        <v>2.63</v>
+      </c>
+      <c r="W180">
+        <v>1.44</v>
+      </c>
+      <c r="X180">
+        <v>6.5</v>
+      </c>
+      <c r="Y180">
+        <v>1.11</v>
+      </c>
+      <c r="Z180">
+        <v>2.1</v>
+      </c>
+      <c r="AA180">
+        <v>3.45</v>
+      </c>
+      <c r="AB180">
+        <v>3.1</v>
+      </c>
+      <c r="AC180">
+        <v>1.04</v>
+      </c>
+      <c r="AD180">
+        <v>14.5</v>
+      </c>
+      <c r="AE180">
+        <v>1.24</v>
+      </c>
+      <c r="AF180">
+        <v>4.13</v>
+      </c>
+      <c r="AG180">
+        <v>1.7</v>
+      </c>
+      <c r="AH180">
+        <v>2</v>
+      </c>
+      <c r="AI180">
+        <v>1.62</v>
+      </c>
+      <c r="AJ180">
+        <v>2.2</v>
+      </c>
+      <c r="AK180">
+        <v>1.42</v>
+      </c>
+      <c r="AL180">
+        <v>1.22</v>
+      </c>
+      <c r="AM180">
+        <v>1.57</v>
+      </c>
+      <c r="AN180">
+        <v>1.4</v>
+      </c>
+      <c r="AO180">
+        <v>2</v>
+      </c>
+      <c r="AP180">
+        <v>1.67</v>
+      </c>
+      <c r="AQ180">
+        <v>1.67</v>
+      </c>
+      <c r="AR180">
+        <v>1.4</v>
+      </c>
+      <c r="AS180">
+        <v>1.13</v>
+      </c>
+      <c r="AT180">
+        <v>2.53</v>
+      </c>
+      <c r="AU180">
+        <v>5</v>
+      </c>
+      <c r="AV180">
+        <v>3</v>
+      </c>
+      <c r="AW180">
+        <v>10</v>
+      </c>
+      <c r="AX180">
+        <v>5</v>
+      </c>
+      <c r="AY180">
+        <v>15</v>
+      </c>
+      <c r="AZ180">
+        <v>8</v>
+      </c>
+      <c r="BA180">
+        <v>8</v>
+      </c>
+      <c r="BB180">
+        <v>6</v>
+      </c>
+      <c r="BC180">
+        <v>14</v>
+      </c>
+      <c r="BD180">
+        <v>1.67</v>
+      </c>
+      <c r="BE180">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF180">
+        <v>2.59</v>
+      </c>
+      <c r="BG180">
+        <v>1.22</v>
+      </c>
+      <c r="BH180">
+        <v>3.65</v>
+      </c>
+      <c r="BI180">
+        <v>1.43</v>
+      </c>
+      <c r="BJ180">
+        <v>2.62</v>
+      </c>
+      <c r="BK180">
+        <v>1.8</v>
+      </c>
+      <c r="BL180">
+        <v>1.9</v>
+      </c>
+      <c r="BM180">
+        <v>2.22</v>
+      </c>
+      <c r="BN180">
+        <v>1.65</v>
+      </c>
+      <c r="BO180">
+        <v>2.93</v>
+      </c>
+      <c r="BP180">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7295415</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45427.9375</v>
+      </c>
+      <c r="F181">
+        <v>13</v>
+      </c>
+      <c r="G181" t="s">
+        <v>86</v>
+      </c>
+      <c r="H181" t="s">
+        <v>92</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181">
+        <v>2</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>2</v>
+      </c>
+      <c r="O181" t="s">
+        <v>236</v>
+      </c>
+      <c r="P181" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q181">
+        <v>2.4</v>
+      </c>
+      <c r="R181">
+        <v>2.25</v>
+      </c>
+      <c r="S181">
+        <v>4.5</v>
+      </c>
+      <c r="T181">
+        <v>1.36</v>
+      </c>
+      <c r="U181">
+        <v>3</v>
+      </c>
+      <c r="V181">
+        <v>2.63</v>
+      </c>
+      <c r="W181">
+        <v>1.44</v>
+      </c>
+      <c r="X181">
+        <v>7</v>
+      </c>
+      <c r="Y181">
+        <v>1.1</v>
+      </c>
+      <c r="Z181">
+        <v>1.75</v>
+      </c>
+      <c r="AA181">
+        <v>3.65</v>
+      </c>
+      <c r="AB181">
+        <v>4.1</v>
+      </c>
+      <c r="AC181">
+        <v>1.05</v>
+      </c>
+      <c r="AD181">
+        <v>13.25</v>
+      </c>
+      <c r="AE181">
+        <v>1.26</v>
+      </c>
+      <c r="AF181">
+        <v>3.9</v>
+      </c>
+      <c r="AG181">
+        <v>1.8</v>
+      </c>
+      <c r="AH181">
+        <v>1.9</v>
+      </c>
+      <c r="AI181">
+        <v>1.75</v>
+      </c>
+      <c r="AJ181">
+        <v>2</v>
+      </c>
+      <c r="AK181">
+        <v>1.22</v>
+      </c>
+      <c r="AL181">
+        <v>1.22</v>
+      </c>
+      <c r="AM181">
+        <v>2.1</v>
+      </c>
+      <c r="AN181">
+        <v>2</v>
+      </c>
+      <c r="AO181">
+        <v>1</v>
+      </c>
+      <c r="AP181">
+        <v>2.17</v>
+      </c>
+      <c r="AQ181">
+        <v>0.88</v>
+      </c>
+      <c r="AR181">
+        <v>1.51</v>
+      </c>
+      <c r="AS181">
+        <v>1.37</v>
+      </c>
+      <c r="AT181">
+        <v>2.88</v>
+      </c>
+      <c r="AU181">
+        <v>10</v>
+      </c>
+      <c r="AV181">
+        <v>3</v>
+      </c>
+      <c r="AW181">
+        <v>6</v>
+      </c>
+      <c r="AX181">
+        <v>2</v>
+      </c>
+      <c r="AY181">
+        <v>16</v>
+      </c>
+      <c r="AZ181">
+        <v>5</v>
+      </c>
+      <c r="BA181">
+        <v>11</v>
+      </c>
+      <c r="BB181">
+        <v>6</v>
+      </c>
+      <c r="BC181">
+        <v>17</v>
+      </c>
+      <c r="BD181">
+        <v>1.71</v>
+      </c>
+      <c r="BE181">
+        <v>9.1</v>
+      </c>
+      <c r="BF181">
+        <v>2.51</v>
+      </c>
+      <c r="BG181">
+        <v>1.22</v>
+      </c>
+      <c r="BH181">
+        <v>3.65</v>
+      </c>
+      <c r="BI181">
+        <v>1.43</v>
+      </c>
+      <c r="BJ181">
+        <v>2.62</v>
+      </c>
+      <c r="BK181">
+        <v>1.77</v>
+      </c>
+      <c r="BL181">
+        <v>1.95</v>
+      </c>
+      <c r="BM181">
+        <v>2.25</v>
+      </c>
+      <c r="BN181">
+        <v>1.63</v>
+      </c>
+      <c r="BO181">
+        <v>2.98</v>
+      </c>
+      <c r="BP181">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7295416</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45427.97916666666</v>
+      </c>
+      <c r="F182">
+        <v>13</v>
+      </c>
+      <c r="G182" t="s">
+        <v>81</v>
+      </c>
+      <c r="H182" t="s">
+        <v>91</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>2</v>
+      </c>
+      <c r="K182">
+        <v>2</v>
+      </c>
+      <c r="L182">
+        <v>4</v>
+      </c>
+      <c r="M182">
+        <v>2</v>
+      </c>
+      <c r="N182">
+        <v>6</v>
+      </c>
+      <c r="O182" t="s">
+        <v>237</v>
+      </c>
+      <c r="P182" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q182">
+        <v>2.3</v>
+      </c>
+      <c r="R182">
+        <v>2.4</v>
+      </c>
+      <c r="S182">
+        <v>4.33</v>
+      </c>
+      <c r="T182">
+        <v>1.29</v>
+      </c>
+      <c r="U182">
+        <v>3.5</v>
+      </c>
+      <c r="V182">
+        <v>2.38</v>
+      </c>
+      <c r="W182">
+        <v>1.53</v>
+      </c>
+      <c r="X182">
+        <v>5.5</v>
+      </c>
+      <c r="Y182">
+        <v>1.14</v>
+      </c>
+      <c r="Z182">
+        <v>1.73</v>
+      </c>
+      <c r="AA182">
+        <v>3.75</v>
+      </c>
+      <c r="AB182">
+        <v>4.1</v>
+      </c>
+      <c r="AC182">
+        <v>1.03</v>
+      </c>
+      <c r="AD182">
+        <v>18</v>
+      </c>
+      <c r="AE182">
+        <v>1.18</v>
+      </c>
+      <c r="AF182">
+        <v>4.93</v>
+      </c>
+      <c r="AG182">
+        <v>1.55</v>
+      </c>
+      <c r="AH182">
+        <v>2.3</v>
+      </c>
+      <c r="AI182">
+        <v>1.57</v>
+      </c>
+      <c r="AJ182">
+        <v>2.25</v>
+      </c>
+      <c r="AK182">
+        <v>1.3</v>
+      </c>
+      <c r="AL182">
+        <v>1.22</v>
+      </c>
+      <c r="AM182">
+        <v>1.9</v>
+      </c>
+      <c r="AN182">
+        <v>1</v>
+      </c>
+      <c r="AO182">
+        <v>0.57</v>
+      </c>
+      <c r="AP182">
+        <v>1.33</v>
+      </c>
+      <c r="AQ182">
+        <v>0.5</v>
+      </c>
+      <c r="AR182">
+        <v>1.29</v>
+      </c>
+      <c r="AS182">
+        <v>1.31</v>
+      </c>
+      <c r="AT182">
+        <v>2.6</v>
+      </c>
+      <c r="AU182">
+        <v>10</v>
+      </c>
+      <c r="AV182">
+        <v>4</v>
+      </c>
+      <c r="AW182">
+        <v>9</v>
+      </c>
+      <c r="AX182">
+        <v>3</v>
+      </c>
+      <c r="AY182">
+        <v>19</v>
+      </c>
+      <c r="AZ182">
+        <v>7</v>
+      </c>
+      <c r="BA182">
+        <v>7</v>
+      </c>
+      <c r="BB182">
+        <v>4</v>
+      </c>
+      <c r="BC182">
+        <v>11</v>
+      </c>
+      <c r="BD182">
+        <v>1.69</v>
+      </c>
+      <c r="BE182">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF182">
+        <v>2.54</v>
+      </c>
+      <c r="BG182">
+        <v>1.19</v>
+      </c>
+      <c r="BH182">
+        <v>3.9</v>
+      </c>
+      <c r="BI182">
+        <v>1.4</v>
+      </c>
+      <c r="BJ182">
+        <v>2.72</v>
+      </c>
+      <c r="BK182">
+        <v>1.77</v>
+      </c>
+      <c r="BL182">
+        <v>1.95</v>
+      </c>
+      <c r="BM182">
+        <v>2.14</v>
+      </c>
+      <c r="BN182">
+        <v>1.63</v>
+      </c>
+      <c r="BO182">
+        <v>2.79</v>
+      </c>
+      <c r="BP182">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="351">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -730,6 +730,30 @@
     <t>['74', '80', '90', '90+10']</t>
   </si>
   <si>
+    <t>['26', '49', '80']</t>
+  </si>
+  <si>
+    <t>['3', '64']</t>
+  </si>
+  <si>
+    <t>['6', '12', '19', '58', '59']</t>
+  </si>
+  <si>
+    <t>['65', '82']</t>
+  </si>
+  <si>
+    <t>['45+6']</t>
+  </si>
+  <si>
+    <t>['28', '39', '46']</t>
+  </si>
+  <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['23', '40', '85', '88', '90+6']</t>
+  </si>
+  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -1025,6 +1049,24 @@
   </si>
   <si>
     <t>['31', '34']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['38', '47', '80']</t>
+  </si>
+  <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['18', '63']</t>
+  </si>
+  <si>
+    <t>['30', '55', '88']</t>
+  </si>
+  <si>
+    <t>['5', '19', '56']</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP182"/>
+  <dimension ref="A1:BP196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1723,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ2">
         <v>1.71</v>
@@ -1932,7 +1974,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ3">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2057,7 +2099,7 @@
         <v>101</v>
       </c>
       <c r="P4" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -2341,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ5">
         <v>1.17</v>
@@ -2469,7 +2511,7 @@
         <v>103</v>
       </c>
       <c r="P6" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2756,7 +2798,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2881,7 +2923,7 @@
         <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -3087,7 +3129,7 @@
         <v>106</v>
       </c>
       <c r="P9" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3165,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ9">
         <v>2.4</v>
@@ -3293,7 +3335,7 @@
         <v>107</v>
       </c>
       <c r="P10" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3577,10 +3619,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3705,7 +3747,7 @@
         <v>109</v>
       </c>
       <c r="P12" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3911,7 +3953,7 @@
         <v>110</v>
       </c>
       <c r="P13" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3992,7 +4034,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ13">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4195,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4401,10 +4443,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4529,7 +4571,7 @@
         <v>111</v>
       </c>
       <c r="P16" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4813,10 +4855,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
+        <v>1.71</v>
+      </c>
+      <c r="AQ17">
         <v>1.5</v>
-      </c>
-      <c r="AQ17">
-        <v>1.2</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5019,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ18">
         <v>0.67</v>
@@ -5225,10 +5267,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ19">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR19">
         <v>1.77</v>
@@ -5353,7 +5395,7 @@
         <v>115</v>
       </c>
       <c r="P20" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -5559,7 +5601,7 @@
         <v>116</v>
       </c>
       <c r="P21" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5637,7 +5679,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ21">
         <v>2.29</v>
@@ -5765,7 +5807,7 @@
         <v>117</v>
       </c>
       <c r="P22" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5846,7 +5888,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR22">
         <v>2.26</v>
@@ -5971,7 +6013,7 @@
         <v>118</v>
       </c>
       <c r="P23" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6049,10 +6091,10 @@
         <v>1</v>
       </c>
       <c r="AP23">
+        <v>1.29</v>
+      </c>
+      <c r="AQ23">
         <v>1.33</v>
-      </c>
-      <c r="AQ23">
-        <v>1.5</v>
       </c>
       <c r="AR23">
         <v>1.42</v>
@@ -6258,7 +6300,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ24">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6589,7 +6631,7 @@
         <v>121</v>
       </c>
       <c r="P26" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6795,7 +6837,7 @@
         <v>122</v>
       </c>
       <c r="P27" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6876,7 +6918,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ27">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.01</v>
@@ -7001,7 +7043,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7079,10 +7121,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -7285,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ29">
         <v>0.83</v>
@@ -7491,7 +7533,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7619,7 +7661,7 @@
         <v>123</v>
       </c>
       <c r="P31" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="Q31">
         <v>2.37</v>
@@ -7697,10 +7739,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -7903,7 +7945,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ32">
         <v>0.67</v>
@@ -8031,7 +8073,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -8237,7 +8279,7 @@
         <v>126</v>
       </c>
       <c r="P34" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -8524,7 +8566,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ35">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR35">
         <v>0</v>
@@ -8649,7 +8691,7 @@
         <v>128</v>
       </c>
       <c r="P36" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8855,7 +8897,7 @@
         <v>129</v>
       </c>
       <c r="P37" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -8933,10 +8975,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ37">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR37">
         <v>1.02</v>
@@ -9061,7 +9103,7 @@
         <v>130</v>
       </c>
       <c r="P38" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9139,10 +9181,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ38">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR38">
         <v>1.58</v>
@@ -9348,7 +9390,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR39">
         <v>1.7</v>
@@ -9473,7 +9515,7 @@
         <v>104</v>
       </c>
       <c r="P40" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9551,10 +9593,10 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR40">
         <v>1.38</v>
@@ -9679,7 +9721,7 @@
         <v>131</v>
       </c>
       <c r="P41" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -9757,10 +9799,10 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR41">
         <v>0.83</v>
@@ -9963,10 +10005,10 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>1.46</v>
@@ -10091,7 +10133,7 @@
         <v>132</v>
       </c>
       <c r="P43" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="Q43">
         <v>2.05</v>
@@ -10169,10 +10211,10 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR43">
         <v>1.61</v>
@@ -10297,7 +10339,7 @@
         <v>133</v>
       </c>
       <c r="P44" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10375,10 +10417,10 @@
         <v>2.33</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR44">
         <v>0.84</v>
@@ -10503,7 +10545,7 @@
         <v>134</v>
       </c>
       <c r="P45" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10787,10 +10829,10 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ46">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR46">
         <v>1.94</v>
@@ -10996,7 +11038,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ47">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR47">
         <v>1.86</v>
@@ -11199,7 +11241,7 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11327,7 +11369,7 @@
         <v>138</v>
       </c>
       <c r="P49" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11405,10 +11447,10 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ49">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR49">
         <v>0.89</v>
@@ -11533,7 +11575,7 @@
         <v>139</v>
       </c>
       <c r="P50" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11614,7 +11656,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ50">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR50">
         <v>1.92</v>
@@ -11817,10 +11859,10 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ51">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR51">
         <v>1.66</v>
@@ -12229,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ53">
         <v>0.67</v>
@@ -12435,7 +12477,7 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ54">
         <v>0.67</v>
@@ -12563,7 +12605,7 @@
         <v>144</v>
       </c>
       <c r="P55" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12644,7 +12686,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ55">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR55">
         <v>2.22</v>
@@ -12769,7 +12811,7 @@
         <v>145</v>
       </c>
       <c r="P56" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12847,7 +12889,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ56">
         <v>2.29</v>
@@ -13056,7 +13098,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ57">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR57">
         <v>2.19</v>
@@ -13181,7 +13223,7 @@
         <v>147</v>
       </c>
       <c r="P58" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -13259,7 +13301,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ58">
         <v>0.5</v>
@@ -13593,7 +13635,7 @@
         <v>149</v>
       </c>
       <c r="P60" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13877,10 +13919,10 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ61">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR61">
         <v>1.43</v>
@@ -14083,7 +14125,7 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ62">
         <v>1.17</v>
@@ -14495,10 +14537,10 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ64">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR64">
         <v>1.04</v>
@@ -14623,7 +14665,7 @@
         <v>154</v>
       </c>
       <c r="P65" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14704,7 +14746,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ65">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR65">
         <v>1.39</v>
@@ -14829,7 +14871,7 @@
         <v>155</v>
       </c>
       <c r="P66" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14910,7 +14952,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ66">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR66">
         <v>1.49</v>
@@ -15035,7 +15077,7 @@
         <v>104</v>
       </c>
       <c r="P67" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15241,7 +15283,7 @@
         <v>156</v>
       </c>
       <c r="P68" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15319,7 +15361,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ68">
         <v>0.88</v>
@@ -15653,7 +15695,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15734,7 +15776,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ70">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR70">
         <v>1.13</v>
@@ -16065,7 +16107,7 @@
         <v>159</v>
       </c>
       <c r="P72" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16271,7 +16313,7 @@
         <v>160</v>
       </c>
       <c r="P73" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16349,7 +16391,7 @@
         <v>3</v>
       </c>
       <c r="AP73">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ73">
         <v>2.29</v>
@@ -16558,7 +16600,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ74">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR74">
         <v>1.9</v>
@@ -16683,7 +16725,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16761,7 +16803,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ75">
         <v>1.17</v>
@@ -16889,7 +16931,7 @@
         <v>162</v>
       </c>
       <c r="P76" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q76">
         <v>3.1</v>
@@ -16970,7 +17012,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ76">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR76">
         <v>1.96</v>
@@ -17095,7 +17137,7 @@
         <v>163</v>
       </c>
       <c r="P77" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17173,10 +17215,10 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR77">
         <v>1.72</v>
@@ -17301,7 +17343,7 @@
         <v>164</v>
       </c>
       <c r="P78" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17379,10 +17421,10 @@
         <v>0</v>
       </c>
       <c r="AP78">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ78">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR78">
         <v>0.95</v>
@@ -17585,7 +17627,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ79">
         <v>0.5</v>
@@ -17713,7 +17755,7 @@
         <v>166</v>
       </c>
       <c r="P80" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17791,10 +17833,10 @@
         <v>0.5</v>
       </c>
       <c r="AP80">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ80">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR80">
         <v>1.03</v>
@@ -17997,10 +18039,10 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ81">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR81">
         <v>1.42</v>
@@ -18125,7 +18167,7 @@
         <v>168</v>
       </c>
       <c r="P82" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18206,7 +18248,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ82">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR82">
         <v>1.3</v>
@@ -18821,7 +18863,7 @@
         <v>0.33</v>
       </c>
       <c r="AP85">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ85">
         <v>0.67</v>
@@ -19027,10 +19069,10 @@
         <v>0</v>
       </c>
       <c r="AP86">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ86">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR86">
         <v>1.69</v>
@@ -19155,7 +19197,7 @@
         <v>172</v>
       </c>
       <c r="P87" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="Q87">
         <v>2.2</v>
@@ -19233,10 +19275,10 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ87">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR87">
         <v>1.69</v>
@@ -19361,7 +19403,7 @@
         <v>173</v>
       </c>
       <c r="P88" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19439,10 +19481,10 @@
         <v>1.25</v>
       </c>
       <c r="AP88">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ88">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR88">
         <v>1.49</v>
@@ -19854,7 +19896,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ90">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR90">
         <v>1.72</v>
@@ -19979,7 +20021,7 @@
         <v>176</v>
       </c>
       <c r="P91" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -20060,7 +20102,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ91">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR91">
         <v>2.05</v>
@@ -20185,7 +20227,7 @@
         <v>177</v>
       </c>
       <c r="P92" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="Q92">
         <v>2.88</v>
@@ -20263,7 +20305,7 @@
         <v>0</v>
       </c>
       <c r="AP92">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ92">
         <v>0.5</v>
@@ -20469,7 +20511,7 @@
         <v>3</v>
       </c>
       <c r="AP93">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ93">
         <v>1.5</v>
@@ -20597,7 +20639,7 @@
         <v>179</v>
       </c>
       <c r="P94" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="Q94">
         <v>2.75</v>
@@ -20675,7 +20717,7 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ94">
         <v>1.71</v>
@@ -20803,7 +20845,7 @@
         <v>180</v>
       </c>
       <c r="P95" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Q95">
         <v>3.1</v>
@@ -20881,10 +20923,10 @@
         <v>1.67</v>
       </c>
       <c r="AP95">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ95">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR95">
         <v>1.11</v>
@@ -21090,7 +21132,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ96">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR96">
         <v>1.49</v>
@@ -21293,10 +21335,10 @@
         <v>1.4</v>
       </c>
       <c r="AP97">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ97">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR97">
         <v>1.52</v>
@@ -21421,7 +21463,7 @@
         <v>182</v>
       </c>
       <c r="P98" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21502,7 +21544,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ98">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR98">
         <v>1.65</v>
@@ -21627,7 +21669,7 @@
         <v>183</v>
       </c>
       <c r="P99" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21911,7 +21953,7 @@
         <v>0</v>
       </c>
       <c r="AP100">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ100">
         <v>0.5</v>
@@ -22245,7 +22287,7 @@
         <v>185</v>
       </c>
       <c r="P102" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="Q102">
         <v>3.1</v>
@@ -22451,7 +22493,7 @@
         <v>186</v>
       </c>
       <c r="P103" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="Q103">
         <v>2.3</v>
@@ -22529,7 +22571,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ103">
         <v>1</v>
@@ -22657,7 +22699,7 @@
         <v>187</v>
       </c>
       <c r="P104" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22738,7 +22780,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ104">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR104">
         <v>1.9</v>
@@ -23069,7 +23111,7 @@
         <v>188</v>
       </c>
       <c r="P106" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23275,7 +23317,7 @@
         <v>189</v>
       </c>
       <c r="P107" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="Q107">
         <v>2.75</v>
@@ -23353,7 +23395,7 @@
         <v>1.5</v>
       </c>
       <c r="AP107">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ107">
         <v>1.5</v>
@@ -23559,10 +23601,10 @@
         <v>0.67</v>
       </c>
       <c r="AP108">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ108">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR108">
         <v>1.42</v>
@@ -23687,7 +23729,7 @@
         <v>190</v>
       </c>
       <c r="P109" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="Q109">
         <v>2.6</v>
@@ -23768,7 +23810,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ109">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR109">
         <v>1.44</v>
@@ -23893,7 +23935,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="Q110">
         <v>2.88</v>
@@ -23971,10 +24013,10 @@
         <v>1.25</v>
       </c>
       <c r="AP110">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ110">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR110">
         <v>1.31</v>
@@ -24099,7 +24141,7 @@
         <v>191</v>
       </c>
       <c r="P111" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24180,7 +24222,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ111">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR111">
         <v>1.97</v>
@@ -24511,7 +24553,7 @@
         <v>142</v>
       </c>
       <c r="P113" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24592,7 +24634,7 @@
         <v>1</v>
       </c>
       <c r="AQ113">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR113">
         <v>1.35</v>
@@ -24717,7 +24759,7 @@
         <v>192</v>
       </c>
       <c r="P114" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="Q114">
         <v>1.91</v>
@@ -24795,7 +24837,7 @@
         <v>0.5</v>
       </c>
       <c r="AP114">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ114">
         <v>0.25</v>
@@ -24923,7 +24965,7 @@
         <v>193</v>
       </c>
       <c r="P115" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="Q115">
         <v>2.1</v>
@@ -25004,7 +25046,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ115">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR115">
         <v>1.63</v>
@@ -25207,7 +25249,7 @@
         <v>0</v>
       </c>
       <c r="AP116">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ116">
         <v>0.5</v>
@@ -25335,7 +25377,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25619,10 +25661,10 @@
         <v>1</v>
       </c>
       <c r="AP118">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ118">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR118">
         <v>1.77</v>
@@ -25747,7 +25789,7 @@
         <v>104</v>
       </c>
       <c r="P119" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="Q119">
         <v>2.88</v>
@@ -25825,7 +25867,7 @@
         <v>1.25</v>
       </c>
       <c r="AP119">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ119">
         <v>1.71</v>
@@ -26031,7 +26073,7 @@
         <v>0.33</v>
       </c>
       <c r="AP120">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ120">
         <v>0.83</v>
@@ -26159,7 +26201,7 @@
         <v>196</v>
       </c>
       <c r="P121" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="Q121">
         <v>2.3</v>
@@ -26240,7 +26282,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ121">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR121">
         <v>1.55</v>
@@ -26446,7 +26488,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ122">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR122">
         <v>1.34</v>
@@ -26571,7 +26613,7 @@
         <v>198</v>
       </c>
       <c r="P123" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="Q123">
         <v>2.5</v>
@@ -26652,7 +26694,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ123">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR123">
         <v>2.06</v>
@@ -26777,7 +26819,7 @@
         <v>104</v>
       </c>
       <c r="P124" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -26855,10 +26897,10 @@
         <v>3</v>
       </c>
       <c r="AP124">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ124">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR124">
         <v>1.78</v>
@@ -26983,7 +27025,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="Q125">
         <v>2.6</v>
@@ -27061,7 +27103,7 @@
         <v>2</v>
       </c>
       <c r="AP125">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ125">
         <v>2.4</v>
@@ -27189,7 +27231,7 @@
         <v>199</v>
       </c>
       <c r="P126" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="Q126">
         <v>2.05</v>
@@ -27473,10 +27515,10 @@
         <v>2</v>
       </c>
       <c r="AP127">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ127">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR127">
         <v>1.28</v>
@@ -27601,7 +27643,7 @@
         <v>201</v>
       </c>
       <c r="P128" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -27807,7 +27849,7 @@
         <v>202</v>
       </c>
       <c r="P129" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="Q129">
         <v>2.5</v>
@@ -28091,7 +28133,7 @@
         <v>0.25</v>
       </c>
       <c r="AP130">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ130">
         <v>0.67</v>
@@ -28300,7 +28342,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ131">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR131">
         <v>1.71</v>
@@ -28712,7 +28754,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ133">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR133">
         <v>1.78</v>
@@ -28837,7 +28879,7 @@
         <v>152</v>
       </c>
       <c r="P134" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -28915,10 +28957,10 @@
         <v>1.6</v>
       </c>
       <c r="AP134">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ134">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR134">
         <v>1.41</v>
@@ -29043,7 +29085,7 @@
         <v>206</v>
       </c>
       <c r="P135" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29121,7 +29163,7 @@
         <v>1.75</v>
       </c>
       <c r="AP135">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ135">
         <v>2</v>
@@ -29327,10 +29369,10 @@
         <v>1.67</v>
       </c>
       <c r="AP136">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ136">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR136">
         <v>1.75</v>
@@ -29533,10 +29575,10 @@
         <v>0.33</v>
       </c>
       <c r="AP137">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ137">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR137">
         <v>1.51</v>
@@ -29867,7 +29909,7 @@
         <v>119</v>
       </c>
       <c r="P139" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -29945,7 +29987,7 @@
         <v>0</v>
       </c>
       <c r="AP139">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ139">
         <v>0.5</v>
@@ -30073,7 +30115,7 @@
         <v>209</v>
       </c>
       <c r="P140" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -30154,7 +30196,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ140">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR140">
         <v>2</v>
@@ -30279,7 +30321,7 @@
         <v>210</v>
       </c>
       <c r="P141" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30485,7 +30527,7 @@
         <v>211</v>
       </c>
       <c r="P142" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30769,10 +30811,10 @@
         <v>0.83</v>
       </c>
       <c r="AP143">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ143">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR143">
         <v>1.31</v>
@@ -30897,7 +30939,7 @@
         <v>213</v>
       </c>
       <c r="P144" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="Q144">
         <v>2.88</v>
@@ -30978,7 +31020,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ144">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR144">
         <v>1.84</v>
@@ -31103,7 +31145,7 @@
         <v>214</v>
       </c>
       <c r="P145" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="Q145">
         <v>2.38</v>
@@ -31181,10 +31223,10 @@
         <v>1.5</v>
       </c>
       <c r="AP145">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ145">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR145">
         <v>1.66</v>
@@ -31593,7 +31635,7 @@
         <v>0.25</v>
       </c>
       <c r="AP147">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ147">
         <v>0.67</v>
@@ -31799,10 +31841,10 @@
         <v>0.25</v>
       </c>
       <c r="AP148">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ148">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR148">
         <v>1.55</v>
@@ -32005,10 +32047,10 @@
         <v>0.75</v>
       </c>
       <c r="AP149">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ149">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR149">
         <v>1.71</v>
@@ -32133,7 +32175,7 @@
         <v>217</v>
       </c>
       <c r="P150" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32211,10 +32253,10 @@
         <v>1.14</v>
       </c>
       <c r="AP150">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ150">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR150">
         <v>1.24</v>
@@ -32417,7 +32459,7 @@
         <v>0</v>
       </c>
       <c r="AP151">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ151">
         <v>0.5</v>
@@ -32623,10 +32665,10 @@
         <v>1.25</v>
       </c>
       <c r="AP152">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ152">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR152">
         <v>1.48</v>
@@ -32957,7 +32999,7 @@
         <v>104</v>
       </c>
       <c r="P154" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="Q154">
         <v>2.4</v>
@@ -33035,10 +33077,10 @@
         <v>1.33</v>
       </c>
       <c r="AP154">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ154">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR154">
         <v>1.8</v>
@@ -33241,10 +33283,10 @@
         <v>1.67</v>
       </c>
       <c r="AP155">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ155">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR155">
         <v>1.55</v>
@@ -33369,7 +33411,7 @@
         <v>219</v>
       </c>
       <c r="P156" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33450,7 +33492,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ156">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR156">
         <v>1.86</v>
@@ -33653,7 +33695,7 @@
         <v>0.33</v>
       </c>
       <c r="AP157">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ157">
         <v>0.25</v>
@@ -33781,7 +33823,7 @@
         <v>221</v>
       </c>
       <c r="P158" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -33987,7 +34029,7 @@
         <v>222</v>
       </c>
       <c r="P159" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="Q159">
         <v>2.1</v>
@@ -34193,7 +34235,7 @@
         <v>223</v>
       </c>
       <c r="P160" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="Q160">
         <v>2.5</v>
@@ -34274,7 +34316,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ160">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR160">
         <v>1.52</v>
@@ -34399,7 +34441,7 @@
         <v>224</v>
       </c>
       <c r="P161" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="Q161">
         <v>3.4</v>
@@ -34477,7 +34519,7 @@
         <v>0.25</v>
       </c>
       <c r="AP161">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ161">
         <v>1.17</v>
@@ -34605,7 +34647,7 @@
         <v>162</v>
       </c>
       <c r="P162" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -35017,7 +35059,7 @@
         <v>226</v>
       </c>
       <c r="P164" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="Q164">
         <v>2.75</v>
@@ -35223,7 +35265,7 @@
         <v>227</v>
       </c>
       <c r="P165" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="Q165">
         <v>2.3</v>
@@ -35429,7 +35471,7 @@
         <v>228</v>
       </c>
       <c r="P166" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="Q166">
         <v>2.3</v>
@@ -35635,7 +35677,7 @@
         <v>229</v>
       </c>
       <c r="P167" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="Q167">
         <v>2.5</v>
@@ -35922,7 +35964,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ168">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR168">
         <v>2.08</v>
@@ -36047,7 +36089,7 @@
         <v>231</v>
       </c>
       <c r="P169" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Q169">
         <v>3.2</v>
@@ -36331,10 +36373,10 @@
         <v>0.5</v>
       </c>
       <c r="AP170">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ170">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR170">
         <v>1.59</v>
@@ -36459,7 +36501,7 @@
         <v>232</v>
       </c>
       <c r="P171" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="Q171">
         <v>3.1</v>
@@ -36540,7 +36582,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ171">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR171">
         <v>1.72</v>
@@ -36665,7 +36707,7 @@
         <v>233</v>
       </c>
       <c r="P172" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -36746,7 +36788,7 @@
         <v>1</v>
       </c>
       <c r="AQ172">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR172">
         <v>1.44</v>
@@ -37077,7 +37119,7 @@
         <v>121</v>
       </c>
       <c r="P174" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="Q174">
         <v>2.5</v>
@@ -37361,7 +37403,7 @@
         <v>1.8</v>
       </c>
       <c r="AP175">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ175">
         <v>1.5</v>
@@ -37489,7 +37531,7 @@
         <v>104</v>
       </c>
       <c r="P176" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="Q176">
         <v>2.75</v>
@@ -37567,7 +37609,7 @@
         <v>0.2</v>
       </c>
       <c r="AP176">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ176">
         <v>0.67</v>
@@ -37695,7 +37737,7 @@
         <v>234</v>
       </c>
       <c r="P177" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="Q177">
         <v>2.63</v>
@@ -37773,10 +37815,10 @@
         <v>1.57</v>
       </c>
       <c r="AP177">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ177">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR177">
         <v>1.64</v>
@@ -37979,7 +38021,7 @@
         <v>1.17</v>
       </c>
       <c r="AP178">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ178">
         <v>1</v>
@@ -38107,7 +38149,7 @@
         <v>104</v>
       </c>
       <c r="P179" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="Q179">
         <v>3.1</v>
@@ -38394,7 +38436,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ180">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR180">
         <v>1.4</v>
@@ -38597,7 +38639,7 @@
         <v>1</v>
       </c>
       <c r="AP181">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ181">
         <v>0.88</v>
@@ -38725,7 +38767,7 @@
         <v>237</v>
       </c>
       <c r="P182" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Q182">
         <v>2.3</v>
@@ -38882,6 +38924,2890 @@
       </c>
       <c r="BP182">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7295417</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45430.61458333334</v>
+      </c>
+      <c r="F183">
+        <v>14</v>
+      </c>
+      <c r="G183" t="s">
+        <v>83</v>
+      </c>
+      <c r="H183" t="s">
+        <v>96</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>2</v>
+      </c>
+      <c r="O183" t="s">
+        <v>139</v>
+      </c>
+      <c r="P183" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q183">
+        <v>2.75</v>
+      </c>
+      <c r="R183">
+        <v>2.25</v>
+      </c>
+      <c r="S183">
+        <v>3.6</v>
+      </c>
+      <c r="T183">
+        <v>1.33</v>
+      </c>
+      <c r="U183">
+        <v>3.25</v>
+      </c>
+      <c r="V183">
+        <v>2.63</v>
+      </c>
+      <c r="W183">
+        <v>1.44</v>
+      </c>
+      <c r="X183">
+        <v>6.5</v>
+      </c>
+      <c r="Y183">
+        <v>1.11</v>
+      </c>
+      <c r="Z183">
+        <v>2.12</v>
+      </c>
+      <c r="AA183">
+        <v>4.1</v>
+      </c>
+      <c r="AB183">
+        <v>3</v>
+      </c>
+      <c r="AC183">
+        <v>1.03</v>
+      </c>
+      <c r="AD183">
+        <v>13</v>
+      </c>
+      <c r="AE183">
+        <v>1.2</v>
+      </c>
+      <c r="AF183">
+        <v>3.85</v>
+      </c>
+      <c r="AG183">
+        <v>1.7</v>
+      </c>
+      <c r="AH183">
+        <v>2.05</v>
+      </c>
+      <c r="AI183">
+        <v>1.62</v>
+      </c>
+      <c r="AJ183">
+        <v>2.2</v>
+      </c>
+      <c r="AK183">
+        <v>1.35</v>
+      </c>
+      <c r="AL183">
+        <v>1.25</v>
+      </c>
+      <c r="AM183">
+        <v>1.67</v>
+      </c>
+      <c r="AN183">
+        <v>1.63</v>
+      </c>
+      <c r="AO183">
+        <v>0.4</v>
+      </c>
+      <c r="AP183">
+        <v>1.56</v>
+      </c>
+      <c r="AQ183">
+        <v>0.5</v>
+      </c>
+      <c r="AR183">
+        <v>1.28</v>
+      </c>
+      <c r="AS183">
+        <v>1.32</v>
+      </c>
+      <c r="AT183">
+        <v>2.6</v>
+      </c>
+      <c r="AU183">
+        <v>5</v>
+      </c>
+      <c r="AV183">
+        <v>2</v>
+      </c>
+      <c r="AW183">
+        <v>7</v>
+      </c>
+      <c r="AX183">
+        <v>9</v>
+      </c>
+      <c r="AY183">
+        <v>12</v>
+      </c>
+      <c r="AZ183">
+        <v>11</v>
+      </c>
+      <c r="BA183">
+        <v>6</v>
+      </c>
+      <c r="BB183">
+        <v>1</v>
+      </c>
+      <c r="BC183">
+        <v>7</v>
+      </c>
+      <c r="BD183">
+        <v>1.7</v>
+      </c>
+      <c r="BE183">
+        <v>9.4</v>
+      </c>
+      <c r="BF183">
+        <v>2.51</v>
+      </c>
+      <c r="BG183">
+        <v>1.2</v>
+      </c>
+      <c r="BH183">
+        <v>3.88</v>
+      </c>
+      <c r="BI183">
+        <v>1.4</v>
+      </c>
+      <c r="BJ183">
+        <v>2.72</v>
+      </c>
+      <c r="BK183">
+        <v>1.76</v>
+      </c>
+      <c r="BL183">
+        <v>2.06</v>
+      </c>
+      <c r="BM183">
+        <v>2.19</v>
+      </c>
+      <c r="BN183">
+        <v>1.68</v>
+      </c>
+      <c r="BO183">
+        <v>2.84</v>
+      </c>
+      <c r="BP183">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7295418</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45430.85416666666</v>
+      </c>
+      <c r="F184">
+        <v>14</v>
+      </c>
+      <c r="G184" t="s">
+        <v>73</v>
+      </c>
+      <c r="H184" t="s">
+        <v>84</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>0</v>
+      </c>
+      <c r="O184" t="s">
+        <v>104</v>
+      </c>
+      <c r="P184" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q184">
+        <v>2.75</v>
+      </c>
+      <c r="R184">
+        <v>2.3</v>
+      </c>
+      <c r="S184">
+        <v>3.75</v>
+      </c>
+      <c r="T184">
+        <v>1.33</v>
+      </c>
+      <c r="U184">
+        <v>3.25</v>
+      </c>
+      <c r="V184">
+        <v>2.63</v>
+      </c>
+      <c r="W184">
+        <v>1.44</v>
+      </c>
+      <c r="X184">
+        <v>6.5</v>
+      </c>
+      <c r="Y184">
+        <v>1.11</v>
+      </c>
+      <c r="Z184">
+        <v>2.19</v>
+      </c>
+      <c r="AA184">
+        <v>3.8</v>
+      </c>
+      <c r="AB184">
+        <v>2.98</v>
+      </c>
+      <c r="AC184">
+        <v>1.05</v>
+      </c>
+      <c r="AD184">
+        <v>9.5</v>
+      </c>
+      <c r="AE184">
+        <v>1.22</v>
+      </c>
+      <c r="AF184">
+        <v>4.2</v>
+      </c>
+      <c r="AG184">
+        <v>1.65</v>
+      </c>
+      <c r="AH184">
+        <v>2.06</v>
+      </c>
+      <c r="AI184">
+        <v>1.62</v>
+      </c>
+      <c r="AJ184">
+        <v>2.2</v>
+      </c>
+      <c r="AK184">
+        <v>1.36</v>
+      </c>
+      <c r="AL184">
+        <v>1.24</v>
+      </c>
+      <c r="AM184">
+        <v>1.75</v>
+      </c>
+      <c r="AN184">
+        <v>2.29</v>
+      </c>
+      <c r="AO184">
+        <v>1.5</v>
+      </c>
+      <c r="AP184">
+        <v>2.13</v>
+      </c>
+      <c r="AQ184">
+        <v>1.44</v>
+      </c>
+      <c r="AR184">
+        <v>1.27</v>
+      </c>
+      <c r="AS184">
+        <v>1.5</v>
+      </c>
+      <c r="AT184">
+        <v>2.77</v>
+      </c>
+      <c r="AU184">
+        <v>2</v>
+      </c>
+      <c r="AV184">
+        <v>0</v>
+      </c>
+      <c r="AW184">
+        <v>0</v>
+      </c>
+      <c r="AX184">
+        <v>4</v>
+      </c>
+      <c r="AY184">
+        <v>2</v>
+      </c>
+      <c r="AZ184">
+        <v>4</v>
+      </c>
+      <c r="BA184">
+        <v>-1</v>
+      </c>
+      <c r="BB184">
+        <v>-1</v>
+      </c>
+      <c r="BC184">
+        <v>-1</v>
+      </c>
+      <c r="BD184">
+        <v>1.71</v>
+      </c>
+      <c r="BE184">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF184">
+        <v>2.49</v>
+      </c>
+      <c r="BG184">
+        <v>1.18</v>
+      </c>
+      <c r="BH184">
+        <v>4.1</v>
+      </c>
+      <c r="BI184">
+        <v>1.36</v>
+      </c>
+      <c r="BJ184">
+        <v>2.79</v>
+      </c>
+      <c r="BK184">
+        <v>1.72</v>
+      </c>
+      <c r="BL184">
+        <v>2.12</v>
+      </c>
+      <c r="BM184">
+        <v>2.13</v>
+      </c>
+      <c r="BN184">
+        <v>1.72</v>
+      </c>
+      <c r="BO184">
+        <v>2.72</v>
+      </c>
+      <c r="BP184">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7295419</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45430.85416666666</v>
+      </c>
+      <c r="F185">
+        <v>14</v>
+      </c>
+      <c r="G185" t="s">
+        <v>82</v>
+      </c>
+      <c r="H185" t="s">
+        <v>80</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>3</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>4</v>
+      </c>
+      <c r="O185" t="s">
+        <v>238</v>
+      </c>
+      <c r="P185" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q185">
+        <v>2.3</v>
+      </c>
+      <c r="R185">
+        <v>2.25</v>
+      </c>
+      <c r="S185">
+        <v>4.75</v>
+      </c>
+      <c r="T185">
+        <v>1.36</v>
+      </c>
+      <c r="U185">
+        <v>3</v>
+      </c>
+      <c r="V185">
+        <v>2.63</v>
+      </c>
+      <c r="W185">
+        <v>1.44</v>
+      </c>
+      <c r="X185">
+        <v>7</v>
+      </c>
+      <c r="Y185">
+        <v>1.1</v>
+      </c>
+      <c r="Z185">
+        <v>1.87</v>
+      </c>
+      <c r="AA185">
+        <v>3.84</v>
+      </c>
+      <c r="AB185">
+        <v>3.85</v>
+      </c>
+      <c r="AC185">
+        <v>1.04</v>
+      </c>
+      <c r="AD185">
+        <v>13</v>
+      </c>
+      <c r="AE185">
+        <v>1.26</v>
+      </c>
+      <c r="AF185">
+        <v>4</v>
+      </c>
+      <c r="AG185">
+        <v>1.74</v>
+      </c>
+      <c r="AH185">
+        <v>1.94</v>
+      </c>
+      <c r="AI185">
+        <v>1.8</v>
+      </c>
+      <c r="AJ185">
+        <v>1.95</v>
+      </c>
+      <c r="AK185">
+        <v>1.2</v>
+      </c>
+      <c r="AL185">
+        <v>1.22</v>
+      </c>
+      <c r="AM185">
+        <v>2.15</v>
+      </c>
+      <c r="AN185">
+        <v>1.83</v>
+      </c>
+      <c r="AO185">
+        <v>0.8</v>
+      </c>
+      <c r="AP185">
+        <v>2</v>
+      </c>
+      <c r="AQ185">
+        <v>0.67</v>
+      </c>
+      <c r="AR185">
+        <v>1.53</v>
+      </c>
+      <c r="AS185">
+        <v>1.6</v>
+      </c>
+      <c r="AT185">
+        <v>3.13</v>
+      </c>
+      <c r="AU185">
+        <v>2</v>
+      </c>
+      <c r="AV185">
+        <v>0</v>
+      </c>
+      <c r="AW185">
+        <v>1</v>
+      </c>
+      <c r="AX185">
+        <v>4</v>
+      </c>
+      <c r="AY185">
+        <v>3</v>
+      </c>
+      <c r="AZ185">
+        <v>4</v>
+      </c>
+      <c r="BA185">
+        <v>-1</v>
+      </c>
+      <c r="BB185">
+        <v>-1</v>
+      </c>
+      <c r="BC185">
+        <v>-1</v>
+      </c>
+      <c r="BD185">
+        <v>1.59</v>
+      </c>
+      <c r="BE185">
+        <v>9.4</v>
+      </c>
+      <c r="BF185">
+        <v>2.79</v>
+      </c>
+      <c r="BG185">
+        <v>1.17</v>
+      </c>
+      <c r="BH185">
+        <v>4.2</v>
+      </c>
+      <c r="BI185">
+        <v>1.35</v>
+      </c>
+      <c r="BJ185">
+        <v>2.84</v>
+      </c>
+      <c r="BK185">
+        <v>1.68</v>
+      </c>
+      <c r="BL185">
+        <v>2.18</v>
+      </c>
+      <c r="BM185">
+        <v>2.08</v>
+      </c>
+      <c r="BN185">
+        <v>1.75</v>
+      </c>
+      <c r="BO185">
+        <v>2.69</v>
+      </c>
+      <c r="BP185">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7295421</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45430.85416666666</v>
+      </c>
+      <c r="F186">
+        <v>14</v>
+      </c>
+      <c r="G186" t="s">
+        <v>93</v>
+      </c>
+      <c r="H186" t="s">
+        <v>76</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>3</v>
+      </c>
+      <c r="N186">
+        <v>3</v>
+      </c>
+      <c r="O186" t="s">
+        <v>104</v>
+      </c>
+      <c r="P186" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q186">
+        <v>3.2</v>
+      </c>
+      <c r="R186">
+        <v>2.3</v>
+      </c>
+      <c r="S186">
+        <v>3</v>
+      </c>
+      <c r="T186">
+        <v>1.3</v>
+      </c>
+      <c r="U186">
+        <v>3.4</v>
+      </c>
+      <c r="V186">
+        <v>2.5</v>
+      </c>
+      <c r="W186">
+        <v>1.5</v>
+      </c>
+      <c r="X186">
+        <v>6</v>
+      </c>
+      <c r="Y186">
+        <v>1.13</v>
+      </c>
+      <c r="Z186">
+        <v>2.68</v>
+      </c>
+      <c r="AA186">
+        <v>3.72</v>
+      </c>
+      <c r="AB186">
+        <v>2.42</v>
+      </c>
+      <c r="AC186">
+        <v>1.03</v>
+      </c>
+      <c r="AD186">
+        <v>15</v>
+      </c>
+      <c r="AE186">
+        <v>1.17</v>
+      </c>
+      <c r="AF186">
+        <v>4.15</v>
+      </c>
+      <c r="AG186">
+        <v>1.6</v>
+      </c>
+      <c r="AH186">
+        <v>2.16</v>
+      </c>
+      <c r="AI186">
+        <v>1.57</v>
+      </c>
+      <c r="AJ186">
+        <v>2.25</v>
+      </c>
+      <c r="AK186">
+        <v>1.54</v>
+      </c>
+      <c r="AL186">
+        <v>1.28</v>
+      </c>
+      <c r="AM186">
+        <v>1.49</v>
+      </c>
+      <c r="AN186">
+        <v>0.8</v>
+      </c>
+      <c r="AO186">
+        <v>1.67</v>
+      </c>
+      <c r="AP186">
+        <v>0.67</v>
+      </c>
+      <c r="AQ186">
+        <v>1.86</v>
+      </c>
+      <c r="AR186">
+        <v>1.49</v>
+      </c>
+      <c r="AS186">
+        <v>1.38</v>
+      </c>
+      <c r="AT186">
+        <v>2.87</v>
+      </c>
+      <c r="AU186">
+        <v>0</v>
+      </c>
+      <c r="AV186">
+        <v>2</v>
+      </c>
+      <c r="AW186">
+        <v>2</v>
+      </c>
+      <c r="AX186">
+        <v>1</v>
+      </c>
+      <c r="AY186">
+        <v>2</v>
+      </c>
+      <c r="AZ186">
+        <v>3</v>
+      </c>
+      <c r="BA186">
+        <v>-1</v>
+      </c>
+      <c r="BB186">
+        <v>-1</v>
+      </c>
+      <c r="BC186">
+        <v>-1</v>
+      </c>
+      <c r="BD186">
+        <v>1.72</v>
+      </c>
+      <c r="BE186">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF186">
+        <v>2.48</v>
+      </c>
+      <c r="BG186">
+        <v>1.2</v>
+      </c>
+      <c r="BH186">
+        <v>3.88</v>
+      </c>
+      <c r="BI186">
+        <v>1.4</v>
+      </c>
+      <c r="BJ186">
+        <v>2.72</v>
+      </c>
+      <c r="BK186">
+        <v>1.75</v>
+      </c>
+      <c r="BL186">
+        <v>2.06</v>
+      </c>
+      <c r="BM186">
+        <v>2.18</v>
+      </c>
+      <c r="BN186">
+        <v>1.68</v>
+      </c>
+      <c r="BO186">
+        <v>2.84</v>
+      </c>
+      <c r="BP186">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7295422</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45430.85416666666</v>
+      </c>
+      <c r="F187">
+        <v>14</v>
+      </c>
+      <c r="G187" t="s">
+        <v>94</v>
+      </c>
+      <c r="H187" t="s">
+        <v>97</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
+      </c>
+      <c r="K187">
+        <v>2</v>
+      </c>
+      <c r="L187">
+        <v>2</v>
+      </c>
+      <c r="M187">
+        <v>1</v>
+      </c>
+      <c r="N187">
+        <v>3</v>
+      </c>
+      <c r="O187" t="s">
+        <v>239</v>
+      </c>
+      <c r="P187" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q187">
+        <v>3.1</v>
+      </c>
+      <c r="R187">
+        <v>2.05</v>
+      </c>
+      <c r="S187">
+        <v>3.6</v>
+      </c>
+      <c r="T187">
+        <v>1.44</v>
+      </c>
+      <c r="U187">
+        <v>2.63</v>
+      </c>
+      <c r="V187">
+        <v>3.25</v>
+      </c>
+      <c r="W187">
+        <v>1.33</v>
+      </c>
+      <c r="X187">
+        <v>9</v>
+      </c>
+      <c r="Y187">
+        <v>1.07</v>
+      </c>
+      <c r="Z187">
+        <v>2.49</v>
+      </c>
+      <c r="AA187">
+        <v>3.48</v>
+      </c>
+      <c r="AB187">
+        <v>2.73</v>
+      </c>
+      <c r="AC187">
+        <v>1.07</v>
+      </c>
+      <c r="AD187">
+        <v>9.5</v>
+      </c>
+      <c r="AE187">
+        <v>1.38</v>
+      </c>
+      <c r="AF187">
+        <v>3.1</v>
+      </c>
+      <c r="AG187">
+        <v>2.01</v>
+      </c>
+      <c r="AH187">
+        <v>1.69</v>
+      </c>
+      <c r="AI187">
+        <v>1.8</v>
+      </c>
+      <c r="AJ187">
+        <v>1.95</v>
+      </c>
+      <c r="AK187">
+        <v>1.42</v>
+      </c>
+      <c r="AL187">
+        <v>1.3</v>
+      </c>
+      <c r="AM187">
+        <v>1.57</v>
+      </c>
+      <c r="AN187">
+        <v>1.86</v>
+      </c>
+      <c r="AO187">
+        <v>1.5</v>
+      </c>
+      <c r="AP187">
+        <v>2</v>
+      </c>
+      <c r="AQ187">
+        <v>1.33</v>
+      </c>
+      <c r="AR187">
+        <v>1.79</v>
+      </c>
+      <c r="AS187">
+        <v>1.24</v>
+      </c>
+      <c r="AT187">
+        <v>3.03</v>
+      </c>
+      <c r="AU187">
+        <v>2</v>
+      </c>
+      <c r="AV187">
+        <v>2</v>
+      </c>
+      <c r="AW187">
+        <v>1</v>
+      </c>
+      <c r="AX187">
+        <v>3</v>
+      </c>
+      <c r="AY187">
+        <v>3</v>
+      </c>
+      <c r="AZ187">
+        <v>5</v>
+      </c>
+      <c r="BA187">
+        <v>-1</v>
+      </c>
+      <c r="BB187">
+        <v>-1</v>
+      </c>
+      <c r="BC187">
+        <v>-1</v>
+      </c>
+      <c r="BD187">
+        <v>1.8</v>
+      </c>
+      <c r="BE187">
+        <v>7.5</v>
+      </c>
+      <c r="BF187">
+        <v>2.33</v>
+      </c>
+      <c r="BG187">
+        <v>1.29</v>
+      </c>
+      <c r="BH187">
+        <v>3.05</v>
+      </c>
+      <c r="BI187">
+        <v>1.62</v>
+      </c>
+      <c r="BJ187">
+        <v>2.24</v>
+      </c>
+      <c r="BK187">
+        <v>2.01</v>
+      </c>
+      <c r="BL187">
+        <v>1.8</v>
+      </c>
+      <c r="BM187">
+        <v>2.56</v>
+      </c>
+      <c r="BN187">
+        <v>1.49</v>
+      </c>
+      <c r="BO187">
+        <v>3.15</v>
+      </c>
+      <c r="BP187">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7295423</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45430.85416666666</v>
+      </c>
+      <c r="F188">
+        <v>14</v>
+      </c>
+      <c r="G188" t="s">
+        <v>95</v>
+      </c>
+      <c r="H188" t="s">
+        <v>98</v>
+      </c>
+      <c r="I188">
+        <v>3</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>3</v>
+      </c>
+      <c r="L188">
+        <v>5</v>
+      </c>
+      <c r="M188">
+        <v>1</v>
+      </c>
+      <c r="N188">
+        <v>6</v>
+      </c>
+      <c r="O188" t="s">
+        <v>240</v>
+      </c>
+      <c r="P188" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q188">
+        <v>2.75</v>
+      </c>
+      <c r="R188">
+        <v>2.25</v>
+      </c>
+      <c r="S188">
+        <v>3.75</v>
+      </c>
+      <c r="T188">
+        <v>1.36</v>
+      </c>
+      <c r="U188">
+        <v>3</v>
+      </c>
+      <c r="V188">
+        <v>2.63</v>
+      </c>
+      <c r="W188">
+        <v>1.44</v>
+      </c>
+      <c r="X188">
+        <v>7</v>
+      </c>
+      <c r="Y188">
+        <v>1.1</v>
+      </c>
+      <c r="Z188">
+        <v>1.9</v>
+      </c>
+      <c r="AA188">
+        <v>3.62</v>
+      </c>
+      <c r="AB188">
+        <v>3.96</v>
+      </c>
+      <c r="AC188">
+        <v>1.01</v>
+      </c>
+      <c r="AD188">
+        <v>9.9</v>
+      </c>
+      <c r="AE188">
+        <v>1.21</v>
+      </c>
+      <c r="AF188">
+        <v>3.75</v>
+      </c>
+      <c r="AG188">
+        <v>1.7</v>
+      </c>
+      <c r="AH188">
+        <v>1.99</v>
+      </c>
+      <c r="AI188">
+        <v>1.67</v>
+      </c>
+      <c r="AJ188">
+        <v>2.1</v>
+      </c>
+      <c r="AK188">
+        <v>1.33</v>
+      </c>
+      <c r="AL188">
+        <v>1.3</v>
+      </c>
+      <c r="AM188">
+        <v>1.72</v>
+      </c>
+      <c r="AN188">
+        <v>2</v>
+      </c>
+      <c r="AO188">
+        <v>1</v>
+      </c>
+      <c r="AP188">
+        <v>2.14</v>
+      </c>
+      <c r="AQ188">
+        <v>0.89</v>
+      </c>
+      <c r="AR188">
+        <v>1.66</v>
+      </c>
+      <c r="AS188">
+        <v>1.12</v>
+      </c>
+      <c r="AT188">
+        <v>2.78</v>
+      </c>
+      <c r="AU188">
+        <v>2</v>
+      </c>
+      <c r="AV188">
+        <v>0</v>
+      </c>
+      <c r="AW188">
+        <v>4</v>
+      </c>
+      <c r="AX188">
+        <v>2</v>
+      </c>
+      <c r="AY188">
+        <v>6</v>
+      </c>
+      <c r="AZ188">
+        <v>2</v>
+      </c>
+      <c r="BA188">
+        <v>-1</v>
+      </c>
+      <c r="BB188">
+        <v>-1</v>
+      </c>
+      <c r="BC188">
+        <v>-1</v>
+      </c>
+      <c r="BD188">
+        <v>1.73</v>
+      </c>
+      <c r="BE188">
+        <v>9</v>
+      </c>
+      <c r="BF188">
+        <v>2.48</v>
+      </c>
+      <c r="BG188">
+        <v>1.27</v>
+      </c>
+      <c r="BH188">
+        <v>3.28</v>
+      </c>
+      <c r="BI188">
+        <v>1.58</v>
+      </c>
+      <c r="BJ188">
+        <v>2.36</v>
+      </c>
+      <c r="BK188">
+        <v>1.93</v>
+      </c>
+      <c r="BL188">
+        <v>1.87</v>
+      </c>
+      <c r="BM188">
+        <v>2.44</v>
+      </c>
+      <c r="BN188">
+        <v>1.55</v>
+      </c>
+      <c r="BO188">
+        <v>3.28</v>
+      </c>
+      <c r="BP188">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7295420</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45430.87847222222</v>
+      </c>
+      <c r="F189">
+        <v>14</v>
+      </c>
+      <c r="G189" t="s">
+        <v>70</v>
+      </c>
+      <c r="H189" t="s">
+        <v>74</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>1</v>
+      </c>
+      <c r="O189" t="s">
+        <v>106</v>
+      </c>
+      <c r="P189" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q189">
+        <v>2.1</v>
+      </c>
+      <c r="R189">
+        <v>2.6</v>
+      </c>
+      <c r="S189">
+        <v>4.75</v>
+      </c>
+      <c r="T189">
+        <v>1.25</v>
+      </c>
+      <c r="U189">
+        <v>3.75</v>
+      </c>
+      <c r="V189">
+        <v>2.2</v>
+      </c>
+      <c r="W189">
+        <v>1.62</v>
+      </c>
+      <c r="X189">
+        <v>5</v>
+      </c>
+      <c r="Y189">
+        <v>1.17</v>
+      </c>
+      <c r="Z189">
+        <v>1.51</v>
+      </c>
+      <c r="AA189">
+        <v>4.9</v>
+      </c>
+      <c r="AB189">
+        <v>5.3</v>
+      </c>
+      <c r="AC189">
+        <v>1.02</v>
+      </c>
+      <c r="AD189">
+        <v>22.5</v>
+      </c>
+      <c r="AE189">
+        <v>1.15</v>
+      </c>
+      <c r="AF189">
+        <v>5.25</v>
+      </c>
+      <c r="AG189">
+        <v>1.46</v>
+      </c>
+      <c r="AH189">
+        <v>2.46</v>
+      </c>
+      <c r="AI189">
+        <v>1.53</v>
+      </c>
+      <c r="AJ189">
+        <v>2.38</v>
+      </c>
+      <c r="AK189">
+        <v>1.18</v>
+      </c>
+      <c r="AL189">
+        <v>1.17</v>
+      </c>
+      <c r="AM189">
+        <v>2.25</v>
+      </c>
+      <c r="AN189">
+        <v>2</v>
+      </c>
+      <c r="AO189">
+        <v>1.17</v>
+      </c>
+      <c r="AP189">
+        <v>2.13</v>
+      </c>
+      <c r="AQ189">
+        <v>1</v>
+      </c>
+      <c r="AR189">
+        <v>1.64</v>
+      </c>
+      <c r="AS189">
+        <v>1.38</v>
+      </c>
+      <c r="AT189">
+        <v>3.02</v>
+      </c>
+      <c r="AU189">
+        <v>2</v>
+      </c>
+      <c r="AV189">
+        <v>4</v>
+      </c>
+      <c r="AW189">
+        <v>6</v>
+      </c>
+      <c r="AX189">
+        <v>12</v>
+      </c>
+      <c r="AY189">
+        <v>8</v>
+      </c>
+      <c r="AZ189">
+        <v>16</v>
+      </c>
+      <c r="BA189">
+        <v>-1</v>
+      </c>
+      <c r="BB189">
+        <v>-1</v>
+      </c>
+      <c r="BC189">
+        <v>-1</v>
+      </c>
+      <c r="BD189">
+        <v>1.5</v>
+      </c>
+      <c r="BE189">
+        <v>8</v>
+      </c>
+      <c r="BF189">
+        <v>3.1</v>
+      </c>
+      <c r="BG189">
+        <v>1.37</v>
+      </c>
+      <c r="BH189">
+        <v>2.7</v>
+      </c>
+      <c r="BI189">
+        <v>1.66</v>
+      </c>
+      <c r="BJ189">
+        <v>2.05</v>
+      </c>
+      <c r="BK189">
+        <v>2.1</v>
+      </c>
+      <c r="BL189">
+        <v>1.62</v>
+      </c>
+      <c r="BM189">
+        <v>2.75</v>
+      </c>
+      <c r="BN189">
+        <v>1.35</v>
+      </c>
+      <c r="BO189">
+        <v>3.75</v>
+      </c>
+      <c r="BP189">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7295427</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45430.89583333334</v>
+      </c>
+      <c r="F190">
+        <v>14</v>
+      </c>
+      <c r="G190" t="s">
+        <v>85</v>
+      </c>
+      <c r="H190" t="s">
+        <v>81</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+      <c r="L190">
+        <v>2</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+      <c r="N190">
+        <v>3</v>
+      </c>
+      <c r="O190" t="s">
+        <v>241</v>
+      </c>
+      <c r="P190" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q190">
+        <v>2.25</v>
+      </c>
+      <c r="R190">
+        <v>2.4</v>
+      </c>
+      <c r="S190">
+        <v>4.5</v>
+      </c>
+      <c r="T190">
+        <v>1.3</v>
+      </c>
+      <c r="U190">
+        <v>3.4</v>
+      </c>
+      <c r="V190">
+        <v>2.38</v>
+      </c>
+      <c r="W190">
+        <v>1.53</v>
+      </c>
+      <c r="X190">
+        <v>6</v>
+      </c>
+      <c r="Y190">
+        <v>1.13</v>
+      </c>
+      <c r="Z190">
+        <v>1.75</v>
+      </c>
+      <c r="AA190">
+        <v>4.15</v>
+      </c>
+      <c r="AB190">
+        <v>4.15</v>
+      </c>
+      <c r="AC190">
+        <v>1.03</v>
+      </c>
+      <c r="AD190">
+        <v>11</v>
+      </c>
+      <c r="AE190">
+        <v>1.2</v>
+      </c>
+      <c r="AF190">
+        <v>4.5</v>
+      </c>
+      <c r="AG190">
+        <v>1.57</v>
+      </c>
+      <c r="AH190">
+        <v>2.22</v>
+      </c>
+      <c r="AI190">
+        <v>1.67</v>
+      </c>
+      <c r="AJ190">
+        <v>2.1</v>
+      </c>
+      <c r="AK190">
+        <v>1.2</v>
+      </c>
+      <c r="AL190">
+        <v>1.18</v>
+      </c>
+      <c r="AM190">
+        <v>2.1</v>
+      </c>
+      <c r="AN190">
+        <v>1.5</v>
+      </c>
+      <c r="AO190">
+        <v>0.71</v>
+      </c>
+      <c r="AP190">
+        <v>1.71</v>
+      </c>
+      <c r="AQ190">
+        <v>0.63</v>
+      </c>
+      <c r="AR190">
+        <v>1.76</v>
+      </c>
+      <c r="AS190">
+        <v>1.2</v>
+      </c>
+      <c r="AT190">
+        <v>2.96</v>
+      </c>
+      <c r="AU190">
+        <v>5</v>
+      </c>
+      <c r="AV190">
+        <v>3</v>
+      </c>
+      <c r="AW190">
+        <v>14</v>
+      </c>
+      <c r="AX190">
+        <v>7</v>
+      </c>
+      <c r="AY190">
+        <v>19</v>
+      </c>
+      <c r="AZ190">
+        <v>10</v>
+      </c>
+      <c r="BA190">
+        <v>-1</v>
+      </c>
+      <c r="BB190">
+        <v>-1</v>
+      </c>
+      <c r="BC190">
+        <v>-1</v>
+      </c>
+      <c r="BD190">
+        <v>1.56</v>
+      </c>
+      <c r="BE190">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF190">
+        <v>2.86</v>
+      </c>
+      <c r="BG190">
+        <v>1.14</v>
+      </c>
+      <c r="BH190">
+        <v>4.6</v>
+      </c>
+      <c r="BI190">
+        <v>1.3</v>
+      </c>
+      <c r="BJ190">
+        <v>3.08</v>
+      </c>
+      <c r="BK190">
+        <v>1.58</v>
+      </c>
+      <c r="BL190">
+        <v>2.36</v>
+      </c>
+      <c r="BM190">
+        <v>1.92</v>
+      </c>
+      <c r="BN190">
+        <v>1.88</v>
+      </c>
+      <c r="BO190">
+        <v>2.4</v>
+      </c>
+      <c r="BP190">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>7295426</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45430.89583333334</v>
+      </c>
+      <c r="F191">
+        <v>14</v>
+      </c>
+      <c r="G191" t="s">
+        <v>79</v>
+      </c>
+      <c r="H191" t="s">
+        <v>78</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+      <c r="M191">
+        <v>1</v>
+      </c>
+      <c r="N191">
+        <v>2</v>
+      </c>
+      <c r="O191" t="s">
+        <v>242</v>
+      </c>
+      <c r="P191" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q191">
+        <v>2.38</v>
+      </c>
+      <c r="R191">
+        <v>2.1</v>
+      </c>
+      <c r="S191">
+        <v>5.5</v>
+      </c>
+      <c r="T191">
+        <v>1.44</v>
+      </c>
+      <c r="U191">
+        <v>2.63</v>
+      </c>
+      <c r="V191">
+        <v>3.25</v>
+      </c>
+      <c r="W191">
+        <v>1.33</v>
+      </c>
+      <c r="X191">
+        <v>9</v>
+      </c>
+      <c r="Y191">
+        <v>1.07</v>
+      </c>
+      <c r="Z191">
+        <v>1.74</v>
+      </c>
+      <c r="AA191">
+        <v>3.74</v>
+      </c>
+      <c r="AB191">
+        <v>4.7</v>
+      </c>
+      <c r="AC191">
+        <v>1.06</v>
+      </c>
+      <c r="AD191">
+        <v>8.5</v>
+      </c>
+      <c r="AE191">
+        <v>1.35</v>
+      </c>
+      <c r="AF191">
+        <v>3.1</v>
+      </c>
+      <c r="AG191">
+        <v>2.01</v>
+      </c>
+      <c r="AH191">
+        <v>1.69</v>
+      </c>
+      <c r="AI191">
+        <v>2</v>
+      </c>
+      <c r="AJ191">
+        <v>1.75</v>
+      </c>
+      <c r="AK191">
+        <v>1.15</v>
+      </c>
+      <c r="AL191">
+        <v>1.22</v>
+      </c>
+      <c r="AM191">
+        <v>2.1</v>
+      </c>
+      <c r="AN191">
+        <v>1.33</v>
+      </c>
+      <c r="AO191">
+        <v>0.2</v>
+      </c>
+      <c r="AP191">
+        <v>1.29</v>
+      </c>
+      <c r="AQ191">
+        <v>0.33</v>
+      </c>
+      <c r="AR191">
+        <v>1.77</v>
+      </c>
+      <c r="AS191">
+        <v>1.05</v>
+      </c>
+      <c r="AT191">
+        <v>2.82</v>
+      </c>
+      <c r="AU191">
+        <v>9</v>
+      </c>
+      <c r="AV191">
+        <v>4</v>
+      </c>
+      <c r="AW191">
+        <v>10</v>
+      </c>
+      <c r="AX191">
+        <v>4</v>
+      </c>
+      <c r="AY191">
+        <v>19</v>
+      </c>
+      <c r="AZ191">
+        <v>8</v>
+      </c>
+      <c r="BA191">
+        <v>-1</v>
+      </c>
+      <c r="BB191">
+        <v>-1</v>
+      </c>
+      <c r="BC191">
+        <v>-1</v>
+      </c>
+      <c r="BD191">
+        <v>1.57</v>
+      </c>
+      <c r="BE191">
+        <v>8.9</v>
+      </c>
+      <c r="BF191">
+        <v>2.91</v>
+      </c>
+      <c r="BG191">
+        <v>1.38</v>
+      </c>
+      <c r="BH191">
+        <v>2.8</v>
+      </c>
+      <c r="BI191">
+        <v>1.74</v>
+      </c>
+      <c r="BJ191">
+        <v>2.08</v>
+      </c>
+      <c r="BK191">
+        <v>2.19</v>
+      </c>
+      <c r="BL191">
+        <v>1.67</v>
+      </c>
+      <c r="BM191">
+        <v>2.88</v>
+      </c>
+      <c r="BN191">
+        <v>1.34</v>
+      </c>
+      <c r="BO191">
+        <v>4.1</v>
+      </c>
+      <c r="BP191">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="192" spans="1:68">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>7295424</v>
+      </c>
+      <c r="C192" t="s">
+        <v>68</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45430.89583333334</v>
+      </c>
+      <c r="F192">
+        <v>14</v>
+      </c>
+      <c r="G192" t="s">
+        <v>77</v>
+      </c>
+      <c r="H192" t="s">
+        <v>89</v>
+      </c>
+      <c r="I192">
+        <v>2</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192">
+        <v>3</v>
+      </c>
+      <c r="L192">
+        <v>3</v>
+      </c>
+      <c r="M192">
+        <v>2</v>
+      </c>
+      <c r="N192">
+        <v>5</v>
+      </c>
+      <c r="O192" t="s">
+        <v>243</v>
+      </c>
+      <c r="P192" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q192">
+        <v>2.63</v>
+      </c>
+      <c r="R192">
+        <v>2.3</v>
+      </c>
+      <c r="S192">
+        <v>3.75</v>
+      </c>
+      <c r="T192">
+        <v>1.33</v>
+      </c>
+      <c r="U192">
+        <v>3.25</v>
+      </c>
+      <c r="V192">
+        <v>2.5</v>
+      </c>
+      <c r="W192">
+        <v>1.5</v>
+      </c>
+      <c r="X192">
+        <v>6.5</v>
+      </c>
+      <c r="Y192">
+        <v>1.11</v>
+      </c>
+      <c r="Z192">
+        <v>2.23</v>
+      </c>
+      <c r="AA192">
+        <v>3.55</v>
+      </c>
+      <c r="AB192">
+        <v>3.08</v>
+      </c>
+      <c r="AC192">
+        <v>1.04</v>
+      </c>
+      <c r="AD192">
+        <v>10</v>
+      </c>
+      <c r="AE192">
+        <v>1.22</v>
+      </c>
+      <c r="AF192">
+        <v>4.2</v>
+      </c>
+      <c r="AG192">
+        <v>1.65</v>
+      </c>
+      <c r="AH192">
+        <v>2.06</v>
+      </c>
+      <c r="AI192">
+        <v>1.62</v>
+      </c>
+      <c r="AJ192">
+        <v>2.2</v>
+      </c>
+      <c r="AK192">
+        <v>1.33</v>
+      </c>
+      <c r="AL192">
+        <v>1.22</v>
+      </c>
+      <c r="AM192">
+        <v>1.73</v>
+      </c>
+      <c r="AN192">
+        <v>2</v>
+      </c>
+      <c r="AO192">
+        <v>1</v>
+      </c>
+      <c r="AP192">
+        <v>2.13</v>
+      </c>
+      <c r="AQ192">
+        <v>0.83</v>
+      </c>
+      <c r="AR192">
+        <v>1.28</v>
+      </c>
+      <c r="AS192">
+        <v>1.25</v>
+      </c>
+      <c r="AT192">
+        <v>2.53</v>
+      </c>
+      <c r="AU192">
+        <v>8</v>
+      </c>
+      <c r="AV192">
+        <v>4</v>
+      </c>
+      <c r="AW192">
+        <v>5</v>
+      </c>
+      <c r="AX192">
+        <v>15</v>
+      </c>
+      <c r="AY192">
+        <v>13</v>
+      </c>
+      <c r="AZ192">
+        <v>19</v>
+      </c>
+      <c r="BA192">
+        <v>-1</v>
+      </c>
+      <c r="BB192">
+        <v>-1</v>
+      </c>
+      <c r="BC192">
+        <v>-1</v>
+      </c>
+      <c r="BD192">
+        <v>1.85</v>
+      </c>
+      <c r="BE192">
+        <v>9.1</v>
+      </c>
+      <c r="BF192">
+        <v>2.26</v>
+      </c>
+      <c r="BG192">
+        <v>1.19</v>
+      </c>
+      <c r="BH192">
+        <v>3.95</v>
+      </c>
+      <c r="BI192">
+        <v>1.39</v>
+      </c>
+      <c r="BJ192">
+        <v>2.76</v>
+      </c>
+      <c r="BK192">
+        <v>1.75</v>
+      </c>
+      <c r="BL192">
+        <v>2.08</v>
+      </c>
+      <c r="BM192">
+        <v>2.17</v>
+      </c>
+      <c r="BN192">
+        <v>1.69</v>
+      </c>
+      <c r="BO192">
+        <v>2.79</v>
+      </c>
+      <c r="BP192">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="193" spans="1:68">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>7295425</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45430.89583333334</v>
+      </c>
+      <c r="F193">
+        <v>14</v>
+      </c>
+      <c r="G193" t="s">
+        <v>88</v>
+      </c>
+      <c r="H193" t="s">
+        <v>71</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193">
+        <v>3</v>
+      </c>
+      <c r="N193">
+        <v>4</v>
+      </c>
+      <c r="O193" t="s">
+        <v>244</v>
+      </c>
+      <c r="P193" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q193">
+        <v>3.4</v>
+      </c>
+      <c r="R193">
+        <v>2.25</v>
+      </c>
+      <c r="S193">
+        <v>3</v>
+      </c>
+      <c r="T193">
+        <v>1.36</v>
+      </c>
+      <c r="U193">
+        <v>3</v>
+      </c>
+      <c r="V193">
+        <v>2.63</v>
+      </c>
+      <c r="W193">
+        <v>1.44</v>
+      </c>
+      <c r="X193">
+        <v>7</v>
+      </c>
+      <c r="Y193">
+        <v>1.1</v>
+      </c>
+      <c r="Z193">
+        <v>2.9</v>
+      </c>
+      <c r="AA193">
+        <v>3.52</v>
+      </c>
+      <c r="AB193">
+        <v>2.35</v>
+      </c>
+      <c r="AC193">
+        <v>1.05</v>
+      </c>
+      <c r="AD193">
+        <v>9.5</v>
+      </c>
+      <c r="AE193">
+        <v>1.25</v>
+      </c>
+      <c r="AF193">
+        <v>3.85</v>
+      </c>
+      <c r="AG193">
+        <v>1.7</v>
+      </c>
+      <c r="AH193">
+        <v>1.99</v>
+      </c>
+      <c r="AI193">
+        <v>1.62</v>
+      </c>
+      <c r="AJ193">
+        <v>2.2</v>
+      </c>
+      <c r="AK193">
+        <v>1.57</v>
+      </c>
+      <c r="AL193">
+        <v>1.25</v>
+      </c>
+      <c r="AM193">
+        <v>1.4</v>
+      </c>
+      <c r="AN193">
+        <v>1</v>
+      </c>
+      <c r="AO193">
+        <v>1.2</v>
+      </c>
+      <c r="AP193">
+        <v>0.88</v>
+      </c>
+      <c r="AQ193">
+        <v>1.5</v>
+      </c>
+      <c r="AR193">
+        <v>1.39</v>
+      </c>
+      <c r="AS193">
+        <v>1.27</v>
+      </c>
+      <c r="AT193">
+        <v>2.66</v>
+      </c>
+      <c r="AU193">
+        <v>4</v>
+      </c>
+      <c r="AV193">
+        <v>6</v>
+      </c>
+      <c r="AW193">
+        <v>7</v>
+      </c>
+      <c r="AX193">
+        <v>4</v>
+      </c>
+      <c r="AY193">
+        <v>11</v>
+      </c>
+      <c r="AZ193">
+        <v>10</v>
+      </c>
+      <c r="BA193">
+        <v>-1</v>
+      </c>
+      <c r="BB193">
+        <v>-1</v>
+      </c>
+      <c r="BC193">
+        <v>-1</v>
+      </c>
+      <c r="BD193">
+        <v>2.14</v>
+      </c>
+      <c r="BE193">
+        <v>7.5</v>
+      </c>
+      <c r="BF193">
+        <v>1.94</v>
+      </c>
+      <c r="BG193">
+        <v>1.29</v>
+      </c>
+      <c r="BH193">
+        <v>3.05</v>
+      </c>
+      <c r="BI193">
+        <v>1.61</v>
+      </c>
+      <c r="BJ193">
+        <v>2.29</v>
+      </c>
+      <c r="BK193">
+        <v>1.98</v>
+      </c>
+      <c r="BL193">
+        <v>1.83</v>
+      </c>
+      <c r="BM193">
+        <v>2.5</v>
+      </c>
+      <c r="BN193">
+        <v>1.52</v>
+      </c>
+      <c r="BO193">
+        <v>3.2</v>
+      </c>
+      <c r="BP193">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7295428</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45430.9375</v>
+      </c>
+      <c r="F194">
+        <v>14</v>
+      </c>
+      <c r="G194" t="s">
+        <v>86</v>
+      </c>
+      <c r="H194" t="s">
+        <v>90</v>
+      </c>
+      <c r="I194">
+        <v>2</v>
+      </c>
+      <c r="J194">
+        <v>2</v>
+      </c>
+      <c r="K194">
+        <v>4</v>
+      </c>
+      <c r="L194">
+        <v>5</v>
+      </c>
+      <c r="M194">
+        <v>3</v>
+      </c>
+      <c r="N194">
+        <v>8</v>
+      </c>
+      <c r="O194" t="s">
+        <v>245</v>
+      </c>
+      <c r="P194" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q194">
+        <v>2.3</v>
+      </c>
+      <c r="R194">
+        <v>2.3</v>
+      </c>
+      <c r="S194">
+        <v>4.75</v>
+      </c>
+      <c r="T194">
+        <v>1.33</v>
+      </c>
+      <c r="U194">
+        <v>3.25</v>
+      </c>
+      <c r="V194">
+        <v>2.63</v>
+      </c>
+      <c r="W194">
+        <v>1.44</v>
+      </c>
+      <c r="X194">
+        <v>6.5</v>
+      </c>
+      <c r="Y194">
+        <v>1.11</v>
+      </c>
+      <c r="Z194">
+        <v>1.69</v>
+      </c>
+      <c r="AA194">
+        <v>3.8</v>
+      </c>
+      <c r="AB194">
+        <v>4.25</v>
+      </c>
+      <c r="AC194">
+        <v>1.04</v>
+      </c>
+      <c r="AD194">
+        <v>10</v>
+      </c>
+      <c r="AE194">
+        <v>1.22</v>
+      </c>
+      <c r="AF194">
+        <v>4</v>
+      </c>
+      <c r="AG194">
+        <v>1.7</v>
+      </c>
+      <c r="AH194">
+        <v>1.99</v>
+      </c>
+      <c r="AI194">
+        <v>1.75</v>
+      </c>
+      <c r="AJ194">
+        <v>2</v>
+      </c>
+      <c r="AK194">
+        <v>1.2</v>
+      </c>
+      <c r="AL194">
+        <v>1.2</v>
+      </c>
+      <c r="AM194">
+        <v>2.05</v>
+      </c>
+      <c r="AN194">
+        <v>2.17</v>
+      </c>
+      <c r="AO194">
+        <v>1.57</v>
+      </c>
+      <c r="AP194">
+        <v>2.29</v>
+      </c>
+      <c r="AQ194">
+        <v>1.38</v>
+      </c>
+      <c r="AR194">
+        <v>1.51</v>
+      </c>
+      <c r="AS194">
+        <v>1.33</v>
+      </c>
+      <c r="AT194">
+        <v>2.84</v>
+      </c>
+      <c r="AU194">
+        <v>5</v>
+      </c>
+      <c r="AV194">
+        <v>9</v>
+      </c>
+      <c r="AW194">
+        <v>12</v>
+      </c>
+      <c r="AX194">
+        <v>3</v>
+      </c>
+      <c r="AY194">
+        <v>17</v>
+      </c>
+      <c r="AZ194">
+        <v>12</v>
+      </c>
+      <c r="BA194">
+        <v>-1</v>
+      </c>
+      <c r="BB194">
+        <v>-1</v>
+      </c>
+      <c r="BC194">
+        <v>-1</v>
+      </c>
+      <c r="BD194">
+        <v>1.39</v>
+      </c>
+      <c r="BE194">
+        <v>10.25</v>
+      </c>
+      <c r="BF194">
+        <v>3.62</v>
+      </c>
+      <c r="BG194">
+        <v>1.2</v>
+      </c>
+      <c r="BH194">
+        <v>3.88</v>
+      </c>
+      <c r="BI194">
+        <v>1.5</v>
+      </c>
+      <c r="BJ194">
+        <v>2.53</v>
+      </c>
+      <c r="BK194">
+        <v>1.83</v>
+      </c>
+      <c r="BL194">
+        <v>1.97</v>
+      </c>
+      <c r="BM194">
+        <v>2.22</v>
+      </c>
+      <c r="BN194">
+        <v>1.64</v>
+      </c>
+      <c r="BO194">
+        <v>2.79</v>
+      </c>
+      <c r="BP194">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="195" spans="1:68">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>7295429</v>
+      </c>
+      <c r="C195" t="s">
+        <v>68</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45430.97916666666</v>
+      </c>
+      <c r="F195">
+        <v>14</v>
+      </c>
+      <c r="G195" t="s">
+        <v>91</v>
+      </c>
+      <c r="H195" t="s">
+        <v>75</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+      <c r="M195">
+        <v>1</v>
+      </c>
+      <c r="N195">
+        <v>1</v>
+      </c>
+      <c r="O195" t="s">
+        <v>104</v>
+      </c>
+      <c r="P195" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q195">
+        <v>3</v>
+      </c>
+      <c r="R195">
+        <v>2.3</v>
+      </c>
+      <c r="S195">
+        <v>3.2</v>
+      </c>
+      <c r="T195">
+        <v>1.3</v>
+      </c>
+      <c r="U195">
+        <v>3.4</v>
+      </c>
+      <c r="V195">
+        <v>2.5</v>
+      </c>
+      <c r="W195">
+        <v>1.5</v>
+      </c>
+      <c r="X195">
+        <v>6</v>
+      </c>
+      <c r="Y195">
+        <v>1.13</v>
+      </c>
+      <c r="Z195">
+        <v>2.3</v>
+      </c>
+      <c r="AA195">
+        <v>3.6</v>
+      </c>
+      <c r="AB195">
+        <v>2.64</v>
+      </c>
+      <c r="AC195">
+        <v>1.04</v>
+      </c>
+      <c r="AD195">
+        <v>10</v>
+      </c>
+      <c r="AE195">
+        <v>1.2</v>
+      </c>
+      <c r="AF195">
+        <v>4.33</v>
+      </c>
+      <c r="AG195">
+        <v>1.57</v>
+      </c>
+      <c r="AH195">
+        <v>2.22</v>
+      </c>
+      <c r="AI195">
+        <v>1.53</v>
+      </c>
+      <c r="AJ195">
+        <v>2.38</v>
+      </c>
+      <c r="AK195">
+        <v>1.44</v>
+      </c>
+      <c r="AL195">
+        <v>1.22</v>
+      </c>
+      <c r="AM195">
+        <v>1.57</v>
+      </c>
+      <c r="AN195">
+        <v>1.2</v>
+      </c>
+      <c r="AO195">
+        <v>1.4</v>
+      </c>
+      <c r="AP195">
+        <v>1</v>
+      </c>
+      <c r="AQ195">
+        <v>1.67</v>
+      </c>
+      <c r="AR195">
+        <v>1.38</v>
+      </c>
+      <c r="AS195">
+        <v>1.27</v>
+      </c>
+      <c r="AT195">
+        <v>2.65</v>
+      </c>
+      <c r="AU195">
+        <v>4</v>
+      </c>
+      <c r="AV195">
+        <v>4</v>
+      </c>
+      <c r="AW195">
+        <v>7</v>
+      </c>
+      <c r="AX195">
+        <v>7</v>
+      </c>
+      <c r="AY195">
+        <v>11</v>
+      </c>
+      <c r="AZ195">
+        <v>11</v>
+      </c>
+      <c r="BA195">
+        <v>-1</v>
+      </c>
+      <c r="BB195">
+        <v>-1</v>
+      </c>
+      <c r="BC195">
+        <v>-1</v>
+      </c>
+      <c r="BD195">
+        <v>2.15</v>
+      </c>
+      <c r="BE195">
+        <v>9.1</v>
+      </c>
+      <c r="BF195">
+        <v>1.93</v>
+      </c>
+      <c r="BG195">
+        <v>1.16</v>
+      </c>
+      <c r="BH195">
+        <v>4.3</v>
+      </c>
+      <c r="BI195">
+        <v>1.33</v>
+      </c>
+      <c r="BJ195">
+        <v>2.93</v>
+      </c>
+      <c r="BK195">
+        <v>1.67</v>
+      </c>
+      <c r="BL195">
+        <v>2.19</v>
+      </c>
+      <c r="BM195">
+        <v>2.03</v>
+      </c>
+      <c r="BN195">
+        <v>1.77</v>
+      </c>
+      <c r="BO195">
+        <v>2.62</v>
+      </c>
+      <c r="BP195">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="196" spans="1:68">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>7295430</v>
+      </c>
+      <c r="C196" t="s">
+        <v>68</v>
+      </c>
+      <c r="D196" t="s">
+        <v>69</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45430.97916666666</v>
+      </c>
+      <c r="F196">
+        <v>14</v>
+      </c>
+      <c r="G196" t="s">
+        <v>92</v>
+      </c>
+      <c r="H196" t="s">
+        <v>87</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+      <c r="L196">
+        <v>1</v>
+      </c>
+      <c r="M196">
+        <v>1</v>
+      </c>
+      <c r="N196">
+        <v>2</v>
+      </c>
+      <c r="O196" t="s">
+        <v>102</v>
+      </c>
+      <c r="P196" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q196">
+        <v>2.6</v>
+      </c>
+      <c r="R196">
+        <v>2.2</v>
+      </c>
+      <c r="S196">
+        <v>4</v>
+      </c>
+      <c r="T196">
+        <v>1.36</v>
+      </c>
+      <c r="U196">
+        <v>3</v>
+      </c>
+      <c r="V196">
+        <v>2.63</v>
+      </c>
+      <c r="W196">
+        <v>1.44</v>
+      </c>
+      <c r="X196">
+        <v>7</v>
+      </c>
+      <c r="Y196">
+        <v>1.1</v>
+      </c>
+      <c r="Z196">
+        <v>1.91</v>
+      </c>
+      <c r="AA196">
+        <v>3.5</v>
+      </c>
+      <c r="AB196">
+        <v>3.6</v>
+      </c>
+      <c r="AC196">
+        <v>1.05</v>
+      </c>
+      <c r="AD196">
+        <v>9.5</v>
+      </c>
+      <c r="AE196">
+        <v>1.25</v>
+      </c>
+      <c r="AF196">
+        <v>3.8</v>
+      </c>
+      <c r="AG196">
+        <v>1.74</v>
+      </c>
+      <c r="AH196">
+        <v>1.94</v>
+      </c>
+      <c r="AI196">
+        <v>1.7</v>
+      </c>
+      <c r="AJ196">
+        <v>2.05</v>
+      </c>
+      <c r="AK196">
+        <v>1.25</v>
+      </c>
+      <c r="AL196">
+        <v>1.22</v>
+      </c>
+      <c r="AM196">
+        <v>1.8</v>
+      </c>
+      <c r="AN196">
+        <v>1.2</v>
+      </c>
+      <c r="AO196">
+        <v>1.67</v>
+      </c>
+      <c r="AP196">
+        <v>1.17</v>
+      </c>
+      <c r="AQ196">
+        <v>1.57</v>
+      </c>
+      <c r="AR196">
+        <v>1.58</v>
+      </c>
+      <c r="AS196">
+        <v>1.09</v>
+      </c>
+      <c r="AT196">
+        <v>2.67</v>
+      </c>
+      <c r="AU196">
+        <v>2</v>
+      </c>
+      <c r="AV196">
+        <v>5</v>
+      </c>
+      <c r="AW196">
+        <v>10</v>
+      </c>
+      <c r="AX196">
+        <v>3</v>
+      </c>
+      <c r="AY196">
+        <v>12</v>
+      </c>
+      <c r="AZ196">
+        <v>8</v>
+      </c>
+      <c r="BA196">
+        <v>-1</v>
+      </c>
+      <c r="BB196">
+        <v>-1</v>
+      </c>
+      <c r="BC196">
+        <v>-1</v>
+      </c>
+      <c r="BD196">
+        <v>1.39</v>
+      </c>
+      <c r="BE196">
+        <v>10.25</v>
+      </c>
+      <c r="BF196">
+        <v>3.62</v>
+      </c>
+      <c r="BG196">
+        <v>1.18</v>
+      </c>
+      <c r="BH196">
+        <v>4.1</v>
+      </c>
+      <c r="BI196">
+        <v>1.36</v>
+      </c>
+      <c r="BJ196">
+        <v>2.79</v>
+      </c>
+      <c r="BK196">
+        <v>1.7</v>
+      </c>
+      <c r="BL196">
+        <v>2.15</v>
+      </c>
+      <c r="BM196">
+        <v>2.11</v>
+      </c>
+      <c r="BN196">
+        <v>1.73</v>
+      </c>
+      <c r="BO196">
+        <v>2.72</v>
+      </c>
+      <c r="BP196">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -39066,22 +39066,22 @@
         <v>2.6</v>
       </c>
       <c r="AU183">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV183">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW183">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX183">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY183">
         <v>12</v>
       </c>
       <c r="AZ183">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA183">
         <v>6</v>
@@ -39275,28 +39275,28 @@
         <v>2</v>
       </c>
       <c r="AV184">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW184">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AX184">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AY184">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AZ184">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="BA184">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB184">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC184">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD184">
         <v>1.71</v>
@@ -39478,31 +39478,31 @@
         <v>3.13</v>
       </c>
       <c r="AU185">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV185">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW185">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX185">
+        <v>7</v>
+      </c>
+      <c r="AY185">
+        <v>13</v>
+      </c>
+      <c r="AZ185">
+        <v>11</v>
+      </c>
+      <c r="BA185">
+        <v>5</v>
+      </c>
+      <c r="BB185">
         <v>4</v>
       </c>
-      <c r="AY185">
-        <v>3</v>
-      </c>
-      <c r="AZ185">
-        <v>4</v>
-      </c>
-      <c r="BA185">
-        <v>-1</v>
-      </c>
-      <c r="BB185">
-        <v>-1</v>
-      </c>
       <c r="BC185">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD185">
         <v>1.59</v>
@@ -39684,31 +39684,31 @@
         <v>2.87</v>
       </c>
       <c r="AU186">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV186">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AW186">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX186">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AY186">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AZ186">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="BA186">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB186">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC186">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD186">
         <v>1.72</v>
@@ -39890,31 +39890,31 @@
         <v>3.03</v>
       </c>
       <c r="AU187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW187">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX187">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AY187">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AZ187">
+        <v>14</v>
+      </c>
+      <c r="BA187">
         <v>5</v>
       </c>
-      <c r="BA187">
-        <v>-1</v>
-      </c>
       <c r="BB187">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC187">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD187">
         <v>1.8</v>
@@ -40096,31 +40096,31 @@
         <v>2.78</v>
       </c>
       <c r="AU188">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV188">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW188">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX188">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AY188">
+        <v>13</v>
+      </c>
+      <c r="AZ188">
+        <v>15</v>
+      </c>
+      <c r="BA188">
         <v>6</v>
       </c>
-      <c r="AZ188">
-        <v>2</v>
-      </c>
-      <c r="BA188">
-        <v>-1</v>
-      </c>
       <c r="BB188">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC188">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD188">
         <v>1.73</v>
@@ -40320,13 +40320,13 @@
         <v>16</v>
       </c>
       <c r="BA189">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB189">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC189">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BD189">
         <v>1.5</v>
@@ -40508,22 +40508,22 @@
         <v>2.96</v>
       </c>
       <c r="AU190">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV190">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AW190">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="AX190">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AY190">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="AZ190">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BA190">
         <v>-1</v>
@@ -40714,22 +40714,22 @@
         <v>2.82</v>
       </c>
       <c r="AU191">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AV191">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AW191">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AX191">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AY191">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="AZ191">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BA191">
         <v>-1</v>
@@ -40920,31 +40920,31 @@
         <v>2.53</v>
       </c>
       <c r="AU192">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV192">
+        <v>3</v>
+      </c>
+      <c r="AW192">
         <v>4</v>
       </c>
-      <c r="AW192">
+      <c r="AX192">
+        <v>13</v>
+      </c>
+      <c r="AY192">
+        <v>10</v>
+      </c>
+      <c r="AZ192">
+        <v>16</v>
+      </c>
+      <c r="BA192">
+        <v>7</v>
+      </c>
+      <c r="BB192">
         <v>5</v>
       </c>
-      <c r="AX192">
-        <v>15</v>
-      </c>
-      <c r="AY192">
-        <v>13</v>
-      </c>
-      <c r="AZ192">
-        <v>19</v>
-      </c>
-      <c r="BA192">
-        <v>-1</v>
-      </c>
-      <c r="BB192">
-        <v>-1</v>
-      </c>
       <c r="BC192">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD192">
         <v>1.85</v>
@@ -41129,28 +41129,28 @@
         <v>4</v>
       </c>
       <c r="AV193">
+        <v>3</v>
+      </c>
+      <c r="AW193">
         <v>6</v>
       </c>
-      <c r="AW193">
-        <v>7</v>
-      </c>
       <c r="AX193">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY193">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ193">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA193">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BB193">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC193">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BD193">
         <v>2.14</v>
@@ -41332,22 +41332,22 @@
         <v>2.84</v>
       </c>
       <c r="AU194">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV194">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AW194">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="AX194">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AY194">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="AZ194">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="BA194">
         <v>-1</v>
@@ -41538,22 +41538,22 @@
         <v>2.65</v>
       </c>
       <c r="AU195">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AV195">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AW195">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AX195">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AY195">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AZ195">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BA195">
         <v>-1</v>
@@ -41744,22 +41744,22 @@
         <v>2.67</v>
       </c>
       <c r="AU196">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AV196">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AW196">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AX196">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AY196">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="AZ196">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BA196">
         <v>-1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -39066,22 +39066,22 @@
         <v>2.6</v>
       </c>
       <c r="AU183">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW183">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX183">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY183">
         <v>12</v>
       </c>
       <c r="AZ183">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA183">
         <v>6</v>
@@ -39275,19 +39275,19 @@
         <v>2</v>
       </c>
       <c r="AV184">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW184">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AX184">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AY184">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AZ184">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="BA184">
         <v>2</v>
@@ -39478,22 +39478,22 @@
         <v>3.13</v>
       </c>
       <c r="AU185">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AV185">
+        <v>0</v>
+      </c>
+      <c r="AW185">
+        <v>1</v>
+      </c>
+      <c r="AX185">
         <v>4</v>
       </c>
-      <c r="AW185">
-        <v>6</v>
-      </c>
-      <c r="AX185">
-        <v>7</v>
-      </c>
       <c r="AY185">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AZ185">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BA185">
         <v>5</v>
@@ -39684,22 +39684,22 @@
         <v>2.87</v>
       </c>
       <c r="AU186">
+        <v>0</v>
+      </c>
+      <c r="AV186">
+        <v>2</v>
+      </c>
+      <c r="AW186">
+        <v>2</v>
+      </c>
+      <c r="AX186">
+        <v>1</v>
+      </c>
+      <c r="AY186">
+        <v>2</v>
+      </c>
+      <c r="AZ186">
         <v>3</v>
-      </c>
-      <c r="AV186">
-        <v>7</v>
-      </c>
-      <c r="AW186">
-        <v>6</v>
-      </c>
-      <c r="AX186">
-        <v>11</v>
-      </c>
-      <c r="AY186">
-        <v>9</v>
-      </c>
-      <c r="AZ186">
-        <v>18</v>
       </c>
       <c r="BA186">
         <v>7</v>
@@ -39890,22 +39890,22 @@
         <v>3.03</v>
       </c>
       <c r="AU187">
+        <v>2</v>
+      </c>
+      <c r="AV187">
+        <v>2</v>
+      </c>
+      <c r="AW187">
+        <v>1</v>
+      </c>
+      <c r="AX187">
         <v>3</v>
       </c>
-      <c r="AV187">
+      <c r="AY187">
         <v>3</v>
       </c>
-      <c r="AW187">
-        <v>7</v>
-      </c>
-      <c r="AX187">
-        <v>11</v>
-      </c>
-      <c r="AY187">
-        <v>10</v>
-      </c>
       <c r="AZ187">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="BA187">
         <v>5</v>
@@ -40096,22 +40096,22 @@
         <v>2.78</v>
       </c>
       <c r="AU188">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV188">
+        <v>0</v>
+      </c>
+      <c r="AW188">
         <v>4</v>
       </c>
-      <c r="AW188">
-        <v>8</v>
-      </c>
       <c r="AX188">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AY188">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AZ188">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="BA188">
         <v>6</v>
@@ -40508,31 +40508,31 @@
         <v>2.96</v>
       </c>
       <c r="AU190">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV190">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW190">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AX190">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY190">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="AZ190">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA190">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB190">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC190">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BD190">
         <v>1.56</v>
@@ -40714,31 +40714,31 @@
         <v>2.82</v>
       </c>
       <c r="AU191">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV191">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW191">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AX191">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY191">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="AZ191">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA191">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB191">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC191">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BD191">
         <v>1.57</v>
@@ -40920,22 +40920,22 @@
         <v>2.53</v>
       </c>
       <c r="AU192">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV192">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW192">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX192">
+        <v>15</v>
+      </c>
+      <c r="AY192">
         <v>13</v>
       </c>
-      <c r="AY192">
-        <v>10</v>
-      </c>
       <c r="AZ192">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BA192">
         <v>7</v>
@@ -41129,19 +41129,19 @@
         <v>4</v>
       </c>
       <c r="AV193">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW193">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX193">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY193">
+        <v>11</v>
+      </c>
+      <c r="AZ193">
         <v>10</v>
-      </c>
-      <c r="AZ193">
-        <v>8</v>
       </c>
       <c r="BA193">
         <v>9</v>
@@ -41332,31 +41332,31 @@
         <v>2.84</v>
       </c>
       <c r="AU194">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV194">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AW194">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AX194">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY194">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="AZ194">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA194">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB194">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC194">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD194">
         <v>1.39</v>
@@ -41538,31 +41538,31 @@
         <v>2.65</v>
       </c>
       <c r="AU195">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV195">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW195">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX195">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY195">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ195">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA195">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB195">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC195">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD195">
         <v>2.15</v>
@@ -41744,31 +41744,31 @@
         <v>2.67</v>
       </c>
       <c r="AU196">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV196">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW196">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AX196">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY196">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ196">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA196">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB196">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC196">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD196">
         <v>1.39</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="365">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -754,6 +754,27 @@
     <t>['23', '40', '85', '88', '90+6']</t>
   </si>
   <si>
+    <t>['25', '63', '85']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['45+4', '57', '59']</t>
+  </si>
+  <si>
+    <t>['18', '62', '71']</t>
+  </si>
+  <si>
+    <t>['72']</t>
+  </si>
+  <si>
+    <t>['44', '59']</t>
+  </si>
+  <si>
+    <t>['51', '79']</t>
+  </si>
+  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -805,9 +826,6 @@
     <t>['83']</t>
   </si>
   <si>
-    <t>['72']</t>
-  </si>
-  <si>
     <t>['4', '38', '90+5']</t>
   </si>
   <si>
@@ -842,9 +860,6 @@
   </si>
   <si>
     <t>['52', '54']</t>
-  </si>
-  <si>
-    <t>['20']</t>
   </si>
   <si>
     <t>['70', '76']</t>
@@ -1067,6 +1082,33 @@
   </si>
   <si>
     <t>['5', '19', '56']</t>
+  </si>
+  <si>
+    <t>['53', '55', '79', '90+3']</t>
+  </si>
+  <si>
+    <t>['45+1', '61']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['61', '73', '90+8']</t>
+  </si>
+  <si>
+    <t>['66', '69']</t>
+  </si>
+  <si>
+    <t>['8', '24', '33']</t>
+  </si>
+  <si>
+    <t>['38', '54']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['44']</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP196"/>
+  <dimension ref="A1:BP210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1768,7 +1810,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ2">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2099,7 +2141,7 @@
         <v>101</v>
       </c>
       <c r="P4" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -2180,7 +2222,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ4">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2383,10 +2425,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2511,7 +2553,7 @@
         <v>103</v>
       </c>
       <c r="P6" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2589,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ6">
         <v>0.5</v>
@@ -2795,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ7">
         <v>0.89</v>
@@ -2923,7 +2965,7 @@
         <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -3004,7 +3046,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3129,7 +3171,7 @@
         <v>106</v>
       </c>
       <c r="P9" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3210,7 +3252,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ9">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3335,7 +3377,7 @@
         <v>107</v>
       </c>
       <c r="P10" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3413,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ10">
         <v>0.5</v>
@@ -3622,7 +3664,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ11">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3747,7 +3789,7 @@
         <v>109</v>
       </c>
       <c r="P12" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3825,10 +3867,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3953,7 +3995,7 @@
         <v>110</v>
       </c>
       <c r="P13" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -4031,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ13">
         <v>1.38</v>
@@ -4571,7 +4613,7 @@
         <v>111</v>
       </c>
       <c r="P16" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4649,10 +4691,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4858,7 +4900,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ17">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5064,7 +5106,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ18">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5395,7 +5437,7 @@
         <v>115</v>
       </c>
       <c r="P20" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -5473,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ20">
         <v>0.67</v>
@@ -5601,7 +5643,7 @@
         <v>116</v>
       </c>
       <c r="P21" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5682,7 +5724,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ21">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5807,7 +5849,7 @@
         <v>117</v>
       </c>
       <c r="P22" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5885,7 +5927,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ22">
         <v>0.89</v>
@@ -6013,7 +6055,7 @@
         <v>118</v>
       </c>
       <c r="P23" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6300,7 +6342,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ24">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6503,10 +6545,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR25">
         <v>1.45</v>
@@ -6631,7 +6673,7 @@
         <v>121</v>
       </c>
       <c r="P26" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6709,10 +6751,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ26">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6837,7 +6879,7 @@
         <v>122</v>
       </c>
       <c r="P27" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6915,7 +6957,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -7043,7 +7085,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7330,7 +7372,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ29">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7533,7 +7575,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7661,7 +7703,7 @@
         <v>123</v>
       </c>
       <c r="P31" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="Q31">
         <v>2.37</v>
@@ -7945,7 +7987,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ32">
         <v>0.67</v>
@@ -8073,7 +8115,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -8151,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ33">
         <v>0.5</v>
@@ -8279,7 +8321,7 @@
         <v>126</v>
       </c>
       <c r="P34" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -8360,7 +8402,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ34">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR34">
         <v>1.35</v>
@@ -8691,7 +8733,7 @@
         <v>128</v>
       </c>
       <c r="P36" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8769,10 +8811,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ36">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR36">
         <v>1.61</v>
@@ -8897,7 +8939,7 @@
         <v>129</v>
       </c>
       <c r="P37" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -9103,7 +9145,7 @@
         <v>130</v>
       </c>
       <c r="P38" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9390,7 +9432,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ39">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR39">
         <v>1.7</v>
@@ -9515,7 +9557,7 @@
         <v>104</v>
       </c>
       <c r="P40" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9721,7 +9763,7 @@
         <v>131</v>
       </c>
       <c r="P41" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -10133,7 +10175,7 @@
         <v>132</v>
       </c>
       <c r="P43" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q43">
         <v>2.05</v>
@@ -10339,7 +10381,7 @@
         <v>133</v>
       </c>
       <c r="P44" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10545,7 +10587,7 @@
         <v>134</v>
       </c>
       <c r="P45" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10623,10 +10665,10 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR45">
         <v>1.94</v>
@@ -11369,7 +11411,7 @@
         <v>138</v>
       </c>
       <c r="P49" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11450,7 +11492,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ49">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR49">
         <v>0.89</v>
@@ -11575,7 +11617,7 @@
         <v>139</v>
       </c>
       <c r="P50" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11653,7 +11695,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ50">
         <v>1.57</v>
@@ -12274,7 +12316,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ53">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>1.47</v>
@@ -12605,7 +12647,7 @@
         <v>144</v>
       </c>
       <c r="P55" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12683,7 +12725,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ55">
         <v>0.67</v>
@@ -12811,7 +12853,7 @@
         <v>145</v>
       </c>
       <c r="P56" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12889,10 +12931,10 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ56">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR56">
         <v>2.29</v>
@@ -13095,7 +13137,7 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ57">
         <v>1.67</v>
@@ -13223,7 +13265,7 @@
         <v>147</v>
       </c>
       <c r="P58" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -13301,10 +13343,10 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ58">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR58">
         <v>2.02</v>
@@ -13510,7 +13552,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ59">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR59">
         <v>1.89</v>
@@ -13635,7 +13677,7 @@
         <v>149</v>
       </c>
       <c r="P60" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13713,10 +13755,10 @@
         <v>0.5</v>
       </c>
       <c r="AP60">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ60">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR60">
         <v>1.63</v>
@@ -13919,10 +13961,10 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ61">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR61">
         <v>1.43</v>
@@ -14128,7 +14170,7 @@
         <v>2</v>
       </c>
       <c r="AQ62">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR62">
         <v>1.57</v>
@@ -14331,10 +14373,10 @@
         <v>1</v>
       </c>
       <c r="AP63">
+        <v>0.75</v>
+      </c>
+      <c r="AQ63">
         <v>0.86</v>
-      </c>
-      <c r="AQ63">
-        <v>0.83</v>
       </c>
       <c r="AR63">
         <v>1.92</v>
@@ -14537,7 +14579,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ64">
         <v>0.5</v>
@@ -14665,7 +14707,7 @@
         <v>154</v>
       </c>
       <c r="P65" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14871,7 +14913,7 @@
         <v>155</v>
       </c>
       <c r="P66" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14949,7 +14991,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -15077,7 +15119,7 @@
         <v>104</v>
       </c>
       <c r="P67" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15155,10 +15197,10 @@
         <v>0</v>
       </c>
       <c r="AP67">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ67">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR67">
         <v>1.06</v>
@@ -15283,7 +15325,7 @@
         <v>156</v>
       </c>
       <c r="P68" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15364,7 +15406,7 @@
         <v>1</v>
       </c>
       <c r="AQ68">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR68">
         <v>1.18</v>
@@ -15570,7 +15612,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ69">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR69">
         <v>1.68</v>
@@ -15695,7 +15737,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15773,10 +15815,10 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ70">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR70">
         <v>1.13</v>
@@ -15982,7 +16024,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ71">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR71">
         <v>1.95</v>
@@ -16107,7 +16149,7 @@
         <v>159</v>
       </c>
       <c r="P72" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16185,10 +16227,10 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ72">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR72">
         <v>1.16</v>
@@ -16313,7 +16355,7 @@
         <v>160</v>
       </c>
       <c r="P73" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16391,10 +16433,10 @@
         <v>3</v>
       </c>
       <c r="AP73">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ73">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR73">
         <v>1.41</v>
@@ -16597,7 +16639,7 @@
         <v>1.75</v>
       </c>
       <c r="AP74">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ74">
         <v>0.89</v>
@@ -16725,7 +16767,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16806,7 +16848,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ75">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR75">
         <v>1.58</v>
@@ -16931,7 +16973,7 @@
         <v>162</v>
       </c>
       <c r="P76" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q76">
         <v>3.1</v>
@@ -17009,7 +17051,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ76">
         <v>1.33</v>
@@ -17137,7 +17179,7 @@
         <v>163</v>
       </c>
       <c r="P77" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17215,10 +17257,10 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ77">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR77">
         <v>1.72</v>
@@ -17343,7 +17385,7 @@
         <v>164</v>
       </c>
       <c r="P78" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17755,7 +17797,7 @@
         <v>166</v>
       </c>
       <c r="P80" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17836,7 +17878,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ80">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR80">
         <v>1.03</v>
@@ -18167,7 +18209,7 @@
         <v>168</v>
       </c>
       <c r="P82" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18245,7 +18287,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ82">
         <v>0.63</v>
@@ -18451,10 +18493,10 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ83">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR83">
         <v>1.98</v>
@@ -18657,10 +18699,10 @@
         <v>0.67</v>
       </c>
       <c r="AP84">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ84">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR84">
         <v>1.97</v>
@@ -18863,7 +18905,7 @@
         <v>0.33</v>
       </c>
       <c r="AP85">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ85">
         <v>0.67</v>
@@ -19197,7 +19239,7 @@
         <v>172</v>
       </c>
       <c r="P87" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q87">
         <v>2.2</v>
@@ -19403,7 +19445,7 @@
         <v>173</v>
       </c>
       <c r="P88" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19687,7 +19729,7 @@
         <v>1.33</v>
       </c>
       <c r="AP89">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ89">
         <v>1</v>
@@ -20021,7 +20063,7 @@
         <v>176</v>
       </c>
       <c r="P91" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -20227,7 +20269,7 @@
         <v>177</v>
       </c>
       <c r="P92" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q92">
         <v>2.88</v>
@@ -20514,7 +20556,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ93">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR93">
         <v>1.63</v>
@@ -20639,7 +20681,7 @@
         <v>179</v>
       </c>
       <c r="P94" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q94">
         <v>2.75</v>
@@ -20720,7 +20762,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ94">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR94">
         <v>1.29</v>
@@ -20845,7 +20887,7 @@
         <v>180</v>
       </c>
       <c r="P95" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q95">
         <v>3.1</v>
@@ -20926,7 +20968,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ95">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR95">
         <v>1.11</v>
@@ -21129,7 +21171,7 @@
         <v>0</v>
       </c>
       <c r="AP96">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ96">
         <v>0.33</v>
@@ -21463,7 +21505,7 @@
         <v>182</v>
       </c>
       <c r="P98" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21669,7 +21711,7 @@
         <v>183</v>
       </c>
       <c r="P99" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21747,10 +21789,10 @@
         <v>0</v>
       </c>
       <c r="AP99">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ99">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR99">
         <v>1.42</v>
@@ -22162,7 +22204,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ101">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR101">
         <v>1.68</v>
@@ -22287,7 +22329,7 @@
         <v>185</v>
       </c>
       <c r="P102" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q102">
         <v>3.1</v>
@@ -22368,7 +22410,7 @@
         <v>1</v>
       </c>
       <c r="AQ102">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR102">
         <v>0</v>
@@ -22493,7 +22535,7 @@
         <v>186</v>
       </c>
       <c r="P103" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q103">
         <v>2.3</v>
@@ -22571,7 +22613,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ103">
         <v>1</v>
@@ -22699,7 +22741,7 @@
         <v>187</v>
       </c>
       <c r="P104" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22777,7 +22819,7 @@
         <v>0</v>
       </c>
       <c r="AP104">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ104">
         <v>1.67</v>
@@ -22983,10 +23025,10 @@
         <v>0</v>
       </c>
       <c r="AP105">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ105">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR105">
         <v>1.76</v>
@@ -23111,7 +23153,7 @@
         <v>188</v>
       </c>
       <c r="P106" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23192,7 +23234,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ106">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR106">
         <v>1.67</v>
@@ -23317,7 +23359,7 @@
         <v>189</v>
       </c>
       <c r="P107" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q107">
         <v>2.75</v>
@@ -23398,7 +23440,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ107">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR107">
         <v>1.55</v>
@@ -23604,7 +23646,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ108">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR108">
         <v>1.42</v>
@@ -23729,7 +23771,7 @@
         <v>190</v>
       </c>
       <c r="P109" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q109">
         <v>2.6</v>
@@ -23807,7 +23849,7 @@
         <v>1.75</v>
       </c>
       <c r="AP109">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ109">
         <v>1.44</v>
@@ -23935,7 +23977,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q110">
         <v>2.88</v>
@@ -24141,7 +24183,7 @@
         <v>191</v>
       </c>
       <c r="P111" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24219,10 +24261,10 @@
         <v>2</v>
       </c>
       <c r="AP111">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ111">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR111">
         <v>1.97</v>
@@ -24425,10 +24467,10 @@
         <v>0.5</v>
       </c>
       <c r="AP112">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ112">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR112">
         <v>1.79</v>
@@ -24553,7 +24595,7 @@
         <v>142</v>
       </c>
       <c r="P113" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24759,7 +24801,7 @@
         <v>192</v>
       </c>
       <c r="P114" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q114">
         <v>1.91</v>
@@ -24840,7 +24882,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ114">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR114">
         <v>1.72</v>
@@ -24965,7 +25007,7 @@
         <v>193</v>
       </c>
       <c r="P115" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q115">
         <v>2.1</v>
@@ -25249,7 +25291,7 @@
         <v>0</v>
       </c>
       <c r="AP116">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ116">
         <v>0.5</v>
@@ -25377,7 +25419,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25455,10 +25497,10 @@
         <v>1.75</v>
       </c>
       <c r="AP117">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ117">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR117">
         <v>1.94</v>
@@ -25789,7 +25831,7 @@
         <v>104</v>
       </c>
       <c r="P119" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q119">
         <v>2.88</v>
@@ -25870,7 +25912,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ119">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR119">
         <v>1.52</v>
@@ -26076,7 +26118,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ120">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR120">
         <v>1.68</v>
@@ -26201,7 +26243,7 @@
         <v>196</v>
       </c>
       <c r="P121" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q121">
         <v>2.3</v>
@@ -26485,7 +26527,7 @@
         <v>0.33</v>
       </c>
       <c r="AP122">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ122">
         <v>0.33</v>
@@ -26613,7 +26655,7 @@
         <v>198</v>
       </c>
       <c r="P123" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q123">
         <v>2.5</v>
@@ -26819,7 +26861,7 @@
         <v>104</v>
       </c>
       <c r="P124" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -27025,7 +27067,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q125">
         <v>2.6</v>
@@ -27103,10 +27145,10 @@
         <v>2</v>
       </c>
       <c r="AP125">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ125">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR125">
         <v>1.42</v>
@@ -27231,7 +27273,7 @@
         <v>199</v>
       </c>
       <c r="P126" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q126">
         <v>2.05</v>
@@ -27309,7 +27351,7 @@
         <v>0</v>
       </c>
       <c r="AP126">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ126">
         <v>0.5</v>
@@ -27643,7 +27685,7 @@
         <v>201</v>
       </c>
       <c r="P128" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -27721,7 +27763,7 @@
         <v>0.8</v>
       </c>
       <c r="AP128">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ128">
         <v>1</v>
@@ -27849,7 +27891,7 @@
         <v>202</v>
       </c>
       <c r="P129" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q129">
         <v>2.5</v>
@@ -27930,7 +27972,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ129">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR129">
         <v>1.61</v>
@@ -28545,10 +28587,10 @@
         <v>0.25</v>
       </c>
       <c r="AP132">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ132">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR132">
         <v>1.89</v>
@@ -28879,7 +28921,7 @@
         <v>152</v>
       </c>
       <c r="P134" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -29085,7 +29127,7 @@
         <v>206</v>
       </c>
       <c r="P135" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29163,10 +29205,10 @@
         <v>1.75</v>
       </c>
       <c r="AP135">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ135">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR135">
         <v>1.64</v>
@@ -29372,7 +29414,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ136">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR136">
         <v>1.75</v>
@@ -29781,10 +29823,10 @@
         <v>2</v>
       </c>
       <c r="AP138">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ138">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR138">
         <v>1.63</v>
@@ -29909,7 +29951,7 @@
         <v>119</v>
       </c>
       <c r="P139" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -30115,7 +30157,7 @@
         <v>209</v>
       </c>
       <c r="P140" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -30321,7 +30363,7 @@
         <v>210</v>
       </c>
       <c r="P141" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30402,7 +30444,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ141">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR141">
         <v>1.56</v>
@@ -30527,7 +30569,7 @@
         <v>211</v>
       </c>
       <c r="P142" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30605,10 +30647,10 @@
         <v>2.25</v>
       </c>
       <c r="AP142">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ142">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR142">
         <v>1.86</v>
@@ -30811,7 +30853,7 @@
         <v>0.83</v>
       </c>
       <c r="AP143">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ143">
         <v>0.63</v>
@@ -30939,7 +30981,7 @@
         <v>213</v>
       </c>
       <c r="P144" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q144">
         <v>2.88</v>
@@ -31017,10 +31059,10 @@
         <v>1.8</v>
       </c>
       <c r="AP144">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ144">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR144">
         <v>1.84</v>
@@ -31145,7 +31187,7 @@
         <v>214</v>
       </c>
       <c r="P145" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q145">
         <v>2.38</v>
@@ -31429,10 +31471,10 @@
         <v>2</v>
       </c>
       <c r="AP146">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ146">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR146">
         <v>1.7</v>
@@ -31638,7 +31680,7 @@
         <v>1</v>
       </c>
       <c r="AQ147">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR147">
         <v>1.42</v>
@@ -31841,7 +31883,7 @@
         <v>0.25</v>
       </c>
       <c r="AP148">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ148">
         <v>0.33</v>
@@ -32175,7 +32217,7 @@
         <v>217</v>
       </c>
       <c r="P150" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32668,7 +32710,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ152">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR152">
         <v>1.48</v>
@@ -32871,10 +32913,10 @@
         <v>1</v>
       </c>
       <c r="AP153">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ153">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR153">
         <v>1.44</v>
@@ -32999,7 +33041,7 @@
         <v>104</v>
       </c>
       <c r="P154" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q154">
         <v>2.4</v>
@@ -33411,7 +33453,7 @@
         <v>219</v>
       </c>
       <c r="P156" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33489,7 +33531,7 @@
         <v>0.8</v>
       </c>
       <c r="AP156">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ156">
         <v>1</v>
@@ -33695,10 +33737,10 @@
         <v>0.33</v>
       </c>
       <c r="AP157">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ157">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR157">
         <v>1.3</v>
@@ -33823,7 +33865,7 @@
         <v>221</v>
       </c>
       <c r="P158" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -33904,7 +33946,7 @@
         <v>1</v>
       </c>
       <c r="AQ158">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR158">
         <v>1.25</v>
@@ -34029,7 +34071,7 @@
         <v>222</v>
       </c>
       <c r="P159" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q159">
         <v>2.1</v>
@@ -34235,7 +34277,7 @@
         <v>223</v>
       </c>
       <c r="P160" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q160">
         <v>2.5</v>
@@ -34441,7 +34483,7 @@
         <v>224</v>
       </c>
       <c r="P161" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q161">
         <v>3.4</v>
@@ -34519,10 +34561,10 @@
         <v>0.25</v>
       </c>
       <c r="AP161">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ161">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR161">
         <v>1.51</v>
@@ -34647,7 +34689,7 @@
         <v>162</v>
       </c>
       <c r="P162" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34728,7 +34770,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ162">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR162">
         <v>1.7</v>
@@ -34931,10 +34973,10 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ163">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR163">
         <v>1.68</v>
@@ -35059,7 +35101,7 @@
         <v>226</v>
       </c>
       <c r="P164" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q164">
         <v>2.75</v>
@@ -35140,7 +35182,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ164">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR164">
         <v>1.45</v>
@@ -35265,7 +35307,7 @@
         <v>227</v>
       </c>
       <c r="P165" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q165">
         <v>2.3</v>
@@ -35343,10 +35385,10 @@
         <v>0.6</v>
       </c>
       <c r="AP165">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ165">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR165">
         <v>1.69</v>
@@ -35471,7 +35513,7 @@
         <v>228</v>
       </c>
       <c r="P166" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q166">
         <v>2.3</v>
@@ -35549,7 +35591,7 @@
         <v>0.17</v>
       </c>
       <c r="AP166">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ166">
         <v>0.5</v>
@@ -35677,7 +35719,7 @@
         <v>229</v>
       </c>
       <c r="P167" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q167">
         <v>2.5</v>
@@ -35755,10 +35797,10 @@
         <v>1.83</v>
       </c>
       <c r="AP167">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ167">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR167">
         <v>1.69</v>
@@ -36089,7 +36131,7 @@
         <v>231</v>
       </c>
       <c r="P169" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q169">
         <v>3.2</v>
@@ -36167,10 +36209,10 @@
         <v>0.67</v>
       </c>
       <c r="AP169">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ169">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR169">
         <v>1.32</v>
@@ -36501,7 +36543,7 @@
         <v>232</v>
       </c>
       <c r="P171" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q171">
         <v>3.1</v>
@@ -36579,7 +36621,7 @@
         <v>1.29</v>
       </c>
       <c r="AP171">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ171">
         <v>1.33</v>
@@ -36707,7 +36749,7 @@
         <v>233</v>
       </c>
       <c r="P172" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -36788,7 +36830,7 @@
         <v>1</v>
       </c>
       <c r="AQ172">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR172">
         <v>1.44</v>
@@ -36991,10 +37033,10 @@
         <v>2.17</v>
       </c>
       <c r="AP173">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ173">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR173">
         <v>1.59</v>
@@ -37119,7 +37161,7 @@
         <v>121</v>
       </c>
       <c r="P174" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q174">
         <v>2.5</v>
@@ -37200,7 +37242,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ174">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR174">
         <v>1.71</v>
@@ -37406,7 +37448,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ175">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR175">
         <v>1.26</v>
@@ -37531,7 +37573,7 @@
         <v>104</v>
       </c>
       <c r="P176" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q176">
         <v>2.75</v>
@@ -37737,7 +37779,7 @@
         <v>234</v>
       </c>
       <c r="P177" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q177">
         <v>2.63</v>
@@ -38149,7 +38191,7 @@
         <v>104</v>
       </c>
       <c r="P179" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q179">
         <v>3.1</v>
@@ -38227,10 +38269,10 @@
         <v>0.2</v>
       </c>
       <c r="AP179">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ179">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR179">
         <v>1.84</v>
@@ -38433,7 +38475,7 @@
         <v>2</v>
       </c>
       <c r="AP180">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ180">
         <v>1.57</v>
@@ -38642,7 +38684,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ181">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR181">
         <v>1.51</v>
@@ -38767,7 +38809,7 @@
         <v>237</v>
       </c>
       <c r="P182" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q182">
         <v>2.3</v>
@@ -38845,7 +38887,7 @@
         <v>0.57</v>
       </c>
       <c r="AP182">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ182">
         <v>0.5</v>
@@ -38973,7 +39015,7 @@
         <v>139</v>
       </c>
       <c r="P183" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q183">
         <v>2.75</v>
@@ -39257,7 +39299,7 @@
         <v>1.5</v>
       </c>
       <c r="AP184">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ184">
         <v>1.44</v>
@@ -39385,7 +39427,7 @@
         <v>238</v>
       </c>
       <c r="P185" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q185">
         <v>2.3</v>
@@ -39591,7 +39633,7 @@
         <v>104</v>
       </c>
       <c r="P186" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q186">
         <v>3.2</v>
@@ -39669,10 +39711,10 @@
         <v>1.67</v>
       </c>
       <c r="AP186">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ186">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR186">
         <v>1.49</v>
@@ -40003,7 +40045,7 @@
         <v>240</v>
       </c>
       <c r="P188" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q188">
         <v>2.75</v>
@@ -40081,7 +40123,7 @@
         <v>1</v>
       </c>
       <c r="AP188">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ188">
         <v>0.89</v>
@@ -40415,7 +40457,7 @@
         <v>241</v>
       </c>
       <c r="P190" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q190">
         <v>2.25</v>
@@ -40827,7 +40869,7 @@
         <v>243</v>
       </c>
       <c r="P192" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q192">
         <v>2.63</v>
@@ -40908,7 +40950,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ192">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR192">
         <v>1.28</v>
@@ -41033,7 +41075,7 @@
         <v>244</v>
       </c>
       <c r="P193" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -41114,7 +41156,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ193">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR193">
         <v>1.39</v>
@@ -41239,7 +41281,7 @@
         <v>245</v>
       </c>
       <c r="P194" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q194">
         <v>2.3</v>
@@ -41808,6 +41850,2890 @@
       </c>
       <c r="BP196">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:68">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>7295436</v>
+      </c>
+      <c r="C197" t="s">
+        <v>68</v>
+      </c>
+      <c r="D197" t="s">
+        <v>69</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45437.85416666666</v>
+      </c>
+      <c r="F197">
+        <v>15</v>
+      </c>
+      <c r="G197" t="s">
+        <v>93</v>
+      </c>
+      <c r="H197" t="s">
+        <v>94</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+      <c r="M197">
+        <v>1</v>
+      </c>
+      <c r="N197">
+        <v>1</v>
+      </c>
+      <c r="O197" t="s">
+        <v>104</v>
+      </c>
+      <c r="P197" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q197">
+        <v>2.95</v>
+      </c>
+      <c r="R197">
+        <v>2.15</v>
+      </c>
+      <c r="S197">
+        <v>3.1</v>
+      </c>
+      <c r="T197">
+        <v>1.32</v>
+      </c>
+      <c r="U197">
+        <v>3.1</v>
+      </c>
+      <c r="V197">
+        <v>2.5</v>
+      </c>
+      <c r="W197">
+        <v>1.48</v>
+      </c>
+      <c r="X197">
+        <v>5.5</v>
+      </c>
+      <c r="Y197">
+        <v>1.11</v>
+      </c>
+      <c r="Z197">
+        <v>2.55</v>
+      </c>
+      <c r="AA197">
+        <v>3.3</v>
+      </c>
+      <c r="AB197">
+        <v>2.65</v>
+      </c>
+      <c r="AC197">
+        <v>1.04</v>
+      </c>
+      <c r="AD197">
+        <v>15</v>
+      </c>
+      <c r="AE197">
+        <v>1.23</v>
+      </c>
+      <c r="AF197">
+        <v>4.25</v>
+      </c>
+      <c r="AG197">
+        <v>1.7</v>
+      </c>
+      <c r="AH197">
+        <v>1.95</v>
+      </c>
+      <c r="AI197">
+        <v>1.55</v>
+      </c>
+      <c r="AJ197">
+        <v>2.3</v>
+      </c>
+      <c r="AK197">
+        <v>1.45</v>
+      </c>
+      <c r="AL197">
+        <v>1.25</v>
+      </c>
+      <c r="AM197">
+        <v>1.53</v>
+      </c>
+      <c r="AN197">
+        <v>0.67</v>
+      </c>
+      <c r="AO197">
+        <v>1.17</v>
+      </c>
+      <c r="AP197">
+        <v>0.57</v>
+      </c>
+      <c r="AQ197">
+        <v>1.43</v>
+      </c>
+      <c r="AR197">
+        <v>1.32</v>
+      </c>
+      <c r="AS197">
+        <v>1.12</v>
+      </c>
+      <c r="AT197">
+        <v>2.44</v>
+      </c>
+      <c r="AU197">
+        <v>7</v>
+      </c>
+      <c r="AV197">
+        <v>5</v>
+      </c>
+      <c r="AW197">
+        <v>0</v>
+      </c>
+      <c r="AX197">
+        <v>3</v>
+      </c>
+      <c r="AY197">
+        <v>7</v>
+      </c>
+      <c r="AZ197">
+        <v>8</v>
+      </c>
+      <c r="BA197">
+        <v>8</v>
+      </c>
+      <c r="BB197">
+        <v>7</v>
+      </c>
+      <c r="BC197">
+        <v>15</v>
+      </c>
+      <c r="BD197">
+        <v>1.89</v>
+      </c>
+      <c r="BE197">
+        <v>7.5</v>
+      </c>
+      <c r="BF197">
+        <v>2.2</v>
+      </c>
+      <c r="BG197">
+        <v>1.28</v>
+      </c>
+      <c r="BH197">
+        <v>3.1</v>
+      </c>
+      <c r="BI197">
+        <v>1.5</v>
+      </c>
+      <c r="BJ197">
+        <v>2.3</v>
+      </c>
+      <c r="BK197">
+        <v>1.89</v>
+      </c>
+      <c r="BL197">
+        <v>1.8</v>
+      </c>
+      <c r="BM197">
+        <v>2.38</v>
+      </c>
+      <c r="BN197">
+        <v>1.48</v>
+      </c>
+      <c r="BO197">
+        <v>3.15</v>
+      </c>
+      <c r="BP197">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="198" spans="1:68">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>7295438</v>
+      </c>
+      <c r="C198" t="s">
+        <v>68</v>
+      </c>
+      <c r="D198" t="s">
+        <v>69</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45437.85416666666</v>
+      </c>
+      <c r="F198">
+        <v>15</v>
+      </c>
+      <c r="G198" t="s">
+        <v>95</v>
+      </c>
+      <c r="H198" t="s">
+        <v>82</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <v>3</v>
+      </c>
+      <c r="M198">
+        <v>4</v>
+      </c>
+      <c r="N198">
+        <v>7</v>
+      </c>
+      <c r="O198" t="s">
+        <v>246</v>
+      </c>
+      <c r="P198" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q198">
+        <v>3.3</v>
+      </c>
+      <c r="R198">
+        <v>2.15</v>
+      </c>
+      <c r="S198">
+        <v>2.9</v>
+      </c>
+      <c r="T198">
+        <v>1.35</v>
+      </c>
+      <c r="U198">
+        <v>2.95</v>
+      </c>
+      <c r="V198">
+        <v>2.6</v>
+      </c>
+      <c r="W198">
+        <v>1.45</v>
+      </c>
+      <c r="X198">
+        <v>5.75</v>
+      </c>
+      <c r="Y198">
+        <v>1.1</v>
+      </c>
+      <c r="Z198">
+        <v>2.9</v>
+      </c>
+      <c r="AA198">
+        <v>3.35</v>
+      </c>
+      <c r="AB198">
+        <v>2.35</v>
+      </c>
+      <c r="AC198">
+        <v>1.05</v>
+      </c>
+      <c r="AD198">
+        <v>13</v>
+      </c>
+      <c r="AE198">
+        <v>1.26</v>
+      </c>
+      <c r="AF198">
+        <v>3.93</v>
+      </c>
+      <c r="AG198">
+        <v>1.73</v>
+      </c>
+      <c r="AH198">
+        <v>1.91</v>
+      </c>
+      <c r="AI198">
+        <v>1.65</v>
+      </c>
+      <c r="AJ198">
+        <v>2.2</v>
+      </c>
+      <c r="AK198">
+        <v>1.57</v>
+      </c>
+      <c r="AL198">
+        <v>1.3</v>
+      </c>
+      <c r="AM198">
+        <v>1.44</v>
+      </c>
+      <c r="AN198">
+        <v>2.14</v>
+      </c>
+      <c r="AO198">
+        <v>2.29</v>
+      </c>
+      <c r="AP198">
+        <v>1.88</v>
+      </c>
+      <c r="AQ198">
+        <v>2.38</v>
+      </c>
+      <c r="AR198">
+        <v>1.55</v>
+      </c>
+      <c r="AS198">
+        <v>1.43</v>
+      </c>
+      <c r="AT198">
+        <v>2.98</v>
+      </c>
+      <c r="AU198">
+        <v>2</v>
+      </c>
+      <c r="AV198">
+        <v>2</v>
+      </c>
+      <c r="AW198">
+        <v>0</v>
+      </c>
+      <c r="AX198">
+        <v>1</v>
+      </c>
+      <c r="AY198">
+        <v>2</v>
+      </c>
+      <c r="AZ198">
+        <v>3</v>
+      </c>
+      <c r="BA198">
+        <v>4</v>
+      </c>
+      <c r="BB198">
+        <v>3</v>
+      </c>
+      <c r="BC198">
+        <v>7</v>
+      </c>
+      <c r="BD198">
+        <v>1.98</v>
+      </c>
+      <c r="BE198">
+        <v>7.5</v>
+      </c>
+      <c r="BF198">
+        <v>2.08</v>
+      </c>
+      <c r="BG198">
+        <v>1.25</v>
+      </c>
+      <c r="BH198">
+        <v>3.25</v>
+      </c>
+      <c r="BI198">
+        <v>1.48</v>
+      </c>
+      <c r="BJ198">
+        <v>2.38</v>
+      </c>
+      <c r="BK198">
+        <v>1.83</v>
+      </c>
+      <c r="BL198">
+        <v>1.86</v>
+      </c>
+      <c r="BM198">
+        <v>2.3</v>
+      </c>
+      <c r="BN198">
+        <v>1.5</v>
+      </c>
+      <c r="BO198">
+        <v>3.05</v>
+      </c>
+      <c r="BP198">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="199" spans="1:68">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>7295437</v>
+      </c>
+      <c r="C199" t="s">
+        <v>68</v>
+      </c>
+      <c r="D199" t="s">
+        <v>69</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45437.85416666666</v>
+      </c>
+      <c r="F199">
+        <v>15</v>
+      </c>
+      <c r="G199" t="s">
+        <v>75</v>
+      </c>
+      <c r="H199" t="s">
+        <v>71</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>1</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>2</v>
+      </c>
+      <c r="N199">
+        <v>2</v>
+      </c>
+      <c r="O199" t="s">
+        <v>104</v>
+      </c>
+      <c r="P199" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q199">
+        <v>2.51</v>
+      </c>
+      <c r="R199">
+        <v>2.24</v>
+      </c>
+      <c r="S199">
+        <v>4.05</v>
+      </c>
+      <c r="T199">
+        <v>1.34</v>
+      </c>
+      <c r="U199">
+        <v>3.1</v>
+      </c>
+      <c r="V199">
+        <v>2.58</v>
+      </c>
+      <c r="W199">
+        <v>1.47</v>
+      </c>
+      <c r="X199">
+        <v>6.2</v>
+      </c>
+      <c r="Y199">
+        <v>1.1</v>
+      </c>
+      <c r="Z199">
+        <v>2.05</v>
+      </c>
+      <c r="AA199">
+        <v>3.55</v>
+      </c>
+      <c r="AB199">
+        <v>3.4</v>
+      </c>
+      <c r="AC199">
+        <v>1.04</v>
+      </c>
+      <c r="AD199">
+        <v>10.5</v>
+      </c>
+      <c r="AE199">
+        <v>1.21</v>
+      </c>
+      <c r="AF199">
+        <v>3.75</v>
+      </c>
+      <c r="AG199">
+        <v>1.7</v>
+      </c>
+      <c r="AH199">
+        <v>1.95</v>
+      </c>
+      <c r="AI199">
+        <v>1.65</v>
+      </c>
+      <c r="AJ199">
+        <v>2.16</v>
+      </c>
+      <c r="AK199">
+        <v>1.3</v>
+      </c>
+      <c r="AL199">
+        <v>1.28</v>
+      </c>
+      <c r="AM199">
+        <v>1.82</v>
+      </c>
+      <c r="AN199">
+        <v>0.86</v>
+      </c>
+      <c r="AO199">
+        <v>1.5</v>
+      </c>
+      <c r="AP199">
+        <v>0.75</v>
+      </c>
+      <c r="AQ199">
+        <v>1.71</v>
+      </c>
+      <c r="AR199">
+        <v>1.53</v>
+      </c>
+      <c r="AS199">
+        <v>1.27</v>
+      </c>
+      <c r="AT199">
+        <v>2.8</v>
+      </c>
+      <c r="AU199">
+        <v>2</v>
+      </c>
+      <c r="AV199">
+        <v>0</v>
+      </c>
+      <c r="AW199">
+        <v>2</v>
+      </c>
+      <c r="AX199">
+        <v>0</v>
+      </c>
+      <c r="AY199">
+        <v>4</v>
+      </c>
+      <c r="AZ199">
+        <v>0</v>
+      </c>
+      <c r="BA199">
+        <v>9</v>
+      </c>
+      <c r="BB199">
+        <v>2</v>
+      </c>
+      <c r="BC199">
+        <v>11</v>
+      </c>
+      <c r="BD199">
+        <v>1.71</v>
+      </c>
+      <c r="BE199">
+        <v>7.5</v>
+      </c>
+      <c r="BF199">
+        <v>2.5</v>
+      </c>
+      <c r="BG199">
+        <v>1.3</v>
+      </c>
+      <c r="BH199">
+        <v>3</v>
+      </c>
+      <c r="BI199">
+        <v>1.55</v>
+      </c>
+      <c r="BJ199">
+        <v>2.2</v>
+      </c>
+      <c r="BK199">
+        <v>1.93</v>
+      </c>
+      <c r="BL199">
+        <v>1.76</v>
+      </c>
+      <c r="BM199">
+        <v>2.45</v>
+      </c>
+      <c r="BN199">
+        <v>1.45</v>
+      </c>
+      <c r="BO199">
+        <v>3.25</v>
+      </c>
+      <c r="BP199">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="200" spans="1:68">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>7295435</v>
+      </c>
+      <c r="C200" t="s">
+        <v>68</v>
+      </c>
+      <c r="D200" t="s">
+        <v>69</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45437.85416666666</v>
+      </c>
+      <c r="F200">
+        <v>15</v>
+      </c>
+      <c r="G200" t="s">
+        <v>98</v>
+      </c>
+      <c r="H200" t="s">
+        <v>83</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>0</v>
+      </c>
+      <c r="O200" t="s">
+        <v>104</v>
+      </c>
+      <c r="P200" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q200">
+        <v>3</v>
+      </c>
+      <c r="R200">
+        <v>2.05</v>
+      </c>
+      <c r="S200">
+        <v>3.3</v>
+      </c>
+      <c r="T200">
+        <v>1.4</v>
+      </c>
+      <c r="U200">
+        <v>2.75</v>
+      </c>
+      <c r="V200">
+        <v>2.8</v>
+      </c>
+      <c r="W200">
+        <v>1.38</v>
+      </c>
+      <c r="X200">
+        <v>6.5</v>
+      </c>
+      <c r="Y200">
+        <v>1.08</v>
+      </c>
+      <c r="Z200">
+        <v>2.5</v>
+      </c>
+      <c r="AA200">
+        <v>3.35</v>
+      </c>
+      <c r="AB200">
+        <v>2.7</v>
+      </c>
+      <c r="AC200">
+        <v>1.06</v>
+      </c>
+      <c r="AD200">
+        <v>11.5</v>
+      </c>
+      <c r="AE200">
+        <v>1.31</v>
+      </c>
+      <c r="AF200">
+        <v>3.5</v>
+      </c>
+      <c r="AG200">
+        <v>1.85</v>
+      </c>
+      <c r="AH200">
+        <v>1.75</v>
+      </c>
+      <c r="AI200">
+        <v>1.7</v>
+      </c>
+      <c r="AJ200">
+        <v>2.05</v>
+      </c>
+      <c r="AK200">
+        <v>1.42</v>
+      </c>
+      <c r="AL200">
+        <v>1.25</v>
+      </c>
+      <c r="AM200">
+        <v>1.53</v>
+      </c>
+      <c r="AN200">
+        <v>1</v>
+      </c>
+      <c r="AO200">
+        <v>0.25</v>
+      </c>
+      <c r="AP200">
+        <v>1</v>
+      </c>
+      <c r="AQ200">
+        <v>0.4</v>
+      </c>
+      <c r="AR200">
+        <v>1.35</v>
+      </c>
+      <c r="AS200">
+        <v>1.06</v>
+      </c>
+      <c r="AT200">
+        <v>2.41</v>
+      </c>
+      <c r="AU200">
+        <v>0</v>
+      </c>
+      <c r="AV200">
+        <v>2</v>
+      </c>
+      <c r="AW200">
+        <v>2</v>
+      </c>
+      <c r="AX200">
+        <v>0</v>
+      </c>
+      <c r="AY200">
+        <v>2</v>
+      </c>
+      <c r="AZ200">
+        <v>2</v>
+      </c>
+      <c r="BA200">
+        <v>3</v>
+      </c>
+      <c r="BB200">
+        <v>5</v>
+      </c>
+      <c r="BC200">
+        <v>8</v>
+      </c>
+      <c r="BD200">
+        <v>1.92</v>
+      </c>
+      <c r="BE200">
+        <v>8.6</v>
+      </c>
+      <c r="BF200">
+        <v>2.19</v>
+      </c>
+      <c r="BG200">
+        <v>1.28</v>
+      </c>
+      <c r="BH200">
+        <v>3.18</v>
+      </c>
+      <c r="BI200">
+        <v>1.62</v>
+      </c>
+      <c r="BJ200">
+        <v>2.28</v>
+      </c>
+      <c r="BK200">
+        <v>1.99</v>
+      </c>
+      <c r="BL200">
+        <v>1.82</v>
+      </c>
+      <c r="BM200">
+        <v>2.52</v>
+      </c>
+      <c r="BN200">
+        <v>1.52</v>
+      </c>
+      <c r="BO200">
+        <v>3.42</v>
+      </c>
+      <c r="BP200">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="201" spans="1:68">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>7295432</v>
+      </c>
+      <c r="C201" t="s">
+        <v>68</v>
+      </c>
+      <c r="D201" t="s">
+        <v>69</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45437.85416666666</v>
+      </c>
+      <c r="F201">
+        <v>15</v>
+      </c>
+      <c r="G201" t="s">
+        <v>96</v>
+      </c>
+      <c r="H201" t="s">
+        <v>72</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+      <c r="M201">
+        <v>1</v>
+      </c>
+      <c r="N201">
+        <v>1</v>
+      </c>
+      <c r="O201" t="s">
+        <v>104</v>
+      </c>
+      <c r="P201" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q201">
+        <v>2.88</v>
+      </c>
+      <c r="R201">
+        <v>2.25</v>
+      </c>
+      <c r="S201">
+        <v>3</v>
+      </c>
+      <c r="T201">
+        <v>1.27</v>
+      </c>
+      <c r="U201">
+        <v>3.6</v>
+      </c>
+      <c r="V201">
+        <v>2.2</v>
+      </c>
+      <c r="W201">
+        <v>1.6</v>
+      </c>
+      <c r="X201">
+        <v>4.6</v>
+      </c>
+      <c r="Y201">
+        <v>1.16</v>
+      </c>
+      <c r="Z201">
+        <v>2.65</v>
+      </c>
+      <c r="AA201">
+        <v>3.7</v>
+      </c>
+      <c r="AB201">
+        <v>2.4</v>
+      </c>
+      <c r="AC201">
+        <v>1.02</v>
+      </c>
+      <c r="AD201">
+        <v>20</v>
+      </c>
+      <c r="AE201">
+        <v>1.16</v>
+      </c>
+      <c r="AF201">
+        <v>5.35</v>
+      </c>
+      <c r="AG201">
+        <v>1.5</v>
+      </c>
+      <c r="AH201">
+        <v>2.4</v>
+      </c>
+      <c r="AI201">
+        <v>1.44</v>
+      </c>
+      <c r="AJ201">
+        <v>2.63</v>
+      </c>
+      <c r="AK201">
+        <v>1.51</v>
+      </c>
+      <c r="AL201">
+        <v>1.26</v>
+      </c>
+      <c r="AM201">
+        <v>1.55</v>
+      </c>
+      <c r="AN201">
+        <v>1.43</v>
+      </c>
+      <c r="AO201">
+        <v>0.67</v>
+      </c>
+      <c r="AP201">
+        <v>1.25</v>
+      </c>
+      <c r="AQ201">
+        <v>1</v>
+      </c>
+      <c r="AR201">
+        <v>1.77</v>
+      </c>
+      <c r="AS201">
+        <v>1.58</v>
+      </c>
+      <c r="AT201">
+        <v>3.35</v>
+      </c>
+      <c r="AU201">
+        <v>2</v>
+      </c>
+      <c r="AV201">
+        <v>4</v>
+      </c>
+      <c r="AW201">
+        <v>0</v>
+      </c>
+      <c r="AX201">
+        <v>2</v>
+      </c>
+      <c r="AY201">
+        <v>2</v>
+      </c>
+      <c r="AZ201">
+        <v>6</v>
+      </c>
+      <c r="BA201">
+        <v>5</v>
+      </c>
+      <c r="BB201">
+        <v>9</v>
+      </c>
+      <c r="BC201">
+        <v>14</v>
+      </c>
+      <c r="BD201">
+        <v>1.97</v>
+      </c>
+      <c r="BE201">
+        <v>7.5</v>
+      </c>
+      <c r="BF201">
+        <v>2.08</v>
+      </c>
+      <c r="BG201">
+        <v>1.23</v>
+      </c>
+      <c r="BH201">
+        <v>3.4</v>
+      </c>
+      <c r="BI201">
+        <v>1.45</v>
+      </c>
+      <c r="BJ201">
+        <v>2.45</v>
+      </c>
+      <c r="BK201">
+        <v>1.79</v>
+      </c>
+      <c r="BL201">
+        <v>1.9</v>
+      </c>
+      <c r="BM201">
+        <v>2.23</v>
+      </c>
+      <c r="BN201">
+        <v>1.55</v>
+      </c>
+      <c r="BO201">
+        <v>2.9</v>
+      </c>
+      <c r="BP201">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="202" spans="1:68">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>7295433</v>
+      </c>
+      <c r="C202" t="s">
+        <v>68</v>
+      </c>
+      <c r="D202" t="s">
+        <v>69</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45437.85416666666</v>
+      </c>
+      <c r="F202">
+        <v>15</v>
+      </c>
+      <c r="G202" t="s">
+        <v>73</v>
+      </c>
+      <c r="H202" t="s">
+        <v>76</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+      <c r="L202">
+        <v>0</v>
+      </c>
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202">
+        <v>0</v>
+      </c>
+      <c r="O202" t="s">
+        <v>104</v>
+      </c>
+      <c r="P202" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q202">
+        <v>2.99</v>
+      </c>
+      <c r="R202">
+        <v>2.21</v>
+      </c>
+      <c r="S202">
+        <v>3.28</v>
+      </c>
+      <c r="T202">
+        <v>1.35</v>
+      </c>
+      <c r="U202">
+        <v>3.05</v>
+      </c>
+      <c r="V202">
+        <v>2.61</v>
+      </c>
+      <c r="W202">
+        <v>1.46</v>
+      </c>
+      <c r="X202">
+        <v>6.35</v>
+      </c>
+      <c r="Y202">
+        <v>1.1</v>
+      </c>
+      <c r="Z202">
+        <v>2.4</v>
+      </c>
+      <c r="AA202">
+        <v>3.4</v>
+      </c>
+      <c r="AB202">
+        <v>2.75</v>
+      </c>
+      <c r="AC202">
+        <v>1.01</v>
+      </c>
+      <c r="AD202">
+        <v>10.25</v>
+      </c>
+      <c r="AE202">
+        <v>1.22</v>
+      </c>
+      <c r="AF202">
+        <v>3.66</v>
+      </c>
+      <c r="AG202">
+        <v>1.8</v>
+      </c>
+      <c r="AH202">
+        <v>1.85</v>
+      </c>
+      <c r="AI202">
+        <v>1.63</v>
+      </c>
+      <c r="AJ202">
+        <v>2.19</v>
+      </c>
+      <c r="AK202">
+        <v>1.47</v>
+      </c>
+      <c r="AL202">
+        <v>1.3</v>
+      </c>
+      <c r="AM202">
+        <v>1.54</v>
+      </c>
+      <c r="AN202">
+        <v>2.13</v>
+      </c>
+      <c r="AO202">
+        <v>1.86</v>
+      </c>
+      <c r="AP202">
+        <v>2</v>
+      </c>
+      <c r="AQ202">
+        <v>1.75</v>
+      </c>
+      <c r="AR202">
+        <v>1.19</v>
+      </c>
+      <c r="AS202">
+        <v>1.29</v>
+      </c>
+      <c r="AT202">
+        <v>2.48</v>
+      </c>
+      <c r="AU202">
+        <v>2</v>
+      </c>
+      <c r="AV202">
+        <v>2</v>
+      </c>
+      <c r="AW202">
+        <v>0</v>
+      </c>
+      <c r="AX202">
+        <v>1</v>
+      </c>
+      <c r="AY202">
+        <v>2</v>
+      </c>
+      <c r="AZ202">
+        <v>3</v>
+      </c>
+      <c r="BA202">
+        <v>11</v>
+      </c>
+      <c r="BB202">
+        <v>2</v>
+      </c>
+      <c r="BC202">
+        <v>13</v>
+      </c>
+      <c r="BD202">
+        <v>1.89</v>
+      </c>
+      <c r="BE202">
+        <v>7.5</v>
+      </c>
+      <c r="BF202">
+        <v>2.2</v>
+      </c>
+      <c r="BG202">
+        <v>1.3</v>
+      </c>
+      <c r="BH202">
+        <v>3</v>
+      </c>
+      <c r="BI202">
+        <v>1.55</v>
+      </c>
+      <c r="BJ202">
+        <v>2.23</v>
+      </c>
+      <c r="BK202">
+        <v>1.93</v>
+      </c>
+      <c r="BL202">
+        <v>1.76</v>
+      </c>
+      <c r="BM202">
+        <v>2.48</v>
+      </c>
+      <c r="BN202">
+        <v>1.44</v>
+      </c>
+      <c r="BO202">
+        <v>3.3</v>
+      </c>
+      <c r="BP202">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="203" spans="1:68">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>7295434</v>
+      </c>
+      <c r="C203" t="s">
+        <v>68</v>
+      </c>
+      <c r="D203" t="s">
+        <v>69</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45437.85416666666</v>
+      </c>
+      <c r="F203">
+        <v>15</v>
+      </c>
+      <c r="G203" t="s">
+        <v>74</v>
+      </c>
+      <c r="H203" t="s">
+        <v>88</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>1</v>
+      </c>
+      <c r="L203">
+        <v>1</v>
+      </c>
+      <c r="M203">
+        <v>1</v>
+      </c>
+      <c r="N203">
+        <v>2</v>
+      </c>
+      <c r="O203" t="s">
+        <v>247</v>
+      </c>
+      <c r="P203" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q203">
+        <v>2.16</v>
+      </c>
+      <c r="R203">
+        <v>2.45</v>
+      </c>
+      <c r="S203">
+        <v>4.5</v>
+      </c>
+      <c r="T203">
+        <v>1.26</v>
+      </c>
+      <c r="U203">
+        <v>3.64</v>
+      </c>
+      <c r="V203">
+        <v>2.24</v>
+      </c>
+      <c r="W203">
+        <v>1.61</v>
+      </c>
+      <c r="X203">
+        <v>5</v>
+      </c>
+      <c r="Y203">
+        <v>1.15</v>
+      </c>
+      <c r="Z203">
+        <v>1.6</v>
+      </c>
+      <c r="AA203">
+        <v>4.2</v>
+      </c>
+      <c r="AB203">
+        <v>4.8</v>
+      </c>
+      <c r="AC203">
+        <v>1.03</v>
+      </c>
+      <c r="AD203">
+        <v>19.25</v>
+      </c>
+      <c r="AE203">
+        <v>1.13</v>
+      </c>
+      <c r="AF203">
+        <v>4.85</v>
+      </c>
+      <c r="AG203">
+        <v>1.5</v>
+      </c>
+      <c r="AH203">
+        <v>2.4</v>
+      </c>
+      <c r="AI203">
+        <v>1.55</v>
+      </c>
+      <c r="AJ203">
+        <v>2.36</v>
+      </c>
+      <c r="AK203">
+        <v>1.21</v>
+      </c>
+      <c r="AL203">
+        <v>1.22</v>
+      </c>
+      <c r="AM203">
+        <v>2.18</v>
+      </c>
+      <c r="AN203">
+        <v>1.43</v>
+      </c>
+      <c r="AO203">
+        <v>0.5</v>
+      </c>
+      <c r="AP203">
+        <v>1.38</v>
+      </c>
+      <c r="AQ203">
+        <v>0.57</v>
+      </c>
+      <c r="AR203">
+        <v>1.75</v>
+      </c>
+      <c r="AS203">
+        <v>1.14</v>
+      </c>
+      <c r="AT203">
+        <v>2.89</v>
+      </c>
+      <c r="AU203">
+        <v>2</v>
+      </c>
+      <c r="AV203">
+        <v>0</v>
+      </c>
+      <c r="AW203">
+        <v>2</v>
+      </c>
+      <c r="AX203">
+        <v>0</v>
+      </c>
+      <c r="AY203">
+        <v>4</v>
+      </c>
+      <c r="AZ203">
+        <v>0</v>
+      </c>
+      <c r="BA203">
+        <v>8</v>
+      </c>
+      <c r="BB203">
+        <v>1</v>
+      </c>
+      <c r="BC203">
+        <v>9</v>
+      </c>
+      <c r="BD203">
+        <v>1.52</v>
+      </c>
+      <c r="BE203">
+        <v>8</v>
+      </c>
+      <c r="BF203">
+        <v>3.05</v>
+      </c>
+      <c r="BG203">
+        <v>1.25</v>
+      </c>
+      <c r="BH203">
+        <v>3.3</v>
+      </c>
+      <c r="BI203">
+        <v>1.47</v>
+      </c>
+      <c r="BJ203">
+        <v>2.4</v>
+      </c>
+      <c r="BK203">
+        <v>1.8</v>
+      </c>
+      <c r="BL203">
+        <v>1.89</v>
+      </c>
+      <c r="BM203">
+        <v>2.25</v>
+      </c>
+      <c r="BN203">
+        <v>1.53</v>
+      </c>
+      <c r="BO203">
+        <v>2.95</v>
+      </c>
+      <c r="BP203">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:68">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>7295439</v>
+      </c>
+      <c r="C204" t="s">
+        <v>68</v>
+      </c>
+      <c r="D204" t="s">
+        <v>69</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45437.89583333334</v>
+      </c>
+      <c r="F204">
+        <v>15</v>
+      </c>
+      <c r="G204" t="s">
+        <v>78</v>
+      </c>
+      <c r="H204" t="s">
+        <v>86</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>1</v>
+      </c>
+      <c r="L204">
+        <v>3</v>
+      </c>
+      <c r="M204">
+        <v>3</v>
+      </c>
+      <c r="N204">
+        <v>6</v>
+      </c>
+      <c r="O204" t="s">
+        <v>248</v>
+      </c>
+      <c r="P204" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q204">
+        <v>3.4</v>
+      </c>
+      <c r="R204">
+        <v>2.2</v>
+      </c>
+      <c r="S204">
+        <v>3</v>
+      </c>
+      <c r="T204">
+        <v>1.36</v>
+      </c>
+      <c r="U204">
+        <v>3</v>
+      </c>
+      <c r="V204">
+        <v>2.75</v>
+      </c>
+      <c r="W204">
+        <v>1.4</v>
+      </c>
+      <c r="X204">
+        <v>7</v>
+      </c>
+      <c r="Y204">
+        <v>1.1</v>
+      </c>
+      <c r="Z204">
+        <v>2.8</v>
+      </c>
+      <c r="AA204">
+        <v>3.4</v>
+      </c>
+      <c r="AB204">
+        <v>2.4</v>
+      </c>
+      <c r="AC204">
+        <v>1.04</v>
+      </c>
+      <c r="AD204">
+        <v>12</v>
+      </c>
+      <c r="AE204">
+        <v>1.28</v>
+      </c>
+      <c r="AF204">
+        <v>3.75</v>
+      </c>
+      <c r="AG204">
+        <v>1.8</v>
+      </c>
+      <c r="AH204">
+        <v>1.85</v>
+      </c>
+      <c r="AI204">
+        <v>1.67</v>
+      </c>
+      <c r="AJ204">
+        <v>2.1</v>
+      </c>
+      <c r="AK204">
+        <v>1.58</v>
+      </c>
+      <c r="AL204">
+        <v>1.26</v>
+      </c>
+      <c r="AM204">
+        <v>1.45</v>
+      </c>
+      <c r="AN204">
+        <v>1.67</v>
+      </c>
+      <c r="AO204">
+        <v>1.71</v>
+      </c>
+      <c r="AP204">
+        <v>1.57</v>
+      </c>
+      <c r="AQ204">
+        <v>1.63</v>
+      </c>
+      <c r="AR204">
+        <v>1.54</v>
+      </c>
+      <c r="AS204">
+        <v>1.49</v>
+      </c>
+      <c r="AT204">
+        <v>3.03</v>
+      </c>
+      <c r="AU204">
+        <v>9</v>
+      </c>
+      <c r="AV204">
+        <v>8</v>
+      </c>
+      <c r="AW204">
+        <v>8</v>
+      </c>
+      <c r="AX204">
+        <v>11</v>
+      </c>
+      <c r="AY204">
+        <v>17</v>
+      </c>
+      <c r="AZ204">
+        <v>19</v>
+      </c>
+      <c r="BA204">
+        <v>5</v>
+      </c>
+      <c r="BB204">
+        <v>7</v>
+      </c>
+      <c r="BC204">
+        <v>12</v>
+      </c>
+      <c r="BD204">
+        <v>2.07</v>
+      </c>
+      <c r="BE204">
+        <v>7.5</v>
+      </c>
+      <c r="BF204">
+        <v>2</v>
+      </c>
+      <c r="BG204">
+        <v>1.29</v>
+      </c>
+      <c r="BH204">
+        <v>3</v>
+      </c>
+      <c r="BI204">
+        <v>1.54</v>
+      </c>
+      <c r="BJ204">
+        <v>2.23</v>
+      </c>
+      <c r="BK204">
+        <v>1.93</v>
+      </c>
+      <c r="BL204">
+        <v>1.76</v>
+      </c>
+      <c r="BM204">
+        <v>2.45</v>
+      </c>
+      <c r="BN204">
+        <v>1.45</v>
+      </c>
+      <c r="BO204">
+        <v>3.25</v>
+      </c>
+      <c r="BP204">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="205" spans="1:68">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>7295440</v>
+      </c>
+      <c r="C205" t="s">
+        <v>68</v>
+      </c>
+      <c r="D205" t="s">
+        <v>69</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45437.89583333334</v>
+      </c>
+      <c r="F205">
+        <v>15</v>
+      </c>
+      <c r="G205" t="s">
+        <v>80</v>
+      </c>
+      <c r="H205" t="s">
+        <v>92</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <v>1</v>
+      </c>
+      <c r="M205">
+        <v>2</v>
+      </c>
+      <c r="N205">
+        <v>3</v>
+      </c>
+      <c r="O205" t="s">
+        <v>211</v>
+      </c>
+      <c r="P205" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q205">
+        <v>2.88</v>
+      </c>
+      <c r="R205">
+        <v>2.2</v>
+      </c>
+      <c r="S205">
+        <v>3.6</v>
+      </c>
+      <c r="T205">
+        <v>1.36</v>
+      </c>
+      <c r="U205">
+        <v>3</v>
+      </c>
+      <c r="V205">
+        <v>2.75</v>
+      </c>
+      <c r="W205">
+        <v>1.4</v>
+      </c>
+      <c r="X205">
+        <v>7</v>
+      </c>
+      <c r="Y205">
+        <v>1.1</v>
+      </c>
+      <c r="Z205">
+        <v>2.05</v>
+      </c>
+      <c r="AA205">
+        <v>3.45</v>
+      </c>
+      <c r="AB205">
+        <v>3.45</v>
+      </c>
+      <c r="AC205">
+        <v>1.05</v>
+      </c>
+      <c r="AD205">
+        <v>12</v>
+      </c>
+      <c r="AE205">
+        <v>1.28</v>
+      </c>
+      <c r="AF205">
+        <v>3.75</v>
+      </c>
+      <c r="AG205">
+        <v>1.75</v>
+      </c>
+      <c r="AH205">
+        <v>1.85</v>
+      </c>
+      <c r="AI205">
+        <v>1.67</v>
+      </c>
+      <c r="AJ205">
+        <v>2.1</v>
+      </c>
+      <c r="AK205">
+        <v>1.38</v>
+      </c>
+      <c r="AL205">
+        <v>1.28</v>
+      </c>
+      <c r="AM205">
+        <v>1.65</v>
+      </c>
+      <c r="AN205">
+        <v>1.71</v>
+      </c>
+      <c r="AO205">
+        <v>0.88</v>
+      </c>
+      <c r="AP205">
+        <v>1.5</v>
+      </c>
+      <c r="AQ205">
+        <v>1.11</v>
+      </c>
+      <c r="AR205">
+        <v>1.81</v>
+      </c>
+      <c r="AS205">
+        <v>1.37</v>
+      </c>
+      <c r="AT205">
+        <v>3.18</v>
+      </c>
+      <c r="AU205">
+        <v>5</v>
+      </c>
+      <c r="AV205">
+        <v>0</v>
+      </c>
+      <c r="AW205">
+        <v>15</v>
+      </c>
+      <c r="AX205">
+        <v>7</v>
+      </c>
+      <c r="AY205">
+        <v>20</v>
+      </c>
+      <c r="AZ205">
+        <v>7</v>
+      </c>
+      <c r="BA205">
+        <v>6</v>
+      </c>
+      <c r="BB205">
+        <v>1</v>
+      </c>
+      <c r="BC205">
+        <v>7</v>
+      </c>
+      <c r="BD205">
+        <v>1.72</v>
+      </c>
+      <c r="BE205">
+        <v>7.5</v>
+      </c>
+      <c r="BF205">
+        <v>2.45</v>
+      </c>
+      <c r="BG205">
+        <v>1.27</v>
+      </c>
+      <c r="BH205">
+        <v>3.15</v>
+      </c>
+      <c r="BI205">
+        <v>1.5</v>
+      </c>
+      <c r="BJ205">
+        <v>2.33</v>
+      </c>
+      <c r="BK205">
+        <v>1.87</v>
+      </c>
+      <c r="BL205">
+        <v>1.82</v>
+      </c>
+      <c r="BM205">
+        <v>2.35</v>
+      </c>
+      <c r="BN205">
+        <v>1.49</v>
+      </c>
+      <c r="BO205">
+        <v>3.1</v>
+      </c>
+      <c r="BP205">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="206" spans="1:68">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>7295441</v>
+      </c>
+      <c r="C206" t="s">
+        <v>68</v>
+      </c>
+      <c r="D206" t="s">
+        <v>69</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45437.9375</v>
+      </c>
+      <c r="F206">
+        <v>15</v>
+      </c>
+      <c r="G206" t="s">
+        <v>90</v>
+      </c>
+      <c r="H206" t="s">
+        <v>85</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206">
+        <v>3</v>
+      </c>
+      <c r="K206">
+        <v>4</v>
+      </c>
+      <c r="L206">
+        <v>3</v>
+      </c>
+      <c r="M206">
+        <v>3</v>
+      </c>
+      <c r="N206">
+        <v>6</v>
+      </c>
+      <c r="O206" t="s">
+        <v>249</v>
+      </c>
+      <c r="P206" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q206">
+        <v>2.5</v>
+      </c>
+      <c r="R206">
+        <v>2.4</v>
+      </c>
+      <c r="S206">
+        <v>3.75</v>
+      </c>
+      <c r="T206">
+        <v>1.29</v>
+      </c>
+      <c r="U206">
+        <v>3.5</v>
+      </c>
+      <c r="V206">
+        <v>2.25</v>
+      </c>
+      <c r="W206">
+        <v>1.57</v>
+      </c>
+      <c r="X206">
+        <v>5.5</v>
+      </c>
+      <c r="Y206">
+        <v>1.14</v>
+      </c>
+      <c r="Z206">
+        <v>1.95</v>
+      </c>
+      <c r="AA206">
+        <v>3.7</v>
+      </c>
+      <c r="AB206">
+        <v>3.5</v>
+      </c>
+      <c r="AC206">
+        <v>1.03</v>
+      </c>
+      <c r="AD206">
+        <v>11</v>
+      </c>
+      <c r="AE206">
+        <v>1.18</v>
+      </c>
+      <c r="AF206">
+        <v>4.75</v>
+      </c>
+      <c r="AG206">
+        <v>1.55</v>
+      </c>
+      <c r="AH206">
+        <v>2.2</v>
+      </c>
+      <c r="AI206">
+        <v>1.53</v>
+      </c>
+      <c r="AJ206">
+        <v>2.38</v>
+      </c>
+      <c r="AK206">
+        <v>1.32</v>
+      </c>
+      <c r="AL206">
+        <v>1.27</v>
+      </c>
+      <c r="AM206">
+        <v>1.8</v>
+      </c>
+      <c r="AN206">
+        <v>1.67</v>
+      </c>
+      <c r="AO206">
+        <v>2.4</v>
+      </c>
+      <c r="AP206">
+        <v>1.57</v>
+      </c>
+      <c r="AQ206">
+        <v>2.17</v>
+      </c>
+      <c r="AR206">
+        <v>1.47</v>
+      </c>
+      <c r="AS206">
+        <v>1.43</v>
+      </c>
+      <c r="AT206">
+        <v>2.9</v>
+      </c>
+      <c r="AU206">
+        <v>9</v>
+      </c>
+      <c r="AV206">
+        <v>7</v>
+      </c>
+      <c r="AW206">
+        <v>12</v>
+      </c>
+      <c r="AX206">
+        <v>3</v>
+      </c>
+      <c r="AY206">
+        <v>21</v>
+      </c>
+      <c r="AZ206">
+        <v>10</v>
+      </c>
+      <c r="BA206">
+        <v>9</v>
+      </c>
+      <c r="BB206">
+        <v>0</v>
+      </c>
+      <c r="BC206">
+        <v>9</v>
+      </c>
+      <c r="BD206">
+        <v>1.68</v>
+      </c>
+      <c r="BE206">
+        <v>8</v>
+      </c>
+      <c r="BF206">
+        <v>2.5</v>
+      </c>
+      <c r="BG206">
+        <v>1.2</v>
+      </c>
+      <c r="BH206">
+        <v>3.75</v>
+      </c>
+      <c r="BI206">
+        <v>1.38</v>
+      </c>
+      <c r="BJ206">
+        <v>2.65</v>
+      </c>
+      <c r="BK206">
+        <v>1.66</v>
+      </c>
+      <c r="BL206">
+        <v>2.05</v>
+      </c>
+      <c r="BM206">
+        <v>2.06</v>
+      </c>
+      <c r="BN206">
+        <v>1.65</v>
+      </c>
+      <c r="BO206">
+        <v>2.63</v>
+      </c>
+      <c r="BP206">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="207" spans="1:68">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>7295431</v>
+      </c>
+      <c r="C207" t="s">
+        <v>68</v>
+      </c>
+      <c r="D207" t="s">
+        <v>69</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45437.97916666666</v>
+      </c>
+      <c r="F207">
+        <v>15</v>
+      </c>
+      <c r="G207" t="s">
+        <v>87</v>
+      </c>
+      <c r="H207" t="s">
+        <v>70</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>1</v>
+      </c>
+      <c r="K207">
+        <v>1</v>
+      </c>
+      <c r="L207">
+        <v>1</v>
+      </c>
+      <c r="M207">
+        <v>2</v>
+      </c>
+      <c r="N207">
+        <v>3</v>
+      </c>
+      <c r="O207" t="s">
+        <v>250</v>
+      </c>
+      <c r="P207" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q207">
+        <v>3</v>
+      </c>
+      <c r="R207">
+        <v>2.4</v>
+      </c>
+      <c r="S207">
+        <v>3</v>
+      </c>
+      <c r="T207">
+        <v>1.25</v>
+      </c>
+      <c r="U207">
+        <v>3.75</v>
+      </c>
+      <c r="V207">
+        <v>2.25</v>
+      </c>
+      <c r="W207">
+        <v>1.57</v>
+      </c>
+      <c r="X207">
+        <v>5.5</v>
+      </c>
+      <c r="Y207">
+        <v>1.14</v>
+      </c>
+      <c r="Z207">
+        <v>1.85</v>
+      </c>
+      <c r="AA207">
+        <v>4</v>
+      </c>
+      <c r="AB207">
+        <v>3.65</v>
+      </c>
+      <c r="AC207">
+        <v>1.02</v>
+      </c>
+      <c r="AD207">
+        <v>12</v>
+      </c>
+      <c r="AE207">
+        <v>1.13</v>
+      </c>
+      <c r="AF207">
+        <v>5</v>
+      </c>
+      <c r="AG207">
+        <v>1.5</v>
+      </c>
+      <c r="AH207">
+        <v>2.4</v>
+      </c>
+      <c r="AI207">
+        <v>1.44</v>
+      </c>
+      <c r="AJ207">
+        <v>2.63</v>
+      </c>
+      <c r="AK207">
+        <v>1.5</v>
+      </c>
+      <c r="AL207">
+        <v>1.29</v>
+      </c>
+      <c r="AM207">
+        <v>1.53</v>
+      </c>
+      <c r="AN207">
+        <v>1.33</v>
+      </c>
+      <c r="AO207">
+        <v>2</v>
+      </c>
+      <c r="AP207">
+        <v>1.14</v>
+      </c>
+      <c r="AQ207">
+        <v>2.13</v>
+      </c>
+      <c r="AR207">
+        <v>1.59</v>
+      </c>
+      <c r="AS207">
+        <v>1.31</v>
+      </c>
+      <c r="AT207">
+        <v>2.9</v>
+      </c>
+      <c r="AU207">
+        <v>2</v>
+      </c>
+      <c r="AV207">
+        <v>7</v>
+      </c>
+      <c r="AW207">
+        <v>13</v>
+      </c>
+      <c r="AX207">
+        <v>3</v>
+      </c>
+      <c r="AY207">
+        <v>15</v>
+      </c>
+      <c r="AZ207">
+        <v>10</v>
+      </c>
+      <c r="BA207">
+        <v>9</v>
+      </c>
+      <c r="BB207">
+        <v>5</v>
+      </c>
+      <c r="BC207">
+        <v>14</v>
+      </c>
+      <c r="BD207">
+        <v>2</v>
+      </c>
+      <c r="BE207">
+        <v>7.5</v>
+      </c>
+      <c r="BF207">
+        <v>2.07</v>
+      </c>
+      <c r="BG207">
+        <v>1.27</v>
+      </c>
+      <c r="BH207">
+        <v>3.15</v>
+      </c>
+      <c r="BI207">
+        <v>1.5</v>
+      </c>
+      <c r="BJ207">
+        <v>2.3</v>
+      </c>
+      <c r="BK207">
+        <v>1.86</v>
+      </c>
+      <c r="BL207">
+        <v>1.82</v>
+      </c>
+      <c r="BM207">
+        <v>2.35</v>
+      </c>
+      <c r="BN207">
+        <v>1.49</v>
+      </c>
+      <c r="BO207">
+        <v>3.1</v>
+      </c>
+      <c r="BP207">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="208" spans="1:68">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>7295442</v>
+      </c>
+      <c r="C208" t="s">
+        <v>68</v>
+      </c>
+      <c r="D208" t="s">
+        <v>69</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45437.97916666666</v>
+      </c>
+      <c r="F208">
+        <v>15</v>
+      </c>
+      <c r="G208" t="s">
+        <v>84</v>
+      </c>
+      <c r="H208" t="s">
+        <v>79</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208">
+        <v>1</v>
+      </c>
+      <c r="K208">
+        <v>2</v>
+      </c>
+      <c r="L208">
+        <v>2</v>
+      </c>
+      <c r="M208">
+        <v>1</v>
+      </c>
+      <c r="N208">
+        <v>3</v>
+      </c>
+      <c r="O208" t="s">
+        <v>251</v>
+      </c>
+      <c r="P208" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q208">
+        <v>2.38</v>
+      </c>
+      <c r="R208">
+        <v>2.38</v>
+      </c>
+      <c r="S208">
+        <v>4.33</v>
+      </c>
+      <c r="T208">
+        <v>1.3</v>
+      </c>
+      <c r="U208">
+        <v>3.4</v>
+      </c>
+      <c r="V208">
+        <v>2.38</v>
+      </c>
+      <c r="W208">
+        <v>1.53</v>
+      </c>
+      <c r="X208">
+        <v>6</v>
+      </c>
+      <c r="Y208">
+        <v>1.13</v>
+      </c>
+      <c r="Z208">
+        <v>1.83</v>
+      </c>
+      <c r="AA208">
+        <v>3.65</v>
+      </c>
+      <c r="AB208">
+        <v>4</v>
+      </c>
+      <c r="AC208">
+        <v>1.04</v>
+      </c>
+      <c r="AD208">
+        <v>10</v>
+      </c>
+      <c r="AE208">
+        <v>1.2</v>
+      </c>
+      <c r="AF208">
+        <v>4.33</v>
+      </c>
+      <c r="AG208">
+        <v>1.6</v>
+      </c>
+      <c r="AH208">
+        <v>2.1</v>
+      </c>
+      <c r="AI208">
+        <v>1.57</v>
+      </c>
+      <c r="AJ208">
+        <v>2.25</v>
+      </c>
+      <c r="AK208">
+        <v>1.22</v>
+      </c>
+      <c r="AL208">
+        <v>1.2</v>
+      </c>
+      <c r="AM208">
+        <v>2</v>
+      </c>
+      <c r="AN208">
+        <v>1.8</v>
+      </c>
+      <c r="AO208">
+        <v>1.5</v>
+      </c>
+      <c r="AP208">
+        <v>2</v>
+      </c>
+      <c r="AQ208">
+        <v>1.29</v>
+      </c>
+      <c r="AR208">
+        <v>1.77</v>
+      </c>
+      <c r="AS208">
+        <v>1.07</v>
+      </c>
+      <c r="AT208">
+        <v>2.84</v>
+      </c>
+      <c r="AU208">
+        <v>4</v>
+      </c>
+      <c r="AV208">
+        <v>0</v>
+      </c>
+      <c r="AW208">
+        <v>7</v>
+      </c>
+      <c r="AX208">
+        <v>16</v>
+      </c>
+      <c r="AY208">
+        <v>11</v>
+      </c>
+      <c r="AZ208">
+        <v>16</v>
+      </c>
+      <c r="BA208">
+        <v>7</v>
+      </c>
+      <c r="BB208">
+        <v>5</v>
+      </c>
+      <c r="BC208">
+        <v>12</v>
+      </c>
+      <c r="BD208">
+        <v>1.58</v>
+      </c>
+      <c r="BE208">
+        <v>8</v>
+      </c>
+      <c r="BF208">
+        <v>2.85</v>
+      </c>
+      <c r="BG208">
+        <v>1.27</v>
+      </c>
+      <c r="BH208">
+        <v>3.15</v>
+      </c>
+      <c r="BI208">
+        <v>1.5</v>
+      </c>
+      <c r="BJ208">
+        <v>2.33</v>
+      </c>
+      <c r="BK208">
+        <v>1.86</v>
+      </c>
+      <c r="BL208">
+        <v>1.82</v>
+      </c>
+      <c r="BM208">
+        <v>2.35</v>
+      </c>
+      <c r="BN208">
+        <v>1.49</v>
+      </c>
+      <c r="BO208">
+        <v>3.05</v>
+      </c>
+      <c r="BP208">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="209" spans="1:68">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>7295443</v>
+      </c>
+      <c r="C209" t="s">
+        <v>68</v>
+      </c>
+      <c r="D209" t="s">
+        <v>69</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45437.97916666666</v>
+      </c>
+      <c r="F209">
+        <v>15</v>
+      </c>
+      <c r="G209" t="s">
+        <v>81</v>
+      </c>
+      <c r="H209" t="s">
+        <v>89</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <v>2</v>
+      </c>
+      <c r="M209">
+        <v>1</v>
+      </c>
+      <c r="N209">
+        <v>3</v>
+      </c>
+      <c r="O209" t="s">
+        <v>252</v>
+      </c>
+      <c r="P209" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q209">
+        <v>2.5</v>
+      </c>
+      <c r="R209">
+        <v>2.4</v>
+      </c>
+      <c r="S209">
+        <v>3.75</v>
+      </c>
+      <c r="T209">
+        <v>1.29</v>
+      </c>
+      <c r="U209">
+        <v>3.5</v>
+      </c>
+      <c r="V209">
+        <v>2.25</v>
+      </c>
+      <c r="W209">
+        <v>1.57</v>
+      </c>
+      <c r="X209">
+        <v>5.5</v>
+      </c>
+      <c r="Y209">
+        <v>1.14</v>
+      </c>
+      <c r="Z209">
+        <v>1.9</v>
+      </c>
+      <c r="AA209">
+        <v>3.7</v>
+      </c>
+      <c r="AB209">
+        <v>3.65</v>
+      </c>
+      <c r="AC209">
+        <v>1.03</v>
+      </c>
+      <c r="AD209">
+        <v>11</v>
+      </c>
+      <c r="AE209">
+        <v>1.18</v>
+      </c>
+      <c r="AF209">
+        <v>4.75</v>
+      </c>
+      <c r="AG209">
+        <v>1.61</v>
+      </c>
+      <c r="AH209">
+        <v>2.15</v>
+      </c>
+      <c r="AI209">
+        <v>1.53</v>
+      </c>
+      <c r="AJ209">
+        <v>2.38</v>
+      </c>
+      <c r="AK209">
+        <v>1.3</v>
+      </c>
+      <c r="AL209">
+        <v>1.27</v>
+      </c>
+      <c r="AM209">
+        <v>1.82</v>
+      </c>
+      <c r="AN209">
+        <v>1.33</v>
+      </c>
+      <c r="AO209">
+        <v>0.83</v>
+      </c>
+      <c r="AP209">
+        <v>1.57</v>
+      </c>
+      <c r="AQ209">
+        <v>0.71</v>
+      </c>
+      <c r="AR209">
+        <v>1.48</v>
+      </c>
+      <c r="AS209">
+        <v>1.34</v>
+      </c>
+      <c r="AT209">
+        <v>2.82</v>
+      </c>
+      <c r="AU209">
+        <v>4</v>
+      </c>
+      <c r="AV209">
+        <v>2</v>
+      </c>
+      <c r="AW209">
+        <v>6</v>
+      </c>
+      <c r="AX209">
+        <v>3</v>
+      </c>
+      <c r="AY209">
+        <v>10</v>
+      </c>
+      <c r="AZ209">
+        <v>5</v>
+      </c>
+      <c r="BA209">
+        <v>3</v>
+      </c>
+      <c r="BB209">
+        <v>2</v>
+      </c>
+      <c r="BC209">
+        <v>5</v>
+      </c>
+      <c r="BD209">
+        <v>1.67</v>
+      </c>
+      <c r="BE209">
+        <v>7.5</v>
+      </c>
+      <c r="BF209">
+        <v>2.55</v>
+      </c>
+      <c r="BG209">
+        <v>1.25</v>
+      </c>
+      <c r="BH209">
+        <v>3.3</v>
+      </c>
+      <c r="BI209">
+        <v>1.47</v>
+      </c>
+      <c r="BJ209">
+        <v>2.4</v>
+      </c>
+      <c r="BK209">
+        <v>1.81</v>
+      </c>
+      <c r="BL209">
+        <v>1.88</v>
+      </c>
+      <c r="BM209">
+        <v>2.28</v>
+      </c>
+      <c r="BN209">
+        <v>1.52</v>
+      </c>
+      <c r="BO209">
+        <v>2.95</v>
+      </c>
+      <c r="BP209">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:68">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>7295444</v>
+      </c>
+      <c r="C210" t="s">
+        <v>68</v>
+      </c>
+      <c r="D210" t="s">
+        <v>69</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45437.97916666666</v>
+      </c>
+      <c r="F210">
+        <v>15</v>
+      </c>
+      <c r="G210" t="s">
+        <v>91</v>
+      </c>
+      <c r="H210" t="s">
+        <v>77</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="J210">
+        <v>1</v>
+      </c>
+      <c r="K210">
+        <v>2</v>
+      </c>
+      <c r="L210">
+        <v>1</v>
+      </c>
+      <c r="M210">
+        <v>1</v>
+      </c>
+      <c r="N210">
+        <v>2</v>
+      </c>
+      <c r="O210" t="s">
+        <v>123</v>
+      </c>
+      <c r="P210" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q210">
+        <v>2.3</v>
+      </c>
+      <c r="R210">
+        <v>2.4</v>
+      </c>
+      <c r="S210">
+        <v>4.33</v>
+      </c>
+      <c r="T210">
+        <v>1.29</v>
+      </c>
+      <c r="U210">
+        <v>3.5</v>
+      </c>
+      <c r="V210">
+        <v>2.25</v>
+      </c>
+      <c r="W210">
+        <v>1.57</v>
+      </c>
+      <c r="X210">
+        <v>5.5</v>
+      </c>
+      <c r="Y210">
+        <v>1.14</v>
+      </c>
+      <c r="Z210">
+        <v>1.83</v>
+      </c>
+      <c r="AA210">
+        <v>3.9</v>
+      </c>
+      <c r="AB210">
+        <v>3.8</v>
+      </c>
+      <c r="AC210">
+        <v>1.03</v>
+      </c>
+      <c r="AD210">
+        <v>18.75</v>
+      </c>
+      <c r="AE210">
+        <v>1.18</v>
+      </c>
+      <c r="AF210">
+        <v>4.88</v>
+      </c>
+      <c r="AG210">
+        <v>1.57</v>
+      </c>
+      <c r="AH210">
+        <v>2.15</v>
+      </c>
+      <c r="AI210">
+        <v>1.57</v>
+      </c>
+      <c r="AJ210">
+        <v>2.25</v>
+      </c>
+      <c r="AK210">
+        <v>1.2</v>
+      </c>
+      <c r="AL210">
+        <v>1.2</v>
+      </c>
+      <c r="AM210">
+        <v>2</v>
+      </c>
+      <c r="AN210">
+        <v>1</v>
+      </c>
+      <c r="AO210">
+        <v>0.83</v>
+      </c>
+      <c r="AP210">
+        <v>1</v>
+      </c>
+      <c r="AQ210">
+        <v>0.86</v>
+      </c>
+      <c r="AR210">
+        <v>1.37</v>
+      </c>
+      <c r="AS210">
+        <v>0.88</v>
+      </c>
+      <c r="AT210">
+        <v>2.25</v>
+      </c>
+      <c r="AU210">
+        <v>6</v>
+      </c>
+      <c r="AV210">
+        <v>2</v>
+      </c>
+      <c r="AW210">
+        <v>15</v>
+      </c>
+      <c r="AX210">
+        <v>4</v>
+      </c>
+      <c r="AY210">
+        <v>21</v>
+      </c>
+      <c r="AZ210">
+        <v>6</v>
+      </c>
+      <c r="BA210">
+        <v>8</v>
+      </c>
+      <c r="BB210">
+        <v>1</v>
+      </c>
+      <c r="BC210">
+        <v>9</v>
+      </c>
+      <c r="BD210">
+        <v>1.5</v>
+      </c>
+      <c r="BE210">
+        <v>8.5</v>
+      </c>
+      <c r="BF210">
+        <v>3.05</v>
+      </c>
+      <c r="BG210">
+        <v>1.11</v>
+      </c>
+      <c r="BH210">
+        <v>5.2</v>
+      </c>
+      <c r="BI210">
+        <v>1.29</v>
+      </c>
+      <c r="BJ210">
+        <v>3</v>
+      </c>
+      <c r="BK210">
+        <v>1.53</v>
+      </c>
+      <c r="BL210">
+        <v>2.28</v>
+      </c>
+      <c r="BM210">
+        <v>1.87</v>
+      </c>
+      <c r="BN210">
+        <v>1.81</v>
+      </c>
+      <c r="BO210">
+        <v>2.33</v>
+      </c>
+      <c r="BP210">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -41992,31 +41992,31 @@
         <v>2.44</v>
       </c>
       <c r="AU197">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AV197">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AW197">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AX197">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AY197">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AZ197">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BA197">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BB197">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BC197">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="BD197">
         <v>1.89</v>
@@ -42198,31 +42198,31 @@
         <v>2.98</v>
       </c>
       <c r="AU198">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AV198">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AW198">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AX198">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AY198">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AZ198">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BA198">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BB198">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BC198">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BD198">
         <v>1.98</v>
@@ -42404,31 +42404,31 @@
         <v>2.8</v>
       </c>
       <c r="AU199">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AV199">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AW199">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AX199">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AY199">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AZ199">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BA199">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BB199">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BC199">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BD199">
         <v>1.71</v>
@@ -42610,31 +42610,31 @@
         <v>2.41</v>
       </c>
       <c r="AU200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AV200">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AW200">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AX200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AY200">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AZ200">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BA200">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BB200">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BC200">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BD200">
         <v>1.92</v>
@@ -42816,31 +42816,31 @@
         <v>3.35</v>
       </c>
       <c r="AU201">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AV201">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AW201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AX201">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AY201">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AZ201">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BA201">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BB201">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BC201">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="BD201">
         <v>1.97</v>
@@ -43022,31 +43022,31 @@
         <v>2.48</v>
       </c>
       <c r="AU202">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AV202">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AW202">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AX202">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AY202">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AZ202">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BA202">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BB202">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BC202">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="BD202">
         <v>1.89</v>
@@ -43228,31 +43228,31 @@
         <v>2.89</v>
       </c>
       <c r="AU203">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AV203">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AW203">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AX203">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AY203">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AZ203">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BA203">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BB203">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BC203">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BD203">
         <v>1.52</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -41992,31 +41992,31 @@
         <v>2.44</v>
       </c>
       <c r="AU197">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV197">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW197">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AX197">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY197">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AZ197">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA197">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB197">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC197">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BD197">
         <v>1.89</v>
@@ -42198,31 +42198,31 @@
         <v>2.98</v>
       </c>
       <c r="AU198">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV198">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW198">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AX198">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY198">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AZ198">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BA198">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB198">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC198">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BD198">
         <v>1.98</v>
@@ -42404,31 +42404,31 @@
         <v>2.8</v>
       </c>
       <c r="AU199">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV199">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW199">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX199">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AY199">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AZ199">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BA199">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BB199">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC199">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD199">
         <v>1.71</v>
@@ -42610,31 +42610,31 @@
         <v>2.41</v>
       </c>
       <c r="AU200">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AV200">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW200">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX200">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AY200">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AZ200">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BA200">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB200">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC200">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD200">
         <v>1.92</v>
@@ -42816,31 +42816,31 @@
         <v>3.35</v>
       </c>
       <c r="AU201">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV201">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW201">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AX201">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY201">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AZ201">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BA201">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB201">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BC201">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BD201">
         <v>1.97</v>
@@ -43022,31 +43022,31 @@
         <v>2.48</v>
       </c>
       <c r="AU202">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV202">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW202">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AX202">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY202">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AZ202">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BA202">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BB202">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC202">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD202">
         <v>1.89</v>
@@ -43228,31 +43228,31 @@
         <v>2.89</v>
       </c>
       <c r="AU203">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV203">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW203">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX203">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AY203">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AZ203">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BA203">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB203">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC203">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD203">
         <v>1.52</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -42219,10 +42219,10 @@
         <v>4</v>
       </c>
       <c r="BB198">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC198">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD198">
         <v>1.98</v>
@@ -42422,13 +42422,13 @@
         <v>0</v>
       </c>
       <c r="BA199">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BB199">
         <v>2</v>
       </c>
       <c r="BC199">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD199">
         <v>1.71</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="377">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -775,6 +775,27 @@
     <t>['51', '79']</t>
   </si>
   <si>
+    <t>['74', '76', '83']</t>
+  </si>
+  <si>
+    <t>['6', '34', '38', '73']</t>
+  </si>
+  <si>
+    <t>['40', '70', '80']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['4', '66', '90+4']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>['38', '82']</t>
+  </si>
+  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -794,9 +815,6 @@
   </si>
   <si>
     <t>['55']</t>
-  </si>
-  <si>
-    <t>['90+2']</t>
   </si>
   <si>
     <t>['31']</t>
@@ -1109,6 +1127,24 @@
   </si>
   <si>
     <t>['44']</t>
+  </si>
+  <si>
+    <t>['29', '42']</t>
+  </si>
+  <si>
+    <t>['25', '29']</t>
+  </si>
+  <si>
+    <t>['44', '59', '73']</t>
+  </si>
+  <si>
+    <t>['45+3', '66']</t>
+  </si>
+  <si>
+    <t>['49']</t>
+  </si>
+  <si>
+    <t>['90+9']</t>
   </si>
 </sst>
 </file>
@@ -1470,7 +1506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP210"/>
+  <dimension ref="A1:BP222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1807,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ2">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2016,7 +2052,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2141,7 +2177,7 @@
         <v>101</v>
       </c>
       <c r="P4" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -2219,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ4">
         <v>1.11</v>
@@ -2553,7 +2589,7 @@
         <v>103</v>
       </c>
       <c r="P6" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2965,7 +3001,7 @@
         <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -3043,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ8">
         <v>0.57</v>
@@ -3171,7 +3207,7 @@
         <v>106</v>
       </c>
       <c r="P9" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3249,10 +3285,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ9">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3377,7 +3413,7 @@
         <v>107</v>
       </c>
       <c r="P10" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3661,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>0.71</v>
@@ -3789,7 +3825,7 @@
         <v>109</v>
       </c>
       <c r="P12" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3870,7 +3906,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3995,7 +4031,7 @@
         <v>110</v>
       </c>
       <c r="P13" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -4076,7 +4112,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ13">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4279,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4613,7 +4649,7 @@
         <v>111</v>
       </c>
       <c r="P16" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4691,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ16">
         <v>2.13</v>
@@ -5309,10 +5345,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ19">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR19">
         <v>1.77</v>
@@ -5437,7 +5473,7 @@
         <v>115</v>
       </c>
       <c r="P20" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -5518,7 +5554,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ20">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5643,7 +5679,7 @@
         <v>116</v>
       </c>
       <c r="P21" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5721,7 +5757,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ21">
         <v>2.38</v>
@@ -5849,7 +5885,7 @@
         <v>117</v>
       </c>
       <c r="P22" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -6055,7 +6091,7 @@
         <v>118</v>
       </c>
       <c r="P23" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6133,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23">
         <v>1.33</v>
@@ -6339,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ24">
         <v>1.75</v>
@@ -6673,7 +6709,7 @@
         <v>121</v>
       </c>
       <c r="P26" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6754,7 +6790,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ26">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6879,7 +6915,7 @@
         <v>122</v>
       </c>
       <c r="P27" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6960,7 +6996,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR27">
         <v>1.01</v>
@@ -7085,7 +7121,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7369,7 +7405,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ29">
         <v>0.86</v>
@@ -7703,7 +7739,7 @@
         <v>123</v>
       </c>
       <c r="P31" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q31">
         <v>2.37</v>
@@ -7784,7 +7820,7 @@
         <v>2</v>
       </c>
       <c r="AQ31">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -7990,7 +8026,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ32">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR32">
         <v>0</v>
@@ -8115,7 +8151,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -8605,10 +8641,10 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ35">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR35">
         <v>0</v>
@@ -8733,7 +8769,7 @@
         <v>128</v>
       </c>
       <c r="P36" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8814,7 +8850,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ36">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR36">
         <v>1.61</v>
@@ -8939,7 +8975,7 @@
         <v>129</v>
       </c>
       <c r="P37" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -9017,7 +9053,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ37">
         <v>0.67</v>
@@ -9145,7 +9181,7 @@
         <v>130</v>
       </c>
       <c r="P38" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9226,7 +9262,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ38">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR38">
         <v>1.58</v>
@@ -9429,7 +9465,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ39">
         <v>0.71</v>
@@ -9557,7 +9593,7 @@
         <v>104</v>
       </c>
       <c r="P40" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9638,7 +9674,7 @@
         <v>1</v>
       </c>
       <c r="AQ40">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR40">
         <v>1.38</v>
@@ -9763,7 +9799,7 @@
         <v>131</v>
       </c>
       <c r="P41" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -10047,10 +10083,10 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR42">
         <v>1.46</v>
@@ -10175,7 +10211,7 @@
         <v>132</v>
       </c>
       <c r="P43" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q43">
         <v>2.05</v>
@@ -10253,7 +10289,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ43">
         <v>0.89</v>
@@ -10381,7 +10417,7 @@
         <v>133</v>
       </c>
       <c r="P44" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10459,7 +10495,7 @@
         <v>2.33</v>
       </c>
       <c r="AP44">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ44">
         <v>0.89</v>
@@ -10587,7 +10623,7 @@
         <v>134</v>
       </c>
       <c r="P45" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10871,10 +10907,10 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ46">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR46">
         <v>1.94</v>
@@ -11411,7 +11447,7 @@
         <v>138</v>
       </c>
       <c r="P49" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11489,7 +11525,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ49">
         <v>1.75</v>
@@ -11617,7 +11653,7 @@
         <v>139</v>
       </c>
       <c r="P50" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11698,7 +11734,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ50">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR50">
         <v>1.92</v>
@@ -11901,10 +11937,10 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ51">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR51">
         <v>1.66</v>
@@ -12107,7 +12143,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ52">
         <v>0.5</v>
@@ -12522,7 +12558,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ54">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR54">
         <v>1.06</v>
@@ -12647,7 +12683,7 @@
         <v>144</v>
       </c>
       <c r="P55" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12725,7 +12761,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ55">
         <v>0.67</v>
@@ -12853,7 +12889,7 @@
         <v>145</v>
       </c>
       <c r="P56" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -13140,7 +13176,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ57">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR57">
         <v>2.19</v>
@@ -13549,7 +13585,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ59">
         <v>2.13</v>
@@ -13677,7 +13713,7 @@
         <v>149</v>
       </c>
       <c r="P60" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13758,7 +13794,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ60">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR60">
         <v>1.63</v>
@@ -14167,7 +14203,7 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ62">
         <v>1.43</v>
@@ -14582,7 +14618,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ64">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR64">
         <v>1.04</v>
@@ -14707,7 +14743,7 @@
         <v>154</v>
       </c>
       <c r="P65" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14785,7 +14821,7 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ65">
         <v>1.44</v>
@@ -14913,7 +14949,7 @@
         <v>155</v>
       </c>
       <c r="P66" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14994,7 +15030,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR66">
         <v>1.49</v>
@@ -15119,7 +15155,7 @@
         <v>104</v>
       </c>
       <c r="P67" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15325,7 +15361,7 @@
         <v>156</v>
       </c>
       <c r="P68" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15609,10 +15645,10 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ69">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR69">
         <v>1.68</v>
@@ -15737,7 +15773,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -16021,10 +16057,10 @@
         <v>3</v>
       </c>
       <c r="AP71">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ71">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR71">
         <v>1.95</v>
@@ -16149,7 +16185,7 @@
         <v>159</v>
       </c>
       <c r="P72" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16355,7 +16391,7 @@
         <v>160</v>
       </c>
       <c r="P73" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16767,7 +16803,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16845,7 +16881,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ75">
         <v>1.43</v>
@@ -16973,7 +17009,7 @@
         <v>162</v>
       </c>
       <c r="P76" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q76">
         <v>3.1</v>
@@ -17179,7 +17215,7 @@
         <v>163</v>
       </c>
       <c r="P77" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17385,7 +17421,7 @@
         <v>164</v>
       </c>
       <c r="P78" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17463,10 +17499,10 @@
         <v>0</v>
       </c>
       <c r="AP78">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ78">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR78">
         <v>0.95</v>
@@ -17669,7 +17705,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ79">
         <v>0.5</v>
@@ -17797,7 +17833,7 @@
         <v>166</v>
       </c>
       <c r="P80" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -18209,7 +18245,7 @@
         <v>168</v>
       </c>
       <c r="P82" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18290,7 +18326,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ82">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR82">
         <v>1.3</v>
@@ -18493,7 +18529,7 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ83">
         <v>1.11</v>
@@ -18908,7 +18944,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ85">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR85">
         <v>1.75</v>
@@ -19114,7 +19150,7 @@
         <v>2</v>
       </c>
       <c r="AQ86">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR86">
         <v>1.69</v>
@@ -19239,7 +19275,7 @@
         <v>172</v>
       </c>
       <c r="P87" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q87">
         <v>2.2</v>
@@ -19317,10 +19353,10 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ87">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR87">
         <v>1.69</v>
@@ -19445,7 +19481,7 @@
         <v>173</v>
       </c>
       <c r="P88" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19523,7 +19559,7 @@
         <v>1.25</v>
       </c>
       <c r="AP88">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ88">
         <v>1.33</v>
@@ -19938,7 +19974,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR90">
         <v>1.72</v>
@@ -20063,7 +20099,7 @@
         <v>176</v>
       </c>
       <c r="P91" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -20141,7 +20177,7 @@
         <v>2.33</v>
       </c>
       <c r="AP91">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ91">
         <v>1.44</v>
@@ -20269,7 +20305,7 @@
         <v>177</v>
       </c>
       <c r="P92" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q92">
         <v>2.88</v>
@@ -20347,7 +20383,7 @@
         <v>0</v>
       </c>
       <c r="AP92">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ92">
         <v>0.5</v>
@@ -20553,7 +20589,7 @@
         <v>3</v>
       </c>
       <c r="AP93">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ93">
         <v>1.29</v>
@@ -20681,7 +20717,7 @@
         <v>179</v>
       </c>
       <c r="P94" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q94">
         <v>2.75</v>
@@ -20762,7 +20798,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ94">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR94">
         <v>1.29</v>
@@ -20887,7 +20923,7 @@
         <v>180</v>
       </c>
       <c r="P95" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q95">
         <v>3.1</v>
@@ -21174,7 +21210,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ96">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR96">
         <v>1.49</v>
@@ -21377,7 +21413,7 @@
         <v>1.4</v>
       </c>
       <c r="AP97">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ97">
         <v>0.89</v>
@@ -21505,7 +21541,7 @@
         <v>182</v>
       </c>
       <c r="P98" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21583,10 +21619,10 @@
         <v>1</v>
       </c>
       <c r="AP98">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ98">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR98">
         <v>1.65</v>
@@ -21711,7 +21747,7 @@
         <v>183</v>
       </c>
       <c r="P99" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -22201,7 +22237,7 @@
         <v>0.5</v>
       </c>
       <c r="AP101">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ101">
         <v>0.57</v>
@@ -22329,7 +22365,7 @@
         <v>185</v>
       </c>
       <c r="P102" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q102">
         <v>3.1</v>
@@ -22407,7 +22443,7 @@
         <v>2.33</v>
       </c>
       <c r="AP102">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ102">
         <v>2.38</v>
@@ -22535,7 +22571,7 @@
         <v>186</v>
       </c>
       <c r="P103" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q103">
         <v>2.3</v>
@@ -22741,7 +22777,7 @@
         <v>187</v>
       </c>
       <c r="P104" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22822,7 +22858,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ104">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR104">
         <v>1.9</v>
@@ -23153,7 +23189,7 @@
         <v>188</v>
       </c>
       <c r="P106" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23231,7 +23267,7 @@
         <v>1.33</v>
       </c>
       <c r="AP106">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ106">
         <v>2.13</v>
@@ -23359,7 +23395,7 @@
         <v>189</v>
       </c>
       <c r="P107" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q107">
         <v>2.75</v>
@@ -23771,7 +23807,7 @@
         <v>190</v>
       </c>
       <c r="P109" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q109">
         <v>2.6</v>
@@ -23977,7 +24013,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q110">
         <v>2.88</v>
@@ -24058,7 +24094,7 @@
         <v>1</v>
       </c>
       <c r="AQ110">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR110">
         <v>1.31</v>
@@ -24183,7 +24219,7 @@
         <v>191</v>
       </c>
       <c r="P111" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24595,7 +24631,7 @@
         <v>142</v>
       </c>
       <c r="P113" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24673,10 +24709,10 @@
         <v>1</v>
       </c>
       <c r="AP113">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ113">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR113">
         <v>1.35</v>
@@ -24801,7 +24837,7 @@
         <v>192</v>
       </c>
       <c r="P114" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q114">
         <v>1.91</v>
@@ -24879,10 +24915,10 @@
         <v>0.5</v>
       </c>
       <c r="AP114">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ114">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR114">
         <v>1.72</v>
@@ -25007,7 +25043,7 @@
         <v>193</v>
       </c>
       <c r="P115" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q115">
         <v>2.1</v>
@@ -25088,7 +25124,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ115">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR115">
         <v>1.63</v>
@@ -25419,7 +25455,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25706,7 +25742,7 @@
         <v>2</v>
       </c>
       <c r="AQ118">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR118">
         <v>1.77</v>
@@ -25831,7 +25867,7 @@
         <v>104</v>
       </c>
       <c r="P119" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q119">
         <v>2.88</v>
@@ -25909,10 +25945,10 @@
         <v>1.25</v>
       </c>
       <c r="AP119">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ119">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR119">
         <v>1.52</v>
@@ -26115,7 +26151,7 @@
         <v>0.33</v>
       </c>
       <c r="AP120">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ120">
         <v>0.86</v>
@@ -26243,7 +26279,7 @@
         <v>196</v>
       </c>
       <c r="P121" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Q121">
         <v>2.3</v>
@@ -26321,7 +26357,7 @@
         <v>0.67</v>
       </c>
       <c r="AP121">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ121">
         <v>0.67</v>
@@ -26530,7 +26566,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ122">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR122">
         <v>1.34</v>
@@ -26655,7 +26691,7 @@
         <v>198</v>
       </c>
       <c r="P123" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q123">
         <v>2.5</v>
@@ -26733,7 +26769,7 @@
         <v>1.6</v>
       </c>
       <c r="AP123">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ123">
         <v>1.33</v>
@@ -26861,7 +26897,7 @@
         <v>104</v>
       </c>
       <c r="P124" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -26939,10 +26975,10 @@
         <v>3</v>
       </c>
       <c r="AP124">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ124">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR124">
         <v>1.78</v>
@@ -27067,7 +27103,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q125">
         <v>2.6</v>
@@ -27148,7 +27184,7 @@
         <v>2</v>
       </c>
       <c r="AQ125">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR125">
         <v>1.42</v>
@@ -27273,7 +27309,7 @@
         <v>199</v>
       </c>
       <c r="P126" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q126">
         <v>2.05</v>
@@ -27351,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="AP126">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ126">
         <v>0.5</v>
@@ -27557,7 +27593,7 @@
         <v>2</v>
       </c>
       <c r="AP127">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ127">
         <v>1.44</v>
@@ -27685,7 +27721,7 @@
         <v>201</v>
       </c>
       <c r="P128" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -27891,7 +27927,7 @@
         <v>202</v>
       </c>
       <c r="P129" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="Q129">
         <v>2.5</v>
@@ -27969,10 +28005,10 @@
         <v>1.6</v>
       </c>
       <c r="AP129">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ129">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR129">
         <v>1.61</v>
@@ -28178,7 +28214,7 @@
         <v>2</v>
       </c>
       <c r="AQ130">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR130">
         <v>1.79</v>
@@ -28381,10 +28417,10 @@
         <v>3</v>
       </c>
       <c r="AP131">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ131">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR131">
         <v>1.71</v>
@@ -28999,10 +29035,10 @@
         <v>1.6</v>
       </c>
       <c r="AP134">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ134">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR134">
         <v>1.41</v>
@@ -29127,7 +29163,7 @@
         <v>206</v>
       </c>
       <c r="P135" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29617,10 +29653,10 @@
         <v>0.33</v>
       </c>
       <c r="AP137">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ137">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR137">
         <v>1.51</v>
@@ -29951,7 +29987,7 @@
         <v>119</v>
       </c>
       <c r="P139" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -30157,7 +30193,7 @@
         <v>209</v>
       </c>
       <c r="P140" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -30235,10 +30271,10 @@
         <v>1</v>
       </c>
       <c r="AP140">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ140">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR140">
         <v>2</v>
@@ -30363,7 +30399,7 @@
         <v>210</v>
       </c>
       <c r="P141" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30441,7 +30477,7 @@
         <v>0.2</v>
       </c>
       <c r="AP141">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ141">
         <v>1.11</v>
@@ -30569,7 +30605,7 @@
         <v>211</v>
       </c>
       <c r="P142" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30650,7 +30686,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ142">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR142">
         <v>1.86</v>
@@ -30856,7 +30892,7 @@
         <v>2</v>
       </c>
       <c r="AQ143">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR143">
         <v>1.31</v>
@@ -30981,7 +31017,7 @@
         <v>213</v>
       </c>
       <c r="P144" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="Q144">
         <v>2.88</v>
@@ -31187,7 +31223,7 @@
         <v>214</v>
       </c>
       <c r="P145" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="Q145">
         <v>2.38</v>
@@ -31265,7 +31301,7 @@
         <v>1.5</v>
       </c>
       <c r="AP145">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ145">
         <v>1.33</v>
@@ -31886,7 +31922,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ148">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR148">
         <v>1.55</v>
@@ -32089,7 +32125,7 @@
         <v>0.75</v>
       </c>
       <c r="AP149">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ149">
         <v>0.67</v>
@@ -32217,7 +32253,7 @@
         <v>217</v>
       </c>
       <c r="P150" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32501,7 +32537,7 @@
         <v>0</v>
       </c>
       <c r="AP151">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ151">
         <v>0.5</v>
@@ -33041,7 +33077,7 @@
         <v>104</v>
       </c>
       <c r="P154" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="Q154">
         <v>2.4</v>
@@ -33122,7 +33158,7 @@
         <v>2</v>
       </c>
       <c r="AQ154">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR154">
         <v>1.8</v>
@@ -33325,7 +33361,7 @@
         <v>1.67</v>
       </c>
       <c r="AP155">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ155">
         <v>1.44</v>
@@ -33453,7 +33489,7 @@
         <v>219</v>
       </c>
       <c r="P156" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33534,7 +33570,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ156">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR156">
         <v>1.86</v>
@@ -33740,7 +33776,7 @@
         <v>2</v>
       </c>
       <c r="AQ157">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR157">
         <v>1.3</v>
@@ -33865,7 +33901,7 @@
         <v>221</v>
       </c>
       <c r="P158" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -33943,7 +33979,7 @@
         <v>2</v>
       </c>
       <c r="AP158">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ158">
         <v>2.13</v>
@@ -34071,7 +34107,7 @@
         <v>222</v>
       </c>
       <c r="P159" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="Q159">
         <v>2.1</v>
@@ -34149,7 +34185,7 @@
         <v>0.6</v>
       </c>
       <c r="AP159">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ159">
         <v>0.5</v>
@@ -34277,7 +34313,7 @@
         <v>223</v>
       </c>
       <c r="P160" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="Q160">
         <v>2.5</v>
@@ -34355,10 +34391,10 @@
         <v>1</v>
       </c>
       <c r="AP160">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ160">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR160">
         <v>1.52</v>
@@ -34483,7 +34519,7 @@
         <v>224</v>
       </c>
       <c r="P161" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Q161">
         <v>3.4</v>
@@ -34689,7 +34725,7 @@
         <v>162</v>
       </c>
       <c r="P162" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -35101,7 +35137,7 @@
         <v>226</v>
       </c>
       <c r="P164" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="Q164">
         <v>2.75</v>
@@ -35179,7 +35215,7 @@
         <v>1.5</v>
       </c>
       <c r="AP164">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ164">
         <v>1.29</v>
@@ -35307,7 +35343,7 @@
         <v>227</v>
       </c>
       <c r="P165" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="Q165">
         <v>2.3</v>
@@ -35513,7 +35549,7 @@
         <v>228</v>
       </c>
       <c r="P166" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="Q166">
         <v>2.3</v>
@@ -35719,7 +35755,7 @@
         <v>229</v>
       </c>
       <c r="P167" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="Q167">
         <v>2.5</v>
@@ -35797,10 +35833,10 @@
         <v>1.83</v>
       </c>
       <c r="AP167">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ167">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR167">
         <v>1.69</v>
@@ -36003,10 +36039,10 @@
         <v>2.5</v>
       </c>
       <c r="AP168">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ168">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR168">
         <v>2.08</v>
@@ -36131,7 +36167,7 @@
         <v>231</v>
       </c>
       <c r="P169" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="Q169">
         <v>3.2</v>
@@ -36415,10 +36451,10 @@
         <v>0.5</v>
       </c>
       <c r="AP170">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ170">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR170">
         <v>1.59</v>
@@ -36543,7 +36579,7 @@
         <v>232</v>
       </c>
       <c r="P171" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="Q171">
         <v>3.1</v>
@@ -36749,7 +36785,7 @@
         <v>233</v>
       </c>
       <c r="P172" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -36827,7 +36863,7 @@
         <v>0.75</v>
       </c>
       <c r="AP172">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ172">
         <v>1.71</v>
@@ -37161,7 +37197,7 @@
         <v>121</v>
       </c>
       <c r="P174" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="Q174">
         <v>2.5</v>
@@ -37239,7 +37275,7 @@
         <v>0.8</v>
       </c>
       <c r="AP174">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ174">
         <v>1.43</v>
@@ -37445,7 +37481,7 @@
         <v>1.8</v>
       </c>
       <c r="AP175">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ175">
         <v>1.29</v>
@@ -37573,7 +37609,7 @@
         <v>104</v>
       </c>
       <c r="P176" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="Q176">
         <v>2.75</v>
@@ -37651,10 +37687,10 @@
         <v>0.2</v>
       </c>
       <c r="AP176">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ176">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR176">
         <v>1.41</v>
@@ -37779,7 +37815,7 @@
         <v>234</v>
       </c>
       <c r="P177" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="Q177">
         <v>2.63</v>
@@ -38191,7 +38227,7 @@
         <v>104</v>
       </c>
       <c r="P179" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="Q179">
         <v>3.1</v>
@@ -38478,7 +38514,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ180">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR180">
         <v>1.4</v>
@@ -38809,7 +38845,7 @@
         <v>237</v>
       </c>
       <c r="P182" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="Q182">
         <v>2.3</v>
@@ -39015,7 +39051,7 @@
         <v>139</v>
       </c>
       <c r="P183" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="Q183">
         <v>2.75</v>
@@ -39096,7 +39132,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ183">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR183">
         <v>1.28</v>
@@ -39427,7 +39463,7 @@
         <v>238</v>
       </c>
       <c r="P185" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="Q185">
         <v>2.3</v>
@@ -39505,7 +39541,7 @@
         <v>0.8</v>
       </c>
       <c r="AP185">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ185">
         <v>0.67</v>
@@ -39633,7 +39669,7 @@
         <v>104</v>
       </c>
       <c r="P186" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="Q186">
         <v>3.2</v>
@@ -40045,7 +40081,7 @@
         <v>240</v>
       </c>
       <c r="P188" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="Q188">
         <v>2.75</v>
@@ -40329,10 +40365,10 @@
         <v>1.17</v>
       </c>
       <c r="AP189">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ189">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR189">
         <v>1.64</v>
@@ -40457,7 +40493,7 @@
         <v>241</v>
       </c>
       <c r="P190" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="Q190">
         <v>2.25</v>
@@ -40538,7 +40574,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ190">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR190">
         <v>1.76</v>
@@ -40741,10 +40777,10 @@
         <v>0.2</v>
       </c>
       <c r="AP191">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ191">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR191">
         <v>1.77</v>
@@ -40869,7 +40905,7 @@
         <v>243</v>
       </c>
       <c r="P192" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="Q192">
         <v>2.63</v>
@@ -40947,7 +40983,7 @@
         <v>1</v>
       </c>
       <c r="AP192">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ192">
         <v>0.71</v>
@@ -41075,7 +41111,7 @@
         <v>244</v>
       </c>
       <c r="P193" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -41153,7 +41189,7 @@
         <v>1.2</v>
       </c>
       <c r="AP193">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ193">
         <v>1.71</v>
@@ -41281,7 +41317,7 @@
         <v>245</v>
       </c>
       <c r="P194" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="Q194">
         <v>2.3</v>
@@ -41362,7 +41398,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ194">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR194">
         <v>1.51</v>
@@ -41568,7 +41604,7 @@
         <v>1</v>
       </c>
       <c r="AQ195">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR195">
         <v>1.38</v>
@@ -41771,10 +41807,10 @@
         <v>1.67</v>
       </c>
       <c r="AP196">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ196">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR196">
         <v>1.58</v>
@@ -42105,7 +42141,7 @@
         <v>246</v>
       </c>
       <c r="P198" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="Q198">
         <v>3.3</v>
@@ -42311,7 +42347,7 @@
         <v>104</v>
       </c>
       <c r="P199" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="Q199">
         <v>2.51</v>
@@ -42595,10 +42631,10 @@
         <v>0.25</v>
       </c>
       <c r="AP200">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ200">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR200">
         <v>1.35</v>
@@ -42723,7 +42759,7 @@
         <v>104</v>
       </c>
       <c r="P201" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q201">
         <v>2.88</v>
@@ -43135,7 +43171,7 @@
         <v>247</v>
       </c>
       <c r="P203" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="Q203">
         <v>2.16</v>
@@ -43341,7 +43377,7 @@
         <v>248</v>
       </c>
       <c r="P204" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="Q204">
         <v>3.4</v>
@@ -43422,7 +43458,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ204">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR204">
         <v>1.54</v>
@@ -43547,7 +43583,7 @@
         <v>211</v>
       </c>
       <c r="P205" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="Q205">
         <v>2.88</v>
@@ -43753,7 +43789,7 @@
         <v>249</v>
       </c>
       <c r="P206" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="Q206">
         <v>2.5</v>
@@ -43834,7 +43870,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ206">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR206">
         <v>1.47</v>
@@ -43959,7 +43995,7 @@
         <v>250</v>
       </c>
       <c r="P207" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="Q207">
         <v>3</v>
@@ -44165,7 +44201,7 @@
         <v>251</v>
       </c>
       <c r="P208" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="Q208">
         <v>2.38</v>
@@ -44243,7 +44279,7 @@
         <v>1.5</v>
       </c>
       <c r="AP208">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ208">
         <v>1.29</v>
@@ -44577,7 +44613,7 @@
         <v>123</v>
       </c>
       <c r="P210" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="Q210">
         <v>2.3</v>
@@ -44734,6 +44770,2478 @@
       </c>
       <c r="BP210">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:68">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>7295450</v>
+      </c>
+      <c r="C211" t="s">
+        <v>68</v>
+      </c>
+      <c r="D211" t="s">
+        <v>69</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45441.85416666666</v>
+      </c>
+      <c r="F211">
+        <v>16</v>
+      </c>
+      <c r="G211" t="s">
+        <v>76</v>
+      </c>
+      <c r="H211" t="s">
+        <v>95</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <v>0</v>
+      </c>
+      <c r="M211">
+        <v>0</v>
+      </c>
+      <c r="N211">
+        <v>0</v>
+      </c>
+      <c r="O211" t="s">
+        <v>104</v>
+      </c>
+      <c r="P211" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q211">
+        <v>2.1</v>
+      </c>
+      <c r="R211">
+        <v>2.4</v>
+      </c>
+      <c r="S211">
+        <v>5</v>
+      </c>
+      <c r="T211">
+        <v>1.29</v>
+      </c>
+      <c r="U211">
+        <v>3.5</v>
+      </c>
+      <c r="V211">
+        <v>2.38</v>
+      </c>
+      <c r="W211">
+        <v>1.53</v>
+      </c>
+      <c r="X211">
+        <v>5.5</v>
+      </c>
+      <c r="Y211">
+        <v>1.14</v>
+      </c>
+      <c r="Z211">
+        <v>1.61</v>
+      </c>
+      <c r="AA211">
+        <v>4.15</v>
+      </c>
+      <c r="AB211">
+        <v>5.2</v>
+      </c>
+      <c r="AC211">
+        <v>1.04</v>
+      </c>
+      <c r="AD211">
+        <v>10</v>
+      </c>
+      <c r="AE211">
+        <v>1.2</v>
+      </c>
+      <c r="AF211">
+        <v>4.33</v>
+      </c>
+      <c r="AG211">
+        <v>1.6</v>
+      </c>
+      <c r="AH211">
+        <v>2.2</v>
+      </c>
+      <c r="AI211">
+        <v>1.67</v>
+      </c>
+      <c r="AJ211">
+        <v>2.1</v>
+      </c>
+      <c r="AK211">
+        <v>1.14</v>
+      </c>
+      <c r="AL211">
+        <v>1.18</v>
+      </c>
+      <c r="AM211">
+        <v>2.38</v>
+      </c>
+      <c r="AN211">
+        <v>0.67</v>
+      </c>
+      <c r="AO211">
+        <v>1</v>
+      </c>
+      <c r="AP211">
+        <v>0.71</v>
+      </c>
+      <c r="AQ211">
+        <v>1</v>
+      </c>
+      <c r="AR211">
+        <v>1.78</v>
+      </c>
+      <c r="AS211">
+        <v>1.05</v>
+      </c>
+      <c r="AT211">
+        <v>2.83</v>
+      </c>
+      <c r="AU211">
+        <v>2</v>
+      </c>
+      <c r="AV211">
+        <v>4</v>
+      </c>
+      <c r="AW211">
+        <v>5</v>
+      </c>
+      <c r="AX211">
+        <v>6</v>
+      </c>
+      <c r="AY211">
+        <v>7</v>
+      </c>
+      <c r="AZ211">
+        <v>10</v>
+      </c>
+      <c r="BA211">
+        <v>5</v>
+      </c>
+      <c r="BB211">
+        <v>4</v>
+      </c>
+      <c r="BC211">
+        <v>9</v>
+      </c>
+      <c r="BD211">
+        <v>1.3</v>
+      </c>
+      <c r="BE211">
+        <v>9</v>
+      </c>
+      <c r="BF211">
+        <v>4.4</v>
+      </c>
+      <c r="BG211">
+        <v>1.22</v>
+      </c>
+      <c r="BH211">
+        <v>3.65</v>
+      </c>
+      <c r="BI211">
+        <v>1.49</v>
+      </c>
+      <c r="BJ211">
+        <v>2.68</v>
+      </c>
+      <c r="BK211">
+        <v>1.95</v>
+      </c>
+      <c r="BL211">
+        <v>1.77</v>
+      </c>
+      <c r="BM211">
+        <v>2.3</v>
+      </c>
+      <c r="BN211">
+        <v>1.65</v>
+      </c>
+      <c r="BO211">
+        <v>2.93</v>
+      </c>
+      <c r="BP211">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="212" spans="1:68">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>7295449</v>
+      </c>
+      <c r="C212" t="s">
+        <v>68</v>
+      </c>
+      <c r="D212" t="s">
+        <v>69</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45441.85416666666</v>
+      </c>
+      <c r="F212">
+        <v>16</v>
+      </c>
+      <c r="G212" t="s">
+        <v>97</v>
+      </c>
+      <c r="H212" t="s">
+        <v>73</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <v>3</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
+      </c>
+      <c r="N212">
+        <v>4</v>
+      </c>
+      <c r="O212" t="s">
+        <v>253</v>
+      </c>
+      <c r="P212" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q212">
+        <v>2.2</v>
+      </c>
+      <c r="R212">
+        <v>2.3</v>
+      </c>
+      <c r="S212">
+        <v>5.5</v>
+      </c>
+      <c r="T212">
+        <v>1.36</v>
+      </c>
+      <c r="U212">
+        <v>3</v>
+      </c>
+      <c r="V212">
+        <v>2.63</v>
+      </c>
+      <c r="W212">
+        <v>1.44</v>
+      </c>
+      <c r="X212">
+        <v>7</v>
+      </c>
+      <c r="Y212">
+        <v>1.1</v>
+      </c>
+      <c r="Z212">
+        <v>1.63</v>
+      </c>
+      <c r="AA212">
+        <v>3.95</v>
+      </c>
+      <c r="AB212">
+        <v>5.3</v>
+      </c>
+      <c r="AC212">
+        <v>1.04</v>
+      </c>
+      <c r="AD212">
+        <v>13.5</v>
+      </c>
+      <c r="AE212">
+        <v>1.26</v>
+      </c>
+      <c r="AF212">
+        <v>3.9</v>
+      </c>
+      <c r="AG212">
+        <v>1.88</v>
+      </c>
+      <c r="AH212">
+        <v>2</v>
+      </c>
+      <c r="AI212">
+        <v>1.8</v>
+      </c>
+      <c r="AJ212">
+        <v>1.95</v>
+      </c>
+      <c r="AK212">
+        <v>1.13</v>
+      </c>
+      <c r="AL212">
+        <v>1.2</v>
+      </c>
+      <c r="AM212">
+        <v>2.3</v>
+      </c>
+      <c r="AN212">
+        <v>2.2</v>
+      </c>
+      <c r="AO212">
+        <v>0.67</v>
+      </c>
+      <c r="AP212">
+        <v>2.33</v>
+      </c>
+      <c r="AQ212">
+        <v>0.57</v>
+      </c>
+      <c r="AR212">
+        <v>1.72</v>
+      </c>
+      <c r="AS212">
+        <v>1.21</v>
+      </c>
+      <c r="AT212">
+        <v>2.93</v>
+      </c>
+      <c r="AU212">
+        <v>7</v>
+      </c>
+      <c r="AV212">
+        <v>5</v>
+      </c>
+      <c r="AW212">
+        <v>4</v>
+      </c>
+      <c r="AX212">
+        <v>3</v>
+      </c>
+      <c r="AY212">
+        <v>11</v>
+      </c>
+      <c r="AZ212">
+        <v>8</v>
+      </c>
+      <c r="BA212">
+        <v>4</v>
+      </c>
+      <c r="BB212">
+        <v>3</v>
+      </c>
+      <c r="BC212">
+        <v>7</v>
+      </c>
+      <c r="BD212">
+        <v>1.5</v>
+      </c>
+      <c r="BE212">
+        <v>7.5</v>
+      </c>
+      <c r="BF212">
+        <v>3.2</v>
+      </c>
+      <c r="BG212">
+        <v>1.29</v>
+      </c>
+      <c r="BH212">
+        <v>3.14</v>
+      </c>
+      <c r="BI212">
+        <v>1.77</v>
+      </c>
+      <c r="BJ212">
+        <v>1.95</v>
+      </c>
+      <c r="BK212">
+        <v>2.1</v>
+      </c>
+      <c r="BL212">
+        <v>1.67</v>
+      </c>
+      <c r="BM212">
+        <v>2.56</v>
+      </c>
+      <c r="BN212">
+        <v>1.49</v>
+      </c>
+      <c r="BO212">
+        <v>3.48</v>
+      </c>
+      <c r="BP212">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="213" spans="1:68">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>7295448</v>
+      </c>
+      <c r="C213" t="s">
+        <v>68</v>
+      </c>
+      <c r="D213" t="s">
+        <v>69</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45441.85416666666</v>
+      </c>
+      <c r="F213">
+        <v>16</v>
+      </c>
+      <c r="G213" t="s">
+        <v>98</v>
+      </c>
+      <c r="H213" t="s">
+        <v>74</v>
+      </c>
+      <c r="I213">
+        <v>3</v>
+      </c>
+      <c r="J213">
+        <v>2</v>
+      </c>
+      <c r="K213">
+        <v>5</v>
+      </c>
+      <c r="L213">
+        <v>4</v>
+      </c>
+      <c r="M213">
+        <v>2</v>
+      </c>
+      <c r="N213">
+        <v>6</v>
+      </c>
+      <c r="O213" t="s">
+        <v>254</v>
+      </c>
+      <c r="P213" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q213">
+        <v>3</v>
+      </c>
+      <c r="R213">
+        <v>2.38</v>
+      </c>
+      <c r="S213">
+        <v>3.1</v>
+      </c>
+      <c r="T213">
+        <v>1.3</v>
+      </c>
+      <c r="U213">
+        <v>3.4</v>
+      </c>
+      <c r="V213">
+        <v>2.38</v>
+      </c>
+      <c r="W213">
+        <v>1.53</v>
+      </c>
+      <c r="X213">
+        <v>6</v>
+      </c>
+      <c r="Y213">
+        <v>1.13</v>
+      </c>
+      <c r="Z213">
+        <v>2.7</v>
+      </c>
+      <c r="AA213">
+        <v>3.48</v>
+      </c>
+      <c r="AB213">
+        <v>2.52</v>
+      </c>
+      <c r="AC213">
+        <v>1.03</v>
+      </c>
+      <c r="AD213">
+        <v>16</v>
+      </c>
+      <c r="AE213">
+        <v>1.19</v>
+      </c>
+      <c r="AF213">
+        <v>4.73</v>
+      </c>
+      <c r="AG213">
+        <v>1.55</v>
+      </c>
+      <c r="AH213">
+        <v>2.3</v>
+      </c>
+      <c r="AI213">
+        <v>1.5</v>
+      </c>
+      <c r="AJ213">
+        <v>2.5</v>
+      </c>
+      <c r="AK213">
+        <v>1.45</v>
+      </c>
+      <c r="AL213">
+        <v>1.25</v>
+      </c>
+      <c r="AM213">
+        <v>1.5</v>
+      </c>
+      <c r="AN213">
+        <v>1</v>
+      </c>
+      <c r="AO213">
+        <v>1</v>
+      </c>
+      <c r="AP213">
+        <v>1.33</v>
+      </c>
+      <c r="AQ213">
+        <v>0.88</v>
+      </c>
+      <c r="AR213">
+        <v>1.19</v>
+      </c>
+      <c r="AS213">
+        <v>1.41</v>
+      </c>
+      <c r="AT213">
+        <v>2.6</v>
+      </c>
+      <c r="AU213">
+        <v>7</v>
+      </c>
+      <c r="AV213">
+        <v>5</v>
+      </c>
+      <c r="AW213">
+        <v>4</v>
+      </c>
+      <c r="AX213">
+        <v>3</v>
+      </c>
+      <c r="AY213">
+        <v>11</v>
+      </c>
+      <c r="AZ213">
+        <v>8</v>
+      </c>
+      <c r="BA213">
+        <v>4</v>
+      </c>
+      <c r="BB213">
+        <v>2</v>
+      </c>
+      <c r="BC213">
+        <v>6</v>
+      </c>
+      <c r="BD213">
+        <v>1.9</v>
+      </c>
+      <c r="BE213">
+        <v>7.8</v>
+      </c>
+      <c r="BF213">
+        <v>2.2</v>
+      </c>
+      <c r="BG213">
+        <v>1.24</v>
+      </c>
+      <c r="BH213">
+        <v>3.48</v>
+      </c>
+      <c r="BI213">
+        <v>1.52</v>
+      </c>
+      <c r="BJ213">
+        <v>2.56</v>
+      </c>
+      <c r="BK213">
+        <v>1.95</v>
+      </c>
+      <c r="BL213">
+        <v>1.77</v>
+      </c>
+      <c r="BM213">
+        <v>2.38</v>
+      </c>
+      <c r="BN213">
+        <v>1.59</v>
+      </c>
+      <c r="BO213">
+        <v>3.14</v>
+      </c>
+      <c r="BP213">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="214" spans="1:68">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>7295445</v>
+      </c>
+      <c r="C214" t="s">
+        <v>68</v>
+      </c>
+      <c r="D214" t="s">
+        <v>69</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45441.85416666666</v>
+      </c>
+      <c r="F214">
+        <v>16</v>
+      </c>
+      <c r="G214" t="s">
+        <v>82</v>
+      </c>
+      <c r="H214" t="s">
+        <v>83</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>2</v>
+      </c>
+      <c r="K214">
+        <v>2</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+      <c r="M214">
+        <v>2</v>
+      </c>
+      <c r="N214">
+        <v>2</v>
+      </c>
+      <c r="O214" t="s">
+        <v>104</v>
+      </c>
+      <c r="P214" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q214">
+        <v>2.4</v>
+      </c>
+      <c r="R214">
+        <v>2.25</v>
+      </c>
+      <c r="S214">
+        <v>4.5</v>
+      </c>
+      <c r="T214">
+        <v>1.36</v>
+      </c>
+      <c r="U214">
+        <v>3</v>
+      </c>
+      <c r="V214">
+        <v>2.75</v>
+      </c>
+      <c r="W214">
+        <v>1.4</v>
+      </c>
+      <c r="X214">
+        <v>7</v>
+      </c>
+      <c r="Y214">
+        <v>1.1</v>
+      </c>
+      <c r="Z214">
+        <v>1.69</v>
+      </c>
+      <c r="AA214">
+        <v>3.75</v>
+      </c>
+      <c r="AB214">
+        <v>5.1</v>
+      </c>
+      <c r="AC214">
+        <v>1.05</v>
+      </c>
+      <c r="AD214">
+        <v>12</v>
+      </c>
+      <c r="AE214">
+        <v>1.27</v>
+      </c>
+      <c r="AF214">
+        <v>3.8</v>
+      </c>
+      <c r="AG214">
+        <v>1.9</v>
+      </c>
+      <c r="AH214">
+        <v>1.98</v>
+      </c>
+      <c r="AI214">
+        <v>1.75</v>
+      </c>
+      <c r="AJ214">
+        <v>2</v>
+      </c>
+      <c r="AK214">
+        <v>1.22</v>
+      </c>
+      <c r="AL214">
+        <v>1.3</v>
+      </c>
+      <c r="AM214">
+        <v>1.95</v>
+      </c>
+      <c r="AN214">
+        <v>2</v>
+      </c>
+      <c r="AO214">
+        <v>0.4</v>
+      </c>
+      <c r="AP214">
+        <v>1.75</v>
+      </c>
+      <c r="AQ214">
+        <v>0.83</v>
+      </c>
+      <c r="AR214">
+        <v>1.42</v>
+      </c>
+      <c r="AS214">
+        <v>0.97</v>
+      </c>
+      <c r="AT214">
+        <v>2.39</v>
+      </c>
+      <c r="AU214">
+        <v>7</v>
+      </c>
+      <c r="AV214">
+        <v>4</v>
+      </c>
+      <c r="AW214">
+        <v>11</v>
+      </c>
+      <c r="AX214">
+        <v>5</v>
+      </c>
+      <c r="AY214">
+        <v>18</v>
+      </c>
+      <c r="AZ214">
+        <v>9</v>
+      </c>
+      <c r="BA214">
+        <v>8</v>
+      </c>
+      <c r="BB214">
+        <v>4</v>
+      </c>
+      <c r="BC214">
+        <v>12</v>
+      </c>
+      <c r="BD214">
+        <v>1.45</v>
+      </c>
+      <c r="BE214">
+        <v>8</v>
+      </c>
+      <c r="BF214">
+        <v>3.4</v>
+      </c>
+      <c r="BG214">
+        <v>1.21</v>
+      </c>
+      <c r="BH214">
+        <v>3.74</v>
+      </c>
+      <c r="BI214">
+        <v>1.46</v>
+      </c>
+      <c r="BJ214">
+        <v>2.59</v>
+      </c>
+      <c r="BK214">
+        <v>1.8</v>
+      </c>
+      <c r="BL214">
+        <v>1.9</v>
+      </c>
+      <c r="BM214">
+        <v>2.24</v>
+      </c>
+      <c r="BN214">
+        <v>1.61</v>
+      </c>
+      <c r="BO214">
+        <v>2.93</v>
+      </c>
+      <c r="BP214">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="215" spans="1:68">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>7295447</v>
+      </c>
+      <c r="C215" t="s">
+        <v>68</v>
+      </c>
+      <c r="D215" t="s">
+        <v>69</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45441.85416666666</v>
+      </c>
+      <c r="F215">
+        <v>16</v>
+      </c>
+      <c r="G215" t="s">
+        <v>70</v>
+      </c>
+      <c r="H215" t="s">
+        <v>96</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>1</v>
+      </c>
+      <c r="K215">
+        <v>1</v>
+      </c>
+      <c r="L215">
+        <v>1</v>
+      </c>
+      <c r="M215">
+        <v>3</v>
+      </c>
+      <c r="N215">
+        <v>4</v>
+      </c>
+      <c r="O215" t="s">
+        <v>145</v>
+      </c>
+      <c r="P215" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q215">
+        <v>2.05</v>
+      </c>
+      <c r="R215">
+        <v>2.6</v>
+      </c>
+      <c r="S215">
+        <v>4.75</v>
+      </c>
+      <c r="T215">
+        <v>1.22</v>
+      </c>
+      <c r="U215">
+        <v>4</v>
+      </c>
+      <c r="V215">
+        <v>2.1</v>
+      </c>
+      <c r="W215">
+        <v>1.67</v>
+      </c>
+      <c r="X215">
+        <v>4.5</v>
+      </c>
+      <c r="Y215">
+        <v>1.18</v>
+      </c>
+      <c r="Z215">
+        <v>1.46</v>
+      </c>
+      <c r="AA215">
+        <v>5.05</v>
+      </c>
+      <c r="AB215">
+        <v>5.8</v>
+      </c>
+      <c r="AC215">
+        <v>1.02</v>
+      </c>
+      <c r="AD215">
+        <v>23.5</v>
+      </c>
+      <c r="AE215">
+        <v>1.14</v>
+      </c>
+      <c r="AF215">
+        <v>5.7</v>
+      </c>
+      <c r="AG215">
+        <v>1.61</v>
+      </c>
+      <c r="AH215">
+        <v>2.15</v>
+      </c>
+      <c r="AI215">
+        <v>1.53</v>
+      </c>
+      <c r="AJ215">
+        <v>2.38</v>
+      </c>
+      <c r="AK215">
+        <v>1.17</v>
+      </c>
+      <c r="AL215">
+        <v>1.17</v>
+      </c>
+      <c r="AM215">
+        <v>2.3</v>
+      </c>
+      <c r="AN215">
+        <v>2.13</v>
+      </c>
+      <c r="AO215">
+        <v>0.5</v>
+      </c>
+      <c r="AP215">
+        <v>1.89</v>
+      </c>
+      <c r="AQ215">
+        <v>0.86</v>
+      </c>
+      <c r="AR215">
+        <v>1.56</v>
+      </c>
+      <c r="AS215">
+        <v>1.31</v>
+      </c>
+      <c r="AT215">
+        <v>2.87</v>
+      </c>
+      <c r="AU215">
+        <v>6</v>
+      </c>
+      <c r="AV215">
+        <v>9</v>
+      </c>
+      <c r="AW215">
+        <v>1</v>
+      </c>
+      <c r="AX215">
+        <v>9</v>
+      </c>
+      <c r="AY215">
+        <v>7</v>
+      </c>
+      <c r="AZ215">
+        <v>18</v>
+      </c>
+      <c r="BA215">
+        <v>4</v>
+      </c>
+      <c r="BB215">
+        <v>5</v>
+      </c>
+      <c r="BC215">
+        <v>9</v>
+      </c>
+      <c r="BD215">
+        <v>1.65</v>
+      </c>
+      <c r="BE215">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF215">
+        <v>2.64</v>
+      </c>
+      <c r="BG215">
+        <v>1.23</v>
+      </c>
+      <c r="BH215">
+        <v>3.56</v>
+      </c>
+      <c r="BI215">
+        <v>1.5</v>
+      </c>
+      <c r="BJ215">
+        <v>2.62</v>
+      </c>
+      <c r="BK215">
+        <v>2</v>
+      </c>
+      <c r="BL215">
+        <v>1.73</v>
+      </c>
+      <c r="BM215">
+        <v>2.32</v>
+      </c>
+      <c r="BN215">
+        <v>1.62</v>
+      </c>
+      <c r="BO215">
+        <v>3.04</v>
+      </c>
+      <c r="BP215">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="216" spans="1:68">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>7295451</v>
+      </c>
+      <c r="C216" t="s">
+        <v>68</v>
+      </c>
+      <c r="D216" t="s">
+        <v>69</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45441.89583333334</v>
+      </c>
+      <c r="F216">
+        <v>16</v>
+      </c>
+      <c r="G216" t="s">
+        <v>77</v>
+      </c>
+      <c r="H216" t="s">
+        <v>81</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>1</v>
+      </c>
+      <c r="K216">
+        <v>1</v>
+      </c>
+      <c r="L216">
+        <v>0</v>
+      </c>
+      <c r="M216">
+        <v>2</v>
+      </c>
+      <c r="N216">
+        <v>2</v>
+      </c>
+      <c r="O216" t="s">
+        <v>104</v>
+      </c>
+      <c r="P216" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q216">
+        <v>2.5</v>
+      </c>
+      <c r="R216">
+        <v>2.3</v>
+      </c>
+      <c r="S216">
+        <v>4</v>
+      </c>
+      <c r="T216">
+        <v>1.3</v>
+      </c>
+      <c r="U216">
+        <v>3.4</v>
+      </c>
+      <c r="V216">
+        <v>2.5</v>
+      </c>
+      <c r="W216">
+        <v>1.5</v>
+      </c>
+      <c r="X216">
+        <v>6</v>
+      </c>
+      <c r="Y216">
+        <v>1.13</v>
+      </c>
+      <c r="Z216">
+        <v>2.08</v>
+      </c>
+      <c r="AA216">
+        <v>3.64</v>
+      </c>
+      <c r="AB216">
+        <v>3.34</v>
+      </c>
+      <c r="AC216">
+        <v>1.03</v>
+      </c>
+      <c r="AD216">
+        <v>15</v>
+      </c>
+      <c r="AE216">
+        <v>1.17</v>
+      </c>
+      <c r="AF216">
+        <v>4.2</v>
+      </c>
+      <c r="AG216">
+        <v>1.61</v>
+      </c>
+      <c r="AH216">
+        <v>2.15</v>
+      </c>
+      <c r="AI216">
+        <v>1.57</v>
+      </c>
+      <c r="AJ216">
+        <v>2.25</v>
+      </c>
+      <c r="AK216">
+        <v>1.3</v>
+      </c>
+      <c r="AL216">
+        <v>1.25</v>
+      </c>
+      <c r="AM216">
+        <v>1.85</v>
+      </c>
+      <c r="AN216">
+        <v>2.13</v>
+      </c>
+      <c r="AO216">
+        <v>0.63</v>
+      </c>
+      <c r="AP216">
+        <v>1.89</v>
+      </c>
+      <c r="AQ216">
+        <v>0.89</v>
+      </c>
+      <c r="AR216">
+        <v>1.32</v>
+      </c>
+      <c r="AS216">
+        <v>1.18</v>
+      </c>
+      <c r="AT216">
+        <v>2.5</v>
+      </c>
+      <c r="AU216">
+        <v>4</v>
+      </c>
+      <c r="AV216">
+        <v>4</v>
+      </c>
+      <c r="AW216">
+        <v>5</v>
+      </c>
+      <c r="AX216">
+        <v>2</v>
+      </c>
+      <c r="AY216">
+        <v>9</v>
+      </c>
+      <c r="AZ216">
+        <v>6</v>
+      </c>
+      <c r="BA216">
+        <v>3</v>
+      </c>
+      <c r="BB216">
+        <v>3</v>
+      </c>
+      <c r="BC216">
+        <v>6</v>
+      </c>
+      <c r="BD216">
+        <v>1.65</v>
+      </c>
+      <c r="BE216">
+        <v>8</v>
+      </c>
+      <c r="BF216">
+        <v>2.65</v>
+      </c>
+      <c r="BG216">
+        <v>1.17</v>
+      </c>
+      <c r="BH216">
+        <v>4.25</v>
+      </c>
+      <c r="BI216">
+        <v>1.34</v>
+      </c>
+      <c r="BJ216">
+        <v>2.88</v>
+      </c>
+      <c r="BK216">
+        <v>1.77</v>
+      </c>
+      <c r="BL216">
+        <v>1.95</v>
+      </c>
+      <c r="BM216">
+        <v>1.95</v>
+      </c>
+      <c r="BN216">
+        <v>1.77</v>
+      </c>
+      <c r="BO216">
+        <v>2.65</v>
+      </c>
+      <c r="BP216">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="217" spans="1:68">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>7295452</v>
+      </c>
+      <c r="C217" t="s">
+        <v>68</v>
+      </c>
+      <c r="D217" t="s">
+        <v>69</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45441.89583333334</v>
+      </c>
+      <c r="F217">
+        <v>16</v>
+      </c>
+      <c r="G217" t="s">
+        <v>88</v>
+      </c>
+      <c r="H217" t="s">
+        <v>75</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>1</v>
+      </c>
+      <c r="K217">
+        <v>1</v>
+      </c>
+      <c r="L217">
+        <v>1</v>
+      </c>
+      <c r="M217">
+        <v>1</v>
+      </c>
+      <c r="N217">
+        <v>2</v>
+      </c>
+      <c r="O217" t="s">
+        <v>189</v>
+      </c>
+      <c r="P217" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q217">
+        <v>3</v>
+      </c>
+      <c r="R217">
+        <v>2.2</v>
+      </c>
+      <c r="S217">
+        <v>3.4</v>
+      </c>
+      <c r="T217">
+        <v>1.36</v>
+      </c>
+      <c r="U217">
+        <v>3</v>
+      </c>
+      <c r="V217">
+        <v>2.63</v>
+      </c>
+      <c r="W217">
+        <v>1.44</v>
+      </c>
+      <c r="X217">
+        <v>7</v>
+      </c>
+      <c r="Y217">
+        <v>1.1</v>
+      </c>
+      <c r="Z217">
+        <v>2.62</v>
+      </c>
+      <c r="AA217">
+        <v>3.4</v>
+      </c>
+      <c r="AB217">
+        <v>2.64</v>
+      </c>
+      <c r="AC217">
+        <v>1.01</v>
+      </c>
+      <c r="AD217">
+        <v>12.5</v>
+      </c>
+      <c r="AE217">
+        <v>1.25</v>
+      </c>
+      <c r="AF217">
+        <v>4</v>
+      </c>
+      <c r="AG217">
+        <v>1.86</v>
+      </c>
+      <c r="AH217">
+        <v>1.98</v>
+      </c>
+      <c r="AI217">
+        <v>1.67</v>
+      </c>
+      <c r="AJ217">
+        <v>2.1</v>
+      </c>
+      <c r="AK217">
+        <v>1.42</v>
+      </c>
+      <c r="AL217">
+        <v>1.26</v>
+      </c>
+      <c r="AM217">
+        <v>1.62</v>
+      </c>
+      <c r="AN217">
+        <v>0.88</v>
+      </c>
+      <c r="AO217">
+        <v>1.67</v>
+      </c>
+      <c r="AP217">
+        <v>0.89</v>
+      </c>
+      <c r="AQ217">
+        <v>1.57</v>
+      </c>
+      <c r="AR217">
+        <v>1.37</v>
+      </c>
+      <c r="AS217">
+        <v>1.28</v>
+      </c>
+      <c r="AT217">
+        <v>2.65</v>
+      </c>
+      <c r="AU217">
+        <v>4</v>
+      </c>
+      <c r="AV217">
+        <v>3</v>
+      </c>
+      <c r="AW217">
+        <v>13</v>
+      </c>
+      <c r="AX217">
+        <v>2</v>
+      </c>
+      <c r="AY217">
+        <v>17</v>
+      </c>
+      <c r="AZ217">
+        <v>5</v>
+      </c>
+      <c r="BA217">
+        <v>6</v>
+      </c>
+      <c r="BB217">
+        <v>4</v>
+      </c>
+      <c r="BC217">
+        <v>10</v>
+      </c>
+      <c r="BD217">
+        <v>2.15</v>
+      </c>
+      <c r="BE217">
+        <v>7.8</v>
+      </c>
+      <c r="BF217">
+        <v>1.93</v>
+      </c>
+      <c r="BG217">
+        <v>1.21</v>
+      </c>
+      <c r="BH217">
+        <v>3.74</v>
+      </c>
+      <c r="BI217">
+        <v>1.46</v>
+      </c>
+      <c r="BJ217">
+        <v>2.76</v>
+      </c>
+      <c r="BK217">
+        <v>1.9</v>
+      </c>
+      <c r="BL217">
+        <v>1.8</v>
+      </c>
+      <c r="BM217">
+        <v>2.2</v>
+      </c>
+      <c r="BN217">
+        <v>1.67</v>
+      </c>
+      <c r="BO217">
+        <v>2.88</v>
+      </c>
+      <c r="BP217">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="218" spans="1:68">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>7295453</v>
+      </c>
+      <c r="C218" t="s">
+        <v>68</v>
+      </c>
+      <c r="D218" t="s">
+        <v>69</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45441.89583333334</v>
+      </c>
+      <c r="F218">
+        <v>16</v>
+      </c>
+      <c r="G218" t="s">
+        <v>79</v>
+      </c>
+      <c r="H218" t="s">
+        <v>90</v>
+      </c>
+      <c r="I218">
+        <v>1</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>1</v>
+      </c>
+      <c r="L218">
+        <v>3</v>
+      </c>
+      <c r="M218">
+        <v>1</v>
+      </c>
+      <c r="N218">
+        <v>4</v>
+      </c>
+      <c r="O218" t="s">
+        <v>255</v>
+      </c>
+      <c r="P218" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q218">
+        <v>2.6</v>
+      </c>
+      <c r="R218">
+        <v>2.3</v>
+      </c>
+      <c r="S218">
+        <v>3.75</v>
+      </c>
+      <c r="T218">
+        <v>1.3</v>
+      </c>
+      <c r="U218">
+        <v>3.4</v>
+      </c>
+      <c r="V218">
+        <v>2.5</v>
+      </c>
+      <c r="W218">
+        <v>1.5</v>
+      </c>
+      <c r="X218">
+        <v>6</v>
+      </c>
+      <c r="Y218">
+        <v>1.13</v>
+      </c>
+      <c r="Z218">
+        <v>2.07</v>
+      </c>
+      <c r="AA218">
+        <v>3.56</v>
+      </c>
+      <c r="AB218">
+        <v>3.44</v>
+      </c>
+      <c r="AC218">
+        <v>1.03</v>
+      </c>
+      <c r="AD218">
+        <v>13</v>
+      </c>
+      <c r="AE218">
+        <v>1.22</v>
+      </c>
+      <c r="AF218">
+        <v>4.33</v>
+      </c>
+      <c r="AG218">
+        <v>1.61</v>
+      </c>
+      <c r="AH218">
+        <v>2.15</v>
+      </c>
+      <c r="AI218">
+        <v>1.57</v>
+      </c>
+      <c r="AJ218">
+        <v>2.25</v>
+      </c>
+      <c r="AK218">
+        <v>1.3</v>
+      </c>
+      <c r="AL218">
+        <v>1.25</v>
+      </c>
+      <c r="AM218">
+        <v>1.83</v>
+      </c>
+      <c r="AN218">
+        <v>1.29</v>
+      </c>
+      <c r="AO218">
+        <v>1.38</v>
+      </c>
+      <c r="AP218">
+        <v>1.5</v>
+      </c>
+      <c r="AQ218">
+        <v>1.22</v>
+      </c>
+      <c r="AR218">
+        <v>1.84</v>
+      </c>
+      <c r="AS218">
+        <v>1.37</v>
+      </c>
+      <c r="AT218">
+        <v>3.21</v>
+      </c>
+      <c r="AU218">
+        <v>7</v>
+      </c>
+      <c r="AV218">
+        <v>11</v>
+      </c>
+      <c r="AW218">
+        <v>3</v>
+      </c>
+      <c r="AX218">
+        <v>4</v>
+      </c>
+      <c r="AY218">
+        <v>10</v>
+      </c>
+      <c r="AZ218">
+        <v>15</v>
+      </c>
+      <c r="BA218">
+        <v>3</v>
+      </c>
+      <c r="BB218">
+        <v>6</v>
+      </c>
+      <c r="BC218">
+        <v>9</v>
+      </c>
+      <c r="BD218">
+        <v>1.82</v>
+      </c>
+      <c r="BE218">
+        <v>8.9</v>
+      </c>
+      <c r="BF218">
+        <v>2.32</v>
+      </c>
+      <c r="BG218">
+        <v>1.23</v>
+      </c>
+      <c r="BH218">
+        <v>3.56</v>
+      </c>
+      <c r="BI218">
+        <v>1.47</v>
+      </c>
+      <c r="BJ218">
+        <v>2.54</v>
+      </c>
+      <c r="BK218">
+        <v>2</v>
+      </c>
+      <c r="BL218">
+        <v>1.73</v>
+      </c>
+      <c r="BM218">
+        <v>2.25</v>
+      </c>
+      <c r="BN218">
+        <v>1.6</v>
+      </c>
+      <c r="BO218">
+        <v>3.04</v>
+      </c>
+      <c r="BP218">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="219" spans="1:68">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>7295454</v>
+      </c>
+      <c r="C219" t="s">
+        <v>68</v>
+      </c>
+      <c r="D219" t="s">
+        <v>69</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45441.89583333334</v>
+      </c>
+      <c r="F219">
+        <v>16</v>
+      </c>
+      <c r="G219" t="s">
+        <v>89</v>
+      </c>
+      <c r="H219" t="s">
+        <v>87</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>1</v>
+      </c>
+      <c r="K219">
+        <v>1</v>
+      </c>
+      <c r="L219">
+        <v>1</v>
+      </c>
+      <c r="M219">
+        <v>2</v>
+      </c>
+      <c r="N219">
+        <v>3</v>
+      </c>
+      <c r="O219" t="s">
+        <v>256</v>
+      </c>
+      <c r="P219" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q219">
+        <v>2.75</v>
+      </c>
+      <c r="R219">
+        <v>2.3</v>
+      </c>
+      <c r="S219">
+        <v>3.5</v>
+      </c>
+      <c r="T219">
+        <v>1.33</v>
+      </c>
+      <c r="U219">
+        <v>3.25</v>
+      </c>
+      <c r="V219">
+        <v>2.5</v>
+      </c>
+      <c r="W219">
+        <v>1.5</v>
+      </c>
+      <c r="X219">
+        <v>6</v>
+      </c>
+      <c r="Y219">
+        <v>1.13</v>
+      </c>
+      <c r="Z219">
+        <v>2.32</v>
+      </c>
+      <c r="AA219">
+        <v>3.48</v>
+      </c>
+      <c r="AB219">
+        <v>2.97</v>
+      </c>
+      <c r="AC219">
+        <v>1.03</v>
+      </c>
+      <c r="AD219">
+        <v>13</v>
+      </c>
+      <c r="AE219">
+        <v>1.22</v>
+      </c>
+      <c r="AF219">
+        <v>4.33</v>
+      </c>
+      <c r="AG219">
+        <v>1.61</v>
+      </c>
+      <c r="AH219">
+        <v>2.15</v>
+      </c>
+      <c r="AI219">
+        <v>1.57</v>
+      </c>
+      <c r="AJ219">
+        <v>2.25</v>
+      </c>
+      <c r="AK219">
+        <v>1.38</v>
+      </c>
+      <c r="AL219">
+        <v>1.26</v>
+      </c>
+      <c r="AM219">
+        <v>1.68</v>
+      </c>
+      <c r="AN219">
+        <v>0.86</v>
+      </c>
+      <c r="AO219">
+        <v>1.57</v>
+      </c>
+      <c r="AP219">
+        <v>0.75</v>
+      </c>
+      <c r="AQ219">
+        <v>1.75</v>
+      </c>
+      <c r="AR219">
+        <v>1.48</v>
+      </c>
+      <c r="AS219">
+        <v>1.11</v>
+      </c>
+      <c r="AT219">
+        <v>2.59</v>
+      </c>
+      <c r="AU219">
+        <v>4</v>
+      </c>
+      <c r="AV219">
+        <v>3</v>
+      </c>
+      <c r="AW219">
+        <v>3</v>
+      </c>
+      <c r="AX219">
+        <v>9</v>
+      </c>
+      <c r="AY219">
+        <v>7</v>
+      </c>
+      <c r="AZ219">
+        <v>12</v>
+      </c>
+      <c r="BA219">
+        <v>4</v>
+      </c>
+      <c r="BB219">
+        <v>4</v>
+      </c>
+      <c r="BC219">
+        <v>8</v>
+      </c>
+      <c r="BD219">
+        <v>1.57</v>
+      </c>
+      <c r="BE219">
+        <v>7.5</v>
+      </c>
+      <c r="BF219">
+        <v>2.95</v>
+      </c>
+      <c r="BG219">
+        <v>1.19</v>
+      </c>
+      <c r="BH219">
+        <v>4</v>
+      </c>
+      <c r="BI219">
+        <v>1.41</v>
+      </c>
+      <c r="BJ219">
+        <v>2.78</v>
+      </c>
+      <c r="BK219">
+        <v>1.8</v>
+      </c>
+      <c r="BL219">
+        <v>1.9</v>
+      </c>
+      <c r="BM219">
+        <v>2.06</v>
+      </c>
+      <c r="BN219">
+        <v>1.68</v>
+      </c>
+      <c r="BO219">
+        <v>2.8</v>
+      </c>
+      <c r="BP219">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="220" spans="1:68">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>7295455</v>
+      </c>
+      <c r="C220" t="s">
+        <v>68</v>
+      </c>
+      <c r="D220" t="s">
+        <v>69</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45441.97916666666</v>
+      </c>
+      <c r="F220">
+        <v>16</v>
+      </c>
+      <c r="G220" t="s">
+        <v>84</v>
+      </c>
+      <c r="H220" t="s">
+        <v>78</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220">
+        <v>1</v>
+      </c>
+      <c r="K220">
+        <v>2</v>
+      </c>
+      <c r="L220">
+        <v>3</v>
+      </c>
+      <c r="M220">
+        <v>1</v>
+      </c>
+      <c r="N220">
+        <v>4</v>
+      </c>
+      <c r="O220" t="s">
+        <v>257</v>
+      </c>
+      <c r="P220" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q220">
+        <v>2.2</v>
+      </c>
+      <c r="R220">
+        <v>2.5</v>
+      </c>
+      <c r="S220">
+        <v>4.75</v>
+      </c>
+      <c r="T220">
+        <v>1.29</v>
+      </c>
+      <c r="U220">
+        <v>3.5</v>
+      </c>
+      <c r="V220">
+        <v>2.25</v>
+      </c>
+      <c r="W220">
+        <v>1.57</v>
+      </c>
+      <c r="X220">
+        <v>5.5</v>
+      </c>
+      <c r="Y220">
+        <v>1.14</v>
+      </c>
+      <c r="Z220">
+        <v>1.5</v>
+      </c>
+      <c r="AA220">
+        <v>4.5</v>
+      </c>
+      <c r="AB220">
+        <v>6.05</v>
+      </c>
+      <c r="AC220">
+        <v>1.03</v>
+      </c>
+      <c r="AD220">
+        <v>17</v>
+      </c>
+      <c r="AE220">
+        <v>1.18</v>
+      </c>
+      <c r="AF220">
+        <v>5</v>
+      </c>
+      <c r="AG220">
+        <v>1.65</v>
+      </c>
+      <c r="AH220">
+        <v>2.15</v>
+      </c>
+      <c r="AI220">
+        <v>1.57</v>
+      </c>
+      <c r="AJ220">
+        <v>2.25</v>
+      </c>
+      <c r="AK220">
+        <v>1.16</v>
+      </c>
+      <c r="AL220">
+        <v>1.22</v>
+      </c>
+      <c r="AM220">
+        <v>2.25</v>
+      </c>
+      <c r="AN220">
+        <v>2</v>
+      </c>
+      <c r="AO220">
+        <v>0.33</v>
+      </c>
+      <c r="AP220">
+        <v>2.14</v>
+      </c>
+      <c r="AQ220">
+        <v>0.29</v>
+      </c>
+      <c r="AR220">
+        <v>1.7</v>
+      </c>
+      <c r="AS220">
+        <v>1.05</v>
+      </c>
+      <c r="AT220">
+        <v>2.75</v>
+      </c>
+      <c r="AU220">
+        <v>12</v>
+      </c>
+      <c r="AV220">
+        <v>6</v>
+      </c>
+      <c r="AW220">
+        <v>7</v>
+      </c>
+      <c r="AX220">
+        <v>1</v>
+      </c>
+      <c r="AY220">
+        <v>19</v>
+      </c>
+      <c r="AZ220">
+        <v>7</v>
+      </c>
+      <c r="BA220">
+        <v>6</v>
+      </c>
+      <c r="BB220">
+        <v>2</v>
+      </c>
+      <c r="BC220">
+        <v>8</v>
+      </c>
+      <c r="BD220">
+        <v>1.33</v>
+      </c>
+      <c r="BE220">
+        <v>10.5</v>
+      </c>
+      <c r="BF220">
+        <v>4.05</v>
+      </c>
+      <c r="BG220">
+        <v>1.2</v>
+      </c>
+      <c r="BH220">
+        <v>3.84</v>
+      </c>
+      <c r="BI220">
+        <v>1.41</v>
+      </c>
+      <c r="BJ220">
+        <v>2.69</v>
+      </c>
+      <c r="BK220">
+        <v>1.9</v>
+      </c>
+      <c r="BL220">
+        <v>1.8</v>
+      </c>
+      <c r="BM220">
+        <v>2.18</v>
+      </c>
+      <c r="BN220">
+        <v>1.65</v>
+      </c>
+      <c r="BO220">
+        <v>2.84</v>
+      </c>
+      <c r="BP220">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="221" spans="1:68">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>7295457</v>
+      </c>
+      <c r="C221" t="s">
+        <v>68</v>
+      </c>
+      <c r="D221" t="s">
+        <v>69</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45441.97916666666</v>
+      </c>
+      <c r="F221">
+        <v>16</v>
+      </c>
+      <c r="G221" t="s">
+        <v>92</v>
+      </c>
+      <c r="H221" t="s">
+        <v>86</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <v>1</v>
+      </c>
+      <c r="M221">
+        <v>1</v>
+      </c>
+      <c r="N221">
+        <v>2</v>
+      </c>
+      <c r="O221" t="s">
+        <v>258</v>
+      </c>
+      <c r="P221" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q221">
+        <v>2.6</v>
+      </c>
+      <c r="R221">
+        <v>2.3</v>
+      </c>
+      <c r="S221">
+        <v>4</v>
+      </c>
+      <c r="T221">
+        <v>1.33</v>
+      </c>
+      <c r="U221">
+        <v>3.25</v>
+      </c>
+      <c r="V221">
+        <v>2.63</v>
+      </c>
+      <c r="W221">
+        <v>1.44</v>
+      </c>
+      <c r="X221">
+        <v>6.5</v>
+      </c>
+      <c r="Y221">
+        <v>1.11</v>
+      </c>
+      <c r="Z221">
+        <v>1.9</v>
+      </c>
+      <c r="AA221">
+        <v>3.66</v>
+      </c>
+      <c r="AB221">
+        <v>3.92</v>
+      </c>
+      <c r="AC221">
+        <v>1.04</v>
+      </c>
+      <c r="AD221">
+        <v>15.25</v>
+      </c>
+      <c r="AE221">
+        <v>1.24</v>
+      </c>
+      <c r="AF221">
+        <v>4.08</v>
+      </c>
+      <c r="AG221">
+        <v>1.61</v>
+      </c>
+      <c r="AH221">
+        <v>2.15</v>
+      </c>
+      <c r="AI221">
+        <v>1.67</v>
+      </c>
+      <c r="AJ221">
+        <v>2.1</v>
+      </c>
+      <c r="AK221">
+        <v>1.35</v>
+      </c>
+      <c r="AL221">
+        <v>1.27</v>
+      </c>
+      <c r="AM221">
+        <v>1.75</v>
+      </c>
+      <c r="AN221">
+        <v>1.17</v>
+      </c>
+      <c r="AO221">
+        <v>1.63</v>
+      </c>
+      <c r="AP221">
+        <v>1.14</v>
+      </c>
+      <c r="AQ221">
+        <v>1.56</v>
+      </c>
+      <c r="AR221">
+        <v>1.54</v>
+      </c>
+      <c r="AS221">
+        <v>1.56</v>
+      </c>
+      <c r="AT221">
+        <v>3.1</v>
+      </c>
+      <c r="AU221">
+        <v>7</v>
+      </c>
+      <c r="AV221">
+        <v>4</v>
+      </c>
+      <c r="AW221">
+        <v>5</v>
+      </c>
+      <c r="AX221">
+        <v>9</v>
+      </c>
+      <c r="AY221">
+        <v>12</v>
+      </c>
+      <c r="AZ221">
+        <v>13</v>
+      </c>
+      <c r="BA221">
+        <v>11</v>
+      </c>
+      <c r="BB221">
+        <v>4</v>
+      </c>
+      <c r="BC221">
+        <v>15</v>
+      </c>
+      <c r="BD221">
+        <v>1.64</v>
+      </c>
+      <c r="BE221">
+        <v>9.4</v>
+      </c>
+      <c r="BF221">
+        <v>2.65</v>
+      </c>
+      <c r="BG221">
+        <v>1.18</v>
+      </c>
+      <c r="BH221">
+        <v>4.1</v>
+      </c>
+      <c r="BI221">
+        <v>1.36</v>
+      </c>
+      <c r="BJ221">
+        <v>2.79</v>
+      </c>
+      <c r="BK221">
+        <v>1.77</v>
+      </c>
+      <c r="BL221">
+        <v>1.95</v>
+      </c>
+      <c r="BM221">
+        <v>1.95</v>
+      </c>
+      <c r="BN221">
+        <v>1.77</v>
+      </c>
+      <c r="BO221">
+        <v>2.52</v>
+      </c>
+      <c r="BP221">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="222" spans="1:68">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>7295456</v>
+      </c>
+      <c r="C222" t="s">
+        <v>68</v>
+      </c>
+      <c r="D222" t="s">
+        <v>69</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45441.98958333334</v>
+      </c>
+      <c r="F222">
+        <v>16</v>
+      </c>
+      <c r="G222" t="s">
+        <v>72</v>
+      </c>
+      <c r="H222" t="s">
+        <v>85</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>1</v>
+      </c>
+      <c r="L222">
+        <v>2</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>2</v>
+      </c>
+      <c r="O222" t="s">
+        <v>259</v>
+      </c>
+      <c r="P222" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q222">
+        <v>2.05</v>
+      </c>
+      <c r="R222">
+        <v>2.5</v>
+      </c>
+      <c r="S222">
+        <v>5</v>
+      </c>
+      <c r="T222">
+        <v>1.25</v>
+      </c>
+      <c r="U222">
+        <v>3.75</v>
+      </c>
+      <c r="V222">
+        <v>2.2</v>
+      </c>
+      <c r="W222">
+        <v>1.62</v>
+      </c>
+      <c r="X222">
+        <v>5</v>
+      </c>
+      <c r="Y222">
+        <v>1.17</v>
+      </c>
+      <c r="Z222">
+        <v>1.5</v>
+      </c>
+      <c r="AA222">
+        <v>4.6</v>
+      </c>
+      <c r="AB222">
+        <v>5.85</v>
+      </c>
+      <c r="AC222">
+        <v>1.02</v>
+      </c>
+      <c r="AD222">
+        <v>19</v>
+      </c>
+      <c r="AE222">
+        <v>1.16</v>
+      </c>
+      <c r="AF222">
+        <v>5.5</v>
+      </c>
+      <c r="AG222">
+        <v>1.6</v>
+      </c>
+      <c r="AH222">
+        <v>2.2</v>
+      </c>
+      <c r="AI222">
+        <v>1.57</v>
+      </c>
+      <c r="AJ222">
+        <v>2.25</v>
+      </c>
+      <c r="AK222">
+        <v>1.16</v>
+      </c>
+      <c r="AL222">
+        <v>1.19</v>
+      </c>
+      <c r="AM222">
+        <v>2.45</v>
+      </c>
+      <c r="AN222">
+        <v>2.43</v>
+      </c>
+      <c r="AO222">
+        <v>2.17</v>
+      </c>
+      <c r="AP222">
+        <v>2.5</v>
+      </c>
+      <c r="AQ222">
+        <v>1.86</v>
+      </c>
+      <c r="AR222">
+        <v>2.02</v>
+      </c>
+      <c r="AS222">
+        <v>1.39</v>
+      </c>
+      <c r="AT222">
+        <v>3.41</v>
+      </c>
+      <c r="AU222">
+        <v>6</v>
+      </c>
+      <c r="AV222">
+        <v>2</v>
+      </c>
+      <c r="AW222">
+        <v>5</v>
+      </c>
+      <c r="AX222">
+        <v>4</v>
+      </c>
+      <c r="AY222">
+        <v>11</v>
+      </c>
+      <c r="AZ222">
+        <v>6</v>
+      </c>
+      <c r="BA222">
+        <v>7</v>
+      </c>
+      <c r="BB222">
+        <v>8</v>
+      </c>
+      <c r="BC222">
+        <v>15</v>
+      </c>
+      <c r="BD222">
+        <v>1.34</v>
+      </c>
+      <c r="BE222">
+        <v>11.25</v>
+      </c>
+      <c r="BF222">
+        <v>3.88</v>
+      </c>
+      <c r="BG222">
+        <v>1.1</v>
+      </c>
+      <c r="BH222">
+        <v>5.5</v>
+      </c>
+      <c r="BI222">
+        <v>1.22</v>
+      </c>
+      <c r="BJ222">
+        <v>3.65</v>
+      </c>
+      <c r="BK222">
+        <v>1.42</v>
+      </c>
+      <c r="BL222">
+        <v>2.65</v>
+      </c>
+      <c r="BM222">
+        <v>1.8</v>
+      </c>
+      <c r="BN222">
+        <v>1.9</v>
+      </c>
+      <c r="BO222">
+        <v>2.19</v>
+      </c>
+      <c r="BP222">
+        <v>1.64</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="378">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -796,6 +796,9 @@
     <t>['38', '82']</t>
   </si>
   <si>
+    <t>['50', '80', '85', '90+2', '90+5']</t>
+  </si>
+  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -1506,7 +1509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP222"/>
+  <dimension ref="A1:BP223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2177,7 +2180,7 @@
         <v>101</v>
       </c>
       <c r="P4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -2589,7 +2592,7 @@
         <v>103</v>
       </c>
       <c r="P6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -3001,7 +3004,7 @@
         <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -3207,7 +3210,7 @@
         <v>106</v>
       </c>
       <c r="P9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3413,7 +3416,7 @@
         <v>107</v>
       </c>
       <c r="P10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3494,7 +3497,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ10">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3825,7 +3828,7 @@
         <v>109</v>
       </c>
       <c r="P12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -4031,7 +4034,7 @@
         <v>110</v>
       </c>
       <c r="P13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -5473,7 +5476,7 @@
         <v>115</v>
       </c>
       <c r="P20" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -5679,7 +5682,7 @@
         <v>116</v>
       </c>
       <c r="P21" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5885,7 +5888,7 @@
         <v>117</v>
       </c>
       <c r="P22" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -6091,7 +6094,7 @@
         <v>118</v>
       </c>
       <c r="P23" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6709,7 +6712,7 @@
         <v>121</v>
       </c>
       <c r="P26" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6915,7 +6918,7 @@
         <v>122</v>
       </c>
       <c r="P27" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -7121,7 +7124,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7739,7 +7742,7 @@
         <v>123</v>
       </c>
       <c r="P31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q31">
         <v>2.37</v>
@@ -7817,7 +7820,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ31">
         <v>0.89</v>
@@ -8151,7 +8154,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -8769,7 +8772,7 @@
         <v>128</v>
       </c>
       <c r="P36" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8975,7 +8978,7 @@
         <v>129</v>
       </c>
       <c r="P37" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -9181,7 +9184,7 @@
         <v>130</v>
       </c>
       <c r="P38" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9593,7 +9596,7 @@
         <v>104</v>
       </c>
       <c r="P40" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9799,7 +9802,7 @@
         <v>131</v>
       </c>
       <c r="P41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -10211,7 +10214,7 @@
         <v>132</v>
       </c>
       <c r="P43" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q43">
         <v>2.05</v>
@@ -10417,7 +10420,7 @@
         <v>133</v>
       </c>
       <c r="P44" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10623,7 +10626,7 @@
         <v>134</v>
       </c>
       <c r="P45" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -11319,7 +11322,7 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11447,7 +11450,7 @@
         <v>138</v>
       </c>
       <c r="P49" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11653,7 +11656,7 @@
         <v>139</v>
       </c>
       <c r="P50" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -12146,7 +12149,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ52">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR52">
         <v>1.83</v>
@@ -12683,7 +12686,7 @@
         <v>144</v>
       </c>
       <c r="P55" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12889,7 +12892,7 @@
         <v>145</v>
       </c>
       <c r="P56" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -13713,7 +13716,7 @@
         <v>149</v>
       </c>
       <c r="P60" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -14743,7 +14746,7 @@
         <v>154</v>
       </c>
       <c r="P65" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14949,7 +14952,7 @@
         <v>155</v>
       </c>
       <c r="P66" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -15155,7 +15158,7 @@
         <v>104</v>
       </c>
       <c r="P67" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15361,7 +15364,7 @@
         <v>156</v>
       </c>
       <c r="P68" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15773,7 +15776,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -16185,7 +16188,7 @@
         <v>159</v>
       </c>
       <c r="P72" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16803,7 +16806,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -17009,7 +17012,7 @@
         <v>162</v>
       </c>
       <c r="P76" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q76">
         <v>3.1</v>
@@ -17215,7 +17218,7 @@
         <v>163</v>
       </c>
       <c r="P77" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17421,7 +17424,7 @@
         <v>164</v>
       </c>
       <c r="P78" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17708,7 +17711,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ79">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR79">
         <v>1.49</v>
@@ -17833,7 +17836,7 @@
         <v>166</v>
       </c>
       <c r="P80" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -18245,7 +18248,7 @@
         <v>168</v>
       </c>
       <c r="P82" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -19147,7 +19150,7 @@
         <v>0</v>
       </c>
       <c r="AP86">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ86">
         <v>0.86</v>
@@ -19275,7 +19278,7 @@
         <v>172</v>
       </c>
       <c r="P87" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q87">
         <v>2.2</v>
@@ -19481,7 +19484,7 @@
         <v>173</v>
       </c>
       <c r="P88" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -20099,7 +20102,7 @@
         <v>176</v>
       </c>
       <c r="P91" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -20305,7 +20308,7 @@
         <v>177</v>
       </c>
       <c r="P92" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q92">
         <v>2.88</v>
@@ -20386,7 +20389,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ92">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR92">
         <v>1.12</v>
@@ -20717,7 +20720,7 @@
         <v>179</v>
       </c>
       <c r="P94" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q94">
         <v>2.75</v>
@@ -20923,7 +20926,7 @@
         <v>180</v>
       </c>
       <c r="P95" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q95">
         <v>3.1</v>
@@ -21541,7 +21544,7 @@
         <v>182</v>
       </c>
       <c r="P98" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21747,7 +21750,7 @@
         <v>183</v>
       </c>
       <c r="P99" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -22031,7 +22034,7 @@
         <v>0</v>
       </c>
       <c r="AP100">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ100">
         <v>0.5</v>
@@ -22365,7 +22368,7 @@
         <v>185</v>
       </c>
       <c r="P102" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q102">
         <v>3.1</v>
@@ -22571,7 +22574,7 @@
         <v>186</v>
       </c>
       <c r="P103" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q103">
         <v>2.3</v>
@@ -22777,7 +22780,7 @@
         <v>187</v>
       </c>
       <c r="P104" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -23189,7 +23192,7 @@
         <v>188</v>
       </c>
       <c r="P106" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23395,7 +23398,7 @@
         <v>189</v>
       </c>
       <c r="P107" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q107">
         <v>2.75</v>
@@ -23807,7 +23810,7 @@
         <v>190</v>
       </c>
       <c r="P109" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q109">
         <v>2.6</v>
@@ -24013,7 +24016,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q110">
         <v>2.88</v>
@@ -24219,7 +24222,7 @@
         <v>191</v>
       </c>
       <c r="P111" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24631,7 +24634,7 @@
         <v>142</v>
       </c>
       <c r="P113" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24837,7 +24840,7 @@
         <v>192</v>
       </c>
       <c r="P114" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q114">
         <v>1.91</v>
@@ -25043,7 +25046,7 @@
         <v>193</v>
       </c>
       <c r="P115" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q115">
         <v>2.1</v>
@@ -25455,7 +25458,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25739,7 +25742,7 @@
         <v>1</v>
       </c>
       <c r="AP118">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ118">
         <v>0.88</v>
@@ -25867,7 +25870,7 @@
         <v>104</v>
       </c>
       <c r="P119" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q119">
         <v>2.88</v>
@@ -26279,7 +26282,7 @@
         <v>196</v>
       </c>
       <c r="P121" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q121">
         <v>2.3</v>
@@ -26691,7 +26694,7 @@
         <v>198</v>
       </c>
       <c r="P123" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q123">
         <v>2.5</v>
@@ -26897,7 +26900,7 @@
         <v>104</v>
       </c>
       <c r="P124" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -27103,7 +27106,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q125">
         <v>2.6</v>
@@ -27309,7 +27312,7 @@
         <v>199</v>
       </c>
       <c r="P126" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q126">
         <v>2.05</v>
@@ -27390,7 +27393,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ126">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR126">
         <v>1.66</v>
@@ -27721,7 +27724,7 @@
         <v>201</v>
       </c>
       <c r="P128" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -27927,7 +27930,7 @@
         <v>202</v>
       </c>
       <c r="P129" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q129">
         <v>2.5</v>
@@ -28211,7 +28214,7 @@
         <v>0.25</v>
       </c>
       <c r="AP130">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ130">
         <v>0.57</v>
@@ -29163,7 +29166,7 @@
         <v>206</v>
       </c>
       <c r="P135" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29987,7 +29990,7 @@
         <v>119</v>
       </c>
       <c r="P139" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -30068,7 +30071,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ139">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR139">
         <v>1.15</v>
@@ -30193,7 +30196,7 @@
         <v>209</v>
       </c>
       <c r="P140" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -30399,7 +30402,7 @@
         <v>210</v>
       </c>
       <c r="P141" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30605,7 +30608,7 @@
         <v>211</v>
       </c>
       <c r="P142" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -31017,7 +31020,7 @@
         <v>213</v>
       </c>
       <c r="P144" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q144">
         <v>2.88</v>
@@ -31223,7 +31226,7 @@
         <v>214</v>
       </c>
       <c r="P145" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q145">
         <v>2.38</v>
@@ -32253,7 +32256,7 @@
         <v>217</v>
       </c>
       <c r="P150" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -33077,7 +33080,7 @@
         <v>104</v>
       </c>
       <c r="P154" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q154">
         <v>2.4</v>
@@ -33155,7 +33158,7 @@
         <v>1.33</v>
       </c>
       <c r="AP154">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ154">
         <v>1.22</v>
@@ -33489,7 +33492,7 @@
         <v>219</v>
       </c>
       <c r="P156" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33901,7 +33904,7 @@
         <v>221</v>
       </c>
       <c r="P158" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -34107,7 +34110,7 @@
         <v>222</v>
       </c>
       <c r="P159" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q159">
         <v>2.1</v>
@@ -34313,7 +34316,7 @@
         <v>223</v>
       </c>
       <c r="P160" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q160">
         <v>2.5</v>
@@ -34519,7 +34522,7 @@
         <v>224</v>
       </c>
       <c r="P161" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q161">
         <v>3.4</v>
@@ -34725,7 +34728,7 @@
         <v>162</v>
       </c>
       <c r="P162" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -35137,7 +35140,7 @@
         <v>226</v>
       </c>
       <c r="P164" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q164">
         <v>2.75</v>
@@ -35343,7 +35346,7 @@
         <v>227</v>
       </c>
       <c r="P165" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q165">
         <v>2.3</v>
@@ -35549,7 +35552,7 @@
         <v>228</v>
       </c>
       <c r="P166" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q166">
         <v>2.3</v>
@@ -35630,7 +35633,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ166">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR166">
         <v>1.32</v>
@@ -35755,7 +35758,7 @@
         <v>229</v>
       </c>
       <c r="P167" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q167">
         <v>2.5</v>
@@ -36167,7 +36170,7 @@
         <v>231</v>
       </c>
       <c r="P169" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q169">
         <v>3.2</v>
@@ -36579,7 +36582,7 @@
         <v>232</v>
       </c>
       <c r="P171" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q171">
         <v>3.1</v>
@@ -36785,7 +36788,7 @@
         <v>233</v>
       </c>
       <c r="P172" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -37197,7 +37200,7 @@
         <v>121</v>
       </c>
       <c r="P174" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q174">
         <v>2.5</v>
@@ -37609,7 +37612,7 @@
         <v>104</v>
       </c>
       <c r="P176" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q176">
         <v>2.75</v>
@@ -37815,7 +37818,7 @@
         <v>234</v>
       </c>
       <c r="P177" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q177">
         <v>2.63</v>
@@ -38227,7 +38230,7 @@
         <v>104</v>
       </c>
       <c r="P179" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q179">
         <v>3.1</v>
@@ -38845,7 +38848,7 @@
         <v>237</v>
       </c>
       <c r="P182" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q182">
         <v>2.3</v>
@@ -38926,7 +38929,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ182">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR182">
         <v>1.29</v>
@@ -39051,7 +39054,7 @@
         <v>139</v>
       </c>
       <c r="P183" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q183">
         <v>2.75</v>
@@ -39463,7 +39466,7 @@
         <v>238</v>
       </c>
       <c r="P185" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q185">
         <v>2.3</v>
@@ -39669,7 +39672,7 @@
         <v>104</v>
       </c>
       <c r="P186" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q186">
         <v>3.2</v>
@@ -39953,7 +39956,7 @@
         <v>1.5</v>
       </c>
       <c r="AP187">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ187">
         <v>1.33</v>
@@ -40081,7 +40084,7 @@
         <v>240</v>
       </c>
       <c r="P188" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q188">
         <v>2.75</v>
@@ -40493,7 +40496,7 @@
         <v>241</v>
       </c>
       <c r="P190" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q190">
         <v>2.25</v>
@@ -40905,7 +40908,7 @@
         <v>243</v>
       </c>
       <c r="P192" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q192">
         <v>2.63</v>
@@ -41111,7 +41114,7 @@
         <v>244</v>
       </c>
       <c r="P193" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -41317,7 +41320,7 @@
         <v>245</v>
       </c>
       <c r="P194" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q194">
         <v>2.3</v>
@@ -42141,7 +42144,7 @@
         <v>246</v>
       </c>
       <c r="P198" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q198">
         <v>3.3</v>
@@ -42347,7 +42350,7 @@
         <v>104</v>
       </c>
       <c r="P199" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q199">
         <v>2.51</v>
@@ -42759,7 +42762,7 @@
         <v>104</v>
       </c>
       <c r="P201" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q201">
         <v>2.88</v>
@@ -43171,7 +43174,7 @@
         <v>247</v>
       </c>
       <c r="P203" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q203">
         <v>2.16</v>
@@ -43377,7 +43380,7 @@
         <v>248</v>
       </c>
       <c r="P204" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q204">
         <v>3.4</v>
@@ -43583,7 +43586,7 @@
         <v>211</v>
       </c>
       <c r="P205" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q205">
         <v>2.88</v>
@@ -43789,7 +43792,7 @@
         <v>249</v>
       </c>
       <c r="P206" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q206">
         <v>2.5</v>
@@ -43995,7 +43998,7 @@
         <v>250</v>
       </c>
       <c r="P207" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q207">
         <v>3</v>
@@ -44201,7 +44204,7 @@
         <v>251</v>
       </c>
       <c r="P208" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q208">
         <v>2.38</v>
@@ -44613,7 +44616,7 @@
         <v>123</v>
       </c>
       <c r="P210" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q210">
         <v>2.3</v>
@@ -45025,7 +45028,7 @@
         <v>253</v>
       </c>
       <c r="P212" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q212">
         <v>2.2</v>
@@ -45231,7 +45234,7 @@
         <v>254</v>
       </c>
       <c r="P213" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q213">
         <v>3</v>
@@ -45437,7 +45440,7 @@
         <v>104</v>
       </c>
       <c r="P214" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q214">
         <v>2.4</v>
@@ -45643,7 +45646,7 @@
         <v>145</v>
       </c>
       <c r="P215" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q215">
         <v>2.05</v>
@@ -45849,7 +45852,7 @@
         <v>104</v>
       </c>
       <c r="P216" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q216">
         <v>2.5</v>
@@ -46261,7 +46264,7 @@
         <v>255</v>
       </c>
       <c r="P218" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q218">
         <v>2.6</v>
@@ -46467,7 +46470,7 @@
         <v>256</v>
       </c>
       <c r="P219" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q219">
         <v>2.75</v>
@@ -46879,7 +46882,7 @@
         <v>258</v>
       </c>
       <c r="P221" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q221">
         <v>2.6</v>
@@ -47242,6 +47245,212 @@
       </c>
       <c r="BP222">
         <v>1.64</v>
+      </c>
+    </row>
+    <row r="223" spans="1:68">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>7295459</v>
+      </c>
+      <c r="C223" t="s">
+        <v>68</v>
+      </c>
+      <c r="D223" t="s">
+        <v>69</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45443.85416666666</v>
+      </c>
+      <c r="F223">
+        <v>17</v>
+      </c>
+      <c r="G223" t="s">
+        <v>94</v>
+      </c>
+      <c r="H223" t="s">
+        <v>91</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>5</v>
+      </c>
+      <c r="M223">
+        <v>1</v>
+      </c>
+      <c r="N223">
+        <v>6</v>
+      </c>
+      <c r="O223" t="s">
+        <v>260</v>
+      </c>
+      <c r="P223" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q223">
+        <v>2.2</v>
+      </c>
+      <c r="R223">
+        <v>2.38</v>
+      </c>
+      <c r="S223">
+        <v>5</v>
+      </c>
+      <c r="T223">
+        <v>1.3</v>
+      </c>
+      <c r="U223">
+        <v>3.4</v>
+      </c>
+      <c r="V223">
+        <v>2.5</v>
+      </c>
+      <c r="W223">
+        <v>1.5</v>
+      </c>
+      <c r="X223">
+        <v>6</v>
+      </c>
+      <c r="Y223">
+        <v>1.13</v>
+      </c>
+      <c r="Z223">
+        <v>1.52</v>
+      </c>
+      <c r="AA223">
+        <v>3.95</v>
+      </c>
+      <c r="AB223">
+        <v>4.5</v>
+      </c>
+      <c r="AC223">
+        <v>1.03</v>
+      </c>
+      <c r="AD223">
+        <v>15</v>
+      </c>
+      <c r="AE223">
+        <v>1.2</v>
+      </c>
+      <c r="AF223">
+        <v>4.5</v>
+      </c>
+      <c r="AG223">
+        <v>1.52</v>
+      </c>
+      <c r="AH223">
+        <v>2.35</v>
+      </c>
+      <c r="AI223">
+        <v>1.7</v>
+      </c>
+      <c r="AJ223">
+        <v>2.05</v>
+      </c>
+      <c r="AK223">
+        <v>1.18</v>
+      </c>
+      <c r="AL223">
+        <v>1.2</v>
+      </c>
+      <c r="AM223">
+        <v>2.3</v>
+      </c>
+      <c r="AN223">
+        <v>2</v>
+      </c>
+      <c r="AO223">
+        <v>0.5</v>
+      </c>
+      <c r="AP223">
+        <v>2.11</v>
+      </c>
+      <c r="AQ223">
+        <v>0.44</v>
+      </c>
+      <c r="AR223">
+        <v>1.66</v>
+      </c>
+      <c r="AS223">
+        <v>1.26</v>
+      </c>
+      <c r="AT223">
+        <v>2.92</v>
+      </c>
+      <c r="AU223">
+        <v>8</v>
+      </c>
+      <c r="AV223">
+        <v>4</v>
+      </c>
+      <c r="AW223">
+        <v>10</v>
+      </c>
+      <c r="AX223">
+        <v>5</v>
+      </c>
+      <c r="AY223">
+        <v>18</v>
+      </c>
+      <c r="AZ223">
+        <v>9</v>
+      </c>
+      <c r="BA223">
+        <v>4</v>
+      </c>
+      <c r="BB223">
+        <v>6</v>
+      </c>
+      <c r="BC223">
+        <v>10</v>
+      </c>
+      <c r="BD223">
+        <v>1.7</v>
+      </c>
+      <c r="BE223">
+        <v>6.5</v>
+      </c>
+      <c r="BF223">
+        <v>2.8</v>
+      </c>
+      <c r="BG223">
+        <v>1.26</v>
+      </c>
+      <c r="BH223">
+        <v>3.6</v>
+      </c>
+      <c r="BI223">
+        <v>1.45</v>
+      </c>
+      <c r="BJ223">
+        <v>2.6</v>
+      </c>
+      <c r="BK223">
+        <v>1.78</v>
+      </c>
+      <c r="BL223">
+        <v>2</v>
+      </c>
+      <c r="BM223">
+        <v>2.2</v>
+      </c>
+      <c r="BN223">
+        <v>1.62</v>
+      </c>
+      <c r="BO223">
+        <v>2.9</v>
+      </c>
+      <c r="BP223">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="391">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -799,6 +799,33 @@
     <t>['50', '80', '85', '90+2', '90+5']</t>
   </si>
   <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['25', '45+2', '85']</t>
+  </si>
+  <si>
+    <t>['79', '90+5']</t>
+  </si>
+  <si>
+    <t>['32', '61']</t>
+  </si>
+  <si>
+    <t>['33', '67', '83']</t>
+  </si>
+  <si>
+    <t>['16', '24', '31', '45+5', '71']</t>
+  </si>
+  <si>
+    <t>['46', '90+1']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['37', '76']</t>
+  </si>
+  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -812,9 +839,6 @@
   </si>
   <si>
     <t>['6']</t>
-  </si>
-  <si>
-    <t>['74']</t>
   </si>
   <si>
     <t>['55']</t>
@@ -1148,6 +1172,21 @@
   </si>
   <si>
     <t>['90+9']</t>
+  </si>
+  <si>
+    <t>['1', '66']</t>
+  </si>
+  <si>
+    <t>['15', '41', '68']</t>
+  </si>
+  <si>
+    <t>['2', '33']</t>
+  </si>
+  <si>
+    <t>['18', '51']</t>
+  </si>
+  <si>
+    <t>['8', '50']</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP223"/>
+  <dimension ref="A1:BP234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1846,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ2">
         <v>1.56</v>
@@ -2180,7 +2219,7 @@
         <v>101</v>
       </c>
       <c r="P4" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -2258,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ4">
         <v>1.11</v>
@@ -2592,7 +2631,7 @@
         <v>103</v>
       </c>
       <c r="P6" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2670,10 +2709,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ6">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2879,7 +2918,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ7">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3004,7 +3043,7 @@
         <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -3082,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ8">
         <v>0.57</v>
@@ -3210,7 +3249,7 @@
         <v>106</v>
       </c>
       <c r="P9" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3416,7 +3455,7 @@
         <v>107</v>
       </c>
       <c r="P10" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3703,7 +3742,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3828,7 +3867,7 @@
         <v>109</v>
       </c>
       <c r="P12" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -4034,7 +4073,7 @@
         <v>110</v>
       </c>
       <c r="P13" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -4112,10 +4151,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4524,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ15">
         <v>1.33</v>
@@ -4936,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ17">
         <v>1.71</v>
@@ -5142,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -5348,10 +5387,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ19">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR19">
         <v>1.77</v>
@@ -5476,7 +5515,7 @@
         <v>115</v>
       </c>
       <c r="P20" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -5554,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ20">
         <v>0.57</v>
@@ -5682,7 +5721,7 @@
         <v>116</v>
       </c>
       <c r="P21" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5760,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ21">
         <v>2.38</v>
@@ -5888,7 +5927,7 @@
         <v>117</v>
       </c>
       <c r="P22" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5969,7 +6008,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ22">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR22">
         <v>2.26</v>
@@ -6094,7 +6133,7 @@
         <v>118</v>
       </c>
       <c r="P23" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6712,7 +6751,7 @@
         <v>121</v>
       </c>
       <c r="P26" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6918,7 +6957,7 @@
         <v>122</v>
       </c>
       <c r="P27" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6996,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27">
         <v>0.88</v>
@@ -7124,7 +7163,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7205,7 +7244,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -7411,7 +7450,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ29">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7742,7 +7781,7 @@
         <v>123</v>
       </c>
       <c r="P31" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="Q31">
         <v>2.37</v>
@@ -8154,7 +8193,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -8235,7 +8274,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ33">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR33">
         <v>0</v>
@@ -8644,10 +8683,10 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ35">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR35">
         <v>0</v>
@@ -8772,7 +8811,7 @@
         <v>128</v>
       </c>
       <c r="P36" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8978,7 +9017,7 @@
         <v>129</v>
       </c>
       <c r="P37" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -9059,7 +9098,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ37">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR37">
         <v>1.02</v>
@@ -9184,7 +9223,7 @@
         <v>130</v>
       </c>
       <c r="P38" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9262,10 +9301,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ38">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR38">
         <v>1.58</v>
@@ -9468,10 +9507,10 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ39">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR39">
         <v>1.7</v>
@@ -9596,7 +9635,7 @@
         <v>104</v>
       </c>
       <c r="P40" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9802,7 +9841,7 @@
         <v>131</v>
       </c>
       <c r="P41" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -9880,10 +9919,10 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ41">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR41">
         <v>0.83</v>
@@ -10214,7 +10253,7 @@
         <v>132</v>
       </c>
       <c r="P43" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="Q43">
         <v>2.05</v>
@@ -10292,10 +10331,10 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ43">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR43">
         <v>1.61</v>
@@ -10420,7 +10459,7 @@
         <v>133</v>
       </c>
       <c r="P44" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10498,10 +10537,10 @@
         <v>2.33</v>
       </c>
       <c r="AP44">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ44">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR44">
         <v>0.84</v>
@@ -10626,7 +10665,7 @@
         <v>134</v>
       </c>
       <c r="P45" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10704,7 +10743,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ45">
         <v>2.13</v>
@@ -10913,7 +10952,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ46">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR46">
         <v>1.94</v>
@@ -11450,7 +11489,7 @@
         <v>138</v>
       </c>
       <c r="P49" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11656,7 +11695,7 @@
         <v>139</v>
       </c>
       <c r="P50" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -12352,7 +12391,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -12558,7 +12597,7 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ54">
         <v>0.57</v>
@@ -12686,7 +12725,7 @@
         <v>144</v>
       </c>
       <c r="P55" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12767,7 +12806,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ55">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR55">
         <v>2.22</v>
@@ -12892,7 +12931,7 @@
         <v>145</v>
       </c>
       <c r="P56" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -13179,7 +13218,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ57">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR57">
         <v>2.19</v>
@@ -13588,7 +13627,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ59">
         <v>2.13</v>
@@ -13716,7 +13755,7 @@
         <v>149</v>
       </c>
       <c r="P60" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13794,7 +13833,7 @@
         <v>0.5</v>
       </c>
       <c r="AP60">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ60">
         <v>1.56</v>
@@ -14415,7 +14454,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ63">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR63">
         <v>1.92</v>
@@ -14746,7 +14785,7 @@
         <v>154</v>
       </c>
       <c r="P65" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14827,7 +14866,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ65">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR65">
         <v>1.39</v>
@@ -14952,7 +14991,7 @@
         <v>155</v>
       </c>
       <c r="P66" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -15158,7 +15197,7 @@
         <v>104</v>
       </c>
       <c r="P67" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15239,7 +15278,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ67">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR67">
         <v>1.06</v>
@@ -15364,7 +15403,7 @@
         <v>156</v>
       </c>
       <c r="P68" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15648,7 +15687,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ69">
         <v>0.83</v>
@@ -15776,7 +15815,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15854,7 +15893,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ70">
         <v>1.75</v>
@@ -16060,7 +16099,7 @@
         <v>3</v>
       </c>
       <c r="AP71">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ71">
         <v>1.86</v>
@@ -16188,7 +16227,7 @@
         <v>159</v>
       </c>
       <c r="P72" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16678,10 +16717,10 @@
         <v>1.75</v>
       </c>
       <c r="AP74">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ74">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR74">
         <v>1.9</v>
@@ -16806,7 +16845,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16884,7 +16923,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ75">
         <v>1.43</v>
@@ -17012,7 +17051,7 @@
         <v>162</v>
       </c>
       <c r="P76" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="Q76">
         <v>3.1</v>
@@ -17218,7 +17257,7 @@
         <v>163</v>
       </c>
       <c r="P77" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17299,7 +17338,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ77">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR77">
         <v>1.72</v>
@@ -17424,7 +17463,7 @@
         <v>164</v>
       </c>
       <c r="P78" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17505,7 +17544,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ78">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR78">
         <v>0.95</v>
@@ -17836,7 +17875,7 @@
         <v>166</v>
       </c>
       <c r="P80" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17914,7 +17953,7 @@
         <v>0.5</v>
       </c>
       <c r="AP80">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ80">
         <v>1.71</v>
@@ -18120,10 +18159,10 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ81">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR81">
         <v>1.42</v>
@@ -18248,7 +18287,7 @@
         <v>168</v>
       </c>
       <c r="P82" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18326,7 +18365,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ82">
         <v>0.89</v>
@@ -19278,7 +19317,7 @@
         <v>172</v>
       </c>
       <c r="P87" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="Q87">
         <v>2.2</v>
@@ -19356,10 +19395,10 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ87">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR87">
         <v>1.69</v>
@@ -19484,7 +19523,7 @@
         <v>173</v>
       </c>
       <c r="P88" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19768,7 +19807,7 @@
         <v>1.33</v>
       </c>
       <c r="AP89">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ89">
         <v>1</v>
@@ -20102,7 +20141,7 @@
         <v>176</v>
       </c>
       <c r="P91" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -20180,10 +20219,10 @@
         <v>2.33</v>
       </c>
       <c r="AP91">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ91">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR91">
         <v>2.05</v>
@@ -20308,7 +20347,7 @@
         <v>177</v>
       </c>
       <c r="P92" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="Q92">
         <v>2.88</v>
@@ -20592,10 +20631,10 @@
         <v>3</v>
       </c>
       <c r="AP93">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ93">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR93">
         <v>1.63</v>
@@ -20720,7 +20759,7 @@
         <v>179</v>
       </c>
       <c r="P94" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="Q94">
         <v>2.75</v>
@@ -20798,7 +20837,7 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ94">
         <v>1.56</v>
@@ -20926,7 +20965,7 @@
         <v>180</v>
       </c>
       <c r="P95" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="Q95">
         <v>3.1</v>
@@ -21004,7 +21043,7 @@
         <v>1.67</v>
       </c>
       <c r="AP95">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ95">
         <v>1.75</v>
@@ -21213,7 +21252,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ96">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR96">
         <v>1.49</v>
@@ -21419,7 +21458,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ97">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR97">
         <v>1.52</v>
@@ -21544,7 +21583,7 @@
         <v>182</v>
       </c>
       <c r="P98" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21750,7 +21789,7 @@
         <v>183</v>
       </c>
       <c r="P99" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21828,7 +21867,7 @@
         <v>0</v>
       </c>
       <c r="AP99">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ99">
         <v>1</v>
@@ -22037,7 +22076,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ100">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR100">
         <v>1.76</v>
@@ -22240,7 +22279,7 @@
         <v>0.5</v>
       </c>
       <c r="AP101">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ101">
         <v>0.57</v>
@@ -22368,7 +22407,7 @@
         <v>185</v>
       </c>
       <c r="P102" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Q102">
         <v>3.1</v>
@@ -22574,7 +22613,7 @@
         <v>186</v>
       </c>
       <c r="P103" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="Q103">
         <v>2.3</v>
@@ -22780,7 +22819,7 @@
         <v>187</v>
       </c>
       <c r="P104" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22858,10 +22897,10 @@
         <v>0</v>
       </c>
       <c r="AP104">
+        <v>1.33</v>
+      </c>
+      <c r="AQ104">
         <v>1.38</v>
-      </c>
-      <c r="AQ104">
-        <v>1.57</v>
       </c>
       <c r="AR104">
         <v>1.9</v>
@@ -23192,7 +23231,7 @@
         <v>188</v>
       </c>
       <c r="P106" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23398,7 +23437,7 @@
         <v>189</v>
       </c>
       <c r="P107" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Q107">
         <v>2.75</v>
@@ -23476,10 +23515,10 @@
         <v>1.5</v>
       </c>
       <c r="AP107">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ107">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR107">
         <v>1.55</v>
@@ -23682,7 +23721,7 @@
         <v>0.67</v>
       </c>
       <c r="AP108">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ108">
         <v>1.71</v>
@@ -23810,7 +23849,7 @@
         <v>190</v>
       </c>
       <c r="P109" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="Q109">
         <v>2.6</v>
@@ -23888,10 +23927,10 @@
         <v>1.75</v>
       </c>
       <c r="AP109">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ109">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR109">
         <v>1.44</v>
@@ -24016,7 +24055,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="Q110">
         <v>2.88</v>
@@ -24097,7 +24136,7 @@
         <v>1</v>
       </c>
       <c r="AQ110">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR110">
         <v>1.31</v>
@@ -24222,7 +24261,7 @@
         <v>191</v>
       </c>
       <c r="P111" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24509,7 +24548,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ112">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR112">
         <v>1.79</v>
@@ -24634,7 +24673,7 @@
         <v>142</v>
       </c>
       <c r="P113" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24715,7 +24754,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ113">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR113">
         <v>1.35</v>
@@ -24840,7 +24879,7 @@
         <v>192</v>
       </c>
       <c r="P114" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="Q114">
         <v>1.91</v>
@@ -24918,7 +24957,7 @@
         <v>0.5</v>
       </c>
       <c r="AP114">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ114">
         <v>0.83</v>
@@ -25046,7 +25085,7 @@
         <v>193</v>
       </c>
       <c r="P115" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Q115">
         <v>2.1</v>
@@ -25333,7 +25372,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ116">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR116">
         <v>1.54</v>
@@ -25458,7 +25497,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25870,7 +25909,7 @@
         <v>104</v>
       </c>
       <c r="P119" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="Q119">
         <v>2.88</v>
@@ -25948,7 +25987,7 @@
         <v>1.25</v>
       </c>
       <c r="AP119">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ119">
         <v>1.56</v>
@@ -26157,7 +26196,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ120">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR120">
         <v>1.68</v>
@@ -26282,7 +26321,7 @@
         <v>196</v>
       </c>
       <c r="P121" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="Q121">
         <v>2.3</v>
@@ -26363,7 +26402,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ121">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR121">
         <v>1.55</v>
@@ -26569,7 +26608,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ122">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR122">
         <v>1.34</v>
@@ -26694,7 +26733,7 @@
         <v>198</v>
       </c>
       <c r="P123" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Q123">
         <v>2.5</v>
@@ -26772,7 +26811,7 @@
         <v>1.6</v>
       </c>
       <c r="AP123">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ123">
         <v>1.33</v>
@@ -26900,7 +26939,7 @@
         <v>104</v>
       </c>
       <c r="P124" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -27106,7 +27145,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="Q125">
         <v>2.6</v>
@@ -27312,7 +27351,7 @@
         <v>199</v>
       </c>
       <c r="P126" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="Q126">
         <v>2.05</v>
@@ -27599,7 +27638,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ127">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR127">
         <v>1.28</v>
@@ -27724,7 +27763,7 @@
         <v>201</v>
       </c>
       <c r="P128" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -27930,7 +27969,7 @@
         <v>202</v>
       </c>
       <c r="P129" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Q129">
         <v>2.5</v>
@@ -28008,7 +28047,7 @@
         <v>1.6</v>
       </c>
       <c r="AP129">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ129">
         <v>1.56</v>
@@ -28420,7 +28459,7 @@
         <v>3</v>
       </c>
       <c r="AP131">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ131">
         <v>1.75</v>
@@ -28626,7 +28665,7 @@
         <v>0.25</v>
       </c>
       <c r="AP132">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ132">
         <v>1.11</v>
@@ -28835,7 +28874,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ133">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR133">
         <v>1.78</v>
@@ -29041,7 +29080,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ134">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR134">
         <v>1.41</v>
@@ -29166,7 +29205,7 @@
         <v>206</v>
       </c>
       <c r="P135" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29450,10 +29489,10 @@
         <v>1.67</v>
       </c>
       <c r="AP136">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ136">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR136">
         <v>1.75</v>
@@ -29656,7 +29695,7 @@
         <v>0.33</v>
       </c>
       <c r="AP137">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ137">
         <v>0.86</v>
@@ -29865,7 +29904,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ138">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR138">
         <v>1.63</v>
@@ -29990,7 +30029,7 @@
         <v>119</v>
       </c>
       <c r="P139" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -30068,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="AP139">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ139">
         <v>0.44</v>
@@ -30196,7 +30235,7 @@
         <v>209</v>
       </c>
       <c r="P140" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -30274,7 +30313,7 @@
         <v>1</v>
       </c>
       <c r="AP140">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ140">
         <v>0.89</v>
@@ -30402,7 +30441,7 @@
         <v>210</v>
       </c>
       <c r="P141" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30480,7 +30519,7 @@
         <v>0.2</v>
       </c>
       <c r="AP141">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ141">
         <v>1.11</v>
@@ -30608,7 +30647,7 @@
         <v>211</v>
       </c>
       <c r="P142" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -31020,7 +31059,7 @@
         <v>213</v>
       </c>
       <c r="P144" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="Q144">
         <v>2.88</v>
@@ -31098,7 +31137,7 @@
         <v>1.8</v>
       </c>
       <c r="AP144">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ144">
         <v>1.75</v>
@@ -31226,7 +31265,7 @@
         <v>214</v>
       </c>
       <c r="P145" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Q145">
         <v>2.38</v>
@@ -31304,7 +31343,7 @@
         <v>1.5</v>
       </c>
       <c r="AP145">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ145">
         <v>1.33</v>
@@ -31925,7 +31964,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ148">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR148">
         <v>1.55</v>
@@ -32131,7 +32170,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ149">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR149">
         <v>1.71</v>
@@ -32256,7 +32295,7 @@
         <v>217</v>
       </c>
       <c r="P150" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32334,10 +32373,10 @@
         <v>1.14</v>
       </c>
       <c r="AP150">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ150">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR150">
         <v>1.24</v>
@@ -32540,10 +32579,10 @@
         <v>0</v>
       </c>
       <c r="AP151">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ151">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR151">
         <v>1.35</v>
@@ -32746,10 +32785,10 @@
         <v>1.25</v>
       </c>
       <c r="AP152">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ152">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR152">
         <v>1.48</v>
@@ -32952,10 +32991,10 @@
         <v>1</v>
       </c>
       <c r="AP153">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ153">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR153">
         <v>1.44</v>
@@ -33080,7 +33119,7 @@
         <v>104</v>
       </c>
       <c r="P154" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="Q154">
         <v>2.4</v>
@@ -33161,7 +33200,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ154">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR154">
         <v>1.8</v>
@@ -33367,7 +33406,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ155">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR155">
         <v>1.55</v>
@@ -33492,7 +33531,7 @@
         <v>219</v>
       </c>
       <c r="P156" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33904,7 +33943,7 @@
         <v>221</v>
       </c>
       <c r="P158" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -34110,7 +34149,7 @@
         <v>222</v>
       </c>
       <c r="P159" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="Q159">
         <v>2.1</v>
@@ -34188,10 +34227,10 @@
         <v>0.6</v>
       </c>
       <c r="AP159">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ159">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR159">
         <v>1.78</v>
@@ -34316,7 +34355,7 @@
         <v>223</v>
       </c>
       <c r="P160" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="Q160">
         <v>2.5</v>
@@ -34394,10 +34433,10 @@
         <v>1</v>
       </c>
       <c r="AP160">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ160">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR160">
         <v>1.52</v>
@@ -34522,7 +34561,7 @@
         <v>224</v>
       </c>
       <c r="P161" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="Q161">
         <v>3.4</v>
@@ -34728,7 +34767,7 @@
         <v>162</v>
       </c>
       <c r="P162" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -35015,7 +35054,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ163">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR163">
         <v>1.68</v>
@@ -35140,7 +35179,7 @@
         <v>226</v>
       </c>
       <c r="P164" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="Q164">
         <v>2.75</v>
@@ -35221,7 +35260,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ164">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR164">
         <v>1.45</v>
@@ -35346,7 +35385,7 @@
         <v>227</v>
       </c>
       <c r="P165" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="Q165">
         <v>2.3</v>
@@ -35552,7 +35591,7 @@
         <v>228</v>
       </c>
       <c r="P166" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="Q166">
         <v>2.3</v>
@@ -35758,7 +35797,7 @@
         <v>229</v>
       </c>
       <c r="P167" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="Q167">
         <v>2.5</v>
@@ -36042,7 +36081,7 @@
         <v>2.5</v>
       </c>
       <c r="AP168">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ168">
         <v>1.75</v>
@@ -36170,7 +36209,7 @@
         <v>231</v>
       </c>
       <c r="P169" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="Q169">
         <v>3.2</v>
@@ -36248,7 +36287,7 @@
         <v>0.67</v>
       </c>
       <c r="AP169">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ169">
         <v>1.11</v>
@@ -36582,7 +36621,7 @@
         <v>232</v>
       </c>
       <c r="P171" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="Q171">
         <v>3.1</v>
@@ -36660,7 +36699,7 @@
         <v>1.29</v>
       </c>
       <c r="AP171">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ171">
         <v>1.33</v>
@@ -36788,7 +36827,7 @@
         <v>233</v>
       </c>
       <c r="P172" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -37200,7 +37239,7 @@
         <v>121</v>
       </c>
       <c r="P174" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="Q174">
         <v>2.5</v>
@@ -37278,7 +37317,7 @@
         <v>0.8</v>
       </c>
       <c r="AP174">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ174">
         <v>1.43</v>
@@ -37487,7 +37526,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ175">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR175">
         <v>1.26</v>
@@ -37612,7 +37651,7 @@
         <v>104</v>
       </c>
       <c r="P176" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="Q176">
         <v>2.75</v>
@@ -37690,7 +37729,7 @@
         <v>0.2</v>
       </c>
       <c r="AP176">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ176">
         <v>0.57</v>
@@ -37818,7 +37857,7 @@
         <v>234</v>
       </c>
       <c r="P177" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="Q177">
         <v>2.63</v>
@@ -37896,10 +37935,10 @@
         <v>1.57</v>
       </c>
       <c r="AP177">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ177">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR177">
         <v>1.64</v>
@@ -38102,7 +38141,7 @@
         <v>1.17</v>
       </c>
       <c r="AP178">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ178">
         <v>1</v>
@@ -38230,7 +38269,7 @@
         <v>104</v>
       </c>
       <c r="P179" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="Q179">
         <v>3.1</v>
@@ -38720,7 +38759,7 @@
         <v>1</v>
       </c>
       <c r="AP181">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ181">
         <v>1.11</v>
@@ -38848,7 +38887,7 @@
         <v>237</v>
       </c>
       <c r="P182" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="Q182">
         <v>2.3</v>
@@ -38926,7 +38965,7 @@
         <v>0.57</v>
       </c>
       <c r="AP182">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ182">
         <v>0.44</v>
@@ -39054,7 +39093,7 @@
         <v>139</v>
       </c>
       <c r="P183" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Q183">
         <v>2.75</v>
@@ -39132,7 +39171,7 @@
         <v>0.4</v>
       </c>
       <c r="AP183">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ183">
         <v>0.86</v>
@@ -39341,7 +39380,7 @@
         <v>2</v>
       </c>
       <c r="AQ184">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR184">
         <v>1.27</v>
@@ -39466,7 +39505,7 @@
         <v>238</v>
       </c>
       <c r="P185" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="Q185">
         <v>2.3</v>
@@ -39547,7 +39586,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ185">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR185">
         <v>1.53</v>
@@ -39672,7 +39711,7 @@
         <v>104</v>
       </c>
       <c r="P186" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="Q186">
         <v>3.2</v>
@@ -40084,7 +40123,7 @@
         <v>240</v>
       </c>
       <c r="P188" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="Q188">
         <v>2.75</v>
@@ -40165,7 +40204,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ188">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR188">
         <v>1.66</v>
@@ -40368,7 +40407,7 @@
         <v>1.17</v>
       </c>
       <c r="AP189">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ189">
         <v>0.88</v>
@@ -40496,7 +40535,7 @@
         <v>241</v>
       </c>
       <c r="P190" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="Q190">
         <v>2.25</v>
@@ -40574,7 +40613,7 @@
         <v>0.71</v>
       </c>
       <c r="AP190">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ190">
         <v>0.89</v>
@@ -40783,7 +40822,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ191">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR191">
         <v>1.77</v>
@@ -40908,7 +40947,7 @@
         <v>243</v>
       </c>
       <c r="P192" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="Q192">
         <v>2.63</v>
@@ -40989,7 +41028,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ192">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR192">
         <v>1.28</v>
@@ -41114,7 +41153,7 @@
         <v>244</v>
       </c>
       <c r="P193" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -41192,7 +41231,7 @@
         <v>1.2</v>
       </c>
       <c r="AP193">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ193">
         <v>1.71</v>
@@ -41320,7 +41359,7 @@
         <v>245</v>
       </c>
       <c r="P194" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="Q194">
         <v>2.3</v>
@@ -41398,10 +41437,10 @@
         <v>1.57</v>
       </c>
       <c r="AP194">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ194">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR194">
         <v>1.51</v>
@@ -41607,7 +41646,7 @@
         <v>1</v>
       </c>
       <c r="AQ195">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR195">
         <v>1.38</v>
@@ -42144,7 +42183,7 @@
         <v>246</v>
       </c>
       <c r="P198" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="Q198">
         <v>3.3</v>
@@ -42350,7 +42389,7 @@
         <v>104</v>
       </c>
       <c r="P199" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="Q199">
         <v>2.51</v>
@@ -42762,7 +42801,7 @@
         <v>104</v>
       </c>
       <c r="P201" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="Q201">
         <v>2.88</v>
@@ -43174,7 +43213,7 @@
         <v>247</v>
       </c>
       <c r="P203" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="Q203">
         <v>2.16</v>
@@ -43252,7 +43291,7 @@
         <v>0.5</v>
       </c>
       <c r="AP203">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ203">
         <v>0.57</v>
@@ -43380,7 +43419,7 @@
         <v>248</v>
       </c>
       <c r="P204" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="Q204">
         <v>3.4</v>
@@ -43586,7 +43625,7 @@
         <v>211</v>
       </c>
       <c r="P205" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="Q205">
         <v>2.88</v>
@@ -43792,7 +43831,7 @@
         <v>249</v>
       </c>
       <c r="P206" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="Q206">
         <v>2.5</v>
@@ -43998,7 +44037,7 @@
         <v>250</v>
       </c>
       <c r="P207" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="Q207">
         <v>3</v>
@@ -44076,7 +44115,7 @@
         <v>2</v>
       </c>
       <c r="AP207">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ207">
         <v>2.13</v>
@@ -44204,7 +44243,7 @@
         <v>251</v>
       </c>
       <c r="P208" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="Q208">
         <v>2.38</v>
@@ -44285,7 +44324,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ208">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR208">
         <v>1.77</v>
@@ -44488,10 +44527,10 @@
         <v>0.83</v>
       </c>
       <c r="AP209">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ209">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR209">
         <v>1.48</v>
@@ -44616,7 +44655,7 @@
         <v>123</v>
       </c>
       <c r="P210" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="Q210">
         <v>2.3</v>
@@ -44697,7 +44736,7 @@
         <v>1</v>
       </c>
       <c r="AQ210">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR210">
         <v>1.37</v>
@@ -44900,7 +44939,7 @@
         <v>1</v>
       </c>
       <c r="AP211">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ211">
         <v>1</v>
@@ -45028,7 +45067,7 @@
         <v>253</v>
       </c>
       <c r="P212" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="Q212">
         <v>2.2</v>
@@ -45106,7 +45145,7 @@
         <v>0.67</v>
       </c>
       <c r="AP212">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ212">
         <v>0.57</v>
@@ -45234,7 +45273,7 @@
         <v>254</v>
       </c>
       <c r="P213" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="Q213">
         <v>3</v>
@@ -45440,7 +45479,7 @@
         <v>104</v>
       </c>
       <c r="P214" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="Q214">
         <v>2.4</v>
@@ -45646,7 +45685,7 @@
         <v>145</v>
       </c>
       <c r="P215" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="Q215">
         <v>2.05</v>
@@ -45724,7 +45763,7 @@
         <v>0.5</v>
       </c>
       <c r="AP215">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ215">
         <v>0.86</v>
@@ -45852,7 +45891,7 @@
         <v>104</v>
       </c>
       <c r="P216" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="Q216">
         <v>2.5</v>
@@ -46136,10 +46175,10 @@
         <v>1.67</v>
       </c>
       <c r="AP217">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ217">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR217">
         <v>1.37</v>
@@ -46264,7 +46303,7 @@
         <v>255</v>
       </c>
       <c r="P218" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="Q218">
         <v>2.6</v>
@@ -46345,7 +46384,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ218">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR218">
         <v>1.84</v>
@@ -46470,7 +46509,7 @@
         <v>256</v>
       </c>
       <c r="P219" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="Q219">
         <v>2.75</v>
@@ -46757,7 +46796,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ220">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR220">
         <v>1.7</v>
@@ -46882,7 +46921,7 @@
         <v>258</v>
       </c>
       <c r="P221" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="Q221">
         <v>2.6</v>
@@ -47166,7 +47205,7 @@
         <v>2.17</v>
       </c>
       <c r="AP222">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ222">
         <v>1.86</v>
@@ -47294,7 +47333,7 @@
         <v>260</v>
       </c>
       <c r="P223" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="Q223">
         <v>2.2</v>
@@ -47451,6 +47490,2272 @@
       </c>
       <c r="BP223">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="224" spans="1:68">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>7295463</v>
+      </c>
+      <c r="C224" t="s">
+        <v>68</v>
+      </c>
+      <c r="D224" t="s">
+        <v>69</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45444.85416666666</v>
+      </c>
+      <c r="F224">
+        <v>17</v>
+      </c>
+      <c r="G224" t="s">
+        <v>97</v>
+      </c>
+      <c r="H224" t="s">
+        <v>75</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>1</v>
+      </c>
+      <c r="L224">
+        <v>1</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>1</v>
+      </c>
+      <c r="O224" t="s">
+        <v>261</v>
+      </c>
+      <c r="P224" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q224">
+        <v>2.4</v>
+      </c>
+      <c r="R224">
+        <v>2.2</v>
+      </c>
+      <c r="S224">
+        <v>4.5</v>
+      </c>
+      <c r="T224">
+        <v>1.36</v>
+      </c>
+      <c r="U224">
+        <v>3</v>
+      </c>
+      <c r="V224">
+        <v>2.75</v>
+      </c>
+      <c r="W224">
+        <v>1.4</v>
+      </c>
+      <c r="X224">
+        <v>7</v>
+      </c>
+      <c r="Y224">
+        <v>1.1</v>
+      </c>
+      <c r="Z224">
+        <v>1.84</v>
+      </c>
+      <c r="AA224">
+        <v>3.75</v>
+      </c>
+      <c r="AB224">
+        <v>4.17</v>
+      </c>
+      <c r="AC224">
+        <v>1.01</v>
+      </c>
+      <c r="AD224">
+        <v>9.9</v>
+      </c>
+      <c r="AE224">
+        <v>1.24</v>
+      </c>
+      <c r="AF224">
+        <v>3.5</v>
+      </c>
+      <c r="AG224">
+        <v>1.81</v>
+      </c>
+      <c r="AH224">
+        <v>1.9</v>
+      </c>
+      <c r="AI224">
+        <v>1.8</v>
+      </c>
+      <c r="AJ224">
+        <v>1.95</v>
+      </c>
+      <c r="AK224">
+        <v>1.23</v>
+      </c>
+      <c r="AL224">
+        <v>1.27</v>
+      </c>
+      <c r="AM224">
+        <v>2</v>
+      </c>
+      <c r="AN224">
+        <v>2.33</v>
+      </c>
+      <c r="AO224">
+        <v>1.57</v>
+      </c>
+      <c r="AP224">
+        <v>2.43</v>
+      </c>
+      <c r="AQ224">
+        <v>1.38</v>
+      </c>
+      <c r="AR224">
+        <v>1.69</v>
+      </c>
+      <c r="AS224">
+        <v>1.22</v>
+      </c>
+      <c r="AT224">
+        <v>2.91</v>
+      </c>
+      <c r="AU224">
+        <v>5</v>
+      </c>
+      <c r="AV224">
+        <v>2</v>
+      </c>
+      <c r="AW224">
+        <v>9</v>
+      </c>
+      <c r="AX224">
+        <v>2</v>
+      </c>
+      <c r="AY224">
+        <v>14</v>
+      </c>
+      <c r="AZ224">
+        <v>4</v>
+      </c>
+      <c r="BA224">
+        <v>4</v>
+      </c>
+      <c r="BB224">
+        <v>5</v>
+      </c>
+      <c r="BC224">
+        <v>9</v>
+      </c>
+      <c r="BD224">
+        <v>1.65</v>
+      </c>
+      <c r="BE224">
+        <v>7.5</v>
+      </c>
+      <c r="BF224">
+        <v>2.7</v>
+      </c>
+      <c r="BG224">
+        <v>1.35</v>
+      </c>
+      <c r="BH224">
+        <v>2.84</v>
+      </c>
+      <c r="BI224">
+        <v>1.8</v>
+      </c>
+      <c r="BJ224">
+        <v>1.9</v>
+      </c>
+      <c r="BK224">
+        <v>2.1</v>
+      </c>
+      <c r="BL224">
+        <v>1.7</v>
+      </c>
+      <c r="BM224">
+        <v>2.56</v>
+      </c>
+      <c r="BN224">
+        <v>1.47</v>
+      </c>
+      <c r="BO224">
+        <v>3.92</v>
+      </c>
+      <c r="BP224">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="225" spans="1:68">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>7295464</v>
+      </c>
+      <c r="C225" t="s">
+        <v>68</v>
+      </c>
+      <c r="D225" t="s">
+        <v>69</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45444.85416666666</v>
+      </c>
+      <c r="F225">
+        <v>17</v>
+      </c>
+      <c r="G225" t="s">
+        <v>76</v>
+      </c>
+      <c r="H225" t="s">
+        <v>98</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>1</v>
+      </c>
+      <c r="K225">
+        <v>1</v>
+      </c>
+      <c r="L225">
+        <v>2</v>
+      </c>
+      <c r="M225">
+        <v>2</v>
+      </c>
+      <c r="N225">
+        <v>4</v>
+      </c>
+      <c r="O225" t="s">
+        <v>138</v>
+      </c>
+      <c r="P225" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q225">
+        <v>1.91</v>
+      </c>
+      <c r="R225">
+        <v>2.5</v>
+      </c>
+      <c r="S225">
+        <v>6.5</v>
+      </c>
+      <c r="T225">
+        <v>1.3</v>
+      </c>
+      <c r="U225">
+        <v>3.4</v>
+      </c>
+      <c r="V225">
+        <v>2.38</v>
+      </c>
+      <c r="W225">
+        <v>1.53</v>
+      </c>
+      <c r="X225">
+        <v>6</v>
+      </c>
+      <c r="Y225">
+        <v>1.13</v>
+      </c>
+      <c r="Z225">
+        <v>1.43</v>
+      </c>
+      <c r="AA225">
+        <v>4.85</v>
+      </c>
+      <c r="AB225">
+        <v>7</v>
+      </c>
+      <c r="AC225">
+        <v>1.03</v>
+      </c>
+      <c r="AD225">
+        <v>11</v>
+      </c>
+      <c r="AE225">
+        <v>1.2</v>
+      </c>
+      <c r="AF225">
+        <v>4.5</v>
+      </c>
+      <c r="AG225">
+        <v>1.59</v>
+      </c>
+      <c r="AH225">
+        <v>2.21</v>
+      </c>
+      <c r="AI225">
+        <v>1.8</v>
+      </c>
+      <c r="AJ225">
+        <v>1.95</v>
+      </c>
+      <c r="AK225">
+        <v>1.1</v>
+      </c>
+      <c r="AL225">
+        <v>1.13</v>
+      </c>
+      <c r="AM225">
+        <v>2.8</v>
+      </c>
+      <c r="AN225">
+        <v>0.71</v>
+      </c>
+      <c r="AO225">
+        <v>0.89</v>
+      </c>
+      <c r="AP225">
+        <v>0.75</v>
+      </c>
+      <c r="AQ225">
+        <v>0.9</v>
+      </c>
+      <c r="AR225">
+        <v>1.65</v>
+      </c>
+      <c r="AS225">
+        <v>1.05</v>
+      </c>
+      <c r="AT225">
+        <v>2.7</v>
+      </c>
+      <c r="AU225">
+        <v>11</v>
+      </c>
+      <c r="AV225">
+        <v>4</v>
+      </c>
+      <c r="AW225">
+        <v>9</v>
+      </c>
+      <c r="AX225">
+        <v>2</v>
+      </c>
+      <c r="AY225">
+        <v>20</v>
+      </c>
+      <c r="AZ225">
+        <v>6</v>
+      </c>
+      <c r="BA225">
+        <v>11</v>
+      </c>
+      <c r="BB225">
+        <v>1</v>
+      </c>
+      <c r="BC225">
+        <v>12</v>
+      </c>
+      <c r="BD225">
+        <v>1.33</v>
+      </c>
+      <c r="BE225">
+        <v>8</v>
+      </c>
+      <c r="BF225">
+        <v>4.5</v>
+      </c>
+      <c r="BG225">
+        <v>1.26</v>
+      </c>
+      <c r="BH225">
+        <v>3.6</v>
+      </c>
+      <c r="BI225">
+        <v>1.45</v>
+      </c>
+      <c r="BJ225">
+        <v>2.6</v>
+      </c>
+      <c r="BK225">
+        <v>1.78</v>
+      </c>
+      <c r="BL225">
+        <v>2</v>
+      </c>
+      <c r="BM225">
+        <v>2.2</v>
+      </c>
+      <c r="BN225">
+        <v>1.62</v>
+      </c>
+      <c r="BO225">
+        <v>2.9</v>
+      </c>
+      <c r="BP225">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="226" spans="1:68">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>7295462</v>
+      </c>
+      <c r="C226" t="s">
+        <v>68</v>
+      </c>
+      <c r="D226" t="s">
+        <v>69</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45444.85416666666</v>
+      </c>
+      <c r="F226">
+        <v>17</v>
+      </c>
+      <c r="G226" t="s">
+        <v>70</v>
+      </c>
+      <c r="H226" t="s">
+        <v>80</v>
+      </c>
+      <c r="I226">
+        <v>2</v>
+      </c>
+      <c r="J226">
+        <v>2</v>
+      </c>
+      <c r="K226">
+        <v>4</v>
+      </c>
+      <c r="L226">
+        <v>3</v>
+      </c>
+      <c r="M226">
+        <v>3</v>
+      </c>
+      <c r="N226">
+        <v>6</v>
+      </c>
+      <c r="O226" t="s">
+        <v>262</v>
+      </c>
+      <c r="P226" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q226">
+        <v>1.83</v>
+      </c>
+      <c r="R226">
+        <v>2.63</v>
+      </c>
+      <c r="S226">
+        <v>6.5</v>
+      </c>
+      <c r="T226">
+        <v>1.25</v>
+      </c>
+      <c r="U226">
+        <v>3.75</v>
+      </c>
+      <c r="V226">
+        <v>2.2</v>
+      </c>
+      <c r="W226">
+        <v>1.62</v>
+      </c>
+      <c r="X226">
+        <v>5</v>
+      </c>
+      <c r="Y226">
+        <v>1.17</v>
+      </c>
+      <c r="Z226">
+        <v>1.39</v>
+      </c>
+      <c r="AA226">
+        <v>5.1</v>
+      </c>
+      <c r="AB226">
+        <v>7.45</v>
+      </c>
+      <c r="AC226">
+        <v>1.02</v>
+      </c>
+      <c r="AD226">
+        <v>21.5</v>
+      </c>
+      <c r="AE226">
+        <v>1.15</v>
+      </c>
+      <c r="AF226">
+        <v>5.25</v>
+      </c>
+      <c r="AG226">
+        <v>1.45</v>
+      </c>
+      <c r="AH226">
+        <v>2.63</v>
+      </c>
+      <c r="AI226">
+        <v>1.7</v>
+      </c>
+      <c r="AJ226">
+        <v>2.05</v>
+      </c>
+      <c r="AK226">
+        <v>1.08</v>
+      </c>
+      <c r="AL226">
+        <v>1.13</v>
+      </c>
+      <c r="AM226">
+        <v>3</v>
+      </c>
+      <c r="AN226">
+        <v>1.89</v>
+      </c>
+      <c r="AO226">
+        <v>0.67</v>
+      </c>
+      <c r="AP226">
+        <v>1.8</v>
+      </c>
+      <c r="AQ226">
+        <v>0.71</v>
+      </c>
+      <c r="AR226">
+        <v>1.55</v>
+      </c>
+      <c r="AS226">
+        <v>1.43</v>
+      </c>
+      <c r="AT226">
+        <v>2.98</v>
+      </c>
+      <c r="AU226">
+        <v>11</v>
+      </c>
+      <c r="AV226">
+        <v>8</v>
+      </c>
+      <c r="AW226">
+        <v>4</v>
+      </c>
+      <c r="AX226">
+        <v>7</v>
+      </c>
+      <c r="AY226">
+        <v>15</v>
+      </c>
+      <c r="AZ226">
+        <v>15</v>
+      </c>
+      <c r="BA226">
+        <v>9</v>
+      </c>
+      <c r="BB226">
+        <v>7</v>
+      </c>
+      <c r="BC226">
+        <v>16</v>
+      </c>
+      <c r="BD226">
+        <v>1.5</v>
+      </c>
+      <c r="BE226">
+        <v>7.8</v>
+      </c>
+      <c r="BF226">
+        <v>3.2</v>
+      </c>
+      <c r="BG226">
+        <v>1.29</v>
+      </c>
+      <c r="BH226">
+        <v>3.25</v>
+      </c>
+      <c r="BI226">
+        <v>1.52</v>
+      </c>
+      <c r="BJ226">
+        <v>2.33</v>
+      </c>
+      <c r="BK226">
+        <v>1.9</v>
+      </c>
+      <c r="BL226">
+        <v>1.8</v>
+      </c>
+      <c r="BM226">
+        <v>2.45</v>
+      </c>
+      <c r="BN226">
+        <v>1.47</v>
+      </c>
+      <c r="BO226">
+        <v>3.3</v>
+      </c>
+      <c r="BP226">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="227" spans="1:68">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>7295461</v>
+      </c>
+      <c r="C227" t="s">
+        <v>68</v>
+      </c>
+      <c r="D227" t="s">
+        <v>69</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45444.85416666666</v>
+      </c>
+      <c r="F227">
+        <v>17</v>
+      </c>
+      <c r="G227" t="s">
+        <v>74</v>
+      </c>
+      <c r="H227" t="s">
+        <v>95</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>2</v>
+      </c>
+      <c r="K227">
+        <v>2</v>
+      </c>
+      <c r="L227">
+        <v>2</v>
+      </c>
+      <c r="M227">
+        <v>2</v>
+      </c>
+      <c r="N227">
+        <v>4</v>
+      </c>
+      <c r="O227" t="s">
+        <v>263</v>
+      </c>
+      <c r="P227" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q227">
+        <v>2.38</v>
+      </c>
+      <c r="R227">
+        <v>2.3</v>
+      </c>
+      <c r="S227">
+        <v>4.33</v>
+      </c>
+      <c r="T227">
+        <v>1.33</v>
+      </c>
+      <c r="U227">
+        <v>3.25</v>
+      </c>
+      <c r="V227">
+        <v>2.5</v>
+      </c>
+      <c r="W227">
+        <v>1.5</v>
+      </c>
+      <c r="X227">
+        <v>6.5</v>
+      </c>
+      <c r="Y227">
+        <v>1.11</v>
+      </c>
+      <c r="Z227">
+        <v>2</v>
+      </c>
+      <c r="AA227">
+        <v>3.75</v>
+      </c>
+      <c r="AB227">
+        <v>3.53</v>
+      </c>
+      <c r="AC227">
+        <v>1.02</v>
+      </c>
+      <c r="AD227">
+        <v>10</v>
+      </c>
+      <c r="AE227">
+        <v>1.19</v>
+      </c>
+      <c r="AF227">
+        <v>3.92</v>
+      </c>
+      <c r="AG227">
+        <v>1.68</v>
+      </c>
+      <c r="AH227">
+        <v>2.07</v>
+      </c>
+      <c r="AI227">
+        <v>1.67</v>
+      </c>
+      <c r="AJ227">
+        <v>2.1</v>
+      </c>
+      <c r="AK227">
+        <v>1.24</v>
+      </c>
+      <c r="AL227">
+        <v>1.26</v>
+      </c>
+      <c r="AM227">
+        <v>2</v>
+      </c>
+      <c r="AN227">
+        <v>1.38</v>
+      </c>
+      <c r="AO227">
+        <v>1</v>
+      </c>
+      <c r="AP227">
+        <v>1.33</v>
+      </c>
+      <c r="AQ227">
+        <v>1</v>
+      </c>
+      <c r="AR227">
+        <v>1.63</v>
+      </c>
+      <c r="AS227">
+        <v>1.07</v>
+      </c>
+      <c r="AT227">
+        <v>2.7</v>
+      </c>
+      <c r="AU227">
+        <v>9</v>
+      </c>
+      <c r="AV227">
+        <v>4</v>
+      </c>
+      <c r="AW227">
+        <v>4</v>
+      </c>
+      <c r="AX227">
+        <v>3</v>
+      </c>
+      <c r="AY227">
+        <v>13</v>
+      </c>
+      <c r="AZ227">
+        <v>7</v>
+      </c>
+      <c r="BA227">
+        <v>10</v>
+      </c>
+      <c r="BB227">
+        <v>4</v>
+      </c>
+      <c r="BC227">
+        <v>14</v>
+      </c>
+      <c r="BD227">
+        <v>1.57</v>
+      </c>
+      <c r="BE227">
+        <v>7.5</v>
+      </c>
+      <c r="BF227">
+        <v>2.95</v>
+      </c>
+      <c r="BG227">
+        <v>1.2</v>
+      </c>
+      <c r="BH227">
+        <v>3.95</v>
+      </c>
+      <c r="BI227">
+        <v>1.38</v>
+      </c>
+      <c r="BJ227">
+        <v>2.75</v>
+      </c>
+      <c r="BK227">
+        <v>1.73</v>
+      </c>
+      <c r="BL227">
+        <v>2</v>
+      </c>
+      <c r="BM227">
+        <v>2.1</v>
+      </c>
+      <c r="BN227">
+        <v>1.69</v>
+      </c>
+      <c r="BO227">
+        <v>2.7</v>
+      </c>
+      <c r="BP227">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="228" spans="1:68">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>7295465</v>
+      </c>
+      <c r="C228" t="s">
+        <v>68</v>
+      </c>
+      <c r="D228" t="s">
+        <v>69</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45444.89583333334</v>
+      </c>
+      <c r="F228">
+        <v>17</v>
+      </c>
+      <c r="G228" t="s">
+        <v>88</v>
+      </c>
+      <c r="H228" t="s">
+        <v>84</v>
+      </c>
+      <c r="I228">
+        <v>1</v>
+      </c>
+      <c r="J228">
+        <v>1</v>
+      </c>
+      <c r="K228">
+        <v>2</v>
+      </c>
+      <c r="L228">
+        <v>2</v>
+      </c>
+      <c r="M228">
+        <v>1</v>
+      </c>
+      <c r="N228">
+        <v>3</v>
+      </c>
+      <c r="O228" t="s">
+        <v>264</v>
+      </c>
+      <c r="P228" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q228">
+        <v>3.1</v>
+      </c>
+      <c r="R228">
+        <v>2.3</v>
+      </c>
+      <c r="S228">
+        <v>3.1</v>
+      </c>
+      <c r="T228">
+        <v>1.33</v>
+      </c>
+      <c r="U228">
+        <v>3.25</v>
+      </c>
+      <c r="V228">
+        <v>2.5</v>
+      </c>
+      <c r="W228">
+        <v>1.5</v>
+      </c>
+      <c r="X228">
+        <v>6.5</v>
+      </c>
+      <c r="Y228">
+        <v>1.11</v>
+      </c>
+      <c r="Z228">
+        <v>2.53</v>
+      </c>
+      <c r="AA228">
+        <v>3.75</v>
+      </c>
+      <c r="AB228">
+        <v>2.58</v>
+      </c>
+      <c r="AC228">
+        <v>1.03</v>
+      </c>
+      <c r="AD228">
+        <v>15</v>
+      </c>
+      <c r="AE228">
+        <v>1.22</v>
+      </c>
+      <c r="AF228">
+        <v>4.33</v>
+      </c>
+      <c r="AG228">
+        <v>1.65</v>
+      </c>
+      <c r="AH228">
+        <v>2.12</v>
+      </c>
+      <c r="AI228">
+        <v>1.57</v>
+      </c>
+      <c r="AJ228">
+        <v>2.25</v>
+      </c>
+      <c r="AK228">
+        <v>1.53</v>
+      </c>
+      <c r="AL228">
+        <v>1.24</v>
+      </c>
+      <c r="AM228">
+        <v>1.55</v>
+      </c>
+      <c r="AN228">
+        <v>0.89</v>
+      </c>
+      <c r="AO228">
+        <v>1.44</v>
+      </c>
+      <c r="AP228">
+        <v>1.1</v>
+      </c>
+      <c r="AQ228">
+        <v>1.3</v>
+      </c>
+      <c r="AR228">
+        <v>1.41</v>
+      </c>
+      <c r="AS228">
+        <v>1.39</v>
+      </c>
+      <c r="AT228">
+        <v>2.8</v>
+      </c>
+      <c r="AU228">
+        <v>5</v>
+      </c>
+      <c r="AV228">
+        <v>5</v>
+      </c>
+      <c r="AW228">
+        <v>6</v>
+      </c>
+      <c r="AX228">
+        <v>5</v>
+      </c>
+      <c r="AY228">
+        <v>11</v>
+      </c>
+      <c r="AZ228">
+        <v>10</v>
+      </c>
+      <c r="BA228">
+        <v>2</v>
+      </c>
+      <c r="BB228">
+        <v>5</v>
+      </c>
+      <c r="BC228">
+        <v>7</v>
+      </c>
+      <c r="BD228">
+        <v>1.91</v>
+      </c>
+      <c r="BE228">
+        <v>8.5</v>
+      </c>
+      <c r="BF228">
+        <v>2.1</v>
+      </c>
+      <c r="BG228">
+        <v>1.13</v>
+      </c>
+      <c r="BH228">
+        <v>4.75</v>
+      </c>
+      <c r="BI228">
+        <v>1.28</v>
+      </c>
+      <c r="BJ228">
+        <v>3.25</v>
+      </c>
+      <c r="BK228">
+        <v>1.54</v>
+      </c>
+      <c r="BL228">
+        <v>2.36</v>
+      </c>
+      <c r="BM228">
+        <v>1.9</v>
+      </c>
+      <c r="BN228">
+        <v>1.9</v>
+      </c>
+      <c r="BO228">
+        <v>2.34</v>
+      </c>
+      <c r="BP228">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="229" spans="1:68">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>7295466</v>
+      </c>
+      <c r="C229" t="s">
+        <v>68</v>
+      </c>
+      <c r="D229" t="s">
+        <v>69</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45444.89583333334</v>
+      </c>
+      <c r="F229">
+        <v>17</v>
+      </c>
+      <c r="G229" t="s">
+        <v>85</v>
+      </c>
+      <c r="H229" t="s">
+        <v>89</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>1</v>
+      </c>
+      <c r="L229">
+        <v>3</v>
+      </c>
+      <c r="M229">
+        <v>1</v>
+      </c>
+      <c r="N229">
+        <v>4</v>
+      </c>
+      <c r="O229" t="s">
+        <v>265</v>
+      </c>
+      <c r="P229" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q229">
+        <v>2.25</v>
+      </c>
+      <c r="R229">
+        <v>2.4</v>
+      </c>
+      <c r="S229">
+        <v>4.5</v>
+      </c>
+      <c r="T229">
+        <v>1.29</v>
+      </c>
+      <c r="U229">
+        <v>3.5</v>
+      </c>
+      <c r="V229">
+        <v>2.38</v>
+      </c>
+      <c r="W229">
+        <v>1.53</v>
+      </c>
+      <c r="X229">
+        <v>5.5</v>
+      </c>
+      <c r="Y229">
+        <v>1.14</v>
+      </c>
+      <c r="Z229">
+        <v>1.7</v>
+      </c>
+      <c r="AA229">
+        <v>4.15</v>
+      </c>
+      <c r="AB229">
+        <v>4.5</v>
+      </c>
+      <c r="AC229">
+        <v>1.02</v>
+      </c>
+      <c r="AD229">
+        <v>17</v>
+      </c>
+      <c r="AE229">
+        <v>1.19</v>
+      </c>
+      <c r="AF229">
+        <v>4.75</v>
+      </c>
+      <c r="AG229">
+        <v>1.58</v>
+      </c>
+      <c r="AH229">
+        <v>2.25</v>
+      </c>
+      <c r="AI229">
+        <v>1.62</v>
+      </c>
+      <c r="AJ229">
+        <v>2.2</v>
+      </c>
+      <c r="AK229">
+        <v>1.2</v>
+      </c>
+      <c r="AL229">
+        <v>1.2</v>
+      </c>
+      <c r="AM229">
+        <v>2.2</v>
+      </c>
+      <c r="AN229">
+        <v>1.71</v>
+      </c>
+      <c r="AO229">
+        <v>0.71</v>
+      </c>
+      <c r="AP229">
+        <v>1.88</v>
+      </c>
+      <c r="AQ229">
+        <v>0.63</v>
+      </c>
+      <c r="AR229">
+        <v>1.8</v>
+      </c>
+      <c r="AS229">
+        <v>1.26</v>
+      </c>
+      <c r="AT229">
+        <v>3.06</v>
+      </c>
+      <c r="AU229">
+        <v>7</v>
+      </c>
+      <c r="AV229">
+        <v>2</v>
+      </c>
+      <c r="AW229">
+        <v>3</v>
+      </c>
+      <c r="AX229">
+        <v>7</v>
+      </c>
+      <c r="AY229">
+        <v>10</v>
+      </c>
+      <c r="AZ229">
+        <v>9</v>
+      </c>
+      <c r="BA229">
+        <v>4</v>
+      </c>
+      <c r="BB229">
+        <v>4</v>
+      </c>
+      <c r="BC229">
+        <v>8</v>
+      </c>
+      <c r="BD229">
+        <v>1.57</v>
+      </c>
+      <c r="BE229">
+        <v>9</v>
+      </c>
+      <c r="BF229">
+        <v>2.62</v>
+      </c>
+      <c r="BG229">
+        <v>1.12</v>
+      </c>
+      <c r="BH229">
+        <v>5.1</v>
+      </c>
+      <c r="BI229">
+        <v>1.29</v>
+      </c>
+      <c r="BJ229">
+        <v>3.25</v>
+      </c>
+      <c r="BK229">
+        <v>1.51</v>
+      </c>
+      <c r="BL229">
+        <v>2.46</v>
+      </c>
+      <c r="BM229">
+        <v>1.85</v>
+      </c>
+      <c r="BN229">
+        <v>1.94</v>
+      </c>
+      <c r="BO229">
+        <v>2.3</v>
+      </c>
+      <c r="BP229">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="230" spans="1:68">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>7295467</v>
+      </c>
+      <c r="C230" t="s">
+        <v>68</v>
+      </c>
+      <c r="D230" t="s">
+        <v>69</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45444.89583333334</v>
+      </c>
+      <c r="F230">
+        <v>17</v>
+      </c>
+      <c r="G230" t="s">
+        <v>83</v>
+      </c>
+      <c r="H230" t="s">
+        <v>93</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>1</v>
+      </c>
+      <c r="K230">
+        <v>1</v>
+      </c>
+      <c r="L230">
+        <v>1</v>
+      </c>
+      <c r="M230">
+        <v>2</v>
+      </c>
+      <c r="N230">
+        <v>3</v>
+      </c>
+      <c r="O230" t="s">
+        <v>124</v>
+      </c>
+      <c r="P230" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q230">
+        <v>2.3</v>
+      </c>
+      <c r="R230">
+        <v>2.25</v>
+      </c>
+      <c r="S230">
+        <v>5</v>
+      </c>
+      <c r="T230">
+        <v>1.36</v>
+      </c>
+      <c r="U230">
+        <v>3</v>
+      </c>
+      <c r="V230">
+        <v>2.63</v>
+      </c>
+      <c r="W230">
+        <v>1.44</v>
+      </c>
+      <c r="X230">
+        <v>7</v>
+      </c>
+      <c r="Y230">
+        <v>1.1</v>
+      </c>
+      <c r="Z230">
+        <v>1.71</v>
+      </c>
+      <c r="AA230">
+        <v>3.9</v>
+      </c>
+      <c r="AB230">
+        <v>4.8</v>
+      </c>
+      <c r="AC230">
+        <v>1.04</v>
+      </c>
+      <c r="AD230">
+        <v>13</v>
+      </c>
+      <c r="AE230">
+        <v>1.26</v>
+      </c>
+      <c r="AF230">
+        <v>4</v>
+      </c>
+      <c r="AG230">
+        <v>1.76</v>
+      </c>
+      <c r="AH230">
+        <v>1.95</v>
+      </c>
+      <c r="AI230">
+        <v>1.8</v>
+      </c>
+      <c r="AJ230">
+        <v>1.95</v>
+      </c>
+      <c r="AK230">
+        <v>1.19</v>
+      </c>
+      <c r="AL230">
+        <v>1.22</v>
+      </c>
+      <c r="AM230">
+        <v>2.15</v>
+      </c>
+      <c r="AN230">
+        <v>1.56</v>
+      </c>
+      <c r="AO230">
+        <v>0.5</v>
+      </c>
+      <c r="AP230">
+        <v>1.4</v>
+      </c>
+      <c r="AQ230">
+        <v>0.86</v>
+      </c>
+      <c r="AR230">
+        <v>1.29</v>
+      </c>
+      <c r="AS230">
+        <v>1.37</v>
+      </c>
+      <c r="AT230">
+        <v>2.66</v>
+      </c>
+      <c r="AU230">
+        <v>6</v>
+      </c>
+      <c r="AV230">
+        <v>5</v>
+      </c>
+      <c r="AW230">
+        <v>6</v>
+      </c>
+      <c r="AX230">
+        <v>4</v>
+      </c>
+      <c r="AY230">
+        <v>12</v>
+      </c>
+      <c r="AZ230">
+        <v>9</v>
+      </c>
+      <c r="BA230">
+        <v>8</v>
+      </c>
+      <c r="BB230">
+        <v>4</v>
+      </c>
+      <c r="BC230">
+        <v>12</v>
+      </c>
+      <c r="BD230">
+        <v>1.62</v>
+      </c>
+      <c r="BE230">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF230">
+        <v>2.71</v>
+      </c>
+      <c r="BG230">
+        <v>1.22</v>
+      </c>
+      <c r="BH230">
+        <v>3.65</v>
+      </c>
+      <c r="BI230">
+        <v>1.44</v>
+      </c>
+      <c r="BJ230">
+        <v>2.58</v>
+      </c>
+      <c r="BK230">
+        <v>1.76</v>
+      </c>
+      <c r="BL230">
+        <v>2.02</v>
+      </c>
+      <c r="BM230">
+        <v>2.21</v>
+      </c>
+      <c r="BN230">
+        <v>1.63</v>
+      </c>
+      <c r="BO230">
+        <v>2.98</v>
+      </c>
+      <c r="BP230">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="231" spans="1:68">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>7295468</v>
+      </c>
+      <c r="C231" t="s">
+        <v>68</v>
+      </c>
+      <c r="D231" t="s">
+        <v>69</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45444.9375</v>
+      </c>
+      <c r="F231">
+        <v>17</v>
+      </c>
+      <c r="G231" t="s">
+        <v>86</v>
+      </c>
+      <c r="H231" t="s">
+        <v>77</v>
+      </c>
+      <c r="I231">
+        <v>4</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>4</v>
+      </c>
+      <c r="L231">
+        <v>5</v>
+      </c>
+      <c r="M231">
+        <v>1</v>
+      </c>
+      <c r="N231">
+        <v>6</v>
+      </c>
+      <c r="O231" t="s">
+        <v>266</v>
+      </c>
+      <c r="P231" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q231">
+        <v>2.1</v>
+      </c>
+      <c r="R231">
+        <v>2.3</v>
+      </c>
+      <c r="S231">
+        <v>5.5</v>
+      </c>
+      <c r="T231">
+        <v>1.33</v>
+      </c>
+      <c r="U231">
+        <v>3.25</v>
+      </c>
+      <c r="V231">
+        <v>2.63</v>
+      </c>
+      <c r="W231">
+        <v>1.44</v>
+      </c>
+      <c r="X231">
+        <v>6.5</v>
+      </c>
+      <c r="Y231">
+        <v>1.11</v>
+      </c>
+      <c r="Z231">
+        <v>1.84</v>
+      </c>
+      <c r="AA231">
+        <v>3.85</v>
+      </c>
+      <c r="AB231">
+        <v>4.05</v>
+      </c>
+      <c r="AC231">
+        <v>1.03</v>
+      </c>
+      <c r="AD231">
+        <v>13</v>
+      </c>
+      <c r="AE231">
+        <v>1.24</v>
+      </c>
+      <c r="AF231">
+        <v>4.2</v>
+      </c>
+      <c r="AG231">
+        <v>1.7</v>
+      </c>
+      <c r="AH231">
+        <v>2.03</v>
+      </c>
+      <c r="AI231">
+        <v>1.8</v>
+      </c>
+      <c r="AJ231">
+        <v>1.95</v>
+      </c>
+      <c r="AK231">
+        <v>1.14</v>
+      </c>
+      <c r="AL231">
+        <v>1.2</v>
+      </c>
+      <c r="AM231">
+        <v>2.45</v>
+      </c>
+      <c r="AN231">
+        <v>2.29</v>
+      </c>
+      <c r="AO231">
+        <v>0.86</v>
+      </c>
+      <c r="AP231">
+        <v>2.38</v>
+      </c>
+      <c r="AQ231">
+        <v>0.75</v>
+      </c>
+      <c r="AR231">
+        <v>1.57</v>
+      </c>
+      <c r="AS231">
+        <v>0.87</v>
+      </c>
+      <c r="AT231">
+        <v>2.44</v>
+      </c>
+      <c r="AU231">
+        <v>12</v>
+      </c>
+      <c r="AV231">
+        <v>4</v>
+      </c>
+      <c r="AW231">
+        <v>7</v>
+      </c>
+      <c r="AX231">
+        <v>3</v>
+      </c>
+      <c r="AY231">
+        <v>19</v>
+      </c>
+      <c r="AZ231">
+        <v>7</v>
+      </c>
+      <c r="BA231">
+        <v>4</v>
+      </c>
+      <c r="BB231">
+        <v>2</v>
+      </c>
+      <c r="BC231">
+        <v>6</v>
+      </c>
+      <c r="BD231">
+        <v>1.33</v>
+      </c>
+      <c r="BE231">
+        <v>10</v>
+      </c>
+      <c r="BF231">
+        <v>3.6</v>
+      </c>
+      <c r="BG231">
+        <v>1.12</v>
+      </c>
+      <c r="BH231">
+        <v>5.1</v>
+      </c>
+      <c r="BI231">
+        <v>1.29</v>
+      </c>
+      <c r="BJ231">
+        <v>3.25</v>
+      </c>
+      <c r="BK231">
+        <v>1.49</v>
+      </c>
+      <c r="BL231">
+        <v>2.49</v>
+      </c>
+      <c r="BM231">
+        <v>1.83</v>
+      </c>
+      <c r="BN231">
+        <v>1.96</v>
+      </c>
+      <c r="BO231">
+        <v>2.28</v>
+      </c>
+      <c r="BP231">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="232" spans="1:68">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>7295458</v>
+      </c>
+      <c r="C232" t="s">
+        <v>68</v>
+      </c>
+      <c r="D232" t="s">
+        <v>69</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45444.97916666666</v>
+      </c>
+      <c r="F232">
+        <v>17</v>
+      </c>
+      <c r="G232" t="s">
+        <v>87</v>
+      </c>
+      <c r="H232" t="s">
+        <v>90</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>2</v>
+      </c>
+      <c r="M232">
+        <v>1</v>
+      </c>
+      <c r="N232">
+        <v>3</v>
+      </c>
+      <c r="O232" t="s">
+        <v>267</v>
+      </c>
+      <c r="P232" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q232">
+        <v>2.75</v>
+      </c>
+      <c r="R232">
+        <v>2.2</v>
+      </c>
+      <c r="S232">
+        <v>3.75</v>
+      </c>
+      <c r="T232">
+        <v>1.36</v>
+      </c>
+      <c r="U232">
+        <v>3</v>
+      </c>
+      <c r="V232">
+        <v>2.63</v>
+      </c>
+      <c r="W232">
+        <v>1.44</v>
+      </c>
+      <c r="X232">
+        <v>7</v>
+      </c>
+      <c r="Y232">
+        <v>1.1</v>
+      </c>
+      <c r="Z232">
+        <v>2.1</v>
+      </c>
+      <c r="AA232">
+        <v>3.62</v>
+      </c>
+      <c r="AB232">
+        <v>3.35</v>
+      </c>
+      <c r="AC232">
+        <v>1.03</v>
+      </c>
+      <c r="AD232">
+        <v>13</v>
+      </c>
+      <c r="AE232">
+        <v>1.25</v>
+      </c>
+      <c r="AF232">
+        <v>4</v>
+      </c>
+      <c r="AG232">
+        <v>1.76</v>
+      </c>
+      <c r="AH232">
+        <v>1.95</v>
+      </c>
+      <c r="AI232">
+        <v>1.7</v>
+      </c>
+      <c r="AJ232">
+        <v>2.05</v>
+      </c>
+      <c r="AK232">
+        <v>1.3</v>
+      </c>
+      <c r="AL232">
+        <v>1.24</v>
+      </c>
+      <c r="AM232">
+        <v>1.83</v>
+      </c>
+      <c r="AN232">
+        <v>1.14</v>
+      </c>
+      <c r="AO232">
+        <v>1.22</v>
+      </c>
+      <c r="AP232">
+        <v>1.38</v>
+      </c>
+      <c r="AQ232">
+        <v>1.1</v>
+      </c>
+      <c r="AR232">
+        <v>1.58</v>
+      </c>
+      <c r="AS232">
+        <v>1.45</v>
+      </c>
+      <c r="AT232">
+        <v>3.03</v>
+      </c>
+      <c r="AU232">
+        <v>4</v>
+      </c>
+      <c r="AV232">
+        <v>4</v>
+      </c>
+      <c r="AW232">
+        <v>8</v>
+      </c>
+      <c r="AX232">
+        <v>6</v>
+      </c>
+      <c r="AY232">
+        <v>12</v>
+      </c>
+      <c r="AZ232">
+        <v>10</v>
+      </c>
+      <c r="BA232">
+        <v>3</v>
+      </c>
+      <c r="BB232">
+        <v>7</v>
+      </c>
+      <c r="BC232">
+        <v>10</v>
+      </c>
+      <c r="BD232">
+        <v>1.61</v>
+      </c>
+      <c r="BE232">
+        <v>9.5</v>
+      </c>
+      <c r="BF232">
+        <v>2.72</v>
+      </c>
+      <c r="BG232">
+        <v>1.22</v>
+      </c>
+      <c r="BH232">
+        <v>3.75</v>
+      </c>
+      <c r="BI232">
+        <v>1.41</v>
+      </c>
+      <c r="BJ232">
+        <v>2.63</v>
+      </c>
+      <c r="BK232">
+        <v>1.62</v>
+      </c>
+      <c r="BL232">
+        <v>2.22</v>
+      </c>
+      <c r="BM232">
+        <v>2.01</v>
+      </c>
+      <c r="BN232">
+        <v>1.77</v>
+      </c>
+      <c r="BO232">
+        <v>2.88</v>
+      </c>
+      <c r="BP232">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="233" spans="1:68">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>7295469</v>
+      </c>
+      <c r="C233" t="s">
+        <v>68</v>
+      </c>
+      <c r="D233" t="s">
+        <v>69</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45444.97916666666</v>
+      </c>
+      <c r="F233">
+        <v>17</v>
+      </c>
+      <c r="G233" t="s">
+        <v>72</v>
+      </c>
+      <c r="H233" t="s">
+        <v>78</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>1</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>1</v>
+      </c>
+      <c r="O233" t="s">
+        <v>268</v>
+      </c>
+      <c r="P233" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q233">
+        <v>1.95</v>
+      </c>
+      <c r="R233">
+        <v>2.4</v>
+      </c>
+      <c r="S233">
+        <v>6</v>
+      </c>
+      <c r="T233">
+        <v>1.3</v>
+      </c>
+      <c r="U233">
+        <v>3.4</v>
+      </c>
+      <c r="V233">
+        <v>2.5</v>
+      </c>
+      <c r="W233">
+        <v>1.5</v>
+      </c>
+      <c r="X233">
+        <v>6</v>
+      </c>
+      <c r="Y233">
+        <v>1.13</v>
+      </c>
+      <c r="Z233">
+        <v>1.47</v>
+      </c>
+      <c r="AA233">
+        <v>4.72</v>
+      </c>
+      <c r="AB233">
+        <v>6.3</v>
+      </c>
+      <c r="AC233">
+        <v>1.03</v>
+      </c>
+      <c r="AD233">
+        <v>16.5</v>
+      </c>
+      <c r="AE233">
+        <v>1.18</v>
+      </c>
+      <c r="AF233">
+        <v>4.05</v>
+      </c>
+      <c r="AG233">
+        <v>1.65</v>
+      </c>
+      <c r="AH233">
+        <v>2.12</v>
+      </c>
+      <c r="AI233">
+        <v>1.91</v>
+      </c>
+      <c r="AJ233">
+        <v>1.91</v>
+      </c>
+      <c r="AK233">
+        <v>1.14</v>
+      </c>
+      <c r="AL233">
+        <v>1.2</v>
+      </c>
+      <c r="AM233">
+        <v>2.65</v>
+      </c>
+      <c r="AN233">
+        <v>2.5</v>
+      </c>
+      <c r="AO233">
+        <v>0.29</v>
+      </c>
+      <c r="AP233">
+        <v>2.56</v>
+      </c>
+      <c r="AQ233">
+        <v>0.25</v>
+      </c>
+      <c r="AR233">
+        <v>1.97</v>
+      </c>
+      <c r="AS233">
+        <v>1.05</v>
+      </c>
+      <c r="AT233">
+        <v>3.02</v>
+      </c>
+      <c r="AU233">
+        <v>10</v>
+      </c>
+      <c r="AV233">
+        <v>4</v>
+      </c>
+      <c r="AW233">
+        <v>6</v>
+      </c>
+      <c r="AX233">
+        <v>5</v>
+      </c>
+      <c r="AY233">
+        <v>16</v>
+      </c>
+      <c r="AZ233">
+        <v>9</v>
+      </c>
+      <c r="BA233">
+        <v>8</v>
+      </c>
+      <c r="BB233">
+        <v>2</v>
+      </c>
+      <c r="BC233">
+        <v>10</v>
+      </c>
+      <c r="BD233">
+        <v>1.3</v>
+      </c>
+      <c r="BE233">
+        <v>10</v>
+      </c>
+      <c r="BF233">
+        <v>3.9</v>
+      </c>
+      <c r="BG233">
+        <v>1.27</v>
+      </c>
+      <c r="BH233">
+        <v>3.35</v>
+      </c>
+      <c r="BI233">
+        <v>1.49</v>
+      </c>
+      <c r="BJ233">
+        <v>2.4</v>
+      </c>
+      <c r="BK233">
+        <v>1.69</v>
+      </c>
+      <c r="BL233">
+        <v>2.11</v>
+      </c>
+      <c r="BM233">
+        <v>2.11</v>
+      </c>
+      <c r="BN233">
+        <v>1.69</v>
+      </c>
+      <c r="BO233">
+        <v>3.2</v>
+      </c>
+      <c r="BP233">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="234" spans="1:68">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>7295470</v>
+      </c>
+      <c r="C234" t="s">
+        <v>68</v>
+      </c>
+      <c r="D234" t="s">
+        <v>69</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45444.97916666666</v>
+      </c>
+      <c r="F234">
+        <v>17</v>
+      </c>
+      <c r="G234" t="s">
+        <v>81</v>
+      </c>
+      <c r="H234" t="s">
+        <v>79</v>
+      </c>
+      <c r="I234">
+        <v>1</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
+      </c>
+      <c r="K234">
+        <v>2</v>
+      </c>
+      <c r="L234">
+        <v>2</v>
+      </c>
+      <c r="M234">
+        <v>2</v>
+      </c>
+      <c r="N234">
+        <v>4</v>
+      </c>
+      <c r="O234" t="s">
+        <v>269</v>
+      </c>
+      <c r="P234" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q234">
+        <v>2.75</v>
+      </c>
+      <c r="R234">
+        <v>2.2</v>
+      </c>
+      <c r="S234">
+        <v>4</v>
+      </c>
+      <c r="T234">
+        <v>1.36</v>
+      </c>
+      <c r="U234">
+        <v>3</v>
+      </c>
+      <c r="V234">
+        <v>2.75</v>
+      </c>
+      <c r="W234">
+        <v>1.4</v>
+      </c>
+      <c r="X234">
+        <v>7</v>
+      </c>
+      <c r="Y234">
+        <v>1.1</v>
+      </c>
+      <c r="Z234">
+        <v>2.1</v>
+      </c>
+      <c r="AA234">
+        <v>3.62</v>
+      </c>
+      <c r="AB234">
+        <v>3.35</v>
+      </c>
+      <c r="AC234">
+        <v>1.04</v>
+      </c>
+      <c r="AD234">
+        <v>12</v>
+      </c>
+      <c r="AE234">
+        <v>1.28</v>
+      </c>
+      <c r="AF234">
+        <v>3.75</v>
+      </c>
+      <c r="AG234">
+        <v>1.81</v>
+      </c>
+      <c r="AH234">
+        <v>1.9</v>
+      </c>
+      <c r="AI234">
+        <v>1.75</v>
+      </c>
+      <c r="AJ234">
+        <v>2</v>
+      </c>
+      <c r="AK234">
+        <v>1.33</v>
+      </c>
+      <c r="AL234">
+        <v>1.26</v>
+      </c>
+      <c r="AM234">
+        <v>1.75</v>
+      </c>
+      <c r="AN234">
+        <v>1.57</v>
+      </c>
+      <c r="AO234">
+        <v>1.29</v>
+      </c>
+      <c r="AP234">
+        <v>1.5</v>
+      </c>
+      <c r="AQ234">
+        <v>1.25</v>
+      </c>
+      <c r="AR234">
+        <v>1.45</v>
+      </c>
+      <c r="AS234">
+        <v>1.13</v>
+      </c>
+      <c r="AT234">
+        <v>2.58</v>
+      </c>
+      <c r="AU234">
+        <v>5</v>
+      </c>
+      <c r="AV234">
+        <v>5</v>
+      </c>
+      <c r="AW234">
+        <v>8</v>
+      </c>
+      <c r="AX234">
+        <v>1</v>
+      </c>
+      <c r="AY234">
+        <v>13</v>
+      </c>
+      <c r="AZ234">
+        <v>6</v>
+      </c>
+      <c r="BA234">
+        <v>7</v>
+      </c>
+      <c r="BB234">
+        <v>8</v>
+      </c>
+      <c r="BC234">
+        <v>15</v>
+      </c>
+      <c r="BD234">
+        <v>1.65</v>
+      </c>
+      <c r="BE234">
+        <v>8.5</v>
+      </c>
+      <c r="BF234">
+        <v>2.65</v>
+      </c>
+      <c r="BG234">
+        <v>1.27</v>
+      </c>
+      <c r="BH234">
+        <v>3.35</v>
+      </c>
+      <c r="BI234">
+        <v>1.52</v>
+      </c>
+      <c r="BJ234">
+        <v>2.44</v>
+      </c>
+      <c r="BK234">
+        <v>1.88</v>
+      </c>
+      <c r="BL234">
+        <v>1.92</v>
+      </c>
+      <c r="BM234">
+        <v>2.37</v>
+      </c>
+      <c r="BN234">
+        <v>1.55</v>
+      </c>
+      <c r="BO234">
+        <v>3.2</v>
+      </c>
+      <c r="BP234">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="393">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -826,6 +826,9 @@
     <t>['37', '76']</t>
   </si>
   <si>
+    <t>['35', '76']</t>
+  </si>
+  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -1188,6 +1191,9 @@
   <si>
     <t>['8', '50']</t>
   </si>
+  <si>
+    <t>['40', '56', '68']</t>
+  </si>
 </sst>
 </file>
 
@@ -1548,7 +1554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP234"/>
+  <dimension ref="A1:BP235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2219,7 +2225,7 @@
         <v>101</v>
       </c>
       <c r="P4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -2631,7 +2637,7 @@
         <v>103</v>
       </c>
       <c r="P6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -3043,7 +3049,7 @@
         <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -3249,7 +3255,7 @@
         <v>106</v>
       </c>
       <c r="P9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3455,7 +3461,7 @@
         <v>107</v>
       </c>
       <c r="P10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -4073,7 +4079,7 @@
         <v>110</v>
       </c>
       <c r="P13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -5515,7 +5521,7 @@
         <v>115</v>
       </c>
       <c r="P20" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -5596,7 +5602,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ20">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5721,7 +5727,7 @@
         <v>116</v>
       </c>
       <c r="P21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5927,7 +5933,7 @@
         <v>117</v>
       </c>
       <c r="P22" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -6133,7 +6139,7 @@
         <v>118</v>
       </c>
       <c r="P23" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6751,7 +6757,7 @@
         <v>121</v>
       </c>
       <c r="P26" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6957,7 +6963,7 @@
         <v>122</v>
       </c>
       <c r="P27" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -7163,7 +7169,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7781,7 +7787,7 @@
         <v>123</v>
       </c>
       <c r="P31" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q31">
         <v>2.37</v>
@@ -8068,7 +8074,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ32">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR32">
         <v>0</v>
@@ -8193,7 +8199,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -8271,7 +8277,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ33">
         <v>0.86</v>
@@ -8811,7 +8817,7 @@
         <v>128</v>
       </c>
       <c r="P36" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -9017,7 +9023,7 @@
         <v>129</v>
       </c>
       <c r="P37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -9223,7 +9229,7 @@
         <v>130</v>
       </c>
       <c r="P38" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9635,7 +9641,7 @@
         <v>104</v>
       </c>
       <c r="P40" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9841,7 +9847,7 @@
         <v>131</v>
       </c>
       <c r="P41" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -10253,7 +10259,7 @@
         <v>132</v>
       </c>
       <c r="P43" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q43">
         <v>2.05</v>
@@ -10459,7 +10465,7 @@
         <v>133</v>
       </c>
       <c r="P44" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10665,7 +10671,7 @@
         <v>134</v>
       </c>
       <c r="P45" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -11489,7 +11495,7 @@
         <v>138</v>
       </c>
       <c r="P49" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11695,7 +11701,7 @@
         <v>139</v>
       </c>
       <c r="P50" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -12600,7 +12606,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ54">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR54">
         <v>1.06</v>
@@ -12725,7 +12731,7 @@
         <v>144</v>
       </c>
       <c r="P55" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12931,7 +12937,7 @@
         <v>145</v>
       </c>
       <c r="P56" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -13215,7 +13221,7 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ57">
         <v>1.38</v>
@@ -13755,7 +13761,7 @@
         <v>149</v>
       </c>
       <c r="P60" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -14785,7 +14791,7 @@
         <v>154</v>
       </c>
       <c r="P65" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14991,7 +14997,7 @@
         <v>155</v>
       </c>
       <c r="P66" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -15197,7 +15203,7 @@
         <v>104</v>
       </c>
       <c r="P67" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15403,7 +15409,7 @@
         <v>156</v>
       </c>
       <c r="P68" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15815,7 +15821,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -16227,7 +16233,7 @@
         <v>159</v>
       </c>
       <c r="P72" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16845,7 +16851,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -17051,7 +17057,7 @@
         <v>162</v>
       </c>
       <c r="P76" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q76">
         <v>3.1</v>
@@ -17257,7 +17263,7 @@
         <v>163</v>
       </c>
       <c r="P77" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17463,7 +17469,7 @@
         <v>164</v>
       </c>
       <c r="P78" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17875,7 +17881,7 @@
         <v>166</v>
       </c>
       <c r="P80" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -18287,7 +18293,7 @@
         <v>168</v>
       </c>
       <c r="P82" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18777,7 +18783,7 @@
         <v>0.67</v>
       </c>
       <c r="AP84">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ84">
         <v>0.57</v>
@@ -18986,7 +18992,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ85">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR85">
         <v>1.75</v>
@@ -19317,7 +19323,7 @@
         <v>172</v>
       </c>
       <c r="P87" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q87">
         <v>2.2</v>
@@ -19523,7 +19529,7 @@
         <v>173</v>
       </c>
       <c r="P88" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -20141,7 +20147,7 @@
         <v>176</v>
       </c>
       <c r="P91" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -20347,7 +20353,7 @@
         <v>177</v>
       </c>
       <c r="P92" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q92">
         <v>2.88</v>
@@ -20759,7 +20765,7 @@
         <v>179</v>
       </c>
       <c r="P94" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q94">
         <v>2.75</v>
@@ -20965,7 +20971,7 @@
         <v>180</v>
       </c>
       <c r="P95" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q95">
         <v>3.1</v>
@@ -21583,7 +21589,7 @@
         <v>182</v>
       </c>
       <c r="P98" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21789,7 +21795,7 @@
         <v>183</v>
       </c>
       <c r="P99" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -22407,7 +22413,7 @@
         <v>185</v>
       </c>
       <c r="P102" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q102">
         <v>3.1</v>
@@ -22613,7 +22619,7 @@
         <v>186</v>
       </c>
       <c r="P103" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q103">
         <v>2.3</v>
@@ -22819,7 +22825,7 @@
         <v>187</v>
       </c>
       <c r="P104" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -23231,7 +23237,7 @@
         <v>188</v>
       </c>
       <c r="P106" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23437,7 +23443,7 @@
         <v>189</v>
       </c>
       <c r="P107" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q107">
         <v>2.75</v>
@@ -23849,7 +23855,7 @@
         <v>190</v>
       </c>
       <c r="P109" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q109">
         <v>2.6</v>
@@ -24055,7 +24061,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q110">
         <v>2.88</v>
@@ -24261,7 +24267,7 @@
         <v>191</v>
       </c>
       <c r="P111" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24339,7 +24345,7 @@
         <v>2</v>
       </c>
       <c r="AP111">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ111">
         <v>1.75</v>
@@ -24673,7 +24679,7 @@
         <v>142</v>
       </c>
       <c r="P113" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24879,7 +24885,7 @@
         <v>192</v>
       </c>
       <c r="P114" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q114">
         <v>1.91</v>
@@ -25085,7 +25091,7 @@
         <v>193</v>
       </c>
       <c r="P115" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q115">
         <v>2.1</v>
@@ -25497,7 +25503,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25575,7 +25581,7 @@
         <v>1.75</v>
       </c>
       <c r="AP117">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ117">
         <v>2.38</v>
@@ -25909,7 +25915,7 @@
         <v>104</v>
       </c>
       <c r="P119" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q119">
         <v>2.88</v>
@@ -26321,7 +26327,7 @@
         <v>196</v>
       </c>
       <c r="P121" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q121">
         <v>2.3</v>
@@ -26733,7 +26739,7 @@
         <v>198</v>
       </c>
       <c r="P123" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q123">
         <v>2.5</v>
@@ -26939,7 +26945,7 @@
         <v>104</v>
       </c>
       <c r="P124" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -27145,7 +27151,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q125">
         <v>2.6</v>
@@ -27351,7 +27357,7 @@
         <v>199</v>
       </c>
       <c r="P126" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q126">
         <v>2.05</v>
@@ -27763,7 +27769,7 @@
         <v>201</v>
       </c>
       <c r="P128" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -27969,7 +27975,7 @@
         <v>202</v>
       </c>
       <c r="P129" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q129">
         <v>2.5</v>
@@ -28256,7 +28262,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ130">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR130">
         <v>1.79</v>
@@ -29205,7 +29211,7 @@
         <v>206</v>
       </c>
       <c r="P135" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -30029,7 +30035,7 @@
         <v>119</v>
       </c>
       <c r="P139" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -30235,7 +30241,7 @@
         <v>209</v>
       </c>
       <c r="P140" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -30441,7 +30447,7 @@
         <v>210</v>
       </c>
       <c r="P141" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30647,7 +30653,7 @@
         <v>211</v>
       </c>
       <c r="P142" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30725,7 +30731,7 @@
         <v>2.25</v>
       </c>
       <c r="AP142">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ142">
         <v>1.86</v>
@@ -31059,7 +31065,7 @@
         <v>213</v>
       </c>
       <c r="P144" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q144">
         <v>2.88</v>
@@ -31265,7 +31271,7 @@
         <v>214</v>
       </c>
       <c r="P145" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q145">
         <v>2.38</v>
@@ -32295,7 +32301,7 @@
         <v>217</v>
       </c>
       <c r="P150" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -33119,7 +33125,7 @@
         <v>104</v>
       </c>
       <c r="P154" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q154">
         <v>2.4</v>
@@ -33531,7 +33537,7 @@
         <v>219</v>
       </c>
       <c r="P156" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33609,7 +33615,7 @@
         <v>0.8</v>
       </c>
       <c r="AP156">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ156">
         <v>0.88</v>
@@ -33943,7 +33949,7 @@
         <v>221</v>
       </c>
       <c r="P158" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -34149,7 +34155,7 @@
         <v>222</v>
       </c>
       <c r="P159" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q159">
         <v>2.1</v>
@@ -34355,7 +34361,7 @@
         <v>223</v>
       </c>
       <c r="P160" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q160">
         <v>2.5</v>
@@ -34561,7 +34567,7 @@
         <v>224</v>
       </c>
       <c r="P161" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q161">
         <v>3.4</v>
@@ -34767,7 +34773,7 @@
         <v>162</v>
       </c>
       <c r="P162" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -35179,7 +35185,7 @@
         <v>226</v>
       </c>
       <c r="P164" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q164">
         <v>2.75</v>
@@ -35385,7 +35391,7 @@
         <v>227</v>
       </c>
       <c r="P165" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q165">
         <v>2.3</v>
@@ -35591,7 +35597,7 @@
         <v>228</v>
       </c>
       <c r="P166" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q166">
         <v>2.3</v>
@@ -35797,7 +35803,7 @@
         <v>229</v>
       </c>
       <c r="P167" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q167">
         <v>2.5</v>
@@ -36209,7 +36215,7 @@
         <v>231</v>
       </c>
       <c r="P169" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q169">
         <v>3.2</v>
@@ -36621,7 +36627,7 @@
         <v>232</v>
       </c>
       <c r="P171" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q171">
         <v>3.1</v>
@@ -36827,7 +36833,7 @@
         <v>233</v>
       </c>
       <c r="P172" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -37239,7 +37245,7 @@
         <v>121</v>
       </c>
       <c r="P174" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q174">
         <v>2.5</v>
@@ -37651,7 +37657,7 @@
         <v>104</v>
       </c>
       <c r="P176" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q176">
         <v>2.75</v>
@@ -37732,7 +37738,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ176">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR176">
         <v>1.41</v>
@@ -37857,7 +37863,7 @@
         <v>234</v>
       </c>
       <c r="P177" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q177">
         <v>2.63</v>
@@ -38269,7 +38275,7 @@
         <v>104</v>
       </c>
       <c r="P179" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q179">
         <v>3.1</v>
@@ -38887,7 +38893,7 @@
         <v>237</v>
       </c>
       <c r="P182" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q182">
         <v>2.3</v>
@@ -39093,7 +39099,7 @@
         <v>139</v>
       </c>
       <c r="P183" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q183">
         <v>2.75</v>
@@ -39505,7 +39511,7 @@
         <v>238</v>
       </c>
       <c r="P185" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q185">
         <v>2.3</v>
@@ -39711,7 +39717,7 @@
         <v>104</v>
       </c>
       <c r="P186" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q186">
         <v>3.2</v>
@@ -40123,7 +40129,7 @@
         <v>240</v>
       </c>
       <c r="P188" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q188">
         <v>2.75</v>
@@ -40535,7 +40541,7 @@
         <v>241</v>
       </c>
       <c r="P190" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q190">
         <v>2.25</v>
@@ -40947,7 +40953,7 @@
         <v>243</v>
       </c>
       <c r="P192" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q192">
         <v>2.63</v>
@@ -41153,7 +41159,7 @@
         <v>244</v>
       </c>
       <c r="P193" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -41359,7 +41365,7 @@
         <v>245</v>
       </c>
       <c r="P194" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q194">
         <v>2.3</v>
@@ -42183,7 +42189,7 @@
         <v>246</v>
       </c>
       <c r="P198" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q198">
         <v>3.3</v>
@@ -42389,7 +42395,7 @@
         <v>104</v>
       </c>
       <c r="P199" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q199">
         <v>2.51</v>
@@ -42801,7 +42807,7 @@
         <v>104</v>
       </c>
       <c r="P201" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q201">
         <v>2.88</v>
@@ -42879,7 +42885,7 @@
         <v>0.67</v>
       </c>
       <c r="AP201">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ201">
         <v>1</v>
@@ -43213,7 +43219,7 @@
         <v>247</v>
       </c>
       <c r="P203" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q203">
         <v>2.16</v>
@@ -43419,7 +43425,7 @@
         <v>248</v>
       </c>
       <c r="P204" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q204">
         <v>3.4</v>
@@ -43625,7 +43631,7 @@
         <v>211</v>
       </c>
       <c r="P205" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q205">
         <v>2.88</v>
@@ -43831,7 +43837,7 @@
         <v>249</v>
       </c>
       <c r="P206" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q206">
         <v>2.5</v>
@@ -44037,7 +44043,7 @@
         <v>250</v>
       </c>
       <c r="P207" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q207">
         <v>3</v>
@@ -44243,7 +44249,7 @@
         <v>251</v>
       </c>
       <c r="P208" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q208">
         <v>2.38</v>
@@ -44655,7 +44661,7 @@
         <v>123</v>
       </c>
       <c r="P210" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q210">
         <v>2.3</v>
@@ -45067,7 +45073,7 @@
         <v>253</v>
       </c>
       <c r="P212" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q212">
         <v>2.2</v>
@@ -45148,7 +45154,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ212">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR212">
         <v>1.72</v>
@@ -45273,7 +45279,7 @@
         <v>254</v>
       </c>
       <c r="P213" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q213">
         <v>3</v>
@@ -45479,7 +45485,7 @@
         <v>104</v>
       </c>
       <c r="P214" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q214">
         <v>2.4</v>
@@ -45685,7 +45691,7 @@
         <v>145</v>
       </c>
       <c r="P215" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q215">
         <v>2.05</v>
@@ -45891,7 +45897,7 @@
         <v>104</v>
       </c>
       <c r="P216" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q216">
         <v>2.5</v>
@@ -46303,7 +46309,7 @@
         <v>255</v>
       </c>
       <c r="P218" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q218">
         <v>2.6</v>
@@ -46509,7 +46515,7 @@
         <v>256</v>
       </c>
       <c r="P219" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q219">
         <v>2.75</v>
@@ -46921,7 +46927,7 @@
         <v>258</v>
       </c>
       <c r="P221" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q221">
         <v>2.6</v>
@@ -47333,7 +47339,7 @@
         <v>260</v>
       </c>
       <c r="P223" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q223">
         <v>2.2</v>
@@ -47745,7 +47751,7 @@
         <v>138</v>
       </c>
       <c r="P225" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q225">
         <v>1.91</v>
@@ -47951,7 +47957,7 @@
         <v>262</v>
       </c>
       <c r="P226" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q226">
         <v>1.83</v>
@@ -48157,7 +48163,7 @@
         <v>263</v>
       </c>
       <c r="P227" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q227">
         <v>2.38</v>
@@ -48775,7 +48781,7 @@
         <v>124</v>
       </c>
       <c r="P230" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q230">
         <v>2.3</v>
@@ -49599,7 +49605,7 @@
         <v>269</v>
       </c>
       <c r="P234" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q234">
         <v>2.75</v>
@@ -49755,6 +49761,212 @@
         <v>3.2</v>
       </c>
       <c r="BP234">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="235" spans="1:68">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>7295471</v>
+      </c>
+      <c r="C235" t="s">
+        <v>68</v>
+      </c>
+      <c r="D235" t="s">
+        <v>69</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45445.73958333334</v>
+      </c>
+      <c r="F235">
+        <v>17</v>
+      </c>
+      <c r="G235" t="s">
+        <v>96</v>
+      </c>
+      <c r="H235" t="s">
+        <v>73</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
+      </c>
+      <c r="K235">
+        <v>2</v>
+      </c>
+      <c r="L235">
+        <v>2</v>
+      </c>
+      <c r="M235">
+        <v>3</v>
+      </c>
+      <c r="N235">
+        <v>5</v>
+      </c>
+      <c r="O235" t="s">
+        <v>270</v>
+      </c>
+      <c r="P235" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q235">
+        <v>2.75</v>
+      </c>
+      <c r="R235">
+        <v>2.1</v>
+      </c>
+      <c r="S235">
+        <v>4</v>
+      </c>
+      <c r="T235">
+        <v>1.4</v>
+      </c>
+      <c r="U235">
+        <v>2.75</v>
+      </c>
+      <c r="V235">
+        <v>3</v>
+      </c>
+      <c r="W235">
+        <v>1.36</v>
+      </c>
+      <c r="X235">
+        <v>8</v>
+      </c>
+      <c r="Y235">
+        <v>1.08</v>
+      </c>
+      <c r="Z235">
+        <v>1.75</v>
+      </c>
+      <c r="AA235">
+        <v>3.8</v>
+      </c>
+      <c r="AB235">
+        <v>4.34</v>
+      </c>
+      <c r="AC235">
+        <v>1.05</v>
+      </c>
+      <c r="AD235">
+        <v>12</v>
+      </c>
+      <c r="AE235">
+        <v>1.3</v>
+      </c>
+      <c r="AF235">
+        <v>3.6</v>
+      </c>
+      <c r="AG235">
+        <v>1.63</v>
+      </c>
+      <c r="AH235">
+        <v>2.19</v>
+      </c>
+      <c r="AI235">
+        <v>1.75</v>
+      </c>
+      <c r="AJ235">
+        <v>2</v>
+      </c>
+      <c r="AK235">
+        <v>1.32</v>
+      </c>
+      <c r="AL235">
+        <v>1.26</v>
+      </c>
+      <c r="AM235">
+        <v>1.75</v>
+      </c>
+      <c r="AN235">
+        <v>1.25</v>
+      </c>
+      <c r="AO235">
+        <v>0.57</v>
+      </c>
+      <c r="AP235">
+        <v>1.11</v>
+      </c>
+      <c r="AQ235">
+        <v>0.88</v>
+      </c>
+      <c r="AR235">
+        <v>1.65</v>
+      </c>
+      <c r="AS235">
+        <v>1.21</v>
+      </c>
+      <c r="AT235">
+        <v>2.86</v>
+      </c>
+      <c r="AU235">
+        <v>6</v>
+      </c>
+      <c r="AV235">
+        <v>5</v>
+      </c>
+      <c r="AW235">
+        <v>8</v>
+      </c>
+      <c r="AX235">
+        <v>3</v>
+      </c>
+      <c r="AY235">
+        <v>14</v>
+      </c>
+      <c r="AZ235">
+        <v>8</v>
+      </c>
+      <c r="BA235">
+        <v>4</v>
+      </c>
+      <c r="BB235">
+        <v>3</v>
+      </c>
+      <c r="BC235">
+        <v>7</v>
+      </c>
+      <c r="BD235">
+        <v>1.67</v>
+      </c>
+      <c r="BE235">
+        <v>8.5</v>
+      </c>
+      <c r="BF235">
+        <v>2.45</v>
+      </c>
+      <c r="BG235">
+        <v>1.27</v>
+      </c>
+      <c r="BH235">
+        <v>3.35</v>
+      </c>
+      <c r="BI235">
+        <v>1.49</v>
+      </c>
+      <c r="BJ235">
+        <v>2.4</v>
+      </c>
+      <c r="BK235">
+        <v>1.69</v>
+      </c>
+      <c r="BL235">
+        <v>2.11</v>
+      </c>
+      <c r="BM235">
+        <v>2.13</v>
+      </c>
+      <c r="BN235">
+        <v>1.69</v>
+      </c>
+      <c r="BO235">
+        <v>3.2</v>
+      </c>
+      <c r="BP235">
         <v>1.29</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="396">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -829,6 +829,12 @@
     <t>['35', '76']</t>
   </si>
   <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['19', '85']</t>
+  </si>
+  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -1194,6 +1200,9 @@
   <si>
     <t>['40', '56', '68']</t>
   </si>
+  <si>
+    <t>['12']</t>
+  </si>
 </sst>
 </file>
 
@@ -1554,7 +1563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP235"/>
+  <dimension ref="A1:BP239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2225,7 +2234,7 @@
         <v>101</v>
       </c>
       <c r="P4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -2306,7 +2315,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ4">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2637,7 +2646,7 @@
         <v>103</v>
       </c>
       <c r="P6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -3049,7 +3058,7 @@
         <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -3255,7 +3264,7 @@
         <v>106</v>
       </c>
       <c r="P9" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3461,7 +3470,7 @@
         <v>107</v>
       </c>
       <c r="P10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3951,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ12">
         <v>1.56</v>
@@ -4079,7 +4088,7 @@
         <v>110</v>
       </c>
       <c r="P13" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -4572,7 +4581,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ15">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4981,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ17">
         <v>1.71</v>
@@ -5521,7 +5530,7 @@
         <v>115</v>
       </c>
       <c r="P20" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -5727,7 +5736,7 @@
         <v>116</v>
       </c>
       <c r="P21" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5933,7 +5942,7 @@
         <v>117</v>
       </c>
       <c r="P22" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -6139,7 +6148,7 @@
         <v>118</v>
       </c>
       <c r="P23" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6220,7 +6229,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR23">
         <v>1.42</v>
@@ -6423,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
         <v>1.75</v>
@@ -6629,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ25">
         <v>1.43</v>
@@ -6757,7 +6766,7 @@
         <v>121</v>
       </c>
       <c r="P26" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6963,7 +6972,7 @@
         <v>122</v>
       </c>
       <c r="P27" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -7169,7 +7178,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7659,7 +7668,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7787,7 +7796,7 @@
         <v>123</v>
       </c>
       <c r="P31" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q31">
         <v>2.37</v>
@@ -7868,7 +7877,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ31">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -8199,7 +8208,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -8692,7 +8701,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ35">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR35">
         <v>0</v>
@@ -8817,7 +8826,7 @@
         <v>128</v>
       </c>
       <c r="P36" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -9023,7 +9032,7 @@
         <v>129</v>
       </c>
       <c r="P37" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -9229,7 +9238,7 @@
         <v>130</v>
       </c>
       <c r="P38" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9641,7 +9650,7 @@
         <v>104</v>
       </c>
       <c r="P40" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9847,7 +9856,7 @@
         <v>131</v>
       </c>
       <c r="P41" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -10259,7 +10268,7 @@
         <v>132</v>
       </c>
       <c r="P43" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q43">
         <v>2.05</v>
@@ -10465,7 +10474,7 @@
         <v>133</v>
       </c>
       <c r="P44" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10671,7 +10680,7 @@
         <v>134</v>
       </c>
       <c r="P45" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -11164,7 +11173,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ47">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR47">
         <v>1.86</v>
@@ -11495,7 +11504,7 @@
         <v>138</v>
       </c>
       <c r="P49" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11701,7 +11710,7 @@
         <v>139</v>
       </c>
       <c r="P50" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11988,7 +11997,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ51">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR51">
         <v>1.66</v>
@@ -12191,7 +12200,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ52">
         <v>0.44</v>
@@ -12397,7 +12406,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -12731,7 +12740,7 @@
         <v>144</v>
       </c>
       <c r="P55" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12937,7 +12946,7 @@
         <v>145</v>
       </c>
       <c r="P56" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -13015,7 +13024,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ56">
         <v>2.38</v>
@@ -13427,7 +13436,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ58">
         <v>0.57</v>
@@ -13761,7 +13770,7 @@
         <v>149</v>
       </c>
       <c r="P60" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -14791,7 +14800,7 @@
         <v>154</v>
       </c>
       <c r="P65" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14869,7 +14878,7 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ65">
         <v>1.3</v>
@@ -14997,7 +15006,7 @@
         <v>155</v>
       </c>
       <c r="P66" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -15075,7 +15084,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ66">
         <v>0.88</v>
@@ -15203,7 +15212,7 @@
         <v>104</v>
       </c>
       <c r="P67" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15409,7 +15418,7 @@
         <v>156</v>
       </c>
       <c r="P68" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15490,7 +15499,7 @@
         <v>1</v>
       </c>
       <c r="AQ68">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR68">
         <v>1.18</v>
@@ -15821,7 +15830,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -16233,7 +16242,7 @@
         <v>159</v>
       </c>
       <c r="P72" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16851,7 +16860,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -17057,7 +17066,7 @@
         <v>162</v>
       </c>
       <c r="P76" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q76">
         <v>3.1</v>
@@ -17138,7 +17147,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ76">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR76">
         <v>1.96</v>
@@ -17263,7 +17272,7 @@
         <v>163</v>
       </c>
       <c r="P77" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17469,7 +17478,7 @@
         <v>164</v>
       </c>
       <c r="P78" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17550,7 +17559,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ78">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR78">
         <v>0.95</v>
@@ -17881,7 +17890,7 @@
         <v>166</v>
       </c>
       <c r="P80" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -18293,7 +18302,7 @@
         <v>168</v>
       </c>
       <c r="P82" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18374,7 +18383,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ82">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR82">
         <v>1.3</v>
@@ -18580,7 +18589,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ83">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR83">
         <v>1.98</v>
@@ -18989,7 +18998,7 @@
         <v>0.33</v>
       </c>
       <c r="AP85">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ85">
         <v>0.88</v>
@@ -19323,7 +19332,7 @@
         <v>172</v>
       </c>
       <c r="P87" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q87">
         <v>2.2</v>
@@ -19529,7 +19538,7 @@
         <v>173</v>
       </c>
       <c r="P88" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19610,7 +19619,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ88">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR88">
         <v>1.49</v>
@@ -20147,7 +20156,7 @@
         <v>176</v>
       </c>
       <c r="P91" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -20353,7 +20362,7 @@
         <v>177</v>
       </c>
       <c r="P92" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q92">
         <v>2.88</v>
@@ -20765,7 +20774,7 @@
         <v>179</v>
       </c>
       <c r="P94" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q94">
         <v>2.75</v>
@@ -20843,7 +20852,7 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ94">
         <v>1.56</v>
@@ -20971,7 +20980,7 @@
         <v>180</v>
       </c>
       <c r="P95" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q95">
         <v>3.1</v>
@@ -21255,10 +21264,10 @@
         <v>0</v>
       </c>
       <c r="AP96">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ96">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR96">
         <v>1.49</v>
@@ -21589,7 +21598,7 @@
         <v>182</v>
       </c>
       <c r="P98" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21667,10 +21676,10 @@
         <v>1</v>
       </c>
       <c r="AP98">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ98">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR98">
         <v>1.65</v>
@@ -21795,7 +21804,7 @@
         <v>183</v>
       </c>
       <c r="P99" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -22413,7 +22422,7 @@
         <v>185</v>
       </c>
       <c r="P102" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q102">
         <v>3.1</v>
@@ -22619,7 +22628,7 @@
         <v>186</v>
       </c>
       <c r="P103" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q103">
         <v>2.3</v>
@@ -22825,7 +22834,7 @@
         <v>187</v>
       </c>
       <c r="P104" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -23112,7 +23121,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ105">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR105">
         <v>1.76</v>
@@ -23237,7 +23246,7 @@
         <v>188</v>
       </c>
       <c r="P106" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23315,7 +23324,7 @@
         <v>1.33</v>
       </c>
       <c r="AP106">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ106">
         <v>2.13</v>
@@ -23443,7 +23452,7 @@
         <v>189</v>
       </c>
       <c r="P107" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q107">
         <v>2.75</v>
@@ -23521,7 +23530,7 @@
         <v>1.5</v>
       </c>
       <c r="AP107">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ107">
         <v>1.25</v>
@@ -23855,7 +23864,7 @@
         <v>190</v>
       </c>
       <c r="P109" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q109">
         <v>2.6</v>
@@ -24061,7 +24070,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q110">
         <v>2.88</v>
@@ -24267,7 +24276,7 @@
         <v>191</v>
       </c>
       <c r="P111" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24551,7 +24560,7 @@
         <v>0.5</v>
       </c>
       <c r="AP112">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ112">
         <v>0.75</v>
@@ -24679,7 +24688,7 @@
         <v>142</v>
       </c>
       <c r="P113" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24885,7 +24894,7 @@
         <v>192</v>
       </c>
       <c r="P114" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q114">
         <v>1.91</v>
@@ -25091,7 +25100,7 @@
         <v>193</v>
       </c>
       <c r="P115" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q115">
         <v>2.1</v>
@@ -25172,7 +25181,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ115">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR115">
         <v>1.63</v>
@@ -25503,7 +25512,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25915,7 +25924,7 @@
         <v>104</v>
       </c>
       <c r="P119" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q119">
         <v>2.88</v>
@@ -26327,7 +26336,7 @@
         <v>196</v>
       </c>
       <c r="P121" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q121">
         <v>2.3</v>
@@ -26405,7 +26414,7 @@
         <v>0.67</v>
       </c>
       <c r="AP121">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ121">
         <v>0.71</v>
@@ -26614,7 +26623,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ122">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR122">
         <v>1.34</v>
@@ -26739,7 +26748,7 @@
         <v>198</v>
       </c>
       <c r="P123" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q123">
         <v>2.5</v>
@@ -26820,7 +26829,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ123">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR123">
         <v>2.06</v>
@@ -26945,7 +26954,7 @@
         <v>104</v>
       </c>
       <c r="P124" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -27151,7 +27160,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q125">
         <v>2.6</v>
@@ -27357,7 +27366,7 @@
         <v>199</v>
       </c>
       <c r="P126" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q126">
         <v>2.05</v>
@@ -27769,7 +27778,7 @@
         <v>201</v>
       </c>
       <c r="P128" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -27975,7 +27984,7 @@
         <v>202</v>
       </c>
       <c r="P129" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q129">
         <v>2.5</v>
@@ -28674,7 +28683,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ132">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR132">
         <v>1.89</v>
@@ -29211,7 +29220,7 @@
         <v>206</v>
       </c>
       <c r="P135" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29289,7 +29298,7 @@
         <v>1.75</v>
       </c>
       <c r="AP135">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ135">
         <v>2.13</v>
@@ -29495,7 +29504,7 @@
         <v>1.67</v>
       </c>
       <c r="AP136">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ136">
         <v>0.63</v>
@@ -30035,7 +30044,7 @@
         <v>119</v>
       </c>
       <c r="P139" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -30241,7 +30250,7 @@
         <v>209</v>
       </c>
       <c r="P140" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -30322,7 +30331,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ140">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR140">
         <v>2</v>
@@ -30447,7 +30456,7 @@
         <v>210</v>
       </c>
       <c r="P141" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30528,7 +30537,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ141">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR141">
         <v>1.56</v>
@@ -30653,7 +30662,7 @@
         <v>211</v>
       </c>
       <c r="P142" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30940,7 +30949,7 @@
         <v>2</v>
       </c>
       <c r="AQ143">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR143">
         <v>1.31</v>
@@ -31065,7 +31074,7 @@
         <v>213</v>
       </c>
       <c r="P144" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q144">
         <v>2.88</v>
@@ -31271,7 +31280,7 @@
         <v>214</v>
       </c>
       <c r="P145" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q145">
         <v>2.38</v>
@@ -31352,7 +31361,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ145">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR145">
         <v>1.66</v>
@@ -31970,7 +31979,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ148">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR148">
         <v>1.55</v>
@@ -32301,7 +32310,7 @@
         <v>217</v>
       </c>
       <c r="P150" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -33125,7 +33134,7 @@
         <v>104</v>
       </c>
       <c r="P154" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q154">
         <v>2.4</v>
@@ -33537,7 +33546,7 @@
         <v>219</v>
       </c>
       <c r="P156" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33949,7 +33958,7 @@
         <v>221</v>
       </c>
       <c r="P158" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -34155,7 +34164,7 @@
         <v>222</v>
       </c>
       <c r="P159" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q159">
         <v>2.1</v>
@@ -34361,7 +34370,7 @@
         <v>223</v>
       </c>
       <c r="P160" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q160">
         <v>2.5</v>
@@ -34567,7 +34576,7 @@
         <v>224</v>
       </c>
       <c r="P161" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q161">
         <v>3.4</v>
@@ -34773,7 +34782,7 @@
         <v>162</v>
       </c>
       <c r="P162" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -35185,7 +35194,7 @@
         <v>226</v>
       </c>
       <c r="P164" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q164">
         <v>2.75</v>
@@ -35263,7 +35272,7 @@
         <v>1.5</v>
       </c>
       <c r="AP164">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ164">
         <v>1.25</v>
@@ -35391,7 +35400,7 @@
         <v>227</v>
       </c>
       <c r="P165" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q165">
         <v>2.3</v>
@@ -35469,7 +35478,7 @@
         <v>0.6</v>
       </c>
       <c r="AP165">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ165">
         <v>0.57</v>
@@ -35597,7 +35606,7 @@
         <v>228</v>
       </c>
       <c r="P166" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q166">
         <v>2.3</v>
@@ -35803,7 +35812,7 @@
         <v>229</v>
       </c>
       <c r="P167" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q167">
         <v>2.5</v>
@@ -36215,7 +36224,7 @@
         <v>231</v>
       </c>
       <c r="P169" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q169">
         <v>3.2</v>
@@ -36296,7 +36305,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ169">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR169">
         <v>1.32</v>
@@ -36627,7 +36636,7 @@
         <v>232</v>
       </c>
       <c r="P171" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q171">
         <v>3.1</v>
@@ -36708,7 +36717,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ171">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR171">
         <v>1.72</v>
@@ -36833,7 +36842,7 @@
         <v>233</v>
       </c>
       <c r="P172" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -37245,7 +37254,7 @@
         <v>121</v>
       </c>
       <c r="P174" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q174">
         <v>2.5</v>
@@ -37657,7 +37666,7 @@
         <v>104</v>
       </c>
       <c r="P176" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q176">
         <v>2.75</v>
@@ -37863,7 +37872,7 @@
         <v>234</v>
       </c>
       <c r="P177" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q177">
         <v>2.63</v>
@@ -37941,7 +37950,7 @@
         <v>1.57</v>
       </c>
       <c r="AP177">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ177">
         <v>1.3</v>
@@ -38275,7 +38284,7 @@
         <v>104</v>
       </c>
       <c r="P179" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q179">
         <v>3.1</v>
@@ -38353,7 +38362,7 @@
         <v>0.2</v>
       </c>
       <c r="AP179">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ179">
         <v>1</v>
@@ -38768,7 +38777,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ181">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR181">
         <v>1.51</v>
@@ -38893,7 +38902,7 @@
         <v>237</v>
       </c>
       <c r="P182" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q182">
         <v>2.3</v>
@@ -39099,7 +39108,7 @@
         <v>139</v>
       </c>
       <c r="P183" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q183">
         <v>2.75</v>
@@ -39511,7 +39520,7 @@
         <v>238</v>
       </c>
       <c r="P185" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q185">
         <v>2.3</v>
@@ -39717,7 +39726,7 @@
         <v>104</v>
       </c>
       <c r="P186" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q186">
         <v>3.2</v>
@@ -39795,7 +39804,7 @@
         <v>1.67</v>
       </c>
       <c r="AP186">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ186">
         <v>1.75</v>
@@ -40004,7 +40013,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ187">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR187">
         <v>1.79</v>
@@ -40129,7 +40138,7 @@
         <v>240</v>
       </c>
       <c r="P188" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q188">
         <v>2.75</v>
@@ -40541,7 +40550,7 @@
         <v>241</v>
       </c>
       <c r="P190" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q190">
         <v>2.25</v>
@@ -40619,10 +40628,10 @@
         <v>0.71</v>
       </c>
       <c r="AP190">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ190">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR190">
         <v>1.76</v>
@@ -40828,7 +40837,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ191">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR191">
         <v>1.77</v>
@@ -40953,7 +40962,7 @@
         <v>243</v>
       </c>
       <c r="P192" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q192">
         <v>2.63</v>
@@ -41159,7 +41168,7 @@
         <v>244</v>
       </c>
       <c r="P193" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -41365,7 +41374,7 @@
         <v>245</v>
       </c>
       <c r="P194" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q194">
         <v>2.3</v>
@@ -42061,7 +42070,7 @@
         <v>1.17</v>
       </c>
       <c r="AP197">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ197">
         <v>1.43</v>
@@ -42189,7 +42198,7 @@
         <v>246</v>
       </c>
       <c r="P198" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q198">
         <v>3.3</v>
@@ -42395,7 +42404,7 @@
         <v>104</v>
       </c>
       <c r="P199" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q199">
         <v>2.51</v>
@@ -42807,7 +42816,7 @@
         <v>104</v>
       </c>
       <c r="P201" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q201">
         <v>2.88</v>
@@ -43219,7 +43228,7 @@
         <v>247</v>
       </c>
       <c r="P203" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q203">
         <v>2.16</v>
@@ -43425,7 +43434,7 @@
         <v>248</v>
       </c>
       <c r="P204" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q204">
         <v>3.4</v>
@@ -43631,7 +43640,7 @@
         <v>211</v>
       </c>
       <c r="P205" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q205">
         <v>2.88</v>
@@ -43709,10 +43718,10 @@
         <v>0.88</v>
       </c>
       <c r="AP205">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ205">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR205">
         <v>1.81</v>
@@ -43837,7 +43846,7 @@
         <v>249</v>
       </c>
       <c r="P206" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q206">
         <v>2.5</v>
@@ -44043,7 +44052,7 @@
         <v>250</v>
       </c>
       <c r="P207" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q207">
         <v>3</v>
@@ -44249,7 +44258,7 @@
         <v>251</v>
       </c>
       <c r="P208" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q208">
         <v>2.38</v>
@@ -44661,7 +44670,7 @@
         <v>123</v>
       </c>
       <c r="P210" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q210">
         <v>2.3</v>
@@ -45073,7 +45082,7 @@
         <v>253</v>
       </c>
       <c r="P212" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q212">
         <v>2.2</v>
@@ -45279,7 +45288,7 @@
         <v>254</v>
       </c>
       <c r="P213" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q213">
         <v>3</v>
@@ -45485,7 +45494,7 @@
         <v>104</v>
       </c>
       <c r="P214" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q214">
         <v>2.4</v>
@@ -45691,7 +45700,7 @@
         <v>145</v>
       </c>
       <c r="P215" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q215">
         <v>2.05</v>
@@ -45897,7 +45906,7 @@
         <v>104</v>
       </c>
       <c r="P216" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q216">
         <v>2.5</v>
@@ -45978,7 +45987,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ216">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR216">
         <v>1.32</v>
@@ -46309,7 +46318,7 @@
         <v>255</v>
       </c>
       <c r="P218" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q218">
         <v>2.6</v>
@@ -46515,7 +46524,7 @@
         <v>256</v>
       </c>
       <c r="P219" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q219">
         <v>2.75</v>
@@ -46593,7 +46602,7 @@
         <v>1.57</v>
       </c>
       <c r="AP219">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ219">
         <v>1.75</v>
@@ -46802,7 +46811,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ220">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR220">
         <v>1.7</v>
@@ -46927,7 +46936,7 @@
         <v>258</v>
       </c>
       <c r="P221" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q221">
         <v>2.6</v>
@@ -47339,7 +47348,7 @@
         <v>260</v>
       </c>
       <c r="P223" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q223">
         <v>2.2</v>
@@ -47751,7 +47760,7 @@
         <v>138</v>
       </c>
       <c r="P225" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q225">
         <v>1.91</v>
@@ -47957,7 +47966,7 @@
         <v>262</v>
       </c>
       <c r="P226" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q226">
         <v>1.83</v>
@@ -48163,7 +48172,7 @@
         <v>263</v>
       </c>
       <c r="P227" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q227">
         <v>2.38</v>
@@ -48653,7 +48662,7 @@
         <v>0.71</v>
       </c>
       <c r="AP229">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ229">
         <v>0.63</v>
@@ -48781,7 +48790,7 @@
         <v>124</v>
       </c>
       <c r="P230" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q230">
         <v>2.3</v>
@@ -49480,7 +49489,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ233">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR233">
         <v>1.97</v>
@@ -49605,7 +49614,7 @@
         <v>269</v>
       </c>
       <c r="P234" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q234">
         <v>2.75</v>
@@ -49811,7 +49820,7 @@
         <v>270</v>
       </c>
       <c r="P235" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q235">
         <v>2.75</v>
@@ -49968,6 +49977,830 @@
       </c>
       <c r="BP235">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="236" spans="1:68">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>7295472</v>
+      </c>
+      <c r="C236" t="s">
+        <v>68</v>
+      </c>
+      <c r="D236" t="s">
+        <v>69</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45451.85416666666</v>
+      </c>
+      <c r="F236">
+        <v>18</v>
+      </c>
+      <c r="G236" t="s">
+        <v>93</v>
+      </c>
+      <c r="H236" t="s">
+        <v>97</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>1</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>1</v>
+      </c>
+      <c r="O236" t="s">
+        <v>218</v>
+      </c>
+      <c r="P236" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q236">
+        <v>3.4</v>
+      </c>
+      <c r="R236">
+        <v>2.25</v>
+      </c>
+      <c r="S236">
+        <v>2.88</v>
+      </c>
+      <c r="T236">
+        <v>1.33</v>
+      </c>
+      <c r="U236">
+        <v>3.25</v>
+      </c>
+      <c r="V236">
+        <v>2.63</v>
+      </c>
+      <c r="W236">
+        <v>1.44</v>
+      </c>
+      <c r="X236">
+        <v>6.5</v>
+      </c>
+      <c r="Y236">
+        <v>1.11</v>
+      </c>
+      <c r="Z236">
+        <v>4.34</v>
+      </c>
+      <c r="AA236">
+        <v>3.85</v>
+      </c>
+      <c r="AB236">
+        <v>1.62</v>
+      </c>
+      <c r="AC236">
+        <v>1.02</v>
+      </c>
+      <c r="AD236">
+        <v>10.5</v>
+      </c>
+      <c r="AE236">
+        <v>1.19</v>
+      </c>
+      <c r="AF236">
+        <v>3.92</v>
+      </c>
+      <c r="AG236">
+        <v>1.65</v>
+      </c>
+      <c r="AH236">
+        <v>2.1</v>
+      </c>
+      <c r="AI236">
+        <v>1.62</v>
+      </c>
+      <c r="AJ236">
+        <v>2.2</v>
+      </c>
+      <c r="AK236">
+        <v>1.6</v>
+      </c>
+      <c r="AL236">
+        <v>1.29</v>
+      </c>
+      <c r="AM236">
+        <v>1.43</v>
+      </c>
+      <c r="AN236">
+        <v>0.57</v>
+      </c>
+      <c r="AO236">
+        <v>1.33</v>
+      </c>
+      <c r="AP236">
+        <v>0.88</v>
+      </c>
+      <c r="AQ236">
+        <v>1.2</v>
+      </c>
+      <c r="AR236">
+        <v>1.32</v>
+      </c>
+      <c r="AS236">
+        <v>1.17</v>
+      </c>
+      <c r="AT236">
+        <v>2.49</v>
+      </c>
+      <c r="AU236">
+        <v>5</v>
+      </c>
+      <c r="AV236">
+        <v>6</v>
+      </c>
+      <c r="AW236">
+        <v>8</v>
+      </c>
+      <c r="AX236">
+        <v>7</v>
+      </c>
+      <c r="AY236">
+        <v>13</v>
+      </c>
+      <c r="AZ236">
+        <v>13</v>
+      </c>
+      <c r="BA236">
+        <v>4</v>
+      </c>
+      <c r="BB236">
+        <v>2</v>
+      </c>
+      <c r="BC236">
+        <v>6</v>
+      </c>
+      <c r="BD236">
+        <v>1.75</v>
+      </c>
+      <c r="BE236">
+        <v>9</v>
+      </c>
+      <c r="BF236">
+        <v>2.43</v>
+      </c>
+      <c r="BG236">
+        <v>1.25</v>
+      </c>
+      <c r="BH236">
+        <v>3.42</v>
+      </c>
+      <c r="BI236">
+        <v>1.54</v>
+      </c>
+      <c r="BJ236">
+        <v>2.45</v>
+      </c>
+      <c r="BK236">
+        <v>1.88</v>
+      </c>
+      <c r="BL236">
+        <v>1.92</v>
+      </c>
+      <c r="BM236">
+        <v>2.35</v>
+      </c>
+      <c r="BN236">
+        <v>1.58</v>
+      </c>
+      <c r="BO236">
+        <v>3.18</v>
+      </c>
+      <c r="BP236">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="237" spans="1:68">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>7295475</v>
+      </c>
+      <c r="C237" t="s">
+        <v>68</v>
+      </c>
+      <c r="D237" t="s">
+        <v>69</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45451.89583333334</v>
+      </c>
+      <c r="F237">
+        <v>18</v>
+      </c>
+      <c r="G237" t="s">
+        <v>80</v>
+      </c>
+      <c r="H237" t="s">
+        <v>81</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+      <c r="L237">
+        <v>0</v>
+      </c>
+      <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237">
+        <v>0</v>
+      </c>
+      <c r="O237" t="s">
+        <v>104</v>
+      </c>
+      <c r="P237" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q237">
+        <v>2.25</v>
+      </c>
+      <c r="R237">
+        <v>2.5</v>
+      </c>
+      <c r="S237">
+        <v>4.33</v>
+      </c>
+      <c r="T237">
+        <v>1.25</v>
+      </c>
+      <c r="U237">
+        <v>3.75</v>
+      </c>
+      <c r="V237">
+        <v>2.2</v>
+      </c>
+      <c r="W237">
+        <v>1.62</v>
+      </c>
+      <c r="X237">
+        <v>5</v>
+      </c>
+      <c r="Y237">
+        <v>1.17</v>
+      </c>
+      <c r="Z237">
+        <v>1.86</v>
+      </c>
+      <c r="AA237">
+        <v>5.52</v>
+      </c>
+      <c r="AB237">
+        <v>2.56</v>
+      </c>
+      <c r="AC237">
+        <v>1.01</v>
+      </c>
+      <c r="AD237">
+        <v>21</v>
+      </c>
+      <c r="AE237">
+        <v>1.16</v>
+      </c>
+      <c r="AF237">
+        <v>5.5</v>
+      </c>
+      <c r="AG237">
+        <v>1.57</v>
+      </c>
+      <c r="AH237">
+        <v>2.25</v>
+      </c>
+      <c r="AI237">
+        <v>1.53</v>
+      </c>
+      <c r="AJ237">
+        <v>2.38</v>
+      </c>
+      <c r="AK237">
+        <v>1.22</v>
+      </c>
+      <c r="AL237">
+        <v>1.19</v>
+      </c>
+      <c r="AM237">
+        <v>2.15</v>
+      </c>
+      <c r="AN237">
+        <v>1.5</v>
+      </c>
+      <c r="AO237">
+        <v>0.89</v>
+      </c>
+      <c r="AP237">
+        <v>1.44</v>
+      </c>
+      <c r="AQ237">
+        <v>0.9</v>
+      </c>
+      <c r="AR237">
+        <v>1.85</v>
+      </c>
+      <c r="AS237">
+        <v>1.14</v>
+      </c>
+      <c r="AT237">
+        <v>2.99</v>
+      </c>
+      <c r="AU237">
+        <v>5</v>
+      </c>
+      <c r="AV237">
+        <v>5</v>
+      </c>
+      <c r="AW237">
+        <v>3</v>
+      </c>
+      <c r="AX237">
+        <v>5</v>
+      </c>
+      <c r="AY237">
+        <v>8</v>
+      </c>
+      <c r="AZ237">
+        <v>10</v>
+      </c>
+      <c r="BA237">
+        <v>6</v>
+      </c>
+      <c r="BB237">
+        <v>4</v>
+      </c>
+      <c r="BC237">
+        <v>10</v>
+      </c>
+      <c r="BD237">
+        <v>1.39</v>
+      </c>
+      <c r="BE237">
+        <v>10.5</v>
+      </c>
+      <c r="BF237">
+        <v>3.6</v>
+      </c>
+      <c r="BG237">
+        <v>1.15</v>
+      </c>
+      <c r="BH237">
+        <v>4.45</v>
+      </c>
+      <c r="BI237">
+        <v>1.31</v>
+      </c>
+      <c r="BJ237">
+        <v>3.04</v>
+      </c>
+      <c r="BK237">
+        <v>1.63</v>
+      </c>
+      <c r="BL237">
+        <v>2.25</v>
+      </c>
+      <c r="BM237">
+        <v>2.01</v>
+      </c>
+      <c r="BN237">
+        <v>1.81</v>
+      </c>
+      <c r="BO237">
+        <v>2.55</v>
+      </c>
+      <c r="BP237">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="238" spans="1:68">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>7295473</v>
+      </c>
+      <c r="C238" t="s">
+        <v>68</v>
+      </c>
+      <c r="D238" t="s">
+        <v>69</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45451.89583333334</v>
+      </c>
+      <c r="F238">
+        <v>18</v>
+      </c>
+      <c r="G238" t="s">
+        <v>85</v>
+      </c>
+      <c r="H238" t="s">
+        <v>78</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="J238">
+        <v>1</v>
+      </c>
+      <c r="K238">
+        <v>2</v>
+      </c>
+      <c r="L238">
+        <v>1</v>
+      </c>
+      <c r="M238">
+        <v>1</v>
+      </c>
+      <c r="N238">
+        <v>2</v>
+      </c>
+      <c r="O238" t="s">
+        <v>271</v>
+      </c>
+      <c r="P238" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q238">
+        <v>2.5</v>
+      </c>
+      <c r="R238">
+        <v>2.3</v>
+      </c>
+      <c r="S238">
+        <v>4</v>
+      </c>
+      <c r="T238">
+        <v>1.33</v>
+      </c>
+      <c r="U238">
+        <v>3.25</v>
+      </c>
+      <c r="V238">
+        <v>2.5</v>
+      </c>
+      <c r="W238">
+        <v>1.5</v>
+      </c>
+      <c r="X238">
+        <v>6</v>
+      </c>
+      <c r="Y238">
+        <v>1.13</v>
+      </c>
+      <c r="Z238">
+        <v>2.16</v>
+      </c>
+      <c r="AA238">
+        <v>6.73</v>
+      </c>
+      <c r="AB238">
+        <v>2.01</v>
+      </c>
+      <c r="AC238">
+        <v>1.03</v>
+      </c>
+      <c r="AD238">
+        <v>15</v>
+      </c>
+      <c r="AE238">
+        <v>1.22</v>
+      </c>
+      <c r="AF238">
+        <v>4.33</v>
+      </c>
+      <c r="AG238">
+        <v>1.65</v>
+      </c>
+      <c r="AH238">
+        <v>2.1</v>
+      </c>
+      <c r="AI238">
+        <v>1.62</v>
+      </c>
+      <c r="AJ238">
+        <v>2.2</v>
+      </c>
+      <c r="AK238">
+        <v>1.28</v>
+      </c>
+      <c r="AL238">
+        <v>1.22</v>
+      </c>
+      <c r="AM238">
+        <v>1.92</v>
+      </c>
+      <c r="AN238">
+        <v>1.88</v>
+      </c>
+      <c r="AO238">
+        <v>0.25</v>
+      </c>
+      <c r="AP238">
+        <v>1.78</v>
+      </c>
+      <c r="AQ238">
+        <v>0.33</v>
+      </c>
+      <c r="AR238">
+        <v>1.75</v>
+      </c>
+      <c r="AS238">
+        <v>1.06</v>
+      </c>
+      <c r="AT238">
+        <v>2.81</v>
+      </c>
+      <c r="AU238">
+        <v>7</v>
+      </c>
+      <c r="AV238">
+        <v>5</v>
+      </c>
+      <c r="AW238">
+        <v>4</v>
+      </c>
+      <c r="AX238">
+        <v>1</v>
+      </c>
+      <c r="AY238">
+        <v>11</v>
+      </c>
+      <c r="AZ238">
+        <v>6</v>
+      </c>
+      <c r="BA238">
+        <v>5</v>
+      </c>
+      <c r="BB238">
+        <v>4</v>
+      </c>
+      <c r="BC238">
+        <v>9</v>
+      </c>
+      <c r="BD238">
+        <v>1.58</v>
+      </c>
+      <c r="BE238">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF238">
+        <v>2.8</v>
+      </c>
+      <c r="BG238">
+        <v>1.14</v>
+      </c>
+      <c r="BH238">
+        <v>4.6</v>
+      </c>
+      <c r="BI238">
+        <v>1.3</v>
+      </c>
+      <c r="BJ238">
+        <v>3.08</v>
+      </c>
+      <c r="BK238">
+        <v>1.61</v>
+      </c>
+      <c r="BL238">
+        <v>2.28</v>
+      </c>
+      <c r="BM238">
+        <v>1.97</v>
+      </c>
+      <c r="BN238">
+        <v>1.83</v>
+      </c>
+      <c r="BO238">
+        <v>2.47</v>
+      </c>
+      <c r="BP238">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="239" spans="1:68">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>7295474</v>
+      </c>
+      <c r="C239" t="s">
+        <v>68</v>
+      </c>
+      <c r="D239" t="s">
+        <v>69</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45451.89583333334</v>
+      </c>
+      <c r="F239">
+        <v>18</v>
+      </c>
+      <c r="G239" t="s">
+        <v>89</v>
+      </c>
+      <c r="H239" t="s">
+        <v>92</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239">
+        <v>1</v>
+      </c>
+      <c r="K239">
+        <v>2</v>
+      </c>
+      <c r="L239">
+        <v>2</v>
+      </c>
+      <c r="M239">
+        <v>1</v>
+      </c>
+      <c r="N239">
+        <v>3</v>
+      </c>
+      <c r="O239" t="s">
+        <v>272</v>
+      </c>
+      <c r="P239" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q239">
+        <v>3.4</v>
+      </c>
+      <c r="R239">
+        <v>2.2</v>
+      </c>
+      <c r="S239">
+        <v>3.1</v>
+      </c>
+      <c r="T239">
+        <v>1.4</v>
+      </c>
+      <c r="U239">
+        <v>2.75</v>
+      </c>
+      <c r="V239">
+        <v>2.75</v>
+      </c>
+      <c r="W239">
+        <v>1.4</v>
+      </c>
+      <c r="X239">
+        <v>8</v>
+      </c>
+      <c r="Y239">
+        <v>1.08</v>
+      </c>
+      <c r="Z239">
+        <v>5.59</v>
+      </c>
+      <c r="AA239">
+        <v>2.96</v>
+      </c>
+      <c r="AB239">
+        <v>1.69</v>
+      </c>
+      <c r="AC239">
+        <v>1.03</v>
+      </c>
+      <c r="AD239">
+        <v>9.5</v>
+      </c>
+      <c r="AE239">
+        <v>1.3</v>
+      </c>
+      <c r="AF239">
+        <v>3.6</v>
+      </c>
+      <c r="AG239">
+        <v>1.98</v>
+      </c>
+      <c r="AH239">
+        <v>1.88</v>
+      </c>
+      <c r="AI239">
+        <v>1.75</v>
+      </c>
+      <c r="AJ239">
+        <v>2</v>
+      </c>
+      <c r="AK239">
+        <v>1.53</v>
+      </c>
+      <c r="AL239">
+        <v>1.28</v>
+      </c>
+      <c r="AM239">
+        <v>1.48</v>
+      </c>
+      <c r="AN239">
+        <v>0.75</v>
+      </c>
+      <c r="AO239">
+        <v>1.11</v>
+      </c>
+      <c r="AP239">
+        <v>1</v>
+      </c>
+      <c r="AQ239">
+        <v>1</v>
+      </c>
+      <c r="AR239">
+        <v>1.43</v>
+      </c>
+      <c r="AS239">
+        <v>1.28</v>
+      </c>
+      <c r="AT239">
+        <v>2.71</v>
+      </c>
+      <c r="AU239">
+        <v>5</v>
+      </c>
+      <c r="AV239">
+        <v>2</v>
+      </c>
+      <c r="AW239">
+        <v>6</v>
+      </c>
+      <c r="AX239">
+        <v>6</v>
+      </c>
+      <c r="AY239">
+        <v>11</v>
+      </c>
+      <c r="AZ239">
+        <v>8</v>
+      </c>
+      <c r="BA239">
+        <v>9</v>
+      </c>
+      <c r="BB239">
+        <v>1</v>
+      </c>
+      <c r="BC239">
+        <v>10</v>
+      </c>
+      <c r="BD239">
+        <v>1.93</v>
+      </c>
+      <c r="BE239">
+        <v>9.1</v>
+      </c>
+      <c r="BF239">
+        <v>2.15</v>
+      </c>
+      <c r="BG239">
+        <v>1.19</v>
+      </c>
+      <c r="BH239">
+        <v>3.92</v>
+      </c>
+      <c r="BI239">
+        <v>1.4</v>
+      </c>
+      <c r="BJ239">
+        <v>2.72</v>
+      </c>
+      <c r="BK239">
+        <v>1.72</v>
+      </c>
+      <c r="BL239">
+        <v>2.1</v>
+      </c>
+      <c r="BM239">
+        <v>2.13</v>
+      </c>
+      <c r="BN239">
+        <v>1.7</v>
+      </c>
+      <c r="BO239">
+        <v>2.79</v>
+      </c>
+      <c r="BP239">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="398">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -835,6 +835,9 @@
     <t>['19', '85']</t>
   </si>
   <si>
+    <t>['44', '86']</t>
+  </si>
+  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -1203,6 +1206,9 @@
   <si>
     <t>['12']</t>
   </si>
+  <si>
+    <t>['48', '53', '65']</t>
+  </si>
 </sst>
 </file>
 
@@ -1563,7 +1569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP239"/>
+  <dimension ref="A1:BP240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2234,7 +2240,7 @@
         <v>101</v>
       </c>
       <c r="P4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -2646,7 +2652,7 @@
         <v>103</v>
       </c>
       <c r="P6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -3058,7 +3064,7 @@
         <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -3264,7 +3270,7 @@
         <v>106</v>
       </c>
       <c r="P9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3470,7 +3476,7 @@
         <v>107</v>
       </c>
       <c r="P10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -4088,7 +4094,7 @@
         <v>110</v>
       </c>
       <c r="P13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -4993,7 +4999,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ17">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5530,7 +5536,7 @@
         <v>115</v>
       </c>
       <c r="P20" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -5736,7 +5742,7 @@
         <v>116</v>
       </c>
       <c r="P21" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5942,7 +5948,7 @@
         <v>117</v>
       </c>
       <c r="P22" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -6148,7 +6154,7 @@
         <v>118</v>
       </c>
       <c r="P23" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6766,7 +6772,7 @@
         <v>121</v>
       </c>
       <c r="P26" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6972,7 +6978,7 @@
         <v>122</v>
       </c>
       <c r="P27" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -7178,7 +7184,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7796,7 +7802,7 @@
         <v>123</v>
       </c>
       <c r="P31" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q31">
         <v>2.37</v>
@@ -7874,7 +7880,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ31">
         <v>0.9</v>
@@ -8208,7 +8214,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -8826,7 +8832,7 @@
         <v>128</v>
       </c>
       <c r="P36" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -9032,7 +9038,7 @@
         <v>129</v>
       </c>
       <c r="P37" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -9238,7 +9244,7 @@
         <v>130</v>
       </c>
       <c r="P38" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9650,7 +9656,7 @@
         <v>104</v>
       </c>
       <c r="P40" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9856,7 +9862,7 @@
         <v>131</v>
       </c>
       <c r="P41" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -10268,7 +10274,7 @@
         <v>132</v>
       </c>
       <c r="P43" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q43">
         <v>2.05</v>
@@ -10474,7 +10480,7 @@
         <v>133</v>
       </c>
       <c r="P44" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10680,7 +10686,7 @@
         <v>134</v>
       </c>
       <c r="P45" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -11376,7 +11382,7 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11504,7 +11510,7 @@
         <v>138</v>
       </c>
       <c r="P49" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11710,7 +11716,7 @@
         <v>139</v>
       </c>
       <c r="P50" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -12740,7 +12746,7 @@
         <v>144</v>
       </c>
       <c r="P55" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12946,7 +12952,7 @@
         <v>145</v>
       </c>
       <c r="P56" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -13770,7 +13776,7 @@
         <v>149</v>
       </c>
       <c r="P60" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -14057,7 +14063,7 @@
         <v>2</v>
       </c>
       <c r="AQ61">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR61">
         <v>1.43</v>
@@ -14800,7 +14806,7 @@
         <v>154</v>
       </c>
       <c r="P65" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -15006,7 +15012,7 @@
         <v>155</v>
       </c>
       <c r="P66" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -15212,7 +15218,7 @@
         <v>104</v>
       </c>
       <c r="P67" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15418,7 +15424,7 @@
         <v>156</v>
       </c>
       <c r="P68" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15830,7 +15836,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -16242,7 +16248,7 @@
         <v>159</v>
       </c>
       <c r="P72" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16860,7 +16866,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -17066,7 +17072,7 @@
         <v>162</v>
       </c>
       <c r="P76" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q76">
         <v>3.1</v>
@@ -17272,7 +17278,7 @@
         <v>163</v>
       </c>
       <c r="P77" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17478,7 +17484,7 @@
         <v>164</v>
       </c>
       <c r="P78" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17890,7 +17896,7 @@
         <v>166</v>
       </c>
       <c r="P80" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17971,7 +17977,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ80">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR80">
         <v>1.03</v>
@@ -18302,7 +18308,7 @@
         <v>168</v>
       </c>
       <c r="P82" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -19204,7 +19210,7 @@
         <v>0</v>
       </c>
       <c r="AP86">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ86">
         <v>0.86</v>
@@ -19332,7 +19338,7 @@
         <v>172</v>
       </c>
       <c r="P87" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q87">
         <v>2.2</v>
@@ -19538,7 +19544,7 @@
         <v>173</v>
       </c>
       <c r="P88" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -20156,7 +20162,7 @@
         <v>176</v>
       </c>
       <c r="P91" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -20362,7 +20368,7 @@
         <v>177</v>
       </c>
       <c r="P92" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q92">
         <v>2.88</v>
@@ -20774,7 +20780,7 @@
         <v>179</v>
       </c>
       <c r="P94" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q94">
         <v>2.75</v>
@@ -20980,7 +20986,7 @@
         <v>180</v>
       </c>
       <c r="P95" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q95">
         <v>3.1</v>
@@ -21598,7 +21604,7 @@
         <v>182</v>
       </c>
       <c r="P98" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21804,7 +21810,7 @@
         <v>183</v>
       </c>
       <c r="P99" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -22088,7 +22094,7 @@
         <v>0</v>
       </c>
       <c r="AP100">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ100">
         <v>0.86</v>
@@ -22422,7 +22428,7 @@
         <v>185</v>
       </c>
       <c r="P102" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q102">
         <v>3.1</v>
@@ -22628,7 +22634,7 @@
         <v>186</v>
       </c>
       <c r="P103" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q103">
         <v>2.3</v>
@@ -22834,7 +22840,7 @@
         <v>187</v>
       </c>
       <c r="P104" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -23246,7 +23252,7 @@
         <v>188</v>
       </c>
       <c r="P106" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23452,7 +23458,7 @@
         <v>189</v>
       </c>
       <c r="P107" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q107">
         <v>2.75</v>
@@ -23739,7 +23745,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ108">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR108">
         <v>1.42</v>
@@ -23864,7 +23870,7 @@
         <v>190</v>
       </c>
       <c r="P109" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q109">
         <v>2.6</v>
@@ -24070,7 +24076,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q110">
         <v>2.88</v>
@@ -24276,7 +24282,7 @@
         <v>191</v>
       </c>
       <c r="P111" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24688,7 +24694,7 @@
         <v>142</v>
       </c>
       <c r="P113" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24894,7 +24900,7 @@
         <v>192</v>
       </c>
       <c r="P114" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q114">
         <v>1.91</v>
@@ -25100,7 +25106,7 @@
         <v>193</v>
       </c>
       <c r="P115" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q115">
         <v>2.1</v>
@@ -25512,7 +25518,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25796,7 +25802,7 @@
         <v>1</v>
       </c>
       <c r="AP118">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ118">
         <v>0.88</v>
@@ -25924,7 +25930,7 @@
         <v>104</v>
       </c>
       <c r="P119" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q119">
         <v>2.88</v>
@@ -26336,7 +26342,7 @@
         <v>196</v>
       </c>
       <c r="P121" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q121">
         <v>2.3</v>
@@ -26748,7 +26754,7 @@
         <v>198</v>
       </c>
       <c r="P123" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q123">
         <v>2.5</v>
@@ -26954,7 +26960,7 @@
         <v>104</v>
       </c>
       <c r="P124" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -27160,7 +27166,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q125">
         <v>2.6</v>
@@ -27366,7 +27372,7 @@
         <v>199</v>
       </c>
       <c r="P126" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q126">
         <v>2.05</v>
@@ -27778,7 +27784,7 @@
         <v>201</v>
       </c>
       <c r="P128" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -27984,7 +27990,7 @@
         <v>202</v>
       </c>
       <c r="P129" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q129">
         <v>2.5</v>
@@ -28268,7 +28274,7 @@
         <v>0.25</v>
       </c>
       <c r="AP130">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ130">
         <v>0.88</v>
@@ -29220,7 +29226,7 @@
         <v>206</v>
       </c>
       <c r="P135" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -30044,7 +30050,7 @@
         <v>119</v>
       </c>
       <c r="P139" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -30250,7 +30256,7 @@
         <v>209</v>
       </c>
       <c r="P140" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -30456,7 +30462,7 @@
         <v>210</v>
       </c>
       <c r="P141" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30662,7 +30668,7 @@
         <v>211</v>
       </c>
       <c r="P142" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -31074,7 +31080,7 @@
         <v>213</v>
       </c>
       <c r="P144" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q144">
         <v>2.88</v>
@@ -31280,7 +31286,7 @@
         <v>214</v>
       </c>
       <c r="P145" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q145">
         <v>2.38</v>
@@ -32310,7 +32316,7 @@
         <v>217</v>
       </c>
       <c r="P150" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -33134,7 +33140,7 @@
         <v>104</v>
       </c>
       <c r="P154" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q154">
         <v>2.4</v>
@@ -33212,7 +33218,7 @@
         <v>1.33</v>
       </c>
       <c r="AP154">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ154">
         <v>1.1</v>
@@ -33546,7 +33552,7 @@
         <v>219</v>
       </c>
       <c r="P156" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33958,7 +33964,7 @@
         <v>221</v>
       </c>
       <c r="P158" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -34164,7 +34170,7 @@
         <v>222</v>
       </c>
       <c r="P159" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q159">
         <v>2.1</v>
@@ -34370,7 +34376,7 @@
         <v>223</v>
       </c>
       <c r="P160" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q160">
         <v>2.5</v>
@@ -34576,7 +34582,7 @@
         <v>224</v>
       </c>
       <c r="P161" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q161">
         <v>3.4</v>
@@ -34782,7 +34788,7 @@
         <v>162</v>
       </c>
       <c r="P162" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -35194,7 +35200,7 @@
         <v>226</v>
       </c>
       <c r="P164" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q164">
         <v>2.75</v>
@@ -35400,7 +35406,7 @@
         <v>227</v>
       </c>
       <c r="P165" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q165">
         <v>2.3</v>
@@ -35606,7 +35612,7 @@
         <v>228</v>
       </c>
       <c r="P166" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q166">
         <v>2.3</v>
@@ -35812,7 +35818,7 @@
         <v>229</v>
       </c>
       <c r="P167" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q167">
         <v>2.5</v>
@@ -36224,7 +36230,7 @@
         <v>231</v>
       </c>
       <c r="P169" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q169">
         <v>3.2</v>
@@ -36636,7 +36642,7 @@
         <v>232</v>
       </c>
       <c r="P171" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q171">
         <v>3.1</v>
@@ -36842,7 +36848,7 @@
         <v>233</v>
       </c>
       <c r="P172" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -36923,7 +36929,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ172">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR172">
         <v>1.44</v>
@@ -37254,7 +37260,7 @@
         <v>121</v>
       </c>
       <c r="P174" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q174">
         <v>2.5</v>
@@ -37666,7 +37672,7 @@
         <v>104</v>
       </c>
       <c r="P176" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q176">
         <v>2.75</v>
@@ -37872,7 +37878,7 @@
         <v>234</v>
       </c>
       <c r="P177" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q177">
         <v>2.63</v>
@@ -38284,7 +38290,7 @@
         <v>104</v>
       </c>
       <c r="P179" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q179">
         <v>3.1</v>
@@ -38902,7 +38908,7 @@
         <v>237</v>
       </c>
       <c r="P182" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q182">
         <v>2.3</v>
@@ -39108,7 +39114,7 @@
         <v>139</v>
       </c>
       <c r="P183" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q183">
         <v>2.75</v>
@@ -39520,7 +39526,7 @@
         <v>238</v>
       </c>
       <c r="P185" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q185">
         <v>2.3</v>
@@ -39726,7 +39732,7 @@
         <v>104</v>
       </c>
       <c r="P186" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q186">
         <v>3.2</v>
@@ -40010,7 +40016,7 @@
         <v>1.5</v>
       </c>
       <c r="AP187">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ187">
         <v>1.2</v>
@@ -40138,7 +40144,7 @@
         <v>240</v>
       </c>
       <c r="P188" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q188">
         <v>2.75</v>
@@ -40550,7 +40556,7 @@
         <v>241</v>
       </c>
       <c r="P190" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q190">
         <v>2.25</v>
@@ -40962,7 +40968,7 @@
         <v>243</v>
       </c>
       <c r="P192" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q192">
         <v>2.63</v>
@@ -41168,7 +41174,7 @@
         <v>244</v>
       </c>
       <c r="P193" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -41249,7 +41255,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ193">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR193">
         <v>1.39</v>
@@ -41374,7 +41380,7 @@
         <v>245</v>
       </c>
       <c r="P194" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q194">
         <v>2.3</v>
@@ -42198,7 +42204,7 @@
         <v>246</v>
       </c>
       <c r="P198" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q198">
         <v>3.3</v>
@@ -42404,7 +42410,7 @@
         <v>104</v>
       </c>
       <c r="P199" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q199">
         <v>2.51</v>
@@ -42485,7 +42491,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ199">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR199">
         <v>1.53</v>
@@ -42816,7 +42822,7 @@
         <v>104</v>
       </c>
       <c r="P201" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q201">
         <v>2.88</v>
@@ -43228,7 +43234,7 @@
         <v>247</v>
       </c>
       <c r="P203" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q203">
         <v>2.16</v>
@@ -43434,7 +43440,7 @@
         <v>248</v>
       </c>
       <c r="P204" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q204">
         <v>3.4</v>
@@ -43640,7 +43646,7 @@
         <v>211</v>
       </c>
       <c r="P205" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q205">
         <v>2.88</v>
@@ -43846,7 +43852,7 @@
         <v>249</v>
       </c>
       <c r="P206" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q206">
         <v>2.5</v>
@@ -44052,7 +44058,7 @@
         <v>250</v>
       </c>
       <c r="P207" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q207">
         <v>3</v>
@@ -44258,7 +44264,7 @@
         <v>251</v>
       </c>
       <c r="P208" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q208">
         <v>2.38</v>
@@ -44670,7 +44676,7 @@
         <v>123</v>
       </c>
       <c r="P210" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q210">
         <v>2.3</v>
@@ -45082,7 +45088,7 @@
         <v>253</v>
       </c>
       <c r="P212" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q212">
         <v>2.2</v>
@@ -45288,7 +45294,7 @@
         <v>254</v>
       </c>
       <c r="P213" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q213">
         <v>3</v>
@@ -45494,7 +45500,7 @@
         <v>104</v>
       </c>
       <c r="P214" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q214">
         <v>2.4</v>
@@ -45700,7 +45706,7 @@
         <v>145</v>
       </c>
       <c r="P215" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q215">
         <v>2.05</v>
@@ -45906,7 +45912,7 @@
         <v>104</v>
       </c>
       <c r="P216" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q216">
         <v>2.5</v>
@@ -46318,7 +46324,7 @@
         <v>255</v>
       </c>
       <c r="P218" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q218">
         <v>2.6</v>
@@ -46524,7 +46530,7 @@
         <v>256</v>
       </c>
       <c r="P219" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q219">
         <v>2.75</v>
@@ -46936,7 +46942,7 @@
         <v>258</v>
       </c>
       <c r="P221" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q221">
         <v>2.6</v>
@@ -47348,7 +47354,7 @@
         <v>260</v>
       </c>
       <c r="P223" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q223">
         <v>2.2</v>
@@ -47426,7 +47432,7 @@
         <v>0.5</v>
       </c>
       <c r="AP223">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ223">
         <v>0.44</v>
@@ -47760,7 +47766,7 @@
         <v>138</v>
       </c>
       <c r="P225" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q225">
         <v>1.91</v>
@@ -47966,7 +47972,7 @@
         <v>262</v>
       </c>
       <c r="P226" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q226">
         <v>1.83</v>
@@ -48172,7 +48178,7 @@
         <v>263</v>
       </c>
       <c r="P227" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q227">
         <v>2.38</v>
@@ -48790,7 +48796,7 @@
         <v>124</v>
       </c>
       <c r="P230" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q230">
         <v>2.3</v>
@@ -49614,7 +49620,7 @@
         <v>269</v>
       </c>
       <c r="P234" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q234">
         <v>2.75</v>
@@ -49820,7 +49826,7 @@
         <v>270</v>
       </c>
       <c r="P235" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q235">
         <v>2.75</v>
@@ -50644,7 +50650,7 @@
         <v>272</v>
       </c>
       <c r="P239" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q239">
         <v>3.4</v>
@@ -50801,6 +50807,212 @@
       </c>
       <c r="BP239">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="240" spans="1:68">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>7295476</v>
+      </c>
+      <c r="C240" t="s">
+        <v>68</v>
+      </c>
+      <c r="D240" t="s">
+        <v>69</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45457.90277777778</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240" t="s">
+        <v>94</v>
+      </c>
+      <c r="H240" t="s">
+        <v>71</v>
+      </c>
+      <c r="I240">
+        <v>1</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>1</v>
+      </c>
+      <c r="L240">
+        <v>2</v>
+      </c>
+      <c r="M240">
+        <v>3</v>
+      </c>
+      <c r="N240">
+        <v>5</v>
+      </c>
+      <c r="O240" t="s">
+        <v>273</v>
+      </c>
+      <c r="P240" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q240">
+        <v>2.75</v>
+      </c>
+      <c r="R240">
+        <v>2.3</v>
+      </c>
+      <c r="S240">
+        <v>3.6</v>
+      </c>
+      <c r="T240">
+        <v>1.33</v>
+      </c>
+      <c r="U240">
+        <v>3.25</v>
+      </c>
+      <c r="V240">
+        <v>2.63</v>
+      </c>
+      <c r="W240">
+        <v>1.44</v>
+      </c>
+      <c r="X240">
+        <v>6.5</v>
+      </c>
+      <c r="Y240">
+        <v>1.11</v>
+      </c>
+      <c r="Z240">
+        <v>2.15</v>
+      </c>
+      <c r="AA240">
+        <v>3.6</v>
+      </c>
+      <c r="AB240">
+        <v>3.05</v>
+      </c>
+      <c r="AC240">
+        <v>1.01</v>
+      </c>
+      <c r="AD240">
+        <v>11</v>
+      </c>
+      <c r="AE240">
+        <v>1.2</v>
+      </c>
+      <c r="AF240">
+        <v>3.85</v>
+      </c>
+      <c r="AG240">
+        <v>1.55</v>
+      </c>
+      <c r="AH240">
+        <v>2.3</v>
+      </c>
+      <c r="AI240">
+        <v>1.57</v>
+      </c>
+      <c r="AJ240">
+        <v>2.25</v>
+      </c>
+      <c r="AK240">
+        <v>1.36</v>
+      </c>
+      <c r="AL240">
+        <v>1.25</v>
+      </c>
+      <c r="AM240">
+        <v>1.72</v>
+      </c>
+      <c r="AN240">
+        <v>2.11</v>
+      </c>
+      <c r="AO240">
+        <v>1.71</v>
+      </c>
+      <c r="AP240">
+        <v>1.9</v>
+      </c>
+      <c r="AQ240">
+        <v>1.88</v>
+      </c>
+      <c r="AR240">
+        <v>1.72</v>
+      </c>
+      <c r="AS240">
+        <v>1.15</v>
+      </c>
+      <c r="AT240">
+        <v>2.87</v>
+      </c>
+      <c r="AU240">
+        <v>7</v>
+      </c>
+      <c r="AV240">
+        <v>13</v>
+      </c>
+      <c r="AW240">
+        <v>6</v>
+      </c>
+      <c r="AX240">
+        <v>3</v>
+      </c>
+      <c r="AY240">
+        <v>13</v>
+      </c>
+      <c r="AZ240">
+        <v>16</v>
+      </c>
+      <c r="BA240">
+        <v>3</v>
+      </c>
+      <c r="BB240">
+        <v>4</v>
+      </c>
+      <c r="BC240">
+        <v>7</v>
+      </c>
+      <c r="BD240">
+        <v>2.08</v>
+      </c>
+      <c r="BE240">
+        <v>5.8</v>
+      </c>
+      <c r="BF240">
+        <v>1.84</v>
+      </c>
+      <c r="BG240">
+        <v>1.41</v>
+      </c>
+      <c r="BH240">
+        <v>2.65</v>
+      </c>
+      <c r="BI240">
+        <v>1.7</v>
+      </c>
+      <c r="BJ240">
+        <v>2.05</v>
+      </c>
+      <c r="BK240">
+        <v>2.05</v>
+      </c>
+      <c r="BL240">
+        <v>1.7</v>
+      </c>
+      <c r="BM240">
+        <v>2.7</v>
+      </c>
+      <c r="BN240">
+        <v>1.38</v>
+      </c>
+      <c r="BO240">
+        <v>3.65</v>
+      </c>
+      <c r="BP240">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="413">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -838,6 +838,33 @@
     <t>['44', '86']</t>
   </si>
   <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['7', '21', '39']</t>
+  </si>
+  <si>
+    <t>['45+7']</t>
+  </si>
+  <si>
+    <t>['25', '55']</t>
+  </si>
+  <si>
+    <t>['28', '81']</t>
+  </si>
+  <si>
+    <t>['22', '49']</t>
+  </si>
+  <si>
+    <t>['40', '54', '75', '90+2']</t>
+  </si>
+  <si>
+    <t>['57', '72']</t>
+  </si>
+  <si>
+    <t>['28', '57']</t>
+  </si>
+  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -1165,9 +1192,6 @@
     <t>['18']</t>
   </si>
   <si>
-    <t>['44']</t>
-  </si>
-  <si>
     <t>['29', '42']</t>
   </si>
   <si>
@@ -1208,6 +1232,27 @@
   </si>
   <si>
     <t>['48', '53', '65']</t>
+  </si>
+  <si>
+    <t>['41', '57', '60', '89']</t>
+  </si>
+  <si>
+    <t>['47', '90+4']</t>
+  </si>
+  <si>
+    <t>['13', '90+4']</t>
+  </si>
+  <si>
+    <t>['45', '80', '86']</t>
+  </si>
+  <si>
+    <t>['5', '89']</t>
+  </si>
+  <si>
+    <t>['66', '81']</t>
+  </si>
+  <si>
+    <t>['53', '78', '80', '87']</t>
   </si>
 </sst>
 </file>
@@ -1569,7 +1614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP240"/>
+  <dimension ref="A1:BP253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1909,7 +1954,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ2">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2240,7 +2285,7 @@
         <v>101</v>
       </c>
       <c r="P4" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -2524,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ5">
         <v>1.43</v>
@@ -2652,7 +2697,7 @@
         <v>103</v>
       </c>
       <c r="P6" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2936,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ7">
         <v>0.9</v>
@@ -3064,7 +3109,7 @@
         <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -3142,10 +3187,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ8">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3270,7 +3315,7 @@
         <v>106</v>
       </c>
       <c r="P9" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3351,7 +3396,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ9">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3476,7 +3521,7 @@
         <v>107</v>
       </c>
       <c r="P10" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3554,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ10">
         <v>0.44</v>
@@ -3763,7 +3808,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3969,7 +4014,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ12">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4094,7 +4139,7 @@
         <v>110</v>
       </c>
       <c r="P13" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -4790,10 +4835,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ16">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5205,7 +5250,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5536,7 +5581,7 @@
         <v>115</v>
       </c>
       <c r="P20" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -5742,7 +5787,7 @@
         <v>116</v>
       </c>
       <c r="P21" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5823,7 +5868,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ21">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5948,7 +5993,7 @@
         <v>117</v>
       </c>
       <c r="P22" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -6026,7 +6071,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ22">
         <v>0.9</v>
@@ -6154,7 +6199,7 @@
         <v>118</v>
       </c>
       <c r="P23" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6772,7 +6817,7 @@
         <v>121</v>
       </c>
       <c r="P26" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6850,10 +6895,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ26">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6978,7 +7023,7 @@
         <v>122</v>
       </c>
       <c r="P27" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -7059,7 +7104,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR27">
         <v>1.01</v>
@@ -7184,7 +7229,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7262,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ28">
         <v>1.3</v>
@@ -7468,10 +7513,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ29">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7674,7 +7719,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7802,7 +7847,7 @@
         <v>123</v>
       </c>
       <c r="P31" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="Q31">
         <v>2.37</v>
@@ -8086,7 +8131,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ32">
         <v>0.88</v>
@@ -8214,7 +8259,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -8292,7 +8337,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ33">
         <v>0.86</v>
@@ -8501,7 +8546,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ34">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR34">
         <v>1.35</v>
@@ -8704,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ35">
         <v>0.33</v>
@@ -8832,7 +8877,7 @@
         <v>128</v>
       </c>
       <c r="P36" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8910,10 +8955,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ36">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR36">
         <v>1.61</v>
@@ -9038,7 +9083,7 @@
         <v>129</v>
       </c>
       <c r="P37" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -9119,7 +9164,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ37">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR37">
         <v>1.02</v>
@@ -9244,7 +9289,7 @@
         <v>130</v>
       </c>
       <c r="P38" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9531,7 +9576,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ39">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR39">
         <v>1.7</v>
@@ -9656,7 +9701,7 @@
         <v>104</v>
       </c>
       <c r="P40" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9734,10 +9779,10 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ40">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR40">
         <v>1.38</v>
@@ -9862,7 +9907,7 @@
         <v>131</v>
       </c>
       <c r="P41" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -10149,7 +10194,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ42">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR42">
         <v>1.46</v>
@@ -10274,7 +10319,7 @@
         <v>132</v>
       </c>
       <c r="P43" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="Q43">
         <v>2.05</v>
@@ -10480,7 +10525,7 @@
         <v>133</v>
       </c>
       <c r="P44" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10686,7 +10731,7 @@
         <v>134</v>
       </c>
       <c r="P45" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10767,7 +10812,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ45">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR45">
         <v>1.94</v>
@@ -10970,7 +11015,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ46">
         <v>1.1</v>
@@ -11510,7 +11555,7 @@
         <v>138</v>
       </c>
       <c r="P49" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11716,7 +11761,7 @@
         <v>139</v>
       </c>
       <c r="P50" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11794,10 +11839,10 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ50">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR50">
         <v>1.92</v>
@@ -12415,7 +12460,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR53">
         <v>1.47</v>
@@ -12746,7 +12791,7 @@
         <v>144</v>
       </c>
       <c r="P55" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12824,10 +12869,10 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ55">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR55">
         <v>2.22</v>
@@ -12952,7 +12997,7 @@
         <v>145</v>
       </c>
       <c r="P56" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -13030,10 +13075,10 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ56">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR56">
         <v>2.29</v>
@@ -13236,7 +13281,7 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ57">
         <v>1.38</v>
@@ -13442,10 +13487,10 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
+        <v>1.11</v>
+      </c>
+      <c r="AQ58">
         <v>0.88</v>
-      </c>
-      <c r="AQ58">
-        <v>0.57</v>
       </c>
       <c r="AR58">
         <v>2.02</v>
@@ -13648,10 +13693,10 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ59">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR59">
         <v>1.89</v>
@@ -13776,7 +13821,7 @@
         <v>149</v>
       </c>
       <c r="P60" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13857,7 +13902,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ60">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR60">
         <v>1.63</v>
@@ -14060,7 +14105,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ61">
         <v>1.88</v>
@@ -14472,10 +14517,10 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ63">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR63">
         <v>1.92</v>
@@ -14678,7 +14723,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ64">
         <v>0.86</v>
@@ -14806,7 +14851,7 @@
         <v>154</v>
       </c>
       <c r="P65" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -15012,7 +15057,7 @@
         <v>155</v>
       </c>
       <c r="P66" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -15093,7 +15138,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ66">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR66">
         <v>1.49</v>
@@ -15218,7 +15263,7 @@
         <v>104</v>
       </c>
       <c r="P67" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15296,10 +15341,10 @@
         <v>0</v>
       </c>
       <c r="AP67">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ67">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR67">
         <v>1.06</v>
@@ -15424,7 +15469,7 @@
         <v>156</v>
       </c>
       <c r="P68" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15502,7 +15547,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ68">
         <v>1</v>
@@ -15711,7 +15756,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ69">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR69">
         <v>1.68</v>
@@ -15836,7 +15881,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -16120,10 +16165,10 @@
         <v>3</v>
       </c>
       <c r="AP71">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ71">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR71">
         <v>1.95</v>
@@ -16248,7 +16293,7 @@
         <v>159</v>
       </c>
       <c r="P72" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16326,10 +16371,10 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ72">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR72">
         <v>1.16</v>
@@ -16532,10 +16577,10 @@
         <v>3</v>
       </c>
       <c r="AP73">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ73">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR73">
         <v>1.41</v>
@@ -16866,7 +16911,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -17072,7 +17117,7 @@
         <v>162</v>
       </c>
       <c r="P76" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="Q76">
         <v>3.1</v>
@@ -17150,7 +17195,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ76">
         <v>1.2</v>
@@ -17278,7 +17323,7 @@
         <v>163</v>
       </c>
       <c r="P77" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17356,10 +17401,10 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ77">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR77">
         <v>1.72</v>
@@ -17484,7 +17529,7 @@
         <v>164</v>
       </c>
       <c r="P78" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17896,7 +17941,7 @@
         <v>166</v>
       </c>
       <c r="P80" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -18183,7 +18228,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ81">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR81">
         <v>1.42</v>
@@ -18308,7 +18353,7 @@
         <v>168</v>
       </c>
       <c r="P82" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18592,7 +18637,7 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ83">
         <v>1</v>
@@ -18798,10 +18843,10 @@
         <v>0.67</v>
       </c>
       <c r="AP84">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ84">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR84">
         <v>1.97</v>
@@ -19004,7 +19049,7 @@
         <v>0.33</v>
       </c>
       <c r="AP85">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ85">
         <v>0.88</v>
@@ -19338,7 +19383,7 @@
         <v>172</v>
       </c>
       <c r="P87" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="Q87">
         <v>2.2</v>
@@ -19544,7 +19589,7 @@
         <v>173</v>
       </c>
       <c r="P88" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -20037,7 +20082,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ90">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR90">
         <v>1.72</v>
@@ -20162,7 +20207,7 @@
         <v>176</v>
       </c>
       <c r="P91" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -20368,7 +20413,7 @@
         <v>177</v>
       </c>
       <c r="P92" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="Q92">
         <v>2.88</v>
@@ -20655,7 +20700,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ93">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR93">
         <v>1.63</v>
@@ -20780,7 +20825,7 @@
         <v>179</v>
       </c>
       <c r="P94" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="Q94">
         <v>2.75</v>
@@ -20861,7 +20906,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ94">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR94">
         <v>1.29</v>
@@ -20986,7 +21031,7 @@
         <v>180</v>
       </c>
       <c r="P95" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Q95">
         <v>3.1</v>
@@ -21476,7 +21521,7 @@
         <v>1.4</v>
       </c>
       <c r="AP97">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ97">
         <v>0.9</v>
@@ -21604,7 +21649,7 @@
         <v>182</v>
       </c>
       <c r="P98" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21810,7 +21855,7 @@
         <v>183</v>
       </c>
       <c r="P99" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21891,7 +21936,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ99">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR99">
         <v>1.42</v>
@@ -22300,10 +22345,10 @@
         <v>0.5</v>
       </c>
       <c r="AP101">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ101">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR101">
         <v>1.68</v>
@@ -22428,7 +22473,7 @@
         <v>185</v>
       </c>
       <c r="P102" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="Q102">
         <v>3.1</v>
@@ -22506,10 +22551,10 @@
         <v>2.33</v>
       </c>
       <c r="AP102">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ102">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR102">
         <v>0</v>
@@ -22634,7 +22679,7 @@
         <v>186</v>
       </c>
       <c r="P103" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="Q103">
         <v>2.3</v>
@@ -22712,7 +22757,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ103">
         <v>1</v>
@@ -22840,7 +22885,7 @@
         <v>187</v>
       </c>
       <c r="P104" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -23124,7 +23169,7 @@
         <v>0</v>
       </c>
       <c r="AP105">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ105">
         <v>1</v>
@@ -23252,7 +23297,7 @@
         <v>188</v>
       </c>
       <c r="P106" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23333,7 +23378,7 @@
         <v>1</v>
       </c>
       <c r="AQ106">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR106">
         <v>1.67</v>
@@ -23458,7 +23503,7 @@
         <v>189</v>
       </c>
       <c r="P107" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="Q107">
         <v>2.75</v>
@@ -23539,7 +23584,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ107">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR107">
         <v>1.55</v>
@@ -23870,7 +23915,7 @@
         <v>190</v>
       </c>
       <c r="P109" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="Q109">
         <v>2.6</v>
@@ -24076,7 +24121,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="Q110">
         <v>2.88</v>
@@ -24154,7 +24199,7 @@
         <v>1.25</v>
       </c>
       <c r="AP110">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ110">
         <v>1.1</v>
@@ -24282,7 +24327,7 @@
         <v>191</v>
       </c>
       <c r="P111" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24360,7 +24405,7 @@
         <v>2</v>
       </c>
       <c r="AP111">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ111">
         <v>1.75</v>
@@ -24569,7 +24614,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ112">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR112">
         <v>1.79</v>
@@ -24694,7 +24739,7 @@
         <v>142</v>
       </c>
       <c r="P113" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24772,7 +24817,7 @@
         <v>1</v>
       </c>
       <c r="AP113">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ113">
         <v>1.38</v>
@@ -24900,7 +24945,7 @@
         <v>192</v>
       </c>
       <c r="P114" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="Q114">
         <v>1.91</v>
@@ -24981,7 +25026,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ114">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR114">
         <v>1.72</v>
@@ -25106,7 +25151,7 @@
         <v>193</v>
       </c>
       <c r="P115" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="Q115">
         <v>2.1</v>
@@ -25390,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="AP116">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ116">
         <v>0.86</v>
@@ -25518,7 +25563,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25596,10 +25641,10 @@
         <v>1.75</v>
       </c>
       <c r="AP117">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ117">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR117">
         <v>1.94</v>
@@ -25805,7 +25850,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ118">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR118">
         <v>1.77</v>
@@ -25930,7 +25975,7 @@
         <v>104</v>
       </c>
       <c r="P119" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="Q119">
         <v>2.88</v>
@@ -26011,7 +26056,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ119">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR119">
         <v>1.52</v>
@@ -26217,7 +26262,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ120">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR120">
         <v>1.68</v>
@@ -26342,7 +26387,7 @@
         <v>196</v>
       </c>
       <c r="P121" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="Q121">
         <v>2.3</v>
@@ -26423,7 +26468,7 @@
         <v>1</v>
       </c>
       <c r="AQ121">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR121">
         <v>1.55</v>
@@ -26626,7 +26671,7 @@
         <v>0.33</v>
       </c>
       <c r="AP122">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ122">
         <v>0.33</v>
@@ -26754,7 +26799,7 @@
         <v>198</v>
       </c>
       <c r="P123" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="Q123">
         <v>2.5</v>
@@ -26960,7 +27005,7 @@
         <v>104</v>
       </c>
       <c r="P124" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -27038,10 +27083,10 @@
         <v>3</v>
       </c>
       <c r="AP124">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ124">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR124">
         <v>1.78</v>
@@ -27166,7 +27211,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="Q125">
         <v>2.6</v>
@@ -27244,10 +27289,10 @@
         <v>2</v>
       </c>
       <c r="AP125">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ125">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR125">
         <v>1.42</v>
@@ -27372,7 +27417,7 @@
         <v>199</v>
       </c>
       <c r="P126" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="Q126">
         <v>2.05</v>
@@ -27450,7 +27495,7 @@
         <v>0</v>
       </c>
       <c r="AP126">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ126">
         <v>0.44</v>
@@ -27784,7 +27829,7 @@
         <v>201</v>
       </c>
       <c r="P128" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -27862,7 +27907,7 @@
         <v>0.8</v>
       </c>
       <c r="AP128">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ128">
         <v>1</v>
@@ -27990,7 +28035,7 @@
         <v>202</v>
       </c>
       <c r="P129" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="Q129">
         <v>2.5</v>
@@ -28068,10 +28113,10 @@
         <v>1.6</v>
       </c>
       <c r="AP129">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ129">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR129">
         <v>1.61</v>
@@ -28480,10 +28525,10 @@
         <v>3</v>
       </c>
       <c r="AP131">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ131">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR131">
         <v>1.71</v>
@@ -29226,7 +29271,7 @@
         <v>206</v>
       </c>
       <c r="P135" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29304,10 +29349,10 @@
         <v>1.75</v>
       </c>
       <c r="AP135">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ135">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR135">
         <v>1.64</v>
@@ -29513,7 +29558,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ136">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR136">
         <v>1.75</v>
@@ -29922,10 +29967,10 @@
         <v>2</v>
       </c>
       <c r="AP138">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ138">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR138">
         <v>1.63</v>
@@ -30050,7 +30095,7 @@
         <v>119</v>
       </c>
       <c r="P139" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -30256,7 +30301,7 @@
         <v>209</v>
       </c>
       <c r="P140" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -30462,7 +30507,7 @@
         <v>210</v>
       </c>
       <c r="P141" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30540,7 +30585,7 @@
         <v>0.2</v>
       </c>
       <c r="AP141">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ141">
         <v>1</v>
@@ -30668,7 +30713,7 @@
         <v>211</v>
       </c>
       <c r="P142" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30746,10 +30791,10 @@
         <v>2.25</v>
       </c>
       <c r="AP142">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ142">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR142">
         <v>1.86</v>
@@ -30952,7 +30997,7 @@
         <v>0.83</v>
       </c>
       <c r="AP143">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ143">
         <v>0.9</v>
@@ -31080,7 +31125,7 @@
         <v>213</v>
       </c>
       <c r="P144" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="Q144">
         <v>2.88</v>
@@ -31286,7 +31331,7 @@
         <v>214</v>
       </c>
       <c r="P145" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="Q145">
         <v>2.38</v>
@@ -31570,10 +31615,10 @@
         <v>2</v>
       </c>
       <c r="AP146">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ146">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR146">
         <v>1.7</v>
@@ -31776,10 +31821,10 @@
         <v>0.25</v>
       </c>
       <c r="AP147">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ147">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR147">
         <v>1.42</v>
@@ -31982,7 +32027,7 @@
         <v>0.25</v>
       </c>
       <c r="AP148">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ148">
         <v>0.33</v>
@@ -32191,7 +32236,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ149">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR149">
         <v>1.71</v>
@@ -32316,7 +32361,7 @@
         <v>217</v>
       </c>
       <c r="P150" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32809,7 +32854,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ152">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR152">
         <v>1.48</v>
@@ -33015,7 +33060,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ153">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR153">
         <v>1.44</v>
@@ -33140,7 +33185,7 @@
         <v>104</v>
       </c>
       <c r="P154" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="Q154">
         <v>2.4</v>
@@ -33424,7 +33469,7 @@
         <v>1.67</v>
       </c>
       <c r="AP155">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ155">
         <v>1.3</v>
@@ -33552,7 +33597,7 @@
         <v>219</v>
       </c>
       <c r="P156" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33630,10 +33675,10 @@
         <v>0.8</v>
       </c>
       <c r="AP156">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ156">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR156">
         <v>1.86</v>
@@ -33836,10 +33881,10 @@
         <v>0.33</v>
       </c>
       <c r="AP157">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ157">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR157">
         <v>1.3</v>
@@ -33964,7 +34009,7 @@
         <v>221</v>
       </c>
       <c r="P158" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -34042,10 +34087,10 @@
         <v>2</v>
       </c>
       <c r="AP158">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ158">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR158">
         <v>1.25</v>
@@ -34170,7 +34215,7 @@
         <v>222</v>
       </c>
       <c r="P159" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="Q159">
         <v>2.1</v>
@@ -34248,7 +34293,7 @@
         <v>0.6</v>
       </c>
       <c r="AP159">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ159">
         <v>0.86</v>
@@ -34376,7 +34421,7 @@
         <v>223</v>
       </c>
       <c r="P160" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="Q160">
         <v>2.5</v>
@@ -34454,7 +34499,7 @@
         <v>1</v>
       </c>
       <c r="AP160">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ160">
         <v>1.38</v>
@@ -34582,7 +34627,7 @@
         <v>224</v>
       </c>
       <c r="P161" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="Q161">
         <v>3.4</v>
@@ -34660,7 +34705,7 @@
         <v>0.25</v>
       </c>
       <c r="AP161">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ161">
         <v>1.43</v>
@@ -34788,7 +34833,7 @@
         <v>162</v>
       </c>
       <c r="P162" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34869,7 +34914,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ162">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR162">
         <v>1.7</v>
@@ -35072,10 +35117,10 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ163">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR163">
         <v>1.68</v>
@@ -35200,7 +35245,7 @@
         <v>226</v>
       </c>
       <c r="P164" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="Q164">
         <v>2.75</v>
@@ -35281,7 +35326,7 @@
         <v>1</v>
       </c>
       <c r="AQ164">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR164">
         <v>1.45</v>
@@ -35406,7 +35451,7 @@
         <v>227</v>
       </c>
       <c r="P165" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="Q165">
         <v>2.3</v>
@@ -35487,7 +35532,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ165">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR165">
         <v>1.69</v>
@@ -35612,7 +35657,7 @@
         <v>228</v>
       </c>
       <c r="P166" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="Q166">
         <v>2.3</v>
@@ -35690,7 +35735,7 @@
         <v>0.17</v>
       </c>
       <c r="AP166">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ166">
         <v>0.44</v>
@@ -35818,7 +35863,7 @@
         <v>229</v>
       </c>
       <c r="P167" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="Q167">
         <v>2.5</v>
@@ -35896,10 +35941,10 @@
         <v>1.83</v>
       </c>
       <c r="AP167">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ167">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR167">
         <v>1.69</v>
@@ -36105,7 +36150,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ168">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR168">
         <v>2.08</v>
@@ -36230,7 +36275,7 @@
         <v>231</v>
       </c>
       <c r="P169" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="Q169">
         <v>3.2</v>
@@ -36642,7 +36687,7 @@
         <v>232</v>
       </c>
       <c r="P171" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="Q171">
         <v>3.1</v>
@@ -36848,7 +36893,7 @@
         <v>233</v>
       </c>
       <c r="P172" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -36926,7 +36971,7 @@
         <v>0.75</v>
       </c>
       <c r="AP172">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ172">
         <v>1.88</v>
@@ -37132,10 +37177,10 @@
         <v>2.17</v>
       </c>
       <c r="AP173">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ173">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR173">
         <v>1.59</v>
@@ -37260,7 +37305,7 @@
         <v>121</v>
       </c>
       <c r="P174" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="Q174">
         <v>2.5</v>
@@ -37338,7 +37383,7 @@
         <v>0.8</v>
       </c>
       <c r="AP174">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ174">
         <v>1.43</v>
@@ -37547,7 +37592,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ175">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR175">
         <v>1.26</v>
@@ -37672,7 +37717,7 @@
         <v>104</v>
       </c>
       <c r="P176" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="Q176">
         <v>2.75</v>
@@ -37878,7 +37923,7 @@
         <v>234</v>
       </c>
       <c r="P177" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="Q177">
         <v>2.63</v>
@@ -38290,7 +38335,7 @@
         <v>104</v>
       </c>
       <c r="P179" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="Q179">
         <v>3.1</v>
@@ -38371,7 +38416,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ179">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR179">
         <v>1.84</v>
@@ -38574,10 +38619,10 @@
         <v>2</v>
       </c>
       <c r="AP180">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ180">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR180">
         <v>1.4</v>
@@ -38908,7 +38953,7 @@
         <v>237</v>
       </c>
       <c r="P182" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="Q182">
         <v>2.3</v>
@@ -39114,7 +39159,7 @@
         <v>139</v>
       </c>
       <c r="P183" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="Q183">
         <v>2.75</v>
@@ -39398,7 +39443,7 @@
         <v>1.5</v>
       </c>
       <c r="AP184">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ184">
         <v>1.3</v>
@@ -39526,7 +39571,7 @@
         <v>238</v>
       </c>
       <c r="P185" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="Q185">
         <v>2.3</v>
@@ -39607,7 +39652,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ185">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR185">
         <v>1.53</v>
@@ -39732,7 +39777,7 @@
         <v>104</v>
       </c>
       <c r="P186" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="Q186">
         <v>3.2</v>
@@ -39810,7 +39855,7 @@
         <v>1.67</v>
       </c>
       <c r="AP186">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ186">
         <v>1.75</v>
@@ -40144,7 +40189,7 @@
         <v>240</v>
       </c>
       <c r="P188" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="Q188">
         <v>2.75</v>
@@ -40222,7 +40267,7 @@
         <v>1</v>
       </c>
       <c r="AP188">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ188">
         <v>0.9</v>
@@ -40431,7 +40476,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ189">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR189">
         <v>1.64</v>
@@ -40556,7 +40601,7 @@
         <v>241</v>
       </c>
       <c r="P190" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="Q190">
         <v>2.25</v>
@@ -40968,7 +41013,7 @@
         <v>243</v>
       </c>
       <c r="P192" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="Q192">
         <v>2.63</v>
@@ -41049,7 +41094,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ192">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR192">
         <v>1.28</v>
@@ -41174,7 +41219,7 @@
         <v>244</v>
       </c>
       <c r="P193" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -41380,7 +41425,7 @@
         <v>245</v>
       </c>
       <c r="P194" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="Q194">
         <v>2.3</v>
@@ -41664,7 +41709,7 @@
         <v>1.4</v>
       </c>
       <c r="AP195">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ195">
         <v>1.38</v>
@@ -41870,10 +41915,10 @@
         <v>1.67</v>
       </c>
       <c r="AP196">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ196">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR196">
         <v>1.58</v>
@@ -42076,7 +42121,7 @@
         <v>1.17</v>
       </c>
       <c r="AP197">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ197">
         <v>1.43</v>
@@ -42204,7 +42249,7 @@
         <v>246</v>
       </c>
       <c r="P198" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="Q198">
         <v>3.3</v>
@@ -42282,10 +42327,10 @@
         <v>2.29</v>
       </c>
       <c r="AP198">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ198">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR198">
         <v>1.55</v>
@@ -42410,7 +42455,7 @@
         <v>104</v>
       </c>
       <c r="P199" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="Q199">
         <v>2.51</v>
@@ -42488,7 +42533,7 @@
         <v>1.5</v>
       </c>
       <c r="AP199">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ199">
         <v>1.88</v>
@@ -42694,10 +42739,10 @@
         <v>0.25</v>
       </c>
       <c r="AP200">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ200">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR200">
         <v>1.35</v>
@@ -42822,7 +42867,7 @@
         <v>104</v>
       </c>
       <c r="P201" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="Q201">
         <v>2.88</v>
@@ -42900,10 +42945,10 @@
         <v>0.67</v>
       </c>
       <c r="AP201">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ201">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR201">
         <v>1.77</v>
@@ -43106,7 +43151,7 @@
         <v>1.86</v>
       </c>
       <c r="AP202">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ202">
         <v>1.75</v>
@@ -43234,7 +43279,7 @@
         <v>247</v>
       </c>
       <c r="P203" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="Q203">
         <v>2.16</v>
@@ -43315,7 +43360,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ203">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR203">
         <v>1.75</v>
@@ -43440,7 +43485,7 @@
         <v>248</v>
       </c>
       <c r="P204" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="Q204">
         <v>3.4</v>
@@ -43518,10 +43563,10 @@
         <v>1.71</v>
       </c>
       <c r="AP204">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ204">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR204">
         <v>1.54</v>
@@ -43646,7 +43691,7 @@
         <v>211</v>
       </c>
       <c r="P205" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="Q205">
         <v>2.88</v>
@@ -43852,7 +43897,7 @@
         <v>249</v>
       </c>
       <c r="P206" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="Q206">
         <v>2.5</v>
@@ -43930,10 +43975,10 @@
         <v>2.4</v>
       </c>
       <c r="AP206">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ206">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR206">
         <v>1.47</v>
@@ -44058,7 +44103,7 @@
         <v>250</v>
       </c>
       <c r="P207" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="Q207">
         <v>3</v>
@@ -44139,7 +44184,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ207">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR207">
         <v>1.59</v>
@@ -44264,7 +44309,7 @@
         <v>251</v>
       </c>
       <c r="P208" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="Q208">
         <v>2.38</v>
@@ -44342,10 +44387,10 @@
         <v>1.5</v>
       </c>
       <c r="AP208">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ208">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR208">
         <v>1.77</v>
@@ -44551,7 +44596,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ209">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR209">
         <v>1.48</v>
@@ -44676,7 +44721,7 @@
         <v>123</v>
       </c>
       <c r="P210" t="s">
-        <v>383</v>
+        <v>274</v>
       </c>
       <c r="Q210">
         <v>2.3</v>
@@ -44754,10 +44799,10 @@
         <v>0.83</v>
       </c>
       <c r="AP210">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ210">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR210">
         <v>1.37</v>
@@ -44960,7 +45005,7 @@
         <v>1</v>
       </c>
       <c r="AP211">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ211">
         <v>1</v>
@@ -45088,7 +45133,7 @@
         <v>253</v>
       </c>
       <c r="P212" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="Q212">
         <v>2.2</v>
@@ -45166,7 +45211,7 @@
         <v>0.67</v>
       </c>
       <c r="AP212">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ212">
         <v>0.88</v>
@@ -45294,7 +45339,7 @@
         <v>254</v>
       </c>
       <c r="P213" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="Q213">
         <v>3</v>
@@ -45372,10 +45417,10 @@
         <v>1</v>
       </c>
       <c r="AP213">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ213">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR213">
         <v>1.19</v>
@@ -45500,7 +45545,7 @@
         <v>104</v>
       </c>
       <c r="P214" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="Q214">
         <v>2.4</v>
@@ -45581,7 +45626,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ214">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR214">
         <v>1.42</v>
@@ -45706,7 +45751,7 @@
         <v>145</v>
       </c>
       <c r="P215" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="Q215">
         <v>2.05</v>
@@ -45912,7 +45957,7 @@
         <v>104</v>
       </c>
       <c r="P216" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="Q216">
         <v>2.5</v>
@@ -46324,7 +46369,7 @@
         <v>255</v>
       </c>
       <c r="P218" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="Q218">
         <v>2.6</v>
@@ -46530,7 +46575,7 @@
         <v>256</v>
       </c>
       <c r="P219" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="Q219">
         <v>2.75</v>
@@ -46611,7 +46656,7 @@
         <v>1</v>
       </c>
       <c r="AQ219">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR219">
         <v>1.48</v>
@@ -46814,7 +46859,7 @@
         <v>0.33</v>
       </c>
       <c r="AP220">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ220">
         <v>0.33</v>
@@ -46942,7 +46987,7 @@
         <v>258</v>
       </c>
       <c r="P221" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="Q221">
         <v>2.6</v>
@@ -47020,10 +47065,10 @@
         <v>1.63</v>
       </c>
       <c r="AP221">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ221">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR221">
         <v>1.54</v>
@@ -47229,7 +47274,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ222">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR222">
         <v>2.02</v>
@@ -47354,7 +47399,7 @@
         <v>260</v>
       </c>
       <c r="P223" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="Q223">
         <v>2.2</v>
@@ -47638,7 +47683,7 @@
         <v>1.57</v>
       </c>
       <c r="AP224">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ224">
         <v>1.38</v>
@@ -47766,7 +47811,7 @@
         <v>138</v>
       </c>
       <c r="P225" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="Q225">
         <v>1.91</v>
@@ -47844,7 +47889,7 @@
         <v>0.89</v>
       </c>
       <c r="AP225">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ225">
         <v>0.9</v>
@@ -47972,7 +48017,7 @@
         <v>262</v>
       </c>
       <c r="P226" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="Q226">
         <v>1.83</v>
@@ -48053,7 +48098,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ226">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR226">
         <v>1.55</v>
@@ -48178,7 +48223,7 @@
         <v>263</v>
       </c>
       <c r="P227" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="Q227">
         <v>2.38</v>
@@ -48671,7 +48716,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ229">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR229">
         <v>1.8</v>
@@ -48796,7 +48841,7 @@
         <v>124</v>
       </c>
       <c r="P230" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="Q230">
         <v>2.3</v>
@@ -49083,7 +49128,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ231">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR231">
         <v>1.57</v>
@@ -49620,7 +49665,7 @@
         <v>269</v>
       </c>
       <c r="P234" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="Q234">
         <v>2.75</v>
@@ -49701,7 +49746,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ234">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR234">
         <v>1.45</v>
@@ -49826,7 +49871,7 @@
         <v>270</v>
       </c>
       <c r="P235" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="Q235">
         <v>2.75</v>
@@ -49904,7 +49949,7 @@
         <v>0.57</v>
       </c>
       <c r="AP235">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ235">
         <v>0.88</v>
@@ -50110,7 +50155,7 @@
         <v>1.33</v>
       </c>
       <c r="AP236">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ236">
         <v>1.2</v>
@@ -50650,7 +50695,7 @@
         <v>272</v>
       </c>
       <c r="P239" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="Q239">
         <v>3.4</v>
@@ -50856,7 +50901,7 @@
         <v>273</v>
       </c>
       <c r="P240" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="Q240">
         <v>2.75</v>
@@ -51013,6 +51058,2684 @@
       </c>
       <c r="BP240">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="241" spans="1:68">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>7295481</v>
+      </c>
+      <c r="C241" t="s">
+        <v>68</v>
+      </c>
+      <c r="D241" t="s">
+        <v>69</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45458.85416666666</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241" t="s">
+        <v>97</v>
+      </c>
+      <c r="H241" t="s">
+        <v>83</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <v>0</v>
+      </c>
+      <c r="M241">
+        <v>0</v>
+      </c>
+      <c r="N241">
+        <v>0</v>
+      </c>
+      <c r="O241" t="s">
+        <v>104</v>
+      </c>
+      <c r="P241" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q241">
+        <v>2.38</v>
+      </c>
+      <c r="R241">
+        <v>2.2</v>
+      </c>
+      <c r="S241">
+        <v>5</v>
+      </c>
+      <c r="T241">
+        <v>1.4</v>
+      </c>
+      <c r="U241">
+        <v>2.75</v>
+      </c>
+      <c r="V241">
+        <v>3</v>
+      </c>
+      <c r="W241">
+        <v>1.36</v>
+      </c>
+      <c r="X241">
+        <v>8</v>
+      </c>
+      <c r="Y241">
+        <v>1.08</v>
+      </c>
+      <c r="Z241">
+        <v>1.68</v>
+      </c>
+      <c r="AA241">
+        <v>3.7</v>
+      </c>
+      <c r="AB241">
+        <v>4.25</v>
+      </c>
+      <c r="AC241">
+        <v>1.02</v>
+      </c>
+      <c r="AD241">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE241">
+        <v>1.28</v>
+      </c>
+      <c r="AF241">
+        <v>3.18</v>
+      </c>
+      <c r="AG241">
+        <v>1.9</v>
+      </c>
+      <c r="AH241">
+        <v>1.79</v>
+      </c>
+      <c r="AI241">
+        <v>1.91</v>
+      </c>
+      <c r="AJ241">
+        <v>1.91</v>
+      </c>
+      <c r="AK241">
+        <v>1.19</v>
+      </c>
+      <c r="AL241">
+        <v>1.24</v>
+      </c>
+      <c r="AM241">
+        <v>2.1</v>
+      </c>
+      <c r="AN241">
+        <v>2.43</v>
+      </c>
+      <c r="AO241">
+        <v>0.83</v>
+      </c>
+      <c r="AP241">
+        <v>2.25</v>
+      </c>
+      <c r="AQ241">
+        <v>0.86</v>
+      </c>
+      <c r="AR241">
+        <v>1.68</v>
+      </c>
+      <c r="AS241">
+        <v>0.99</v>
+      </c>
+      <c r="AT241">
+        <v>2.67</v>
+      </c>
+      <c r="AU241">
+        <v>7</v>
+      </c>
+      <c r="AV241">
+        <v>0</v>
+      </c>
+      <c r="AW241">
+        <v>5</v>
+      </c>
+      <c r="AX241">
+        <v>5</v>
+      </c>
+      <c r="AY241">
+        <v>12</v>
+      </c>
+      <c r="AZ241">
+        <v>5</v>
+      </c>
+      <c r="BA241">
+        <v>8</v>
+      </c>
+      <c r="BB241">
+        <v>2</v>
+      </c>
+      <c r="BC241">
+        <v>10</v>
+      </c>
+      <c r="BD241">
+        <v>1.55</v>
+      </c>
+      <c r="BE241">
+        <v>8</v>
+      </c>
+      <c r="BF241">
+        <v>2.95</v>
+      </c>
+      <c r="BG241">
+        <v>1.31</v>
+      </c>
+      <c r="BH241">
+        <v>3.04</v>
+      </c>
+      <c r="BI241">
+        <v>1.62</v>
+      </c>
+      <c r="BJ241">
+        <v>2.25</v>
+      </c>
+      <c r="BK241">
+        <v>1.95</v>
+      </c>
+      <c r="BL241">
+        <v>1.75</v>
+      </c>
+      <c r="BM241">
+        <v>2.56</v>
+      </c>
+      <c r="BN241">
+        <v>1.49</v>
+      </c>
+      <c r="BO241">
+        <v>3.56</v>
+      </c>
+      <c r="BP241">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="242" spans="1:68">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>7295484</v>
+      </c>
+      <c r="C242" t="s">
+        <v>68</v>
+      </c>
+      <c r="D242" t="s">
+        <v>69</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45458.85416666666</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242" t="s">
+        <v>95</v>
+      </c>
+      <c r="H242" t="s">
+        <v>88</v>
+      </c>
+      <c r="I242">
+        <v>1</v>
+      </c>
+      <c r="J242">
+        <v>1</v>
+      </c>
+      <c r="K242">
+        <v>2</v>
+      </c>
+      <c r="L242">
+        <v>1</v>
+      </c>
+      <c r="M242">
+        <v>4</v>
+      </c>
+      <c r="N242">
+        <v>5</v>
+      </c>
+      <c r="O242" t="s">
+        <v>274</v>
+      </c>
+      <c r="P242" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q242">
+        <v>2.4</v>
+      </c>
+      <c r="R242">
+        <v>2.3</v>
+      </c>
+      <c r="S242">
+        <v>4.33</v>
+      </c>
+      <c r="T242">
+        <v>1.33</v>
+      </c>
+      <c r="U242">
+        <v>3.25</v>
+      </c>
+      <c r="V242">
+        <v>2.63</v>
+      </c>
+      <c r="W242">
+        <v>1.44</v>
+      </c>
+      <c r="X242">
+        <v>6.5</v>
+      </c>
+      <c r="Y242">
+        <v>1.11</v>
+      </c>
+      <c r="Z242">
+        <v>1.76</v>
+      </c>
+      <c r="AA242">
+        <v>3.65</v>
+      </c>
+      <c r="AB242">
+        <v>3.9</v>
+      </c>
+      <c r="AC242">
+        <v>1.03</v>
+      </c>
+      <c r="AD242">
+        <v>10.5</v>
+      </c>
+      <c r="AE242">
+        <v>1.21</v>
+      </c>
+      <c r="AF242">
+        <v>3.75</v>
+      </c>
+      <c r="AG242">
+        <v>1.7</v>
+      </c>
+      <c r="AH242">
+        <v>2</v>
+      </c>
+      <c r="AI242">
+        <v>1.7</v>
+      </c>
+      <c r="AJ242">
+        <v>2.05</v>
+      </c>
+      <c r="AK242">
+        <v>1.26</v>
+      </c>
+      <c r="AL242">
+        <v>1.22</v>
+      </c>
+      <c r="AM242">
+        <v>1.98</v>
+      </c>
+      <c r="AN242">
+        <v>1.88</v>
+      </c>
+      <c r="AO242">
+        <v>0.57</v>
+      </c>
+      <c r="AP242">
+        <v>1.67</v>
+      </c>
+      <c r="AQ242">
+        <v>0.88</v>
+      </c>
+      <c r="AR242">
+        <v>1.43</v>
+      </c>
+      <c r="AS242">
+        <v>1.01</v>
+      </c>
+      <c r="AT242">
+        <v>2.44</v>
+      </c>
+      <c r="AU242">
+        <v>7</v>
+      </c>
+      <c r="AV242">
+        <v>9</v>
+      </c>
+      <c r="AW242">
+        <v>4</v>
+      </c>
+      <c r="AX242">
+        <v>3</v>
+      </c>
+      <c r="AY242">
+        <v>11</v>
+      </c>
+      <c r="AZ242">
+        <v>12</v>
+      </c>
+      <c r="BA242">
+        <v>5</v>
+      </c>
+      <c r="BB242">
+        <v>5</v>
+      </c>
+      <c r="BC242">
+        <v>10</v>
+      </c>
+      <c r="BD242">
+        <v>1.62</v>
+      </c>
+      <c r="BE242">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF242">
+        <v>2.7</v>
+      </c>
+      <c r="BG242">
+        <v>1.18</v>
+      </c>
+      <c r="BH242">
+        <v>4.1</v>
+      </c>
+      <c r="BI242">
+        <v>1.36</v>
+      </c>
+      <c r="BJ242">
+        <v>2.79</v>
+      </c>
+      <c r="BK242">
+        <v>1.77</v>
+      </c>
+      <c r="BL242">
+        <v>1.95</v>
+      </c>
+      <c r="BM242">
+        <v>2.1</v>
+      </c>
+      <c r="BN242">
+        <v>1.72</v>
+      </c>
+      <c r="BO242">
+        <v>2.72</v>
+      </c>
+      <c r="BP242">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:68">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>7295483</v>
+      </c>
+      <c r="C243" t="s">
+        <v>68</v>
+      </c>
+      <c r="D243" t="s">
+        <v>69</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45458.85416666666</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243" t="s">
+        <v>76</v>
+      </c>
+      <c r="H243" t="s">
+        <v>70</v>
+      </c>
+      <c r="I243">
+        <v>1</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>1</v>
+      </c>
+      <c r="L243">
+        <v>1</v>
+      </c>
+      <c r="M243">
+        <v>2</v>
+      </c>
+      <c r="N243">
+        <v>3</v>
+      </c>
+      <c r="O243" t="s">
+        <v>173</v>
+      </c>
+      <c r="P243" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q243">
+        <v>2.38</v>
+      </c>
+      <c r="R243">
+        <v>2.5</v>
+      </c>
+      <c r="S243">
+        <v>4</v>
+      </c>
+      <c r="T243">
+        <v>1.25</v>
+      </c>
+      <c r="U243">
+        <v>3.75</v>
+      </c>
+      <c r="V243">
+        <v>2.2</v>
+      </c>
+      <c r="W243">
+        <v>1.62</v>
+      </c>
+      <c r="X243">
+        <v>5</v>
+      </c>
+      <c r="Y243">
+        <v>1.17</v>
+      </c>
+      <c r="Z243">
+        <v>1.76</v>
+      </c>
+      <c r="AA243">
+        <v>3.95</v>
+      </c>
+      <c r="AB243">
+        <v>3.6</v>
+      </c>
+      <c r="AC243">
+        <v>1.01</v>
+      </c>
+      <c r="AD243">
+        <v>21</v>
+      </c>
+      <c r="AE243">
+        <v>1.16</v>
+      </c>
+      <c r="AF243">
+        <v>5.5</v>
+      </c>
+      <c r="AG243">
+        <v>1.45</v>
+      </c>
+      <c r="AH243">
+        <v>2.55</v>
+      </c>
+      <c r="AI243">
+        <v>1.5</v>
+      </c>
+      <c r="AJ243">
+        <v>2.5</v>
+      </c>
+      <c r="AK243">
+        <v>1.3</v>
+      </c>
+      <c r="AL243">
+        <v>1.2</v>
+      </c>
+      <c r="AM243">
+        <v>1.95</v>
+      </c>
+      <c r="AN243">
+        <v>0.75</v>
+      </c>
+      <c r="AO243">
+        <v>2.13</v>
+      </c>
+      <c r="AP243">
+        <v>0.67</v>
+      </c>
+      <c r="AQ243">
+        <v>2.22</v>
+      </c>
+      <c r="AR243">
+        <v>1.76</v>
+      </c>
+      <c r="AS243">
+        <v>1.31</v>
+      </c>
+      <c r="AT243">
+        <v>3.07</v>
+      </c>
+      <c r="AU243">
+        <v>4</v>
+      </c>
+      <c r="AV243">
+        <v>5</v>
+      </c>
+      <c r="AW243">
+        <v>9</v>
+      </c>
+      <c r="AX243">
+        <v>5</v>
+      </c>
+      <c r="AY243">
+        <v>13</v>
+      </c>
+      <c r="AZ243">
+        <v>10</v>
+      </c>
+      <c r="BA243">
+        <v>6</v>
+      </c>
+      <c r="BB243">
+        <v>3</v>
+      </c>
+      <c r="BC243">
+        <v>9</v>
+      </c>
+      <c r="BD243">
+        <v>1.6</v>
+      </c>
+      <c r="BE243">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF243">
+        <v>2.75</v>
+      </c>
+      <c r="BG243">
+        <v>1.31</v>
+      </c>
+      <c r="BH243">
+        <v>3.04</v>
+      </c>
+      <c r="BI243">
+        <v>1.7</v>
+      </c>
+      <c r="BJ243">
+        <v>2.05</v>
+      </c>
+      <c r="BK243">
+        <v>2.02</v>
+      </c>
+      <c r="BL243">
+        <v>1.78</v>
+      </c>
+      <c r="BM243">
+        <v>2.44</v>
+      </c>
+      <c r="BN243">
+        <v>1.54</v>
+      </c>
+      <c r="BO243">
+        <v>3.64</v>
+      </c>
+      <c r="BP243">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="244" spans="1:68">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>7295480</v>
+      </c>
+      <c r="C244" t="s">
+        <v>68</v>
+      </c>
+      <c r="D244" t="s">
+        <v>69</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45458.85416666666</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244" t="s">
+        <v>93</v>
+      </c>
+      <c r="H244" t="s">
+        <v>87</v>
+      </c>
+      <c r="I244">
+        <v>3</v>
+      </c>
+      <c r="J244">
+        <v>1</v>
+      </c>
+      <c r="K244">
+        <v>4</v>
+      </c>
+      <c r="L244">
+        <v>3</v>
+      </c>
+      <c r="M244">
+        <v>2</v>
+      </c>
+      <c r="N244">
+        <v>5</v>
+      </c>
+      <c r="O244" t="s">
+        <v>275</v>
+      </c>
+      <c r="P244" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q244">
+        <v>3</v>
+      </c>
+      <c r="R244">
+        <v>2.3</v>
+      </c>
+      <c r="S244">
+        <v>3.2</v>
+      </c>
+      <c r="T244">
+        <v>1.3</v>
+      </c>
+      <c r="U244">
+        <v>3.4</v>
+      </c>
+      <c r="V244">
+        <v>2.5</v>
+      </c>
+      <c r="W244">
+        <v>1.5</v>
+      </c>
+      <c r="X244">
+        <v>6</v>
+      </c>
+      <c r="Y244">
+        <v>1.13</v>
+      </c>
+      <c r="Z244">
+        <v>2.2</v>
+      </c>
+      <c r="AA244">
+        <v>3.5</v>
+      </c>
+      <c r="AB244">
+        <v>2.8</v>
+      </c>
+      <c r="AC244">
+        <v>1.03</v>
+      </c>
+      <c r="AD244">
+        <v>13</v>
+      </c>
+      <c r="AE244">
+        <v>1.22</v>
+      </c>
+      <c r="AF244">
+        <v>4.33</v>
+      </c>
+      <c r="AG244">
+        <v>1.65</v>
+      </c>
+      <c r="AH244">
+        <v>2.08</v>
+      </c>
+      <c r="AI244">
+        <v>1.53</v>
+      </c>
+      <c r="AJ244">
+        <v>2.38</v>
+      </c>
+      <c r="AK244">
+        <v>1.47</v>
+      </c>
+      <c r="AL244">
+        <v>1.26</v>
+      </c>
+      <c r="AM244">
+        <v>1.57</v>
+      </c>
+      <c r="AN244">
+        <v>0.88</v>
+      </c>
+      <c r="AO244">
+        <v>1.75</v>
+      </c>
+      <c r="AP244">
+        <v>1.11</v>
+      </c>
+      <c r="AQ244">
+        <v>1.56</v>
+      </c>
+      <c r="AR244">
+        <v>1.34</v>
+      </c>
+      <c r="AS244">
+        <v>1.13</v>
+      </c>
+      <c r="AT244">
+        <v>2.47</v>
+      </c>
+      <c r="AU244">
+        <v>8</v>
+      </c>
+      <c r="AV244">
+        <v>9</v>
+      </c>
+      <c r="AW244">
+        <v>7</v>
+      </c>
+      <c r="AX244">
+        <v>5</v>
+      </c>
+      <c r="AY244">
+        <v>15</v>
+      </c>
+      <c r="AZ244">
+        <v>14</v>
+      </c>
+      <c r="BA244">
+        <v>3</v>
+      </c>
+      <c r="BB244">
+        <v>4</v>
+      </c>
+      <c r="BC244">
+        <v>7</v>
+      </c>
+      <c r="BD244">
+        <v>1.8</v>
+      </c>
+      <c r="BE244">
+        <v>7.8</v>
+      </c>
+      <c r="BF244">
+        <v>2.35</v>
+      </c>
+      <c r="BG244">
+        <v>1.23</v>
+      </c>
+      <c r="BH244">
+        <v>3.56</v>
+      </c>
+      <c r="BI244">
+        <v>1.46</v>
+      </c>
+      <c r="BJ244">
+        <v>2.52</v>
+      </c>
+      <c r="BK244">
+        <v>1.85</v>
+      </c>
+      <c r="BL244">
+        <v>1.85</v>
+      </c>
+      <c r="BM244">
+        <v>2.2</v>
+      </c>
+      <c r="BN244">
+        <v>1.66</v>
+      </c>
+      <c r="BO244">
+        <v>3.04</v>
+      </c>
+      <c r="BP244">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="245" spans="1:68">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>7295482</v>
+      </c>
+      <c r="C245" t="s">
+        <v>68</v>
+      </c>
+      <c r="D245" t="s">
+        <v>69</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45458.85416666666</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245" t="s">
+        <v>75</v>
+      </c>
+      <c r="H245" t="s">
+        <v>72</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>1</v>
+      </c>
+      <c r="K245">
+        <v>1</v>
+      </c>
+      <c r="L245">
+        <v>1</v>
+      </c>
+      <c r="M245">
+        <v>3</v>
+      </c>
+      <c r="N245">
+        <v>4</v>
+      </c>
+      <c r="O245" t="s">
+        <v>258</v>
+      </c>
+      <c r="P245" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q245">
+        <v>3.1</v>
+      </c>
+      <c r="R245">
+        <v>2.25</v>
+      </c>
+      <c r="S245">
+        <v>3.1</v>
+      </c>
+      <c r="T245">
+        <v>1.33</v>
+      </c>
+      <c r="U245">
+        <v>3.25</v>
+      </c>
+      <c r="V245">
+        <v>2.63</v>
+      </c>
+      <c r="W245">
+        <v>1.44</v>
+      </c>
+      <c r="X245">
+        <v>6.5</v>
+      </c>
+      <c r="Y245">
+        <v>1.11</v>
+      </c>
+      <c r="Z245">
+        <v>2.6</v>
+      </c>
+      <c r="AA245">
+        <v>3.45</v>
+      </c>
+      <c r="AB245">
+        <v>2.35</v>
+      </c>
+      <c r="AC245">
+        <v>1.04</v>
+      </c>
+      <c r="AD245">
+        <v>13</v>
+      </c>
+      <c r="AE245">
+        <v>1.26</v>
+      </c>
+      <c r="AF245">
+        <v>4</v>
+      </c>
+      <c r="AG245">
+        <v>1.72</v>
+      </c>
+      <c r="AH245">
+        <v>1.98</v>
+      </c>
+      <c r="AI245">
+        <v>1.62</v>
+      </c>
+      <c r="AJ245">
+        <v>2.2</v>
+      </c>
+      <c r="AK245">
+        <v>1.52</v>
+      </c>
+      <c r="AL245">
+        <v>1.25</v>
+      </c>
+      <c r="AM245">
+        <v>1.53</v>
+      </c>
+      <c r="AN245">
+        <v>0.75</v>
+      </c>
+      <c r="AO245">
+        <v>1</v>
+      </c>
+      <c r="AP245">
+        <v>0.67</v>
+      </c>
+      <c r="AQ245">
+        <v>1.25</v>
+      </c>
+      <c r="AR245">
+        <v>1.44</v>
+      </c>
+      <c r="AS245">
+        <v>1.5</v>
+      </c>
+      <c r="AT245">
+        <v>2.94</v>
+      </c>
+      <c r="AU245">
+        <v>2</v>
+      </c>
+      <c r="AV245">
+        <v>8</v>
+      </c>
+      <c r="AW245">
+        <v>10</v>
+      </c>
+      <c r="AX245">
+        <v>5</v>
+      </c>
+      <c r="AY245">
+        <v>12</v>
+      </c>
+      <c r="AZ245">
+        <v>13</v>
+      </c>
+      <c r="BA245">
+        <v>9</v>
+      </c>
+      <c r="BB245">
+        <v>1</v>
+      </c>
+      <c r="BC245">
+        <v>10</v>
+      </c>
+      <c r="BD245">
+        <v>1.8</v>
+      </c>
+      <c r="BE245">
+        <v>6.5</v>
+      </c>
+      <c r="BF245">
+        <v>2.55</v>
+      </c>
+      <c r="BG245">
+        <v>1.24</v>
+      </c>
+      <c r="BH245">
+        <v>3.75</v>
+      </c>
+      <c r="BI245">
+        <v>1.44</v>
+      </c>
+      <c r="BJ245">
+        <v>2.65</v>
+      </c>
+      <c r="BK245">
+        <v>1.75</v>
+      </c>
+      <c r="BL245">
+        <v>1.95</v>
+      </c>
+      <c r="BM245">
+        <v>2.15</v>
+      </c>
+      <c r="BN245">
+        <v>1.65</v>
+      </c>
+      <c r="BO245">
+        <v>2.8</v>
+      </c>
+      <c r="BP245">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:68">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>7295478</v>
+      </c>
+      <c r="C246" t="s">
+        <v>68</v>
+      </c>
+      <c r="D246" t="s">
+        <v>69</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45458.85416666666</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246" t="s">
+        <v>73</v>
+      </c>
+      <c r="H246" t="s">
+        <v>74</v>
+      </c>
+      <c r="I246">
+        <v>1</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>1</v>
+      </c>
+      <c r="L246">
+        <v>1</v>
+      </c>
+      <c r="M246">
+        <v>0</v>
+      </c>
+      <c r="N246">
+        <v>1</v>
+      </c>
+      <c r="O246" t="s">
+        <v>276</v>
+      </c>
+      <c r="P246" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q246">
+        <v>2.63</v>
+      </c>
+      <c r="R246">
+        <v>2.3</v>
+      </c>
+      <c r="S246">
+        <v>3.75</v>
+      </c>
+      <c r="T246">
+        <v>1.3</v>
+      </c>
+      <c r="U246">
+        <v>3.4</v>
+      </c>
+      <c r="V246">
+        <v>2.5</v>
+      </c>
+      <c r="W246">
+        <v>1.5</v>
+      </c>
+      <c r="X246">
+        <v>6</v>
+      </c>
+      <c r="Y246">
+        <v>1.13</v>
+      </c>
+      <c r="Z246">
+        <v>1.96</v>
+      </c>
+      <c r="AA246">
+        <v>3.7</v>
+      </c>
+      <c r="AB246">
+        <v>3.15</v>
+      </c>
+      <c r="AC246">
+        <v>1.03</v>
+      </c>
+      <c r="AD246">
+        <v>15</v>
+      </c>
+      <c r="AE246">
+        <v>1.22</v>
+      </c>
+      <c r="AF246">
+        <v>4.33</v>
+      </c>
+      <c r="AG246">
+        <v>1.7</v>
+      </c>
+      <c r="AH246">
+        <v>2.03</v>
+      </c>
+      <c r="AI246">
+        <v>1.57</v>
+      </c>
+      <c r="AJ246">
+        <v>2.25</v>
+      </c>
+      <c r="AK246">
+        <v>1.32</v>
+      </c>
+      <c r="AL246">
+        <v>1.24</v>
+      </c>
+      <c r="AM246">
+        <v>1.8</v>
+      </c>
+      <c r="AN246">
+        <v>2</v>
+      </c>
+      <c r="AO246">
+        <v>0.88</v>
+      </c>
+      <c r="AP246">
+        <v>2.1</v>
+      </c>
+      <c r="AQ246">
+        <v>0.78</v>
+      </c>
+      <c r="AR246">
+        <v>1.15</v>
+      </c>
+      <c r="AS246">
+        <v>1.38</v>
+      </c>
+      <c r="AT246">
+        <v>2.53</v>
+      </c>
+      <c r="AU246">
+        <v>3</v>
+      </c>
+      <c r="AV246">
+        <v>2</v>
+      </c>
+      <c r="AW246">
+        <v>8</v>
+      </c>
+      <c r="AX246">
+        <v>2</v>
+      </c>
+      <c r="AY246">
+        <v>11</v>
+      </c>
+      <c r="AZ246">
+        <v>4</v>
+      </c>
+      <c r="BA246">
+        <v>6</v>
+      </c>
+      <c r="BB246">
+        <v>5</v>
+      </c>
+      <c r="BC246">
+        <v>11</v>
+      </c>
+      <c r="BD246">
+        <v>1.6</v>
+      </c>
+      <c r="BE246">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF246">
+        <v>2.75</v>
+      </c>
+      <c r="BG246">
+        <v>1.23</v>
+      </c>
+      <c r="BH246">
+        <v>3.56</v>
+      </c>
+      <c r="BI246">
+        <v>1.5</v>
+      </c>
+      <c r="BJ246">
+        <v>2.54</v>
+      </c>
+      <c r="BK246">
+        <v>1.95</v>
+      </c>
+      <c r="BL246">
+        <v>1.77</v>
+      </c>
+      <c r="BM246">
+        <v>2.25</v>
+      </c>
+      <c r="BN246">
+        <v>1.62</v>
+      </c>
+      <c r="BO246">
+        <v>3.04</v>
+      </c>
+      <c r="BP246">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="247" spans="1:68">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>7295477</v>
+      </c>
+      <c r="C247" t="s">
+        <v>68</v>
+      </c>
+      <c r="D247" t="s">
+        <v>69</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45458.85416666666</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247" t="s">
+        <v>96</v>
+      </c>
+      <c r="H247" t="s">
+        <v>79</v>
+      </c>
+      <c r="I247">
+        <v>1</v>
+      </c>
+      <c r="J247">
+        <v>1</v>
+      </c>
+      <c r="K247">
+        <v>2</v>
+      </c>
+      <c r="L247">
+        <v>2</v>
+      </c>
+      <c r="M247">
+        <v>2</v>
+      </c>
+      <c r="N247">
+        <v>4</v>
+      </c>
+      <c r="O247" t="s">
+        <v>277</v>
+      </c>
+      <c r="P247" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q247">
+        <v>2.63</v>
+      </c>
+      <c r="R247">
+        <v>2.3</v>
+      </c>
+      <c r="S247">
+        <v>3.75</v>
+      </c>
+      <c r="T247">
+        <v>1.3</v>
+      </c>
+      <c r="U247">
+        <v>3.4</v>
+      </c>
+      <c r="V247">
+        <v>2.5</v>
+      </c>
+      <c r="W247">
+        <v>1.5</v>
+      </c>
+      <c r="X247">
+        <v>6</v>
+      </c>
+      <c r="Y247">
+        <v>1.13</v>
+      </c>
+      <c r="Z247">
+        <v>1.94</v>
+      </c>
+      <c r="AA247">
+        <v>3.65</v>
+      </c>
+      <c r="AB247">
+        <v>3.25</v>
+      </c>
+      <c r="AC247">
+        <v>1.03</v>
+      </c>
+      <c r="AD247">
+        <v>15</v>
+      </c>
+      <c r="AE247">
+        <v>1.22</v>
+      </c>
+      <c r="AF247">
+        <v>4.33</v>
+      </c>
+      <c r="AG247">
+        <v>1.57</v>
+      </c>
+      <c r="AH247">
+        <v>2.23</v>
+      </c>
+      <c r="AI247">
+        <v>1.57</v>
+      </c>
+      <c r="AJ247">
+        <v>2.25</v>
+      </c>
+      <c r="AK247">
+        <v>1.33</v>
+      </c>
+      <c r="AL247">
+        <v>1.24</v>
+      </c>
+      <c r="AM247">
+        <v>1.78</v>
+      </c>
+      <c r="AN247">
+        <v>1.11</v>
+      </c>
+      <c r="AO247">
+        <v>1.25</v>
+      </c>
+      <c r="AP247">
+        <v>1.1</v>
+      </c>
+      <c r="AQ247">
+        <v>1.22</v>
+      </c>
+      <c r="AR247">
+        <v>1.66</v>
+      </c>
+      <c r="AS247">
+        <v>1.11</v>
+      </c>
+      <c r="AT247">
+        <v>2.77</v>
+      </c>
+      <c r="AU247">
+        <v>6</v>
+      </c>
+      <c r="AV247">
+        <v>10</v>
+      </c>
+      <c r="AW247">
+        <v>5</v>
+      </c>
+      <c r="AX247">
+        <v>7</v>
+      </c>
+      <c r="AY247">
+        <v>11</v>
+      </c>
+      <c r="AZ247">
+        <v>17</v>
+      </c>
+      <c r="BA247">
+        <v>4</v>
+      </c>
+      <c r="BB247">
+        <v>6</v>
+      </c>
+      <c r="BC247">
+        <v>10</v>
+      </c>
+      <c r="BD247">
+        <v>1.37</v>
+      </c>
+      <c r="BE247">
+        <v>8.5</v>
+      </c>
+      <c r="BF247">
+        <v>3.8</v>
+      </c>
+      <c r="BG247">
+        <v>1.19</v>
+      </c>
+      <c r="BH247">
+        <v>4</v>
+      </c>
+      <c r="BI247">
+        <v>1.37</v>
+      </c>
+      <c r="BJ247">
+        <v>2.75</v>
+      </c>
+      <c r="BK247">
+        <v>1.8</v>
+      </c>
+      <c r="BL247">
+        <v>1.91</v>
+      </c>
+      <c r="BM247">
+        <v>2.11</v>
+      </c>
+      <c r="BN247">
+        <v>1.71</v>
+      </c>
+      <c r="BO247">
+        <v>2.76</v>
+      </c>
+      <c r="BP247">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="248" spans="1:68">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>7295479</v>
+      </c>
+      <c r="C248" t="s">
+        <v>68</v>
+      </c>
+      <c r="D248" t="s">
+        <v>69</v>
+      </c>
+      <c r="E248" s="2">
+        <v>45458.85416666666</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248" t="s">
+        <v>98</v>
+      </c>
+      <c r="H248" t="s">
+        <v>86</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <v>0</v>
+      </c>
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248">
+        <v>0</v>
+      </c>
+      <c r="O248" t="s">
+        <v>104</v>
+      </c>
+      <c r="P248" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q248">
+        <v>3.75</v>
+      </c>
+      <c r="R248">
+        <v>2.4</v>
+      </c>
+      <c r="S248">
+        <v>2.6</v>
+      </c>
+      <c r="T248">
+        <v>1.29</v>
+      </c>
+      <c r="U248">
+        <v>3.5</v>
+      </c>
+      <c r="V248">
+        <v>2.25</v>
+      </c>
+      <c r="W248">
+        <v>1.57</v>
+      </c>
+      <c r="X248">
+        <v>5.5</v>
+      </c>
+      <c r="Y248">
+        <v>1.14</v>
+      </c>
+      <c r="Z248">
+        <v>2.88</v>
+      </c>
+      <c r="AA248">
+        <v>3.55</v>
+      </c>
+      <c r="AB248">
+        <v>2.12</v>
+      </c>
+      <c r="AC248">
+        <v>1.03</v>
+      </c>
+      <c r="AD248">
+        <v>17</v>
+      </c>
+      <c r="AE248">
+        <v>1.19</v>
+      </c>
+      <c r="AF248">
+        <v>4.75</v>
+      </c>
+      <c r="AG248">
+        <v>1.68</v>
+      </c>
+      <c r="AH248">
+        <v>2.05</v>
+      </c>
+      <c r="AI248">
+        <v>1.5</v>
+      </c>
+      <c r="AJ248">
+        <v>2.5</v>
+      </c>
+      <c r="AK248">
+        <v>1.77</v>
+      </c>
+      <c r="AL248">
+        <v>1.22</v>
+      </c>
+      <c r="AM248">
+        <v>1.3</v>
+      </c>
+      <c r="AN248">
+        <v>1.33</v>
+      </c>
+      <c r="AO248">
+        <v>1.56</v>
+      </c>
+      <c r="AP248">
+        <v>1.29</v>
+      </c>
+      <c r="AQ248">
+        <v>1.5</v>
+      </c>
+      <c r="AR248">
+        <v>1.25</v>
+      </c>
+      <c r="AS248">
+        <v>1.55</v>
+      </c>
+      <c r="AT248">
+        <v>2.8</v>
+      </c>
+      <c r="AU248">
+        <v>3</v>
+      </c>
+      <c r="AV248">
+        <v>7</v>
+      </c>
+      <c r="AW248">
+        <v>6</v>
+      </c>
+      <c r="AX248">
+        <v>7</v>
+      </c>
+      <c r="AY248">
+        <v>9</v>
+      </c>
+      <c r="AZ248">
+        <v>14</v>
+      </c>
+      <c r="BA248">
+        <v>0</v>
+      </c>
+      <c r="BB248">
+        <v>7</v>
+      </c>
+      <c r="BC248">
+        <v>7</v>
+      </c>
+      <c r="BD248">
+        <v>2.55</v>
+      </c>
+      <c r="BE248">
+        <v>6.5</v>
+      </c>
+      <c r="BF248">
+        <v>1.8</v>
+      </c>
+      <c r="BG248">
+        <v>1.3</v>
+      </c>
+      <c r="BH248">
+        <v>3.3</v>
+      </c>
+      <c r="BI248">
+        <v>1.53</v>
+      </c>
+      <c r="BJ248">
+        <v>2.4</v>
+      </c>
+      <c r="BK248">
+        <v>1.85</v>
+      </c>
+      <c r="BL248">
+        <v>1.85</v>
+      </c>
+      <c r="BM248">
+        <v>2.35</v>
+      </c>
+      <c r="BN248">
+        <v>1.55</v>
+      </c>
+      <c r="BO248">
+        <v>3.1</v>
+      </c>
+      <c r="BP248">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="249" spans="1:68">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>7295485</v>
+      </c>
+      <c r="C249" t="s">
+        <v>68</v>
+      </c>
+      <c r="D249" t="s">
+        <v>69</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45458.89583333334</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="G249" t="s">
+        <v>78</v>
+      </c>
+      <c r="H249" t="s">
+        <v>80</v>
+      </c>
+      <c r="I249">
+        <v>1</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>1</v>
+      </c>
+      <c r="L249">
+        <v>2</v>
+      </c>
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249">
+        <v>2</v>
+      </c>
+      <c r="O249" t="s">
+        <v>278</v>
+      </c>
+      <c r="P249" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q249">
+        <v>2.88</v>
+      </c>
+      <c r="R249">
+        <v>2.25</v>
+      </c>
+      <c r="S249">
+        <v>3.4</v>
+      </c>
+      <c r="T249">
+        <v>1.33</v>
+      </c>
+      <c r="U249">
+        <v>3.25</v>
+      </c>
+      <c r="V249">
+        <v>2.63</v>
+      </c>
+      <c r="W249">
+        <v>1.44</v>
+      </c>
+      <c r="X249">
+        <v>7</v>
+      </c>
+      <c r="Y249">
+        <v>1.1</v>
+      </c>
+      <c r="Z249">
+        <v>2.23</v>
+      </c>
+      <c r="AA249">
+        <v>3.5</v>
+      </c>
+      <c r="AB249">
+        <v>2.75</v>
+      </c>
+      <c r="AC249">
+        <v>1.04</v>
+      </c>
+      <c r="AD249">
+        <v>13</v>
+      </c>
+      <c r="AE249">
+        <v>1.26</v>
+      </c>
+      <c r="AF249">
+        <v>4</v>
+      </c>
+      <c r="AG249">
+        <v>1.68</v>
+      </c>
+      <c r="AH249">
+        <v>2.02</v>
+      </c>
+      <c r="AI249">
+        <v>1.62</v>
+      </c>
+      <c r="AJ249">
+        <v>2.2</v>
+      </c>
+      <c r="AK249">
+        <v>1.4</v>
+      </c>
+      <c r="AL249">
+        <v>1.26</v>
+      </c>
+      <c r="AM249">
+        <v>1.65</v>
+      </c>
+      <c r="AN249">
+        <v>1.57</v>
+      </c>
+      <c r="AO249">
+        <v>0.71</v>
+      </c>
+      <c r="AP249">
+        <v>1.75</v>
+      </c>
+      <c r="AQ249">
+        <v>0.63</v>
+      </c>
+      <c r="AR249">
+        <v>1.59</v>
+      </c>
+      <c r="AS249">
+        <v>1.48</v>
+      </c>
+      <c r="AT249">
+        <v>3.07</v>
+      </c>
+      <c r="AU249">
+        <v>5</v>
+      </c>
+      <c r="AV249">
+        <v>9</v>
+      </c>
+      <c r="AW249">
+        <v>2</v>
+      </c>
+      <c r="AX249">
+        <v>7</v>
+      </c>
+      <c r="AY249">
+        <v>7</v>
+      </c>
+      <c r="AZ249">
+        <v>16</v>
+      </c>
+      <c r="BA249">
+        <v>4</v>
+      </c>
+      <c r="BB249">
+        <v>6</v>
+      </c>
+      <c r="BC249">
+        <v>10</v>
+      </c>
+      <c r="BD249">
+        <v>1.95</v>
+      </c>
+      <c r="BE249">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF249">
+        <v>2.1</v>
+      </c>
+      <c r="BG249">
+        <v>1.24</v>
+      </c>
+      <c r="BH249">
+        <v>3.48</v>
+      </c>
+      <c r="BI249">
+        <v>1.5</v>
+      </c>
+      <c r="BJ249">
+        <v>2.53</v>
+      </c>
+      <c r="BK249">
+        <v>1.91</v>
+      </c>
+      <c r="BL249">
+        <v>1.8</v>
+      </c>
+      <c r="BM249">
+        <v>2.26</v>
+      </c>
+      <c r="BN249">
+        <v>1.62</v>
+      </c>
+      <c r="BO249">
+        <v>3.14</v>
+      </c>
+      <c r="BP249">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="250" spans="1:68">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>7295486</v>
+      </c>
+      <c r="C250" t="s">
+        <v>68</v>
+      </c>
+      <c r="D250" t="s">
+        <v>69</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45458.9375</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="G250" t="s">
+        <v>90</v>
+      </c>
+      <c r="H250" t="s">
+        <v>77</v>
+      </c>
+      <c r="I250">
+        <v>1</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>1</v>
+      </c>
+      <c r="L250">
+        <v>2</v>
+      </c>
+      <c r="M250">
+        <v>0</v>
+      </c>
+      <c r="N250">
+        <v>2</v>
+      </c>
+      <c r="O250" t="s">
+        <v>279</v>
+      </c>
+      <c r="P250" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q250">
+        <v>2.2</v>
+      </c>
+      <c r="R250">
+        <v>2.5</v>
+      </c>
+      <c r="S250">
+        <v>4.5</v>
+      </c>
+      <c r="T250">
+        <v>1.25</v>
+      </c>
+      <c r="U250">
+        <v>3.75</v>
+      </c>
+      <c r="V250">
+        <v>2.25</v>
+      </c>
+      <c r="W250">
+        <v>1.57</v>
+      </c>
+      <c r="X250">
+        <v>5.5</v>
+      </c>
+      <c r="Y250">
+        <v>1.14</v>
+      </c>
+      <c r="Z250">
+        <v>1.49</v>
+      </c>
+      <c r="AA250">
+        <v>4.2</v>
+      </c>
+      <c r="AB250">
+        <v>5.25</v>
+      </c>
+      <c r="AC250">
+        <v>1.02</v>
+      </c>
+      <c r="AD250">
+        <v>19</v>
+      </c>
+      <c r="AE250">
+        <v>1.18</v>
+      </c>
+      <c r="AF250">
+        <v>5</v>
+      </c>
+      <c r="AG250">
+        <v>1.58</v>
+      </c>
+      <c r="AH250">
+        <v>2.25</v>
+      </c>
+      <c r="AI250">
+        <v>1.57</v>
+      </c>
+      <c r="AJ250">
+        <v>2.25</v>
+      </c>
+      <c r="AK250">
+        <v>1.19</v>
+      </c>
+      <c r="AL250">
+        <v>1.19</v>
+      </c>
+      <c r="AM250">
+        <v>2.25</v>
+      </c>
+      <c r="AN250">
+        <v>1.57</v>
+      </c>
+      <c r="AO250">
+        <v>0.75</v>
+      </c>
+      <c r="AP250">
+        <v>1.75</v>
+      </c>
+      <c r="AQ250">
+        <v>0.67</v>
+      </c>
+      <c r="AR250">
+        <v>1.65</v>
+      </c>
+      <c r="AS250">
+        <v>0.87</v>
+      </c>
+      <c r="AT250">
+        <v>2.52</v>
+      </c>
+      <c r="AU250">
+        <v>7</v>
+      </c>
+      <c r="AV250">
+        <v>0</v>
+      </c>
+      <c r="AW250">
+        <v>3</v>
+      </c>
+      <c r="AX250">
+        <v>7</v>
+      </c>
+      <c r="AY250">
+        <v>10</v>
+      </c>
+      <c r="AZ250">
+        <v>7</v>
+      </c>
+      <c r="BA250">
+        <v>4</v>
+      </c>
+      <c r="BB250">
+        <v>3</v>
+      </c>
+      <c r="BC250">
+        <v>7</v>
+      </c>
+      <c r="BD250">
+        <v>1.3</v>
+      </c>
+      <c r="BE250">
+        <v>9</v>
+      </c>
+      <c r="BF250">
+        <v>4.4</v>
+      </c>
+      <c r="BG250">
+        <v>1.17</v>
+      </c>
+      <c r="BH250">
+        <v>4.15</v>
+      </c>
+      <c r="BI250">
+        <v>1.35</v>
+      </c>
+      <c r="BJ250">
+        <v>2.84</v>
+      </c>
+      <c r="BK250">
+        <v>1.8</v>
+      </c>
+      <c r="BL250">
+        <v>1.91</v>
+      </c>
+      <c r="BM250">
+        <v>2.05</v>
+      </c>
+      <c r="BN250">
+        <v>1.76</v>
+      </c>
+      <c r="BO250">
+        <v>2.53</v>
+      </c>
+      <c r="BP250">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="251" spans="1:68">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>7295487</v>
+      </c>
+      <c r="C251" t="s">
+        <v>68</v>
+      </c>
+      <c r="D251" t="s">
+        <v>69</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45458.97916666666</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+      <c r="G251" t="s">
+        <v>84</v>
+      </c>
+      <c r="H251" t="s">
+        <v>89</v>
+      </c>
+      <c r="I251">
+        <v>1</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>1</v>
+      </c>
+      <c r="L251">
+        <v>4</v>
+      </c>
+      <c r="M251">
+        <v>2</v>
+      </c>
+      <c r="N251">
+        <v>6</v>
+      </c>
+      <c r="O251" t="s">
+        <v>280</v>
+      </c>
+      <c r="P251" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q251">
+        <v>2.1</v>
+      </c>
+      <c r="R251">
+        <v>2.6</v>
+      </c>
+      <c r="S251">
+        <v>4.5</v>
+      </c>
+      <c r="T251">
+        <v>1.25</v>
+      </c>
+      <c r="U251">
+        <v>3.75</v>
+      </c>
+      <c r="V251">
+        <v>2.1</v>
+      </c>
+      <c r="W251">
+        <v>1.67</v>
+      </c>
+      <c r="X251">
+        <v>4.5</v>
+      </c>
+      <c r="Y251">
+        <v>1.18</v>
+      </c>
+      <c r="Z251">
+        <v>1.54</v>
+      </c>
+      <c r="AA251">
+        <v>4.25</v>
+      </c>
+      <c r="AB251">
+        <v>4.6</v>
+      </c>
+      <c r="AC251">
+        <v>1.01</v>
+      </c>
+      <c r="AD251">
+        <v>21</v>
+      </c>
+      <c r="AE251">
+        <v>1.1</v>
+      </c>
+      <c r="AF251">
+        <v>5.45</v>
+      </c>
+      <c r="AG251">
+        <v>1.4</v>
+      </c>
+      <c r="AH251">
+        <v>2.75</v>
+      </c>
+      <c r="AI251">
+        <v>1.5</v>
+      </c>
+      <c r="AJ251">
+        <v>2.5</v>
+      </c>
+      <c r="AK251">
+        <v>1.18</v>
+      </c>
+      <c r="AL251">
+        <v>1.19</v>
+      </c>
+      <c r="AM251">
+        <v>2.3</v>
+      </c>
+      <c r="AN251">
+        <v>2.14</v>
+      </c>
+      <c r="AO251">
+        <v>0.63</v>
+      </c>
+      <c r="AP251">
+        <v>2.25</v>
+      </c>
+      <c r="AQ251">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR251">
+        <v>1.78</v>
+      </c>
+      <c r="AS251">
+        <v>1.25</v>
+      </c>
+      <c r="AT251">
+        <v>3.03</v>
+      </c>
+      <c r="AU251">
+        <v>11</v>
+      </c>
+      <c r="AV251">
+        <v>5</v>
+      </c>
+      <c r="AW251">
+        <v>1</v>
+      </c>
+      <c r="AX251">
+        <v>10</v>
+      </c>
+      <c r="AY251">
+        <v>12</v>
+      </c>
+      <c r="AZ251">
+        <v>15</v>
+      </c>
+      <c r="BA251">
+        <v>5</v>
+      </c>
+      <c r="BB251">
+        <v>4</v>
+      </c>
+      <c r="BC251">
+        <v>9</v>
+      </c>
+      <c r="BD251">
+        <v>1.6</v>
+      </c>
+      <c r="BE251">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF251">
+        <v>2.75</v>
+      </c>
+      <c r="BG251">
+        <v>1.18</v>
+      </c>
+      <c r="BH251">
+        <v>4.1</v>
+      </c>
+      <c r="BI251">
+        <v>1.36</v>
+      </c>
+      <c r="BJ251">
+        <v>2.79</v>
+      </c>
+      <c r="BK251">
+        <v>1.77</v>
+      </c>
+      <c r="BL251">
+        <v>1.95</v>
+      </c>
+      <c r="BM251">
+        <v>2.07</v>
+      </c>
+      <c r="BN251">
+        <v>1.75</v>
+      </c>
+      <c r="BO251">
+        <v>2.48</v>
+      </c>
+      <c r="BP251">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="252" spans="1:68">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>7295488</v>
+      </c>
+      <c r="C252" t="s">
+        <v>68</v>
+      </c>
+      <c r="D252" t="s">
+        <v>69</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45458.97916666666</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+      <c r="G252" t="s">
+        <v>91</v>
+      </c>
+      <c r="H252" t="s">
+        <v>82</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+      <c r="L252">
+        <v>2</v>
+      </c>
+      <c r="M252">
+        <v>4</v>
+      </c>
+      <c r="N252">
+        <v>6</v>
+      </c>
+      <c r="O252" t="s">
+        <v>281</v>
+      </c>
+      <c r="P252" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q252">
+        <v>3.25</v>
+      </c>
+      <c r="R252">
+        <v>2.3</v>
+      </c>
+      <c r="S252">
+        <v>3</v>
+      </c>
+      <c r="T252">
+        <v>1.3</v>
+      </c>
+      <c r="U252">
+        <v>3.4</v>
+      </c>
+      <c r="V252">
+        <v>2.5</v>
+      </c>
+      <c r="W252">
+        <v>1.5</v>
+      </c>
+      <c r="X252">
+        <v>6</v>
+      </c>
+      <c r="Y252">
+        <v>1.13</v>
+      </c>
+      <c r="Z252">
+        <v>1.9</v>
+      </c>
+      <c r="AA252">
+        <v>3.7</v>
+      </c>
+      <c r="AB252">
+        <v>3.3</v>
+      </c>
+      <c r="AC252">
+        <v>1.01</v>
+      </c>
+      <c r="AD252">
+        <v>16</v>
+      </c>
+      <c r="AE252">
+        <v>1.17</v>
+      </c>
+      <c r="AF252">
+        <v>4.15</v>
+      </c>
+      <c r="AG252">
+        <v>1.5</v>
+      </c>
+      <c r="AH252">
+        <v>2.35</v>
+      </c>
+      <c r="AI252">
+        <v>1.57</v>
+      </c>
+      <c r="AJ252">
+        <v>2.25</v>
+      </c>
+      <c r="AK252">
+        <v>1.58</v>
+      </c>
+      <c r="AL252">
+        <v>1.24</v>
+      </c>
+      <c r="AM252">
+        <v>1.48</v>
+      </c>
+      <c r="AN252">
+        <v>1</v>
+      </c>
+      <c r="AO252">
+        <v>2.38</v>
+      </c>
+      <c r="AP252">
+        <v>0.88</v>
+      </c>
+      <c r="AQ252">
+        <v>2.44</v>
+      </c>
+      <c r="AR252">
+        <v>1.48</v>
+      </c>
+      <c r="AS252">
+        <v>1.32</v>
+      </c>
+      <c r="AT252">
+        <v>2.8</v>
+      </c>
+      <c r="AU252">
+        <v>9</v>
+      </c>
+      <c r="AV252">
+        <v>7</v>
+      </c>
+      <c r="AW252">
+        <v>9</v>
+      </c>
+      <c r="AX252">
+        <v>8</v>
+      </c>
+      <c r="AY252">
+        <v>18</v>
+      </c>
+      <c r="AZ252">
+        <v>15</v>
+      </c>
+      <c r="BA252">
+        <v>10</v>
+      </c>
+      <c r="BB252">
+        <v>3</v>
+      </c>
+      <c r="BC252">
+        <v>13</v>
+      </c>
+      <c r="BD252">
+        <v>1.93</v>
+      </c>
+      <c r="BE252">
+        <v>7.8</v>
+      </c>
+      <c r="BF252">
+        <v>2.15</v>
+      </c>
+      <c r="BG252">
+        <v>1.14</v>
+      </c>
+      <c r="BH252">
+        <v>4.6</v>
+      </c>
+      <c r="BI252">
+        <v>1.3</v>
+      </c>
+      <c r="BJ252">
+        <v>3.08</v>
+      </c>
+      <c r="BK252">
+        <v>1.7</v>
+      </c>
+      <c r="BL252">
+        <v>2.05</v>
+      </c>
+      <c r="BM252">
+        <v>2.05</v>
+      </c>
+      <c r="BN252">
+        <v>1.7</v>
+      </c>
+      <c r="BO252">
+        <v>2.41</v>
+      </c>
+      <c r="BP252">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="253" spans="1:68">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>7295489</v>
+      </c>
+      <c r="C253" t="s">
+        <v>68</v>
+      </c>
+      <c r="D253" t="s">
+        <v>69</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45458.97916666666</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253" t="s">
+        <v>92</v>
+      </c>
+      <c r="H253" t="s">
+        <v>85</v>
+      </c>
+      <c r="I253">
+        <v>1</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>1</v>
+      </c>
+      <c r="L253">
+        <v>2</v>
+      </c>
+      <c r="M253">
+        <v>0</v>
+      </c>
+      <c r="N253">
+        <v>2</v>
+      </c>
+      <c r="O253" t="s">
+        <v>282</v>
+      </c>
+      <c r="P253" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q253">
+        <v>2.25</v>
+      </c>
+      <c r="R253">
+        <v>2.38</v>
+      </c>
+      <c r="S253">
+        <v>4.75</v>
+      </c>
+      <c r="T253">
+        <v>1.33</v>
+      </c>
+      <c r="U253">
+        <v>3.25</v>
+      </c>
+      <c r="V253">
+        <v>2.5</v>
+      </c>
+      <c r="W253">
+        <v>1.5</v>
+      </c>
+      <c r="X253">
+        <v>6.5</v>
+      </c>
+      <c r="Y253">
+        <v>1.11</v>
+      </c>
+      <c r="Z253">
+        <v>1.55</v>
+      </c>
+      <c r="AA253">
+        <v>4</v>
+      </c>
+      <c r="AB253">
+        <v>4.9</v>
+      </c>
+      <c r="AC253">
+        <v>1.01</v>
+      </c>
+      <c r="AD253">
+        <v>14.5</v>
+      </c>
+      <c r="AE253">
+        <v>1.22</v>
+      </c>
+      <c r="AF253">
+        <v>4.33</v>
+      </c>
+      <c r="AG253">
+        <v>1.64</v>
+      </c>
+      <c r="AH253">
+        <v>2.12</v>
+      </c>
+      <c r="AI253">
+        <v>1.7</v>
+      </c>
+      <c r="AJ253">
+        <v>2.05</v>
+      </c>
+      <c r="AK253">
+        <v>1.19</v>
+      </c>
+      <c r="AL253">
+        <v>1.2</v>
+      </c>
+      <c r="AM253">
+        <v>2.2</v>
+      </c>
+      <c r="AN253">
+        <v>1.14</v>
+      </c>
+      <c r="AO253">
+        <v>1.86</v>
+      </c>
+      <c r="AP253">
+        <v>1.38</v>
+      </c>
+      <c r="AQ253">
+        <v>1.63</v>
+      </c>
+      <c r="AR253">
+        <v>1.56</v>
+      </c>
+      <c r="AS253">
+        <v>1.31</v>
+      </c>
+      <c r="AT253">
+        <v>2.87</v>
+      </c>
+      <c r="AU253">
+        <v>5</v>
+      </c>
+      <c r="AV253">
+        <v>0</v>
+      </c>
+      <c r="AW253">
+        <v>3</v>
+      </c>
+      <c r="AX253">
+        <v>5</v>
+      </c>
+      <c r="AY253">
+        <v>8</v>
+      </c>
+      <c r="AZ253">
+        <v>5</v>
+      </c>
+      <c r="BA253">
+        <v>6</v>
+      </c>
+      <c r="BB253">
+        <v>3</v>
+      </c>
+      <c r="BC253">
+        <v>9</v>
+      </c>
+      <c r="BD253">
+        <v>1.22</v>
+      </c>
+      <c r="BE253">
+        <v>9.5</v>
+      </c>
+      <c r="BF253">
+        <v>5.3</v>
+      </c>
+      <c r="BG253">
+        <v>1.1</v>
+      </c>
+      <c r="BH253">
+        <v>5.35</v>
+      </c>
+      <c r="BI253">
+        <v>1.23</v>
+      </c>
+      <c r="BJ253">
+        <v>3.56</v>
+      </c>
+      <c r="BK253">
+        <v>1.44</v>
+      </c>
+      <c r="BL253">
+        <v>2.58</v>
+      </c>
+      <c r="BM253">
+        <v>1.85</v>
+      </c>
+      <c r="BN253">
+        <v>1.83</v>
+      </c>
+      <c r="BO253">
+        <v>2.16</v>
+      </c>
+      <c r="BP253">
+        <v>1.68</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -53054,31 +53054,31 @@
         <v>2.52</v>
       </c>
       <c r="AU250">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AV250">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AW250">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AX250">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AY250">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AZ250">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BA250">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BB250">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BC250">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BD250">
         <v>1.3</v>
@@ -53260,31 +53260,31 @@
         <v>3.03</v>
       </c>
       <c r="AU251">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AV251">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AW251">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AX251">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AY251">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="AZ251">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="BA251">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BB251">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BC251">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BD251">
         <v>1.6</v>
@@ -53466,31 +53466,31 @@
         <v>2.8</v>
       </c>
       <c r="AU252">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AV252">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AW252">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AX252">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AY252">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="AZ252">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="BA252">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BB252">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BC252">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="BD252">
         <v>1.93</v>
@@ -53672,31 +53672,31 @@
         <v>2.87</v>
       </c>
       <c r="AU253">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV253">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AW253">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AX253">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AY253">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AZ253">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BA253">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BB253">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BC253">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BD253">
         <v>1.22</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="413">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -829,6 +829,42 @@
     <t>['35', '76']</t>
   </si>
   <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['19', '85']</t>
+  </si>
+  <si>
+    <t>['44', '86']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['7', '21', '39']</t>
+  </si>
+  <si>
+    <t>['45+7']</t>
+  </si>
+  <si>
+    <t>['25', '55']</t>
+  </si>
+  <si>
+    <t>['28', '81']</t>
+  </si>
+  <si>
+    <t>['22', '49']</t>
+  </si>
+  <si>
+    <t>['40', '54', '75', '90+2']</t>
+  </si>
+  <si>
+    <t>['57', '72']</t>
+  </si>
+  <si>
+    <t>['28', '57']</t>
+  </si>
+  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -1156,9 +1192,6 @@
     <t>['18']</t>
   </si>
   <si>
-    <t>['44']</t>
-  </si>
-  <si>
     <t>['29', '42']</t>
   </si>
   <si>
@@ -1193,6 +1226,33 @@
   </si>
   <si>
     <t>['40', '56', '68']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['48', '53', '65']</t>
+  </si>
+  <si>
+    <t>['41', '57', '60', '89']</t>
+  </si>
+  <si>
+    <t>['47', '90+4']</t>
+  </si>
+  <si>
+    <t>['13', '90+4']</t>
+  </si>
+  <si>
+    <t>['45', '80', '86']</t>
+  </si>
+  <si>
+    <t>['5', '89']</t>
+  </si>
+  <si>
+    <t>['66', '81']</t>
+  </si>
+  <si>
+    <t>['53', '78', '80', '87']</t>
   </si>
 </sst>
 </file>
@@ -1554,7 +1614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP235"/>
+  <dimension ref="A1:BP253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1894,7 +1954,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ2">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2225,7 +2285,7 @@
         <v>101</v>
       </c>
       <c r="P4" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -2306,7 +2366,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ4">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2509,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ5">
         <v>1.43</v>
@@ -2637,7 +2697,7 @@
         <v>103</v>
       </c>
       <c r="P6" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2921,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ7">
         <v>0.9</v>
@@ -3049,7 +3109,7 @@
         <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -3127,10 +3187,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ8">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3255,7 +3315,7 @@
         <v>106</v>
       </c>
       <c r="P9" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3336,7 +3396,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ9">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3461,7 +3521,7 @@
         <v>107</v>
       </c>
       <c r="P10" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3539,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ10">
         <v>0.44</v>
@@ -3748,7 +3808,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3951,10 +4011,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
+        <v>1.44</v>
+      </c>
+      <c r="AQ12">
         <v>1.5</v>
-      </c>
-      <c r="AQ12">
-        <v>1.56</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4079,7 +4139,7 @@
         <v>110</v>
       </c>
       <c r="P13" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -4572,7 +4632,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ15">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4775,10 +4835,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ16">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4981,10 +5041,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
+        <v>1.78</v>
+      </c>
+      <c r="AQ17">
         <v>1.88</v>
-      </c>
-      <c r="AQ17">
-        <v>1.71</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5190,7 +5250,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5521,7 +5581,7 @@
         <v>115</v>
       </c>
       <c r="P20" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -5727,7 +5787,7 @@
         <v>116</v>
       </c>
       <c r="P21" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5808,7 +5868,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ21">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5933,7 +5993,7 @@
         <v>117</v>
       </c>
       <c r="P22" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -6011,7 +6071,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ22">
         <v>0.9</v>
@@ -6139,7 +6199,7 @@
         <v>118</v>
       </c>
       <c r="P23" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6220,7 +6280,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR23">
         <v>1.42</v>
@@ -6423,7 +6483,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
         <v>1.75</v>
@@ -6629,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ25">
         <v>1.43</v>
@@ -6757,7 +6817,7 @@
         <v>121</v>
       </c>
       <c r="P26" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6835,10 +6895,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ26">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6963,7 +7023,7 @@
         <v>122</v>
       </c>
       <c r="P27" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -7044,7 +7104,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR27">
         <v>1.01</v>
@@ -7169,7 +7229,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7247,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ28">
         <v>1.3</v>
@@ -7453,10 +7513,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ29">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7659,7 +7719,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>0.57</v>
+        <v>1.11</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7787,7 +7847,7 @@
         <v>123</v>
       </c>
       <c r="P31" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="Q31">
         <v>2.37</v>
@@ -7865,10 +7925,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ31">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -8071,7 +8131,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ32">
         <v>0.88</v>
@@ -8199,7 +8259,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -8277,7 +8337,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ33">
         <v>0.86</v>
@@ -8486,7 +8546,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ34">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR34">
         <v>1.35</v>
@@ -8689,10 +8749,10 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ35">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR35">
         <v>0</v>
@@ -8817,7 +8877,7 @@
         <v>128</v>
       </c>
       <c r="P36" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8895,10 +8955,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ36">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR36">
         <v>1.61</v>
@@ -9023,7 +9083,7 @@
         <v>129</v>
       </c>
       <c r="P37" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -9104,7 +9164,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ37">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR37">
         <v>1.02</v>
@@ -9229,7 +9289,7 @@
         <v>130</v>
       </c>
       <c r="P38" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9516,7 +9576,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ39">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR39">
         <v>1.7</v>
@@ -9641,7 +9701,7 @@
         <v>104</v>
       </c>
       <c r="P40" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9719,10 +9779,10 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ40">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR40">
         <v>1.38</v>
@@ -9847,7 +9907,7 @@
         <v>131</v>
       </c>
       <c r="P41" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -10134,7 +10194,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ42">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR42">
         <v>1.46</v>
@@ -10259,7 +10319,7 @@
         <v>132</v>
       </c>
       <c r="P43" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="Q43">
         <v>2.05</v>
@@ -10465,7 +10525,7 @@
         <v>133</v>
       </c>
       <c r="P44" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10671,7 +10731,7 @@
         <v>134</v>
       </c>
       <c r="P45" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10752,7 +10812,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ45">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR45">
         <v>1.94</v>
@@ -10955,7 +11015,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ46">
         <v>1.1</v>
@@ -11164,7 +11224,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ47">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR47">
         <v>1.86</v>
@@ -11367,7 +11427,7 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11495,7 +11555,7 @@
         <v>138</v>
       </c>
       <c r="P49" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11701,7 +11761,7 @@
         <v>139</v>
       </c>
       <c r="P50" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11779,10 +11839,10 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ50">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR50">
         <v>1.92</v>
@@ -11988,7 +12048,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ51">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR51">
         <v>1.66</v>
@@ -12191,7 +12251,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ52">
         <v>0.44</v>
@@ -12397,10 +12457,10 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR53">
         <v>1.47</v>
@@ -12731,7 +12791,7 @@
         <v>144</v>
       </c>
       <c r="P55" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12809,10 +12869,10 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ55">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR55">
         <v>2.22</v>
@@ -12937,7 +12997,7 @@
         <v>145</v>
       </c>
       <c r="P56" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -13015,10 +13075,10 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>0.57</v>
+        <v>1.11</v>
       </c>
       <c r="AQ56">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR56">
         <v>2.29</v>
@@ -13221,7 +13281,7 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ57">
         <v>1.38</v>
@@ -13427,10 +13487,10 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>0.57</v>
+        <v>1.11</v>
       </c>
       <c r="AQ58">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR58">
         <v>2.02</v>
@@ -13633,10 +13693,10 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ59">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR59">
         <v>1.89</v>
@@ -13761,7 +13821,7 @@
         <v>149</v>
       </c>
       <c r="P60" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13842,7 +13902,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ60">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR60">
         <v>1.63</v>
@@ -14045,10 +14105,10 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ61">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR61">
         <v>1.43</v>
@@ -14457,10 +14517,10 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ63">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR63">
         <v>1.92</v>
@@ -14663,7 +14723,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ64">
         <v>0.86</v>
@@ -14791,7 +14851,7 @@
         <v>154</v>
       </c>
       <c r="P65" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14869,7 +14929,7 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ65">
         <v>1.3</v>
@@ -14997,7 +15057,7 @@
         <v>155</v>
       </c>
       <c r="P66" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -15075,10 +15135,10 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ66">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR66">
         <v>1.49</v>
@@ -15203,7 +15263,7 @@
         <v>104</v>
       </c>
       <c r="P67" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15281,10 +15341,10 @@
         <v>0</v>
       </c>
       <c r="AP67">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ67">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR67">
         <v>1.06</v>
@@ -15409,7 +15469,7 @@
         <v>156</v>
       </c>
       <c r="P68" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15487,10 +15547,10 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ68">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR68">
         <v>1.18</v>
@@ -15696,7 +15756,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ69">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR69">
         <v>1.68</v>
@@ -15821,7 +15881,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -16105,10 +16165,10 @@
         <v>3</v>
       </c>
       <c r="AP71">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ71">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR71">
         <v>1.95</v>
@@ -16233,7 +16293,7 @@
         <v>159</v>
       </c>
       <c r="P72" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16311,10 +16371,10 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ72">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR72">
         <v>1.16</v>
@@ -16517,10 +16577,10 @@
         <v>3</v>
       </c>
       <c r="AP73">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ73">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR73">
         <v>1.41</v>
@@ -16851,7 +16911,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -17057,7 +17117,7 @@
         <v>162</v>
       </c>
       <c r="P76" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="Q76">
         <v>3.1</v>
@@ -17135,10 +17195,10 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ76">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR76">
         <v>1.96</v>
@@ -17263,7 +17323,7 @@
         <v>163</v>
       </c>
       <c r="P77" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17341,10 +17401,10 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ77">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR77">
         <v>1.72</v>
@@ -17469,7 +17529,7 @@
         <v>164</v>
       </c>
       <c r="P78" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17550,7 +17610,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ78">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR78">
         <v>0.95</v>
@@ -17881,7 +17941,7 @@
         <v>166</v>
       </c>
       <c r="P80" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17962,7 +18022,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ80">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR80">
         <v>1.03</v>
@@ -18168,7 +18228,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ81">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR81">
         <v>1.42</v>
@@ -18293,7 +18353,7 @@
         <v>168</v>
       </c>
       <c r="P82" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18374,7 +18434,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ82">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR82">
         <v>1.3</v>
@@ -18577,10 +18637,10 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ83">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR83">
         <v>1.98</v>
@@ -18783,10 +18843,10 @@
         <v>0.67</v>
       </c>
       <c r="AP84">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ84">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR84">
         <v>1.97</v>
@@ -18989,7 +19049,7 @@
         <v>0.33</v>
       </c>
       <c r="AP85">
-        <v>0.57</v>
+        <v>1.11</v>
       </c>
       <c r="AQ85">
         <v>0.88</v>
@@ -19195,7 +19255,7 @@
         <v>0</v>
       </c>
       <c r="AP86">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ86">
         <v>0.86</v>
@@ -19323,7 +19383,7 @@
         <v>172</v>
       </c>
       <c r="P87" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="Q87">
         <v>2.2</v>
@@ -19529,7 +19589,7 @@
         <v>173</v>
       </c>
       <c r="P88" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19610,7 +19670,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ88">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR88">
         <v>1.49</v>
@@ -20022,7 +20082,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ90">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR90">
         <v>1.72</v>
@@ -20147,7 +20207,7 @@
         <v>176</v>
       </c>
       <c r="P91" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -20353,7 +20413,7 @@
         <v>177</v>
       </c>
       <c r="P92" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="Q92">
         <v>2.88</v>
@@ -20640,7 +20700,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ93">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR93">
         <v>1.63</v>
@@ -20765,7 +20825,7 @@
         <v>179</v>
       </c>
       <c r="P94" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="Q94">
         <v>2.75</v>
@@ -20843,10 +20903,10 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ94">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR94">
         <v>1.29</v>
@@ -20971,7 +21031,7 @@
         <v>180</v>
       </c>
       <c r="P95" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="Q95">
         <v>3.1</v>
@@ -21255,10 +21315,10 @@
         <v>0</v>
       </c>
       <c r="AP96">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ96">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR96">
         <v>1.49</v>
@@ -21461,7 +21521,7 @@
         <v>1.4</v>
       </c>
       <c r="AP97">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ97">
         <v>0.9</v>
@@ -21589,7 +21649,7 @@
         <v>182</v>
       </c>
       <c r="P98" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21667,10 +21727,10 @@
         <v>1</v>
       </c>
       <c r="AP98">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ98">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR98">
         <v>1.65</v>
@@ -21795,7 +21855,7 @@
         <v>183</v>
       </c>
       <c r="P99" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21876,7 +21936,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ99">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR99">
         <v>1.42</v>
@@ -22079,7 +22139,7 @@
         <v>0</v>
       </c>
       <c r="AP100">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ100">
         <v>0.86</v>
@@ -22285,10 +22345,10 @@
         <v>0.5</v>
       </c>
       <c r="AP101">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ101">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR101">
         <v>1.68</v>
@@ -22413,7 +22473,7 @@
         <v>185</v>
       </c>
       <c r="P102" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="Q102">
         <v>3.1</v>
@@ -22491,10 +22551,10 @@
         <v>2.33</v>
       </c>
       <c r="AP102">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ102">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR102">
         <v>0</v>
@@ -22619,7 +22679,7 @@
         <v>186</v>
       </c>
       <c r="P103" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="Q103">
         <v>2.3</v>
@@ -22697,7 +22757,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ103">
         <v>1</v>
@@ -22825,7 +22885,7 @@
         <v>187</v>
       </c>
       <c r="P104" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -23109,10 +23169,10 @@
         <v>0</v>
       </c>
       <c r="AP105">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ105">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR105">
         <v>1.76</v>
@@ -23237,7 +23297,7 @@
         <v>188</v>
       </c>
       <c r="P106" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23315,10 +23375,10 @@
         <v>1.33</v>
       </c>
       <c r="AP106">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ106">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR106">
         <v>1.67</v>
@@ -23443,7 +23503,7 @@
         <v>189</v>
       </c>
       <c r="P107" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="Q107">
         <v>2.75</v>
@@ -23521,10 +23581,10 @@
         <v>1.5</v>
       </c>
       <c r="AP107">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ107">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR107">
         <v>1.55</v>
@@ -23730,7 +23790,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ108">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR108">
         <v>1.42</v>
@@ -23855,7 +23915,7 @@
         <v>190</v>
       </c>
       <c r="P109" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="Q109">
         <v>2.6</v>
@@ -24061,7 +24121,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="Q110">
         <v>2.88</v>
@@ -24139,7 +24199,7 @@
         <v>1.25</v>
       </c>
       <c r="AP110">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ110">
         <v>1.1</v>
@@ -24267,7 +24327,7 @@
         <v>191</v>
       </c>
       <c r="P111" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24345,7 +24405,7 @@
         <v>2</v>
       </c>
       <c r="AP111">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ111">
         <v>1.75</v>
@@ -24551,10 +24611,10 @@
         <v>0.5</v>
       </c>
       <c r="AP112">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ112">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR112">
         <v>1.79</v>
@@ -24679,7 +24739,7 @@
         <v>142</v>
       </c>
       <c r="P113" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24757,7 +24817,7 @@
         <v>1</v>
       </c>
       <c r="AP113">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ113">
         <v>1.38</v>
@@ -24885,7 +24945,7 @@
         <v>192</v>
       </c>
       <c r="P114" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="Q114">
         <v>1.91</v>
@@ -24966,7 +25026,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ114">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR114">
         <v>1.72</v>
@@ -25091,7 +25151,7 @@
         <v>193</v>
       </c>
       <c r="P115" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="Q115">
         <v>2.1</v>
@@ -25172,7 +25232,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ115">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR115">
         <v>1.63</v>
@@ -25375,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="AP116">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ116">
         <v>0.86</v>
@@ -25503,7 +25563,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25581,10 +25641,10 @@
         <v>1.75</v>
       </c>
       <c r="AP117">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ117">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR117">
         <v>1.94</v>
@@ -25787,10 +25847,10 @@
         <v>1</v>
       </c>
       <c r="AP118">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ118">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR118">
         <v>1.77</v>
@@ -25915,7 +25975,7 @@
         <v>104</v>
       </c>
       <c r="P119" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="Q119">
         <v>2.88</v>
@@ -25996,7 +26056,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ119">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR119">
         <v>1.52</v>
@@ -26202,7 +26262,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ120">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR120">
         <v>1.68</v>
@@ -26327,7 +26387,7 @@
         <v>196</v>
       </c>
       <c r="P121" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="Q121">
         <v>2.3</v>
@@ -26405,10 +26465,10 @@
         <v>0.67</v>
       </c>
       <c r="AP121">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ121">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR121">
         <v>1.55</v>
@@ -26611,10 +26671,10 @@
         <v>0.33</v>
       </c>
       <c r="AP122">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ122">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR122">
         <v>1.34</v>
@@ -26739,7 +26799,7 @@
         <v>198</v>
       </c>
       <c r="P123" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="Q123">
         <v>2.5</v>
@@ -26820,7 +26880,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ123">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR123">
         <v>2.06</v>
@@ -26945,7 +27005,7 @@
         <v>104</v>
       </c>
       <c r="P124" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -27023,10 +27083,10 @@
         <v>3</v>
       </c>
       <c r="AP124">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ124">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR124">
         <v>1.78</v>
@@ -27151,7 +27211,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="Q125">
         <v>2.6</v>
@@ -27229,10 +27289,10 @@
         <v>2</v>
       </c>
       <c r="AP125">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ125">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR125">
         <v>1.42</v>
@@ -27357,7 +27417,7 @@
         <v>199</v>
       </c>
       <c r="P126" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="Q126">
         <v>2.05</v>
@@ -27435,7 +27495,7 @@
         <v>0</v>
       </c>
       <c r="AP126">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ126">
         <v>0.44</v>
@@ -27769,7 +27829,7 @@
         <v>201</v>
       </c>
       <c r="P128" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -27847,7 +27907,7 @@
         <v>0.8</v>
       </c>
       <c r="AP128">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ128">
         <v>1</v>
@@ -27975,7 +28035,7 @@
         <v>202</v>
       </c>
       <c r="P129" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="Q129">
         <v>2.5</v>
@@ -28053,10 +28113,10 @@
         <v>1.6</v>
       </c>
       <c r="AP129">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ129">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR129">
         <v>1.61</v>
@@ -28259,7 +28319,7 @@
         <v>0.25</v>
       </c>
       <c r="AP130">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ130">
         <v>0.88</v>
@@ -28465,10 +28525,10 @@
         <v>3</v>
       </c>
       <c r="AP131">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ131">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR131">
         <v>1.71</v>
@@ -28674,7 +28734,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ132">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR132">
         <v>1.89</v>
@@ -29211,7 +29271,7 @@
         <v>206</v>
       </c>
       <c r="P135" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29289,10 +29349,10 @@
         <v>1.75</v>
       </c>
       <c r="AP135">
-        <v>0.57</v>
+        <v>1.11</v>
       </c>
       <c r="AQ135">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR135">
         <v>1.64</v>
@@ -29495,10 +29555,10 @@
         <v>1.67</v>
       </c>
       <c r="AP136">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ136">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR136">
         <v>1.75</v>
@@ -29907,10 +29967,10 @@
         <v>2</v>
       </c>
       <c r="AP138">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ138">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR138">
         <v>1.63</v>
@@ -30035,7 +30095,7 @@
         <v>119</v>
       </c>
       <c r="P139" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -30241,7 +30301,7 @@
         <v>209</v>
       </c>
       <c r="P140" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -30322,7 +30382,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ140">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR140">
         <v>2</v>
@@ -30447,7 +30507,7 @@
         <v>210</v>
       </c>
       <c r="P141" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30525,10 +30585,10 @@
         <v>0.2</v>
       </c>
       <c r="AP141">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ141">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR141">
         <v>1.56</v>
@@ -30653,7 +30713,7 @@
         <v>211</v>
       </c>
       <c r="P142" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30731,10 +30791,10 @@
         <v>2.25</v>
       </c>
       <c r="AP142">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ142">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR142">
         <v>1.86</v>
@@ -30937,10 +30997,10 @@
         <v>0.83</v>
       </c>
       <c r="AP143">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ143">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR143">
         <v>1.31</v>
@@ -31065,7 +31125,7 @@
         <v>213</v>
       </c>
       <c r="P144" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="Q144">
         <v>2.88</v>
@@ -31271,7 +31331,7 @@
         <v>214</v>
       </c>
       <c r="P145" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="Q145">
         <v>2.38</v>
@@ -31352,7 +31412,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ145">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR145">
         <v>1.66</v>
@@ -31555,10 +31615,10 @@
         <v>2</v>
       </c>
       <c r="AP146">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ146">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR146">
         <v>1.7</v>
@@ -31761,10 +31821,10 @@
         <v>0.25</v>
       </c>
       <c r="AP147">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ147">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR147">
         <v>1.42</v>
@@ -31967,10 +32027,10 @@
         <v>0.25</v>
       </c>
       <c r="AP148">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ148">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR148">
         <v>1.55</v>
@@ -32176,7 +32236,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ149">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR149">
         <v>1.71</v>
@@ -32301,7 +32361,7 @@
         <v>217</v>
       </c>
       <c r="P150" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32794,7 +32854,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ152">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR152">
         <v>1.48</v>
@@ -33000,7 +33060,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ153">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR153">
         <v>1.44</v>
@@ -33125,7 +33185,7 @@
         <v>104</v>
       </c>
       <c r="P154" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="Q154">
         <v>2.4</v>
@@ -33203,7 +33263,7 @@
         <v>1.33</v>
       </c>
       <c r="AP154">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ154">
         <v>1.1</v>
@@ -33409,7 +33469,7 @@
         <v>1.67</v>
       </c>
       <c r="AP155">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ155">
         <v>1.3</v>
@@ -33537,7 +33597,7 @@
         <v>219</v>
       </c>
       <c r="P156" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33615,10 +33675,10 @@
         <v>0.8</v>
       </c>
       <c r="AP156">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ156">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR156">
         <v>1.86</v>
@@ -33821,10 +33881,10 @@
         <v>0.33</v>
       </c>
       <c r="AP157">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ157">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR157">
         <v>1.3</v>
@@ -33949,7 +34009,7 @@
         <v>221</v>
       </c>
       <c r="P158" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -34027,10 +34087,10 @@
         <v>2</v>
       </c>
       <c r="AP158">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ158">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR158">
         <v>1.25</v>
@@ -34155,7 +34215,7 @@
         <v>222</v>
       </c>
       <c r="P159" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="Q159">
         <v>2.1</v>
@@ -34233,7 +34293,7 @@
         <v>0.6</v>
       </c>
       <c r="AP159">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ159">
         <v>0.86</v>
@@ -34361,7 +34421,7 @@
         <v>223</v>
       </c>
       <c r="P160" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="Q160">
         <v>2.5</v>
@@ -34439,7 +34499,7 @@
         <v>1</v>
       </c>
       <c r="AP160">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ160">
         <v>1.38</v>
@@ -34567,7 +34627,7 @@
         <v>224</v>
       </c>
       <c r="P161" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="Q161">
         <v>3.4</v>
@@ -34645,7 +34705,7 @@
         <v>0.25</v>
       </c>
       <c r="AP161">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ161">
         <v>1.43</v>
@@ -34773,7 +34833,7 @@
         <v>162</v>
       </c>
       <c r="P162" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34854,7 +34914,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ162">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR162">
         <v>1.7</v>
@@ -35057,10 +35117,10 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ163">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR163">
         <v>1.68</v>
@@ -35185,7 +35245,7 @@
         <v>226</v>
       </c>
       <c r="P164" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="Q164">
         <v>2.75</v>
@@ -35263,10 +35323,10 @@
         <v>1.5</v>
       </c>
       <c r="AP164">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ164">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR164">
         <v>1.45</v>
@@ -35391,7 +35451,7 @@
         <v>227</v>
       </c>
       <c r="P165" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="Q165">
         <v>2.3</v>
@@ -35469,10 +35529,10 @@
         <v>0.6</v>
       </c>
       <c r="AP165">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ165">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR165">
         <v>1.69</v>
@@ -35597,7 +35657,7 @@
         <v>228</v>
       </c>
       <c r="P166" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="Q166">
         <v>2.3</v>
@@ -35675,7 +35735,7 @@
         <v>0.17</v>
       </c>
       <c r="AP166">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ166">
         <v>0.44</v>
@@ -35803,7 +35863,7 @@
         <v>229</v>
       </c>
       <c r="P167" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="Q167">
         <v>2.5</v>
@@ -35881,10 +35941,10 @@
         <v>1.83</v>
       </c>
       <c r="AP167">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ167">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR167">
         <v>1.69</v>
@@ -36090,7 +36150,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ168">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR168">
         <v>2.08</v>
@@ -36215,7 +36275,7 @@
         <v>231</v>
       </c>
       <c r="P169" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="Q169">
         <v>3.2</v>
@@ -36296,7 +36356,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ169">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR169">
         <v>1.32</v>
@@ -36627,7 +36687,7 @@
         <v>232</v>
       </c>
       <c r="P171" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="Q171">
         <v>3.1</v>
@@ -36708,7 +36768,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ171">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR171">
         <v>1.72</v>
@@ -36833,7 +36893,7 @@
         <v>233</v>
       </c>
       <c r="P172" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -36911,10 +36971,10 @@
         <v>0.75</v>
       </c>
       <c r="AP172">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ172">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR172">
         <v>1.44</v>
@@ -37117,10 +37177,10 @@
         <v>2.17</v>
       </c>
       <c r="AP173">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ173">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR173">
         <v>1.59</v>
@@ -37245,7 +37305,7 @@
         <v>121</v>
       </c>
       <c r="P174" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="Q174">
         <v>2.5</v>
@@ -37323,7 +37383,7 @@
         <v>0.8</v>
       </c>
       <c r="AP174">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ174">
         <v>1.43</v>
@@ -37532,7 +37592,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ175">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR175">
         <v>1.26</v>
@@ -37657,7 +37717,7 @@
         <v>104</v>
       </c>
       <c r="P176" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="Q176">
         <v>2.75</v>
@@ -37863,7 +37923,7 @@
         <v>234</v>
       </c>
       <c r="P177" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="Q177">
         <v>2.63</v>
@@ -37941,7 +38001,7 @@
         <v>1.57</v>
       </c>
       <c r="AP177">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ177">
         <v>1.3</v>
@@ -38275,7 +38335,7 @@
         <v>104</v>
       </c>
       <c r="P179" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="Q179">
         <v>3.1</v>
@@ -38353,10 +38413,10 @@
         <v>0.2</v>
       </c>
       <c r="AP179">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ179">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR179">
         <v>1.84</v>
@@ -38559,10 +38619,10 @@
         <v>2</v>
       </c>
       <c r="AP180">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ180">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR180">
         <v>1.4</v>
@@ -38768,7 +38828,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ181">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR181">
         <v>1.51</v>
@@ -38893,7 +38953,7 @@
         <v>237</v>
       </c>
       <c r="P182" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="Q182">
         <v>2.3</v>
@@ -39099,7 +39159,7 @@
         <v>139</v>
       </c>
       <c r="P183" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="Q183">
         <v>2.75</v>
@@ -39383,7 +39443,7 @@
         <v>1.5</v>
       </c>
       <c r="AP184">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ184">
         <v>1.3</v>
@@ -39511,7 +39571,7 @@
         <v>238</v>
       </c>
       <c r="P185" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="Q185">
         <v>2.3</v>
@@ -39592,7 +39652,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ185">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR185">
         <v>1.53</v>
@@ -39717,7 +39777,7 @@
         <v>104</v>
       </c>
       <c r="P186" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="Q186">
         <v>3.2</v>
@@ -39795,7 +39855,7 @@
         <v>1.67</v>
       </c>
       <c r="AP186">
-        <v>0.57</v>
+        <v>1.11</v>
       </c>
       <c r="AQ186">
         <v>1.75</v>
@@ -40001,10 +40061,10 @@
         <v>1.5</v>
       </c>
       <c r="AP187">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ187">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR187">
         <v>1.79</v>
@@ -40129,7 +40189,7 @@
         <v>240</v>
       </c>
       <c r="P188" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="Q188">
         <v>2.75</v>
@@ -40207,7 +40267,7 @@
         <v>1</v>
       </c>
       <c r="AP188">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ188">
         <v>0.9</v>
@@ -40416,7 +40476,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ189">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR189">
         <v>1.64</v>
@@ -40541,7 +40601,7 @@
         <v>241</v>
       </c>
       <c r="P190" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="Q190">
         <v>2.25</v>
@@ -40619,10 +40679,10 @@
         <v>0.71</v>
       </c>
       <c r="AP190">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ190">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR190">
         <v>1.76</v>
@@ -40828,7 +40888,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ191">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR191">
         <v>1.77</v>
@@ -40953,7 +41013,7 @@
         <v>243</v>
       </c>
       <c r="P192" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="Q192">
         <v>2.63</v>
@@ -41034,7 +41094,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ192">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR192">
         <v>1.28</v>
@@ -41159,7 +41219,7 @@
         <v>244</v>
       </c>
       <c r="P193" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -41240,7 +41300,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ193">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR193">
         <v>1.39</v>
@@ -41365,7 +41425,7 @@
         <v>245</v>
       </c>
       <c r="P194" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="Q194">
         <v>2.3</v>
@@ -41649,7 +41709,7 @@
         <v>1.4</v>
       </c>
       <c r="AP195">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ195">
         <v>1.38</v>
@@ -41855,10 +41915,10 @@
         <v>1.67</v>
       </c>
       <c r="AP196">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ196">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR196">
         <v>1.58</v>
@@ -42061,7 +42121,7 @@
         <v>1.17</v>
       </c>
       <c r="AP197">
-        <v>0.57</v>
+        <v>1.11</v>
       </c>
       <c r="AQ197">
         <v>1.43</v>
@@ -42189,7 +42249,7 @@
         <v>246</v>
       </c>
       <c r="P198" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="Q198">
         <v>3.3</v>
@@ -42267,10 +42327,10 @@
         <v>2.29</v>
       </c>
       <c r="AP198">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ198">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR198">
         <v>1.55</v>
@@ -42395,7 +42455,7 @@
         <v>104</v>
       </c>
       <c r="P199" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="Q199">
         <v>2.51</v>
@@ -42473,10 +42533,10 @@
         <v>1.5</v>
       </c>
       <c r="AP199">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ199">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR199">
         <v>1.53</v>
@@ -42679,10 +42739,10 @@
         <v>0.25</v>
       </c>
       <c r="AP200">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ200">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR200">
         <v>1.35</v>
@@ -42807,7 +42867,7 @@
         <v>104</v>
       </c>
       <c r="P201" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="Q201">
         <v>2.88</v>
@@ -42885,10 +42945,10 @@
         <v>0.67</v>
       </c>
       <c r="AP201">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ201">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR201">
         <v>1.77</v>
@@ -43091,7 +43151,7 @@
         <v>1.86</v>
       </c>
       <c r="AP202">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ202">
         <v>1.75</v>
@@ -43219,7 +43279,7 @@
         <v>247</v>
       </c>
       <c r="P203" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="Q203">
         <v>2.16</v>
@@ -43300,7 +43360,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ203">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR203">
         <v>1.75</v>
@@ -43425,7 +43485,7 @@
         <v>248</v>
       </c>
       <c r="P204" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="Q204">
         <v>3.4</v>
@@ -43503,10 +43563,10 @@
         <v>1.71</v>
       </c>
       <c r="AP204">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ204">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR204">
         <v>1.54</v>
@@ -43631,7 +43691,7 @@
         <v>211</v>
       </c>
       <c r="P205" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="Q205">
         <v>2.88</v>
@@ -43709,10 +43769,10 @@
         <v>0.88</v>
       </c>
       <c r="AP205">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ205">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR205">
         <v>1.81</v>
@@ -43837,7 +43897,7 @@
         <v>249</v>
       </c>
       <c r="P206" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="Q206">
         <v>2.5</v>
@@ -43915,10 +43975,10 @@
         <v>2.4</v>
       </c>
       <c r="AP206">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ206">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR206">
         <v>1.47</v>
@@ -44043,7 +44103,7 @@
         <v>250</v>
       </c>
       <c r="P207" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="Q207">
         <v>3</v>
@@ -44124,7 +44184,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ207">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR207">
         <v>1.59</v>
@@ -44249,7 +44309,7 @@
         <v>251</v>
       </c>
       <c r="P208" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="Q208">
         <v>2.38</v>
@@ -44327,10 +44387,10 @@
         <v>1.5</v>
       </c>
       <c r="AP208">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ208">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR208">
         <v>1.77</v>
@@ -44536,7 +44596,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ209">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR209">
         <v>1.48</v>
@@ -44661,7 +44721,7 @@
         <v>123</v>
       </c>
       <c r="P210" t="s">
-        <v>380</v>
+        <v>274</v>
       </c>
       <c r="Q210">
         <v>2.3</v>
@@ -44739,10 +44799,10 @@
         <v>0.83</v>
       </c>
       <c r="AP210">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ210">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR210">
         <v>1.37</v>
@@ -44945,7 +45005,7 @@
         <v>1</v>
       </c>
       <c r="AP211">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ211">
         <v>1</v>
@@ -45073,7 +45133,7 @@
         <v>253</v>
       </c>
       <c r="P212" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="Q212">
         <v>2.2</v>
@@ -45151,7 +45211,7 @@
         <v>0.67</v>
       </c>
       <c r="AP212">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ212">
         <v>0.88</v>
@@ -45279,7 +45339,7 @@
         <v>254</v>
       </c>
       <c r="P213" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="Q213">
         <v>3</v>
@@ -45357,10 +45417,10 @@
         <v>1</v>
       </c>
       <c r="AP213">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ213">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR213">
         <v>1.19</v>
@@ -45485,7 +45545,7 @@
         <v>104</v>
       </c>
       <c r="P214" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="Q214">
         <v>2.4</v>
@@ -45566,7 +45626,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ214">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR214">
         <v>1.42</v>
@@ -45691,7 +45751,7 @@
         <v>145</v>
       </c>
       <c r="P215" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="Q215">
         <v>2.05</v>
@@ -45897,7 +45957,7 @@
         <v>104</v>
       </c>
       <c r="P216" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="Q216">
         <v>2.5</v>
@@ -45978,7 +46038,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ216">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR216">
         <v>1.32</v>
@@ -46309,7 +46369,7 @@
         <v>255</v>
       </c>
       <c r="P218" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="Q218">
         <v>2.6</v>
@@ -46515,7 +46575,7 @@
         <v>256</v>
       </c>
       <c r="P219" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="Q219">
         <v>2.75</v>
@@ -46593,10 +46653,10 @@
         <v>1.57</v>
       </c>
       <c r="AP219">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ219">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR219">
         <v>1.48</v>
@@ -46799,10 +46859,10 @@
         <v>0.33</v>
       </c>
       <c r="AP220">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ220">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR220">
         <v>1.7</v>
@@ -46927,7 +46987,7 @@
         <v>258</v>
       </c>
       <c r="P221" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="Q221">
         <v>2.6</v>
@@ -47005,10 +47065,10 @@
         <v>1.63</v>
       </c>
       <c r="AP221">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ221">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR221">
         <v>1.54</v>
@@ -47214,7 +47274,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ222">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR222">
         <v>2.02</v>
@@ -47339,7 +47399,7 @@
         <v>260</v>
       </c>
       <c r="P223" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="Q223">
         <v>2.2</v>
@@ -47417,7 +47477,7 @@
         <v>0.5</v>
       </c>
       <c r="AP223">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ223">
         <v>0.44</v>
@@ -47623,7 +47683,7 @@
         <v>1.57</v>
       </c>
       <c r="AP224">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ224">
         <v>1.38</v>
@@ -47751,7 +47811,7 @@
         <v>138</v>
       </c>
       <c r="P225" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="Q225">
         <v>1.91</v>
@@ -47829,7 +47889,7 @@
         <v>0.89</v>
       </c>
       <c r="AP225">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ225">
         <v>0.9</v>
@@ -47957,7 +48017,7 @@
         <v>262</v>
       </c>
       <c r="P226" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="Q226">
         <v>1.83</v>
@@ -48038,7 +48098,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ226">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR226">
         <v>1.55</v>
@@ -48163,7 +48223,7 @@
         <v>263</v>
       </c>
       <c r="P227" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="Q227">
         <v>2.38</v>
@@ -48653,10 +48713,10 @@
         <v>0.71</v>
       </c>
       <c r="AP229">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ229">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR229">
         <v>1.8</v>
@@ -48781,7 +48841,7 @@
         <v>124</v>
       </c>
       <c r="P230" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="Q230">
         <v>2.3</v>
@@ -49068,7 +49128,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ231">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR231">
         <v>1.57</v>
@@ -49480,7 +49540,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ233">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR233">
         <v>1.97</v>
@@ -49605,7 +49665,7 @@
         <v>269</v>
       </c>
       <c r="P234" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="Q234">
         <v>2.75</v>
@@ -49686,7 +49746,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ234">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR234">
         <v>1.45</v>
@@ -49811,7 +49871,7 @@
         <v>270</v>
       </c>
       <c r="P235" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="Q235">
         <v>2.75</v>
@@ -49889,7 +49949,7 @@
         <v>0.57</v>
       </c>
       <c r="AP235">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ235">
         <v>0.88</v>
@@ -49968,6 +50028,3714 @@
       </c>
       <c r="BP235">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="236" spans="1:68">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>7295472</v>
+      </c>
+      <c r="C236" t="s">
+        <v>68</v>
+      </c>
+      <c r="D236" t="s">
+        <v>69</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45451.85416666666</v>
+      </c>
+      <c r="F236">
+        <v>18</v>
+      </c>
+      <c r="G236" t="s">
+        <v>93</v>
+      </c>
+      <c r="H236" t="s">
+        <v>97</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>1</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>1</v>
+      </c>
+      <c r="O236" t="s">
+        <v>218</v>
+      </c>
+      <c r="P236" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q236">
+        <v>3.4</v>
+      </c>
+      <c r="R236">
+        <v>2.25</v>
+      </c>
+      <c r="S236">
+        <v>2.88</v>
+      </c>
+      <c r="T236">
+        <v>1.33</v>
+      </c>
+      <c r="U236">
+        <v>3.25</v>
+      </c>
+      <c r="V236">
+        <v>2.63</v>
+      </c>
+      <c r="W236">
+        <v>1.44</v>
+      </c>
+      <c r="X236">
+        <v>6.5</v>
+      </c>
+      <c r="Y236">
+        <v>1.11</v>
+      </c>
+      <c r="Z236">
+        <v>4.34</v>
+      </c>
+      <c r="AA236">
+        <v>3.85</v>
+      </c>
+      <c r="AB236">
+        <v>1.62</v>
+      </c>
+      <c r="AC236">
+        <v>1.02</v>
+      </c>
+      <c r="AD236">
+        <v>10.5</v>
+      </c>
+      <c r="AE236">
+        <v>1.19</v>
+      </c>
+      <c r="AF236">
+        <v>3.92</v>
+      </c>
+      <c r="AG236">
+        <v>1.65</v>
+      </c>
+      <c r="AH236">
+        <v>2.1</v>
+      </c>
+      <c r="AI236">
+        <v>1.62</v>
+      </c>
+      <c r="AJ236">
+        <v>2.2</v>
+      </c>
+      <c r="AK236">
+        <v>1.6</v>
+      </c>
+      <c r="AL236">
+        <v>1.29</v>
+      </c>
+      <c r="AM236">
+        <v>1.43</v>
+      </c>
+      <c r="AN236">
+        <v>0.57</v>
+      </c>
+      <c r="AO236">
+        <v>1.33</v>
+      </c>
+      <c r="AP236">
+        <v>1.11</v>
+      </c>
+      <c r="AQ236">
+        <v>1.2</v>
+      </c>
+      <c r="AR236">
+        <v>1.32</v>
+      </c>
+      <c r="AS236">
+        <v>1.17</v>
+      </c>
+      <c r="AT236">
+        <v>2.49</v>
+      </c>
+      <c r="AU236">
+        <v>5</v>
+      </c>
+      <c r="AV236">
+        <v>6</v>
+      </c>
+      <c r="AW236">
+        <v>8</v>
+      </c>
+      <c r="AX236">
+        <v>7</v>
+      </c>
+      <c r="AY236">
+        <v>13</v>
+      </c>
+      <c r="AZ236">
+        <v>13</v>
+      </c>
+      <c r="BA236">
+        <v>4</v>
+      </c>
+      <c r="BB236">
+        <v>2</v>
+      </c>
+      <c r="BC236">
+        <v>6</v>
+      </c>
+      <c r="BD236">
+        <v>1.75</v>
+      </c>
+      <c r="BE236">
+        <v>9</v>
+      </c>
+      <c r="BF236">
+        <v>2.43</v>
+      </c>
+      <c r="BG236">
+        <v>1.25</v>
+      </c>
+      <c r="BH236">
+        <v>3.42</v>
+      </c>
+      <c r="BI236">
+        <v>1.54</v>
+      </c>
+      <c r="BJ236">
+        <v>2.45</v>
+      </c>
+      <c r="BK236">
+        <v>1.88</v>
+      </c>
+      <c r="BL236">
+        <v>1.92</v>
+      </c>
+      <c r="BM236">
+        <v>2.35</v>
+      </c>
+      <c r="BN236">
+        <v>1.58</v>
+      </c>
+      <c r="BO236">
+        <v>3.18</v>
+      </c>
+      <c r="BP236">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="237" spans="1:68">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>7295475</v>
+      </c>
+      <c r="C237" t="s">
+        <v>68</v>
+      </c>
+      <c r="D237" t="s">
+        <v>69</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45451.89583333334</v>
+      </c>
+      <c r="F237">
+        <v>18</v>
+      </c>
+      <c r="G237" t="s">
+        <v>80</v>
+      </c>
+      <c r="H237" t="s">
+        <v>81</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+      <c r="L237">
+        <v>0</v>
+      </c>
+      <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237">
+        <v>0</v>
+      </c>
+      <c r="O237" t="s">
+        <v>104</v>
+      </c>
+      <c r="P237" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q237">
+        <v>2.25</v>
+      </c>
+      <c r="R237">
+        <v>2.5</v>
+      </c>
+      <c r="S237">
+        <v>4.33</v>
+      </c>
+      <c r="T237">
+        <v>1.25</v>
+      </c>
+      <c r="U237">
+        <v>3.75</v>
+      </c>
+      <c r="V237">
+        <v>2.2</v>
+      </c>
+      <c r="W237">
+        <v>1.62</v>
+      </c>
+      <c r="X237">
+        <v>5</v>
+      </c>
+      <c r="Y237">
+        <v>1.17</v>
+      </c>
+      <c r="Z237">
+        <v>1.86</v>
+      </c>
+      <c r="AA237">
+        <v>5.52</v>
+      </c>
+      <c r="AB237">
+        <v>2.56</v>
+      </c>
+      <c r="AC237">
+        <v>1.01</v>
+      </c>
+      <c r="AD237">
+        <v>21</v>
+      </c>
+      <c r="AE237">
+        <v>1.16</v>
+      </c>
+      <c r="AF237">
+        <v>5.5</v>
+      </c>
+      <c r="AG237">
+        <v>1.57</v>
+      </c>
+      <c r="AH237">
+        <v>2.25</v>
+      </c>
+      <c r="AI237">
+        <v>1.53</v>
+      </c>
+      <c r="AJ237">
+        <v>2.38</v>
+      </c>
+      <c r="AK237">
+        <v>1.22</v>
+      </c>
+      <c r="AL237">
+        <v>1.19</v>
+      </c>
+      <c r="AM237">
+        <v>2.15</v>
+      </c>
+      <c r="AN237">
+        <v>1.5</v>
+      </c>
+      <c r="AO237">
+        <v>0.89</v>
+      </c>
+      <c r="AP237">
+        <v>1.44</v>
+      </c>
+      <c r="AQ237">
+        <v>0.9</v>
+      </c>
+      <c r="AR237">
+        <v>1.85</v>
+      </c>
+      <c r="AS237">
+        <v>1.14</v>
+      </c>
+      <c r="AT237">
+        <v>2.99</v>
+      </c>
+      <c r="AU237">
+        <v>5</v>
+      </c>
+      <c r="AV237">
+        <v>5</v>
+      </c>
+      <c r="AW237">
+        <v>3</v>
+      </c>
+      <c r="AX237">
+        <v>5</v>
+      </c>
+      <c r="AY237">
+        <v>8</v>
+      </c>
+      <c r="AZ237">
+        <v>10</v>
+      </c>
+      <c r="BA237">
+        <v>6</v>
+      </c>
+      <c r="BB237">
+        <v>4</v>
+      </c>
+      <c r="BC237">
+        <v>10</v>
+      </c>
+      <c r="BD237">
+        <v>1.39</v>
+      </c>
+      <c r="BE237">
+        <v>10.5</v>
+      </c>
+      <c r="BF237">
+        <v>3.6</v>
+      </c>
+      <c r="BG237">
+        <v>1.15</v>
+      </c>
+      <c r="BH237">
+        <v>4.45</v>
+      </c>
+      <c r="BI237">
+        <v>1.31</v>
+      </c>
+      <c r="BJ237">
+        <v>3.04</v>
+      </c>
+      <c r="BK237">
+        <v>1.63</v>
+      </c>
+      <c r="BL237">
+        <v>2.25</v>
+      </c>
+      <c r="BM237">
+        <v>2.01</v>
+      </c>
+      <c r="BN237">
+        <v>1.81</v>
+      </c>
+      <c r="BO237">
+        <v>2.55</v>
+      </c>
+      <c r="BP237">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="238" spans="1:68">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>7295473</v>
+      </c>
+      <c r="C238" t="s">
+        <v>68</v>
+      </c>
+      <c r="D238" t="s">
+        <v>69</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45451.89583333334</v>
+      </c>
+      <c r="F238">
+        <v>18</v>
+      </c>
+      <c r="G238" t="s">
+        <v>85</v>
+      </c>
+      <c r="H238" t="s">
+        <v>78</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="J238">
+        <v>1</v>
+      </c>
+      <c r="K238">
+        <v>2</v>
+      </c>
+      <c r="L238">
+        <v>1</v>
+      </c>
+      <c r="M238">
+        <v>1</v>
+      </c>
+      <c r="N238">
+        <v>2</v>
+      </c>
+      <c r="O238" t="s">
+        <v>271</v>
+      </c>
+      <c r="P238" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q238">
+        <v>2.5</v>
+      </c>
+      <c r="R238">
+        <v>2.3</v>
+      </c>
+      <c r="S238">
+        <v>4</v>
+      </c>
+      <c r="T238">
+        <v>1.33</v>
+      </c>
+      <c r="U238">
+        <v>3.25</v>
+      </c>
+      <c r="V238">
+        <v>2.5</v>
+      </c>
+      <c r="W238">
+        <v>1.5</v>
+      </c>
+      <c r="X238">
+        <v>6</v>
+      </c>
+      <c r="Y238">
+        <v>1.13</v>
+      </c>
+      <c r="Z238">
+        <v>2.16</v>
+      </c>
+      <c r="AA238">
+        <v>6.73</v>
+      </c>
+      <c r="AB238">
+        <v>2.01</v>
+      </c>
+      <c r="AC238">
+        <v>1.03</v>
+      </c>
+      <c r="AD238">
+        <v>15</v>
+      </c>
+      <c r="AE238">
+        <v>1.22</v>
+      </c>
+      <c r="AF238">
+        <v>4.33</v>
+      </c>
+      <c r="AG238">
+        <v>1.65</v>
+      </c>
+      <c r="AH238">
+        <v>2.1</v>
+      </c>
+      <c r="AI238">
+        <v>1.62</v>
+      </c>
+      <c r="AJ238">
+        <v>2.2</v>
+      </c>
+      <c r="AK238">
+        <v>1.28</v>
+      </c>
+      <c r="AL238">
+        <v>1.22</v>
+      </c>
+      <c r="AM238">
+        <v>1.92</v>
+      </c>
+      <c r="AN238">
+        <v>1.88</v>
+      </c>
+      <c r="AO238">
+        <v>0.25</v>
+      </c>
+      <c r="AP238">
+        <v>1.78</v>
+      </c>
+      <c r="AQ238">
+        <v>0.33</v>
+      </c>
+      <c r="AR238">
+        <v>1.75</v>
+      </c>
+      <c r="AS238">
+        <v>1.06</v>
+      </c>
+      <c r="AT238">
+        <v>2.81</v>
+      </c>
+      <c r="AU238">
+        <v>7</v>
+      </c>
+      <c r="AV238">
+        <v>5</v>
+      </c>
+      <c r="AW238">
+        <v>4</v>
+      </c>
+      <c r="AX238">
+        <v>1</v>
+      </c>
+      <c r="AY238">
+        <v>11</v>
+      </c>
+      <c r="AZ238">
+        <v>6</v>
+      </c>
+      <c r="BA238">
+        <v>5</v>
+      </c>
+      <c r="BB238">
+        <v>4</v>
+      </c>
+      <c r="BC238">
+        <v>9</v>
+      </c>
+      <c r="BD238">
+        <v>1.58</v>
+      </c>
+      <c r="BE238">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF238">
+        <v>2.8</v>
+      </c>
+      <c r="BG238">
+        <v>1.14</v>
+      </c>
+      <c r="BH238">
+        <v>4.6</v>
+      </c>
+      <c r="BI238">
+        <v>1.3</v>
+      </c>
+      <c r="BJ238">
+        <v>3.08</v>
+      </c>
+      <c r="BK238">
+        <v>1.61</v>
+      </c>
+      <c r="BL238">
+        <v>2.28</v>
+      </c>
+      <c r="BM238">
+        <v>1.97</v>
+      </c>
+      <c r="BN238">
+        <v>1.83</v>
+      </c>
+      <c r="BO238">
+        <v>2.47</v>
+      </c>
+      <c r="BP238">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="239" spans="1:68">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>7295474</v>
+      </c>
+      <c r="C239" t="s">
+        <v>68</v>
+      </c>
+      <c r="D239" t="s">
+        <v>69</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45451.89583333334</v>
+      </c>
+      <c r="F239">
+        <v>18</v>
+      </c>
+      <c r="G239" t="s">
+        <v>89</v>
+      </c>
+      <c r="H239" t="s">
+        <v>92</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239">
+        <v>1</v>
+      </c>
+      <c r="K239">
+        <v>2</v>
+      </c>
+      <c r="L239">
+        <v>2</v>
+      </c>
+      <c r="M239">
+        <v>1</v>
+      </c>
+      <c r="N239">
+        <v>3</v>
+      </c>
+      <c r="O239" t="s">
+        <v>272</v>
+      </c>
+      <c r="P239" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q239">
+        <v>3.4</v>
+      </c>
+      <c r="R239">
+        <v>2.2</v>
+      </c>
+      <c r="S239">
+        <v>3.1</v>
+      </c>
+      <c r="T239">
+        <v>1.4</v>
+      </c>
+      <c r="U239">
+        <v>2.75</v>
+      </c>
+      <c r="V239">
+        <v>2.75</v>
+      </c>
+      <c r="W239">
+        <v>1.4</v>
+      </c>
+      <c r="X239">
+        <v>8</v>
+      </c>
+      <c r="Y239">
+        <v>1.08</v>
+      </c>
+      <c r="Z239">
+        <v>5.59</v>
+      </c>
+      <c r="AA239">
+        <v>2.96</v>
+      </c>
+      <c r="AB239">
+        <v>1.69</v>
+      </c>
+      <c r="AC239">
+        <v>1.03</v>
+      </c>
+      <c r="AD239">
+        <v>9.5</v>
+      </c>
+      <c r="AE239">
+        <v>1.3</v>
+      </c>
+      <c r="AF239">
+        <v>3.6</v>
+      </c>
+      <c r="AG239">
+        <v>1.98</v>
+      </c>
+      <c r="AH239">
+        <v>1.88</v>
+      </c>
+      <c r="AI239">
+        <v>1.75</v>
+      </c>
+      <c r="AJ239">
+        <v>2</v>
+      </c>
+      <c r="AK239">
+        <v>1.53</v>
+      </c>
+      <c r="AL239">
+        <v>1.28</v>
+      </c>
+      <c r="AM239">
+        <v>1.48</v>
+      </c>
+      <c r="AN239">
+        <v>0.75</v>
+      </c>
+      <c r="AO239">
+        <v>1.11</v>
+      </c>
+      <c r="AP239">
+        <v>1</v>
+      </c>
+      <c r="AQ239">
+        <v>1</v>
+      </c>
+      <c r="AR239">
+        <v>1.43</v>
+      </c>
+      <c r="AS239">
+        <v>1.28</v>
+      </c>
+      <c r="AT239">
+        <v>2.71</v>
+      </c>
+      <c r="AU239">
+        <v>5</v>
+      </c>
+      <c r="AV239">
+        <v>2</v>
+      </c>
+      <c r="AW239">
+        <v>6</v>
+      </c>
+      <c r="AX239">
+        <v>6</v>
+      </c>
+      <c r="AY239">
+        <v>11</v>
+      </c>
+      <c r="AZ239">
+        <v>8</v>
+      </c>
+      <c r="BA239">
+        <v>9</v>
+      </c>
+      <c r="BB239">
+        <v>1</v>
+      </c>
+      <c r="BC239">
+        <v>10</v>
+      </c>
+      <c r="BD239">
+        <v>1.93</v>
+      </c>
+      <c r="BE239">
+        <v>9.1</v>
+      </c>
+      <c r="BF239">
+        <v>2.15</v>
+      </c>
+      <c r="BG239">
+        <v>1.19</v>
+      </c>
+      <c r="BH239">
+        <v>3.92</v>
+      </c>
+      <c r="BI239">
+        <v>1.4</v>
+      </c>
+      <c r="BJ239">
+        <v>2.72</v>
+      </c>
+      <c r="BK239">
+        <v>1.72</v>
+      </c>
+      <c r="BL239">
+        <v>2.1</v>
+      </c>
+      <c r="BM239">
+        <v>2.13</v>
+      </c>
+      <c r="BN239">
+        <v>1.7</v>
+      </c>
+      <c r="BO239">
+        <v>2.79</v>
+      </c>
+      <c r="BP239">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="240" spans="1:68">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>7295476</v>
+      </c>
+      <c r="C240" t="s">
+        <v>68</v>
+      </c>
+      <c r="D240" t="s">
+        <v>69</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45457.90277777778</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240" t="s">
+        <v>94</v>
+      </c>
+      <c r="H240" t="s">
+        <v>71</v>
+      </c>
+      <c r="I240">
+        <v>1</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>1</v>
+      </c>
+      <c r="L240">
+        <v>2</v>
+      </c>
+      <c r="M240">
+        <v>3</v>
+      </c>
+      <c r="N240">
+        <v>5</v>
+      </c>
+      <c r="O240" t="s">
+        <v>273</v>
+      </c>
+      <c r="P240" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q240">
+        <v>2.75</v>
+      </c>
+      <c r="R240">
+        <v>2.3</v>
+      </c>
+      <c r="S240">
+        <v>3.6</v>
+      </c>
+      <c r="T240">
+        <v>1.33</v>
+      </c>
+      <c r="U240">
+        <v>3.25</v>
+      </c>
+      <c r="V240">
+        <v>2.63</v>
+      </c>
+      <c r="W240">
+        <v>1.44</v>
+      </c>
+      <c r="X240">
+        <v>6.5</v>
+      </c>
+      <c r="Y240">
+        <v>1.11</v>
+      </c>
+      <c r="Z240">
+        <v>2.15</v>
+      </c>
+      <c r="AA240">
+        <v>3.6</v>
+      </c>
+      <c r="AB240">
+        <v>3.05</v>
+      </c>
+      <c r="AC240">
+        <v>1.01</v>
+      </c>
+      <c r="AD240">
+        <v>11</v>
+      </c>
+      <c r="AE240">
+        <v>1.2</v>
+      </c>
+      <c r="AF240">
+        <v>3.85</v>
+      </c>
+      <c r="AG240">
+        <v>1.55</v>
+      </c>
+      <c r="AH240">
+        <v>2.3</v>
+      </c>
+      <c r="AI240">
+        <v>1.57</v>
+      </c>
+      <c r="AJ240">
+        <v>2.25</v>
+      </c>
+      <c r="AK240">
+        <v>1.36</v>
+      </c>
+      <c r="AL240">
+        <v>1.25</v>
+      </c>
+      <c r="AM240">
+        <v>1.72</v>
+      </c>
+      <c r="AN240">
+        <v>2.11</v>
+      </c>
+      <c r="AO240">
+        <v>1.71</v>
+      </c>
+      <c r="AP240">
+        <v>1.9</v>
+      </c>
+      <c r="AQ240">
+        <v>1.88</v>
+      </c>
+      <c r="AR240">
+        <v>1.72</v>
+      </c>
+      <c r="AS240">
+        <v>1.15</v>
+      </c>
+      <c r="AT240">
+        <v>2.87</v>
+      </c>
+      <c r="AU240">
+        <v>7</v>
+      </c>
+      <c r="AV240">
+        <v>13</v>
+      </c>
+      <c r="AW240">
+        <v>6</v>
+      </c>
+      <c r="AX240">
+        <v>3</v>
+      </c>
+      <c r="AY240">
+        <v>13</v>
+      </c>
+      <c r="AZ240">
+        <v>16</v>
+      </c>
+      <c r="BA240">
+        <v>3</v>
+      </c>
+      <c r="BB240">
+        <v>4</v>
+      </c>
+      <c r="BC240">
+        <v>7</v>
+      </c>
+      <c r="BD240">
+        <v>2.08</v>
+      </c>
+      <c r="BE240">
+        <v>5.8</v>
+      </c>
+      <c r="BF240">
+        <v>1.84</v>
+      </c>
+      <c r="BG240">
+        <v>1.41</v>
+      </c>
+      <c r="BH240">
+        <v>2.65</v>
+      </c>
+      <c r="BI240">
+        <v>1.7</v>
+      </c>
+      <c r="BJ240">
+        <v>2.05</v>
+      </c>
+      <c r="BK240">
+        <v>2.05</v>
+      </c>
+      <c r="BL240">
+        <v>1.7</v>
+      </c>
+      <c r="BM240">
+        <v>2.7</v>
+      </c>
+      <c r="BN240">
+        <v>1.38</v>
+      </c>
+      <c r="BO240">
+        <v>3.65</v>
+      </c>
+      <c r="BP240">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="241" spans="1:68">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>7295481</v>
+      </c>
+      <c r="C241" t="s">
+        <v>68</v>
+      </c>
+      <c r="D241" t="s">
+        <v>69</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45458.85416666666</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241" t="s">
+        <v>97</v>
+      </c>
+      <c r="H241" t="s">
+        <v>83</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <v>0</v>
+      </c>
+      <c r="M241">
+        <v>0</v>
+      </c>
+      <c r="N241">
+        <v>0</v>
+      </c>
+      <c r="O241" t="s">
+        <v>104</v>
+      </c>
+      <c r="P241" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q241">
+        <v>2.38</v>
+      </c>
+      <c r="R241">
+        <v>2.2</v>
+      </c>
+      <c r="S241">
+        <v>5</v>
+      </c>
+      <c r="T241">
+        <v>1.4</v>
+      </c>
+      <c r="U241">
+        <v>2.75</v>
+      </c>
+      <c r="V241">
+        <v>3</v>
+      </c>
+      <c r="W241">
+        <v>1.36</v>
+      </c>
+      <c r="X241">
+        <v>8</v>
+      </c>
+      <c r="Y241">
+        <v>1.08</v>
+      </c>
+      <c r="Z241">
+        <v>1.68</v>
+      </c>
+      <c r="AA241">
+        <v>3.7</v>
+      </c>
+      <c r="AB241">
+        <v>4.25</v>
+      </c>
+      <c r="AC241">
+        <v>1.02</v>
+      </c>
+      <c r="AD241">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE241">
+        <v>1.28</v>
+      </c>
+      <c r="AF241">
+        <v>3.18</v>
+      </c>
+      <c r="AG241">
+        <v>1.9</v>
+      </c>
+      <c r="AH241">
+        <v>1.79</v>
+      </c>
+      <c r="AI241">
+        <v>1.91</v>
+      </c>
+      <c r="AJ241">
+        <v>1.91</v>
+      </c>
+      <c r="AK241">
+        <v>1.19</v>
+      </c>
+      <c r="AL241">
+        <v>1.24</v>
+      </c>
+      <c r="AM241">
+        <v>2.1</v>
+      </c>
+      <c r="AN241">
+        <v>2.43</v>
+      </c>
+      <c r="AO241">
+        <v>0.83</v>
+      </c>
+      <c r="AP241">
+        <v>2.25</v>
+      </c>
+      <c r="AQ241">
+        <v>0.86</v>
+      </c>
+      <c r="AR241">
+        <v>1.68</v>
+      </c>
+      <c r="AS241">
+        <v>0.99</v>
+      </c>
+      <c r="AT241">
+        <v>2.67</v>
+      </c>
+      <c r="AU241">
+        <v>7</v>
+      </c>
+      <c r="AV241">
+        <v>0</v>
+      </c>
+      <c r="AW241">
+        <v>5</v>
+      </c>
+      <c r="AX241">
+        <v>5</v>
+      </c>
+      <c r="AY241">
+        <v>12</v>
+      </c>
+      <c r="AZ241">
+        <v>5</v>
+      </c>
+      <c r="BA241">
+        <v>8</v>
+      </c>
+      <c r="BB241">
+        <v>2</v>
+      </c>
+      <c r="BC241">
+        <v>10</v>
+      </c>
+      <c r="BD241">
+        <v>1.55</v>
+      </c>
+      <c r="BE241">
+        <v>8</v>
+      </c>
+      <c r="BF241">
+        <v>2.95</v>
+      </c>
+      <c r="BG241">
+        <v>1.31</v>
+      </c>
+      <c r="BH241">
+        <v>3.04</v>
+      </c>
+      <c r="BI241">
+        <v>1.62</v>
+      </c>
+      <c r="BJ241">
+        <v>2.25</v>
+      </c>
+      <c r="BK241">
+        <v>1.95</v>
+      </c>
+      <c r="BL241">
+        <v>1.75</v>
+      </c>
+      <c r="BM241">
+        <v>2.56</v>
+      </c>
+      <c r="BN241">
+        <v>1.49</v>
+      </c>
+      <c r="BO241">
+        <v>3.56</v>
+      </c>
+      <c r="BP241">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="242" spans="1:68">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>7295484</v>
+      </c>
+      <c r="C242" t="s">
+        <v>68</v>
+      </c>
+      <c r="D242" t="s">
+        <v>69</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45458.85416666666</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242" t="s">
+        <v>95</v>
+      </c>
+      <c r="H242" t="s">
+        <v>88</v>
+      </c>
+      <c r="I242">
+        <v>1</v>
+      </c>
+      <c r="J242">
+        <v>1</v>
+      </c>
+      <c r="K242">
+        <v>2</v>
+      </c>
+      <c r="L242">
+        <v>1</v>
+      </c>
+      <c r="M242">
+        <v>4</v>
+      </c>
+      <c r="N242">
+        <v>5</v>
+      </c>
+      <c r="O242" t="s">
+        <v>274</v>
+      </c>
+      <c r="P242" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q242">
+        <v>2.4</v>
+      </c>
+      <c r="R242">
+        <v>2.3</v>
+      </c>
+      <c r="S242">
+        <v>4.33</v>
+      </c>
+      <c r="T242">
+        <v>1.33</v>
+      </c>
+      <c r="U242">
+        <v>3.25</v>
+      </c>
+      <c r="V242">
+        <v>2.63</v>
+      </c>
+      <c r="W242">
+        <v>1.44</v>
+      </c>
+      <c r="X242">
+        <v>6.5</v>
+      </c>
+      <c r="Y242">
+        <v>1.11</v>
+      </c>
+      <c r="Z242">
+        <v>1.76</v>
+      </c>
+      <c r="AA242">
+        <v>3.65</v>
+      </c>
+      <c r="AB242">
+        <v>3.9</v>
+      </c>
+      <c r="AC242">
+        <v>1.03</v>
+      </c>
+      <c r="AD242">
+        <v>10.5</v>
+      </c>
+      <c r="AE242">
+        <v>1.21</v>
+      </c>
+      <c r="AF242">
+        <v>3.75</v>
+      </c>
+      <c r="AG242">
+        <v>1.7</v>
+      </c>
+      <c r="AH242">
+        <v>2</v>
+      </c>
+      <c r="AI242">
+        <v>1.7</v>
+      </c>
+      <c r="AJ242">
+        <v>2.05</v>
+      </c>
+      <c r="AK242">
+        <v>1.26</v>
+      </c>
+      <c r="AL242">
+        <v>1.22</v>
+      </c>
+      <c r="AM242">
+        <v>1.98</v>
+      </c>
+      <c r="AN242">
+        <v>1.88</v>
+      </c>
+      <c r="AO242">
+        <v>0.57</v>
+      </c>
+      <c r="AP242">
+        <v>1.67</v>
+      </c>
+      <c r="AQ242">
+        <v>0.88</v>
+      </c>
+      <c r="AR242">
+        <v>1.43</v>
+      </c>
+      <c r="AS242">
+        <v>1.01</v>
+      </c>
+      <c r="AT242">
+        <v>2.44</v>
+      </c>
+      <c r="AU242">
+        <v>7</v>
+      </c>
+      <c r="AV242">
+        <v>9</v>
+      </c>
+      <c r="AW242">
+        <v>4</v>
+      </c>
+      <c r="AX242">
+        <v>3</v>
+      </c>
+      <c r="AY242">
+        <v>11</v>
+      </c>
+      <c r="AZ242">
+        <v>12</v>
+      </c>
+      <c r="BA242">
+        <v>5</v>
+      </c>
+      <c r="BB242">
+        <v>5</v>
+      </c>
+      <c r="BC242">
+        <v>10</v>
+      </c>
+      <c r="BD242">
+        <v>1.62</v>
+      </c>
+      <c r="BE242">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF242">
+        <v>2.7</v>
+      </c>
+      <c r="BG242">
+        <v>1.18</v>
+      </c>
+      <c r="BH242">
+        <v>4.1</v>
+      </c>
+      <c r="BI242">
+        <v>1.36</v>
+      </c>
+      <c r="BJ242">
+        <v>2.79</v>
+      </c>
+      <c r="BK242">
+        <v>1.77</v>
+      </c>
+      <c r="BL242">
+        <v>1.95</v>
+      </c>
+      <c r="BM242">
+        <v>2.1</v>
+      </c>
+      <c r="BN242">
+        <v>1.72</v>
+      </c>
+      <c r="BO242">
+        <v>2.72</v>
+      </c>
+      <c r="BP242">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:68">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>7295483</v>
+      </c>
+      <c r="C243" t="s">
+        <v>68</v>
+      </c>
+      <c r="D243" t="s">
+        <v>69</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45458.85416666666</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243" t="s">
+        <v>76</v>
+      </c>
+      <c r="H243" t="s">
+        <v>70</v>
+      </c>
+      <c r="I243">
+        <v>1</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>1</v>
+      </c>
+      <c r="L243">
+        <v>1</v>
+      </c>
+      <c r="M243">
+        <v>2</v>
+      </c>
+      <c r="N243">
+        <v>3</v>
+      </c>
+      <c r="O243" t="s">
+        <v>173</v>
+      </c>
+      <c r="P243" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q243">
+        <v>2.38</v>
+      </c>
+      <c r="R243">
+        <v>2.5</v>
+      </c>
+      <c r="S243">
+        <v>4</v>
+      </c>
+      <c r="T243">
+        <v>1.25</v>
+      </c>
+      <c r="U243">
+        <v>3.75</v>
+      </c>
+      <c r="V243">
+        <v>2.2</v>
+      </c>
+      <c r="W243">
+        <v>1.62</v>
+      </c>
+      <c r="X243">
+        <v>5</v>
+      </c>
+      <c r="Y243">
+        <v>1.17</v>
+      </c>
+      <c r="Z243">
+        <v>1.76</v>
+      </c>
+      <c r="AA243">
+        <v>3.95</v>
+      </c>
+      <c r="AB243">
+        <v>3.6</v>
+      </c>
+      <c r="AC243">
+        <v>1.01</v>
+      </c>
+      <c r="AD243">
+        <v>21</v>
+      </c>
+      <c r="AE243">
+        <v>1.16</v>
+      </c>
+      <c r="AF243">
+        <v>5.5</v>
+      </c>
+      <c r="AG243">
+        <v>1.45</v>
+      </c>
+      <c r="AH243">
+        <v>2.55</v>
+      </c>
+      <c r="AI243">
+        <v>1.5</v>
+      </c>
+      <c r="AJ243">
+        <v>2.5</v>
+      </c>
+      <c r="AK243">
+        <v>1.3</v>
+      </c>
+      <c r="AL243">
+        <v>1.2</v>
+      </c>
+      <c r="AM243">
+        <v>1.95</v>
+      </c>
+      <c r="AN243">
+        <v>0.75</v>
+      </c>
+      <c r="AO243">
+        <v>2.13</v>
+      </c>
+      <c r="AP243">
+        <v>0.67</v>
+      </c>
+      <c r="AQ243">
+        <v>2.22</v>
+      </c>
+      <c r="AR243">
+        <v>1.76</v>
+      </c>
+      <c r="AS243">
+        <v>1.31</v>
+      </c>
+      <c r="AT243">
+        <v>3.07</v>
+      </c>
+      <c r="AU243">
+        <v>4</v>
+      </c>
+      <c r="AV243">
+        <v>5</v>
+      </c>
+      <c r="AW243">
+        <v>9</v>
+      </c>
+      <c r="AX243">
+        <v>5</v>
+      </c>
+      <c r="AY243">
+        <v>13</v>
+      </c>
+      <c r="AZ243">
+        <v>10</v>
+      </c>
+      <c r="BA243">
+        <v>6</v>
+      </c>
+      <c r="BB243">
+        <v>3</v>
+      </c>
+      <c r="BC243">
+        <v>9</v>
+      </c>
+      <c r="BD243">
+        <v>1.6</v>
+      </c>
+      <c r="BE243">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF243">
+        <v>2.75</v>
+      </c>
+      <c r="BG243">
+        <v>1.31</v>
+      </c>
+      <c r="BH243">
+        <v>3.04</v>
+      </c>
+      <c r="BI243">
+        <v>1.7</v>
+      </c>
+      <c r="BJ243">
+        <v>2.05</v>
+      </c>
+      <c r="BK243">
+        <v>2.02</v>
+      </c>
+      <c r="BL243">
+        <v>1.78</v>
+      </c>
+      <c r="BM243">
+        <v>2.44</v>
+      </c>
+      <c r="BN243">
+        <v>1.54</v>
+      </c>
+      <c r="BO243">
+        <v>3.64</v>
+      </c>
+      <c r="BP243">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="244" spans="1:68">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>7295480</v>
+      </c>
+      <c r="C244" t="s">
+        <v>68</v>
+      </c>
+      <c r="D244" t="s">
+        <v>69</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45458.85416666666</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244" t="s">
+        <v>93</v>
+      </c>
+      <c r="H244" t="s">
+        <v>87</v>
+      </c>
+      <c r="I244">
+        <v>3</v>
+      </c>
+      <c r="J244">
+        <v>1</v>
+      </c>
+      <c r="K244">
+        <v>4</v>
+      </c>
+      <c r="L244">
+        <v>3</v>
+      </c>
+      <c r="M244">
+        <v>2</v>
+      </c>
+      <c r="N244">
+        <v>5</v>
+      </c>
+      <c r="O244" t="s">
+        <v>275</v>
+      </c>
+      <c r="P244" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q244">
+        <v>3</v>
+      </c>
+      <c r="R244">
+        <v>2.3</v>
+      </c>
+      <c r="S244">
+        <v>3.2</v>
+      </c>
+      <c r="T244">
+        <v>1.3</v>
+      </c>
+      <c r="U244">
+        <v>3.4</v>
+      </c>
+      <c r="V244">
+        <v>2.5</v>
+      </c>
+      <c r="W244">
+        <v>1.5</v>
+      </c>
+      <c r="X244">
+        <v>6</v>
+      </c>
+      <c r="Y244">
+        <v>1.13</v>
+      </c>
+      <c r="Z244">
+        <v>2.2</v>
+      </c>
+      <c r="AA244">
+        <v>3.5</v>
+      </c>
+      <c r="AB244">
+        <v>2.8</v>
+      </c>
+      <c r="AC244">
+        <v>1.03</v>
+      </c>
+      <c r="AD244">
+        <v>13</v>
+      </c>
+      <c r="AE244">
+        <v>1.22</v>
+      </c>
+      <c r="AF244">
+        <v>4.33</v>
+      </c>
+      <c r="AG244">
+        <v>1.65</v>
+      </c>
+      <c r="AH244">
+        <v>2.08</v>
+      </c>
+      <c r="AI244">
+        <v>1.53</v>
+      </c>
+      <c r="AJ244">
+        <v>2.38</v>
+      </c>
+      <c r="AK244">
+        <v>1.47</v>
+      </c>
+      <c r="AL244">
+        <v>1.26</v>
+      </c>
+      <c r="AM244">
+        <v>1.57</v>
+      </c>
+      <c r="AN244">
+        <v>0.88</v>
+      </c>
+      <c r="AO244">
+        <v>1.75</v>
+      </c>
+      <c r="AP244">
+        <v>1.11</v>
+      </c>
+      <c r="AQ244">
+        <v>1.56</v>
+      </c>
+      <c r="AR244">
+        <v>1.34</v>
+      </c>
+      <c r="AS244">
+        <v>1.13</v>
+      </c>
+      <c r="AT244">
+        <v>2.47</v>
+      </c>
+      <c r="AU244">
+        <v>8</v>
+      </c>
+      <c r="AV244">
+        <v>9</v>
+      </c>
+      <c r="AW244">
+        <v>7</v>
+      </c>
+      <c r="AX244">
+        <v>5</v>
+      </c>
+      <c r="AY244">
+        <v>15</v>
+      </c>
+      <c r="AZ244">
+        <v>14</v>
+      </c>
+      <c r="BA244">
+        <v>3</v>
+      </c>
+      <c r="BB244">
+        <v>4</v>
+      </c>
+      <c r="BC244">
+        <v>7</v>
+      </c>
+      <c r="BD244">
+        <v>1.8</v>
+      </c>
+      <c r="BE244">
+        <v>7.8</v>
+      </c>
+      <c r="BF244">
+        <v>2.35</v>
+      </c>
+      <c r="BG244">
+        <v>1.23</v>
+      </c>
+      <c r="BH244">
+        <v>3.56</v>
+      </c>
+      <c r="BI244">
+        <v>1.46</v>
+      </c>
+      <c r="BJ244">
+        <v>2.52</v>
+      </c>
+      <c r="BK244">
+        <v>1.85</v>
+      </c>
+      <c r="BL244">
+        <v>1.85</v>
+      </c>
+      <c r="BM244">
+        <v>2.2</v>
+      </c>
+      <c r="BN244">
+        <v>1.66</v>
+      </c>
+      <c r="BO244">
+        <v>3.04</v>
+      </c>
+      <c r="BP244">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="245" spans="1:68">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>7295482</v>
+      </c>
+      <c r="C245" t="s">
+        <v>68</v>
+      </c>
+      <c r="D245" t="s">
+        <v>69</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45458.85416666666</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245" t="s">
+        <v>75</v>
+      </c>
+      <c r="H245" t="s">
+        <v>72</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>1</v>
+      </c>
+      <c r="K245">
+        <v>1</v>
+      </c>
+      <c r="L245">
+        <v>1</v>
+      </c>
+      <c r="M245">
+        <v>3</v>
+      </c>
+      <c r="N245">
+        <v>4</v>
+      </c>
+      <c r="O245" t="s">
+        <v>258</v>
+      </c>
+      <c r="P245" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q245">
+        <v>3.1</v>
+      </c>
+      <c r="R245">
+        <v>2.25</v>
+      </c>
+      <c r="S245">
+        <v>3.1</v>
+      </c>
+      <c r="T245">
+        <v>1.33</v>
+      </c>
+      <c r="U245">
+        <v>3.25</v>
+      </c>
+      <c r="V245">
+        <v>2.63</v>
+      </c>
+      <c r="W245">
+        <v>1.44</v>
+      </c>
+      <c r="X245">
+        <v>6.5</v>
+      </c>
+      <c r="Y245">
+        <v>1.11</v>
+      </c>
+      <c r="Z245">
+        <v>2.6</v>
+      </c>
+      <c r="AA245">
+        <v>3.45</v>
+      </c>
+      <c r="AB245">
+        <v>2.35</v>
+      </c>
+      <c r="AC245">
+        <v>1.04</v>
+      </c>
+      <c r="AD245">
+        <v>13</v>
+      </c>
+      <c r="AE245">
+        <v>1.26</v>
+      </c>
+      <c r="AF245">
+        <v>4</v>
+      </c>
+      <c r="AG245">
+        <v>1.72</v>
+      </c>
+      <c r="AH245">
+        <v>1.98</v>
+      </c>
+      <c r="AI245">
+        <v>1.62</v>
+      </c>
+      <c r="AJ245">
+        <v>2.2</v>
+      </c>
+      <c r="AK245">
+        <v>1.52</v>
+      </c>
+      <c r="AL245">
+        <v>1.25</v>
+      </c>
+      <c r="AM245">
+        <v>1.53</v>
+      </c>
+      <c r="AN245">
+        <v>0.75</v>
+      </c>
+      <c r="AO245">
+        <v>1</v>
+      </c>
+      <c r="AP245">
+        <v>0.67</v>
+      </c>
+      <c r="AQ245">
+        <v>1.25</v>
+      </c>
+      <c r="AR245">
+        <v>1.44</v>
+      </c>
+      <c r="AS245">
+        <v>1.5</v>
+      </c>
+      <c r="AT245">
+        <v>2.94</v>
+      </c>
+      <c r="AU245">
+        <v>2</v>
+      </c>
+      <c r="AV245">
+        <v>8</v>
+      </c>
+      <c r="AW245">
+        <v>10</v>
+      </c>
+      <c r="AX245">
+        <v>5</v>
+      </c>
+      <c r="AY245">
+        <v>12</v>
+      </c>
+      <c r="AZ245">
+        <v>13</v>
+      </c>
+      <c r="BA245">
+        <v>9</v>
+      </c>
+      <c r="BB245">
+        <v>1</v>
+      </c>
+      <c r="BC245">
+        <v>10</v>
+      </c>
+      <c r="BD245">
+        <v>1.8</v>
+      </c>
+      <c r="BE245">
+        <v>6.5</v>
+      </c>
+      <c r="BF245">
+        <v>2.55</v>
+      </c>
+      <c r="BG245">
+        <v>1.24</v>
+      </c>
+      <c r="BH245">
+        <v>3.75</v>
+      </c>
+      <c r="BI245">
+        <v>1.44</v>
+      </c>
+      <c r="BJ245">
+        <v>2.65</v>
+      </c>
+      <c r="BK245">
+        <v>1.75</v>
+      </c>
+      <c r="BL245">
+        <v>1.95</v>
+      </c>
+      <c r="BM245">
+        <v>2.15</v>
+      </c>
+      <c r="BN245">
+        <v>1.65</v>
+      </c>
+      <c r="BO245">
+        <v>2.8</v>
+      </c>
+      <c r="BP245">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:68">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>7295478</v>
+      </c>
+      <c r="C246" t="s">
+        <v>68</v>
+      </c>
+      <c r="D246" t="s">
+        <v>69</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45458.85416666666</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246" t="s">
+        <v>73</v>
+      </c>
+      <c r="H246" t="s">
+        <v>74</v>
+      </c>
+      <c r="I246">
+        <v>1</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>1</v>
+      </c>
+      <c r="L246">
+        <v>1</v>
+      </c>
+      <c r="M246">
+        <v>0</v>
+      </c>
+      <c r="N246">
+        <v>1</v>
+      </c>
+      <c r="O246" t="s">
+        <v>276</v>
+      </c>
+      <c r="P246" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q246">
+        <v>2.63</v>
+      </c>
+      <c r="R246">
+        <v>2.3</v>
+      </c>
+      <c r="S246">
+        <v>3.75</v>
+      </c>
+      <c r="T246">
+        <v>1.3</v>
+      </c>
+      <c r="U246">
+        <v>3.4</v>
+      </c>
+      <c r="V246">
+        <v>2.5</v>
+      </c>
+      <c r="W246">
+        <v>1.5</v>
+      </c>
+      <c r="X246">
+        <v>6</v>
+      </c>
+      <c r="Y246">
+        <v>1.13</v>
+      </c>
+      <c r="Z246">
+        <v>1.96</v>
+      </c>
+      <c r="AA246">
+        <v>3.7</v>
+      </c>
+      <c r="AB246">
+        <v>3.15</v>
+      </c>
+      <c r="AC246">
+        <v>1.03</v>
+      </c>
+      <c r="AD246">
+        <v>15</v>
+      </c>
+      <c r="AE246">
+        <v>1.22</v>
+      </c>
+      <c r="AF246">
+        <v>4.33</v>
+      </c>
+      <c r="AG246">
+        <v>1.7</v>
+      </c>
+      <c r="AH246">
+        <v>2.03</v>
+      </c>
+      <c r="AI246">
+        <v>1.57</v>
+      </c>
+      <c r="AJ246">
+        <v>2.25</v>
+      </c>
+      <c r="AK246">
+        <v>1.32</v>
+      </c>
+      <c r="AL246">
+        <v>1.24</v>
+      </c>
+      <c r="AM246">
+        <v>1.8</v>
+      </c>
+      <c r="AN246">
+        <v>2</v>
+      </c>
+      <c r="AO246">
+        <v>0.88</v>
+      </c>
+      <c r="AP246">
+        <v>2.1</v>
+      </c>
+      <c r="AQ246">
+        <v>0.78</v>
+      </c>
+      <c r="AR246">
+        <v>1.15</v>
+      </c>
+      <c r="AS246">
+        <v>1.38</v>
+      </c>
+      <c r="AT246">
+        <v>2.53</v>
+      </c>
+      <c r="AU246">
+        <v>3</v>
+      </c>
+      <c r="AV246">
+        <v>2</v>
+      </c>
+      <c r="AW246">
+        <v>8</v>
+      </c>
+      <c r="AX246">
+        <v>2</v>
+      </c>
+      <c r="AY246">
+        <v>11</v>
+      </c>
+      <c r="AZ246">
+        <v>4</v>
+      </c>
+      <c r="BA246">
+        <v>6</v>
+      </c>
+      <c r="BB246">
+        <v>5</v>
+      </c>
+      <c r="BC246">
+        <v>11</v>
+      </c>
+      <c r="BD246">
+        <v>1.6</v>
+      </c>
+      <c r="BE246">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF246">
+        <v>2.75</v>
+      </c>
+      <c r="BG246">
+        <v>1.23</v>
+      </c>
+      <c r="BH246">
+        <v>3.56</v>
+      </c>
+      <c r="BI246">
+        <v>1.5</v>
+      </c>
+      <c r="BJ246">
+        <v>2.54</v>
+      </c>
+      <c r="BK246">
+        <v>1.95</v>
+      </c>
+      <c r="BL246">
+        <v>1.77</v>
+      </c>
+      <c r="BM246">
+        <v>2.25</v>
+      </c>
+      <c r="BN246">
+        <v>1.62</v>
+      </c>
+      <c r="BO246">
+        <v>3.04</v>
+      </c>
+      <c r="BP246">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="247" spans="1:68">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>7295477</v>
+      </c>
+      <c r="C247" t="s">
+        <v>68</v>
+      </c>
+      <c r="D247" t="s">
+        <v>69</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45458.85416666666</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247" t="s">
+        <v>96</v>
+      </c>
+      <c r="H247" t="s">
+        <v>79</v>
+      </c>
+      <c r="I247">
+        <v>1</v>
+      </c>
+      <c r="J247">
+        <v>1</v>
+      </c>
+      <c r="K247">
+        <v>2</v>
+      </c>
+      <c r="L247">
+        <v>2</v>
+      </c>
+      <c r="M247">
+        <v>2</v>
+      </c>
+      <c r="N247">
+        <v>4</v>
+      </c>
+      <c r="O247" t="s">
+        <v>277</v>
+      </c>
+      <c r="P247" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q247">
+        <v>2.63</v>
+      </c>
+      <c r="R247">
+        <v>2.3</v>
+      </c>
+      <c r="S247">
+        <v>3.75</v>
+      </c>
+      <c r="T247">
+        <v>1.3</v>
+      </c>
+      <c r="U247">
+        <v>3.4</v>
+      </c>
+      <c r="V247">
+        <v>2.5</v>
+      </c>
+      <c r="W247">
+        <v>1.5</v>
+      </c>
+      <c r="X247">
+        <v>6</v>
+      </c>
+      <c r="Y247">
+        <v>1.13</v>
+      </c>
+      <c r="Z247">
+        <v>1.94</v>
+      </c>
+      <c r="AA247">
+        <v>3.65</v>
+      </c>
+      <c r="AB247">
+        <v>3.25</v>
+      </c>
+      <c r="AC247">
+        <v>1.03</v>
+      </c>
+      <c r="AD247">
+        <v>15</v>
+      </c>
+      <c r="AE247">
+        <v>1.22</v>
+      </c>
+      <c r="AF247">
+        <v>4.33</v>
+      </c>
+      <c r="AG247">
+        <v>1.57</v>
+      </c>
+      <c r="AH247">
+        <v>2.23</v>
+      </c>
+      <c r="AI247">
+        <v>1.57</v>
+      </c>
+      <c r="AJ247">
+        <v>2.25</v>
+      </c>
+      <c r="AK247">
+        <v>1.33</v>
+      </c>
+      <c r="AL247">
+        <v>1.24</v>
+      </c>
+      <c r="AM247">
+        <v>1.78</v>
+      </c>
+      <c r="AN247">
+        <v>1.11</v>
+      </c>
+      <c r="AO247">
+        <v>1.25</v>
+      </c>
+      <c r="AP247">
+        <v>1.1</v>
+      </c>
+      <c r="AQ247">
+        <v>1.22</v>
+      </c>
+      <c r="AR247">
+        <v>1.66</v>
+      </c>
+      <c r="AS247">
+        <v>1.11</v>
+      </c>
+      <c r="AT247">
+        <v>2.77</v>
+      </c>
+      <c r="AU247">
+        <v>6</v>
+      </c>
+      <c r="AV247">
+        <v>10</v>
+      </c>
+      <c r="AW247">
+        <v>5</v>
+      </c>
+      <c r="AX247">
+        <v>7</v>
+      </c>
+      <c r="AY247">
+        <v>11</v>
+      </c>
+      <c r="AZ247">
+        <v>17</v>
+      </c>
+      <c r="BA247">
+        <v>4</v>
+      </c>
+      <c r="BB247">
+        <v>6</v>
+      </c>
+      <c r="BC247">
+        <v>10</v>
+      </c>
+      <c r="BD247">
+        <v>1.37</v>
+      </c>
+      <c r="BE247">
+        <v>8.5</v>
+      </c>
+      <c r="BF247">
+        <v>3.8</v>
+      </c>
+      <c r="BG247">
+        <v>1.19</v>
+      </c>
+      <c r="BH247">
+        <v>4</v>
+      </c>
+      <c r="BI247">
+        <v>1.37</v>
+      </c>
+      <c r="BJ247">
+        <v>2.75</v>
+      </c>
+      <c r="BK247">
+        <v>1.8</v>
+      </c>
+      <c r="BL247">
+        <v>1.91</v>
+      </c>
+      <c r="BM247">
+        <v>2.11</v>
+      </c>
+      <c r="BN247">
+        <v>1.71</v>
+      </c>
+      <c r="BO247">
+        <v>2.76</v>
+      </c>
+      <c r="BP247">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="248" spans="1:68">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>7295479</v>
+      </c>
+      <c r="C248" t="s">
+        <v>68</v>
+      </c>
+      <c r="D248" t="s">
+        <v>69</v>
+      </c>
+      <c r="E248" s="2">
+        <v>45458.85416666666</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248" t="s">
+        <v>98</v>
+      </c>
+      <c r="H248" t="s">
+        <v>86</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <v>0</v>
+      </c>
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248">
+        <v>0</v>
+      </c>
+      <c r="O248" t="s">
+        <v>104</v>
+      </c>
+      <c r="P248" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q248">
+        <v>3.75</v>
+      </c>
+      <c r="R248">
+        <v>2.4</v>
+      </c>
+      <c r="S248">
+        <v>2.6</v>
+      </c>
+      <c r="T248">
+        <v>1.29</v>
+      </c>
+      <c r="U248">
+        <v>3.5</v>
+      </c>
+      <c r="V248">
+        <v>2.25</v>
+      </c>
+      <c r="W248">
+        <v>1.57</v>
+      </c>
+      <c r="X248">
+        <v>5.5</v>
+      </c>
+      <c r="Y248">
+        <v>1.14</v>
+      </c>
+      <c r="Z248">
+        <v>2.88</v>
+      </c>
+      <c r="AA248">
+        <v>3.55</v>
+      </c>
+      <c r="AB248">
+        <v>2.12</v>
+      </c>
+      <c r="AC248">
+        <v>1.03</v>
+      </c>
+      <c r="AD248">
+        <v>17</v>
+      </c>
+      <c r="AE248">
+        <v>1.19</v>
+      </c>
+      <c r="AF248">
+        <v>4.75</v>
+      </c>
+      <c r="AG248">
+        <v>1.68</v>
+      </c>
+      <c r="AH248">
+        <v>2.05</v>
+      </c>
+      <c r="AI248">
+        <v>1.5</v>
+      </c>
+      <c r="AJ248">
+        <v>2.5</v>
+      </c>
+      <c r="AK248">
+        <v>1.77</v>
+      </c>
+      <c r="AL248">
+        <v>1.22</v>
+      </c>
+      <c r="AM248">
+        <v>1.3</v>
+      </c>
+      <c r="AN248">
+        <v>1.33</v>
+      </c>
+      <c r="AO248">
+        <v>1.56</v>
+      </c>
+      <c r="AP248">
+        <v>1.29</v>
+      </c>
+      <c r="AQ248">
+        <v>1.5</v>
+      </c>
+      <c r="AR248">
+        <v>1.25</v>
+      </c>
+      <c r="AS248">
+        <v>1.55</v>
+      </c>
+      <c r="AT248">
+        <v>2.8</v>
+      </c>
+      <c r="AU248">
+        <v>3</v>
+      </c>
+      <c r="AV248">
+        <v>7</v>
+      </c>
+      <c r="AW248">
+        <v>6</v>
+      </c>
+      <c r="AX248">
+        <v>7</v>
+      </c>
+      <c r="AY248">
+        <v>9</v>
+      </c>
+      <c r="AZ248">
+        <v>14</v>
+      </c>
+      <c r="BA248">
+        <v>0</v>
+      </c>
+      <c r="BB248">
+        <v>7</v>
+      </c>
+      <c r="BC248">
+        <v>7</v>
+      </c>
+      <c r="BD248">
+        <v>2.55</v>
+      </c>
+      <c r="BE248">
+        <v>6.5</v>
+      </c>
+      <c r="BF248">
+        <v>1.8</v>
+      </c>
+      <c r="BG248">
+        <v>1.3</v>
+      </c>
+      <c r="BH248">
+        <v>3.3</v>
+      </c>
+      <c r="BI248">
+        <v>1.53</v>
+      </c>
+      <c r="BJ248">
+        <v>2.4</v>
+      </c>
+      <c r="BK248">
+        <v>1.85</v>
+      </c>
+      <c r="BL248">
+        <v>1.85</v>
+      </c>
+      <c r="BM248">
+        <v>2.35</v>
+      </c>
+      <c r="BN248">
+        <v>1.55</v>
+      </c>
+      <c r="BO248">
+        <v>3.1</v>
+      </c>
+      <c r="BP248">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="249" spans="1:68">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>7295485</v>
+      </c>
+      <c r="C249" t="s">
+        <v>68</v>
+      </c>
+      <c r="D249" t="s">
+        <v>69</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45458.89583333334</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="G249" t="s">
+        <v>78</v>
+      </c>
+      <c r="H249" t="s">
+        <v>80</v>
+      </c>
+      <c r="I249">
+        <v>1</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>1</v>
+      </c>
+      <c r="L249">
+        <v>2</v>
+      </c>
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249">
+        <v>2</v>
+      </c>
+      <c r="O249" t="s">
+        <v>278</v>
+      </c>
+      <c r="P249" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q249">
+        <v>2.88</v>
+      </c>
+      <c r="R249">
+        <v>2.25</v>
+      </c>
+      <c r="S249">
+        <v>3.4</v>
+      </c>
+      <c r="T249">
+        <v>1.33</v>
+      </c>
+      <c r="U249">
+        <v>3.25</v>
+      </c>
+      <c r="V249">
+        <v>2.63</v>
+      </c>
+      <c r="W249">
+        <v>1.44</v>
+      </c>
+      <c r="X249">
+        <v>7</v>
+      </c>
+      <c r="Y249">
+        <v>1.1</v>
+      </c>
+      <c r="Z249">
+        <v>2.23</v>
+      </c>
+      <c r="AA249">
+        <v>3.5</v>
+      </c>
+      <c r="AB249">
+        <v>2.75</v>
+      </c>
+      <c r="AC249">
+        <v>1.04</v>
+      </c>
+      <c r="AD249">
+        <v>13</v>
+      </c>
+      <c r="AE249">
+        <v>1.26</v>
+      </c>
+      <c r="AF249">
+        <v>4</v>
+      </c>
+      <c r="AG249">
+        <v>1.68</v>
+      </c>
+      <c r="AH249">
+        <v>2.02</v>
+      </c>
+      <c r="AI249">
+        <v>1.62</v>
+      </c>
+      <c r="AJ249">
+        <v>2.2</v>
+      </c>
+      <c r="AK249">
+        <v>1.4</v>
+      </c>
+      <c r="AL249">
+        <v>1.26</v>
+      </c>
+      <c r="AM249">
+        <v>1.65</v>
+      </c>
+      <c r="AN249">
+        <v>1.57</v>
+      </c>
+      <c r="AO249">
+        <v>0.71</v>
+      </c>
+      <c r="AP249">
+        <v>1.75</v>
+      </c>
+      <c r="AQ249">
+        <v>0.63</v>
+      </c>
+      <c r="AR249">
+        <v>1.59</v>
+      </c>
+      <c r="AS249">
+        <v>1.48</v>
+      </c>
+      <c r="AT249">
+        <v>3.07</v>
+      </c>
+      <c r="AU249">
+        <v>5</v>
+      </c>
+      <c r="AV249">
+        <v>9</v>
+      </c>
+      <c r="AW249">
+        <v>2</v>
+      </c>
+      <c r="AX249">
+        <v>7</v>
+      </c>
+      <c r="AY249">
+        <v>7</v>
+      </c>
+      <c r="AZ249">
+        <v>16</v>
+      </c>
+      <c r="BA249">
+        <v>4</v>
+      </c>
+      <c r="BB249">
+        <v>6</v>
+      </c>
+      <c r="BC249">
+        <v>10</v>
+      </c>
+      <c r="BD249">
+        <v>1.95</v>
+      </c>
+      <c r="BE249">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF249">
+        <v>2.1</v>
+      </c>
+      <c r="BG249">
+        <v>1.24</v>
+      </c>
+      <c r="BH249">
+        <v>3.48</v>
+      </c>
+      <c r="BI249">
+        <v>1.5</v>
+      </c>
+      <c r="BJ249">
+        <v>2.53</v>
+      </c>
+      <c r="BK249">
+        <v>1.91</v>
+      </c>
+      <c r="BL249">
+        <v>1.8</v>
+      </c>
+      <c r="BM249">
+        <v>2.26</v>
+      </c>
+      <c r="BN249">
+        <v>1.62</v>
+      </c>
+      <c r="BO249">
+        <v>3.14</v>
+      </c>
+      <c r="BP249">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="250" spans="1:68">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>7295486</v>
+      </c>
+      <c r="C250" t="s">
+        <v>68</v>
+      </c>
+      <c r="D250" t="s">
+        <v>69</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45458.9375</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="G250" t="s">
+        <v>90</v>
+      </c>
+      <c r="H250" t="s">
+        <v>77</v>
+      </c>
+      <c r="I250">
+        <v>1</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>1</v>
+      </c>
+      <c r="L250">
+        <v>2</v>
+      </c>
+      <c r="M250">
+        <v>0</v>
+      </c>
+      <c r="N250">
+        <v>2</v>
+      </c>
+      <c r="O250" t="s">
+        <v>279</v>
+      </c>
+      <c r="P250" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q250">
+        <v>2.2</v>
+      </c>
+      <c r="R250">
+        <v>2.5</v>
+      </c>
+      <c r="S250">
+        <v>4.5</v>
+      </c>
+      <c r="T250">
+        <v>1.25</v>
+      </c>
+      <c r="U250">
+        <v>3.75</v>
+      </c>
+      <c r="V250">
+        <v>2.25</v>
+      </c>
+      <c r="W250">
+        <v>1.57</v>
+      </c>
+      <c r="X250">
+        <v>5.5</v>
+      </c>
+      <c r="Y250">
+        <v>1.14</v>
+      </c>
+      <c r="Z250">
+        <v>1.49</v>
+      </c>
+      <c r="AA250">
+        <v>4.2</v>
+      </c>
+      <c r="AB250">
+        <v>5.25</v>
+      </c>
+      <c r="AC250">
+        <v>1.02</v>
+      </c>
+      <c r="AD250">
+        <v>19</v>
+      </c>
+      <c r="AE250">
+        <v>1.18</v>
+      </c>
+      <c r="AF250">
+        <v>5</v>
+      </c>
+      <c r="AG250">
+        <v>1.58</v>
+      </c>
+      <c r="AH250">
+        <v>2.25</v>
+      </c>
+      <c r="AI250">
+        <v>1.57</v>
+      </c>
+      <c r="AJ250">
+        <v>2.25</v>
+      </c>
+      <c r="AK250">
+        <v>1.19</v>
+      </c>
+      <c r="AL250">
+        <v>1.19</v>
+      </c>
+      <c r="AM250">
+        <v>2.25</v>
+      </c>
+      <c r="AN250">
+        <v>1.57</v>
+      </c>
+      <c r="AO250">
+        <v>0.75</v>
+      </c>
+      <c r="AP250">
+        <v>1.75</v>
+      </c>
+      <c r="AQ250">
+        <v>0.67</v>
+      </c>
+      <c r="AR250">
+        <v>1.65</v>
+      </c>
+      <c r="AS250">
+        <v>0.87</v>
+      </c>
+      <c r="AT250">
+        <v>2.52</v>
+      </c>
+      <c r="AU250">
+        <v>7</v>
+      </c>
+      <c r="AV250">
+        <v>0</v>
+      </c>
+      <c r="AW250">
+        <v>3</v>
+      </c>
+      <c r="AX250">
+        <v>7</v>
+      </c>
+      <c r="AY250">
+        <v>10</v>
+      </c>
+      <c r="AZ250">
+        <v>7</v>
+      </c>
+      <c r="BA250">
+        <v>4</v>
+      </c>
+      <c r="BB250">
+        <v>3</v>
+      </c>
+      <c r="BC250">
+        <v>7</v>
+      </c>
+      <c r="BD250">
+        <v>1.3</v>
+      </c>
+      <c r="BE250">
+        <v>9</v>
+      </c>
+      <c r="BF250">
+        <v>4.4</v>
+      </c>
+      <c r="BG250">
+        <v>1.17</v>
+      </c>
+      <c r="BH250">
+        <v>4.15</v>
+      </c>
+      <c r="BI250">
+        <v>1.35</v>
+      </c>
+      <c r="BJ250">
+        <v>2.84</v>
+      </c>
+      <c r="BK250">
+        <v>1.8</v>
+      </c>
+      <c r="BL250">
+        <v>1.91</v>
+      </c>
+      <c r="BM250">
+        <v>2.05</v>
+      </c>
+      <c r="BN250">
+        <v>1.76</v>
+      </c>
+      <c r="BO250">
+        <v>2.53</v>
+      </c>
+      <c r="BP250">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="251" spans="1:68">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>7295487</v>
+      </c>
+      <c r="C251" t="s">
+        <v>68</v>
+      </c>
+      <c r="D251" t="s">
+        <v>69</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45458.97916666666</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+      <c r="G251" t="s">
+        <v>84</v>
+      </c>
+      <c r="H251" t="s">
+        <v>89</v>
+      </c>
+      <c r="I251">
+        <v>1</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>1</v>
+      </c>
+      <c r="L251">
+        <v>4</v>
+      </c>
+      <c r="M251">
+        <v>2</v>
+      </c>
+      <c r="N251">
+        <v>6</v>
+      </c>
+      <c r="O251" t="s">
+        <v>280</v>
+      </c>
+      <c r="P251" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q251">
+        <v>2.1</v>
+      </c>
+      <c r="R251">
+        <v>2.6</v>
+      </c>
+      <c r="S251">
+        <v>4.5</v>
+      </c>
+      <c r="T251">
+        <v>1.25</v>
+      </c>
+      <c r="U251">
+        <v>3.75</v>
+      </c>
+      <c r="V251">
+        <v>2.1</v>
+      </c>
+      <c r="W251">
+        <v>1.67</v>
+      </c>
+      <c r="X251">
+        <v>4.5</v>
+      </c>
+      <c r="Y251">
+        <v>1.18</v>
+      </c>
+      <c r="Z251">
+        <v>1.54</v>
+      </c>
+      <c r="AA251">
+        <v>4.25</v>
+      </c>
+      <c r="AB251">
+        <v>4.6</v>
+      </c>
+      <c r="AC251">
+        <v>1.01</v>
+      </c>
+      <c r="AD251">
+        <v>21</v>
+      </c>
+      <c r="AE251">
+        <v>1.1</v>
+      </c>
+      <c r="AF251">
+        <v>5.45</v>
+      </c>
+      <c r="AG251">
+        <v>1.4</v>
+      </c>
+      <c r="AH251">
+        <v>2.75</v>
+      </c>
+      <c r="AI251">
+        <v>1.5</v>
+      </c>
+      <c r="AJ251">
+        <v>2.5</v>
+      </c>
+      <c r="AK251">
+        <v>1.18</v>
+      </c>
+      <c r="AL251">
+        <v>1.19</v>
+      </c>
+      <c r="AM251">
+        <v>2.3</v>
+      </c>
+      <c r="AN251">
+        <v>2.14</v>
+      </c>
+      <c r="AO251">
+        <v>0.63</v>
+      </c>
+      <c r="AP251">
+        <v>2.25</v>
+      </c>
+      <c r="AQ251">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR251">
+        <v>1.78</v>
+      </c>
+      <c r="AS251">
+        <v>1.25</v>
+      </c>
+      <c r="AT251">
+        <v>3.03</v>
+      </c>
+      <c r="AU251">
+        <v>11</v>
+      </c>
+      <c r="AV251">
+        <v>5</v>
+      </c>
+      <c r="AW251">
+        <v>1</v>
+      </c>
+      <c r="AX251">
+        <v>10</v>
+      </c>
+      <c r="AY251">
+        <v>12</v>
+      </c>
+      <c r="AZ251">
+        <v>15</v>
+      </c>
+      <c r="BA251">
+        <v>5</v>
+      </c>
+      <c r="BB251">
+        <v>4</v>
+      </c>
+      <c r="BC251">
+        <v>9</v>
+      </c>
+      <c r="BD251">
+        <v>1.6</v>
+      </c>
+      <c r="BE251">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF251">
+        <v>2.75</v>
+      </c>
+      <c r="BG251">
+        <v>1.18</v>
+      </c>
+      <c r="BH251">
+        <v>4.1</v>
+      </c>
+      <c r="BI251">
+        <v>1.36</v>
+      </c>
+      <c r="BJ251">
+        <v>2.79</v>
+      </c>
+      <c r="BK251">
+        <v>1.77</v>
+      </c>
+      <c r="BL251">
+        <v>1.95</v>
+      </c>
+      <c r="BM251">
+        <v>2.07</v>
+      </c>
+      <c r="BN251">
+        <v>1.75</v>
+      </c>
+      <c r="BO251">
+        <v>2.48</v>
+      </c>
+      <c r="BP251">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="252" spans="1:68">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>7295488</v>
+      </c>
+      <c r="C252" t="s">
+        <v>68</v>
+      </c>
+      <c r="D252" t="s">
+        <v>69</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45458.97916666666</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+      <c r="G252" t="s">
+        <v>91</v>
+      </c>
+      <c r="H252" t="s">
+        <v>82</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+      <c r="L252">
+        <v>2</v>
+      </c>
+      <c r="M252">
+        <v>4</v>
+      </c>
+      <c r="N252">
+        <v>6</v>
+      </c>
+      <c r="O252" t="s">
+        <v>281</v>
+      </c>
+      <c r="P252" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q252">
+        <v>3.25</v>
+      </c>
+      <c r="R252">
+        <v>2.3</v>
+      </c>
+      <c r="S252">
+        <v>3</v>
+      </c>
+      <c r="T252">
+        <v>1.3</v>
+      </c>
+      <c r="U252">
+        <v>3.4</v>
+      </c>
+      <c r="V252">
+        <v>2.5</v>
+      </c>
+      <c r="W252">
+        <v>1.5</v>
+      </c>
+      <c r="X252">
+        <v>6</v>
+      </c>
+      <c r="Y252">
+        <v>1.13</v>
+      </c>
+      <c r="Z252">
+        <v>1.9</v>
+      </c>
+      <c r="AA252">
+        <v>3.7</v>
+      </c>
+      <c r="AB252">
+        <v>3.3</v>
+      </c>
+      <c r="AC252">
+        <v>1.01</v>
+      </c>
+      <c r="AD252">
+        <v>16</v>
+      </c>
+      <c r="AE252">
+        <v>1.17</v>
+      </c>
+      <c r="AF252">
+        <v>4.15</v>
+      </c>
+      <c r="AG252">
+        <v>1.5</v>
+      </c>
+      <c r="AH252">
+        <v>2.35</v>
+      </c>
+      <c r="AI252">
+        <v>1.57</v>
+      </c>
+      <c r="AJ252">
+        <v>2.25</v>
+      </c>
+      <c r="AK252">
+        <v>1.58</v>
+      </c>
+      <c r="AL252">
+        <v>1.24</v>
+      </c>
+      <c r="AM252">
+        <v>1.48</v>
+      </c>
+      <c r="AN252">
+        <v>1</v>
+      </c>
+      <c r="AO252">
+        <v>2.38</v>
+      </c>
+      <c r="AP252">
+        <v>0.88</v>
+      </c>
+      <c r="AQ252">
+        <v>2.44</v>
+      </c>
+      <c r="AR252">
+        <v>1.48</v>
+      </c>
+      <c r="AS252">
+        <v>1.32</v>
+      </c>
+      <c r="AT252">
+        <v>2.8</v>
+      </c>
+      <c r="AU252">
+        <v>9</v>
+      </c>
+      <c r="AV252">
+        <v>7</v>
+      </c>
+      <c r="AW252">
+        <v>9</v>
+      </c>
+      <c r="AX252">
+        <v>8</v>
+      </c>
+      <c r="AY252">
+        <v>18</v>
+      </c>
+      <c r="AZ252">
+        <v>15</v>
+      </c>
+      <c r="BA252">
+        <v>10</v>
+      </c>
+      <c r="BB252">
+        <v>3</v>
+      </c>
+      <c r="BC252">
+        <v>13</v>
+      </c>
+      <c r="BD252">
+        <v>1.93</v>
+      </c>
+      <c r="BE252">
+        <v>7.8</v>
+      </c>
+      <c r="BF252">
+        <v>2.15</v>
+      </c>
+      <c r="BG252">
+        <v>1.14</v>
+      </c>
+      <c r="BH252">
+        <v>4.6</v>
+      </c>
+      <c r="BI252">
+        <v>1.3</v>
+      </c>
+      <c r="BJ252">
+        <v>3.08</v>
+      </c>
+      <c r="BK252">
+        <v>1.7</v>
+      </c>
+      <c r="BL252">
+        <v>2.05</v>
+      </c>
+      <c r="BM252">
+        <v>2.05</v>
+      </c>
+      <c r="BN252">
+        <v>1.7</v>
+      </c>
+      <c r="BO252">
+        <v>2.41</v>
+      </c>
+      <c r="BP252">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="253" spans="1:68">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>7295489</v>
+      </c>
+      <c r="C253" t="s">
+        <v>68</v>
+      </c>
+      <c r="D253" t="s">
+        <v>69</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45458.97916666666</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253" t="s">
+        <v>92</v>
+      </c>
+      <c r="H253" t="s">
+        <v>85</v>
+      </c>
+      <c r="I253">
+        <v>1</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>1</v>
+      </c>
+      <c r="L253">
+        <v>2</v>
+      </c>
+      <c r="M253">
+        <v>0</v>
+      </c>
+      <c r="N253">
+        <v>2</v>
+      </c>
+      <c r="O253" t="s">
+        <v>282</v>
+      </c>
+      <c r="P253" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q253">
+        <v>2.25</v>
+      </c>
+      <c r="R253">
+        <v>2.38</v>
+      </c>
+      <c r="S253">
+        <v>4.75</v>
+      </c>
+      <c r="T253">
+        <v>1.33</v>
+      </c>
+      <c r="U253">
+        <v>3.25</v>
+      </c>
+      <c r="V253">
+        <v>2.5</v>
+      </c>
+      <c r="W253">
+        <v>1.5</v>
+      </c>
+      <c r="X253">
+        <v>6.5</v>
+      </c>
+      <c r="Y253">
+        <v>1.11</v>
+      </c>
+      <c r="Z253">
+        <v>1.55</v>
+      </c>
+      <c r="AA253">
+        <v>4</v>
+      </c>
+      <c r="AB253">
+        <v>4.9</v>
+      </c>
+      <c r="AC253">
+        <v>1.01</v>
+      </c>
+      <c r="AD253">
+        <v>14.5</v>
+      </c>
+      <c r="AE253">
+        <v>1.22</v>
+      </c>
+      <c r="AF253">
+        <v>4.33</v>
+      </c>
+      <c r="AG253">
+        <v>1.64</v>
+      </c>
+      <c r="AH253">
+        <v>2.12</v>
+      </c>
+      <c r="AI253">
+        <v>1.7</v>
+      </c>
+      <c r="AJ253">
+        <v>2.05</v>
+      </c>
+      <c r="AK253">
+        <v>1.19</v>
+      </c>
+      <c r="AL253">
+        <v>1.2</v>
+      </c>
+      <c r="AM253">
+        <v>2.2</v>
+      </c>
+      <c r="AN253">
+        <v>1.14</v>
+      </c>
+      <c r="AO253">
+        <v>1.86</v>
+      </c>
+      <c r="AP253">
+        <v>1.38</v>
+      </c>
+      <c r="AQ253">
+        <v>1.63</v>
+      </c>
+      <c r="AR253">
+        <v>1.56</v>
+      </c>
+      <c r="AS253">
+        <v>1.31</v>
+      </c>
+      <c r="AT253">
+        <v>2.87</v>
+      </c>
+      <c r="AU253">
+        <v>5</v>
+      </c>
+      <c r="AV253">
+        <v>0</v>
+      </c>
+      <c r="AW253">
+        <v>3</v>
+      </c>
+      <c r="AX253">
+        <v>5</v>
+      </c>
+      <c r="AY253">
+        <v>8</v>
+      </c>
+      <c r="AZ253">
+        <v>5</v>
+      </c>
+      <c r="BA253">
+        <v>6</v>
+      </c>
+      <c r="BB253">
+        <v>3</v>
+      </c>
+      <c r="BC253">
+        <v>9</v>
+      </c>
+      <c r="BD253">
+        <v>1.22</v>
+      </c>
+      <c r="BE253">
+        <v>9.5</v>
+      </c>
+      <c r="BF253">
+        <v>5.3</v>
+      </c>
+      <c r="BG253">
+        <v>1.1</v>
+      </c>
+      <c r="BH253">
+        <v>5.35</v>
+      </c>
+      <c r="BI253">
+        <v>1.23</v>
+      </c>
+      <c r="BJ253">
+        <v>3.56</v>
+      </c>
+      <c r="BK253">
+        <v>1.44</v>
+      </c>
+      <c r="BL253">
+        <v>2.58</v>
+      </c>
+      <c r="BM253">
+        <v>1.85</v>
+      </c>
+      <c r="BN253">
+        <v>1.83</v>
+      </c>
+      <c r="BO253">
+        <v>2.16</v>
+      </c>
+      <c r="BP253">
+        <v>1.68</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="430">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -865,6 +865,33 @@
     <t>['28', '57']</t>
   </si>
   <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['10', '21']</t>
+  </si>
+  <si>
+    <t>['11', '40']</t>
+  </si>
+  <si>
+    <t>['11', '77']</t>
+  </si>
+  <si>
+    <t>['29', '49', '60', '90+10']</t>
+  </si>
+  <si>
+    <t>['28', '70', '90+5']</t>
+  </si>
+  <si>
+    <t>['30', '39']</t>
+  </si>
+  <si>
+    <t>['17', '38', '62', '75', '90']</t>
+  </si>
+  <si>
+    <t>['41', '49']</t>
+  </si>
+  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -965,9 +992,6 @@
   </si>
   <si>
     <t>['8', '76']</t>
-  </si>
-  <si>
-    <t>['34']</t>
   </si>
   <si>
     <t>['21']</t>
@@ -1253,6 +1277,33 @@
   </si>
   <si>
     <t>['53', '78', '80', '87']</t>
+  </si>
+  <si>
+    <t>['65', '90']</t>
+  </si>
+  <si>
+    <t>['61', '87']</t>
+  </si>
+  <si>
+    <t>['63', '81']</t>
+  </si>
+  <si>
+    <t>['43', '55', '90+1']</t>
+  </si>
+  <si>
+    <t>['14', '33', '51', '84']</t>
+  </si>
+  <si>
+    <t>['57', '63']</t>
+  </si>
+  <si>
+    <t>['32', '57', '90+9']</t>
+  </si>
+  <si>
+    <t>['9', '60', '90+6']</t>
+  </si>
+  <si>
+    <t>['22', '72']</t>
   </si>
 </sst>
 </file>
@@ -1614,7 +1665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP253"/>
+  <dimension ref="A1:BP266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1951,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ2">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2160,7 +2211,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ3">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2285,7 +2336,7 @@
         <v>101</v>
       </c>
       <c r="P4" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -2569,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2697,7 +2748,7 @@
         <v>103</v>
       </c>
       <c r="P6" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2775,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ6">
         <v>0.86</v>
@@ -3109,7 +3160,7 @@
         <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -3315,7 +3366,7 @@
         <v>106</v>
       </c>
       <c r="P9" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3393,10 +3444,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ9">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3521,7 +3572,7 @@
         <v>107</v>
       </c>
       <c r="P10" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3599,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ10">
         <v>0.44</v>
@@ -3805,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ11">
         <v>0.5600000000000001</v>
@@ -4011,10 +4062,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ12">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4139,7 +4190,7 @@
         <v>110</v>
       </c>
       <c r="P13" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -4220,7 +4271,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4423,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4632,7 +4683,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ15">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4835,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ16">
         <v>2.22</v>
@@ -5044,7 +5095,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ17">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5250,7 +5301,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ18">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5453,10 +5504,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ19">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR19">
         <v>1.77</v>
@@ -5581,7 +5632,7 @@
         <v>115</v>
       </c>
       <c r="P20" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -5787,7 +5838,7 @@
         <v>116</v>
       </c>
       <c r="P21" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5993,7 +6044,7 @@
         <v>117</v>
       </c>
       <c r="P22" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -6071,7 +6122,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ22">
         <v>0.9</v>
@@ -6199,7 +6250,7 @@
         <v>118</v>
       </c>
       <c r="P23" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6277,10 +6328,10 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ23">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR23">
         <v>1.42</v>
@@ -6483,10 +6534,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ24">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6689,10 +6740,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ25">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR25">
         <v>1.45</v>
@@ -6817,7 +6868,7 @@
         <v>121</v>
       </c>
       <c r="P26" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6898,7 +6949,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ26">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -7023,7 +7074,7 @@
         <v>122</v>
       </c>
       <c r="P27" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -7229,7 +7280,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7307,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ28">
         <v>1.3</v>
@@ -7847,7 +7898,7 @@
         <v>123</v>
       </c>
       <c r="P31" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="Q31">
         <v>2.37</v>
@@ -7928,7 +7979,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ31">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -8131,7 +8182,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32">
         <v>0.88</v>
@@ -8259,7 +8310,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -8877,7 +8928,7 @@
         <v>128</v>
       </c>
       <c r="P36" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8958,7 +9009,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ36">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR36">
         <v>1.61</v>
@@ -9083,7 +9134,7 @@
         <v>129</v>
       </c>
       <c r="P37" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -9161,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ37">
         <v>0.63</v>
@@ -9289,7 +9340,7 @@
         <v>130</v>
       </c>
       <c r="P38" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9370,7 +9421,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ38">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR38">
         <v>1.58</v>
@@ -9701,7 +9752,7 @@
         <v>104</v>
       </c>
       <c r="P40" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9779,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ40">
         <v>1.56</v>
@@ -9907,7 +9958,7 @@
         <v>131</v>
       </c>
       <c r="P41" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -10191,7 +10242,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ42">
         <v>0.78</v>
@@ -10319,7 +10370,7 @@
         <v>132</v>
       </c>
       <c r="P43" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="Q43">
         <v>2.05</v>
@@ -10397,7 +10448,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ43">
         <v>0.9</v>
@@ -10525,7 +10576,7 @@
         <v>133</v>
       </c>
       <c r="P44" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10731,7 +10782,7 @@
         <v>134</v>
       </c>
       <c r="P45" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10809,7 +10860,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ45">
         <v>2.22</v>
@@ -11018,7 +11069,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ46">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR46">
         <v>1.94</v>
@@ -11224,7 +11275,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ47">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR47">
         <v>1.86</v>
@@ -11555,7 +11606,7 @@
         <v>138</v>
       </c>
       <c r="P49" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11633,10 +11684,10 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ49">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR49">
         <v>0.89</v>
@@ -11761,7 +11812,7 @@
         <v>139</v>
       </c>
       <c r="P50" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11839,7 +11890,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ50">
         <v>1.56</v>
@@ -12045,10 +12096,10 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ51">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR51">
         <v>1.66</v>
@@ -12251,7 +12302,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ52">
         <v>0.44</v>
@@ -12460,7 +12511,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ53">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR53">
         <v>1.47</v>
@@ -12791,7 +12842,7 @@
         <v>144</v>
       </c>
       <c r="P55" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12869,7 +12920,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ55">
         <v>0.63</v>
@@ -12997,7 +13048,7 @@
         <v>145</v>
       </c>
       <c r="P56" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -13284,7 +13335,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ57">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR57">
         <v>2.19</v>
@@ -13821,7 +13872,7 @@
         <v>149</v>
       </c>
       <c r="P60" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13902,7 +13953,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ60">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR60">
         <v>1.63</v>
@@ -14105,10 +14156,10 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ61">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR61">
         <v>1.43</v>
@@ -14311,10 +14362,10 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ62">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR62">
         <v>1.57</v>
@@ -14723,10 +14774,10 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ64">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR64">
         <v>1.04</v>
@@ -14851,7 +14902,7 @@
         <v>154</v>
       </c>
       <c r="P65" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14929,7 +14980,7 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ65">
         <v>1.3</v>
@@ -15057,7 +15108,7 @@
         <v>155</v>
       </c>
       <c r="P66" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -15135,7 +15186,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ66">
         <v>0.78</v>
@@ -15263,7 +15314,7 @@
         <v>104</v>
       </c>
       <c r="P67" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15469,7 +15520,7 @@
         <v>156</v>
       </c>
       <c r="P68" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15547,7 +15598,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ68">
         <v>1</v>
@@ -15756,7 +15807,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ69">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR69">
         <v>1.68</v>
@@ -15881,7 +15932,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15962,7 +16013,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ70">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR70">
         <v>1.13</v>
@@ -16168,7 +16219,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ71">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR71">
         <v>1.95</v>
@@ -16293,7 +16344,7 @@
         <v>159</v>
       </c>
       <c r="P72" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16374,7 +16425,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ72">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR72">
         <v>1.16</v>
@@ -16577,7 +16628,7 @@
         <v>3</v>
       </c>
       <c r="AP73">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ73">
         <v>2.44</v>
@@ -16783,7 +16834,7 @@
         <v>1.75</v>
       </c>
       <c r="AP74">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ74">
         <v>0.9</v>
@@ -16911,7 +16962,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16989,10 +17040,10 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ75">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR75">
         <v>1.58</v>
@@ -17117,7 +17168,7 @@
         <v>162</v>
       </c>
       <c r="P76" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="Q76">
         <v>3.1</v>
@@ -17198,7 +17249,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ76">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR76">
         <v>1.96</v>
@@ -17323,7 +17374,7 @@
         <v>163</v>
       </c>
       <c r="P77" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17401,7 +17452,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ77">
         <v>0.5600000000000001</v>
@@ -17529,7 +17580,7 @@
         <v>164</v>
       </c>
       <c r="P78" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17607,7 +17658,7 @@
         <v>0</v>
       </c>
       <c r="AP78">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ78">
         <v>0.33</v>
@@ -17813,7 +17864,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ79">
         <v>0.44</v>
@@ -17941,7 +17992,7 @@
         <v>166</v>
       </c>
       <c r="P80" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -18022,7 +18073,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ80">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR80">
         <v>1.03</v>
@@ -18353,7 +18404,7 @@
         <v>168</v>
       </c>
       <c r="P82" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18434,7 +18485,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ82">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR82">
         <v>1.3</v>
@@ -18637,7 +18688,7 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ83">
         <v>1</v>
@@ -19258,7 +19309,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ86">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR86">
         <v>1.69</v>
@@ -19383,7 +19434,7 @@
         <v>172</v>
       </c>
       <c r="P87" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="Q87">
         <v>2.2</v>
@@ -19461,10 +19512,10 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ87">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR87">
         <v>1.69</v>
@@ -19589,7 +19640,7 @@
         <v>173</v>
       </c>
       <c r="P88" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19667,10 +19718,10 @@
         <v>1.25</v>
       </c>
       <c r="AP88">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ88">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR88">
         <v>1.49</v>
@@ -20207,7 +20258,7 @@
         <v>176</v>
       </c>
       <c r="P91" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -20413,7 +20464,7 @@
         <v>177</v>
       </c>
       <c r="P92" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="Q92">
         <v>2.88</v>
@@ -20491,7 +20542,7 @@
         <v>0</v>
       </c>
       <c r="AP92">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ92">
         <v>0.44</v>
@@ -20825,7 +20876,7 @@
         <v>179</v>
       </c>
       <c r="P94" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="Q94">
         <v>2.75</v>
@@ -20906,7 +20957,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ94">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR94">
         <v>1.29</v>
@@ -21031,7 +21082,7 @@
         <v>180</v>
       </c>
       <c r="P95" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="Q95">
         <v>3.1</v>
@@ -21112,7 +21163,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ95">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR95">
         <v>1.11</v>
@@ -21315,7 +21366,7 @@
         <v>0</v>
       </c>
       <c r="AP96">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ96">
         <v>0.33</v>
@@ -21649,7 +21700,7 @@
         <v>182</v>
       </c>
       <c r="P98" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21727,10 +21778,10 @@
         <v>1</v>
       </c>
       <c r="AP98">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ98">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR98">
         <v>1.65</v>
@@ -21855,7 +21906,7 @@
         <v>183</v>
       </c>
       <c r="P99" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21936,7 +21987,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ99">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR99">
         <v>1.42</v>
@@ -22473,7 +22524,7 @@
         <v>185</v>
       </c>
       <c r="P102" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="Q102">
         <v>3.1</v>
@@ -22551,7 +22602,7 @@
         <v>2.33</v>
       </c>
       <c r="AP102">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ102">
         <v>2.44</v>
@@ -22679,7 +22730,7 @@
         <v>186</v>
       </c>
       <c r="P103" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="Q103">
         <v>2.3</v>
@@ -22757,7 +22808,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ103">
         <v>1</v>
@@ -22885,7 +22936,7 @@
         <v>187</v>
       </c>
       <c r="P104" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22963,10 +23014,10 @@
         <v>0</v>
       </c>
       <c r="AP104">
+        <v>1.2</v>
+      </c>
+      <c r="AQ104">
         <v>1.33</v>
-      </c>
-      <c r="AQ104">
-        <v>1.38</v>
       </c>
       <c r="AR104">
         <v>1.9</v>
@@ -23169,7 +23220,7 @@
         <v>0</v>
       </c>
       <c r="AP105">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ105">
         <v>1</v>
@@ -23297,7 +23348,7 @@
         <v>188</v>
       </c>
       <c r="P106" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23375,7 +23426,7 @@
         <v>1.33</v>
       </c>
       <c r="AP106">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ106">
         <v>2.22</v>
@@ -23503,7 +23554,7 @@
         <v>189</v>
       </c>
       <c r="P107" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="Q107">
         <v>2.75</v>
@@ -23790,7 +23841,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ108">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR108">
         <v>1.42</v>
@@ -23915,7 +23966,7 @@
         <v>190</v>
       </c>
       <c r="P109" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Q109">
         <v>2.6</v>
@@ -24121,7 +24172,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="Q110">
         <v>2.88</v>
@@ -24199,10 +24250,10 @@
         <v>1.25</v>
       </c>
       <c r="AP110">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ110">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR110">
         <v>1.31</v>
@@ -24327,7 +24378,7 @@
         <v>191</v>
       </c>
       <c r="P111" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24408,7 +24459,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ111">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR111">
         <v>1.97</v>
@@ -24611,7 +24662,7 @@
         <v>0.5</v>
       </c>
       <c r="AP112">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ112">
         <v>0.67</v>
@@ -24739,7 +24790,7 @@
         <v>142</v>
       </c>
       <c r="P113" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24817,10 +24868,10 @@
         <v>1</v>
       </c>
       <c r="AP113">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ113">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR113">
         <v>1.35</v>
@@ -24945,7 +24996,7 @@
         <v>192</v>
       </c>
       <c r="P114" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="Q114">
         <v>1.91</v>
@@ -25023,10 +25074,10 @@
         <v>0.5</v>
       </c>
       <c r="AP114">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ114">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR114">
         <v>1.72</v>
@@ -25151,7 +25202,7 @@
         <v>193</v>
       </c>
       <c r="P115" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="Q115">
         <v>2.1</v>
@@ -25232,7 +25283,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ115">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR115">
         <v>1.63</v>
@@ -25435,7 +25486,7 @@
         <v>0</v>
       </c>
       <c r="AP116">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ116">
         <v>0.86</v>
@@ -25563,7 +25614,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25975,7 +26026,7 @@
         <v>104</v>
       </c>
       <c r="P119" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="Q119">
         <v>2.88</v>
@@ -26056,7 +26107,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ119">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR119">
         <v>1.52</v>
@@ -26259,7 +26310,7 @@
         <v>0.33</v>
       </c>
       <c r="AP120">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ120">
         <v>0.67</v>
@@ -26387,7 +26438,7 @@
         <v>196</v>
       </c>
       <c r="P121" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="Q121">
         <v>2.3</v>
@@ -26465,7 +26516,7 @@
         <v>0.67</v>
       </c>
       <c r="AP121">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ121">
         <v>0.63</v>
@@ -26799,7 +26850,7 @@
         <v>198</v>
       </c>
       <c r="P123" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="Q123">
         <v>2.5</v>
@@ -26880,7 +26931,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ123">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR123">
         <v>2.06</v>
@@ -27005,7 +27056,7 @@
         <v>104</v>
       </c>
       <c r="P124" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -27211,7 +27262,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="Q125">
         <v>2.6</v>
@@ -27289,10 +27340,10 @@
         <v>2</v>
       </c>
       <c r="AP125">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ125">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR125">
         <v>1.42</v>
@@ -27417,7 +27468,7 @@
         <v>199</v>
       </c>
       <c r="P126" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="Q126">
         <v>2.05</v>
@@ -27495,7 +27546,7 @@
         <v>0</v>
       </c>
       <c r="AP126">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ126">
         <v>0.44</v>
@@ -27701,7 +27752,7 @@
         <v>2</v>
       </c>
       <c r="AP127">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ127">
         <v>1.3</v>
@@ -27829,7 +27880,7 @@
         <v>201</v>
       </c>
       <c r="P128" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -28035,7 +28086,7 @@
         <v>202</v>
       </c>
       <c r="P129" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="Q129">
         <v>2.5</v>
@@ -28116,7 +28167,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ129">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR129">
         <v>1.61</v>
@@ -28731,7 +28782,7 @@
         <v>0.25</v>
       </c>
       <c r="AP132">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ132">
         <v>1</v>
@@ -29143,10 +29194,10 @@
         <v>1.6</v>
       </c>
       <c r="AP134">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ134">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR134">
         <v>1.41</v>
@@ -29271,7 +29322,7 @@
         <v>206</v>
       </c>
       <c r="P135" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29764,7 +29815,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ137">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR137">
         <v>1.51</v>
@@ -29967,7 +30018,7 @@
         <v>2</v>
       </c>
       <c r="AP138">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ138">
         <v>1.22</v>
@@ -30095,7 +30146,7 @@
         <v>119</v>
       </c>
       <c r="P139" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -30301,7 +30352,7 @@
         <v>209</v>
       </c>
       <c r="P140" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -30382,7 +30433,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ140">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR140">
         <v>2</v>
@@ -30507,7 +30558,7 @@
         <v>210</v>
       </c>
       <c r="P141" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30713,7 +30764,7 @@
         <v>211</v>
       </c>
       <c r="P142" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30794,7 +30845,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ142">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR142">
         <v>1.86</v>
@@ -30997,10 +31048,10 @@
         <v>0.83</v>
       </c>
       <c r="AP143">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ143">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR143">
         <v>1.31</v>
@@ -31125,7 +31176,7 @@
         <v>213</v>
       </c>
       <c r="P144" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="Q144">
         <v>2.88</v>
@@ -31203,10 +31254,10 @@
         <v>1.8</v>
       </c>
       <c r="AP144">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ144">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR144">
         <v>1.84</v>
@@ -31331,7 +31382,7 @@
         <v>214</v>
       </c>
       <c r="P145" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="Q145">
         <v>2.38</v>
@@ -31409,10 +31460,10 @@
         <v>1.5</v>
       </c>
       <c r="AP145">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ145">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR145">
         <v>1.66</v>
@@ -31821,10 +31872,10 @@
         <v>0.25</v>
       </c>
       <c r="AP147">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ147">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR147">
         <v>1.42</v>
@@ -32027,7 +32078,7 @@
         <v>0.25</v>
       </c>
       <c r="AP148">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ148">
         <v>0.33</v>
@@ -32233,7 +32284,7 @@
         <v>0.75</v>
       </c>
       <c r="AP149">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ149">
         <v>0.63</v>
@@ -32361,7 +32412,7 @@
         <v>217</v>
       </c>
       <c r="P150" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -33185,7 +33236,7 @@
         <v>104</v>
       </c>
       <c r="P154" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="Q154">
         <v>2.4</v>
@@ -33266,7 +33317,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ154">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR154">
         <v>1.8</v>
@@ -33597,7 +33648,7 @@
         <v>219</v>
       </c>
       <c r="P156" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33881,10 +33932,10 @@
         <v>0.33</v>
       </c>
       <c r="AP157">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ157">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR157">
         <v>1.3</v>
@@ -34009,7 +34060,7 @@
         <v>221</v>
       </c>
       <c r="P158" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -34087,7 +34138,7 @@
         <v>2</v>
       </c>
       <c r="AP158">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ158">
         <v>2.22</v>
@@ -34215,7 +34266,7 @@
         <v>222</v>
       </c>
       <c r="P159" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="Q159">
         <v>2.1</v>
@@ -34421,7 +34472,7 @@
         <v>223</v>
       </c>
       <c r="P160" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="Q160">
         <v>2.5</v>
@@ -34502,7 +34553,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ160">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR160">
         <v>1.52</v>
@@ -34627,7 +34678,7 @@
         <v>224</v>
       </c>
       <c r="P161" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="Q161">
         <v>3.4</v>
@@ -34705,10 +34756,10 @@
         <v>0.25</v>
       </c>
       <c r="AP161">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ161">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR161">
         <v>1.51</v>
@@ -34833,7 +34884,7 @@
         <v>162</v>
       </c>
       <c r="P162" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -35117,7 +35168,7 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ163">
         <v>0.67</v>
@@ -35245,7 +35296,7 @@
         <v>226</v>
       </c>
       <c r="P164" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="Q164">
         <v>2.75</v>
@@ -35323,7 +35374,7 @@
         <v>1.5</v>
       </c>
       <c r="AP164">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ164">
         <v>1.22</v>
@@ -35451,7 +35502,7 @@
         <v>227</v>
       </c>
       <c r="P165" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="Q165">
         <v>2.3</v>
@@ -35529,7 +35580,7 @@
         <v>0.6</v>
       </c>
       <c r="AP165">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ165">
         <v>0.88</v>
@@ -35657,7 +35708,7 @@
         <v>228</v>
       </c>
       <c r="P166" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="Q166">
         <v>2.3</v>
@@ -35863,7 +35914,7 @@
         <v>229</v>
       </c>
       <c r="P167" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="Q167">
         <v>2.5</v>
@@ -35941,10 +35992,10 @@
         <v>1.83</v>
       </c>
       <c r="AP167">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ167">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR167">
         <v>1.69</v>
@@ -36275,7 +36326,7 @@
         <v>231</v>
       </c>
       <c r="P169" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="Q169">
         <v>3.2</v>
@@ -36559,10 +36610,10 @@
         <v>0.5</v>
       </c>
       <c r="AP170">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ170">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR170">
         <v>1.59</v>
@@ -36687,7 +36738,7 @@
         <v>232</v>
       </c>
       <c r="P171" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="Q171">
         <v>3.1</v>
@@ -36765,10 +36816,10 @@
         <v>1.29</v>
       </c>
       <c r="AP171">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ171">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR171">
         <v>1.72</v>
@@ -36893,7 +36944,7 @@
         <v>233</v>
       </c>
       <c r="P172" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -36971,10 +37022,10 @@
         <v>0.75</v>
       </c>
       <c r="AP172">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ172">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR172">
         <v>1.44</v>
@@ -37305,7 +37356,7 @@
         <v>121</v>
       </c>
       <c r="P174" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="Q174">
         <v>2.5</v>
@@ -37386,7 +37437,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ174">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR174">
         <v>1.71</v>
@@ -37589,7 +37640,7 @@
         <v>1.8</v>
       </c>
       <c r="AP175">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ175">
         <v>1.22</v>
@@ -37717,7 +37768,7 @@
         <v>104</v>
       </c>
       <c r="P176" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="Q176">
         <v>2.75</v>
@@ -37923,7 +37974,7 @@
         <v>234</v>
       </c>
       <c r="P177" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="Q177">
         <v>2.63</v>
@@ -38335,7 +38386,7 @@
         <v>104</v>
       </c>
       <c r="P179" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="Q179">
         <v>3.1</v>
@@ -38413,10 +38464,10 @@
         <v>0.2</v>
       </c>
       <c r="AP179">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ179">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR179">
         <v>1.84</v>
@@ -38953,7 +39004,7 @@
         <v>237</v>
       </c>
       <c r="P182" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="Q182">
         <v>2.3</v>
@@ -39159,7 +39210,7 @@
         <v>139</v>
       </c>
       <c r="P183" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="Q183">
         <v>2.75</v>
@@ -39240,7 +39291,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ183">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR183">
         <v>1.28</v>
@@ -39443,7 +39494,7 @@
         <v>1.5</v>
       </c>
       <c r="AP184">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ184">
         <v>1.3</v>
@@ -39571,7 +39622,7 @@
         <v>238</v>
       </c>
       <c r="P185" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="Q185">
         <v>2.3</v>
@@ -39649,7 +39700,7 @@
         <v>0.8</v>
       </c>
       <c r="AP185">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ185">
         <v>0.63</v>
@@ -39777,7 +39828,7 @@
         <v>104</v>
       </c>
       <c r="P186" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="Q186">
         <v>3.2</v>
@@ -39858,7 +39909,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ186">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR186">
         <v>1.49</v>
@@ -40064,7 +40115,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ187">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR187">
         <v>1.79</v>
@@ -40189,7 +40240,7 @@
         <v>240</v>
       </c>
       <c r="P188" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="Q188">
         <v>2.75</v>
@@ -40267,7 +40318,7 @@
         <v>1</v>
       </c>
       <c r="AP188">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ188">
         <v>0.9</v>
@@ -40473,7 +40524,7 @@
         <v>1.17</v>
       </c>
       <c r="AP189">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ189">
         <v>0.78</v>
@@ -40601,7 +40652,7 @@
         <v>241</v>
       </c>
       <c r="P190" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="Q190">
         <v>2.25</v>
@@ -40682,7 +40733,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ190">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR190">
         <v>1.76</v>
@@ -40885,7 +40936,7 @@
         <v>0.2</v>
       </c>
       <c r="AP191">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ191">
         <v>0.33</v>
@@ -41013,7 +41064,7 @@
         <v>243</v>
       </c>
       <c r="P192" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="Q192">
         <v>2.63</v>
@@ -41091,7 +41142,7 @@
         <v>1</v>
       </c>
       <c r="AP192">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ192">
         <v>0.5600000000000001</v>
@@ -41219,7 +41270,7 @@
         <v>244</v>
       </c>
       <c r="P193" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -41300,7 +41351,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ193">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR193">
         <v>1.39</v>
@@ -41425,7 +41476,7 @@
         <v>245</v>
       </c>
       <c r="P194" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="Q194">
         <v>2.3</v>
@@ -41506,7 +41557,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ194">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR194">
         <v>1.51</v>
@@ -41709,10 +41760,10 @@
         <v>1.4</v>
       </c>
       <c r="AP195">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ195">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR195">
         <v>1.38</v>
@@ -42124,7 +42175,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ197">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR197">
         <v>1.32</v>
@@ -42249,7 +42300,7 @@
         <v>246</v>
       </c>
       <c r="P198" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="Q198">
         <v>3.3</v>
@@ -42327,7 +42378,7 @@
         <v>2.29</v>
       </c>
       <c r="AP198">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ198">
         <v>2.44</v>
@@ -42455,7 +42506,7 @@
         <v>104</v>
       </c>
       <c r="P199" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="Q199">
         <v>2.51</v>
@@ -42536,7 +42587,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ199">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR199">
         <v>1.53</v>
@@ -42739,10 +42790,10 @@
         <v>0.25</v>
       </c>
       <c r="AP200">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ200">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR200">
         <v>1.35</v>
@@ -42867,7 +42918,7 @@
         <v>104</v>
       </c>
       <c r="P201" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="Q201">
         <v>2.88</v>
@@ -42948,7 +42999,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ201">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR201">
         <v>1.77</v>
@@ -43151,10 +43202,10 @@
         <v>1.86</v>
       </c>
       <c r="AP202">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ202">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR202">
         <v>1.19</v>
@@ -43279,7 +43330,7 @@
         <v>247</v>
       </c>
       <c r="P203" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="Q203">
         <v>2.16</v>
@@ -43357,7 +43408,7 @@
         <v>0.5</v>
       </c>
       <c r="AP203">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ203">
         <v>0.88</v>
@@ -43485,7 +43536,7 @@
         <v>248</v>
       </c>
       <c r="P204" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="Q204">
         <v>3.4</v>
@@ -43563,10 +43614,10 @@
         <v>1.71</v>
       </c>
       <c r="AP204">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ204">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR204">
         <v>1.54</v>
@@ -43691,7 +43742,7 @@
         <v>211</v>
       </c>
       <c r="P205" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="Q205">
         <v>2.88</v>
@@ -43769,7 +43820,7 @@
         <v>0.88</v>
       </c>
       <c r="AP205">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ205">
         <v>1</v>
@@ -43897,7 +43948,7 @@
         <v>249</v>
       </c>
       <c r="P206" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="Q206">
         <v>2.5</v>
@@ -43978,7 +44029,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ206">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR206">
         <v>1.47</v>
@@ -44103,7 +44154,7 @@
         <v>250</v>
       </c>
       <c r="P207" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="Q207">
         <v>3</v>
@@ -44309,7 +44360,7 @@
         <v>251</v>
       </c>
       <c r="P208" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="Q208">
         <v>2.38</v>
@@ -44387,7 +44438,7 @@
         <v>1.5</v>
       </c>
       <c r="AP208">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ208">
         <v>1.22</v>
@@ -44799,7 +44850,7 @@
         <v>0.83</v>
       </c>
       <c r="AP210">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ210">
         <v>0.67</v>
@@ -45133,7 +45184,7 @@
         <v>253</v>
       </c>
       <c r="P212" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="Q212">
         <v>2.2</v>
@@ -45339,7 +45390,7 @@
         <v>254</v>
       </c>
       <c r="P213" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="Q213">
         <v>3</v>
@@ -45417,7 +45468,7 @@
         <v>1</v>
       </c>
       <c r="AP213">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ213">
         <v>0.78</v>
@@ -45545,7 +45596,7 @@
         <v>104</v>
       </c>
       <c r="P214" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="Q214">
         <v>2.4</v>
@@ -45623,10 +45674,10 @@
         <v>0.4</v>
       </c>
       <c r="AP214">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ214">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR214">
         <v>1.42</v>
@@ -45751,7 +45802,7 @@
         <v>145</v>
       </c>
       <c r="P215" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="Q215">
         <v>2.05</v>
@@ -45829,10 +45880,10 @@
         <v>0.5</v>
       </c>
       <c r="AP215">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ215">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR215">
         <v>1.56</v>
@@ -45957,7 +46008,7 @@
         <v>104</v>
       </c>
       <c r="P216" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="Q216">
         <v>2.5</v>
@@ -46035,10 +46086,10 @@
         <v>0.63</v>
       </c>
       <c r="AP216">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ216">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR216">
         <v>1.32</v>
@@ -46244,7 +46295,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ217">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR217">
         <v>1.37</v>
@@ -46369,7 +46420,7 @@
         <v>255</v>
       </c>
       <c r="P218" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="Q218">
         <v>2.6</v>
@@ -46447,10 +46498,10 @@
         <v>1.38</v>
       </c>
       <c r="AP218">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ218">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR218">
         <v>1.84</v>
@@ -46575,7 +46626,7 @@
         <v>256</v>
       </c>
       <c r="P219" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="Q219">
         <v>2.75</v>
@@ -46653,7 +46704,7 @@
         <v>1.57</v>
       </c>
       <c r="AP219">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ219">
         <v>1.56</v>
@@ -46859,7 +46910,7 @@
         <v>0.33</v>
       </c>
       <c r="AP220">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ220">
         <v>0.33</v>
@@ -46987,7 +47038,7 @@
         <v>258</v>
       </c>
       <c r="P221" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="Q221">
         <v>2.6</v>
@@ -47068,7 +47119,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ221">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR221">
         <v>1.54</v>
@@ -47274,7 +47325,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ222">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR222">
         <v>2.02</v>
@@ -47399,7 +47450,7 @@
         <v>260</v>
       </c>
       <c r="P223" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="Q223">
         <v>2.2</v>
@@ -47686,7 +47737,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ224">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR224">
         <v>1.69</v>
@@ -47811,7 +47862,7 @@
         <v>138</v>
       </c>
       <c r="P225" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="Q225">
         <v>1.91</v>
@@ -48017,7 +48068,7 @@
         <v>262</v>
       </c>
       <c r="P226" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="Q226">
         <v>1.83</v>
@@ -48095,7 +48146,7 @@
         <v>0.67</v>
       </c>
       <c r="AP226">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ226">
         <v>0.63</v>
@@ -48223,7 +48274,7 @@
         <v>263</v>
       </c>
       <c r="P227" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="Q227">
         <v>2.38</v>
@@ -48301,7 +48352,7 @@
         <v>1</v>
       </c>
       <c r="AP227">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ227">
         <v>1</v>
@@ -48841,7 +48892,7 @@
         <v>124</v>
       </c>
       <c r="P230" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="Q230">
         <v>2.3</v>
@@ -49334,7 +49385,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ232">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR232">
         <v>1.58</v>
@@ -49665,7 +49716,7 @@
         <v>269</v>
       </c>
       <c r="P234" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="Q234">
         <v>2.75</v>
@@ -49871,7 +49922,7 @@
         <v>270</v>
       </c>
       <c r="P235" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="Q235">
         <v>2.75</v>
@@ -50158,7 +50209,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ236">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR236">
         <v>1.32</v>
@@ -50361,10 +50412,10 @@
         <v>0.89</v>
       </c>
       <c r="AP237">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ237">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR237">
         <v>1.85</v>
@@ -50695,7 +50746,7 @@
         <v>272</v>
       </c>
       <c r="P239" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="Q239">
         <v>3.4</v>
@@ -50773,7 +50824,7 @@
         <v>1.11</v>
       </c>
       <c r="AP239">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ239">
         <v>1</v>
@@ -50901,7 +50952,7 @@
         <v>273</v>
       </c>
       <c r="P240" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="Q240">
         <v>2.75</v>
@@ -50982,7 +51033,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ240">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR240">
         <v>1.72</v>
@@ -51188,7 +51239,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ241">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR241">
         <v>1.68</v>
@@ -51313,7 +51364,7 @@
         <v>274</v>
       </c>
       <c r="P242" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="Q242">
         <v>2.4</v>
@@ -51391,7 +51442,7 @@
         <v>0.57</v>
       </c>
       <c r="AP242">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ242">
         <v>0.88</v>
@@ -51519,7 +51570,7 @@
         <v>173</v>
       </c>
       <c r="P243" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="Q243">
         <v>2.38</v>
@@ -51725,7 +51776,7 @@
         <v>275</v>
       </c>
       <c r="P244" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="Q244">
         <v>3</v>
@@ -51931,7 +51982,7 @@
         <v>258</v>
       </c>
       <c r="P245" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="Q245">
         <v>3.1</v>
@@ -52012,7 +52063,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ245">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR245">
         <v>1.44</v>
@@ -52215,7 +52266,7 @@
         <v>0.88</v>
       </c>
       <c r="AP246">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ246">
         <v>0.78</v>
@@ -52343,7 +52394,7 @@
         <v>277</v>
       </c>
       <c r="P247" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="Q247">
         <v>2.63</v>
@@ -52627,10 +52678,10 @@
         <v>1.56</v>
       </c>
       <c r="AP248">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ248">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR248">
         <v>1.25</v>
@@ -52833,7 +52884,7 @@
         <v>0.71</v>
       </c>
       <c r="AP249">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ249">
         <v>0.63</v>
@@ -53167,7 +53218,7 @@
         <v>280</v>
       </c>
       <c r="P251" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="Q251">
         <v>2.1</v>
@@ -53245,7 +53296,7 @@
         <v>0.63</v>
       </c>
       <c r="AP251">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ251">
         <v>0.5600000000000001</v>
@@ -53373,7 +53424,7 @@
         <v>281</v>
       </c>
       <c r="P252" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="Q252">
         <v>3.25</v>
@@ -53451,7 +53502,7 @@
         <v>2.38</v>
       </c>
       <c r="AP252">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ252">
         <v>2.44</v>
@@ -53660,7 +53711,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ253">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR253">
         <v>1.56</v>
@@ -53736,6 +53787,2684 @@
       </c>
       <c r="BP253">
         <v>1.68</v>
+      </c>
+    </row>
+    <row r="254" spans="1:68">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>7295495</v>
+      </c>
+      <c r="C254" t="s">
+        <v>68</v>
+      </c>
+      <c r="D254" t="s">
+        <v>69</v>
+      </c>
+      <c r="E254" s="2">
+        <v>45462.85416666666</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254" t="s">
+        <v>95</v>
+      </c>
+      <c r="H254" t="s">
+        <v>83</v>
+      </c>
+      <c r="I254">
+        <v>1</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254">
+        <v>1</v>
+      </c>
+      <c r="L254">
+        <v>1</v>
+      </c>
+      <c r="M254">
+        <v>2</v>
+      </c>
+      <c r="N254">
+        <v>3</v>
+      </c>
+      <c r="O254" t="s">
+        <v>283</v>
+      </c>
+      <c r="P254" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q254">
+        <v>2.88</v>
+      </c>
+      <c r="R254">
+        <v>2.2</v>
+      </c>
+      <c r="S254">
+        <v>3.5</v>
+      </c>
+      <c r="T254">
+        <v>1.36</v>
+      </c>
+      <c r="U254">
+        <v>3</v>
+      </c>
+      <c r="V254">
+        <v>2.63</v>
+      </c>
+      <c r="W254">
+        <v>1.44</v>
+      </c>
+      <c r="X254">
+        <v>7</v>
+      </c>
+      <c r="Y254">
+        <v>1.1</v>
+      </c>
+      <c r="Z254">
+        <v>2.26</v>
+      </c>
+      <c r="AA254">
+        <v>3.4</v>
+      </c>
+      <c r="AB254">
+        <v>2.93</v>
+      </c>
+      <c r="AC254">
+        <v>1.05</v>
+      </c>
+      <c r="AD254">
+        <v>12</v>
+      </c>
+      <c r="AE254">
+        <v>1.28</v>
+      </c>
+      <c r="AF254">
+        <v>3.75</v>
+      </c>
+      <c r="AG254">
+        <v>1.93</v>
+      </c>
+      <c r="AH254">
+        <v>1.91</v>
+      </c>
+      <c r="AI254">
+        <v>1.67</v>
+      </c>
+      <c r="AJ254">
+        <v>2.1</v>
+      </c>
+      <c r="AK254">
+        <v>1.38</v>
+      </c>
+      <c r="AL254">
+        <v>1.28</v>
+      </c>
+      <c r="AM254">
+        <v>1.65</v>
+      </c>
+      <c r="AN254">
+        <v>1.67</v>
+      </c>
+      <c r="AO254">
+        <v>0.86</v>
+      </c>
+      <c r="AP254">
+        <v>1.5</v>
+      </c>
+      <c r="AQ254">
+        <v>1.13</v>
+      </c>
+      <c r="AR254">
+        <v>1.45</v>
+      </c>
+      <c r="AS254">
+        <v>0.91</v>
+      </c>
+      <c r="AT254">
+        <v>2.36</v>
+      </c>
+      <c r="AU254">
+        <v>6</v>
+      </c>
+      <c r="AV254">
+        <v>4</v>
+      </c>
+      <c r="AW254">
+        <v>10</v>
+      </c>
+      <c r="AX254">
+        <v>7</v>
+      </c>
+      <c r="AY254">
+        <v>16</v>
+      </c>
+      <c r="AZ254">
+        <v>11</v>
+      </c>
+      <c r="BA254">
+        <v>2</v>
+      </c>
+      <c r="BB254">
+        <v>3</v>
+      </c>
+      <c r="BC254">
+        <v>5</v>
+      </c>
+      <c r="BD254">
+        <v>1.76</v>
+      </c>
+      <c r="BE254">
+        <v>6.4</v>
+      </c>
+      <c r="BF254">
+        <v>2.15</v>
+      </c>
+      <c r="BG254">
+        <v>1.3</v>
+      </c>
+      <c r="BH254">
+        <v>3.05</v>
+      </c>
+      <c r="BI254">
+        <v>1.54</v>
+      </c>
+      <c r="BJ254">
+        <v>2.28</v>
+      </c>
+      <c r="BK254">
+        <v>1.9</v>
+      </c>
+      <c r="BL254">
+        <v>1.79</v>
+      </c>
+      <c r="BM254">
+        <v>2.38</v>
+      </c>
+      <c r="BN254">
+        <v>1.5</v>
+      </c>
+      <c r="BO254">
+        <v>3.05</v>
+      </c>
+      <c r="BP254">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:68">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>7295493</v>
+      </c>
+      <c r="C255" t="s">
+        <v>68</v>
+      </c>
+      <c r="D255" t="s">
+        <v>69</v>
+      </c>
+      <c r="E255" s="2">
+        <v>45462.85416666666</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255" t="s">
+        <v>70</v>
+      </c>
+      <c r="H255" t="s">
+        <v>71</v>
+      </c>
+      <c r="I255">
+        <v>2</v>
+      </c>
+      <c r="J255">
+        <v>1</v>
+      </c>
+      <c r="K255">
+        <v>3</v>
+      </c>
+      <c r="L255">
+        <v>2</v>
+      </c>
+      <c r="M255">
+        <v>1</v>
+      </c>
+      <c r="N255">
+        <v>3</v>
+      </c>
+      <c r="O255" t="s">
+        <v>284</v>
+      </c>
+      <c r="P255" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q255">
+        <v>2.75</v>
+      </c>
+      <c r="R255">
+        <v>2.4</v>
+      </c>
+      <c r="S255">
+        <v>3.25</v>
+      </c>
+      <c r="T255">
+        <v>1.25</v>
+      </c>
+      <c r="U255">
+        <v>3.75</v>
+      </c>
+      <c r="V255">
+        <v>2.2</v>
+      </c>
+      <c r="W255">
+        <v>1.62</v>
+      </c>
+      <c r="X255">
+        <v>5</v>
+      </c>
+      <c r="Y255">
+        <v>1.17</v>
+      </c>
+      <c r="Z255">
+        <v>2.18</v>
+      </c>
+      <c r="AA255">
+        <v>3.7</v>
+      </c>
+      <c r="AB255">
+        <v>2.83</v>
+      </c>
+      <c r="AC255">
+        <v>1.02</v>
+      </c>
+      <c r="AD255">
+        <v>19</v>
+      </c>
+      <c r="AE255">
+        <v>1.16</v>
+      </c>
+      <c r="AF255">
+        <v>5.5</v>
+      </c>
+      <c r="AG255">
+        <v>1.55</v>
+      </c>
+      <c r="AH255">
+        <v>2.3</v>
+      </c>
+      <c r="AI255">
+        <v>1.44</v>
+      </c>
+      <c r="AJ255">
+        <v>2.63</v>
+      </c>
+      <c r="AK255">
+        <v>1.4</v>
+      </c>
+      <c r="AL255">
+        <v>1.22</v>
+      </c>
+      <c r="AM255">
+        <v>1.7</v>
+      </c>
+      <c r="AN255">
+        <v>1.8</v>
+      </c>
+      <c r="AO255">
+        <v>1.88</v>
+      </c>
+      <c r="AP255">
+        <v>1.91</v>
+      </c>
+      <c r="AQ255">
+        <v>1.67</v>
+      </c>
+      <c r="AR255">
+        <v>1.6</v>
+      </c>
+      <c r="AS255">
+        <v>1.27</v>
+      </c>
+      <c r="AT255">
+        <v>2.87</v>
+      </c>
+      <c r="AU255">
+        <v>8</v>
+      </c>
+      <c r="AV255">
+        <v>5</v>
+      </c>
+      <c r="AW255">
+        <v>2</v>
+      </c>
+      <c r="AX255">
+        <v>8</v>
+      </c>
+      <c r="AY255">
+        <v>10</v>
+      </c>
+      <c r="AZ255">
+        <v>13</v>
+      </c>
+      <c r="BA255">
+        <v>3</v>
+      </c>
+      <c r="BB255">
+        <v>4</v>
+      </c>
+      <c r="BC255">
+        <v>7</v>
+      </c>
+      <c r="BD255">
+        <v>1.95</v>
+      </c>
+      <c r="BE255">
+        <v>5.8</v>
+      </c>
+      <c r="BF255">
+        <v>1.98</v>
+      </c>
+      <c r="BG255">
+        <v>1.4</v>
+      </c>
+      <c r="BH255">
+        <v>2.7</v>
+      </c>
+      <c r="BI255">
+        <v>1.67</v>
+      </c>
+      <c r="BJ255">
+        <v>2.05</v>
+      </c>
+      <c r="BK255">
+        <v>2.1</v>
+      </c>
+      <c r="BL255">
+        <v>1.64</v>
+      </c>
+      <c r="BM255">
+        <v>2.7</v>
+      </c>
+      <c r="BN255">
+        <v>1.4</v>
+      </c>
+      <c r="BO255">
+        <v>3.65</v>
+      </c>
+      <c r="BP255">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="256" spans="1:68">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>7295492</v>
+      </c>
+      <c r="C256" t="s">
+        <v>68</v>
+      </c>
+      <c r="D256" t="s">
+        <v>69</v>
+      </c>
+      <c r="E256" s="2">
+        <v>45462.85416666666</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+      <c r="G256" t="s">
+        <v>74</v>
+      </c>
+      <c r="H256" t="s">
+        <v>96</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>0</v>
+      </c>
+      <c r="L256">
+        <v>0</v>
+      </c>
+      <c r="M256">
+        <v>1</v>
+      </c>
+      <c r="N256">
+        <v>1</v>
+      </c>
+      <c r="O256" t="s">
+        <v>104</v>
+      </c>
+      <c r="P256" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q256">
+        <v>2.75</v>
+      </c>
+      <c r="R256">
+        <v>2.38</v>
+      </c>
+      <c r="S256">
+        <v>3.5</v>
+      </c>
+      <c r="T256">
+        <v>1.29</v>
+      </c>
+      <c r="U256">
+        <v>3.5</v>
+      </c>
+      <c r="V256">
+        <v>2.38</v>
+      </c>
+      <c r="W256">
+        <v>1.53</v>
+      </c>
+      <c r="X256">
+        <v>5.5</v>
+      </c>
+      <c r="Y256">
+        <v>1.14</v>
+      </c>
+      <c r="Z256">
+        <v>1.99</v>
+      </c>
+      <c r="AA256">
+        <v>3.85</v>
+      </c>
+      <c r="AB256">
+        <v>3.15</v>
+      </c>
+      <c r="AC256">
+        <v>1.02</v>
+      </c>
+      <c r="AD256">
+        <v>19</v>
+      </c>
+      <c r="AE256">
+        <v>1.18</v>
+      </c>
+      <c r="AF256">
+        <v>5</v>
+      </c>
+      <c r="AG256">
+        <v>1.55</v>
+      </c>
+      <c r="AH256">
+        <v>2.3</v>
+      </c>
+      <c r="AI256">
+        <v>1.53</v>
+      </c>
+      <c r="AJ256">
+        <v>2.38</v>
+      </c>
+      <c r="AK256">
+        <v>1.35</v>
+      </c>
+      <c r="AL256">
+        <v>1.22</v>
+      </c>
+      <c r="AM256">
+        <v>1.8</v>
+      </c>
+      <c r="AN256">
+        <v>1.33</v>
+      </c>
+      <c r="AO256">
+        <v>0.86</v>
+      </c>
+      <c r="AP256">
+        <v>1.2</v>
+      </c>
+      <c r="AQ256">
+        <v>1.13</v>
+      </c>
+      <c r="AR256">
+        <v>1.65</v>
+      </c>
+      <c r="AS256">
+        <v>1.41</v>
+      </c>
+      <c r="AT256">
+        <v>3.06</v>
+      </c>
+      <c r="AU256">
+        <v>5</v>
+      </c>
+      <c r="AV256">
+        <v>5</v>
+      </c>
+      <c r="AW256">
+        <v>9</v>
+      </c>
+      <c r="AX256">
+        <v>4</v>
+      </c>
+      <c r="AY256">
+        <v>14</v>
+      </c>
+      <c r="AZ256">
+        <v>9</v>
+      </c>
+      <c r="BA256">
+        <v>11</v>
+      </c>
+      <c r="BB256">
+        <v>2</v>
+      </c>
+      <c r="BC256">
+        <v>13</v>
+      </c>
+      <c r="BD256">
+        <v>1.65</v>
+      </c>
+      <c r="BE256">
+        <v>6.5</v>
+      </c>
+      <c r="BF256">
+        <v>2.33</v>
+      </c>
+      <c r="BG256">
+        <v>1.25</v>
+      </c>
+      <c r="BH256">
+        <v>3.4</v>
+      </c>
+      <c r="BI256">
+        <v>1.44</v>
+      </c>
+      <c r="BJ256">
+        <v>2.55</v>
+      </c>
+      <c r="BK256">
+        <v>1.73</v>
+      </c>
+      <c r="BL256">
+        <v>1.96</v>
+      </c>
+      <c r="BM256">
+        <v>2.12</v>
+      </c>
+      <c r="BN256">
+        <v>1.63</v>
+      </c>
+      <c r="BO256">
+        <v>2.7</v>
+      </c>
+      <c r="BP256">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:68">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>7295494</v>
+      </c>
+      <c r="C257" t="s">
+        <v>68</v>
+      </c>
+      <c r="D257" t="s">
+        <v>69</v>
+      </c>
+      <c r="E257" s="2">
+        <v>45462.85416666666</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+      <c r="G257" t="s">
+        <v>98</v>
+      </c>
+      <c r="H257" t="s">
+        <v>97</v>
+      </c>
+      <c r="I257">
+        <v>2</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257">
+        <v>2</v>
+      </c>
+      <c r="L257">
+        <v>2</v>
+      </c>
+      <c r="M257">
+        <v>2</v>
+      </c>
+      <c r="N257">
+        <v>4</v>
+      </c>
+      <c r="O257" t="s">
+        <v>285</v>
+      </c>
+      <c r="P257" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q257">
+        <v>3.5</v>
+      </c>
+      <c r="R257">
+        <v>2.25</v>
+      </c>
+      <c r="S257">
+        <v>2.88</v>
+      </c>
+      <c r="T257">
+        <v>1.33</v>
+      </c>
+      <c r="U257">
+        <v>3.25</v>
+      </c>
+      <c r="V257">
+        <v>2.63</v>
+      </c>
+      <c r="W257">
+        <v>1.44</v>
+      </c>
+      <c r="X257">
+        <v>6.5</v>
+      </c>
+      <c r="Y257">
+        <v>1.11</v>
+      </c>
+      <c r="Z257">
+        <v>3.2</v>
+      </c>
+      <c r="AA257">
+        <v>3.5</v>
+      </c>
+      <c r="AB257">
+        <v>2.06</v>
+      </c>
+      <c r="AC257">
+        <v>1.03</v>
+      </c>
+      <c r="AD257">
+        <v>15</v>
+      </c>
+      <c r="AE257">
+        <v>1.24</v>
+      </c>
+      <c r="AF257">
+        <v>4.2</v>
+      </c>
+      <c r="AG257">
+        <v>1.76</v>
+      </c>
+      <c r="AH257">
+        <v>1.94</v>
+      </c>
+      <c r="AI257">
+        <v>1.62</v>
+      </c>
+      <c r="AJ257">
+        <v>2.2</v>
+      </c>
+      <c r="AK257">
+        <v>1.75</v>
+      </c>
+      <c r="AL257">
+        <v>1.24</v>
+      </c>
+      <c r="AM257">
+        <v>1.36</v>
+      </c>
+      <c r="AN257">
+        <v>1.29</v>
+      </c>
+      <c r="AO257">
+        <v>1.2</v>
+      </c>
+      <c r="AP257">
+        <v>1.25</v>
+      </c>
+      <c r="AQ257">
+        <v>1.18</v>
+      </c>
+      <c r="AR257">
+        <v>1.22</v>
+      </c>
+      <c r="AS257">
+        <v>1.21</v>
+      </c>
+      <c r="AT257">
+        <v>2.43</v>
+      </c>
+      <c r="AU257">
+        <v>5</v>
+      </c>
+      <c r="AV257">
+        <v>11</v>
+      </c>
+      <c r="AW257">
+        <v>2</v>
+      </c>
+      <c r="AX257">
+        <v>11</v>
+      </c>
+      <c r="AY257">
+        <v>7</v>
+      </c>
+      <c r="AZ257">
+        <v>22</v>
+      </c>
+      <c r="BA257">
+        <v>3</v>
+      </c>
+      <c r="BB257">
+        <v>12</v>
+      </c>
+      <c r="BC257">
+        <v>15</v>
+      </c>
+      <c r="BD257">
+        <v>2.18</v>
+      </c>
+      <c r="BE257">
+        <v>6.4</v>
+      </c>
+      <c r="BF257">
+        <v>1.74</v>
+      </c>
+      <c r="BG257">
+        <v>1.33</v>
+      </c>
+      <c r="BH257">
+        <v>2.95</v>
+      </c>
+      <c r="BI257">
+        <v>1.56</v>
+      </c>
+      <c r="BJ257">
+        <v>2.23</v>
+      </c>
+      <c r="BK257">
+        <v>1.91</v>
+      </c>
+      <c r="BL257">
+        <v>1.77</v>
+      </c>
+      <c r="BM257">
+        <v>2.4</v>
+      </c>
+      <c r="BN257">
+        <v>1.49</v>
+      </c>
+      <c r="BO257">
+        <v>3.15</v>
+      </c>
+      <c r="BP257">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:68">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>7295490</v>
+      </c>
+      <c r="C258" t="s">
+        <v>68</v>
+      </c>
+      <c r="D258" t="s">
+        <v>69</v>
+      </c>
+      <c r="E258" s="2">
+        <v>45462.85416666666</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+      <c r="G258" t="s">
+        <v>73</v>
+      </c>
+      <c r="H258" t="s">
+        <v>75</v>
+      </c>
+      <c r="I258">
+        <v>1</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="K258">
+        <v>1</v>
+      </c>
+      <c r="L258">
+        <v>2</v>
+      </c>
+      <c r="M258">
+        <v>2</v>
+      </c>
+      <c r="N258">
+        <v>4</v>
+      </c>
+      <c r="O258" t="s">
+        <v>286</v>
+      </c>
+      <c r="P258" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q258">
+        <v>2.75</v>
+      </c>
+      <c r="R258">
+        <v>2.3</v>
+      </c>
+      <c r="S258">
+        <v>3.6</v>
+      </c>
+      <c r="T258">
+        <v>1.33</v>
+      </c>
+      <c r="U258">
+        <v>3.25</v>
+      </c>
+      <c r="V258">
+        <v>2.5</v>
+      </c>
+      <c r="W258">
+        <v>1.5</v>
+      </c>
+      <c r="X258">
+        <v>6.5</v>
+      </c>
+      <c r="Y258">
+        <v>1.11</v>
+      </c>
+      <c r="Z258">
+        <v>2.16</v>
+      </c>
+      <c r="AA258">
+        <v>3.5</v>
+      </c>
+      <c r="AB258">
+        <v>3</v>
+      </c>
+      <c r="AC258">
+        <v>1.03</v>
+      </c>
+      <c r="AD258">
+        <v>15</v>
+      </c>
+      <c r="AE258">
+        <v>1.22</v>
+      </c>
+      <c r="AF258">
+        <v>4.33</v>
+      </c>
+      <c r="AG258">
+        <v>1.78</v>
+      </c>
+      <c r="AH258">
+        <v>1.91</v>
+      </c>
+      <c r="AI258">
+        <v>1.57</v>
+      </c>
+      <c r="AJ258">
+        <v>2.25</v>
+      </c>
+      <c r="AK258">
+        <v>1.36</v>
+      </c>
+      <c r="AL258">
+        <v>1.24</v>
+      </c>
+      <c r="AM258">
+        <v>1.75</v>
+      </c>
+      <c r="AN258">
+        <v>2.1</v>
+      </c>
+      <c r="AO258">
+        <v>1.38</v>
+      </c>
+      <c r="AP258">
+        <v>2</v>
+      </c>
+      <c r="AQ258">
+        <v>1.33</v>
+      </c>
+      <c r="AR258">
+        <v>1.15</v>
+      </c>
+      <c r="AS258">
+        <v>1.16</v>
+      </c>
+      <c r="AT258">
+        <v>2.31</v>
+      </c>
+      <c r="AU258">
+        <v>6</v>
+      </c>
+      <c r="AV258">
+        <v>10</v>
+      </c>
+      <c r="AW258">
+        <v>2</v>
+      </c>
+      <c r="AX258">
+        <v>9</v>
+      </c>
+      <c r="AY258">
+        <v>8</v>
+      </c>
+      <c r="AZ258">
+        <v>19</v>
+      </c>
+      <c r="BA258">
+        <v>3</v>
+      </c>
+      <c r="BB258">
+        <v>11</v>
+      </c>
+      <c r="BC258">
+        <v>14</v>
+      </c>
+      <c r="BD258">
+        <v>1.65</v>
+      </c>
+      <c r="BE258">
+        <v>6.25</v>
+      </c>
+      <c r="BF258">
+        <v>2.35</v>
+      </c>
+      <c r="BG258">
+        <v>1.33</v>
+      </c>
+      <c r="BH258">
+        <v>2.95</v>
+      </c>
+      <c r="BI258">
+        <v>1.56</v>
+      </c>
+      <c r="BJ258">
+        <v>2.23</v>
+      </c>
+      <c r="BK258">
+        <v>1.9</v>
+      </c>
+      <c r="BL258">
+        <v>1.78</v>
+      </c>
+      <c r="BM258">
+        <v>2.4</v>
+      </c>
+      <c r="BN258">
+        <v>1.49</v>
+      </c>
+      <c r="BO258">
+        <v>3.15</v>
+      </c>
+      <c r="BP258">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:68">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>7295491</v>
+      </c>
+      <c r="C259" t="s">
+        <v>68</v>
+      </c>
+      <c r="D259" t="s">
+        <v>69</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45462.86458333334</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+      <c r="G259" t="s">
+        <v>82</v>
+      </c>
+      <c r="H259" t="s">
+        <v>76</v>
+      </c>
+      <c r="I259">
+        <v>1</v>
+      </c>
+      <c r="J259">
+        <v>1</v>
+      </c>
+      <c r="K259">
+        <v>2</v>
+      </c>
+      <c r="L259">
+        <v>4</v>
+      </c>
+      <c r="M259">
+        <v>3</v>
+      </c>
+      <c r="N259">
+        <v>7</v>
+      </c>
+      <c r="O259" t="s">
+        <v>287</v>
+      </c>
+      <c r="P259" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q259">
+        <v>2.38</v>
+      </c>
+      <c r="R259">
+        <v>2.3</v>
+      </c>
+      <c r="S259">
+        <v>4.33</v>
+      </c>
+      <c r="T259">
+        <v>1.33</v>
+      </c>
+      <c r="U259">
+        <v>3.25</v>
+      </c>
+      <c r="V259">
+        <v>2.5</v>
+      </c>
+      <c r="W259">
+        <v>1.5</v>
+      </c>
+      <c r="X259">
+        <v>6</v>
+      </c>
+      <c r="Y259">
+        <v>1.13</v>
+      </c>
+      <c r="Z259">
+        <v>1.81</v>
+      </c>
+      <c r="AA259">
+        <v>3.8</v>
+      </c>
+      <c r="AB259">
+        <v>3.8</v>
+      </c>
+      <c r="AC259">
+        <v>1.03</v>
+      </c>
+      <c r="AD259">
+        <v>15</v>
+      </c>
+      <c r="AE259">
+        <v>1.22</v>
+      </c>
+      <c r="AF259">
+        <v>4.33</v>
+      </c>
+      <c r="AG259">
+        <v>1.6</v>
+      </c>
+      <c r="AH259">
+        <v>2.17</v>
+      </c>
+      <c r="AI259">
+        <v>1.67</v>
+      </c>
+      <c r="AJ259">
+        <v>2.1</v>
+      </c>
+      <c r="AK259">
+        <v>1.24</v>
+      </c>
+      <c r="AL259">
+        <v>1.22</v>
+      </c>
+      <c r="AM259">
+        <v>2</v>
+      </c>
+      <c r="AN259">
+        <v>1.75</v>
+      </c>
+      <c r="AO259">
+        <v>1.75</v>
+      </c>
+      <c r="AP259">
+        <v>1.89</v>
+      </c>
+      <c r="AQ259">
+        <v>1.56</v>
+      </c>
+      <c r="AR259">
+        <v>1.51</v>
+      </c>
+      <c r="AS259">
+        <v>1.2</v>
+      </c>
+      <c r="AT259">
+        <v>2.71</v>
+      </c>
+      <c r="AU259">
+        <v>7</v>
+      </c>
+      <c r="AV259">
+        <v>6</v>
+      </c>
+      <c r="AW259">
+        <v>6</v>
+      </c>
+      <c r="AX259">
+        <v>6</v>
+      </c>
+      <c r="AY259">
+        <v>13</v>
+      </c>
+      <c r="AZ259">
+        <v>12</v>
+      </c>
+      <c r="BA259">
+        <v>2</v>
+      </c>
+      <c r="BB259">
+        <v>4</v>
+      </c>
+      <c r="BC259">
+        <v>6</v>
+      </c>
+      <c r="BD259">
+        <v>1.49</v>
+      </c>
+      <c r="BE259">
+        <v>6.5</v>
+      </c>
+      <c r="BF259">
+        <v>2.7</v>
+      </c>
+      <c r="BG259">
+        <v>1.25</v>
+      </c>
+      <c r="BH259">
+        <v>3.45</v>
+      </c>
+      <c r="BI259">
+        <v>1.44</v>
+      </c>
+      <c r="BJ259">
+        <v>2.55</v>
+      </c>
+      <c r="BK259">
+        <v>1.72</v>
+      </c>
+      <c r="BL259">
+        <v>1.98</v>
+      </c>
+      <c r="BM259">
+        <v>2.12</v>
+      </c>
+      <c r="BN259">
+        <v>1.62</v>
+      </c>
+      <c r="BO259">
+        <v>2.65</v>
+      </c>
+      <c r="BP259">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:68">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>7295499</v>
+      </c>
+      <c r="C260" t="s">
+        <v>68</v>
+      </c>
+      <c r="D260" t="s">
+        <v>69</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45462.89583333334</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+      <c r="G260" t="s">
+        <v>89</v>
+      </c>
+      <c r="H260" t="s">
+        <v>86</v>
+      </c>
+      <c r="I260">
+        <v>1</v>
+      </c>
+      <c r="J260">
+        <v>2</v>
+      </c>
+      <c r="K260">
+        <v>3</v>
+      </c>
+      <c r="L260">
+        <v>3</v>
+      </c>
+      <c r="M260">
+        <v>4</v>
+      </c>
+      <c r="N260">
+        <v>7</v>
+      </c>
+      <c r="O260" t="s">
+        <v>288</v>
+      </c>
+      <c r="P260" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q260">
+        <v>3.25</v>
+      </c>
+      <c r="R260">
+        <v>2.25</v>
+      </c>
+      <c r="S260">
+        <v>3</v>
+      </c>
+      <c r="T260">
+        <v>1.33</v>
+      </c>
+      <c r="U260">
+        <v>3.25</v>
+      </c>
+      <c r="V260">
+        <v>2.63</v>
+      </c>
+      <c r="W260">
+        <v>1.44</v>
+      </c>
+      <c r="X260">
+        <v>6.5</v>
+      </c>
+      <c r="Y260">
+        <v>1.11</v>
+      </c>
+      <c r="Z260">
+        <v>2.56</v>
+      </c>
+      <c r="AA260">
+        <v>3.55</v>
+      </c>
+      <c r="AB260">
+        <v>2.46</v>
+      </c>
+      <c r="AC260">
+        <v>1.04</v>
+      </c>
+      <c r="AD260">
+        <v>13</v>
+      </c>
+      <c r="AE260">
+        <v>1.25</v>
+      </c>
+      <c r="AF260">
+        <v>4</v>
+      </c>
+      <c r="AG260">
+        <v>1.63</v>
+      </c>
+      <c r="AH260">
+        <v>2.12</v>
+      </c>
+      <c r="AI260">
+        <v>1.62</v>
+      </c>
+      <c r="AJ260">
+        <v>2.2</v>
+      </c>
+      <c r="AK260">
+        <v>1.6</v>
+      </c>
+      <c r="AL260">
+        <v>1.26</v>
+      </c>
+      <c r="AM260">
+        <v>1.45</v>
+      </c>
+      <c r="AN260">
+        <v>1</v>
+      </c>
+      <c r="AO260">
+        <v>1.5</v>
+      </c>
+      <c r="AP260">
+        <v>0.9</v>
+      </c>
+      <c r="AQ260">
+        <v>1.64</v>
+      </c>
+      <c r="AR260">
+        <v>1.45</v>
+      </c>
+      <c r="AS260">
+        <v>1.56</v>
+      </c>
+      <c r="AT260">
+        <v>3.01</v>
+      </c>
+      <c r="AU260">
+        <v>9</v>
+      </c>
+      <c r="AV260">
+        <v>10</v>
+      </c>
+      <c r="AW260">
+        <v>10</v>
+      </c>
+      <c r="AX260">
+        <v>3</v>
+      </c>
+      <c r="AY260">
+        <v>19</v>
+      </c>
+      <c r="AZ260">
+        <v>13</v>
+      </c>
+      <c r="BA260">
+        <v>13</v>
+      </c>
+      <c r="BB260">
+        <v>0</v>
+      </c>
+      <c r="BC260">
+        <v>13</v>
+      </c>
+      <c r="BD260">
+        <v>1.95</v>
+      </c>
+      <c r="BE260">
+        <v>6.4</v>
+      </c>
+      <c r="BF260">
+        <v>1.94</v>
+      </c>
+      <c r="BG260">
+        <v>1.28</v>
+      </c>
+      <c r="BH260">
+        <v>3.3</v>
+      </c>
+      <c r="BI260">
+        <v>1.49</v>
+      </c>
+      <c r="BJ260">
+        <v>2.4</v>
+      </c>
+      <c r="BK260">
+        <v>1.8</v>
+      </c>
+      <c r="BL260">
+        <v>1.88</v>
+      </c>
+      <c r="BM260">
+        <v>2.25</v>
+      </c>
+      <c r="BN260">
+        <v>1.55</v>
+      </c>
+      <c r="BO260">
+        <v>2.9</v>
+      </c>
+      <c r="BP260">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="261" spans="1:68">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>7295498</v>
+      </c>
+      <c r="C261" t="s">
+        <v>68</v>
+      </c>
+      <c r="D261" t="s">
+        <v>69</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45462.89583333334</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+      <c r="G261" t="s">
+        <v>79</v>
+      </c>
+      <c r="H261" t="s">
+        <v>92</v>
+      </c>
+      <c r="I261">
+        <v>2</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>2</v>
+      </c>
+      <c r="L261">
+        <v>2</v>
+      </c>
+      <c r="M261">
+        <v>2</v>
+      </c>
+      <c r="N261">
+        <v>4</v>
+      </c>
+      <c r="O261" t="s">
+        <v>289</v>
+      </c>
+      <c r="P261" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q261">
+        <v>3.1</v>
+      </c>
+      <c r="R261">
+        <v>2.2</v>
+      </c>
+      <c r="S261">
+        <v>3.4</v>
+      </c>
+      <c r="T261">
+        <v>1.36</v>
+      </c>
+      <c r="U261">
+        <v>3</v>
+      </c>
+      <c r="V261">
+        <v>2.75</v>
+      </c>
+      <c r="W261">
+        <v>1.4</v>
+      </c>
+      <c r="X261">
+        <v>8</v>
+      </c>
+      <c r="Y261">
+        <v>1.08</v>
+      </c>
+      <c r="Z261">
+        <v>2.12</v>
+      </c>
+      <c r="AA261">
+        <v>3.3</v>
+      </c>
+      <c r="AB261">
+        <v>3.25</v>
+      </c>
+      <c r="AC261">
+        <v>1.04</v>
+      </c>
+      <c r="AD261">
+        <v>13</v>
+      </c>
+      <c r="AE261">
+        <v>1.3</v>
+      </c>
+      <c r="AF261">
+        <v>3.6</v>
+      </c>
+      <c r="AG261">
+        <v>2.01</v>
+      </c>
+      <c r="AH261">
+        <v>1.83</v>
+      </c>
+      <c r="AI261">
+        <v>1.7</v>
+      </c>
+      <c r="AJ261">
+        <v>2.05</v>
+      </c>
+      <c r="AK261">
+        <v>1.48</v>
+      </c>
+      <c r="AL261">
+        <v>1.25</v>
+      </c>
+      <c r="AM261">
+        <v>1.57</v>
+      </c>
+      <c r="AN261">
+        <v>1.5</v>
+      </c>
+      <c r="AO261">
+        <v>1</v>
+      </c>
+      <c r="AP261">
+        <v>1.44</v>
+      </c>
+      <c r="AQ261">
+        <v>1</v>
+      </c>
+      <c r="AR261">
+        <v>1.79</v>
+      </c>
+      <c r="AS261">
+        <v>1.24</v>
+      </c>
+      <c r="AT261">
+        <v>3.03</v>
+      </c>
+      <c r="AU261">
+        <v>6</v>
+      </c>
+      <c r="AV261">
+        <v>6</v>
+      </c>
+      <c r="AW261">
+        <v>6</v>
+      </c>
+      <c r="AX261">
+        <v>2</v>
+      </c>
+      <c r="AY261">
+        <v>12</v>
+      </c>
+      <c r="AZ261">
+        <v>8</v>
+      </c>
+      <c r="BA261">
+        <v>5</v>
+      </c>
+      <c r="BB261">
+        <v>2</v>
+      </c>
+      <c r="BC261">
+        <v>7</v>
+      </c>
+      <c r="BD261">
+        <v>1.65</v>
+      </c>
+      <c r="BE261">
+        <v>6.5</v>
+      </c>
+      <c r="BF261">
+        <v>2.33</v>
+      </c>
+      <c r="BG261">
+        <v>1.25</v>
+      </c>
+      <c r="BH261">
+        <v>3.45</v>
+      </c>
+      <c r="BI261">
+        <v>1.44</v>
+      </c>
+      <c r="BJ261">
+        <v>2.55</v>
+      </c>
+      <c r="BK261">
+        <v>1.72</v>
+      </c>
+      <c r="BL261">
+        <v>1.98</v>
+      </c>
+      <c r="BM261">
+        <v>2.1</v>
+      </c>
+      <c r="BN261">
+        <v>1.64</v>
+      </c>
+      <c r="BO261">
+        <v>2.65</v>
+      </c>
+      <c r="BP261">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:68">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>7295497</v>
+      </c>
+      <c r="C262" t="s">
+        <v>68</v>
+      </c>
+      <c r="D262" t="s">
+        <v>69</v>
+      </c>
+      <c r="E262" s="2">
+        <v>45462.89583333334</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262" t="s">
+        <v>78</v>
+      </c>
+      <c r="H262" t="s">
+        <v>85</v>
+      </c>
+      <c r="I262">
+        <v>2</v>
+      </c>
+      <c r="J262">
+        <v>1</v>
+      </c>
+      <c r="K262">
+        <v>3</v>
+      </c>
+      <c r="L262">
+        <v>5</v>
+      </c>
+      <c r="M262">
+        <v>3</v>
+      </c>
+      <c r="N262">
+        <v>8</v>
+      </c>
+      <c r="O262" t="s">
+        <v>290</v>
+      </c>
+      <c r="P262" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q262">
+        <v>3.1</v>
+      </c>
+      <c r="R262">
+        <v>2.2</v>
+      </c>
+      <c r="S262">
+        <v>3.4</v>
+      </c>
+      <c r="T262">
+        <v>1.36</v>
+      </c>
+      <c r="U262">
+        <v>3</v>
+      </c>
+      <c r="V262">
+        <v>2.63</v>
+      </c>
+      <c r="W262">
+        <v>1.44</v>
+      </c>
+      <c r="X262">
+        <v>7</v>
+      </c>
+      <c r="Y262">
+        <v>1.1</v>
+      </c>
+      <c r="Z262">
+        <v>2.03</v>
+      </c>
+      <c r="AA262">
+        <v>3.6</v>
+      </c>
+      <c r="AB262">
+        <v>3.2</v>
+      </c>
+      <c r="AC262">
+        <v>1.04</v>
+      </c>
+      <c r="AD262">
+        <v>13</v>
+      </c>
+      <c r="AE262">
+        <v>1.28</v>
+      </c>
+      <c r="AF262">
+        <v>3.75</v>
+      </c>
+      <c r="AG262">
+        <v>1.71</v>
+      </c>
+      <c r="AH262">
+        <v>2</v>
+      </c>
+      <c r="AI262">
+        <v>1.67</v>
+      </c>
+      <c r="AJ262">
+        <v>2.1</v>
+      </c>
+      <c r="AK262">
+        <v>1.37</v>
+      </c>
+      <c r="AL262">
+        <v>1.33</v>
+      </c>
+      <c r="AM262">
+        <v>1.72</v>
+      </c>
+      <c r="AN262">
+        <v>1.75</v>
+      </c>
+      <c r="AO262">
+        <v>1.63</v>
+      </c>
+      <c r="AP262">
+        <v>1.89</v>
+      </c>
+      <c r="AQ262">
+        <v>1.44</v>
+      </c>
+      <c r="AR262">
+        <v>1.5</v>
+      </c>
+      <c r="AS262">
+        <v>1.21</v>
+      </c>
+      <c r="AT262">
+        <v>2.71</v>
+      </c>
+      <c r="AU262">
+        <v>10</v>
+      </c>
+      <c r="AV262">
+        <v>8</v>
+      </c>
+      <c r="AW262">
+        <v>0</v>
+      </c>
+      <c r="AX262">
+        <v>8</v>
+      </c>
+      <c r="AY262">
+        <v>10</v>
+      </c>
+      <c r="AZ262">
+        <v>16</v>
+      </c>
+      <c r="BA262">
+        <v>1</v>
+      </c>
+      <c r="BB262">
+        <v>7</v>
+      </c>
+      <c r="BC262">
+        <v>8</v>
+      </c>
+      <c r="BD262">
+        <v>1.68</v>
+      </c>
+      <c r="BE262">
+        <v>6.4</v>
+      </c>
+      <c r="BF262">
+        <v>2.3</v>
+      </c>
+      <c r="BG262">
+        <v>1.26</v>
+      </c>
+      <c r="BH262">
+        <v>3.4</v>
+      </c>
+      <c r="BI262">
+        <v>1.47</v>
+      </c>
+      <c r="BJ262">
+        <v>2.48</v>
+      </c>
+      <c r="BK262">
+        <v>1.76</v>
+      </c>
+      <c r="BL262">
+        <v>1.94</v>
+      </c>
+      <c r="BM262">
+        <v>2.18</v>
+      </c>
+      <c r="BN262">
+        <v>1.58</v>
+      </c>
+      <c r="BO262">
+        <v>2.8</v>
+      </c>
+      <c r="BP262">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="263" spans="1:68">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>7295500</v>
+      </c>
+      <c r="C263" t="s">
+        <v>68</v>
+      </c>
+      <c r="D263" t="s">
+        <v>69</v>
+      </c>
+      <c r="E263" s="2">
+        <v>45462.89583333334</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="G263" t="s">
+        <v>80</v>
+      </c>
+      <c r="H263" t="s">
+        <v>90</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>1</v>
+      </c>
+      <c r="K263">
+        <v>1</v>
+      </c>
+      <c r="L263">
+        <v>0</v>
+      </c>
+      <c r="M263">
+        <v>3</v>
+      </c>
+      <c r="N263">
+        <v>3</v>
+      </c>
+      <c r="O263" t="s">
+        <v>104</v>
+      </c>
+      <c r="P263" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q263">
+        <v>2.5</v>
+      </c>
+      <c r="R263">
+        <v>2.38</v>
+      </c>
+      <c r="S263">
+        <v>4</v>
+      </c>
+      <c r="T263">
+        <v>1.3</v>
+      </c>
+      <c r="U263">
+        <v>3.4</v>
+      </c>
+      <c r="V263">
+        <v>2.38</v>
+      </c>
+      <c r="W263">
+        <v>1.53</v>
+      </c>
+      <c r="X263">
+        <v>6</v>
+      </c>
+      <c r="Y263">
+        <v>1.13</v>
+      </c>
+      <c r="Z263">
+        <v>1.99</v>
+      </c>
+      <c r="AA263">
+        <v>3.7</v>
+      </c>
+      <c r="AB263">
+        <v>3.25</v>
+      </c>
+      <c r="AC263">
+        <v>1.03</v>
+      </c>
+      <c r="AD263">
+        <v>15</v>
+      </c>
+      <c r="AE263">
+        <v>1.19</v>
+      </c>
+      <c r="AF263">
+        <v>4.75</v>
+      </c>
+      <c r="AG263">
+        <v>1.58</v>
+      </c>
+      <c r="AH263">
+        <v>2.25</v>
+      </c>
+      <c r="AI263">
+        <v>1.57</v>
+      </c>
+      <c r="AJ263">
+        <v>2.25</v>
+      </c>
+      <c r="AK263">
+        <v>1.28</v>
+      </c>
+      <c r="AL263">
+        <v>1.24</v>
+      </c>
+      <c r="AM263">
+        <v>1.88</v>
+      </c>
+      <c r="AN263">
+        <v>1.44</v>
+      </c>
+      <c r="AO263">
+        <v>1.1</v>
+      </c>
+      <c r="AP263">
+        <v>1.3</v>
+      </c>
+      <c r="AQ263">
+        <v>1.27</v>
+      </c>
+      <c r="AR263">
+        <v>1.79</v>
+      </c>
+      <c r="AS263">
+        <v>1.43</v>
+      </c>
+      <c r="AT263">
+        <v>3.22</v>
+      </c>
+      <c r="AU263">
+        <v>5</v>
+      </c>
+      <c r="AV263">
+        <v>6</v>
+      </c>
+      <c r="AW263">
+        <v>6</v>
+      </c>
+      <c r="AX263">
+        <v>6</v>
+      </c>
+      <c r="AY263">
+        <v>11</v>
+      </c>
+      <c r="AZ263">
+        <v>12</v>
+      </c>
+      <c r="BA263">
+        <v>4</v>
+      </c>
+      <c r="BB263">
+        <v>7</v>
+      </c>
+      <c r="BC263">
+        <v>11</v>
+      </c>
+      <c r="BD263">
+        <v>1.67</v>
+      </c>
+      <c r="BE263">
+        <v>6.25</v>
+      </c>
+      <c r="BF263">
+        <v>2.33</v>
+      </c>
+      <c r="BG263">
+        <v>1.28</v>
+      </c>
+      <c r="BH263">
+        <v>3.3</v>
+      </c>
+      <c r="BI263">
+        <v>1.49</v>
+      </c>
+      <c r="BJ263">
+        <v>2.4</v>
+      </c>
+      <c r="BK263">
+        <v>1.79</v>
+      </c>
+      <c r="BL263">
+        <v>1.9</v>
+      </c>
+      <c r="BM263">
+        <v>2.25</v>
+      </c>
+      <c r="BN263">
+        <v>1.56</v>
+      </c>
+      <c r="BO263">
+        <v>2.9</v>
+      </c>
+      <c r="BP263">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="264" spans="1:68">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>7295496</v>
+      </c>
+      <c r="C264" t="s">
+        <v>68</v>
+      </c>
+      <c r="D264" t="s">
+        <v>69</v>
+      </c>
+      <c r="E264" s="2">
+        <v>45462.89583333334</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+      <c r="G264" t="s">
+        <v>77</v>
+      </c>
+      <c r="H264" t="s">
+        <v>72</v>
+      </c>
+      <c r="I264">
+        <v>1</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>1</v>
+      </c>
+      <c r="L264">
+        <v>1</v>
+      </c>
+      <c r="M264">
+        <v>1</v>
+      </c>
+      <c r="N264">
+        <v>2</v>
+      </c>
+      <c r="O264" t="s">
+        <v>119</v>
+      </c>
+      <c r="P264" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q264">
+        <v>4</v>
+      </c>
+      <c r="R264">
+        <v>2.38</v>
+      </c>
+      <c r="S264">
+        <v>2.5</v>
+      </c>
+      <c r="T264">
+        <v>1.3</v>
+      </c>
+      <c r="U264">
+        <v>3.4</v>
+      </c>
+      <c r="V264">
+        <v>2.5</v>
+      </c>
+      <c r="W264">
+        <v>1.5</v>
+      </c>
+      <c r="X264">
+        <v>6</v>
+      </c>
+      <c r="Y264">
+        <v>1.13</v>
+      </c>
+      <c r="Z264">
+        <v>3.45</v>
+      </c>
+      <c r="AA264">
+        <v>3.75</v>
+      </c>
+      <c r="AB264">
+        <v>1.91</v>
+      </c>
+      <c r="AC264">
+        <v>1.02</v>
+      </c>
+      <c r="AD264">
+        <v>17</v>
+      </c>
+      <c r="AE264">
+        <v>1.2</v>
+      </c>
+      <c r="AF264">
+        <v>4.5</v>
+      </c>
+      <c r="AG264">
+        <v>1.68</v>
+      </c>
+      <c r="AH264">
+        <v>2.05</v>
+      </c>
+      <c r="AI264">
+        <v>1.57</v>
+      </c>
+      <c r="AJ264">
+        <v>2.25</v>
+      </c>
+      <c r="AK264">
+        <v>2.02</v>
+      </c>
+      <c r="AL264">
+        <v>1.27</v>
+      </c>
+      <c r="AM264">
+        <v>1.27</v>
+      </c>
+      <c r="AN264">
+        <v>1.89</v>
+      </c>
+      <c r="AO264">
+        <v>1.25</v>
+      </c>
+      <c r="AP264">
+        <v>1.8</v>
+      </c>
+      <c r="AQ264">
+        <v>1.22</v>
+      </c>
+      <c r="AR264">
+        <v>1.32</v>
+      </c>
+      <c r="AS264">
+        <v>1.49</v>
+      </c>
+      <c r="AT264">
+        <v>2.81</v>
+      </c>
+      <c r="AU264">
+        <v>2</v>
+      </c>
+      <c r="AV264">
+        <v>3</v>
+      </c>
+      <c r="AW264">
+        <v>1</v>
+      </c>
+      <c r="AX264">
+        <v>9</v>
+      </c>
+      <c r="AY264">
+        <v>3</v>
+      </c>
+      <c r="AZ264">
+        <v>12</v>
+      </c>
+      <c r="BA264">
+        <v>1</v>
+      </c>
+      <c r="BB264">
+        <v>8</v>
+      </c>
+      <c r="BC264">
+        <v>9</v>
+      </c>
+      <c r="BD264">
+        <v>2.33</v>
+      </c>
+      <c r="BE264">
+        <v>6.4</v>
+      </c>
+      <c r="BF264">
+        <v>1.65</v>
+      </c>
+      <c r="BG264">
+        <v>1.23</v>
+      </c>
+      <c r="BH264">
+        <v>3.65</v>
+      </c>
+      <c r="BI264">
+        <v>1.4</v>
+      </c>
+      <c r="BJ264">
+        <v>2.65</v>
+      </c>
+      <c r="BK264">
+        <v>1.65</v>
+      </c>
+      <c r="BL264">
+        <v>2.08</v>
+      </c>
+      <c r="BM264">
+        <v>2</v>
+      </c>
+      <c r="BN264">
+        <v>1.71</v>
+      </c>
+      <c r="BO264">
+        <v>2.55</v>
+      </c>
+      <c r="BP264">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="265" spans="1:68">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>7295501</v>
+      </c>
+      <c r="C265" t="s">
+        <v>68</v>
+      </c>
+      <c r="D265" t="s">
+        <v>69</v>
+      </c>
+      <c r="E265" s="2">
+        <v>45462.97916666666</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+      <c r="G265" t="s">
+        <v>84</v>
+      </c>
+      <c r="H265" t="s">
+        <v>94</v>
+      </c>
+      <c r="I265">
+        <v>1</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>1</v>
+      </c>
+      <c r="L265">
+        <v>2</v>
+      </c>
+      <c r="M265">
+        <v>0</v>
+      </c>
+      <c r="N265">
+        <v>2</v>
+      </c>
+      <c r="O265" t="s">
+        <v>291</v>
+      </c>
+      <c r="P265" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q265">
+        <v>2.5</v>
+      </c>
+      <c r="R265">
+        <v>2.5</v>
+      </c>
+      <c r="S265">
+        <v>3.6</v>
+      </c>
+      <c r="T265">
+        <v>1.25</v>
+      </c>
+      <c r="U265">
+        <v>3.75</v>
+      </c>
+      <c r="V265">
+        <v>2.2</v>
+      </c>
+      <c r="W265">
+        <v>1.62</v>
+      </c>
+      <c r="X265">
+        <v>5</v>
+      </c>
+      <c r="Y265">
+        <v>1.17</v>
+      </c>
+      <c r="Z265">
+        <v>2.02</v>
+      </c>
+      <c r="AA265">
+        <v>3.75</v>
+      </c>
+      <c r="AB265">
+        <v>3.15</v>
+      </c>
+      <c r="AC265">
+        <v>1.02</v>
+      </c>
+      <c r="AD265">
+        <v>19</v>
+      </c>
+      <c r="AE265">
+        <v>1.16</v>
+      </c>
+      <c r="AF265">
+        <v>5.5</v>
+      </c>
+      <c r="AG265">
+        <v>1.55</v>
+      </c>
+      <c r="AH265">
+        <v>2.3</v>
+      </c>
+      <c r="AI265">
+        <v>1.44</v>
+      </c>
+      <c r="AJ265">
+        <v>2.63</v>
+      </c>
+      <c r="AK265">
+        <v>1.35</v>
+      </c>
+      <c r="AL265">
+        <v>1.22</v>
+      </c>
+      <c r="AM265">
+        <v>1.83</v>
+      </c>
+      <c r="AN265">
+        <v>2.25</v>
+      </c>
+      <c r="AO265">
+        <v>1.43</v>
+      </c>
+      <c r="AP265">
+        <v>2.33</v>
+      </c>
+      <c r="AQ265">
+        <v>1.25</v>
+      </c>
+      <c r="AR265">
+        <v>1.79</v>
+      </c>
+      <c r="AS265">
+        <v>1.13</v>
+      </c>
+      <c r="AT265">
+        <v>2.92</v>
+      </c>
+      <c r="AU265">
+        <v>-1</v>
+      </c>
+      <c r="AV265">
+        <v>-1</v>
+      </c>
+      <c r="AW265">
+        <v>-1</v>
+      </c>
+      <c r="AX265">
+        <v>-1</v>
+      </c>
+      <c r="AY265">
+        <v>-1</v>
+      </c>
+      <c r="AZ265">
+        <v>-1</v>
+      </c>
+      <c r="BA265">
+        <v>-1</v>
+      </c>
+      <c r="BB265">
+        <v>-1</v>
+      </c>
+      <c r="BC265">
+        <v>-1</v>
+      </c>
+      <c r="BD265">
+        <v>1.68</v>
+      </c>
+      <c r="BE265">
+        <v>6.25</v>
+      </c>
+      <c r="BF265">
+        <v>2.32</v>
+      </c>
+      <c r="BG265">
+        <v>1.27</v>
+      </c>
+      <c r="BH265">
+        <v>3.3</v>
+      </c>
+      <c r="BI265">
+        <v>1.48</v>
+      </c>
+      <c r="BJ265">
+        <v>2.45</v>
+      </c>
+      <c r="BK265">
+        <v>1.78</v>
+      </c>
+      <c r="BL265">
+        <v>1.9</v>
+      </c>
+      <c r="BM265">
+        <v>2.23</v>
+      </c>
+      <c r="BN265">
+        <v>1.56</v>
+      </c>
+      <c r="BO265">
+        <v>2.9</v>
+      </c>
+      <c r="BP265">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="266" spans="1:68">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>7295502</v>
+      </c>
+      <c r="C266" t="s">
+        <v>68</v>
+      </c>
+      <c r="D266" t="s">
+        <v>69</v>
+      </c>
+      <c r="E266" s="2">
+        <v>45462.97916666666</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+      <c r="G266" t="s">
+        <v>91</v>
+      </c>
+      <c r="H266" t="s">
+        <v>81</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266">
+        <v>1</v>
+      </c>
+      <c r="K266">
+        <v>1</v>
+      </c>
+      <c r="L266">
+        <v>1</v>
+      </c>
+      <c r="M266">
+        <v>2</v>
+      </c>
+      <c r="N266">
+        <v>3</v>
+      </c>
+      <c r="O266" t="s">
+        <v>202</v>
+      </c>
+      <c r="P266" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q266">
+        <v>2.5</v>
+      </c>
+      <c r="R266">
+        <v>2.4</v>
+      </c>
+      <c r="S266">
+        <v>3.75</v>
+      </c>
+      <c r="T266">
+        <v>1.29</v>
+      </c>
+      <c r="U266">
+        <v>3.5</v>
+      </c>
+      <c r="V266">
+        <v>2.25</v>
+      </c>
+      <c r="W266">
+        <v>1.57</v>
+      </c>
+      <c r="X266">
+        <v>5.5</v>
+      </c>
+      <c r="Y266">
+        <v>1.14</v>
+      </c>
+      <c r="Z266">
+        <v>1.91</v>
+      </c>
+      <c r="AA266">
+        <v>3.75</v>
+      </c>
+      <c r="AB266">
+        <v>3.45</v>
+      </c>
+      <c r="AC266">
+        <v>1.02</v>
+      </c>
+      <c r="AD266">
+        <v>19</v>
+      </c>
+      <c r="AE266">
+        <v>1.18</v>
+      </c>
+      <c r="AF266">
+        <v>5</v>
+      </c>
+      <c r="AG266">
+        <v>1.55</v>
+      </c>
+      <c r="AH266">
+        <v>2.3</v>
+      </c>
+      <c r="AI266">
+        <v>1.53</v>
+      </c>
+      <c r="AJ266">
+        <v>2.38</v>
+      </c>
+      <c r="AK266">
+        <v>1.32</v>
+      </c>
+      <c r="AL266">
+        <v>1.22</v>
+      </c>
+      <c r="AM266">
+        <v>1.88</v>
+      </c>
+      <c r="AN266">
+        <v>0.88</v>
+      </c>
+      <c r="AO266">
+        <v>0.9</v>
+      </c>
+      <c r="AP266">
+        <v>0.78</v>
+      </c>
+      <c r="AQ266">
+        <v>1.09</v>
+      </c>
+      <c r="AR266">
+        <v>1.56</v>
+      </c>
+      <c r="AS266">
+        <v>1.16</v>
+      </c>
+      <c r="AT266">
+        <v>2.72</v>
+      </c>
+      <c r="AU266">
+        <v>-1</v>
+      </c>
+      <c r="AV266">
+        <v>-1</v>
+      </c>
+      <c r="AW266">
+        <v>-1</v>
+      </c>
+      <c r="AX266">
+        <v>-1</v>
+      </c>
+      <c r="AY266">
+        <v>-1</v>
+      </c>
+      <c r="AZ266">
+        <v>-1</v>
+      </c>
+      <c r="BA266">
+        <v>-1</v>
+      </c>
+      <c r="BB266">
+        <v>-1</v>
+      </c>
+      <c r="BC266">
+        <v>-1</v>
+      </c>
+      <c r="BD266">
+        <v>1.65</v>
+      </c>
+      <c r="BE266">
+        <v>6.25</v>
+      </c>
+      <c r="BF266">
+        <v>2.33</v>
+      </c>
+      <c r="BG266">
+        <v>1.28</v>
+      </c>
+      <c r="BH266">
+        <v>3.3</v>
+      </c>
+      <c r="BI266">
+        <v>1.49</v>
+      </c>
+      <c r="BJ266">
+        <v>2.4</v>
+      </c>
+      <c r="BK266">
+        <v>1.81</v>
+      </c>
+      <c r="BL266">
+        <v>1.88</v>
+      </c>
+      <c r="BM266">
+        <v>2.25</v>
+      </c>
+      <c r="BN266">
+        <v>1.55</v>
+      </c>
+      <c r="BO266">
+        <v>2.9</v>
+      </c>
+      <c r="BP266">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -1282,7 +1282,7 @@
     <t>['65', '90']</t>
   </si>
   <si>
-    <t>['61', '87']</t>
+    <t>['61', '88']</t>
   </si>
   <si>
     <t>['63', '81']</t>
@@ -56195,31 +56195,31 @@
         <v>2.92</v>
       </c>
       <c r="AU265">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV265">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW265">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX265">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY265">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ265">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA265">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB265">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC265">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BD265">
         <v>1.68</v>
@@ -56401,31 +56401,31 @@
         <v>2.72</v>
       </c>
       <c r="AU266">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV266">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW266">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX266">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY266">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AZ266">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA266">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BB266">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC266">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD266">
         <v>1.65</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -55598,10 +55598,10 @@
         <v>1</v>
       </c>
       <c r="BB262">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC262">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD262">
         <v>1.68</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="462">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -919,7 +919,31 @@
     <t>['15', '45+4', '45+11', '90+4']</t>
   </si>
   <si>
+    <t>['24', '78']</t>
+  </si>
+  <si>
+    <t>['45+2', '90+7']</t>
+  </si>
+  <si>
+    <t>['36', '56', '89', '90+2']</t>
+  </si>
+  <si>
     <t>['73']</t>
+  </si>
+  <si>
+    <t>['26', '69']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['37', '54', '61', '90']</t>
+  </si>
+  <si>
+    <t>['20', '58', '72']</t>
+  </si>
+  <si>
+    <t>['45+8', '73', '90+2']</t>
   </si>
   <si>
     <t>['67']</t>
@@ -1356,6 +1380,27 @@
   <si>
     <t>['72', '90+1']</t>
   </si>
+  <si>
+    <t>['6', '45+4']</t>
+  </si>
+  <si>
+    <t>['16', '42', '45+2', '72', '80']</t>
+  </si>
+  <si>
+    <t>['40', '44']</t>
+  </si>
+  <si>
+    <t>['7', '12', '90+3']</t>
+  </si>
+  <si>
+    <t>['29', '38']</t>
+  </si>
+  <si>
+    <t>['37', '72', '90+1']</t>
+  </si>
+  <si>
+    <t>['30']</t>
+  </si>
 </sst>
 </file>
 
@@ -1716,7 +1761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP281"/>
+  <dimension ref="A1:BP294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2387,7 +2432,7 @@
         <v>101</v>
       </c>
       <c r="P4" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -2465,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -2799,7 +2844,7 @@
         <v>103</v>
       </c>
       <c r="P6" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -3211,7 +3256,7 @@
         <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -3292,7 +3337,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ8">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3417,7 +3462,7 @@
         <v>106</v>
       </c>
       <c r="P9" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3498,7 +3543,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ9">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3623,7 +3668,7 @@
         <v>107</v>
       </c>
       <c r="P10" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3701,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ10">
         <v>0.4</v>
@@ -3907,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ11">
         <v>0.5</v>
@@ -4241,7 +4286,7 @@
         <v>110</v>
       </c>
       <c r="P13" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -4319,10 +4364,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ13">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4528,7 +4573,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ14">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4731,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ15">
         <v>1.18</v>
@@ -4940,7 +4985,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ16">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5146,7 +5191,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ17">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5683,7 +5728,7 @@
         <v>115</v>
       </c>
       <c r="P20" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -5761,10 +5806,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ20">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5889,7 +5934,7 @@
         <v>116</v>
       </c>
       <c r="P21" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5970,7 +6015,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ21">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -6095,7 +6140,7 @@
         <v>117</v>
       </c>
       <c r="P22" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -6173,7 +6218,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ22">
         <v>0.82</v>
@@ -6301,7 +6346,7 @@
         <v>118</v>
       </c>
       <c r="P23" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6379,7 +6424,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ23">
         <v>1.18</v>
@@ -6585,10 +6630,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ24">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6919,7 +6964,7 @@
         <v>121</v>
       </c>
       <c r="P26" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -7125,7 +7170,7 @@
         <v>122</v>
       </c>
       <c r="P27" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -7203,10 +7248,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ27">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR27">
         <v>1.01</v>
@@ -7331,7 +7376,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7409,10 +7454,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ28">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -7615,10 +7660,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ29">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7821,10 +7866,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7949,7 +7994,7 @@
         <v>123</v>
       </c>
       <c r="P31" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Q31">
         <v>2.37</v>
@@ -8236,7 +8281,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ32">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <v>0</v>
@@ -8361,7 +8406,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -8439,7 +8484,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ33">
         <v>1.13</v>
@@ -8648,7 +8693,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ34">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR34">
         <v>1.35</v>
@@ -8851,7 +8896,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ35">
         <v>0.3</v>
@@ -8979,7 +9024,7 @@
         <v>128</v>
       </c>
       <c r="P36" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -9060,7 +9105,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ36">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR36">
         <v>1.61</v>
@@ -9185,7 +9230,7 @@
         <v>129</v>
       </c>
       <c r="P37" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -9266,7 +9311,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ37">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR37">
         <v>1.02</v>
@@ -9391,7 +9436,7 @@
         <v>130</v>
       </c>
       <c r="P38" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9472,7 +9517,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ38">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR38">
         <v>1.58</v>
@@ -9675,7 +9720,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ39">
         <v>0.5</v>
@@ -9803,7 +9848,7 @@
         <v>104</v>
       </c>
       <c r="P40" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9881,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ40">
         <v>1.4</v>
@@ -10009,7 +10054,7 @@
         <v>131</v>
       </c>
       <c r="P41" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -10087,10 +10132,10 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ41">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR41">
         <v>0.83</v>
@@ -10296,7 +10341,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ42">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR42">
         <v>1.46</v>
@@ -10421,7 +10466,7 @@
         <v>132</v>
       </c>
       <c r="P43" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="Q43">
         <v>2.05</v>
@@ -10627,7 +10672,7 @@
         <v>133</v>
       </c>
       <c r="P44" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10833,7 +10878,7 @@
         <v>134</v>
       </c>
       <c r="P45" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10914,7 +10959,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ45">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR45">
         <v>1.94</v>
@@ -11117,10 +11162,10 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ46">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR46">
         <v>1.94</v>
@@ -11532,7 +11577,7 @@
         <v>2</v>
       </c>
       <c r="AQ48">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR48">
         <v>1.35</v>
@@ -11657,7 +11702,7 @@
         <v>138</v>
       </c>
       <c r="P49" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11738,7 +11783,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ49">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR49">
         <v>0.89</v>
@@ -11863,7 +11908,7 @@
         <v>139</v>
       </c>
       <c r="P50" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11941,7 +11986,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ50">
         <v>1.4</v>
@@ -12147,7 +12192,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ51">
         <v>1.09</v>
@@ -12353,7 +12398,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ52">
         <v>0.4</v>
@@ -12765,10 +12810,10 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ54">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR54">
         <v>1.06</v>
@@ -12893,7 +12938,7 @@
         <v>144</v>
       </c>
       <c r="P55" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12974,7 +13019,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ55">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR55">
         <v>2.22</v>
@@ -13099,7 +13144,7 @@
         <v>145</v>
       </c>
       <c r="P56" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -13177,10 +13222,10 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ56">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR56">
         <v>2.29</v>
@@ -13383,7 +13428,7 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ57">
         <v>1.2</v>
@@ -13589,10 +13634,10 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ58">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR58">
         <v>2.02</v>
@@ -13795,10 +13840,10 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ59">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR59">
         <v>1.89</v>
@@ -13923,7 +13968,7 @@
         <v>149</v>
       </c>
       <c r="P60" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -14001,7 +14046,7 @@
         <v>0.5</v>
       </c>
       <c r="AP60">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ60">
         <v>1.64</v>
@@ -14210,7 +14255,7 @@
         <v>2</v>
       </c>
       <c r="AQ61">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR61">
         <v>1.43</v>
@@ -14622,7 +14667,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ63">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR63">
         <v>1.92</v>
@@ -14953,7 +14998,7 @@
         <v>154</v>
       </c>
       <c r="P65" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -15031,10 +15076,10 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ65">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR65">
         <v>1.39</v>
@@ -15159,7 +15204,7 @@
         <v>155</v>
       </c>
       <c r="P66" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -15240,7 +15285,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ66">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR66">
         <v>1.49</v>
@@ -15365,7 +15410,7 @@
         <v>104</v>
       </c>
       <c r="P67" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15571,7 +15616,7 @@
         <v>156</v>
       </c>
       <c r="P68" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15649,7 +15694,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ68">
         <v>1</v>
@@ -15855,7 +15900,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ69">
         <v>1.13</v>
@@ -15983,7 +16028,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -16061,10 +16106,10 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ70">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR70">
         <v>1.13</v>
@@ -16270,7 +16315,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ71">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR71">
         <v>1.95</v>
@@ -16395,7 +16440,7 @@
         <v>159</v>
       </c>
       <c r="P72" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16682,7 +16727,7 @@
         <v>2</v>
       </c>
       <c r="AQ73">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR73">
         <v>1.41</v>
@@ -17219,7 +17264,7 @@
         <v>162</v>
       </c>
       <c r="P76" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="Q76">
         <v>3.1</v>
@@ -17425,7 +17470,7 @@
         <v>163</v>
       </c>
       <c r="P77" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17631,7 +17676,7 @@
         <v>164</v>
       </c>
       <c r="P78" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17915,7 +17960,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ79">
         <v>0.4</v>
@@ -18043,7 +18088,7 @@
         <v>166</v>
       </c>
       <c r="P80" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -18121,10 +18166,10 @@
         <v>0.5</v>
       </c>
       <c r="AP80">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ80">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR80">
         <v>1.03</v>
@@ -18330,7 +18375,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ81">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR81">
         <v>1.42</v>
@@ -18455,7 +18500,7 @@
         <v>168</v>
       </c>
       <c r="P82" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18533,7 +18578,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ82">
         <v>1.09</v>
@@ -18945,10 +18990,10 @@
         <v>0.67</v>
       </c>
       <c r="AP84">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ84">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR84">
         <v>1.97</v>
@@ -19151,10 +19196,10 @@
         <v>0.33</v>
       </c>
       <c r="AP85">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ85">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR85">
         <v>1.75</v>
@@ -19485,7 +19530,7 @@
         <v>172</v>
       </c>
       <c r="P87" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="Q87">
         <v>2.2</v>
@@ -19566,7 +19611,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ87">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR87">
         <v>1.69</v>
@@ -19691,7 +19736,7 @@
         <v>173</v>
       </c>
       <c r="P88" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19975,10 +20020,10 @@
         <v>1.33</v>
       </c>
       <c r="AP89">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ89">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR89">
         <v>1.37</v>
@@ -20184,7 +20229,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ90">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR90">
         <v>1.72</v>
@@ -20309,7 +20354,7 @@
         <v>176</v>
       </c>
       <c r="P91" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -20387,10 +20432,10 @@
         <v>2.33</v>
       </c>
       <c r="AP91">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ91">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR91">
         <v>2.05</v>
@@ -20515,7 +20560,7 @@
         <v>177</v>
       </c>
       <c r="P92" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="Q92">
         <v>2.88</v>
@@ -20927,7 +20972,7 @@
         <v>179</v>
       </c>
       <c r="P94" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="Q94">
         <v>2.75</v>
@@ -21133,7 +21178,7 @@
         <v>180</v>
       </c>
       <c r="P95" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="Q95">
         <v>3.1</v>
@@ -21211,10 +21256,10 @@
         <v>1.67</v>
       </c>
       <c r="AP95">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ95">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR95">
         <v>1.11</v>
@@ -21623,7 +21668,7 @@
         <v>1.4</v>
       </c>
       <c r="AP97">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ97">
         <v>0.82</v>
@@ -21751,7 +21796,7 @@
         <v>182</v>
       </c>
       <c r="P98" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21829,7 +21874,7 @@
         <v>1</v>
       </c>
       <c r="AP98">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ98">
         <v>1.09</v>
@@ -21957,7 +22002,7 @@
         <v>183</v>
       </c>
       <c r="P99" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -22035,7 +22080,7 @@
         <v>0</v>
       </c>
       <c r="AP99">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ99">
         <v>1.22</v>
@@ -22447,10 +22492,10 @@
         <v>0.5</v>
       </c>
       <c r="AP101">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ101">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR101">
         <v>1.68</v>
@@ -22575,7 +22620,7 @@
         <v>185</v>
       </c>
       <c r="P102" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="Q102">
         <v>3.1</v>
@@ -22653,10 +22698,10 @@
         <v>2.33</v>
       </c>
       <c r="AP102">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ102">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR102">
         <v>0</v>
@@ -22781,7 +22826,7 @@
         <v>186</v>
       </c>
       <c r="P103" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="Q103">
         <v>2.3</v>
@@ -22862,7 +22907,7 @@
         <v>2</v>
       </c>
       <c r="AQ103">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR103">
         <v>1.41</v>
@@ -22987,7 +23032,7 @@
         <v>187</v>
       </c>
       <c r="P104" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -23271,7 +23316,7 @@
         <v>0</v>
       </c>
       <c r="AP105">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ105">
         <v>1</v>
@@ -23399,7 +23444,7 @@
         <v>188</v>
       </c>
       <c r="P106" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23477,10 +23522,10 @@
         <v>1.33</v>
       </c>
       <c r="AP106">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ106">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR106">
         <v>1.67</v>
@@ -23605,7 +23650,7 @@
         <v>189</v>
       </c>
       <c r="P107" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="Q107">
         <v>2.75</v>
@@ -23892,7 +23937,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ108">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR108">
         <v>1.42</v>
@@ -24017,7 +24062,7 @@
         <v>190</v>
       </c>
       <c r="P109" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="Q109">
         <v>2.6</v>
@@ -24095,10 +24140,10 @@
         <v>1.75</v>
       </c>
       <c r="AP109">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ109">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR109">
         <v>1.44</v>
@@ -24223,7 +24268,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="Q110">
         <v>2.88</v>
@@ -24301,10 +24346,10 @@
         <v>1.25</v>
       </c>
       <c r="AP110">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ110">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR110">
         <v>1.31</v>
@@ -24429,7 +24474,7 @@
         <v>191</v>
       </c>
       <c r="P111" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24507,10 +24552,10 @@
         <v>2</v>
       </c>
       <c r="AP111">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ111">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR111">
         <v>1.97</v>
@@ -24716,7 +24761,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ112">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR112">
         <v>1.79</v>
@@ -24841,7 +24886,7 @@
         <v>142</v>
       </c>
       <c r="P113" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24919,7 +24964,7 @@
         <v>1</v>
       </c>
       <c r="AP113">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ113">
         <v>1.2</v>
@@ -25047,7 +25092,7 @@
         <v>192</v>
       </c>
       <c r="P114" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="Q114">
         <v>1.91</v>
@@ -25253,7 +25298,7 @@
         <v>193</v>
       </c>
       <c r="P115" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="Q115">
         <v>2.1</v>
@@ -25665,7 +25710,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25743,10 +25788,10 @@
         <v>1.75</v>
       </c>
       <c r="AP117">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ117">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR117">
         <v>1.94</v>
@@ -25952,7 +25997,7 @@
         <v>2</v>
       </c>
       <c r="AQ118">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR118">
         <v>1.77</v>
@@ -26077,7 +26122,7 @@
         <v>104</v>
       </c>
       <c r="P119" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="Q119">
         <v>2.88</v>
@@ -26361,10 +26406,10 @@
         <v>0.33</v>
       </c>
       <c r="AP120">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ120">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR120">
         <v>1.68</v>
@@ -26489,7 +26534,7 @@
         <v>196</v>
       </c>
       <c r="P121" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="Q121">
         <v>2.3</v>
@@ -26567,10 +26612,10 @@
         <v>0.67</v>
       </c>
       <c r="AP121">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ121">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR121">
         <v>1.55</v>
@@ -26901,7 +26946,7 @@
         <v>198</v>
       </c>
       <c r="P123" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="Q123">
         <v>2.5</v>
@@ -26979,7 +27024,7 @@
         <v>1.6</v>
       </c>
       <c r="AP123">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ123">
         <v>1.18</v>
@@ -27107,7 +27152,7 @@
         <v>104</v>
       </c>
       <c r="P124" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -27185,7 +27230,7 @@
         <v>3</v>
       </c>
       <c r="AP124">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ124">
         <v>1.4</v>
@@ -27313,7 +27358,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="Q125">
         <v>2.6</v>
@@ -27394,7 +27439,7 @@
         <v>2</v>
       </c>
       <c r="AQ125">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR125">
         <v>1.42</v>
@@ -27519,7 +27564,7 @@
         <v>199</v>
       </c>
       <c r="P126" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="Q126">
         <v>2.05</v>
@@ -27806,7 +27851,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ127">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR127">
         <v>1.28</v>
@@ -27931,7 +27976,7 @@
         <v>201</v>
       </c>
       <c r="P128" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -28012,7 +28057,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ128">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR128">
         <v>1.86</v>
@@ -28137,7 +28182,7 @@
         <v>202</v>
       </c>
       <c r="P129" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="Q129">
         <v>2.5</v>
@@ -28424,7 +28469,7 @@
         <v>2</v>
       </c>
       <c r="AQ130">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR130">
         <v>1.79</v>
@@ -28627,7 +28672,7 @@
         <v>3</v>
       </c>
       <c r="AP131">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ131">
         <v>1.4</v>
@@ -29248,7 +29293,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ134">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR134">
         <v>1.41</v>
@@ -29373,7 +29418,7 @@
         <v>206</v>
       </c>
       <c r="P135" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29451,10 +29496,10 @@
         <v>1.75</v>
       </c>
       <c r="AP135">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ135">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR135">
         <v>1.64</v>
@@ -30069,7 +30114,7 @@
         <v>2</v>
       </c>
       <c r="AP138">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ138">
         <v>1.4</v>
@@ -30197,7 +30242,7 @@
         <v>119</v>
       </c>
       <c r="P139" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -30275,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="AP139">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ139">
         <v>0.4</v>
@@ -30403,7 +30448,7 @@
         <v>209</v>
       </c>
       <c r="P140" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -30481,7 +30526,7 @@
         <v>1</v>
       </c>
       <c r="AP140">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ140">
         <v>1.09</v>
@@ -30609,7 +30654,7 @@
         <v>210</v>
       </c>
       <c r="P141" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30815,7 +30860,7 @@
         <v>211</v>
       </c>
       <c r="P142" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30893,10 +30938,10 @@
         <v>2.25</v>
       </c>
       <c r="AP142">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ142">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR142">
         <v>1.86</v>
@@ -31227,7 +31272,7 @@
         <v>213</v>
       </c>
       <c r="P144" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="Q144">
         <v>2.88</v>
@@ -31308,7 +31353,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ144">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR144">
         <v>1.84</v>
@@ -31433,7 +31478,7 @@
         <v>214</v>
       </c>
       <c r="P145" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="Q145">
         <v>2.38</v>
@@ -31720,7 +31765,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ146">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR146">
         <v>1.7</v>
@@ -31923,7 +31968,7 @@
         <v>0.25</v>
       </c>
       <c r="AP147">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ147">
         <v>1.22</v>
@@ -32335,10 +32380,10 @@
         <v>0.75</v>
       </c>
       <c r="AP149">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ149">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR149">
         <v>1.71</v>
@@ -32463,7 +32508,7 @@
         <v>217</v>
       </c>
       <c r="P150" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32541,7 +32586,7 @@
         <v>1.14</v>
       </c>
       <c r="AP150">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ150">
         <v>0.82</v>
@@ -33159,10 +33204,10 @@
         <v>1</v>
       </c>
       <c r="AP153">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ153">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR153">
         <v>1.44</v>
@@ -33287,7 +33332,7 @@
         <v>104</v>
       </c>
       <c r="P154" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="Q154">
         <v>2.4</v>
@@ -33368,7 +33413,7 @@
         <v>2</v>
       </c>
       <c r="AQ154">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR154">
         <v>1.8</v>
@@ -33571,10 +33616,10 @@
         <v>1.67</v>
       </c>
       <c r="AP155">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ155">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR155">
         <v>1.55</v>
@@ -33699,7 +33744,7 @@
         <v>219</v>
       </c>
       <c r="P156" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33777,10 +33822,10 @@
         <v>0.8</v>
       </c>
       <c r="AP156">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ156">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR156">
         <v>1.86</v>
@@ -34111,7 +34156,7 @@
         <v>221</v>
       </c>
       <c r="P158" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -34189,10 +34234,10 @@
         <v>2</v>
       </c>
       <c r="AP158">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ158">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR158">
         <v>1.25</v>
@@ -34317,7 +34362,7 @@
         <v>222</v>
       </c>
       <c r="P159" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="Q159">
         <v>2.1</v>
@@ -34395,7 +34440,7 @@
         <v>0.6</v>
       </c>
       <c r="AP159">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ159">
         <v>1.13</v>
@@ -34523,7 +34568,7 @@
         <v>223</v>
       </c>
       <c r="P160" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="Q160">
         <v>2.5</v>
@@ -34729,7 +34774,7 @@
         <v>224</v>
       </c>
       <c r="P161" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="Q161">
         <v>3.4</v>
@@ -34935,7 +34980,7 @@
         <v>162</v>
       </c>
       <c r="P162" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -35016,7 +35061,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ162">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR162">
         <v>1.7</v>
@@ -35219,10 +35264,10 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ163">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR163">
         <v>1.68</v>
@@ -35347,7 +35392,7 @@
         <v>226</v>
       </c>
       <c r="P164" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="Q164">
         <v>2.75</v>
@@ -35425,7 +35470,7 @@
         <v>1.5</v>
       </c>
       <c r="AP164">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ164">
         <v>1.4</v>
@@ -35553,7 +35598,7 @@
         <v>227</v>
       </c>
       <c r="P165" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="Q165">
         <v>2.3</v>
@@ -35634,7 +35679,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ165">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR165">
         <v>1.69</v>
@@ -35759,7 +35804,7 @@
         <v>228</v>
       </c>
       <c r="P166" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="Q166">
         <v>2.3</v>
@@ -35965,7 +36010,7 @@
         <v>229</v>
       </c>
       <c r="P167" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="Q167">
         <v>2.5</v>
@@ -36249,7 +36294,7 @@
         <v>2.5</v>
       </c>
       <c r="AP168">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ168">
         <v>1.4</v>
@@ -36377,7 +36422,7 @@
         <v>231</v>
       </c>
       <c r="P169" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="Q169">
         <v>3.2</v>
@@ -36455,7 +36500,7 @@
         <v>0.67</v>
       </c>
       <c r="AP169">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ169">
         <v>1</v>
@@ -36789,7 +36834,7 @@
         <v>232</v>
       </c>
       <c r="P171" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="Q171">
         <v>3.1</v>
@@ -36995,7 +37040,7 @@
         <v>233</v>
       </c>
       <c r="P172" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -37073,10 +37118,10 @@
         <v>0.75</v>
       </c>
       <c r="AP172">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ172">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR172">
         <v>1.44</v>
@@ -37282,7 +37327,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ173">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR173">
         <v>1.59</v>
@@ -37407,7 +37452,7 @@
         <v>121</v>
       </c>
       <c r="P174" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="Q174">
         <v>2.5</v>
@@ -37819,7 +37864,7 @@
         <v>104</v>
       </c>
       <c r="P176" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="Q176">
         <v>2.75</v>
@@ -37900,7 +37945,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ176">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR176">
         <v>1.41</v>
@@ -38025,7 +38070,7 @@
         <v>234</v>
       </c>
       <c r="P177" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="Q177">
         <v>2.63</v>
@@ -38106,7 +38151,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ177">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR177">
         <v>1.64</v>
@@ -38309,10 +38354,10 @@
         <v>1.17</v>
       </c>
       <c r="AP178">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ178">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR178">
         <v>1.32</v>
@@ -38437,7 +38482,7 @@
         <v>104</v>
       </c>
       <c r="P179" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="Q179">
         <v>3.1</v>
@@ -39055,7 +39100,7 @@
         <v>237</v>
       </c>
       <c r="P182" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="Q182">
         <v>2.3</v>
@@ -39133,7 +39178,7 @@
         <v>0.57</v>
       </c>
       <c r="AP182">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ182">
         <v>0.4</v>
@@ -39261,7 +39306,7 @@
         <v>139</v>
       </c>
       <c r="P183" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="Q183">
         <v>2.75</v>
@@ -39339,7 +39384,7 @@
         <v>0.4</v>
       </c>
       <c r="AP183">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ183">
         <v>1.11</v>
@@ -39548,7 +39593,7 @@
         <v>2</v>
       </c>
       <c r="AQ184">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR184">
         <v>1.27</v>
@@ -39673,7 +39718,7 @@
         <v>238</v>
       </c>
       <c r="P185" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="Q185">
         <v>2.3</v>
@@ -39754,7 +39799,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ185">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR185">
         <v>1.53</v>
@@ -39879,7 +39924,7 @@
         <v>104</v>
       </c>
       <c r="P186" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="Q186">
         <v>3.2</v>
@@ -39957,10 +40002,10 @@
         <v>1.67</v>
       </c>
       <c r="AP186">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ186">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR186">
         <v>1.49</v>
@@ -40291,7 +40336,7 @@
         <v>240</v>
       </c>
       <c r="P188" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="Q188">
         <v>2.75</v>
@@ -40578,7 +40623,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ189">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR189">
         <v>1.64</v>
@@ -40703,7 +40748,7 @@
         <v>241</v>
       </c>
       <c r="P190" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="Q190">
         <v>2.25</v>
@@ -40987,7 +41032,7 @@
         <v>0.2</v>
       </c>
       <c r="AP191">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ191">
         <v>0.3</v>
@@ -41115,7 +41160,7 @@
         <v>243</v>
       </c>
       <c r="P192" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="Q192">
         <v>2.63</v>
@@ -41321,7 +41366,7 @@
         <v>244</v>
       </c>
       <c r="P193" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -41402,7 +41447,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ193">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR193">
         <v>1.39</v>
@@ -41527,7 +41572,7 @@
         <v>245</v>
       </c>
       <c r="P194" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="Q194">
         <v>2.3</v>
@@ -41608,7 +41653,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ194">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR194">
         <v>1.51</v>
@@ -41811,7 +41856,7 @@
         <v>1.4</v>
       </c>
       <c r="AP195">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ195">
         <v>1.2</v>
@@ -42017,7 +42062,7 @@
         <v>1.67</v>
       </c>
       <c r="AP196">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ196">
         <v>1.4</v>
@@ -42223,7 +42268,7 @@
         <v>1.17</v>
       </c>
       <c r="AP197">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ197">
         <v>1.11</v>
@@ -42351,7 +42396,7 @@
         <v>246</v>
       </c>
       <c r="P198" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="Q198">
         <v>3.3</v>
@@ -42432,7 +42477,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ198">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR198">
         <v>1.55</v>
@@ -42557,7 +42602,7 @@
         <v>104</v>
       </c>
       <c r="P199" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="Q199">
         <v>2.51</v>
@@ -42638,7 +42683,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ199">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR199">
         <v>1.53</v>
@@ -42841,7 +42886,7 @@
         <v>0.25</v>
       </c>
       <c r="AP200">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ200">
         <v>1.13</v>
@@ -42969,7 +43014,7 @@
         <v>104</v>
       </c>
       <c r="P201" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="Q201">
         <v>2.88</v>
@@ -43047,7 +43092,7 @@
         <v>0.67</v>
       </c>
       <c r="AP201">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ201">
         <v>1.22</v>
@@ -43256,7 +43301,7 @@
         <v>2</v>
       </c>
       <c r="AQ202">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR202">
         <v>1.19</v>
@@ -43381,7 +43426,7 @@
         <v>247</v>
       </c>
       <c r="P203" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="Q203">
         <v>2.16</v>
@@ -43462,7 +43507,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ203">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR203">
         <v>1.75</v>
@@ -43587,7 +43632,7 @@
         <v>248</v>
       </c>
       <c r="P204" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="Q204">
         <v>3.4</v>
@@ -43665,7 +43710,7 @@
         <v>1.71</v>
       </c>
       <c r="AP204">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ204">
         <v>1.64</v>
@@ -43793,7 +43838,7 @@
         <v>211</v>
       </c>
       <c r="P205" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="Q205">
         <v>2.88</v>
@@ -43999,7 +44044,7 @@
         <v>249</v>
       </c>
       <c r="P206" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="Q206">
         <v>2.5</v>
@@ -44080,7 +44125,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ206">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR206">
         <v>1.47</v>
@@ -44205,7 +44250,7 @@
         <v>250</v>
       </c>
       <c r="P207" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="Q207">
         <v>3</v>
@@ -44283,10 +44328,10 @@
         <v>2</v>
       </c>
       <c r="AP207">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ207">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR207">
         <v>1.59</v>
@@ -44411,7 +44456,7 @@
         <v>251</v>
       </c>
       <c r="P208" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="Q208">
         <v>2.38</v>
@@ -44695,7 +44740,7 @@
         <v>0.83</v>
       </c>
       <c r="AP209">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ209">
         <v>0.5</v>
@@ -44901,10 +44946,10 @@
         <v>0.83</v>
       </c>
       <c r="AP210">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ210">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR210">
         <v>1.37</v>
@@ -45110,7 +45155,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ211">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR211">
         <v>1.78</v>
@@ -45235,7 +45280,7 @@
         <v>253</v>
       </c>
       <c r="P212" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="Q212">
         <v>2.2</v>
@@ -45313,10 +45358,10 @@
         <v>0.67</v>
       </c>
       <c r="AP212">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ212">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR212">
         <v>1.72</v>
@@ -45441,7 +45486,7 @@
         <v>254</v>
       </c>
       <c r="P213" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="Q213">
         <v>3</v>
@@ -45519,10 +45564,10 @@
         <v>1</v>
       </c>
       <c r="AP213">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ213">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR213">
         <v>1.19</v>
@@ -45647,7 +45692,7 @@
         <v>104</v>
       </c>
       <c r="P214" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="Q214">
         <v>2.4</v>
@@ -45853,7 +45898,7 @@
         <v>145</v>
       </c>
       <c r="P215" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="Q215">
         <v>2.05</v>
@@ -46059,7 +46104,7 @@
         <v>104</v>
       </c>
       <c r="P216" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="Q216">
         <v>2.5</v>
@@ -46471,7 +46516,7 @@
         <v>255</v>
       </c>
       <c r="P218" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="Q218">
         <v>2.6</v>
@@ -46549,10 +46594,10 @@
         <v>1.38</v>
       </c>
       <c r="AP218">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ218">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR218">
         <v>1.84</v>
@@ -46677,7 +46722,7 @@
         <v>256</v>
       </c>
       <c r="P219" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="Q219">
         <v>2.75</v>
@@ -46755,7 +46800,7 @@
         <v>1.57</v>
       </c>
       <c r="AP219">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ219">
         <v>1.4</v>
@@ -47089,7 +47134,7 @@
         <v>258</v>
       </c>
       <c r="P221" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="Q221">
         <v>2.6</v>
@@ -47167,7 +47212,7 @@
         <v>1.63</v>
       </c>
       <c r="AP221">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ221">
         <v>1.64</v>
@@ -47373,10 +47418,10 @@
         <v>2.17</v>
       </c>
       <c r="AP222">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ222">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR222">
         <v>2.02</v>
@@ -47501,7 +47546,7 @@
         <v>260</v>
       </c>
       <c r="P223" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="Q223">
         <v>2.2</v>
@@ -47785,7 +47830,7 @@
         <v>1.57</v>
       </c>
       <c r="AP224">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ224">
         <v>1.2</v>
@@ -47913,7 +47958,7 @@
         <v>138</v>
       </c>
       <c r="P225" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="Q225">
         <v>1.91</v>
@@ -48119,7 +48164,7 @@
         <v>262</v>
       </c>
       <c r="P226" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="Q226">
         <v>1.83</v>
@@ -48200,7 +48245,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ226">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR226">
         <v>1.55</v>
@@ -48325,7 +48370,7 @@
         <v>263</v>
       </c>
       <c r="P227" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="Q227">
         <v>2.38</v>
@@ -48406,7 +48451,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ227">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR227">
         <v>1.63</v>
@@ -48612,7 +48657,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ228">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR228">
         <v>1.41</v>
@@ -48943,7 +48988,7 @@
         <v>124</v>
       </c>
       <c r="P230" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="Q230">
         <v>2.3</v>
@@ -49021,7 +49066,7 @@
         <v>0.5</v>
       </c>
       <c r="AP230">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ230">
         <v>1.13</v>
@@ -49230,7 +49275,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ231">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR231">
         <v>1.57</v>
@@ -49433,10 +49478,10 @@
         <v>1.22</v>
       </c>
       <c r="AP232">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ232">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR232">
         <v>1.58</v>
@@ -49639,7 +49684,7 @@
         <v>0.29</v>
       </c>
       <c r="AP233">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ233">
         <v>0.3</v>
@@ -49767,7 +49812,7 @@
         <v>269</v>
       </c>
       <c r="P234" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="Q234">
         <v>2.75</v>
@@ -49845,7 +49890,7 @@
         <v>1.29</v>
       </c>
       <c r="AP234">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ234">
         <v>1.4</v>
@@ -49973,7 +50018,7 @@
         <v>270</v>
       </c>
       <c r="P235" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="Q235">
         <v>2.75</v>
@@ -50051,10 +50096,10 @@
         <v>0.57</v>
       </c>
       <c r="AP235">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ235">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR235">
         <v>1.65</v>
@@ -50257,7 +50302,7 @@
         <v>1.33</v>
       </c>
       <c r="AP236">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ236">
         <v>1.18</v>
@@ -50797,7 +50842,7 @@
         <v>272</v>
       </c>
       <c r="P239" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="Q239">
         <v>3.4</v>
@@ -50875,7 +50920,7 @@
         <v>1.11</v>
       </c>
       <c r="AP239">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ239">
         <v>1</v>
@@ -51003,7 +51048,7 @@
         <v>273</v>
       </c>
       <c r="P240" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="Q240">
         <v>2.75</v>
@@ -51084,7 +51129,7 @@
         <v>2</v>
       </c>
       <c r="AQ240">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR240">
         <v>1.72</v>
@@ -51287,7 +51332,7 @@
         <v>0.83</v>
       </c>
       <c r="AP241">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ241">
         <v>1.13</v>
@@ -51415,7 +51460,7 @@
         <v>274</v>
       </c>
       <c r="P242" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="Q242">
         <v>2.4</v>
@@ -51496,7 +51541,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ242">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR242">
         <v>1.43</v>
@@ -51621,7 +51666,7 @@
         <v>173</v>
       </c>
       <c r="P243" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="Q243">
         <v>2.38</v>
@@ -51702,7 +51747,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ243">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR243">
         <v>1.76</v>
@@ -51827,7 +51872,7 @@
         <v>275</v>
       </c>
       <c r="P244" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="Q244">
         <v>3</v>
@@ -51905,7 +51950,7 @@
         <v>1.75</v>
       </c>
       <c r="AP244">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ244">
         <v>1.4</v>
@@ -52033,7 +52078,7 @@
         <v>258</v>
       </c>
       <c r="P245" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="Q245">
         <v>3.1</v>
@@ -52320,7 +52365,7 @@
         <v>2</v>
       </c>
       <c r="AQ246">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR246">
         <v>1.15</v>
@@ -52445,7 +52490,7 @@
         <v>277</v>
       </c>
       <c r="P247" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="Q247">
         <v>2.63</v>
@@ -52523,7 +52568,7 @@
         <v>1.25</v>
       </c>
       <c r="AP247">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ247">
         <v>1.4</v>
@@ -52729,7 +52774,7 @@
         <v>1.56</v>
       </c>
       <c r="AP248">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ248">
         <v>1.64</v>
@@ -52935,10 +52980,10 @@
         <v>0.71</v>
       </c>
       <c r="AP249">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ249">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR249">
         <v>1.59</v>
@@ -53144,7 +53189,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ250">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR250">
         <v>1.65</v>
@@ -53269,7 +53314,7 @@
         <v>280</v>
       </c>
       <c r="P251" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="Q251">
         <v>2.1</v>
@@ -53475,7 +53520,7 @@
         <v>281</v>
       </c>
       <c r="P252" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="Q252">
         <v>3.25</v>
@@ -53553,10 +53598,10 @@
         <v>2.38</v>
       </c>
       <c r="AP252">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ252">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR252">
         <v>1.48</v>
@@ -53759,10 +53804,10 @@
         <v>1.86</v>
       </c>
       <c r="AP253">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ253">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR253">
         <v>1.56</v>
@@ -53887,7 +53932,7 @@
         <v>283</v>
       </c>
       <c r="P254" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="Q254">
         <v>2.88</v>
@@ -54174,7 +54219,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ255">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR255">
         <v>1.6</v>
@@ -54505,7 +54550,7 @@
         <v>285</v>
       </c>
       <c r="P257" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="Q257">
         <v>3.5</v>
@@ -54583,7 +54628,7 @@
         <v>1.2</v>
       </c>
       <c r="AP257">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ257">
         <v>1.18</v>
@@ -54711,7 +54756,7 @@
         <v>286</v>
       </c>
       <c r="P258" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="Q258">
         <v>2.75</v>
@@ -54917,7 +54962,7 @@
         <v>287</v>
       </c>
       <c r="P259" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="Q259">
         <v>2.38</v>
@@ -54998,7 +55043,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ259">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR259">
         <v>1.51</v>
@@ -55123,7 +55168,7 @@
         <v>288</v>
       </c>
       <c r="P260" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="Q260">
         <v>3.25</v>
@@ -55201,7 +55246,7 @@
         <v>1.5</v>
       </c>
       <c r="AP260">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ260">
         <v>1.64</v>
@@ -55329,7 +55374,7 @@
         <v>289</v>
       </c>
       <c r="P261" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="Q261">
         <v>3.1</v>
@@ -55407,7 +55452,7 @@
         <v>1</v>
       </c>
       <c r="AP261">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ261">
         <v>1</v>
@@ -55535,7 +55580,7 @@
         <v>290</v>
       </c>
       <c r="P262" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -55613,10 +55658,10 @@
         <v>1.63</v>
       </c>
       <c r="AP262">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ262">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR262">
         <v>1.5</v>
@@ -55741,7 +55786,7 @@
         <v>104</v>
       </c>
       <c r="P263" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -55822,7 +55867,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ263">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR263">
         <v>1.79</v>
@@ -55947,7 +55992,7 @@
         <v>119</v>
       </c>
       <c r="P264" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="Q264">
         <v>4</v>
@@ -56359,7 +56404,7 @@
         <v>202</v>
       </c>
       <c r="P266" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="Q266">
         <v>2.5</v>
@@ -56437,7 +56482,7 @@
         <v>0.9</v>
       </c>
       <c r="AP266">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ266">
         <v>1.09</v>
@@ -56565,7 +56610,7 @@
         <v>292</v>
       </c>
       <c r="P267" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="Q267">
         <v>2.38</v>
@@ -56646,7 +56691,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ267">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR267">
         <v>1.41</v>
@@ -56771,7 +56816,7 @@
         <v>232</v>
       </c>
       <c r="P268" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="Q268">
         <v>2</v>
@@ -57183,7 +57228,7 @@
         <v>261</v>
       </c>
       <c r="P270" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="Q270">
         <v>3</v>
@@ -57467,10 +57512,10 @@
         <v>1</v>
       </c>
       <c r="AP271">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ271">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR271">
         <v>1.69</v>
@@ -57595,7 +57640,7 @@
         <v>104</v>
       </c>
       <c r="P272" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="Q272">
         <v>2.5</v>
@@ -57676,7 +57721,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ272">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR272">
         <v>1.73</v>
@@ -57801,7 +57846,7 @@
         <v>202</v>
       </c>
       <c r="P273" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="Q273">
         <v>2.63</v>
@@ -58085,7 +58130,7 @@
         <v>1.25</v>
       </c>
       <c r="AP274">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ274">
         <v>1.11</v>
@@ -58213,7 +58258,7 @@
         <v>104</v>
       </c>
       <c r="P275" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="Q275">
         <v>2.4</v>
@@ -58294,7 +58339,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ275">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR275">
         <v>1.72</v>
@@ -58419,7 +58464,7 @@
         <v>296</v>
       </c>
       <c r="P276" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="Q276">
         <v>2.1</v>
@@ -58706,7 +58751,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ277">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR277">
         <v>1.69</v>
@@ -58831,7 +58876,7 @@
         <v>297</v>
       </c>
       <c r="P278" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="Q278">
         <v>1.73</v>
@@ -58909,7 +58954,7 @@
         <v>0.44</v>
       </c>
       <c r="AP278">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ278">
         <v>0.4</v>
@@ -59115,7 +59160,7 @@
         <v>1.56</v>
       </c>
       <c r="AP279">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ279">
         <v>1.4</v>
@@ -59243,7 +59288,7 @@
         <v>299</v>
       </c>
       <c r="P280" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="Q280">
         <v>2.25</v>
@@ -59321,7 +59366,7 @@
         <v>0.33</v>
       </c>
       <c r="AP280">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ280">
         <v>0.3</v>
@@ -59449,7 +59494,7 @@
         <v>300</v>
       </c>
       <c r="P281" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="Q281">
         <v>2.4</v>
@@ -59606,6 +59651,2684 @@
       </c>
       <c r="BP281">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:68">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>7295522</v>
+      </c>
+      <c r="C282" t="s">
+        <v>68</v>
+      </c>
+      <c r="D282" t="s">
+        <v>69</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45472.85416666666</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282" t="s">
+        <v>97</v>
+      </c>
+      <c r="H282" t="s">
+        <v>74</v>
+      </c>
+      <c r="I282">
+        <v>1</v>
+      </c>
+      <c r="J282">
+        <v>2</v>
+      </c>
+      <c r="K282">
+        <v>3</v>
+      </c>
+      <c r="L282">
+        <v>2</v>
+      </c>
+      <c r="M282">
+        <v>2</v>
+      </c>
+      <c r="N282">
+        <v>4</v>
+      </c>
+      <c r="O282" t="s">
+        <v>301</v>
+      </c>
+      <c r="P282" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q282">
+        <v>1.95</v>
+      </c>
+      <c r="R282">
+        <v>2.5</v>
+      </c>
+      <c r="S282">
+        <v>5.25</v>
+      </c>
+      <c r="T282">
+        <v>1.29</v>
+      </c>
+      <c r="U282">
+        <v>3.3</v>
+      </c>
+      <c r="V282">
+        <v>2.25</v>
+      </c>
+      <c r="W282">
+        <v>1.57</v>
+      </c>
+      <c r="X282">
+        <v>5</v>
+      </c>
+      <c r="Y282">
+        <v>1.13</v>
+      </c>
+      <c r="Z282">
+        <v>1.73</v>
+      </c>
+      <c r="AA282">
+        <v>4.05</v>
+      </c>
+      <c r="AB282">
+        <v>4.49</v>
+      </c>
+      <c r="AC282">
+        <v>1.01</v>
+      </c>
+      <c r="AD282">
+        <v>12</v>
+      </c>
+      <c r="AE282">
+        <v>1.18</v>
+      </c>
+      <c r="AF282">
+        <v>4.33</v>
+      </c>
+      <c r="AG282">
+        <v>1.57</v>
+      </c>
+      <c r="AH282">
+        <v>2.15</v>
+      </c>
+      <c r="AI282">
+        <v>1.73</v>
+      </c>
+      <c r="AJ282">
+        <v>2</v>
+      </c>
+      <c r="AK282">
+        <v>1.13</v>
+      </c>
+      <c r="AL282">
+        <v>1.2</v>
+      </c>
+      <c r="AM282">
+        <v>2.6</v>
+      </c>
+      <c r="AN282">
+        <v>2.33</v>
+      </c>
+      <c r="AO282">
+        <v>0.78</v>
+      </c>
+      <c r="AP282">
+        <v>2.2</v>
+      </c>
+      <c r="AQ282">
+        <v>0.8</v>
+      </c>
+      <c r="AR282">
+        <v>1.67</v>
+      </c>
+      <c r="AS282">
+        <v>1.3</v>
+      </c>
+      <c r="AT282">
+        <v>2.97</v>
+      </c>
+      <c r="AU282">
+        <v>5</v>
+      </c>
+      <c r="AV282">
+        <v>4</v>
+      </c>
+      <c r="AW282">
+        <v>14</v>
+      </c>
+      <c r="AX282">
+        <v>5</v>
+      </c>
+      <c r="AY282">
+        <v>19</v>
+      </c>
+      <c r="AZ282">
+        <v>9</v>
+      </c>
+      <c r="BA282">
+        <v>5</v>
+      </c>
+      <c r="BB282">
+        <v>2</v>
+      </c>
+      <c r="BC282">
+        <v>7</v>
+      </c>
+      <c r="BD282">
+        <v>1.36</v>
+      </c>
+      <c r="BE282">
+        <v>6.75</v>
+      </c>
+      <c r="BF282">
+        <v>3.2</v>
+      </c>
+      <c r="BG282">
+        <v>1.33</v>
+      </c>
+      <c r="BH282">
+        <v>2.95</v>
+      </c>
+      <c r="BI282">
+        <v>1.51</v>
+      </c>
+      <c r="BJ282">
+        <v>2.53</v>
+      </c>
+      <c r="BK282">
+        <v>1.91</v>
+      </c>
+      <c r="BL282">
+        <v>1.8</v>
+      </c>
+      <c r="BM282">
+        <v>2.3</v>
+      </c>
+      <c r="BN282">
+        <v>1.61</v>
+      </c>
+      <c r="BO282">
+        <v>3.15</v>
+      </c>
+      <c r="BP282">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:68">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>7295519</v>
+      </c>
+      <c r="C283" t="s">
+        <v>68</v>
+      </c>
+      <c r="D283" t="s">
+        <v>69</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45472.85416666666</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283" t="s">
+        <v>96</v>
+      </c>
+      <c r="H283" t="s">
+        <v>95</v>
+      </c>
+      <c r="I283">
+        <v>1</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283">
+        <v>1</v>
+      </c>
+      <c r="L283">
+        <v>2</v>
+      </c>
+      <c r="M283">
+        <v>1</v>
+      </c>
+      <c r="N283">
+        <v>3</v>
+      </c>
+      <c r="O283" t="s">
+        <v>302</v>
+      </c>
+      <c r="P283" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q283">
+        <v>2.15</v>
+      </c>
+      <c r="R283">
+        <v>2.5</v>
+      </c>
+      <c r="S283">
+        <v>4.2</v>
+      </c>
+      <c r="T283">
+        <v>1.25</v>
+      </c>
+      <c r="U283">
+        <v>3.6</v>
+      </c>
+      <c r="V283">
+        <v>2.2</v>
+      </c>
+      <c r="W283">
+        <v>1.62</v>
+      </c>
+      <c r="X283">
+        <v>4.75</v>
+      </c>
+      <c r="Y283">
+        <v>1.15</v>
+      </c>
+      <c r="Z283">
+        <v>1.78</v>
+      </c>
+      <c r="AA283">
+        <v>4.11</v>
+      </c>
+      <c r="AB283">
+        <v>4.14</v>
+      </c>
+      <c r="AC283">
+        <v>1.02</v>
+      </c>
+      <c r="AD283">
+        <v>19.5</v>
+      </c>
+      <c r="AE283">
+        <v>1.15</v>
+      </c>
+      <c r="AF283">
+        <v>4.75</v>
+      </c>
+      <c r="AG283">
+        <v>1.48</v>
+      </c>
+      <c r="AH283">
+        <v>2.54</v>
+      </c>
+      <c r="AI283">
+        <v>1.53</v>
+      </c>
+      <c r="AJ283">
+        <v>2.38</v>
+      </c>
+      <c r="AK283">
+        <v>1.22</v>
+      </c>
+      <c r="AL283">
+        <v>1.25</v>
+      </c>
+      <c r="AM283">
+        <v>2.1</v>
+      </c>
+      <c r="AN283">
+        <v>1.1</v>
+      </c>
+      <c r="AO283">
+        <v>0.9</v>
+      </c>
+      <c r="AP283">
+        <v>1.27</v>
+      </c>
+      <c r="AQ283">
+        <v>0.82</v>
+      </c>
+      <c r="AR283">
+        <v>1.63</v>
+      </c>
+      <c r="AS283">
+        <v>1.03</v>
+      </c>
+      <c r="AT283">
+        <v>2.66</v>
+      </c>
+      <c r="AU283">
+        <v>7</v>
+      </c>
+      <c r="AV283">
+        <v>5</v>
+      </c>
+      <c r="AW283">
+        <v>3</v>
+      </c>
+      <c r="AX283">
+        <v>4</v>
+      </c>
+      <c r="AY283">
+        <v>10</v>
+      </c>
+      <c r="AZ283">
+        <v>9</v>
+      </c>
+      <c r="BA283">
+        <v>6</v>
+      </c>
+      <c r="BB283">
+        <v>2</v>
+      </c>
+      <c r="BC283">
+        <v>8</v>
+      </c>
+      <c r="BD283">
+        <v>1.5</v>
+      </c>
+      <c r="BE283">
+        <v>6.4</v>
+      </c>
+      <c r="BF283">
+        <v>2.65</v>
+      </c>
+      <c r="BG283">
+        <v>1.26</v>
+      </c>
+      <c r="BH283">
+        <v>3.4</v>
+      </c>
+      <c r="BI283">
+        <v>1.46</v>
+      </c>
+      <c r="BJ283">
+        <v>2.48</v>
+      </c>
+      <c r="BK283">
+        <v>1.73</v>
+      </c>
+      <c r="BL283">
+        <v>2</v>
+      </c>
+      <c r="BM283">
+        <v>2.07</v>
+      </c>
+      <c r="BN283">
+        <v>1.75</v>
+      </c>
+      <c r="BO283">
+        <v>2.8</v>
+      </c>
+      <c r="BP283">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="284" spans="1:68">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>7295520</v>
+      </c>
+      <c r="C284" t="s">
+        <v>68</v>
+      </c>
+      <c r="D284" t="s">
+        <v>69</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45472.85416666666</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+      <c r="G284" t="s">
+        <v>98</v>
+      </c>
+      <c r="H284" t="s">
+        <v>76</v>
+      </c>
+      <c r="I284">
+        <v>1</v>
+      </c>
+      <c r="J284">
+        <v>2</v>
+      </c>
+      <c r="K284">
+        <v>3</v>
+      </c>
+      <c r="L284">
+        <v>4</v>
+      </c>
+      <c r="M284">
+        <v>2</v>
+      </c>
+      <c r="N284">
+        <v>6</v>
+      </c>
+      <c r="O284" t="s">
+        <v>303</v>
+      </c>
+      <c r="P284" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q284">
+        <v>3</v>
+      </c>
+      <c r="R284">
+        <v>2.25</v>
+      </c>
+      <c r="S284">
+        <v>3.1</v>
+      </c>
+      <c r="T284">
+        <v>1.3</v>
+      </c>
+      <c r="U284">
+        <v>3.2</v>
+      </c>
+      <c r="V284">
+        <v>2.4</v>
+      </c>
+      <c r="W284">
+        <v>1.5</v>
+      </c>
+      <c r="X284">
+        <v>5.5</v>
+      </c>
+      <c r="Y284">
+        <v>1.11</v>
+      </c>
+      <c r="Z284">
+        <v>3.13</v>
+      </c>
+      <c r="AA284">
+        <v>3.56</v>
+      </c>
+      <c r="AB284">
+        <v>2.25</v>
+      </c>
+      <c r="AC284">
+        <v>1.01</v>
+      </c>
+      <c r="AD284">
+        <v>11</v>
+      </c>
+      <c r="AE284">
+        <v>1.2</v>
+      </c>
+      <c r="AF284">
+        <v>4</v>
+      </c>
+      <c r="AG284">
+        <v>1.65</v>
+      </c>
+      <c r="AH284">
+        <v>2</v>
+      </c>
+      <c r="AI284">
+        <v>1.57</v>
+      </c>
+      <c r="AJ284">
+        <v>2.25</v>
+      </c>
+      <c r="AK284">
+        <v>1.48</v>
+      </c>
+      <c r="AL284">
+        <v>1.3</v>
+      </c>
+      <c r="AM284">
+        <v>1.53</v>
+      </c>
+      <c r="AN284">
+        <v>1.25</v>
+      </c>
+      <c r="AO284">
+        <v>1.56</v>
+      </c>
+      <c r="AP284">
+        <v>1.44</v>
+      </c>
+      <c r="AQ284">
+        <v>1.4</v>
+      </c>
+      <c r="AR284">
+        <v>1.2</v>
+      </c>
+      <c r="AS284">
+        <v>1.21</v>
+      </c>
+      <c r="AT284">
+        <v>2.41</v>
+      </c>
+      <c r="AU284">
+        <v>6</v>
+      </c>
+      <c r="AV284">
+        <v>6</v>
+      </c>
+      <c r="AW284">
+        <v>5</v>
+      </c>
+      <c r="AX284">
+        <v>2</v>
+      </c>
+      <c r="AY284">
+        <v>11</v>
+      </c>
+      <c r="AZ284">
+        <v>8</v>
+      </c>
+      <c r="BA284">
+        <v>5</v>
+      </c>
+      <c r="BB284">
+        <v>3</v>
+      </c>
+      <c r="BC284">
+        <v>8</v>
+      </c>
+      <c r="BD284">
+        <v>1.88</v>
+      </c>
+      <c r="BE284">
+        <v>6.25</v>
+      </c>
+      <c r="BF284">
+        <v>2</v>
+      </c>
+      <c r="BG284">
+        <v>1.35</v>
+      </c>
+      <c r="BH284">
+        <v>2.9</v>
+      </c>
+      <c r="BI284">
+        <v>1.6</v>
+      </c>
+      <c r="BJ284">
+        <v>2.17</v>
+      </c>
+      <c r="BK284">
+        <v>1.85</v>
+      </c>
+      <c r="BL284">
+        <v>1.85</v>
+      </c>
+      <c r="BM284">
+        <v>2.22</v>
+      </c>
+      <c r="BN284">
+        <v>1.66</v>
+      </c>
+      <c r="BO284">
+        <v>3.3</v>
+      </c>
+      <c r="BP284">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="285" spans="1:68">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>7295521</v>
+      </c>
+      <c r="C285" t="s">
+        <v>68</v>
+      </c>
+      <c r="D285" t="s">
+        <v>69</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45472.85416666666</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285" t="s">
+        <v>93</v>
+      </c>
+      <c r="H285" t="s">
+        <v>71</v>
+      </c>
+      <c r="I285">
+        <v>1</v>
+      </c>
+      <c r="J285">
+        <v>3</v>
+      </c>
+      <c r="K285">
+        <v>4</v>
+      </c>
+      <c r="L285">
+        <v>1</v>
+      </c>
+      <c r="M285">
+        <v>5</v>
+      </c>
+      <c r="N285">
+        <v>6</v>
+      </c>
+      <c r="O285" t="s">
+        <v>271</v>
+      </c>
+      <c r="P285" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q285">
+        <v>3.4</v>
+      </c>
+      <c r="R285">
+        <v>2.38</v>
+      </c>
+      <c r="S285">
+        <v>2.6</v>
+      </c>
+      <c r="T285">
+        <v>1.29</v>
+      </c>
+      <c r="U285">
+        <v>3.4</v>
+      </c>
+      <c r="V285">
+        <v>2.25</v>
+      </c>
+      <c r="W285">
+        <v>1.57</v>
+      </c>
+      <c r="X285">
+        <v>4.75</v>
+      </c>
+      <c r="Y285">
+        <v>1.15</v>
+      </c>
+      <c r="Z285">
+        <v>3.13</v>
+      </c>
+      <c r="AA285">
+        <v>3.73</v>
+      </c>
+      <c r="AB285">
+        <v>2.19</v>
+      </c>
+      <c r="AC285">
+        <v>1.03</v>
+      </c>
+      <c r="AD285">
+        <v>18.75</v>
+      </c>
+      <c r="AE285">
+        <v>1.15</v>
+      </c>
+      <c r="AF285">
+        <v>4.75</v>
+      </c>
+      <c r="AG285">
+        <v>1.5</v>
+      </c>
+      <c r="AH285">
+        <v>2.48</v>
+      </c>
+      <c r="AI285">
+        <v>1.48</v>
+      </c>
+      <c r="AJ285">
+        <v>2.5</v>
+      </c>
+      <c r="AK285">
+        <v>1.7</v>
+      </c>
+      <c r="AL285">
+        <v>1.25</v>
+      </c>
+      <c r="AM285">
+        <v>1.4</v>
+      </c>
+      <c r="AN285">
+        <v>1.11</v>
+      </c>
+      <c r="AO285">
+        <v>1.67</v>
+      </c>
+      <c r="AP285">
+        <v>1</v>
+      </c>
+      <c r="AQ285">
+        <v>1.8</v>
+      </c>
+      <c r="AR285">
+        <v>1.4</v>
+      </c>
+      <c r="AS285">
+        <v>1.33</v>
+      </c>
+      <c r="AT285">
+        <v>2.73</v>
+      </c>
+      <c r="AU285">
+        <v>6</v>
+      </c>
+      <c r="AV285">
+        <v>7</v>
+      </c>
+      <c r="AW285">
+        <v>2</v>
+      </c>
+      <c r="AX285">
+        <v>7</v>
+      </c>
+      <c r="AY285">
+        <v>8</v>
+      </c>
+      <c r="AZ285">
+        <v>14</v>
+      </c>
+      <c r="BA285">
+        <v>4</v>
+      </c>
+      <c r="BB285">
+        <v>3</v>
+      </c>
+      <c r="BC285">
+        <v>7</v>
+      </c>
+      <c r="BD285">
+        <v>2.08</v>
+      </c>
+      <c r="BE285">
+        <v>5.8</v>
+      </c>
+      <c r="BF285">
+        <v>1.82</v>
+      </c>
+      <c r="BG285">
+        <v>1.4</v>
+      </c>
+      <c r="BH285">
+        <v>2.7</v>
+      </c>
+      <c r="BI285">
+        <v>1.55</v>
+      </c>
+      <c r="BJ285">
+        <v>2.41</v>
+      </c>
+      <c r="BK285">
+        <v>2.05</v>
+      </c>
+      <c r="BL285">
+        <v>1.7</v>
+      </c>
+      <c r="BM285">
+        <v>2.35</v>
+      </c>
+      <c r="BN285">
+        <v>1.57</v>
+      </c>
+      <c r="BO285">
+        <v>3.55</v>
+      </c>
+      <c r="BP285">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="286" spans="1:68">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>7295526</v>
+      </c>
+      <c r="C286" t="s">
+        <v>68</v>
+      </c>
+      <c r="D286" t="s">
+        <v>69</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45472.89583333334</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286" t="s">
+        <v>83</v>
+      </c>
+      <c r="H286" t="s">
+        <v>70</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>2</v>
+      </c>
+      <c r="K286">
+        <v>2</v>
+      </c>
+      <c r="L286">
+        <v>1</v>
+      </c>
+      <c r="M286">
+        <v>2</v>
+      </c>
+      <c r="N286">
+        <v>3</v>
+      </c>
+      <c r="O286" t="s">
+        <v>304</v>
+      </c>
+      <c r="P286" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q286">
+        <v>2.38</v>
+      </c>
+      <c r="R286">
+        <v>2.25</v>
+      </c>
+      <c r="S286">
+        <v>3.9</v>
+      </c>
+      <c r="T286">
+        <v>1.28</v>
+      </c>
+      <c r="U286">
+        <v>3.5</v>
+      </c>
+      <c r="V286">
+        <v>2.25</v>
+      </c>
+      <c r="W286">
+        <v>1.55</v>
+      </c>
+      <c r="X286">
+        <v>4.9</v>
+      </c>
+      <c r="Y286">
+        <v>1.14</v>
+      </c>
+      <c r="Z286">
+        <v>2.01</v>
+      </c>
+      <c r="AA286">
+        <v>3.89</v>
+      </c>
+      <c r="AB286">
+        <v>3.45</v>
+      </c>
+      <c r="AC286">
+        <v>1.03</v>
+      </c>
+      <c r="AD286">
+        <v>17.75</v>
+      </c>
+      <c r="AE286">
+        <v>1.18</v>
+      </c>
+      <c r="AF286">
+        <v>4.97</v>
+      </c>
+      <c r="AG286">
+        <v>1.65</v>
+      </c>
+      <c r="AH286">
+        <v>2.15</v>
+      </c>
+      <c r="AI286">
+        <v>1.53</v>
+      </c>
+      <c r="AJ286">
+        <v>2.38</v>
+      </c>
+      <c r="AK286">
+        <v>1.25</v>
+      </c>
+      <c r="AL286">
+        <v>1.22</v>
+      </c>
+      <c r="AM286">
+        <v>1.85</v>
+      </c>
+      <c r="AN286">
+        <v>1.55</v>
+      </c>
+      <c r="AO286">
+        <v>2.22</v>
+      </c>
+      <c r="AP286">
+        <v>1.42</v>
+      </c>
+      <c r="AQ286">
+        <v>2.3</v>
+      </c>
+      <c r="AR286">
+        <v>1.29</v>
+      </c>
+      <c r="AS286">
+        <v>1.3</v>
+      </c>
+      <c r="AT286">
+        <v>2.59</v>
+      </c>
+      <c r="AU286">
+        <v>6</v>
+      </c>
+      <c r="AV286">
+        <v>6</v>
+      </c>
+      <c r="AW286">
+        <v>1</v>
+      </c>
+      <c r="AX286">
+        <v>7</v>
+      </c>
+      <c r="AY286">
+        <v>7</v>
+      </c>
+      <c r="AZ286">
+        <v>13</v>
+      </c>
+      <c r="BA286">
+        <v>7</v>
+      </c>
+      <c r="BB286">
+        <v>5</v>
+      </c>
+      <c r="BC286">
+        <v>12</v>
+      </c>
+      <c r="BD286">
+        <v>1.6</v>
+      </c>
+      <c r="BE286">
+        <v>6.4</v>
+      </c>
+      <c r="BF286">
+        <v>2.43</v>
+      </c>
+      <c r="BG286">
+        <v>1.32</v>
+      </c>
+      <c r="BH286">
+        <v>3.05</v>
+      </c>
+      <c r="BI286">
+        <v>1.59</v>
+      </c>
+      <c r="BJ286">
+        <v>2.35</v>
+      </c>
+      <c r="BK286">
+        <v>2</v>
+      </c>
+      <c r="BL286">
+        <v>1.73</v>
+      </c>
+      <c r="BM286">
+        <v>2.47</v>
+      </c>
+      <c r="BN286">
+        <v>1.53</v>
+      </c>
+      <c r="BO286">
+        <v>3.05</v>
+      </c>
+      <c r="BP286">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:68">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>7295525</v>
+      </c>
+      <c r="C287" t="s">
+        <v>68</v>
+      </c>
+      <c r="D287" t="s">
+        <v>69</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45472.89583333334</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+      <c r="G287" t="s">
+        <v>89</v>
+      </c>
+      <c r="H287" t="s">
+        <v>77</v>
+      </c>
+      <c r="I287">
+        <v>1</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="K287">
+        <v>1</v>
+      </c>
+      <c r="L287">
+        <v>2</v>
+      </c>
+      <c r="M287">
+        <v>0</v>
+      </c>
+      <c r="N287">
+        <v>2</v>
+      </c>
+      <c r="O287" t="s">
+        <v>305</v>
+      </c>
+      <c r="P287" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q287">
+        <v>2.4</v>
+      </c>
+      <c r="R287">
+        <v>2.3</v>
+      </c>
+      <c r="S287">
+        <v>4.33</v>
+      </c>
+      <c r="T287">
+        <v>1.33</v>
+      </c>
+      <c r="U287">
+        <v>3.3</v>
+      </c>
+      <c r="V287">
+        <v>2.6</v>
+      </c>
+      <c r="W287">
+        <v>1.5</v>
+      </c>
+      <c r="X287">
+        <v>6</v>
+      </c>
+      <c r="Y287">
+        <v>1.12</v>
+      </c>
+      <c r="Z287">
+        <v>1.85</v>
+      </c>
+      <c r="AA287">
+        <v>3.83</v>
+      </c>
+      <c r="AB287">
+        <v>4.08</v>
+      </c>
+      <c r="AC287">
+        <v>1.03</v>
+      </c>
+      <c r="AD287">
+        <v>15</v>
+      </c>
+      <c r="AE287">
+        <v>1.24</v>
+      </c>
+      <c r="AF287">
+        <v>4.2</v>
+      </c>
+      <c r="AG287">
+        <v>1.65</v>
+      </c>
+      <c r="AH287">
+        <v>2</v>
+      </c>
+      <c r="AI287">
+        <v>1.62</v>
+      </c>
+      <c r="AJ287">
+        <v>2.2</v>
+      </c>
+      <c r="AK287">
+        <v>1.25</v>
+      </c>
+      <c r="AL287">
+        <v>1.22</v>
+      </c>
+      <c r="AM287">
+        <v>2</v>
+      </c>
+      <c r="AN287">
+        <v>0.9</v>
+      </c>
+      <c r="AO287">
+        <v>0.9</v>
+      </c>
+      <c r="AP287">
+        <v>1.09</v>
+      </c>
+      <c r="AQ287">
+        <v>0.82</v>
+      </c>
+      <c r="AR287">
+        <v>1.55</v>
+      </c>
+      <c r="AS287">
+        <v>0.89</v>
+      </c>
+      <c r="AT287">
+        <v>2.44</v>
+      </c>
+      <c r="AU287">
+        <v>3</v>
+      </c>
+      <c r="AV287">
+        <v>0</v>
+      </c>
+      <c r="AW287">
+        <v>4</v>
+      </c>
+      <c r="AX287">
+        <v>3</v>
+      </c>
+      <c r="AY287">
+        <v>7</v>
+      </c>
+      <c r="AZ287">
+        <v>3</v>
+      </c>
+      <c r="BA287">
+        <v>5</v>
+      </c>
+      <c r="BB287">
+        <v>1</v>
+      </c>
+      <c r="BC287">
+        <v>6</v>
+      </c>
+      <c r="BD287">
+        <v>1.49</v>
+      </c>
+      <c r="BE287">
+        <v>6.75</v>
+      </c>
+      <c r="BF287">
+        <v>2.65</v>
+      </c>
+      <c r="BG287">
+        <v>1.27</v>
+      </c>
+      <c r="BH287">
+        <v>3.3</v>
+      </c>
+      <c r="BI287">
+        <v>1.48</v>
+      </c>
+      <c r="BJ287">
+        <v>2.43</v>
+      </c>
+      <c r="BK287">
+        <v>1.8</v>
+      </c>
+      <c r="BL287">
+        <v>1.91</v>
+      </c>
+      <c r="BM287">
+        <v>2.1</v>
+      </c>
+      <c r="BN287">
+        <v>1.74</v>
+      </c>
+      <c r="BO287">
+        <v>2.8</v>
+      </c>
+      <c r="BP287">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="288" spans="1:68">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>7295523</v>
+      </c>
+      <c r="C288" t="s">
+        <v>68</v>
+      </c>
+      <c r="D288" t="s">
+        <v>69</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45472.89583333334</v>
+      </c>
+      <c r="F288">
+        <v>0</v>
+      </c>
+      <c r="G288" t="s">
+        <v>78</v>
+      </c>
+      <c r="H288" t="s">
+        <v>82</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>0</v>
+      </c>
+      <c r="L288">
+        <v>0</v>
+      </c>
+      <c r="M288">
+        <v>1</v>
+      </c>
+      <c r="N288">
+        <v>1</v>
+      </c>
+      <c r="O288" t="s">
+        <v>104</v>
+      </c>
+      <c r="P288" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q288">
+        <v>3.25</v>
+      </c>
+      <c r="R288">
+        <v>2.25</v>
+      </c>
+      <c r="S288">
+        <v>3.1</v>
+      </c>
+      <c r="T288">
+        <v>1.33</v>
+      </c>
+      <c r="U288">
+        <v>3.25</v>
+      </c>
+      <c r="V288">
+        <v>2.63</v>
+      </c>
+      <c r="W288">
+        <v>1.44</v>
+      </c>
+      <c r="X288">
+        <v>6.5</v>
+      </c>
+      <c r="Y288">
+        <v>1.11</v>
+      </c>
+      <c r="Z288">
+        <v>2.79</v>
+      </c>
+      <c r="AA288">
+        <v>3.38</v>
+      </c>
+      <c r="AB288">
+        <v>2.57</v>
+      </c>
+      <c r="AC288">
+        <v>1.04</v>
+      </c>
+      <c r="AD288">
+        <v>13</v>
+      </c>
+      <c r="AE288">
+        <v>1.28</v>
+      </c>
+      <c r="AF288">
+        <v>3.75</v>
+      </c>
+      <c r="AG288">
+        <v>1.87</v>
+      </c>
+      <c r="AH288">
+        <v>1.98</v>
+      </c>
+      <c r="AI288">
+        <v>1.62</v>
+      </c>
+      <c r="AJ288">
+        <v>2.2</v>
+      </c>
+      <c r="AK288">
+        <v>1.48</v>
+      </c>
+      <c r="AL288">
+        <v>1.26</v>
+      </c>
+      <c r="AM288">
+        <v>1.55</v>
+      </c>
+      <c r="AN288">
+        <v>1.89</v>
+      </c>
+      <c r="AO288">
+        <v>2.44</v>
+      </c>
+      <c r="AP288">
+        <v>1.7</v>
+      </c>
+      <c r="AQ288">
+        <v>2.5</v>
+      </c>
+      <c r="AR288">
+        <v>1.5</v>
+      </c>
+      <c r="AS288">
+        <v>1.39</v>
+      </c>
+      <c r="AT288">
+        <v>2.89</v>
+      </c>
+      <c r="AU288">
+        <v>3</v>
+      </c>
+      <c r="AV288">
+        <v>3</v>
+      </c>
+      <c r="AW288">
+        <v>8</v>
+      </c>
+      <c r="AX288">
+        <v>4</v>
+      </c>
+      <c r="AY288">
+        <v>11</v>
+      </c>
+      <c r="AZ288">
+        <v>7</v>
+      </c>
+      <c r="BA288">
+        <v>5</v>
+      </c>
+      <c r="BB288">
+        <v>1</v>
+      </c>
+      <c r="BC288">
+        <v>6</v>
+      </c>
+      <c r="BD288">
+        <v>2.13</v>
+      </c>
+      <c r="BE288">
+        <v>6.45</v>
+      </c>
+      <c r="BF288">
+        <v>2.13</v>
+      </c>
+      <c r="BG288">
+        <v>1.23</v>
+      </c>
+      <c r="BH288">
+        <v>3.56</v>
+      </c>
+      <c r="BI288">
+        <v>1.5</v>
+      </c>
+      <c r="BJ288">
+        <v>2.52</v>
+      </c>
+      <c r="BK288">
+        <v>1.91</v>
+      </c>
+      <c r="BL288">
+        <v>1.8</v>
+      </c>
+      <c r="BM288">
+        <v>2.25</v>
+      </c>
+      <c r="BN288">
+        <v>1.62</v>
+      </c>
+      <c r="BO288">
+        <v>3.04</v>
+      </c>
+      <c r="BP288">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="289" spans="1:68">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>7295524</v>
+      </c>
+      <c r="C289" t="s">
+        <v>68</v>
+      </c>
+      <c r="D289" t="s">
+        <v>69</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45472.89583333334</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289" t="s">
+        <v>79</v>
+      </c>
+      <c r="H289" t="s">
+        <v>73</v>
+      </c>
+      <c r="I289">
+        <v>1</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="K289">
+        <v>1</v>
+      </c>
+      <c r="L289">
+        <v>1</v>
+      </c>
+      <c r="M289">
+        <v>0</v>
+      </c>
+      <c r="N289">
+        <v>1</v>
+      </c>
+      <c r="O289" t="s">
+        <v>306</v>
+      </c>
+      <c r="P289" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q289">
+        <v>2.4</v>
+      </c>
+      <c r="R289">
+        <v>2.25</v>
+      </c>
+      <c r="S289">
+        <v>4.33</v>
+      </c>
+      <c r="T289">
+        <v>1.36</v>
+      </c>
+      <c r="U289">
+        <v>3</v>
+      </c>
+      <c r="V289">
+        <v>2.63</v>
+      </c>
+      <c r="W289">
+        <v>1.44</v>
+      </c>
+      <c r="X289">
+        <v>7</v>
+      </c>
+      <c r="Y289">
+        <v>1.1</v>
+      </c>
+      <c r="Z289">
+        <v>1.83</v>
+      </c>
+      <c r="AA289">
+        <v>3.73</v>
+      </c>
+      <c r="AB289">
+        <v>4.27</v>
+      </c>
+      <c r="AC289">
+        <v>1.04</v>
+      </c>
+      <c r="AD289">
+        <v>13</v>
+      </c>
+      <c r="AE289">
+        <v>1.26</v>
+      </c>
+      <c r="AF289">
+        <v>4</v>
+      </c>
+      <c r="AG289">
+        <v>1.88</v>
+      </c>
+      <c r="AH289">
+        <v>1.98</v>
+      </c>
+      <c r="AI289">
+        <v>1.7</v>
+      </c>
+      <c r="AJ289">
+        <v>2.05</v>
+      </c>
+      <c r="AK289">
+        <v>1.22</v>
+      </c>
+      <c r="AL289">
+        <v>1.22</v>
+      </c>
+      <c r="AM289">
+        <v>2.05</v>
+      </c>
+      <c r="AN289">
+        <v>1.44</v>
+      </c>
+      <c r="AO289">
+        <v>1.11</v>
+      </c>
+      <c r="AP289">
+        <v>1.6</v>
+      </c>
+      <c r="AQ289">
+        <v>1</v>
+      </c>
+      <c r="AR289">
+        <v>1.77</v>
+      </c>
+      <c r="AS289">
+        <v>1.28</v>
+      </c>
+      <c r="AT289">
+        <v>3.05</v>
+      </c>
+      <c r="AU289">
+        <v>5</v>
+      </c>
+      <c r="AV289">
+        <v>5</v>
+      </c>
+      <c r="AW289">
+        <v>4</v>
+      </c>
+      <c r="AX289">
+        <v>6</v>
+      </c>
+      <c r="AY289">
+        <v>9</v>
+      </c>
+      <c r="AZ289">
+        <v>11</v>
+      </c>
+      <c r="BA289">
+        <v>7</v>
+      </c>
+      <c r="BB289">
+        <v>2</v>
+      </c>
+      <c r="BC289">
+        <v>9</v>
+      </c>
+      <c r="BD289">
+        <v>1.49</v>
+      </c>
+      <c r="BE289">
+        <v>6.5</v>
+      </c>
+      <c r="BF289">
+        <v>2.8</v>
+      </c>
+      <c r="BG289">
+        <v>1.29</v>
+      </c>
+      <c r="BH289">
+        <v>3.15</v>
+      </c>
+      <c r="BI289">
+        <v>1.5</v>
+      </c>
+      <c r="BJ289">
+        <v>2.38</v>
+      </c>
+      <c r="BK289">
+        <v>1.85</v>
+      </c>
+      <c r="BL289">
+        <v>1.85</v>
+      </c>
+      <c r="BM289">
+        <v>2.19</v>
+      </c>
+      <c r="BN289">
+        <v>1.67</v>
+      </c>
+      <c r="BO289">
+        <v>2.9</v>
+      </c>
+      <c r="BP289">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="290" spans="1:68">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>7295517</v>
+      </c>
+      <c r="C290" t="s">
+        <v>68</v>
+      </c>
+      <c r="D290" t="s">
+        <v>69</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45472.97916666666</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290" t="s">
+        <v>87</v>
+      </c>
+      <c r="H290" t="s">
+        <v>80</v>
+      </c>
+      <c r="I290">
+        <v>1</v>
+      </c>
+      <c r="J290">
+        <v>2</v>
+      </c>
+      <c r="K290">
+        <v>3</v>
+      </c>
+      <c r="L290">
+        <v>4</v>
+      </c>
+      <c r="M290">
+        <v>3</v>
+      </c>
+      <c r="N290">
+        <v>7</v>
+      </c>
+      <c r="O290" t="s">
+        <v>307</v>
+      </c>
+      <c r="P290" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q290">
+        <v>2.25</v>
+      </c>
+      <c r="R290">
+        <v>2.28</v>
+      </c>
+      <c r="S290">
+        <v>3.78</v>
+      </c>
+      <c r="T290">
+        <v>1.3</v>
+      </c>
+      <c r="U290">
+        <v>3.5</v>
+      </c>
+      <c r="V290">
+        <v>2.4</v>
+      </c>
+      <c r="W290">
+        <v>1.55</v>
+      </c>
+      <c r="X290">
+        <v>5.5</v>
+      </c>
+      <c r="Y290">
+        <v>1.14</v>
+      </c>
+      <c r="Z290">
+        <v>1.83</v>
+      </c>
+      <c r="AA290">
+        <v>4.03</v>
+      </c>
+      <c r="AB290">
+        <v>3.99</v>
+      </c>
+      <c r="AC290">
+        <v>1.03</v>
+      </c>
+      <c r="AD290">
+        <v>17</v>
+      </c>
+      <c r="AE290">
+        <v>1.19</v>
+      </c>
+      <c r="AF290">
+        <v>4.75</v>
+      </c>
+      <c r="AG290">
+        <v>1.57</v>
+      </c>
+      <c r="AH290">
+        <v>2.25</v>
+      </c>
+      <c r="AI290">
+        <v>1.57</v>
+      </c>
+      <c r="AJ290">
+        <v>2.25</v>
+      </c>
+      <c r="AK290">
+        <v>1.18</v>
+      </c>
+      <c r="AL290">
+        <v>1.19</v>
+      </c>
+      <c r="AM290">
+        <v>2</v>
+      </c>
+      <c r="AN290">
+        <v>1.38</v>
+      </c>
+      <c r="AO290">
+        <v>0.63</v>
+      </c>
+      <c r="AP290">
+        <v>1.56</v>
+      </c>
+      <c r="AQ290">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR290">
+        <v>1.56</v>
+      </c>
+      <c r="AS290">
+        <v>1.53</v>
+      </c>
+      <c r="AT290">
+        <v>3.09</v>
+      </c>
+      <c r="AU290">
+        <v>9</v>
+      </c>
+      <c r="AV290">
+        <v>5</v>
+      </c>
+      <c r="AW290">
+        <v>4</v>
+      </c>
+      <c r="AX290">
+        <v>2</v>
+      </c>
+      <c r="AY290">
+        <v>13</v>
+      </c>
+      <c r="AZ290">
+        <v>7</v>
+      </c>
+      <c r="BA290">
+        <v>3</v>
+      </c>
+      <c r="BB290">
+        <v>5</v>
+      </c>
+      <c r="BC290">
+        <v>8</v>
+      </c>
+      <c r="BD290">
+        <v>1.62</v>
+      </c>
+      <c r="BE290">
+        <v>7</v>
+      </c>
+      <c r="BF290">
+        <v>3</v>
+      </c>
+      <c r="BG290">
+        <v>1.16</v>
+      </c>
+      <c r="BH290">
+        <v>4.3</v>
+      </c>
+      <c r="BI290">
+        <v>1.33</v>
+      </c>
+      <c r="BJ290">
+        <v>2.91</v>
+      </c>
+      <c r="BK290">
+        <v>1.73</v>
+      </c>
+      <c r="BL290">
+        <v>2</v>
+      </c>
+      <c r="BM290">
+        <v>2.05</v>
+      </c>
+      <c r="BN290">
+        <v>1.78</v>
+      </c>
+      <c r="BO290">
+        <v>2.65</v>
+      </c>
+      <c r="BP290">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="291" spans="1:68">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>7295527</v>
+      </c>
+      <c r="C291" t="s">
+        <v>68</v>
+      </c>
+      <c r="D291" t="s">
+        <v>69</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45472.97916666666</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="G291" t="s">
+        <v>72</v>
+      </c>
+      <c r="H291" t="s">
+        <v>90</v>
+      </c>
+      <c r="I291">
+        <v>1</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>1</v>
+      </c>
+      <c r="L291">
+        <v>3</v>
+      </c>
+      <c r="M291">
+        <v>0</v>
+      </c>
+      <c r="N291">
+        <v>3</v>
+      </c>
+      <c r="O291" t="s">
+        <v>308</v>
+      </c>
+      <c r="P291" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q291">
+        <v>2.04</v>
+      </c>
+      <c r="R291">
+        <v>2.41</v>
+      </c>
+      <c r="S291">
+        <v>4.08</v>
+      </c>
+      <c r="T291">
+        <v>1.26</v>
+      </c>
+      <c r="U291">
+        <v>3.75</v>
+      </c>
+      <c r="V291">
+        <v>2.25</v>
+      </c>
+      <c r="W291">
+        <v>1.65</v>
+      </c>
+      <c r="X291">
+        <v>5</v>
+      </c>
+      <c r="Y291">
+        <v>1.17</v>
+      </c>
+      <c r="Z291">
+        <v>1.5</v>
+      </c>
+      <c r="AA291">
+        <v>4.75</v>
+      </c>
+      <c r="AB291">
+        <v>5.75</v>
+      </c>
+      <c r="AC291">
+        <v>1.01</v>
+      </c>
+      <c r="AD291">
+        <v>21</v>
+      </c>
+      <c r="AE291">
+        <v>1.12</v>
+      </c>
+      <c r="AF291">
+        <v>5.05</v>
+      </c>
+      <c r="AG291">
+        <v>1.45</v>
+      </c>
+      <c r="AH291">
+        <v>2.63</v>
+      </c>
+      <c r="AI291">
+        <v>1.62</v>
+      </c>
+      <c r="AJ291">
+        <v>2.2</v>
+      </c>
+      <c r="AK291">
+        <v>1.09</v>
+      </c>
+      <c r="AL291">
+        <v>1.15</v>
+      </c>
+      <c r="AM291">
+        <v>2.49</v>
+      </c>
+      <c r="AN291">
+        <v>2.6</v>
+      </c>
+      <c r="AO291">
+        <v>1.27</v>
+      </c>
+      <c r="AP291">
+        <v>2.64</v>
+      </c>
+      <c r="AQ291">
+        <v>1.17</v>
+      </c>
+      <c r="AR291">
+        <v>2.03</v>
+      </c>
+      <c r="AS291">
+        <v>1.42</v>
+      </c>
+      <c r="AT291">
+        <v>3.45</v>
+      </c>
+      <c r="AU291">
+        <v>12</v>
+      </c>
+      <c r="AV291">
+        <v>2</v>
+      </c>
+      <c r="AW291">
+        <v>5</v>
+      </c>
+      <c r="AX291">
+        <v>4</v>
+      </c>
+      <c r="AY291">
+        <v>17</v>
+      </c>
+      <c r="AZ291">
+        <v>6</v>
+      </c>
+      <c r="BA291">
+        <v>4</v>
+      </c>
+      <c r="BB291">
+        <v>9</v>
+      </c>
+      <c r="BC291">
+        <v>13</v>
+      </c>
+      <c r="BD291">
+        <v>1.29</v>
+      </c>
+      <c r="BE291">
+        <v>8.6</v>
+      </c>
+      <c r="BF291">
+        <v>4.95</v>
+      </c>
+      <c r="BG291">
+        <v>1.12</v>
+      </c>
+      <c r="BH291">
+        <v>5</v>
+      </c>
+      <c r="BI291">
+        <v>1.26</v>
+      </c>
+      <c r="BJ291">
+        <v>3.34</v>
+      </c>
+      <c r="BK291">
+        <v>1.8</v>
+      </c>
+      <c r="BL291">
+        <v>1.91</v>
+      </c>
+      <c r="BM291">
+        <v>1.8</v>
+      </c>
+      <c r="BN291">
+        <v>1.91</v>
+      </c>
+      <c r="BO291">
+        <v>2.3</v>
+      </c>
+      <c r="BP291">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="292" spans="1:68">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>7295528</v>
+      </c>
+      <c r="C292" t="s">
+        <v>68</v>
+      </c>
+      <c r="D292" t="s">
+        <v>69</v>
+      </c>
+      <c r="E292" s="2">
+        <v>45472.97916666666</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+      <c r="G292" t="s">
+        <v>81</v>
+      </c>
+      <c r="H292" t="s">
+        <v>85</v>
+      </c>
+      <c r="I292">
+        <v>1</v>
+      </c>
+      <c r="J292">
+        <v>2</v>
+      </c>
+      <c r="K292">
+        <v>3</v>
+      </c>
+      <c r="L292">
+        <v>3</v>
+      </c>
+      <c r="M292">
+        <v>2</v>
+      </c>
+      <c r="N292">
+        <v>5</v>
+      </c>
+      <c r="O292" t="s">
+        <v>309</v>
+      </c>
+      <c r="P292" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q292">
+        <v>2.32</v>
+      </c>
+      <c r="R292">
+        <v>2.44</v>
+      </c>
+      <c r="S292">
+        <v>3.22</v>
+      </c>
+      <c r="T292">
+        <v>1.26</v>
+      </c>
+      <c r="U292">
+        <v>4</v>
+      </c>
+      <c r="V292">
+        <v>2.2</v>
+      </c>
+      <c r="W292">
+        <v>1.66</v>
+      </c>
+      <c r="X292">
+        <v>4.75</v>
+      </c>
+      <c r="Y292">
+        <v>1.18</v>
+      </c>
+      <c r="Z292">
+        <v>1.93</v>
+      </c>
+      <c r="AA292">
+        <v>3.99</v>
+      </c>
+      <c r="AB292">
+        <v>3.6</v>
+      </c>
+      <c r="AC292">
+        <v>1.01</v>
+      </c>
+      <c r="AD292">
+        <v>21</v>
+      </c>
+      <c r="AE292">
+        <v>1.11</v>
+      </c>
+      <c r="AF292">
+        <v>5.2</v>
+      </c>
+      <c r="AG292">
+        <v>1.39</v>
+      </c>
+      <c r="AH292">
+        <v>2.86</v>
+      </c>
+      <c r="AI292">
+        <v>1.44</v>
+      </c>
+      <c r="AJ292">
+        <v>2.63</v>
+      </c>
+      <c r="AK292">
+        <v>1.23</v>
+      </c>
+      <c r="AL292">
+        <v>1.18</v>
+      </c>
+      <c r="AM292">
+        <v>1.9</v>
+      </c>
+      <c r="AN292">
+        <v>1.67</v>
+      </c>
+      <c r="AO292">
+        <v>1.44</v>
+      </c>
+      <c r="AP292">
+        <v>1.8</v>
+      </c>
+      <c r="AQ292">
+        <v>1.3</v>
+      </c>
+      <c r="AR292">
+        <v>1.5</v>
+      </c>
+      <c r="AS292">
+        <v>1.3</v>
+      </c>
+      <c r="AT292">
+        <v>2.8</v>
+      </c>
+      <c r="AU292">
+        <v>14</v>
+      </c>
+      <c r="AV292">
+        <v>5</v>
+      </c>
+      <c r="AW292">
+        <v>10</v>
+      </c>
+      <c r="AX292">
+        <v>1</v>
+      </c>
+      <c r="AY292">
+        <v>24</v>
+      </c>
+      <c r="AZ292">
+        <v>6</v>
+      </c>
+      <c r="BA292">
+        <v>11</v>
+      </c>
+      <c r="BB292">
+        <v>1</v>
+      </c>
+      <c r="BC292">
+        <v>12</v>
+      </c>
+      <c r="BD292">
+        <v>1.66</v>
+      </c>
+      <c r="BE292">
+        <v>7</v>
+      </c>
+      <c r="BF292">
+        <v>2.88</v>
+      </c>
+      <c r="BG292">
+        <v>1.14</v>
+      </c>
+      <c r="BH292">
+        <v>4.6</v>
+      </c>
+      <c r="BI292">
+        <v>1.3</v>
+      </c>
+      <c r="BJ292">
+        <v>3.08</v>
+      </c>
+      <c r="BK292">
+        <v>1.59</v>
+      </c>
+      <c r="BL292">
+        <v>2.35</v>
+      </c>
+      <c r="BM292">
+        <v>2.05</v>
+      </c>
+      <c r="BN292">
+        <v>1.7</v>
+      </c>
+      <c r="BO292">
+        <v>2.41</v>
+      </c>
+      <c r="BP292">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="293" spans="1:68">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>7295529</v>
+      </c>
+      <c r="C293" t="s">
+        <v>68</v>
+      </c>
+      <c r="D293" t="s">
+        <v>69</v>
+      </c>
+      <c r="E293" s="2">
+        <v>45472.97916666666</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+      <c r="G293" t="s">
+        <v>91</v>
+      </c>
+      <c r="H293" t="s">
+        <v>84</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="J293">
+        <v>1</v>
+      </c>
+      <c r="K293">
+        <v>1</v>
+      </c>
+      <c r="L293">
+        <v>0</v>
+      </c>
+      <c r="M293">
+        <v>3</v>
+      </c>
+      <c r="N293">
+        <v>3</v>
+      </c>
+      <c r="O293" t="s">
+        <v>104</v>
+      </c>
+      <c r="P293" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q293">
+        <v>3</v>
+      </c>
+      <c r="R293">
+        <v>2.5</v>
+      </c>
+      <c r="S293">
+        <v>3</v>
+      </c>
+      <c r="T293">
+        <v>1.25</v>
+      </c>
+      <c r="U293">
+        <v>3.75</v>
+      </c>
+      <c r="V293">
+        <v>2.1</v>
+      </c>
+      <c r="W293">
+        <v>1.67</v>
+      </c>
+      <c r="X293">
+        <v>5</v>
+      </c>
+      <c r="Y293">
+        <v>1.17</v>
+      </c>
+      <c r="Z293">
+        <v>2.38</v>
+      </c>
+      <c r="AA293">
+        <v>3.82</v>
+      </c>
+      <c r="AB293">
+        <v>2.75</v>
+      </c>
+      <c r="AC293">
+        <v>1.02</v>
+      </c>
+      <c r="AD293">
+        <v>25</v>
+      </c>
+      <c r="AE293">
+        <v>1.09</v>
+      </c>
+      <c r="AF293">
+        <v>5.8</v>
+      </c>
+      <c r="AG293">
+        <v>1.35</v>
+      </c>
+      <c r="AH293">
+        <v>3.04</v>
+      </c>
+      <c r="AI293">
+        <v>1.4</v>
+      </c>
+      <c r="AJ293">
+        <v>2.75</v>
+      </c>
+      <c r="AK293">
+        <v>1.52</v>
+      </c>
+      <c r="AL293">
+        <v>1.25</v>
+      </c>
+      <c r="AM293">
+        <v>1.42</v>
+      </c>
+      <c r="AN293">
+        <v>0.78</v>
+      </c>
+      <c r="AO293">
+        <v>1.45</v>
+      </c>
+      <c r="AP293">
+        <v>0.7</v>
+      </c>
+      <c r="AQ293">
+        <v>1.58</v>
+      </c>
+      <c r="AR293">
+        <v>1.53</v>
+      </c>
+      <c r="AS293">
+        <v>1.35</v>
+      </c>
+      <c r="AT293">
+        <v>2.88</v>
+      </c>
+      <c r="AU293">
+        <v>7</v>
+      </c>
+      <c r="AV293">
+        <v>8</v>
+      </c>
+      <c r="AW293">
+        <v>10</v>
+      </c>
+      <c r="AX293">
+        <v>4</v>
+      </c>
+      <c r="AY293">
+        <v>17</v>
+      </c>
+      <c r="AZ293">
+        <v>12</v>
+      </c>
+      <c r="BA293">
+        <v>5</v>
+      </c>
+      <c r="BB293">
+        <v>6</v>
+      </c>
+      <c r="BC293">
+        <v>11</v>
+      </c>
+      <c r="BD293">
+        <v>1.85</v>
+      </c>
+      <c r="BE293">
+        <v>6.9</v>
+      </c>
+      <c r="BF293">
+        <v>2.45</v>
+      </c>
+      <c r="BG293">
+        <v>1.14</v>
+      </c>
+      <c r="BH293">
+        <v>4.8</v>
+      </c>
+      <c r="BI293">
+        <v>1.26</v>
+      </c>
+      <c r="BJ293">
+        <v>3.4</v>
+      </c>
+      <c r="BK293">
+        <v>1.44</v>
+      </c>
+      <c r="BL293">
+        <v>2.55</v>
+      </c>
+      <c r="BM293">
+        <v>1.78</v>
+      </c>
+      <c r="BN293">
+        <v>2.03</v>
+      </c>
+      <c r="BO293">
+        <v>2.18</v>
+      </c>
+      <c r="BP293">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="294" spans="1:68">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>7295530</v>
+      </c>
+      <c r="C294" t="s">
+        <v>68</v>
+      </c>
+      <c r="D294" t="s">
+        <v>69</v>
+      </c>
+      <c r="E294" s="2">
+        <v>45472.97916666666</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+      <c r="G294" t="s">
+        <v>92</v>
+      </c>
+      <c r="H294" t="s">
+        <v>88</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>1</v>
+      </c>
+      <c r="K294">
+        <v>1</v>
+      </c>
+      <c r="L294">
+        <v>2</v>
+      </c>
+      <c r="M294">
+        <v>1</v>
+      </c>
+      <c r="N294">
+        <v>3</v>
+      </c>
+      <c r="O294" t="s">
+        <v>184</v>
+      </c>
+      <c r="P294" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q294">
+        <v>2.2</v>
+      </c>
+      <c r="R294">
+        <v>2.35</v>
+      </c>
+      <c r="S294">
+        <v>5</v>
+      </c>
+      <c r="T294">
+        <v>1.36</v>
+      </c>
+      <c r="U294">
+        <v>3.2</v>
+      </c>
+      <c r="V294">
+        <v>2.7</v>
+      </c>
+      <c r="W294">
+        <v>1.47</v>
+      </c>
+      <c r="X294">
+        <v>6.5</v>
+      </c>
+      <c r="Y294">
+        <v>1.1</v>
+      </c>
+      <c r="Z294">
+        <v>1.62</v>
+      </c>
+      <c r="AA294">
+        <v>4.08</v>
+      </c>
+      <c r="AB294">
+        <v>5.32</v>
+      </c>
+      <c r="AC294">
+        <v>1.04</v>
+      </c>
+      <c r="AD294">
+        <v>13</v>
+      </c>
+      <c r="AE294">
+        <v>1.26</v>
+      </c>
+      <c r="AF294">
+        <v>4</v>
+      </c>
+      <c r="AG294">
+        <v>1.83</v>
+      </c>
+      <c r="AH294">
+        <v>2.03</v>
+      </c>
+      <c r="AI294">
+        <v>1.91</v>
+      </c>
+      <c r="AJ294">
+        <v>1.91</v>
+      </c>
+      <c r="AK294">
+        <v>1.17</v>
+      </c>
+      <c r="AL294">
+        <v>1.2</v>
+      </c>
+      <c r="AM294">
+        <v>2.3</v>
+      </c>
+      <c r="AN294">
+        <v>1.56</v>
+      </c>
+      <c r="AO294">
+        <v>0.78</v>
+      </c>
+      <c r="AP294">
+        <v>1.7</v>
+      </c>
+      <c r="AQ294">
+        <v>0.7</v>
+      </c>
+      <c r="AR294">
+        <v>1.62</v>
+      </c>
+      <c r="AS294">
+        <v>1.21</v>
+      </c>
+      <c r="AT294">
+        <v>2.83</v>
+      </c>
+      <c r="AU294">
+        <v>8</v>
+      </c>
+      <c r="AV294">
+        <v>5</v>
+      </c>
+      <c r="AW294">
+        <v>2</v>
+      </c>
+      <c r="AX294">
+        <v>2</v>
+      </c>
+      <c r="AY294">
+        <v>10</v>
+      </c>
+      <c r="AZ294">
+        <v>7</v>
+      </c>
+      <c r="BA294">
+        <v>3</v>
+      </c>
+      <c r="BB294">
+        <v>2</v>
+      </c>
+      <c r="BC294">
+        <v>5</v>
+      </c>
+      <c r="BD294">
+        <v>1.41</v>
+      </c>
+      <c r="BE294">
+        <v>6.75</v>
+      </c>
+      <c r="BF294">
+        <v>2.95</v>
+      </c>
+      <c r="BG294">
+        <v>1.19</v>
+      </c>
+      <c r="BH294">
+        <v>4</v>
+      </c>
+      <c r="BI294">
+        <v>1.37</v>
+      </c>
+      <c r="BJ294">
+        <v>2.75</v>
+      </c>
+      <c r="BK294">
+        <v>1.7</v>
+      </c>
+      <c r="BL294">
+        <v>2.05</v>
+      </c>
+      <c r="BM294">
+        <v>2.05</v>
+      </c>
+      <c r="BN294">
+        <v>1.7</v>
+      </c>
+      <c r="BO294">
+        <v>2.8</v>
+      </c>
+      <c r="BP294">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -64794,31 +64794,31 @@
         <v>2.87</v>
       </c>
       <c r="AU306">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV306">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AW306">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AX306">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AY306">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="AZ306">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BA306">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BB306">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BC306">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BD306">
         <v>1.46</v>
@@ -65000,31 +65000,31 @@
         <v>3.25</v>
       </c>
       <c r="AU307">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV307">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AW307">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AX307">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AY307">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AZ307">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="BA307">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BB307">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BC307">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="BD307">
         <v>2.05</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -69801,31 +69801,31 @@
         <v>3.02</v>
       </c>
       <c r="AU330">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV330">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW330">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX330">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY330">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ330">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BA330">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB330">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC330">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD330">
         <v>1.54</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="531">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1060,6 +1060,33 @@
     <t>['12', '37', '42']</t>
   </si>
   <si>
+    <t>['7', '52', '59']</t>
+  </si>
+  <si>
+    <t>['10', '38', '89']</t>
+  </si>
+  <si>
+    <t>['60', '76']</t>
+  </si>
+  <si>
+    <t>['6', '75']</t>
+  </si>
+  <si>
+    <t>['38', '75']</t>
+  </si>
+  <si>
+    <t>['11', '80']</t>
+  </si>
+  <si>
+    <t>['35', '39', '88']</t>
+  </si>
+  <si>
+    <t>['48', '54', '66']</t>
+  </si>
+  <si>
+    <t>['38', '48', '58']</t>
+  </si>
+  <si>
     <t>['67']</t>
   </si>
   <si>
@@ -1563,6 +1590,24 @@
   <si>
     <t>['31', '45+10']</t>
   </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>['33', '56']</t>
+  </si>
+  <si>
+    <t>['9', '49']</t>
+  </si>
+  <si>
+    <t>['16', '26', '74']</t>
+  </si>
+  <si>
+    <t>['29', '36', '78', '87']</t>
+  </si>
+  <si>
+    <t>['52', '73']</t>
+  </si>
 </sst>
 </file>
 
@@ -1923,7 +1968,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP348"/>
+  <dimension ref="A1:BP362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2260,10 +2305,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ2">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -3006,7 +3051,7 @@
         <v>103</v>
       </c>
       <c r="P6" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -3290,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ7">
         <v>0.77</v>
@@ -3418,7 +3463,7 @@
         <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -3496,10 +3541,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3624,7 +3669,7 @@
         <v>106</v>
       </c>
       <c r="P9" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3702,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ9">
         <v>1.17</v>
@@ -3830,7 +3875,7 @@
         <v>107</v>
       </c>
       <c r="P10" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3911,7 +3956,7 @@
         <v>2</v>
       </c>
       <c r="AQ10">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -4323,7 +4368,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ12">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4448,7 +4493,7 @@
         <v>110</v>
       </c>
       <c r="P13" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -4735,7 +4780,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ14">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -5144,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ16">
         <v>2.17</v>
@@ -5350,10 +5395,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ17">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5559,7 +5604,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ18">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5762,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ19">
         <v>1.62</v>
@@ -5968,10 +6013,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ20">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -6096,7 +6141,7 @@
         <v>116</v>
       </c>
       <c r="P21" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -6177,7 +6222,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ21">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -6302,7 +6347,7 @@
         <v>117</v>
       </c>
       <c r="P22" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -6508,7 +6553,7 @@
         <v>118</v>
       </c>
       <c r="P23" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6792,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ24">
         <v>1.17</v>
@@ -7126,7 +7171,7 @@
         <v>121</v>
       </c>
       <c r="P26" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -7204,10 +7249,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ26">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -7332,7 +7377,7 @@
         <v>122</v>
       </c>
       <c r="P27" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -7538,7 +7583,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7822,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ29">
         <v>0.75</v>
@@ -8031,7 +8076,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ30">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -8156,7 +8201,7 @@
         <v>123</v>
       </c>
       <c r="P31" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="Q31">
         <v>2.37</v>
@@ -8237,7 +8282,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -8443,7 +8488,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ32">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR32">
         <v>0</v>
@@ -8568,7 +8613,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -8646,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ33">
         <v>0.9</v>
@@ -8855,7 +8900,7 @@
         <v>2</v>
       </c>
       <c r="AQ34">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR34">
         <v>1.35</v>
@@ -9058,10 +9103,10 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ35">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AR35">
         <v>0</v>
@@ -9186,7 +9231,7 @@
         <v>128</v>
       </c>
       <c r="P36" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -9264,7 +9309,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ36">
         <v>1.17</v>
@@ -9392,7 +9437,7 @@
         <v>129</v>
       </c>
       <c r="P37" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -9470,10 +9515,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ37">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR37">
         <v>1.02</v>
@@ -9598,7 +9643,7 @@
         <v>130</v>
       </c>
       <c r="P38" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -10010,7 +10055,7 @@
         <v>104</v>
       </c>
       <c r="P40" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -10216,7 +10261,7 @@
         <v>131</v>
       </c>
       <c r="P41" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -10628,7 +10673,7 @@
         <v>132</v>
       </c>
       <c r="P43" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="Q43">
         <v>2.05</v>
@@ -10706,7 +10751,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ43">
         <v>0.77</v>
@@ -10834,7 +10879,7 @@
         <v>133</v>
       </c>
       <c r="P44" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -11040,7 +11085,7 @@
         <v>134</v>
       </c>
       <c r="P45" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -11324,7 +11369,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ46">
         <v>1.08</v>
@@ -11739,7 +11784,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ48">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR48">
         <v>1.35</v>
@@ -11864,7 +11909,7 @@
         <v>138</v>
       </c>
       <c r="P49" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11942,7 +11987,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ49">
         <v>1.17</v>
@@ -12070,7 +12115,7 @@
         <v>139</v>
       </c>
       <c r="P50" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -12357,7 +12402,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR51">
         <v>1.66</v>
@@ -12560,10 +12605,10 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ52">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR52">
         <v>1.83</v>
@@ -12766,10 +12811,10 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ53">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR53">
         <v>1.47</v>
@@ -12975,7 +13020,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ54">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR54">
         <v>1.06</v>
@@ -13100,7 +13145,7 @@
         <v>144</v>
       </c>
       <c r="P55" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -13178,10 +13223,10 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ55">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR55">
         <v>2.22</v>
@@ -13306,7 +13351,7 @@
         <v>145</v>
       </c>
       <c r="P56" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -13387,7 +13432,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ56">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AR56">
         <v>2.29</v>
@@ -13590,7 +13635,7 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ57">
         <v>1.62</v>
@@ -13799,7 +13844,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ58">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR58">
         <v>2.02</v>
@@ -14002,7 +14047,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ59">
         <v>2.17</v>
@@ -14130,7 +14175,7 @@
         <v>149</v>
       </c>
       <c r="P60" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -14208,10 +14253,10 @@
         <v>0.5</v>
       </c>
       <c r="AP60">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ60">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR60">
         <v>1.63</v>
@@ -14417,7 +14462,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ61">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR61">
         <v>1.43</v>
@@ -14826,7 +14871,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ63">
         <v>0.75</v>
@@ -15160,7 +15205,7 @@
         <v>154</v>
       </c>
       <c r="P65" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -15238,7 +15283,7 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ65">
         <v>1.46</v>
@@ -15366,7 +15411,7 @@
         <v>155</v>
       </c>
       <c r="P66" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -15572,7 +15617,7 @@
         <v>104</v>
       </c>
       <c r="P67" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15650,10 +15695,10 @@
         <v>0</v>
       </c>
       <c r="AP67">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ67">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR67">
         <v>1.06</v>
@@ -15778,7 +15823,7 @@
         <v>156</v>
       </c>
       <c r="P68" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -16065,7 +16110,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ69">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR69">
         <v>1.68</v>
@@ -16190,7 +16235,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -16474,7 +16519,7 @@
         <v>3</v>
       </c>
       <c r="AP71">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ71">
         <v>1.17</v>
@@ -16602,7 +16647,7 @@
         <v>159</v>
       </c>
       <c r="P72" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16680,10 +16725,10 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ72">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR72">
         <v>1.16</v>
@@ -16889,7 +16934,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ73">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AR73">
         <v>1.41</v>
@@ -17298,7 +17343,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ75">
         <v>1</v>
@@ -17426,7 +17471,7 @@
         <v>162</v>
       </c>
       <c r="P76" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="Q76">
         <v>3.1</v>
@@ -17504,7 +17549,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ76">
         <v>1.15</v>
@@ -17632,7 +17677,7 @@
         <v>163</v>
       </c>
       <c r="P77" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17916,10 +17961,10 @@
         <v>0</v>
       </c>
       <c r="AP78">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ78">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AR78">
         <v>0.95</v>
@@ -18125,7 +18170,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ79">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR79">
         <v>1.49</v>
@@ -18250,7 +18295,7 @@
         <v>166</v>
       </c>
       <c r="P80" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -18331,7 +18376,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ80">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR80">
         <v>1.03</v>
@@ -18537,7 +18582,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ81">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR81">
         <v>1.42</v>
@@ -18662,7 +18707,7 @@
         <v>168</v>
       </c>
       <c r="P82" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18740,10 +18785,10 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR82">
         <v>1.3</v>
@@ -18946,7 +18991,7 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ83">
         <v>1.17</v>
@@ -19152,10 +19197,10 @@
         <v>0.67</v>
       </c>
       <c r="AP84">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ84">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR84">
         <v>1.97</v>
@@ -19361,7 +19406,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ85">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR85">
         <v>1.75</v>
@@ -19692,7 +19737,7 @@
         <v>172</v>
       </c>
       <c r="P87" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="Q87">
         <v>2.2</v>
@@ -19770,7 +19815,7 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ87">
         <v>1.08</v>
@@ -19898,7 +19943,7 @@
         <v>173</v>
       </c>
       <c r="P88" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -20182,10 +20227,10 @@
         <v>1.33</v>
       </c>
       <c r="AP89">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ89">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR89">
         <v>1.37</v>
@@ -20516,7 +20561,7 @@
         <v>176</v>
       </c>
       <c r="P91" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -20722,7 +20767,7 @@
         <v>177</v>
       </c>
       <c r="P92" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="Q92">
         <v>2.88</v>
@@ -20800,10 +20845,10 @@
         <v>0</v>
       </c>
       <c r="AP92">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ92">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR92">
         <v>1.12</v>
@@ -21009,7 +21054,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ93">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR93">
         <v>1.63</v>
@@ -21134,7 +21179,7 @@
         <v>179</v>
       </c>
       <c r="P94" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="Q94">
         <v>2.75</v>
@@ -21212,10 +21257,10 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ94">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR94">
         <v>1.29</v>
@@ -21340,7 +21385,7 @@
         <v>180</v>
       </c>
       <c r="P95" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="Q95">
         <v>3.1</v>
@@ -21627,7 +21672,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ96">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AR96">
         <v>1.49</v>
@@ -21830,7 +21875,7 @@
         <v>1.4</v>
       </c>
       <c r="AP97">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ97">
         <v>0.77</v>
@@ -21958,7 +22003,7 @@
         <v>182</v>
       </c>
       <c r="P98" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -22036,10 +22081,10 @@
         <v>1</v>
       </c>
       <c r="AP98">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ98">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR98">
         <v>1.65</v>
@@ -22164,7 +22209,7 @@
         <v>183</v>
       </c>
       <c r="P99" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -22245,7 +22290,7 @@
         <v>2</v>
       </c>
       <c r="AQ99">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR99">
         <v>1.42</v>
@@ -22654,10 +22699,10 @@
         <v>0.5</v>
       </c>
       <c r="AP101">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ101">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR101">
         <v>1.68</v>
@@ -22782,7 +22827,7 @@
         <v>185</v>
       </c>
       <c r="P102" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="Q102">
         <v>3.1</v>
@@ -22860,10 +22905,10 @@
         <v>2.33</v>
       </c>
       <c r="AP102">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ102">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AR102">
         <v>0</v>
@@ -22988,7 +23033,7 @@
         <v>186</v>
       </c>
       <c r="P103" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="Q103">
         <v>2.3</v>
@@ -23069,7 +23114,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ103">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR103">
         <v>1.41</v>
@@ -23194,7 +23239,7 @@
         <v>187</v>
       </c>
       <c r="P104" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -23606,7 +23651,7 @@
         <v>188</v>
       </c>
       <c r="P106" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23684,7 +23729,7 @@
         <v>1.33</v>
       </c>
       <c r="AP106">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ106">
         <v>2.17</v>
@@ -23812,7 +23857,7 @@
         <v>189</v>
       </c>
       <c r="P107" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="Q107">
         <v>2.75</v>
@@ -23890,10 +23935,10 @@
         <v>1.5</v>
       </c>
       <c r="AP107">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ107">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR107">
         <v>1.55</v>
@@ -24099,7 +24144,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ108">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR108">
         <v>1.42</v>
@@ -24224,7 +24269,7 @@
         <v>190</v>
       </c>
       <c r="P109" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="Q109">
         <v>2.6</v>
@@ -24302,7 +24347,7 @@
         <v>1.75</v>
       </c>
       <c r="AP109">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ109">
         <v>1.46</v>
@@ -24430,7 +24475,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="Q110">
         <v>2.88</v>
@@ -24636,7 +24681,7 @@
         <v>191</v>
       </c>
       <c r="P111" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24714,7 +24759,7 @@
         <v>2</v>
       </c>
       <c r="AP111">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ111">
         <v>1.17</v>
@@ -25048,7 +25093,7 @@
         <v>142</v>
       </c>
       <c r="P113" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -25126,7 +25171,7 @@
         <v>1</v>
       </c>
       <c r="AP113">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ113">
         <v>1.62</v>
@@ -25254,7 +25299,7 @@
         <v>192</v>
       </c>
       <c r="P114" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="Q114">
         <v>1.91</v>
@@ -25332,10 +25377,10 @@
         <v>0.5</v>
       </c>
       <c r="AP114">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ114">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR114">
         <v>1.72</v>
@@ -25460,7 +25505,7 @@
         <v>193</v>
       </c>
       <c r="P115" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="Q115">
         <v>2.1</v>
@@ -25541,7 +25586,7 @@
         <v>2</v>
       </c>
       <c r="AQ115">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR115">
         <v>1.63</v>
@@ -25872,7 +25917,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25950,10 +25995,10 @@
         <v>1.75</v>
       </c>
       <c r="AP117">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ117">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AR117">
         <v>1.94</v>
@@ -26284,7 +26329,7 @@
         <v>104</v>
       </c>
       <c r="P119" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="Q119">
         <v>2.88</v>
@@ -26365,7 +26410,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ119">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR119">
         <v>1.52</v>
@@ -26696,7 +26741,7 @@
         <v>196</v>
       </c>
       <c r="P121" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="Q121">
         <v>2.3</v>
@@ -26774,10 +26819,10 @@
         <v>0.67</v>
       </c>
       <c r="AP121">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ121">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR121">
         <v>1.55</v>
@@ -26980,10 +27025,10 @@
         <v>0.33</v>
       </c>
       <c r="AP122">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ122">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AR122">
         <v>1.34</v>
@@ -27108,7 +27153,7 @@
         <v>198</v>
       </c>
       <c r="P123" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="Q123">
         <v>2.5</v>
@@ -27314,7 +27359,7 @@
         <v>104</v>
       </c>
       <c r="P124" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -27392,7 +27437,7 @@
         <v>3</v>
       </c>
       <c r="AP124">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ124">
         <v>1.62</v>
@@ -27520,7 +27565,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="Q125">
         <v>2.6</v>
@@ -27726,7 +27771,7 @@
         <v>199</v>
       </c>
       <c r="P126" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="Q126">
         <v>2.05</v>
@@ -27804,10 +27849,10 @@
         <v>0</v>
       </c>
       <c r="AP126">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ126">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR126">
         <v>1.66</v>
@@ -28010,7 +28055,7 @@
         <v>2</v>
       </c>
       <c r="AP127">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ127">
         <v>1.46</v>
@@ -28138,7 +28183,7 @@
         <v>201</v>
       </c>
       <c r="P128" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -28216,10 +28261,10 @@
         <v>0.8</v>
       </c>
       <c r="AP128">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ128">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR128">
         <v>1.86</v>
@@ -28344,7 +28389,7 @@
         <v>202</v>
       </c>
       <c r="P129" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="Q129">
         <v>2.5</v>
@@ -28422,10 +28467,10 @@
         <v>1.6</v>
       </c>
       <c r="AP129">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ129">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR129">
         <v>1.61</v>
@@ -28631,7 +28676,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ130">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR130">
         <v>1.79</v>
@@ -28834,7 +28879,7 @@
         <v>3</v>
       </c>
       <c r="AP131">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ131">
         <v>1.62</v>
@@ -29580,7 +29625,7 @@
         <v>206</v>
       </c>
       <c r="P135" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29864,7 +29909,7 @@
         <v>1.67</v>
       </c>
       <c r="AP136">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ136">
         <v>0.62</v>
@@ -30279,7 +30324,7 @@
         <v>2</v>
       </c>
       <c r="AQ138">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR138">
         <v>1.63</v>
@@ -30404,7 +30449,7 @@
         <v>119</v>
       </c>
       <c r="P139" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -30485,7 +30530,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ139">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR139">
         <v>1.15</v>
@@ -30610,7 +30655,7 @@
         <v>209</v>
       </c>
       <c r="P140" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -30691,7 +30736,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ140">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR140">
         <v>2</v>
@@ -30816,7 +30861,7 @@
         <v>210</v>
       </c>
       <c r="P141" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30894,7 +30939,7 @@
         <v>0.2</v>
       </c>
       <c r="AP141">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ141">
         <v>1.17</v>
@@ -31022,7 +31067,7 @@
         <v>211</v>
       </c>
       <c r="P142" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -31100,7 +31145,7 @@
         <v>2.25</v>
       </c>
       <c r="AP142">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ142">
         <v>1.17</v>
@@ -31309,7 +31354,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ143">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR143">
         <v>1.31</v>
@@ -31434,7 +31479,7 @@
         <v>213</v>
       </c>
       <c r="P144" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="Q144">
         <v>2.88</v>
@@ -31640,7 +31685,7 @@
         <v>214</v>
       </c>
       <c r="P145" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="Q145">
         <v>2.38</v>
@@ -31718,7 +31763,7 @@
         <v>1.5</v>
       </c>
       <c r="AP145">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ145">
         <v>1.15</v>
@@ -31924,10 +31969,10 @@
         <v>2</v>
       </c>
       <c r="AP146">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ146">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AR146">
         <v>1.7</v>
@@ -32133,7 +32178,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ147">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR147">
         <v>1.42</v>
@@ -32339,7 +32384,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ148">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AR148">
         <v>1.55</v>
@@ -32545,7 +32590,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ149">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR149">
         <v>1.71</v>
@@ -33366,7 +33411,7 @@
         <v>1</v>
       </c>
       <c r="AP153">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ153">
         <v>0.75</v>
@@ -33494,7 +33539,7 @@
         <v>104</v>
       </c>
       <c r="P154" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="Q154">
         <v>2.4</v>
@@ -33778,7 +33823,7 @@
         <v>1.67</v>
       </c>
       <c r="AP155">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ155">
         <v>1.46</v>
@@ -33906,7 +33951,7 @@
         <v>219</v>
       </c>
       <c r="P156" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33984,7 +34029,7 @@
         <v>0.8</v>
       </c>
       <c r="AP156">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ156">
         <v>0.92</v>
@@ -34193,7 +34238,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ157">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR157">
         <v>1.3</v>
@@ -34318,7 +34363,7 @@
         <v>221</v>
       </c>
       <c r="P158" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -34396,7 +34441,7 @@
         <v>2</v>
       </c>
       <c r="AP158">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ158">
         <v>2.17</v>
@@ -34524,7 +34569,7 @@
         <v>222</v>
       </c>
       <c r="P159" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="Q159">
         <v>2.1</v>
@@ -34602,7 +34647,7 @@
         <v>0.6</v>
       </c>
       <c r="AP159">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ159">
         <v>0.9</v>
@@ -34730,7 +34775,7 @@
         <v>223</v>
       </c>
       <c r="P160" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Q160">
         <v>2.5</v>
@@ -34808,7 +34853,7 @@
         <v>1</v>
       </c>
       <c r="AP160">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ160">
         <v>1.62</v>
@@ -34936,7 +34981,7 @@
         <v>224</v>
       </c>
       <c r="P161" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="Q161">
         <v>3.4</v>
@@ -35142,7 +35187,7 @@
         <v>162</v>
       </c>
       <c r="P162" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -35223,7 +35268,7 @@
         <v>2</v>
       </c>
       <c r="AQ162">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AR162">
         <v>1.7</v>
@@ -35554,7 +35599,7 @@
         <v>226</v>
       </c>
       <c r="P164" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="Q164">
         <v>2.75</v>
@@ -35632,10 +35677,10 @@
         <v>1.5</v>
       </c>
       <c r="AP164">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ164">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR164">
         <v>1.45</v>
@@ -35760,7 +35805,7 @@
         <v>227</v>
       </c>
       <c r="P165" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="Q165">
         <v>2.3</v>
@@ -35841,7 +35886,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ165">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR165">
         <v>1.69</v>
@@ -35966,7 +36011,7 @@
         <v>228</v>
       </c>
       <c r="P166" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="Q166">
         <v>2.3</v>
@@ -36044,10 +36089,10 @@
         <v>0.17</v>
       </c>
       <c r="AP166">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ166">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR166">
         <v>1.32</v>
@@ -36172,7 +36217,7 @@
         <v>229</v>
       </c>
       <c r="P167" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="Q167">
         <v>2.5</v>
@@ -36250,10 +36295,10 @@
         <v>1.83</v>
       </c>
       <c r="AP167">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ167">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR167">
         <v>1.69</v>
@@ -36584,7 +36629,7 @@
         <v>231</v>
       </c>
       <c r="P169" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="Q169">
         <v>3.2</v>
@@ -36996,7 +37041,7 @@
         <v>232</v>
       </c>
       <c r="P171" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="Q171">
         <v>3.1</v>
@@ -37202,7 +37247,7 @@
         <v>233</v>
       </c>
       <c r="P172" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -37280,10 +37325,10 @@
         <v>0.75</v>
       </c>
       <c r="AP172">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ172">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR172">
         <v>1.44</v>
@@ -37486,7 +37531,7 @@
         <v>2.17</v>
       </c>
       <c r="AP173">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ173">
         <v>2.17</v>
@@ -37614,7 +37659,7 @@
         <v>121</v>
       </c>
       <c r="P174" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="Q174">
         <v>2.5</v>
@@ -37692,7 +37737,7 @@
         <v>0.8</v>
       </c>
       <c r="AP174">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ174">
         <v>1</v>
@@ -37898,10 +37943,10 @@
         <v>1.8</v>
       </c>
       <c r="AP175">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ175">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR175">
         <v>1.26</v>
@@ -38026,7 +38071,7 @@
         <v>104</v>
       </c>
       <c r="P176" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="Q176">
         <v>2.75</v>
@@ -38107,7 +38152,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ176">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR176">
         <v>1.41</v>
@@ -38232,7 +38277,7 @@
         <v>234</v>
       </c>
       <c r="P177" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="Q177">
         <v>2.63</v>
@@ -38310,7 +38355,7 @@
         <v>1.57</v>
       </c>
       <c r="AP177">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ177">
         <v>1.46</v>
@@ -38519,7 +38564,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ178">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR178">
         <v>1.32</v>
@@ -38644,7 +38689,7 @@
         <v>104</v>
       </c>
       <c r="P179" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="Q179">
         <v>3.1</v>
@@ -38725,7 +38770,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ179">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR179">
         <v>1.84</v>
@@ -38928,7 +38973,7 @@
         <v>2</v>
       </c>
       <c r="AP180">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ180">
         <v>1.62</v>
@@ -39262,7 +39307,7 @@
         <v>237</v>
       </c>
       <c r="P182" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="Q182">
         <v>2.3</v>
@@ -39343,7 +39388,7 @@
         <v>2</v>
       </c>
       <c r="AQ182">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR182">
         <v>1.29</v>
@@ -39468,7 +39513,7 @@
         <v>139</v>
       </c>
       <c r="P183" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="Q183">
         <v>2.75</v>
@@ -39880,7 +39925,7 @@
         <v>238</v>
       </c>
       <c r="P185" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="Q185">
         <v>2.3</v>
@@ -39961,7 +40006,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ185">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR185">
         <v>1.53</v>
@@ -40086,7 +40131,7 @@
         <v>104</v>
       </c>
       <c r="P186" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="Q186">
         <v>3.2</v>
@@ -40498,7 +40543,7 @@
         <v>240</v>
       </c>
       <c r="P188" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="Q188">
         <v>2.75</v>
@@ -40782,7 +40827,7 @@
         <v>1.17</v>
       </c>
       <c r="AP189">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ189">
         <v>0.92</v>
@@ -40910,7 +40955,7 @@
         <v>241</v>
       </c>
       <c r="P190" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="Q190">
         <v>2.25</v>
@@ -40988,10 +41033,10 @@
         <v>0.71</v>
       </c>
       <c r="AP190">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ190">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR190">
         <v>1.76</v>
@@ -41197,7 +41242,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ191">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AR191">
         <v>1.77</v>
@@ -41322,7 +41367,7 @@
         <v>243</v>
       </c>
       <c r="P192" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="Q192">
         <v>2.63</v>
@@ -41400,7 +41445,7 @@
         <v>1</v>
       </c>
       <c r="AP192">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ192">
         <v>0.62</v>
@@ -41528,7 +41573,7 @@
         <v>244</v>
       </c>
       <c r="P193" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -41609,7 +41654,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ193">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR193">
         <v>1.39</v>
@@ -41734,7 +41779,7 @@
         <v>245</v>
       </c>
       <c r="P194" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="Q194">
         <v>2.3</v>
@@ -42224,7 +42269,7 @@
         <v>1.67</v>
       </c>
       <c r="AP196">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ196">
         <v>1.62</v>
@@ -42558,7 +42603,7 @@
         <v>246</v>
       </c>
       <c r="P198" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="Q198">
         <v>3.3</v>
@@ -42639,7 +42684,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ198">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AR198">
         <v>1.55</v>
@@ -42764,7 +42809,7 @@
         <v>104</v>
       </c>
       <c r="P199" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="Q199">
         <v>2.51</v>
@@ -42842,10 +42887,10 @@
         <v>1.5</v>
       </c>
       <c r="AP199">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ199">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR199">
         <v>1.53</v>
@@ -43048,10 +43093,10 @@
         <v>0.25</v>
       </c>
       <c r="AP200">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ200">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR200">
         <v>1.35</v>
@@ -43176,7 +43221,7 @@
         <v>104</v>
       </c>
       <c r="P201" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="Q201">
         <v>2.88</v>
@@ -43254,10 +43299,10 @@
         <v>0.67</v>
       </c>
       <c r="AP201">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ201">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR201">
         <v>1.77</v>
@@ -43588,7 +43633,7 @@
         <v>247</v>
       </c>
       <c r="P203" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="Q203">
         <v>2.16</v>
@@ -43669,7 +43714,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ203">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR203">
         <v>1.75</v>
@@ -43794,7 +43839,7 @@
         <v>248</v>
       </c>
       <c r="P204" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="Q204">
         <v>3.4</v>
@@ -43875,7 +43920,7 @@
         <v>2</v>
       </c>
       <c r="AQ204">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR204">
         <v>1.54</v>
@@ -44000,7 +44045,7 @@
         <v>211</v>
       </c>
       <c r="P205" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="Q205">
         <v>2.88</v>
@@ -44206,7 +44251,7 @@
         <v>249</v>
       </c>
       <c r="P206" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="Q206">
         <v>2.5</v>
@@ -44284,7 +44329,7 @@
         <v>2.4</v>
       </c>
       <c r="AP206">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ206">
         <v>1.17</v>
@@ -44412,7 +44457,7 @@
         <v>250</v>
       </c>
       <c r="P207" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="Q207">
         <v>3</v>
@@ -44490,7 +44535,7 @@
         <v>2</v>
       </c>
       <c r="AP207">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ207">
         <v>2.17</v>
@@ -44618,7 +44663,7 @@
         <v>251</v>
       </c>
       <c r="P208" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="Q208">
         <v>2.38</v>
@@ -44696,10 +44741,10 @@
         <v>1.5</v>
       </c>
       <c r="AP208">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ208">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR208">
         <v>1.77</v>
@@ -45314,10 +45359,10 @@
         <v>1</v>
       </c>
       <c r="AP211">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ211">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR211">
         <v>1.78</v>
@@ -45442,7 +45487,7 @@
         <v>253</v>
       </c>
       <c r="P212" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="Q212">
         <v>2.2</v>
@@ -45520,10 +45565,10 @@
         <v>0.67</v>
       </c>
       <c r="AP212">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ212">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR212">
         <v>1.72</v>
@@ -45648,7 +45693,7 @@
         <v>254</v>
       </c>
       <c r="P213" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="Q213">
         <v>3</v>
@@ -45726,7 +45771,7 @@
         <v>1</v>
       </c>
       <c r="AP213">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ213">
         <v>0.92</v>
@@ -45854,7 +45899,7 @@
         <v>104</v>
       </c>
       <c r="P214" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="Q214">
         <v>2.4</v>
@@ -45935,7 +45980,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ214">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR214">
         <v>1.42</v>
@@ -46060,7 +46105,7 @@
         <v>145</v>
       </c>
       <c r="P215" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="Q215">
         <v>2.05</v>
@@ -46138,7 +46183,7 @@
         <v>0.5</v>
       </c>
       <c r="AP215">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ215">
         <v>0.83</v>
@@ -46266,7 +46311,7 @@
         <v>104</v>
       </c>
       <c r="P216" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="Q216">
         <v>2.5</v>
@@ -46344,10 +46389,10 @@
         <v>0.63</v>
       </c>
       <c r="AP216">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ216">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR216">
         <v>1.32</v>
@@ -46884,7 +46929,7 @@
         <v>256</v>
       </c>
       <c r="P219" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="Q219">
         <v>2.75</v>
@@ -46962,7 +47007,7 @@
         <v>1.57</v>
       </c>
       <c r="AP219">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ219">
         <v>1.62</v>
@@ -47168,10 +47213,10 @@
         <v>0.33</v>
       </c>
       <c r="AP220">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ220">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AR220">
         <v>1.7</v>
@@ -47296,7 +47341,7 @@
         <v>258</v>
       </c>
       <c r="P221" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="Q221">
         <v>2.6</v>
@@ -47374,10 +47419,10 @@
         <v>1.63</v>
       </c>
       <c r="AP221">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ221">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR221">
         <v>1.54</v>
@@ -47708,7 +47753,7 @@
         <v>260</v>
       </c>
       <c r="P223" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="Q223">
         <v>2.2</v>
@@ -47789,7 +47834,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ223">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR223">
         <v>1.66</v>
@@ -47992,7 +48037,7 @@
         <v>1.57</v>
       </c>
       <c r="AP224">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ224">
         <v>1.62</v>
@@ -48120,7 +48165,7 @@
         <v>138</v>
       </c>
       <c r="P225" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="Q225">
         <v>1.91</v>
@@ -48198,7 +48243,7 @@
         <v>0.89</v>
       </c>
       <c r="AP225">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ225">
         <v>0.77</v>
@@ -48326,7 +48371,7 @@
         <v>262</v>
       </c>
       <c r="P226" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="Q226">
         <v>1.83</v>
@@ -48404,10 +48449,10 @@
         <v>0.67</v>
       </c>
       <c r="AP226">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ226">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR226">
         <v>1.55</v>
@@ -48532,7 +48577,7 @@
         <v>263</v>
       </c>
       <c r="P227" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="Q227">
         <v>2.38</v>
@@ -48613,7 +48658,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ227">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR227">
         <v>1.63</v>
@@ -49022,7 +49067,7 @@
         <v>0.71</v>
       </c>
       <c r="AP229">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ229">
         <v>0.62</v>
@@ -49150,7 +49195,7 @@
         <v>124</v>
       </c>
       <c r="P230" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="Q230">
         <v>2.3</v>
@@ -49640,7 +49685,7 @@
         <v>1.22</v>
       </c>
       <c r="AP232">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ232">
         <v>1.08</v>
@@ -49849,7 +49894,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ233">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AR233">
         <v>1.97</v>
@@ -49974,7 +50019,7 @@
         <v>269</v>
       </c>
       <c r="P234" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="Q234">
         <v>2.75</v>
@@ -50055,7 +50100,7 @@
         <v>2</v>
       </c>
       <c r="AQ234">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR234">
         <v>1.45</v>
@@ -50180,7 +50225,7 @@
         <v>270</v>
       </c>
       <c r="P235" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="Q235">
         <v>2.75</v>
@@ -50258,10 +50303,10 @@
         <v>0.57</v>
       </c>
       <c r="AP235">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ235">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR235">
         <v>1.65</v>
@@ -50673,7 +50718,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ237">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR237">
         <v>1.85</v>
@@ -50876,10 +50921,10 @@
         <v>0.25</v>
       </c>
       <c r="AP238">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ238">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AR238">
         <v>1.75</v>
@@ -51004,7 +51049,7 @@
         <v>272</v>
       </c>
       <c r="P239" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="Q239">
         <v>3.4</v>
@@ -51082,7 +51127,7 @@
         <v>1.11</v>
       </c>
       <c r="AP239">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ239">
         <v>1.17</v>
@@ -51210,7 +51255,7 @@
         <v>273</v>
       </c>
       <c r="P240" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="Q240">
         <v>2.75</v>
@@ -51291,7 +51336,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ240">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR240">
         <v>1.72</v>
@@ -51494,10 +51539,10 @@
         <v>0.83</v>
       </c>
       <c r="AP241">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ241">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR241">
         <v>1.68</v>
@@ -51622,7 +51667,7 @@
         <v>274</v>
       </c>
       <c r="P242" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="Q242">
         <v>2.4</v>
@@ -51703,7 +51748,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ242">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR242">
         <v>1.43</v>
@@ -51828,7 +51873,7 @@
         <v>173</v>
       </c>
       <c r="P243" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="Q243">
         <v>2.38</v>
@@ -51906,7 +51951,7 @@
         <v>2.13</v>
       </c>
       <c r="AP243">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ243">
         <v>2.17</v>
@@ -52034,7 +52079,7 @@
         <v>275</v>
       </c>
       <c r="P244" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="Q244">
         <v>3</v>
@@ -52240,7 +52285,7 @@
         <v>258</v>
       </c>
       <c r="P245" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="Q245">
         <v>3.1</v>
@@ -52318,10 +52363,10 @@
         <v>1</v>
       </c>
       <c r="AP245">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ245">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR245">
         <v>1.44</v>
@@ -52652,7 +52697,7 @@
         <v>277</v>
       </c>
       <c r="P247" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="Q247">
         <v>2.63</v>
@@ -52730,10 +52775,10 @@
         <v>1.25</v>
       </c>
       <c r="AP247">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ247">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR247">
         <v>1.66</v>
@@ -52936,10 +52981,10 @@
         <v>1.56</v>
       </c>
       <c r="AP248">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ248">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR248">
         <v>1.25</v>
@@ -53145,7 +53190,7 @@
         <v>2</v>
       </c>
       <c r="AQ249">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR249">
         <v>1.59</v>
@@ -53348,7 +53393,7 @@
         <v>0.75</v>
       </c>
       <c r="AP250">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ250">
         <v>0.75</v>
@@ -53476,7 +53521,7 @@
         <v>280</v>
       </c>
       <c r="P251" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="Q251">
         <v>2.1</v>
@@ -53554,7 +53599,7 @@
         <v>0.63</v>
       </c>
       <c r="AP251">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ251">
         <v>0.62</v>
@@ -53682,7 +53727,7 @@
         <v>281</v>
       </c>
       <c r="P252" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="Q252">
         <v>3.25</v>
@@ -53763,7 +53808,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ252">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AR252">
         <v>1.48</v>
@@ -53966,7 +54011,7 @@
         <v>1.86</v>
       </c>
       <c r="AP253">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ253">
         <v>1.17</v>
@@ -54094,7 +54139,7 @@
         <v>283</v>
       </c>
       <c r="P254" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="Q254">
         <v>2.88</v>
@@ -54175,7 +54220,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ254">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR254">
         <v>1.45</v>
@@ -54300,7 +54345,7 @@
         <v>284</v>
       </c>
       <c r="P255" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="Q255">
         <v>3.5</v>
@@ -54378,7 +54423,7 @@
         <v>1.2</v>
       </c>
       <c r="AP255">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ255">
         <v>1.15</v>
@@ -54506,7 +54551,7 @@
         <v>285</v>
       </c>
       <c r="P256" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="Q256">
         <v>2.75</v>
@@ -54790,10 +54835,10 @@
         <v>1.88</v>
       </c>
       <c r="AP257">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ257">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR257">
         <v>1.6</v>
@@ -55124,7 +55169,7 @@
         <v>287</v>
       </c>
       <c r="P259" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="Q259">
         <v>2.38</v>
@@ -55330,7 +55375,7 @@
         <v>119</v>
       </c>
       <c r="P260" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="Q260">
         <v>4</v>
@@ -55408,10 +55453,10 @@
         <v>1.25</v>
       </c>
       <c r="AP260">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ260">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR260">
         <v>1.32</v>
@@ -55536,7 +55581,7 @@
         <v>288</v>
       </c>
       <c r="P261" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="Q261">
         <v>3.1</v>
@@ -55742,7 +55787,7 @@
         <v>289</v>
       </c>
       <c r="P262" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -55948,7 +55993,7 @@
         <v>290</v>
       </c>
       <c r="P263" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="Q263">
         <v>3.25</v>
@@ -56026,10 +56071,10 @@
         <v>1.5</v>
       </c>
       <c r="AP263">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ263">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR263">
         <v>1.45</v>
@@ -56154,7 +56199,7 @@
         <v>104</v>
       </c>
       <c r="P264" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="Q264">
         <v>2.5</v>
@@ -56438,7 +56483,7 @@
         <v>1.43</v>
       </c>
       <c r="AP265">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ265">
         <v>1</v>
@@ -56566,7 +56611,7 @@
         <v>202</v>
       </c>
       <c r="P266" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="Q266">
         <v>2.5</v>
@@ -56647,7 +56692,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ266">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR266">
         <v>1.56</v>
@@ -56850,10 +56895,10 @@
         <v>1</v>
       </c>
       <c r="AP267">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ267">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR267">
         <v>1.69</v>
@@ -56978,7 +57023,7 @@
         <v>293</v>
       </c>
       <c r="P268" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="Q268">
         <v>2.38</v>
@@ -57056,10 +57101,10 @@
         <v>0.88</v>
       </c>
       <c r="AP268">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ268">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR268">
         <v>1.41</v>
@@ -57184,7 +57229,7 @@
         <v>261</v>
       </c>
       <c r="P269" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="Q269">
         <v>3</v>
@@ -57265,7 +57310,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ269">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR269">
         <v>1.65</v>
@@ -57390,7 +57435,7 @@
         <v>104</v>
       </c>
       <c r="P270" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="Q270">
         <v>2.5</v>
@@ -57468,10 +57513,10 @@
         <v>0.88</v>
       </c>
       <c r="AP270">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ270">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR270">
         <v>1.73</v>
@@ -57596,7 +57641,7 @@
         <v>232</v>
       </c>
       <c r="P271" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="Q271">
         <v>2</v>
@@ -58086,7 +58131,7 @@
         <v>0.67</v>
       </c>
       <c r="AP273">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ273">
         <v>0.75</v>
@@ -58420,7 +58465,7 @@
         <v>202</v>
       </c>
       <c r="P275" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="Q275">
         <v>2.63</v>
@@ -58626,7 +58671,7 @@
         <v>296</v>
       </c>
       <c r="P276" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="Q276">
         <v>2.1</v>
@@ -58704,7 +58749,7 @@
         <v>0.9</v>
       </c>
       <c r="AP276">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ276">
         <v>0.77</v>
@@ -59038,7 +59083,7 @@
         <v>297</v>
       </c>
       <c r="P278" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="Q278">
         <v>1.73</v>
@@ -59119,7 +59164,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ278">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR278">
         <v>1.98</v>
@@ -59450,7 +59495,7 @@
         <v>299</v>
       </c>
       <c r="P280" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="Q280">
         <v>2.25</v>
@@ -59528,10 +59573,10 @@
         <v>0.33</v>
       </c>
       <c r="AP280">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ280">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AR280">
         <v>1.51</v>
@@ -59656,7 +59701,7 @@
         <v>300</v>
       </c>
       <c r="P281" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="Q281">
         <v>2.4</v>
@@ -59862,7 +59907,7 @@
         <v>301</v>
       </c>
       <c r="P282" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="Q282">
         <v>1.95</v>
@@ -59940,7 +59985,7 @@
         <v>0.78</v>
       </c>
       <c r="AP282">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ282">
         <v>0.92</v>
@@ -60068,7 +60113,7 @@
         <v>302</v>
       </c>
       <c r="P283" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="Q283">
         <v>3</v>
@@ -60146,7 +60191,7 @@
         <v>1.56</v>
       </c>
       <c r="AP283">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ283">
         <v>1.17</v>
@@ -60274,7 +60319,7 @@
         <v>303</v>
       </c>
       <c r="P284" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="Q284">
         <v>2.15</v>
@@ -60352,10 +60397,10 @@
         <v>0.9</v>
       </c>
       <c r="AP284">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ284">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR284">
         <v>1.63</v>
@@ -60480,7 +60525,7 @@
         <v>271</v>
       </c>
       <c r="P285" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="Q285">
         <v>3.4</v>
@@ -60561,7 +60606,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ285">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR285">
         <v>1.4</v>
@@ -60767,7 +60812,7 @@
         <v>2</v>
       </c>
       <c r="AQ286">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AR286">
         <v>1.5</v>
@@ -60973,7 +61018,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ287">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR287">
         <v>1.77</v>
@@ -61176,7 +61221,7 @@
         <v>0.9</v>
       </c>
       <c r="AP288">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ288">
         <v>0.75</v>
@@ -61304,7 +61349,7 @@
         <v>306</v>
       </c>
       <c r="P289" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="Q289">
         <v>2.38</v>
@@ -61510,7 +61555,7 @@
         <v>307</v>
       </c>
       <c r="P290" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="Q290">
         <v>2.32</v>
@@ -61922,7 +61967,7 @@
         <v>309</v>
       </c>
       <c r="P292" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="Q292">
         <v>2.25</v>
@@ -62000,10 +62045,10 @@
         <v>0.63</v>
       </c>
       <c r="AP292">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ292">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR292">
         <v>1.56</v>
@@ -62128,7 +62173,7 @@
         <v>104</v>
       </c>
       <c r="P293" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="Q293">
         <v>3</v>
@@ -62412,10 +62457,10 @@
         <v>0.78</v>
       </c>
       <c r="AP294">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ294">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR294">
         <v>1.62</v>
@@ -62746,7 +62791,7 @@
         <v>311</v>
       </c>
       <c r="P296" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="Q296">
         <v>3.2</v>
@@ -62827,7 +62872,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ296">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AR296">
         <v>1.59</v>
@@ -62952,7 +62997,7 @@
         <v>304</v>
       </c>
       <c r="P297" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="Q297">
         <v>2.88</v>
@@ -63158,7 +63203,7 @@
         <v>312</v>
       </c>
       <c r="P298" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="Q298">
         <v>2.75</v>
@@ -63364,7 +63409,7 @@
         <v>313</v>
       </c>
       <c r="P299" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="Q299">
         <v>2.75</v>
@@ -63570,7 +63615,7 @@
         <v>314</v>
       </c>
       <c r="P300" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="Q300">
         <v>2.88</v>
@@ -63648,7 +63693,7 @@
         <v>1.4</v>
       </c>
       <c r="AP300">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ300">
         <v>1.62</v>
@@ -63857,7 +63902,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ301">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR301">
         <v>1.68</v>
@@ -63982,7 +64027,7 @@
         <v>316</v>
       </c>
       <c r="P302" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="Q302">
         <v>2.88</v>
@@ -64269,7 +64314,7 @@
         <v>2</v>
       </c>
       <c r="AQ303">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR303">
         <v>1.68</v>
@@ -64394,7 +64439,7 @@
         <v>318</v>
       </c>
       <c r="P304" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="Q304">
         <v>2.3</v>
@@ -64475,7 +64520,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ304">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR304">
         <v>1.7</v>
@@ -64600,7 +64645,7 @@
         <v>319</v>
       </c>
       <c r="P305" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="Q305">
         <v>2.63</v>
@@ -64681,7 +64726,7 @@
         <v>2</v>
       </c>
       <c r="AQ305">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR305">
         <v>1.47</v>
@@ -64806,7 +64851,7 @@
         <v>320</v>
       </c>
       <c r="P306" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="Q306">
         <v>2.1</v>
@@ -64884,7 +64929,7 @@
         <v>0.5</v>
       </c>
       <c r="AP306">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ306">
         <v>0.62</v>
@@ -65012,7 +65057,7 @@
         <v>204</v>
       </c>
       <c r="P307" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="Q307">
         <v>3.1</v>
@@ -65090,10 +65135,10 @@
         <v>1.22</v>
       </c>
       <c r="AP307">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ307">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR307">
         <v>1.76</v>
@@ -65218,7 +65263,7 @@
         <v>321</v>
       </c>
       <c r="P308" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="Q308">
         <v>2.25</v>
@@ -65505,7 +65550,7 @@
         <v>2</v>
       </c>
       <c r="AQ309">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR309">
         <v>1.66</v>
@@ -65630,7 +65675,7 @@
         <v>109</v>
       </c>
       <c r="P310" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="Q310">
         <v>2.7</v>
@@ -65708,7 +65753,7 @@
         <v>1.55</v>
       </c>
       <c r="AP310">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ310">
         <v>1.62</v>
@@ -65914,7 +65959,7 @@
         <v>0.8</v>
       </c>
       <c r="AP311">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ311">
         <v>0.92</v>
@@ -66120,7 +66165,7 @@
         <v>1.18</v>
       </c>
       <c r="AP312">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ312">
         <v>1.15</v>
@@ -66248,7 +66293,7 @@
         <v>324</v>
       </c>
       <c r="P313" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="Q313">
         <v>2.05</v>
@@ -66532,7 +66577,7 @@
         <v>1.11</v>
       </c>
       <c r="AP314">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ314">
         <v>1</v>
@@ -66738,7 +66783,7 @@
         <v>1.13</v>
       </c>
       <c r="AP315">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ315">
         <v>0.9</v>
@@ -66944,10 +66989,10 @@
         <v>0.3</v>
       </c>
       <c r="AP316">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ316">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AR316">
         <v>1.51</v>
@@ -67153,7 +67198,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ317">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR317">
         <v>1.57</v>
@@ -67278,7 +67323,7 @@
         <v>329</v>
       </c>
       <c r="P318" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="Q318">
         <v>2.25</v>
@@ -67356,10 +67401,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP318">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ318">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR318">
         <v>1.66</v>
@@ -67562,7 +67607,7 @@
         <v>1.3</v>
       </c>
       <c r="AP319">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ319">
         <v>1.17</v>
@@ -67771,7 +67816,7 @@
         <v>2</v>
       </c>
       <c r="AQ320">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR320">
         <v>1.66</v>
@@ -67896,7 +67941,7 @@
         <v>332</v>
       </c>
       <c r="P321" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="Q321">
         <v>2.63</v>
@@ -68102,7 +68147,7 @@
         <v>295</v>
       </c>
       <c r="P322" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="Q322">
         <v>2.88</v>
@@ -68308,7 +68353,7 @@
         <v>117</v>
       </c>
       <c r="P323" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="Q323">
         <v>2.25</v>
@@ -68389,7 +68434,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ323">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR323">
         <v>1.58</v>
@@ -68595,7 +68640,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ324">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR324">
         <v>1.58</v>
@@ -68798,7 +68843,7 @@
         <v>0.91</v>
       </c>
       <c r="AP325">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ325">
         <v>0.83</v>
@@ -68926,7 +68971,7 @@
         <v>104</v>
       </c>
       <c r="P326" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="Q326">
         <v>3.1</v>
@@ -69004,7 +69049,7 @@
         <v>1</v>
       </c>
       <c r="AP326">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ326">
         <v>1.17</v>
@@ -69544,7 +69589,7 @@
         <v>100</v>
       </c>
       <c r="P329" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="Q329">
         <v>2.6</v>
@@ -70034,7 +70079,7 @@
         <v>1.17</v>
       </c>
       <c r="AP331">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ331">
         <v>1.15</v>
@@ -70243,7 +70288,7 @@
         <v>2</v>
       </c>
       <c r="AQ332">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR332">
         <v>1.67</v>
@@ -70368,7 +70413,7 @@
         <v>244</v>
       </c>
       <c r="P333" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="Q333">
         <v>2.5</v>
@@ -70449,7 +70494,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ333">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR333">
         <v>2.05</v>
@@ -70574,7 +70619,7 @@
         <v>211</v>
       </c>
       <c r="P334" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="Q334">
         <v>2.6</v>
@@ -70858,7 +70903,7 @@
         <v>1</v>
       </c>
       <c r="AP335">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ335">
         <v>1</v>
@@ -71067,7 +71112,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ336">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR336">
         <v>1.58</v>
@@ -71192,7 +71237,7 @@
         <v>339</v>
       </c>
       <c r="P337" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="Q337">
         <v>2</v>
@@ -71273,7 +71318,7 @@
         <v>2</v>
       </c>
       <c r="AQ337">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR337">
         <v>1.64</v>
@@ -71476,10 +71521,10 @@
         <v>0.75</v>
       </c>
       <c r="AP338">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ338">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR338">
         <v>1.58</v>
@@ -71604,7 +71649,7 @@
         <v>341</v>
       </c>
       <c r="P339" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="Q339">
         <v>2</v>
@@ -71682,7 +71727,7 @@
         <v>0.75</v>
       </c>
       <c r="AP339">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ339">
         <v>0.77</v>
@@ -71888,7 +71933,7 @@
         <v>1</v>
       </c>
       <c r="AP340">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ340">
         <v>0.9</v>
@@ -72016,7 +72061,7 @@
         <v>343</v>
       </c>
       <c r="P341" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="Q341">
         <v>2.38</v>
@@ -72094,7 +72139,7 @@
         <v>0.73</v>
       </c>
       <c r="AP341">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ341">
         <v>0.92</v>
@@ -72222,7 +72267,7 @@
         <v>344</v>
       </c>
       <c r="P342" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="Q342">
         <v>2.63</v>
@@ -72428,7 +72473,7 @@
         <v>104</v>
       </c>
       <c r="P343" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="Q343">
         <v>2.88</v>
@@ -72712,7 +72757,7 @@
         <v>0.67</v>
       </c>
       <c r="AP344">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ344">
         <v>0.62</v>
@@ -72918,10 +72963,10 @@
         <v>0.5</v>
       </c>
       <c r="AP345">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ345">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR345">
         <v>1.61</v>
@@ -73127,7 +73172,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ346">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR346">
         <v>1.49</v>
@@ -73252,7 +73297,7 @@
         <v>347</v>
       </c>
       <c r="P347" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="Q347">
         <v>2.3</v>
@@ -73330,7 +73375,7 @@
         <v>1.17</v>
       </c>
       <c r="AP347">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ347">
         <v>1.08</v>
@@ -73539,7 +73584,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ348">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR348">
         <v>2.01</v>
@@ -73615,6 +73660,2890 @@
       </c>
       <c r="BP348">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="349" spans="1:68">
+      <c r="A349" s="1">
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>7295591</v>
+      </c>
+      <c r="C349" t="s">
+        <v>68</v>
+      </c>
+      <c r="D349" t="s">
+        <v>69</v>
+      </c>
+      <c r="E349" s="2">
+        <v>45493.85416666666</v>
+      </c>
+      <c r="F349">
+        <v>0</v>
+      </c>
+      <c r="G349" t="s">
+        <v>97</v>
+      </c>
+      <c r="H349" t="s">
+        <v>82</v>
+      </c>
+      <c r="I349">
+        <v>1</v>
+      </c>
+      <c r="J349">
+        <v>0</v>
+      </c>
+      <c r="K349">
+        <v>1</v>
+      </c>
+      <c r="L349">
+        <v>3</v>
+      </c>
+      <c r="M349">
+        <v>1</v>
+      </c>
+      <c r="N349">
+        <v>4</v>
+      </c>
+      <c r="O349" t="s">
+        <v>348</v>
+      </c>
+      <c r="P349" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q349">
+        <v>2.6</v>
+      </c>
+      <c r="R349">
+        <v>2.3</v>
+      </c>
+      <c r="S349">
+        <v>3.75</v>
+      </c>
+      <c r="T349">
+        <v>1.3</v>
+      </c>
+      <c r="U349">
+        <v>3.4</v>
+      </c>
+      <c r="V349">
+        <v>2.5</v>
+      </c>
+      <c r="W349">
+        <v>1.5</v>
+      </c>
+      <c r="X349">
+        <v>6</v>
+      </c>
+      <c r="Y349">
+        <v>1.13</v>
+      </c>
+      <c r="Z349">
+        <v>1.95</v>
+      </c>
+      <c r="AA349">
+        <v>3.5</v>
+      </c>
+      <c r="AB349">
+        <v>3.4</v>
+      </c>
+      <c r="AC349">
+        <v>1.03</v>
+      </c>
+      <c r="AD349">
+        <v>12</v>
+      </c>
+      <c r="AE349">
+        <v>1.18</v>
+      </c>
+      <c r="AF349">
+        <v>4.33</v>
+      </c>
+      <c r="AG349">
+        <v>1.6</v>
+      </c>
+      <c r="AH349">
+        <v>2.2</v>
+      </c>
+      <c r="AI349">
+        <v>1.57</v>
+      </c>
+      <c r="AJ349">
+        <v>2.25</v>
+      </c>
+      <c r="AK349">
+        <v>1.33</v>
+      </c>
+      <c r="AL349">
+        <v>1.29</v>
+      </c>
+      <c r="AM349">
+        <v>1.78</v>
+      </c>
+      <c r="AN349">
+        <v>2.09</v>
+      </c>
+      <c r="AO349">
+        <v>2.55</v>
+      </c>
+      <c r="AP349">
+        <v>2.17</v>
+      </c>
+      <c r="AQ349">
+        <v>2.33</v>
+      </c>
+      <c r="AR349">
+        <v>1.66</v>
+      </c>
+      <c r="AS349">
+        <v>1.35</v>
+      </c>
+      <c r="AT349">
+        <v>3.01</v>
+      </c>
+      <c r="AU349">
+        <v>10</v>
+      </c>
+      <c r="AV349">
+        <v>3</v>
+      </c>
+      <c r="AW349">
+        <v>5</v>
+      </c>
+      <c r="AX349">
+        <v>1</v>
+      </c>
+      <c r="AY349">
+        <v>15</v>
+      </c>
+      <c r="AZ349">
+        <v>4</v>
+      </c>
+      <c r="BA349">
+        <v>2</v>
+      </c>
+      <c r="BB349">
+        <v>5</v>
+      </c>
+      <c r="BC349">
+        <v>7</v>
+      </c>
+      <c r="BD349">
+        <v>1.68</v>
+      </c>
+      <c r="BE349">
+        <v>6.4</v>
+      </c>
+      <c r="BF349">
+        <v>2.3</v>
+      </c>
+      <c r="BG349">
+        <v>1.32</v>
+      </c>
+      <c r="BH349">
+        <v>3.05</v>
+      </c>
+      <c r="BI349">
+        <v>1.55</v>
+      </c>
+      <c r="BJ349">
+        <v>2.25</v>
+      </c>
+      <c r="BK349">
+        <v>1.9</v>
+      </c>
+      <c r="BL349">
+        <v>1.79</v>
+      </c>
+      <c r="BM349">
+        <v>2.4</v>
+      </c>
+      <c r="BN349">
+        <v>1.49</v>
+      </c>
+      <c r="BO349">
+        <v>3.1</v>
+      </c>
+      <c r="BP349">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:68">
+      <c r="A350" s="1">
+        <v>349</v>
+      </c>
+      <c r="B350">
+        <v>7295593</v>
+      </c>
+      <c r="C350" t="s">
+        <v>68</v>
+      </c>
+      <c r="D350" t="s">
+        <v>69</v>
+      </c>
+      <c r="E350" s="2">
+        <v>45493.85416666666</v>
+      </c>
+      <c r="F350">
+        <v>0</v>
+      </c>
+      <c r="G350" t="s">
+        <v>76</v>
+      </c>
+      <c r="H350" t="s">
+        <v>83</v>
+      </c>
+      <c r="I350">
+        <v>2</v>
+      </c>
+      <c r="J350">
+        <v>0</v>
+      </c>
+      <c r="K350">
+        <v>2</v>
+      </c>
+      <c r="L350">
+        <v>3</v>
+      </c>
+      <c r="M350">
+        <v>0</v>
+      </c>
+      <c r="N350">
+        <v>3</v>
+      </c>
+      <c r="O350" t="s">
+        <v>349</v>
+      </c>
+      <c r="P350" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q350">
+        <v>2.75</v>
+      </c>
+      <c r="R350">
+        <v>2.4</v>
+      </c>
+      <c r="S350">
+        <v>3.25</v>
+      </c>
+      <c r="T350">
+        <v>1.29</v>
+      </c>
+      <c r="U350">
+        <v>3.5</v>
+      </c>
+      <c r="V350">
+        <v>2.2</v>
+      </c>
+      <c r="W350">
+        <v>1.62</v>
+      </c>
+      <c r="X350">
+        <v>5.5</v>
+      </c>
+      <c r="Y350">
+        <v>1.14</v>
+      </c>
+      <c r="Z350">
+        <v>2.2</v>
+      </c>
+      <c r="AA350">
+        <v>3.4</v>
+      </c>
+      <c r="AB350">
+        <v>2.95</v>
+      </c>
+      <c r="AC350">
+        <v>1.02</v>
+      </c>
+      <c r="AD350">
+        <v>19</v>
+      </c>
+      <c r="AE350">
+        <v>1.17</v>
+      </c>
+      <c r="AF350">
+        <v>5</v>
+      </c>
+      <c r="AG350">
+        <v>1.5</v>
+      </c>
+      <c r="AH350">
+        <v>2.4</v>
+      </c>
+      <c r="AI350">
+        <v>1.44</v>
+      </c>
+      <c r="AJ350">
+        <v>2.63</v>
+      </c>
+      <c r="AK350">
+        <v>1.42</v>
+      </c>
+      <c r="AL350">
+        <v>1.24</v>
+      </c>
+      <c r="AM350">
+        <v>1.68</v>
+      </c>
+      <c r="AN350">
+        <v>0.83</v>
+      </c>
+      <c r="AO350">
+        <v>0.82</v>
+      </c>
+      <c r="AP350">
+        <v>1</v>
+      </c>
+      <c r="AQ350">
+        <v>0.75</v>
+      </c>
+      <c r="AR350">
+        <v>1.73</v>
+      </c>
+      <c r="AS350">
+        <v>0.96</v>
+      </c>
+      <c r="AT350">
+        <v>2.69</v>
+      </c>
+      <c r="AU350">
+        <v>10</v>
+      </c>
+      <c r="AV350">
+        <v>4</v>
+      </c>
+      <c r="AW350">
+        <v>4</v>
+      </c>
+      <c r="AX350">
+        <v>7</v>
+      </c>
+      <c r="AY350">
+        <v>14</v>
+      </c>
+      <c r="AZ350">
+        <v>11</v>
+      </c>
+      <c r="BA350">
+        <v>4</v>
+      </c>
+      <c r="BB350">
+        <v>7</v>
+      </c>
+      <c r="BC350">
+        <v>11</v>
+      </c>
+      <c r="BD350">
+        <v>1.75</v>
+      </c>
+      <c r="BE350">
+        <v>6.4</v>
+      </c>
+      <c r="BF350">
+        <v>2.17</v>
+      </c>
+      <c r="BG350">
+        <v>1.3</v>
+      </c>
+      <c r="BH350">
+        <v>3.05</v>
+      </c>
+      <c r="BI350">
+        <v>1.53</v>
+      </c>
+      <c r="BJ350">
+        <v>2.3</v>
+      </c>
+      <c r="BK350">
+        <v>1.86</v>
+      </c>
+      <c r="BL350">
+        <v>1.82</v>
+      </c>
+      <c r="BM350">
+        <v>2.35</v>
+      </c>
+      <c r="BN350">
+        <v>1.5</v>
+      </c>
+      <c r="BO350">
+        <v>3.05</v>
+      </c>
+      <c r="BP350">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="351" spans="1:68">
+      <c r="A351" s="1">
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>7295587</v>
+      </c>
+      <c r="C351" t="s">
+        <v>68</v>
+      </c>
+      <c r="D351" t="s">
+        <v>69</v>
+      </c>
+      <c r="E351" s="2">
+        <v>45493.85416666666</v>
+      </c>
+      <c r="F351">
+        <v>0</v>
+      </c>
+      <c r="G351" t="s">
+        <v>96</v>
+      </c>
+      <c r="H351" t="s">
+        <v>71</v>
+      </c>
+      <c r="I351">
+        <v>0</v>
+      </c>
+      <c r="J351">
+        <v>1</v>
+      </c>
+      <c r="K351">
+        <v>1</v>
+      </c>
+      <c r="L351">
+        <v>2</v>
+      </c>
+      <c r="M351">
+        <v>1</v>
+      </c>
+      <c r="N351">
+        <v>3</v>
+      </c>
+      <c r="O351" t="s">
+        <v>350</v>
+      </c>
+      <c r="P351" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q351">
+        <v>3.1</v>
+      </c>
+      <c r="R351">
+        <v>2.4</v>
+      </c>
+      <c r="S351">
+        <v>2.88</v>
+      </c>
+      <c r="T351">
+        <v>1.25</v>
+      </c>
+      <c r="U351">
+        <v>3.75</v>
+      </c>
+      <c r="V351">
+        <v>2.25</v>
+      </c>
+      <c r="W351">
+        <v>1.57</v>
+      </c>
+      <c r="X351">
+        <v>5.5</v>
+      </c>
+      <c r="Y351">
+        <v>1.14</v>
+      </c>
+      <c r="Z351">
+        <v>2.6</v>
+      </c>
+      <c r="AA351">
+        <v>3.65</v>
+      </c>
+      <c r="AB351">
+        <v>2.35</v>
+      </c>
+      <c r="AC351">
+        <v>1.01</v>
+      </c>
+      <c r="AD351">
+        <v>21</v>
+      </c>
+      <c r="AE351">
+        <v>1.12</v>
+      </c>
+      <c r="AF351">
+        <v>5</v>
+      </c>
+      <c r="AG351">
+        <v>1.5</v>
+      </c>
+      <c r="AH351">
+        <v>2.4</v>
+      </c>
+      <c r="AI351">
+        <v>1.44</v>
+      </c>
+      <c r="AJ351">
+        <v>2.63</v>
+      </c>
+      <c r="AK351">
+        <v>1.6</v>
+      </c>
+      <c r="AL351">
+        <v>1.22</v>
+      </c>
+      <c r="AM351">
+        <v>1.5</v>
+      </c>
+      <c r="AN351">
+        <v>1.25</v>
+      </c>
+      <c r="AO351">
+        <v>1.91</v>
+      </c>
+      <c r="AP351">
+        <v>1.38</v>
+      </c>
+      <c r="AQ351">
+        <v>1.75</v>
+      </c>
+      <c r="AR351">
+        <v>1.64</v>
+      </c>
+      <c r="AS351">
+        <v>1.42</v>
+      </c>
+      <c r="AT351">
+        <v>3.06</v>
+      </c>
+      <c r="AU351">
+        <v>8</v>
+      </c>
+      <c r="AV351">
+        <v>4</v>
+      </c>
+      <c r="AW351">
+        <v>5</v>
+      </c>
+      <c r="AX351">
+        <v>13</v>
+      </c>
+      <c r="AY351">
+        <v>13</v>
+      </c>
+      <c r="AZ351">
+        <v>17</v>
+      </c>
+      <c r="BA351">
+        <v>9</v>
+      </c>
+      <c r="BB351">
+        <v>7</v>
+      </c>
+      <c r="BC351">
+        <v>16</v>
+      </c>
+      <c r="BD351">
+        <v>2.02</v>
+      </c>
+      <c r="BE351">
+        <v>6.1</v>
+      </c>
+      <c r="BF351">
+        <v>1.88</v>
+      </c>
+      <c r="BG351">
+        <v>1.3</v>
+      </c>
+      <c r="BH351">
+        <v>3.15</v>
+      </c>
+      <c r="BI351">
+        <v>1.5</v>
+      </c>
+      <c r="BJ351">
+        <v>2.33</v>
+      </c>
+      <c r="BK351">
+        <v>1.84</v>
+      </c>
+      <c r="BL351">
+        <v>1.84</v>
+      </c>
+      <c r="BM351">
+        <v>2.32</v>
+      </c>
+      <c r="BN351">
+        <v>1.52</v>
+      </c>
+      <c r="BO351">
+        <v>2.95</v>
+      </c>
+      <c r="BP351">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="352" spans="1:68">
+      <c r="A352" s="1">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>7295588</v>
+      </c>
+      <c r="C352" t="s">
+        <v>68</v>
+      </c>
+      <c r="D352" t="s">
+        <v>69</v>
+      </c>
+      <c r="E352" s="2">
+        <v>45493.85416666666</v>
+      </c>
+      <c r="F352">
+        <v>0</v>
+      </c>
+      <c r="G352" t="s">
+        <v>70</v>
+      </c>
+      <c r="H352" t="s">
+        <v>88</v>
+      </c>
+      <c r="I352">
+        <v>1</v>
+      </c>
+      <c r="J352">
+        <v>0</v>
+      </c>
+      <c r="K352">
+        <v>1</v>
+      </c>
+      <c r="L352">
+        <v>2</v>
+      </c>
+      <c r="M352">
+        <v>1</v>
+      </c>
+      <c r="N352">
+        <v>3</v>
+      </c>
+      <c r="O352" t="s">
+        <v>351</v>
+      </c>
+      <c r="P352" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q352">
+        <v>2</v>
+      </c>
+      <c r="R352">
+        <v>2.63</v>
+      </c>
+      <c r="S352">
+        <v>4.75</v>
+      </c>
+      <c r="T352">
+        <v>1.22</v>
+      </c>
+      <c r="U352">
+        <v>4</v>
+      </c>
+      <c r="V352">
+        <v>2</v>
+      </c>
+      <c r="W352">
+        <v>1.73</v>
+      </c>
+      <c r="X352">
+        <v>4.33</v>
+      </c>
+      <c r="Y352">
+        <v>1.2</v>
+      </c>
+      <c r="Z352">
+        <v>1.5</v>
+      </c>
+      <c r="AA352">
+        <v>4.6</v>
+      </c>
+      <c r="AB352">
+        <v>4.75</v>
+      </c>
+      <c r="AC352">
+        <v>1.01</v>
+      </c>
+      <c r="AD352">
+        <v>29</v>
+      </c>
+      <c r="AE352">
+        <v>1.12</v>
+      </c>
+      <c r="AF352">
+        <v>6.5</v>
+      </c>
+      <c r="AG352">
+        <v>1.4</v>
+      </c>
+      <c r="AH352">
+        <v>2.75</v>
+      </c>
+      <c r="AI352">
+        <v>1.5</v>
+      </c>
+      <c r="AJ352">
+        <v>2.5</v>
+      </c>
+      <c r="AK352">
+        <v>1.16</v>
+      </c>
+      <c r="AL352">
+        <v>1.15</v>
+      </c>
+      <c r="AM352">
+        <v>2.6</v>
+      </c>
+      <c r="AN352">
+        <v>2</v>
+      </c>
+      <c r="AO352">
+        <v>0.83</v>
+      </c>
+      <c r="AP352">
+        <v>2.08</v>
+      </c>
+      <c r="AQ352">
+        <v>0.77</v>
+      </c>
+      <c r="AR352">
+        <v>1.56</v>
+      </c>
+      <c r="AS352">
+        <v>1.25</v>
+      </c>
+      <c r="AT352">
+        <v>2.81</v>
+      </c>
+      <c r="AU352">
+        <v>10</v>
+      </c>
+      <c r="AV352">
+        <v>6</v>
+      </c>
+      <c r="AW352">
+        <v>7</v>
+      </c>
+      <c r="AX352">
+        <v>4</v>
+      </c>
+      <c r="AY352">
+        <v>17</v>
+      </c>
+      <c r="AZ352">
+        <v>10</v>
+      </c>
+      <c r="BA352">
+        <v>7</v>
+      </c>
+      <c r="BB352">
+        <v>4</v>
+      </c>
+      <c r="BC352">
+        <v>11</v>
+      </c>
+      <c r="BD352">
+        <v>1.47</v>
+      </c>
+      <c r="BE352">
+        <v>6.5</v>
+      </c>
+      <c r="BF352">
+        <v>2.8</v>
+      </c>
+      <c r="BG352">
+        <v>1.27</v>
+      </c>
+      <c r="BH352">
+        <v>3.3</v>
+      </c>
+      <c r="BI352">
+        <v>1.47</v>
+      </c>
+      <c r="BJ352">
+        <v>2.48</v>
+      </c>
+      <c r="BK352">
+        <v>1.76</v>
+      </c>
+      <c r="BL352">
+        <v>1.94</v>
+      </c>
+      <c r="BM352">
+        <v>2.18</v>
+      </c>
+      <c r="BN352">
+        <v>1.58</v>
+      </c>
+      <c r="BO352">
+        <v>2.8</v>
+      </c>
+      <c r="BP352">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="353" spans="1:68">
+      <c r="A353" s="1">
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>7295589</v>
+      </c>
+      <c r="C353" t="s">
+        <v>68</v>
+      </c>
+      <c r="D353" t="s">
+        <v>69</v>
+      </c>
+      <c r="E353" s="2">
+        <v>45493.85416666666</v>
+      </c>
+      <c r="F353">
+        <v>0</v>
+      </c>
+      <c r="G353" t="s">
+        <v>98</v>
+      </c>
+      <c r="H353" t="s">
+        <v>95</v>
+      </c>
+      <c r="I353">
+        <v>0</v>
+      </c>
+      <c r="J353">
+        <v>1</v>
+      </c>
+      <c r="K353">
+        <v>1</v>
+      </c>
+      <c r="L353">
+        <v>0</v>
+      </c>
+      <c r="M353">
+        <v>1</v>
+      </c>
+      <c r="N353">
+        <v>1</v>
+      </c>
+      <c r="O353" t="s">
+        <v>104</v>
+      </c>
+      <c r="P353" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q353">
+        <v>2.4</v>
+      </c>
+      <c r="R353">
+        <v>2.4</v>
+      </c>
+      <c r="S353">
+        <v>3.75</v>
+      </c>
+      <c r="T353">
+        <v>1.25</v>
+      </c>
+      <c r="U353">
+        <v>3.75</v>
+      </c>
+      <c r="V353">
+        <v>2.2</v>
+      </c>
+      <c r="W353">
+        <v>1.62</v>
+      </c>
+      <c r="X353">
+        <v>5</v>
+      </c>
+      <c r="Y353">
+        <v>1.17</v>
+      </c>
+      <c r="Z353">
+        <v>1.9</v>
+      </c>
+      <c r="AA353">
+        <v>3.85</v>
+      </c>
+      <c r="AB353">
+        <v>3.4</v>
+      </c>
+      <c r="AC353">
+        <v>1.02</v>
+      </c>
+      <c r="AD353">
+        <v>21</v>
+      </c>
+      <c r="AE353">
+        <v>1.16</v>
+      </c>
+      <c r="AF353">
+        <v>5.5</v>
+      </c>
+      <c r="AG353">
+        <v>1.65</v>
+      </c>
+      <c r="AH353">
+        <v>2.1</v>
+      </c>
+      <c r="AI353">
+        <v>1.5</v>
+      </c>
+      <c r="AJ353">
+        <v>2.5</v>
+      </c>
+      <c r="AK353">
+        <v>1.28</v>
+      </c>
+      <c r="AL353">
+        <v>1.22</v>
+      </c>
+      <c r="AM353">
+        <v>1.96</v>
+      </c>
+      <c r="AN353">
+        <v>1.55</v>
+      </c>
+      <c r="AO353">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP353">
+        <v>1.42</v>
+      </c>
+      <c r="AQ353">
+        <v>0.86</v>
+      </c>
+      <c r="AR353">
+        <v>1.31</v>
+      </c>
+      <c r="AS353">
+        <v>1.07</v>
+      </c>
+      <c r="AT353">
+        <v>2.38</v>
+      </c>
+      <c r="AU353">
+        <v>2</v>
+      </c>
+      <c r="AV353">
+        <v>4</v>
+      </c>
+      <c r="AW353">
+        <v>8</v>
+      </c>
+      <c r="AX353">
+        <v>3</v>
+      </c>
+      <c r="AY353">
+        <v>10</v>
+      </c>
+      <c r="AZ353">
+        <v>7</v>
+      </c>
+      <c r="BA353">
+        <v>4</v>
+      </c>
+      <c r="BB353">
+        <v>1</v>
+      </c>
+      <c r="BC353">
+        <v>5</v>
+      </c>
+      <c r="BD353">
+        <v>1.58</v>
+      </c>
+      <c r="BE353">
+        <v>6.1</v>
+      </c>
+      <c r="BF353">
+        <v>2.48</v>
+      </c>
+      <c r="BG353">
+        <v>1.35</v>
+      </c>
+      <c r="BH353">
+        <v>2.9</v>
+      </c>
+      <c r="BI353">
+        <v>1.6</v>
+      </c>
+      <c r="BJ353">
+        <v>2.17</v>
+      </c>
+      <c r="BK353">
+        <v>1.96</v>
+      </c>
+      <c r="BL353">
+        <v>1.73</v>
+      </c>
+      <c r="BM353">
+        <v>2.5</v>
+      </c>
+      <c r="BN353">
+        <v>1.46</v>
+      </c>
+      <c r="BO353">
+        <v>3.2</v>
+      </c>
+      <c r="BP353">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="354" spans="1:68">
+      <c r="A354" s="1">
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>7295590</v>
+      </c>
+      <c r="C354" t="s">
+        <v>68</v>
+      </c>
+      <c r="D354" t="s">
+        <v>69</v>
+      </c>
+      <c r="E354" s="2">
+        <v>45493.85416666666</v>
+      </c>
+      <c r="F354">
+        <v>0</v>
+      </c>
+      <c r="G354" t="s">
+        <v>93</v>
+      </c>
+      <c r="H354" t="s">
+        <v>78</v>
+      </c>
+      <c r="I354">
+        <v>0</v>
+      </c>
+      <c r="J354">
+        <v>0</v>
+      </c>
+      <c r="K354">
+        <v>0</v>
+      </c>
+      <c r="L354">
+        <v>1</v>
+      </c>
+      <c r="M354">
+        <v>1</v>
+      </c>
+      <c r="N354">
+        <v>2</v>
+      </c>
+      <c r="O354" t="s">
+        <v>232</v>
+      </c>
+      <c r="P354" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q354">
+        <v>2.5</v>
+      </c>
+      <c r="R354">
+        <v>2.4</v>
+      </c>
+      <c r="S354">
+        <v>3.75</v>
+      </c>
+      <c r="T354">
+        <v>1.29</v>
+      </c>
+      <c r="U354">
+        <v>3.5</v>
+      </c>
+      <c r="V354">
+        <v>2.25</v>
+      </c>
+      <c r="W354">
+        <v>1.57</v>
+      </c>
+      <c r="X354">
+        <v>5.5</v>
+      </c>
+      <c r="Y354">
+        <v>1.14</v>
+      </c>
+      <c r="Z354">
+        <v>1.91</v>
+      </c>
+      <c r="AA354">
+        <v>3.65</v>
+      </c>
+      <c r="AB354">
+        <v>3.4</v>
+      </c>
+      <c r="AC354">
+        <v>1.02</v>
+      </c>
+      <c r="AD354">
+        <v>19</v>
+      </c>
+      <c r="AE354">
+        <v>1.18</v>
+      </c>
+      <c r="AF354">
+        <v>5</v>
+      </c>
+      <c r="AG354">
+        <v>1.5</v>
+      </c>
+      <c r="AH354">
+        <v>2.4</v>
+      </c>
+      <c r="AI354">
+        <v>1.5</v>
+      </c>
+      <c r="AJ354">
+        <v>2.5</v>
+      </c>
+      <c r="AK354">
+        <v>1.32</v>
+      </c>
+      <c r="AL354">
+        <v>1.22</v>
+      </c>
+      <c r="AM354">
+        <v>1.87</v>
+      </c>
+      <c r="AN354">
+        <v>1.08</v>
+      </c>
+      <c r="AO354">
+        <v>0.27</v>
+      </c>
+      <c r="AP354">
+        <v>1.08</v>
+      </c>
+      <c r="AQ354">
+        <v>0.33</v>
+      </c>
+      <c r="AR354">
+        <v>1.36</v>
+      </c>
+      <c r="AS354">
+        <v>1.06</v>
+      </c>
+      <c r="AT354">
+        <v>2.42</v>
+      </c>
+      <c r="AU354">
+        <v>3</v>
+      </c>
+      <c r="AV354">
+        <v>3</v>
+      </c>
+      <c r="AW354">
+        <v>6</v>
+      </c>
+      <c r="AX354">
+        <v>5</v>
+      </c>
+      <c r="AY354">
+        <v>9</v>
+      </c>
+      <c r="AZ354">
+        <v>8</v>
+      </c>
+      <c r="BA354">
+        <v>8</v>
+      </c>
+      <c r="BB354">
+        <v>4</v>
+      </c>
+      <c r="BC354">
+        <v>12</v>
+      </c>
+      <c r="BD354">
+        <v>1.65</v>
+      </c>
+      <c r="BE354">
+        <v>6.4</v>
+      </c>
+      <c r="BF354">
+        <v>2.33</v>
+      </c>
+      <c r="BG354">
+        <v>1.32</v>
+      </c>
+      <c r="BH354">
+        <v>3.05</v>
+      </c>
+      <c r="BI354">
+        <v>1.54</v>
+      </c>
+      <c r="BJ354">
+        <v>2.28</v>
+      </c>
+      <c r="BK354">
+        <v>1.9</v>
+      </c>
+      <c r="BL354">
+        <v>1.79</v>
+      </c>
+      <c r="BM354">
+        <v>2.4</v>
+      </c>
+      <c r="BN354">
+        <v>1.49</v>
+      </c>
+      <c r="BO354">
+        <v>3.05</v>
+      </c>
+      <c r="BP354">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:68">
+      <c r="A355" s="1">
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>7295592</v>
+      </c>
+      <c r="C355" t="s">
+        <v>68</v>
+      </c>
+      <c r="D355" t="s">
+        <v>69</v>
+      </c>
+      <c r="E355" s="2">
+        <v>45493.85416666666</v>
+      </c>
+      <c r="F355">
+        <v>0</v>
+      </c>
+      <c r="G355" t="s">
+        <v>75</v>
+      </c>
+      <c r="H355" t="s">
+        <v>94</v>
+      </c>
+      <c r="I355">
+        <v>0</v>
+      </c>
+      <c r="J355">
+        <v>0</v>
+      </c>
+      <c r="K355">
+        <v>0</v>
+      </c>
+      <c r="L355">
+        <v>1</v>
+      </c>
+      <c r="M355">
+        <v>1</v>
+      </c>
+      <c r="N355">
+        <v>2</v>
+      </c>
+      <c r="O355" t="s">
+        <v>220</v>
+      </c>
+      <c r="P355" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q355">
+        <v>2.88</v>
+      </c>
+      <c r="R355">
+        <v>2.25</v>
+      </c>
+      <c r="S355">
+        <v>3.4</v>
+      </c>
+      <c r="T355">
+        <v>1.33</v>
+      </c>
+      <c r="U355">
+        <v>3.25</v>
+      </c>
+      <c r="V355">
+        <v>2.63</v>
+      </c>
+      <c r="W355">
+        <v>1.44</v>
+      </c>
+      <c r="X355">
+        <v>6.5</v>
+      </c>
+      <c r="Y355">
+        <v>1.11</v>
+      </c>
+      <c r="Z355">
+        <v>2.2</v>
+      </c>
+      <c r="AA355">
+        <v>3.5</v>
+      </c>
+      <c r="AB355">
+        <v>2.85</v>
+      </c>
+      <c r="AC355">
+        <v>1.03</v>
+      </c>
+      <c r="AD355">
+        <v>13</v>
+      </c>
+      <c r="AE355">
+        <v>1.25</v>
+      </c>
+      <c r="AF355">
+        <v>4</v>
+      </c>
+      <c r="AG355">
+        <v>1.7</v>
+      </c>
+      <c r="AH355">
+        <v>2</v>
+      </c>
+      <c r="AI355">
+        <v>1.62</v>
+      </c>
+      <c r="AJ355">
+        <v>2.2</v>
+      </c>
+      <c r="AK355">
+        <v>1.4</v>
+      </c>
+      <c r="AL355">
+        <v>1.25</v>
+      </c>
+      <c r="AM355">
+        <v>1.65</v>
+      </c>
+      <c r="AN355">
+        <v>1.09</v>
+      </c>
+      <c r="AO355">
+        <v>1</v>
+      </c>
+      <c r="AP355">
+        <v>1.08</v>
+      </c>
+      <c r="AQ355">
+        <v>1</v>
+      </c>
+      <c r="AR355">
+        <v>1.47</v>
+      </c>
+      <c r="AS355">
+        <v>1.15</v>
+      </c>
+      <c r="AT355">
+        <v>2.62</v>
+      </c>
+      <c r="AU355">
+        <v>6</v>
+      </c>
+      <c r="AV355">
+        <v>4</v>
+      </c>
+      <c r="AW355">
+        <v>2</v>
+      </c>
+      <c r="AX355">
+        <v>3</v>
+      </c>
+      <c r="AY355">
+        <v>8</v>
+      </c>
+      <c r="AZ355">
+        <v>7</v>
+      </c>
+      <c r="BA355">
+        <v>5</v>
+      </c>
+      <c r="BB355">
+        <v>5</v>
+      </c>
+      <c r="BC355">
+        <v>10</v>
+      </c>
+      <c r="BD355">
+        <v>1.75</v>
+      </c>
+      <c r="BE355">
+        <v>6.1</v>
+      </c>
+      <c r="BF355">
+        <v>2.18</v>
+      </c>
+      <c r="BG355">
+        <v>1.36</v>
+      </c>
+      <c r="BH355">
+        <v>2.8</v>
+      </c>
+      <c r="BI355">
+        <v>1.61</v>
+      </c>
+      <c r="BJ355">
+        <v>2.15</v>
+      </c>
+      <c r="BK355">
+        <v>2</v>
+      </c>
+      <c r="BL355">
+        <v>1.71</v>
+      </c>
+      <c r="BM355">
+        <v>2.55</v>
+      </c>
+      <c r="BN355">
+        <v>1.44</v>
+      </c>
+      <c r="BO355">
+        <v>3.3</v>
+      </c>
+      <c r="BP355">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="356" spans="1:68">
+      <c r="A356" s="1">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>7295595</v>
+      </c>
+      <c r="C356" t="s">
+        <v>68</v>
+      </c>
+      <c r="D356" t="s">
+        <v>69</v>
+      </c>
+      <c r="E356" s="2">
+        <v>45493.89583333334</v>
+      </c>
+      <c r="F356">
+        <v>0</v>
+      </c>
+      <c r="G356" t="s">
+        <v>89</v>
+      </c>
+      <c r="H356" t="s">
+        <v>80</v>
+      </c>
+      <c r="I356">
+        <v>0</v>
+      </c>
+      <c r="J356">
+        <v>1</v>
+      </c>
+      <c r="K356">
+        <v>1</v>
+      </c>
+      <c r="L356">
+        <v>1</v>
+      </c>
+      <c r="M356">
+        <v>1</v>
+      </c>
+      <c r="N356">
+        <v>2</v>
+      </c>
+      <c r="O356" t="s">
+        <v>306</v>
+      </c>
+      <c r="P356" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q356">
+        <v>2.3</v>
+      </c>
+      <c r="R356">
+        <v>2.4</v>
+      </c>
+      <c r="S356">
+        <v>4</v>
+      </c>
+      <c r="T356">
+        <v>1.29</v>
+      </c>
+      <c r="U356">
+        <v>3.5</v>
+      </c>
+      <c r="V356">
+        <v>2.25</v>
+      </c>
+      <c r="W356">
+        <v>1.57</v>
+      </c>
+      <c r="X356">
+        <v>5.5</v>
+      </c>
+      <c r="Y356">
+        <v>1.14</v>
+      </c>
+      <c r="Z356">
+        <v>1.8</v>
+      </c>
+      <c r="AA356">
+        <v>3.9</v>
+      </c>
+      <c r="AB356">
+        <v>3.75</v>
+      </c>
+      <c r="AC356">
+        <v>1.02</v>
+      </c>
+      <c r="AD356">
+        <v>19</v>
+      </c>
+      <c r="AE356">
+        <v>1.18</v>
+      </c>
+      <c r="AF356">
+        <v>5</v>
+      </c>
+      <c r="AG356">
+        <v>1.5</v>
+      </c>
+      <c r="AH356">
+        <v>2.4</v>
+      </c>
+      <c r="AI356">
+        <v>1.53</v>
+      </c>
+      <c r="AJ356">
+        <v>2.38</v>
+      </c>
+      <c r="AK356">
+        <v>1.26</v>
+      </c>
+      <c r="AL356">
+        <v>1.2</v>
+      </c>
+      <c r="AM356">
+        <v>2.05</v>
+      </c>
+      <c r="AN356">
+        <v>1.25</v>
+      </c>
+      <c r="AO356">
+        <v>0.45</v>
+      </c>
+      <c r="AP356">
+        <v>1.23</v>
+      </c>
+      <c r="AQ356">
+        <v>0.5</v>
+      </c>
+      <c r="AR356">
+        <v>1.55</v>
+      </c>
+      <c r="AS356">
+        <v>1.39</v>
+      </c>
+      <c r="AT356">
+        <v>2.94</v>
+      </c>
+      <c r="AU356">
+        <v>7</v>
+      </c>
+      <c r="AV356">
+        <v>4</v>
+      </c>
+      <c r="AW356">
+        <v>3</v>
+      </c>
+      <c r="AX356">
+        <v>3</v>
+      </c>
+      <c r="AY356">
+        <v>10</v>
+      </c>
+      <c r="AZ356">
+        <v>7</v>
+      </c>
+      <c r="BA356">
+        <v>8</v>
+      </c>
+      <c r="BB356">
+        <v>3</v>
+      </c>
+      <c r="BC356">
+        <v>11</v>
+      </c>
+      <c r="BD356">
+        <v>1.57</v>
+      </c>
+      <c r="BE356">
+        <v>6.4</v>
+      </c>
+      <c r="BF356">
+        <v>2.48</v>
+      </c>
+      <c r="BG356">
+        <v>1.29</v>
+      </c>
+      <c r="BH356">
+        <v>3.2</v>
+      </c>
+      <c r="BI356">
+        <v>1.5</v>
+      </c>
+      <c r="BJ356">
+        <v>2.38</v>
+      </c>
+      <c r="BK356">
+        <v>1.82</v>
+      </c>
+      <c r="BL356">
+        <v>1.86</v>
+      </c>
+      <c r="BM356">
+        <v>2.25</v>
+      </c>
+      <c r="BN356">
+        <v>1.55</v>
+      </c>
+      <c r="BO356">
+        <v>2.9</v>
+      </c>
+      <c r="BP356">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="357" spans="1:68">
+      <c r="A357" s="1">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>7295596</v>
+      </c>
+      <c r="C357" t="s">
+        <v>68</v>
+      </c>
+      <c r="D357" t="s">
+        <v>69</v>
+      </c>
+      <c r="E357" s="2">
+        <v>45493.89583333334</v>
+      </c>
+      <c r="F357">
+        <v>0</v>
+      </c>
+      <c r="G357" t="s">
+        <v>85</v>
+      </c>
+      <c r="H357" t="s">
+        <v>91</v>
+      </c>
+      <c r="I357">
+        <v>1</v>
+      </c>
+      <c r="J357">
+        <v>0</v>
+      </c>
+      <c r="K357">
+        <v>1</v>
+      </c>
+      <c r="L357">
+        <v>2</v>
+      </c>
+      <c r="M357">
+        <v>0</v>
+      </c>
+      <c r="N357">
+        <v>2</v>
+      </c>
+      <c r="O357" t="s">
+        <v>352</v>
+      </c>
+      <c r="P357" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q357">
+        <v>2.3</v>
+      </c>
+      <c r="R357">
+        <v>2.6</v>
+      </c>
+      <c r="S357">
+        <v>4</v>
+      </c>
+      <c r="T357">
+        <v>1.22</v>
+      </c>
+      <c r="U357">
+        <v>4</v>
+      </c>
+      <c r="V357">
+        <v>2</v>
+      </c>
+      <c r="W357">
+        <v>1.73</v>
+      </c>
+      <c r="X357">
+        <v>4.33</v>
+      </c>
+      <c r="Y357">
+        <v>1.2</v>
+      </c>
+      <c r="Z357">
+        <v>1.75</v>
+      </c>
+      <c r="AA357">
+        <v>4.1</v>
+      </c>
+      <c r="AB357">
+        <v>3.65</v>
+      </c>
+      <c r="AC357">
+        <v>1.02</v>
+      </c>
+      <c r="AD357">
+        <v>26</v>
+      </c>
+      <c r="AE357">
+        <v>1.13</v>
+      </c>
+      <c r="AF357">
+        <v>6</v>
+      </c>
+      <c r="AG357">
+        <v>1.4</v>
+      </c>
+      <c r="AH357">
+        <v>2.75</v>
+      </c>
+      <c r="AI357">
+        <v>1.44</v>
+      </c>
+      <c r="AJ357">
+        <v>2.63</v>
+      </c>
+      <c r="AK357">
+        <v>1.25</v>
+      </c>
+      <c r="AL357">
+        <v>1.19</v>
+      </c>
+      <c r="AM357">
+        <v>2.1</v>
+      </c>
+      <c r="AN357">
+        <v>1.33</v>
+      </c>
+      <c r="AO357">
+        <v>0.36</v>
+      </c>
+      <c r="AP357">
+        <v>1.46</v>
+      </c>
+      <c r="AQ357">
+        <v>0.33</v>
+      </c>
+      <c r="AR357">
+        <v>1.58</v>
+      </c>
+      <c r="AS357">
+        <v>1.2</v>
+      </c>
+      <c r="AT357">
+        <v>2.78</v>
+      </c>
+      <c r="AU357">
+        <v>7</v>
+      </c>
+      <c r="AV357">
+        <v>2</v>
+      </c>
+      <c r="AW357">
+        <v>2</v>
+      </c>
+      <c r="AX357">
+        <v>7</v>
+      </c>
+      <c r="AY357">
+        <v>9</v>
+      </c>
+      <c r="AZ357">
+        <v>9</v>
+      </c>
+      <c r="BA357">
+        <v>6</v>
+      </c>
+      <c r="BB357">
+        <v>8</v>
+      </c>
+      <c r="BC357">
+        <v>14</v>
+      </c>
+      <c r="BD357">
+        <v>1.58</v>
+      </c>
+      <c r="BE357">
+        <v>6.5</v>
+      </c>
+      <c r="BF357">
+        <v>2.43</v>
+      </c>
+      <c r="BG357">
+        <v>1.26</v>
+      </c>
+      <c r="BH357">
+        <v>3.4</v>
+      </c>
+      <c r="BI357">
+        <v>1.44</v>
+      </c>
+      <c r="BJ357">
+        <v>2.55</v>
+      </c>
+      <c r="BK357">
+        <v>1.73</v>
+      </c>
+      <c r="BL357">
+        <v>1.96</v>
+      </c>
+      <c r="BM357">
+        <v>2.15</v>
+      </c>
+      <c r="BN357">
+        <v>1.61</v>
+      </c>
+      <c r="BO357">
+        <v>2.7</v>
+      </c>
+      <c r="BP357">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="358" spans="1:68">
+      <c r="A358" s="1">
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>7295594</v>
+      </c>
+      <c r="C358" t="s">
+        <v>68</v>
+      </c>
+      <c r="D358" t="s">
+        <v>69</v>
+      </c>
+      <c r="E358" s="2">
+        <v>45493.89583333334</v>
+      </c>
+      <c r="F358">
+        <v>0</v>
+      </c>
+      <c r="G358" t="s">
+        <v>77</v>
+      </c>
+      <c r="H358" t="s">
+        <v>73</v>
+      </c>
+      <c r="I358">
+        <v>1</v>
+      </c>
+      <c r="J358">
+        <v>1</v>
+      </c>
+      <c r="K358">
+        <v>2</v>
+      </c>
+      <c r="L358">
+        <v>2</v>
+      </c>
+      <c r="M358">
+        <v>2</v>
+      </c>
+      <c r="N358">
+        <v>4</v>
+      </c>
+      <c r="O358" t="s">
+        <v>353</v>
+      </c>
+      <c r="P358" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q358">
+        <v>2.75</v>
+      </c>
+      <c r="R358">
+        <v>2.2</v>
+      </c>
+      <c r="S358">
+        <v>4</v>
+      </c>
+      <c r="T358">
+        <v>1.4</v>
+      </c>
+      <c r="U358">
+        <v>2.75</v>
+      </c>
+      <c r="V358">
+        <v>2.75</v>
+      </c>
+      <c r="W358">
+        <v>1.4</v>
+      </c>
+      <c r="X358">
+        <v>8</v>
+      </c>
+      <c r="Y358">
+        <v>1.08</v>
+      </c>
+      <c r="Z358">
+        <v>2</v>
+      </c>
+      <c r="AA358">
+        <v>3.45</v>
+      </c>
+      <c r="AB358">
+        <v>3.35</v>
+      </c>
+      <c r="AC358">
+        <v>1.05</v>
+      </c>
+      <c r="AD358">
+        <v>12</v>
+      </c>
+      <c r="AE358">
+        <v>1.3</v>
+      </c>
+      <c r="AF358">
+        <v>3.6</v>
+      </c>
+      <c r="AG358">
+        <v>1.85</v>
+      </c>
+      <c r="AH358">
+        <v>1.85</v>
+      </c>
+      <c r="AI358">
+        <v>1.75</v>
+      </c>
+      <c r="AJ358">
+        <v>2</v>
+      </c>
+      <c r="AK358">
+        <v>1.32</v>
+      </c>
+      <c r="AL358">
+        <v>1.25</v>
+      </c>
+      <c r="AM358">
+        <v>1.78</v>
+      </c>
+      <c r="AN358">
+        <v>1.75</v>
+      </c>
+      <c r="AO358">
+        <v>1.17</v>
+      </c>
+      <c r="AP358">
+        <v>1.69</v>
+      </c>
+      <c r="AQ358">
+        <v>1.15</v>
+      </c>
+      <c r="AR358">
+        <v>1.25</v>
+      </c>
+      <c r="AS358">
+        <v>1.3</v>
+      </c>
+      <c r="AT358">
+        <v>2.55</v>
+      </c>
+      <c r="AU358">
+        <v>5</v>
+      </c>
+      <c r="AV358">
+        <v>6</v>
+      </c>
+      <c r="AW358">
+        <v>4</v>
+      </c>
+      <c r="AX358">
+        <v>5</v>
+      </c>
+      <c r="AY358">
+        <v>9</v>
+      </c>
+      <c r="AZ358">
+        <v>11</v>
+      </c>
+      <c r="BA358">
+        <v>3</v>
+      </c>
+      <c r="BB358">
+        <v>3</v>
+      </c>
+      <c r="BC358">
+        <v>6</v>
+      </c>
+      <c r="BD358">
+        <v>1.7</v>
+      </c>
+      <c r="BE358">
+        <v>5.8</v>
+      </c>
+      <c r="BF358">
+        <v>2.3</v>
+      </c>
+      <c r="BG358">
+        <v>1.4</v>
+      </c>
+      <c r="BH358">
+        <v>2.65</v>
+      </c>
+      <c r="BI358">
+        <v>1.68</v>
+      </c>
+      <c r="BJ358">
+        <v>2.02</v>
+      </c>
+      <c r="BK358">
+        <v>2.1</v>
+      </c>
+      <c r="BL358">
+        <v>1.64</v>
+      </c>
+      <c r="BM358">
+        <v>2.7</v>
+      </c>
+      <c r="BN358">
+        <v>1.4</v>
+      </c>
+      <c r="BO358">
+        <v>3.65</v>
+      </c>
+      <c r="BP358">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="359" spans="1:68">
+      <c r="A359" s="1">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>7295597</v>
+      </c>
+      <c r="C359" t="s">
+        <v>68</v>
+      </c>
+      <c r="D359" t="s">
+        <v>69</v>
+      </c>
+      <c r="E359" s="2">
+        <v>45493.9375</v>
+      </c>
+      <c r="F359">
+        <v>0</v>
+      </c>
+      <c r="G359" t="s">
+        <v>90</v>
+      </c>
+      <c r="H359" t="s">
+        <v>86</v>
+      </c>
+      <c r="I359">
+        <v>2</v>
+      </c>
+      <c r="J359">
+        <v>1</v>
+      </c>
+      <c r="K359">
+        <v>3</v>
+      </c>
+      <c r="L359">
+        <v>3</v>
+      </c>
+      <c r="M359">
+        <v>2</v>
+      </c>
+      <c r="N359">
+        <v>5</v>
+      </c>
+      <c r="O359" t="s">
+        <v>354</v>
+      </c>
+      <c r="P359" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q359">
+        <v>2.4</v>
+      </c>
+      <c r="R359">
+        <v>2.5</v>
+      </c>
+      <c r="S359">
+        <v>3.75</v>
+      </c>
+      <c r="T359">
+        <v>1.22</v>
+      </c>
+      <c r="U359">
+        <v>4</v>
+      </c>
+      <c r="V359">
+        <v>2</v>
+      </c>
+      <c r="W359">
+        <v>1.73</v>
+      </c>
+      <c r="X359">
+        <v>4.5</v>
+      </c>
+      <c r="Y359">
+        <v>1.18</v>
+      </c>
+      <c r="Z359">
+        <v>1.9</v>
+      </c>
+      <c r="AA359">
+        <v>3.65</v>
+      </c>
+      <c r="AB359">
+        <v>3.5</v>
+      </c>
+      <c r="AC359">
+        <v>1.01</v>
+      </c>
+      <c r="AD359">
+        <v>23</v>
+      </c>
+      <c r="AE359">
+        <v>1.13</v>
+      </c>
+      <c r="AF359">
+        <v>6</v>
+      </c>
+      <c r="AG359">
+        <v>1.4</v>
+      </c>
+      <c r="AH359">
+        <v>2.75</v>
+      </c>
+      <c r="AI359">
+        <v>1.4</v>
+      </c>
+      <c r="AJ359">
+        <v>2.75</v>
+      </c>
+      <c r="AK359">
+        <v>1.32</v>
+      </c>
+      <c r="AL359">
+        <v>1.22</v>
+      </c>
+      <c r="AM359">
+        <v>1.88</v>
+      </c>
+      <c r="AN359">
+        <v>2</v>
+      </c>
+      <c r="AO359">
+        <v>1.46</v>
+      </c>
+      <c r="AP359">
+        <v>2.08</v>
+      </c>
+      <c r="AQ359">
+        <v>1.36</v>
+      </c>
+      <c r="AR359">
+        <v>1.63</v>
+      </c>
+      <c r="AS359">
+        <v>1.54</v>
+      </c>
+      <c r="AT359">
+        <v>3.17</v>
+      </c>
+      <c r="AU359">
+        <v>5</v>
+      </c>
+      <c r="AV359">
+        <v>5</v>
+      </c>
+      <c r="AW359">
+        <v>3</v>
+      </c>
+      <c r="AX359">
+        <v>6</v>
+      </c>
+      <c r="AY359">
+        <v>8</v>
+      </c>
+      <c r="AZ359">
+        <v>11</v>
+      </c>
+      <c r="BA359">
+        <v>4</v>
+      </c>
+      <c r="BB359">
+        <v>4</v>
+      </c>
+      <c r="BC359">
+        <v>8</v>
+      </c>
+      <c r="BD359">
+        <v>1.68</v>
+      </c>
+      <c r="BE359">
+        <v>6.4</v>
+      </c>
+      <c r="BF359">
+        <v>2.3</v>
+      </c>
+      <c r="BG359">
+        <v>1.26</v>
+      </c>
+      <c r="BH359">
+        <v>3.4</v>
+      </c>
+      <c r="BI359">
+        <v>1.44</v>
+      </c>
+      <c r="BJ359">
+        <v>2.55</v>
+      </c>
+      <c r="BK359">
+        <v>1.74</v>
+      </c>
+      <c r="BL359">
+        <v>1.96</v>
+      </c>
+      <c r="BM359">
+        <v>2.17</v>
+      </c>
+      <c r="BN359">
+        <v>1.6</v>
+      </c>
+      <c r="BO359">
+        <v>2.8</v>
+      </c>
+      <c r="BP359">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="360" spans="1:68">
+      <c r="A360" s="1">
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>7295599</v>
+      </c>
+      <c r="C360" t="s">
+        <v>68</v>
+      </c>
+      <c r="D360" t="s">
+        <v>69</v>
+      </c>
+      <c r="E360" s="2">
+        <v>45493.97916666666</v>
+      </c>
+      <c r="F360">
+        <v>0</v>
+      </c>
+      <c r="G360" t="s">
+        <v>92</v>
+      </c>
+      <c r="H360" t="s">
+        <v>72</v>
+      </c>
+      <c r="I360">
+        <v>0</v>
+      </c>
+      <c r="J360">
+        <v>2</v>
+      </c>
+      <c r="K360">
+        <v>2</v>
+      </c>
+      <c r="L360">
+        <v>0</v>
+      </c>
+      <c r="M360">
+        <v>3</v>
+      </c>
+      <c r="N360">
+        <v>3</v>
+      </c>
+      <c r="O360" t="s">
+        <v>104</v>
+      </c>
+      <c r="P360" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q360">
+        <v>3.1</v>
+      </c>
+      <c r="R360">
+        <v>2.25</v>
+      </c>
+      <c r="S360">
+        <v>3.1</v>
+      </c>
+      <c r="T360">
+        <v>1.33</v>
+      </c>
+      <c r="U360">
+        <v>3.25</v>
+      </c>
+      <c r="V360">
+        <v>2.63</v>
+      </c>
+      <c r="W360">
+        <v>1.44</v>
+      </c>
+      <c r="X360">
+        <v>6.5</v>
+      </c>
+      <c r="Y360">
+        <v>1.11</v>
+      </c>
+      <c r="Z360">
+        <v>2.45</v>
+      </c>
+      <c r="AA360">
+        <v>3.5</v>
+      </c>
+      <c r="AB360">
+        <v>2.5</v>
+      </c>
+      <c r="AC360">
+        <v>1.03</v>
+      </c>
+      <c r="AD360">
+        <v>15</v>
+      </c>
+      <c r="AE360">
+        <v>1.24</v>
+      </c>
+      <c r="AF360">
+        <v>4.2</v>
+      </c>
+      <c r="AG360">
+        <v>1.7</v>
+      </c>
+      <c r="AH360">
+        <v>2</v>
+      </c>
+      <c r="AI360">
+        <v>1.62</v>
+      </c>
+      <c r="AJ360">
+        <v>2.2</v>
+      </c>
+      <c r="AK360">
+        <v>1.52</v>
+      </c>
+      <c r="AL360">
+        <v>1.24</v>
+      </c>
+      <c r="AM360">
+        <v>1.53</v>
+      </c>
+      <c r="AN360">
+        <v>1.92</v>
+      </c>
+      <c r="AO360">
+        <v>1.4</v>
+      </c>
+      <c r="AP360">
+        <v>1.77</v>
+      </c>
+      <c r="AQ360">
+        <v>1.55</v>
+      </c>
+      <c r="AR360">
+        <v>1.61</v>
+      </c>
+      <c r="AS360">
+        <v>1.52</v>
+      </c>
+      <c r="AT360">
+        <v>3.13</v>
+      </c>
+      <c r="AU360">
+        <v>7</v>
+      </c>
+      <c r="AV360">
+        <v>6</v>
+      </c>
+      <c r="AW360">
+        <v>10</v>
+      </c>
+      <c r="AX360">
+        <v>2</v>
+      </c>
+      <c r="AY360">
+        <v>17</v>
+      </c>
+      <c r="AZ360">
+        <v>8</v>
+      </c>
+      <c r="BA360">
+        <v>6</v>
+      </c>
+      <c r="BB360">
+        <v>2</v>
+      </c>
+      <c r="BC360">
+        <v>8</v>
+      </c>
+      <c r="BD360">
+        <v>1.9</v>
+      </c>
+      <c r="BE360">
+        <v>6.1</v>
+      </c>
+      <c r="BF360">
+        <v>2</v>
+      </c>
+      <c r="BG360">
+        <v>1.35</v>
+      </c>
+      <c r="BH360">
+        <v>2.9</v>
+      </c>
+      <c r="BI360">
+        <v>1.61</v>
+      </c>
+      <c r="BJ360">
+        <v>2.15</v>
+      </c>
+      <c r="BK360">
+        <v>1.98</v>
+      </c>
+      <c r="BL360">
+        <v>1.72</v>
+      </c>
+      <c r="BM360">
+        <v>2.55</v>
+      </c>
+      <c r="BN360">
+        <v>1.44</v>
+      </c>
+      <c r="BO360">
+        <v>3.3</v>
+      </c>
+      <c r="BP360">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="361" spans="1:68">
+      <c r="A361" s="1">
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>7295586</v>
+      </c>
+      <c r="C361" t="s">
+        <v>68</v>
+      </c>
+      <c r="D361" t="s">
+        <v>69</v>
+      </c>
+      <c r="E361" s="2">
+        <v>45493.97916666666</v>
+      </c>
+      <c r="F361">
+        <v>0</v>
+      </c>
+      <c r="G361" t="s">
+        <v>87</v>
+      </c>
+      <c r="H361" t="s">
+        <v>79</v>
+      </c>
+      <c r="I361">
+        <v>0</v>
+      </c>
+      <c r="J361">
+        <v>2</v>
+      </c>
+      <c r="K361">
+        <v>2</v>
+      </c>
+      <c r="L361">
+        <v>3</v>
+      </c>
+      <c r="M361">
+        <v>4</v>
+      </c>
+      <c r="N361">
+        <v>7</v>
+      </c>
+      <c r="O361" t="s">
+        <v>355</v>
+      </c>
+      <c r="P361" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q361">
+        <v>2.5</v>
+      </c>
+      <c r="R361">
+        <v>2.5</v>
+      </c>
+      <c r="S361">
+        <v>3.75</v>
+      </c>
+      <c r="T361">
+        <v>1.25</v>
+      </c>
+      <c r="U361">
+        <v>3.75</v>
+      </c>
+      <c r="V361">
+        <v>2.1</v>
+      </c>
+      <c r="W361">
+        <v>1.67</v>
+      </c>
+      <c r="X361">
+        <v>5</v>
+      </c>
+      <c r="Y361">
+        <v>1.17</v>
+      </c>
+      <c r="Z361">
+        <v>1.95</v>
+      </c>
+      <c r="AA361">
+        <v>3.4</v>
+      </c>
+      <c r="AB361">
+        <v>3.5</v>
+      </c>
+      <c r="AC361">
+        <v>1.01</v>
+      </c>
+      <c r="AD361">
+        <v>21</v>
+      </c>
+      <c r="AE361">
+        <v>1.15</v>
+      </c>
+      <c r="AF361">
+        <v>5.5</v>
+      </c>
+      <c r="AG361">
+        <v>1.44</v>
+      </c>
+      <c r="AH361">
+        <v>2.6</v>
+      </c>
+      <c r="AI361">
+        <v>1.4</v>
+      </c>
+      <c r="AJ361">
+        <v>2.75</v>
+      </c>
+      <c r="AK361">
+        <v>1.33</v>
+      </c>
+      <c r="AL361">
+        <v>1.22</v>
+      </c>
+      <c r="AM361">
+        <v>1.83</v>
+      </c>
+      <c r="AN361">
+        <v>1.7</v>
+      </c>
+      <c r="AO361">
+        <v>1.42</v>
+      </c>
+      <c r="AP361">
+        <v>1.55</v>
+      </c>
+      <c r="AQ361">
+        <v>1.54</v>
+      </c>
+      <c r="AR361">
+        <v>1.56</v>
+      </c>
+      <c r="AS361">
+        <v>1.26</v>
+      </c>
+      <c r="AT361">
+        <v>2.82</v>
+      </c>
+      <c r="AU361">
+        <v>7</v>
+      </c>
+      <c r="AV361">
+        <v>8</v>
+      </c>
+      <c r="AW361">
+        <v>6</v>
+      </c>
+      <c r="AX361">
+        <v>5</v>
+      </c>
+      <c r="AY361">
+        <v>13</v>
+      </c>
+      <c r="AZ361">
+        <v>13</v>
+      </c>
+      <c r="BA361">
+        <v>4</v>
+      </c>
+      <c r="BB361">
+        <v>1</v>
+      </c>
+      <c r="BC361">
+        <v>5</v>
+      </c>
+      <c r="BD361">
+        <v>1.61</v>
+      </c>
+      <c r="BE361">
+        <v>6.4</v>
+      </c>
+      <c r="BF361">
+        <v>2.4</v>
+      </c>
+      <c r="BG361">
+        <v>1.26</v>
+      </c>
+      <c r="BH361">
+        <v>3.4</v>
+      </c>
+      <c r="BI361">
+        <v>1.46</v>
+      </c>
+      <c r="BJ361">
+        <v>2.5</v>
+      </c>
+      <c r="BK361">
+        <v>1.75</v>
+      </c>
+      <c r="BL361">
+        <v>1.95</v>
+      </c>
+      <c r="BM361">
+        <v>2.17</v>
+      </c>
+      <c r="BN361">
+        <v>1.6</v>
+      </c>
+      <c r="BO361">
+        <v>2.8</v>
+      </c>
+      <c r="BP361">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="362" spans="1:68">
+      <c r="A362" s="1">
+        <v>361</v>
+      </c>
+      <c r="B362">
+        <v>7295598</v>
+      </c>
+      <c r="C362" t="s">
+        <v>68</v>
+      </c>
+      <c r="D362" t="s">
+        <v>69</v>
+      </c>
+      <c r="E362" s="2">
+        <v>45493.98958333334</v>
+      </c>
+      <c r="F362">
+        <v>0</v>
+      </c>
+      <c r="G362" t="s">
+        <v>84</v>
+      </c>
+      <c r="H362" t="s">
+        <v>81</v>
+      </c>
+      <c r="I362">
+        <v>1</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="K362">
+        <v>1</v>
+      </c>
+      <c r="L362">
+        <v>3</v>
+      </c>
+      <c r="M362">
+        <v>2</v>
+      </c>
+      <c r="N362">
+        <v>5</v>
+      </c>
+      <c r="O362" t="s">
+        <v>356</v>
+      </c>
+      <c r="P362" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q362">
+        <v>2.2</v>
+      </c>
+      <c r="R362">
+        <v>2.75</v>
+      </c>
+      <c r="S362">
+        <v>4</v>
+      </c>
+      <c r="T362">
+        <v>1.2</v>
+      </c>
+      <c r="U362">
+        <v>4.33</v>
+      </c>
+      <c r="V362">
+        <v>1.91</v>
+      </c>
+      <c r="W362">
+        <v>1.8</v>
+      </c>
+      <c r="X362">
+        <v>4</v>
+      </c>
+      <c r="Y362">
+        <v>1.22</v>
+      </c>
+      <c r="Z362">
+        <v>1.65</v>
+      </c>
+      <c r="AA362">
+        <v>4.4</v>
+      </c>
+      <c r="AB362">
+        <v>3.9</v>
+      </c>
+      <c r="AC362">
+        <v>1.01</v>
+      </c>
+      <c r="AD362">
+        <v>29</v>
+      </c>
+      <c r="AE362">
+        <v>1.1</v>
+      </c>
+      <c r="AF362">
+        <v>7</v>
+      </c>
+      <c r="AG362">
+        <v>1.33</v>
+      </c>
+      <c r="AH362">
+        <v>3</v>
+      </c>
+      <c r="AI362">
+        <v>1.4</v>
+      </c>
+      <c r="AJ362">
+        <v>2.75</v>
+      </c>
+      <c r="AK362">
+        <v>1.22</v>
+      </c>
+      <c r="AL362">
+        <v>1.17</v>
+      </c>
+      <c r="AM362">
+        <v>2.25</v>
+      </c>
+      <c r="AN362">
+        <v>2.25</v>
+      </c>
+      <c r="AO362">
+        <v>1</v>
+      </c>
+      <c r="AP362">
+        <v>2.31</v>
+      </c>
+      <c r="AQ362">
+        <v>0.92</v>
+      </c>
+      <c r="AR362">
+        <v>1.67</v>
+      </c>
+      <c r="AS362">
+        <v>1.17</v>
+      </c>
+      <c r="AT362">
+        <v>2.84</v>
+      </c>
+      <c r="AU362">
+        <v>7</v>
+      </c>
+      <c r="AV362">
+        <v>5</v>
+      </c>
+      <c r="AW362">
+        <v>4</v>
+      </c>
+      <c r="AX362">
+        <v>6</v>
+      </c>
+      <c r="AY362">
+        <v>11</v>
+      </c>
+      <c r="AZ362">
+        <v>11</v>
+      </c>
+      <c r="BA362">
+        <v>4</v>
+      </c>
+      <c r="BB362">
+        <v>6</v>
+      </c>
+      <c r="BC362">
+        <v>10</v>
+      </c>
+      <c r="BD362">
+        <v>1.49</v>
+      </c>
+      <c r="BE362">
+        <v>6.75</v>
+      </c>
+      <c r="BF362">
+        <v>2.65</v>
+      </c>
+      <c r="BG362">
+        <v>1.25</v>
+      </c>
+      <c r="BH362">
+        <v>3.45</v>
+      </c>
+      <c r="BI362">
+        <v>1.44</v>
+      </c>
+      <c r="BJ362">
+        <v>2.55</v>
+      </c>
+      <c r="BK362">
+        <v>1.72</v>
+      </c>
+      <c r="BL362">
+        <v>1.98</v>
+      </c>
+      <c r="BM362">
+        <v>2.12</v>
+      </c>
+      <c r="BN362">
+        <v>1.63</v>
+      </c>
+      <c r="BO362">
+        <v>2.7</v>
+      </c>
+      <c r="BP362">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -76731,31 +76731,31 @@
         <v>2.81</v>
       </c>
       <c r="AU363">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV363">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW363">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AX363">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY363">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ363">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA363">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB363">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BC363">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD363">
         <v>1.85</v>
@@ -77143,31 +77143,31 @@
         <v>2.65</v>
       </c>
       <c r="AU365">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV365">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AW365">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX365">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY365">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ365">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BA365">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB365">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC365">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD365">
         <v>1.47</v>
@@ -77349,31 +77349,31 @@
         <v>2.53</v>
       </c>
       <c r="AU366">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV366">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW366">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX366">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY366">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ366">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BA366">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB366">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC366">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD366">
         <v>1.76</v>
@@ -77573,13 +77573,13 @@
         <v>-1</v>
       </c>
       <c r="BA367">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB367">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BC367">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD367">
         <v>1.73</v>
@@ -77761,31 +77761,31 @@
         <v>2.9</v>
       </c>
       <c r="AU368">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV368">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AW368">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX368">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY368">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AZ368">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BA368">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BB368">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BC368">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD368">
         <v>1.71</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="546">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -2013,7 +2013,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP374"/>
+  <dimension ref="A1:BP375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ8">
         <v>0.79</v>
@@ -5443,7 +5443,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ17">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -14507,7 +14507,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ61">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR61">
         <v>1.43</v>
@@ -16564,7 +16564,7 @@
         <v>3</v>
       </c>
       <c r="AP71">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ71">
         <v>1.17</v>
@@ -18421,7 +18421,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ80">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR80">
         <v>1.03</v>
@@ -24189,7 +24189,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ108">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR108">
         <v>1.42</v>
@@ -28512,7 +28512,7 @@
         <v>1.6</v>
       </c>
       <c r="AP129">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ129">
         <v>1.36</v>
@@ -30984,7 +30984,7 @@
         <v>0.2</v>
       </c>
       <c r="AP141">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ141">
         <v>1.31</v>
@@ -34898,7 +34898,7 @@
         <v>1</v>
       </c>
       <c r="AP160">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ160">
         <v>1.5</v>
@@ -37373,7 +37373,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ172">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR172">
         <v>1.44</v>
@@ -37782,7 +37782,7 @@
         <v>0.8</v>
       </c>
       <c r="AP174">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ174">
         <v>1</v>
@@ -41699,7 +41699,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ193">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR193">
         <v>1.39</v>
@@ -42935,7 +42935,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ199">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR199">
         <v>1.53</v>
@@ -45404,7 +45404,7 @@
         <v>1</v>
       </c>
       <c r="AP211">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ211">
         <v>1</v>
@@ -48288,7 +48288,7 @@
         <v>0.89</v>
       </c>
       <c r="AP225">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ225">
         <v>0.77</v>
@@ -51381,7 +51381,7 @@
         <v>2</v>
       </c>
       <c r="AQ240">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR240">
         <v>1.72</v>
@@ -51996,7 +51996,7 @@
         <v>2.13</v>
       </c>
       <c r="AP243">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ243">
         <v>2.17</v>
@@ -54883,7 +54883,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ257">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR257">
         <v>1.6</v>
@@ -57558,7 +57558,7 @@
         <v>0.88</v>
       </c>
       <c r="AP270">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ270">
         <v>1.15</v>
@@ -60651,7 +60651,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ285">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR285">
         <v>1.4</v>
@@ -66210,7 +66210,7 @@
         <v>1.18</v>
       </c>
       <c r="AP312">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ312">
         <v>1.14</v>
@@ -70539,7 +70539,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ333">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR333">
         <v>2.05</v>
@@ -71978,7 +71978,7 @@
         <v>1</v>
       </c>
       <c r="AP340">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ340">
         <v>1.09</v>
@@ -74038,7 +74038,7 @@
         <v>0.82</v>
       </c>
       <c r="AP350">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ350">
         <v>0.75</v>
@@ -74247,7 +74247,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ351">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR351">
         <v>1.64</v>
@@ -79061,6 +79061,212 @@
       </c>
       <c r="BP374">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="375" spans="1:68">
+      <c r="A375" s="1">
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <v>7295607</v>
+      </c>
+      <c r="C375" t="s">
+        <v>68</v>
+      </c>
+      <c r="D375" t="s">
+        <v>69</v>
+      </c>
+      <c r="E375" s="2">
+        <v>45532.85416666666</v>
+      </c>
+      <c r="F375">
+        <v>0</v>
+      </c>
+      <c r="G375" t="s">
+        <v>76</v>
+      </c>
+      <c r="H375" t="s">
+        <v>71</v>
+      </c>
+      <c r="I375">
+        <v>0</v>
+      </c>
+      <c r="J375">
+        <v>0</v>
+      </c>
+      <c r="K375">
+        <v>0</v>
+      </c>
+      <c r="L375">
+        <v>0</v>
+      </c>
+      <c r="M375">
+        <v>1</v>
+      </c>
+      <c r="N375">
+        <v>1</v>
+      </c>
+      <c r="O375" t="s">
+        <v>104</v>
+      </c>
+      <c r="P375" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q375">
+        <v>3.05</v>
+      </c>
+      <c r="R375">
+        <v>2.4</v>
+      </c>
+      <c r="S375">
+        <v>2.75</v>
+      </c>
+      <c r="T375">
+        <v>1.24</v>
+      </c>
+      <c r="U375">
+        <v>3.82</v>
+      </c>
+      <c r="V375">
+        <v>2.16</v>
+      </c>
+      <c r="W375">
+        <v>1.65</v>
+      </c>
+      <c r="X375">
+        <v>4.75</v>
+      </c>
+      <c r="Y375">
+        <v>1.17</v>
+      </c>
+      <c r="Z375">
+        <v>2.6</v>
+      </c>
+      <c r="AA375">
+        <v>3.75</v>
+      </c>
+      <c r="AB375">
+        <v>2.4</v>
+      </c>
+      <c r="AC375">
+        <v>1.02</v>
+      </c>
+      <c r="AD375">
+        <v>21.5</v>
+      </c>
+      <c r="AE375">
+        <v>1.11</v>
+      </c>
+      <c r="AF375">
+        <v>5.2</v>
+      </c>
+      <c r="AG375">
+        <v>1.5</v>
+      </c>
+      <c r="AH375">
+        <v>2.4</v>
+      </c>
+      <c r="AI375">
+        <v>1.45</v>
+      </c>
+      <c r="AJ375">
+        <v>2.7</v>
+      </c>
+      <c r="AK375">
+        <v>1.58</v>
+      </c>
+      <c r="AL375">
+        <v>1.28</v>
+      </c>
+      <c r="AM375">
+        <v>1.48</v>
+      </c>
+      <c r="AN375">
+        <v>1</v>
+      </c>
+      <c r="AO375">
+        <v>1.75</v>
+      </c>
+      <c r="AP375">
+        <v>0.93</v>
+      </c>
+      <c r="AQ375">
+        <v>1.85</v>
+      </c>
+      <c r="AR375">
+        <v>1.74</v>
+      </c>
+      <c r="AS375">
+        <v>1.42</v>
+      </c>
+      <c r="AT375">
+        <v>3.16</v>
+      </c>
+      <c r="AU375">
+        <v>3</v>
+      </c>
+      <c r="AV375">
+        <v>7</v>
+      </c>
+      <c r="AW375">
+        <v>5</v>
+      </c>
+      <c r="AX375">
+        <v>1</v>
+      </c>
+      <c r="AY375">
+        <v>8</v>
+      </c>
+      <c r="AZ375">
+        <v>8</v>
+      </c>
+      <c r="BA375">
+        <v>8</v>
+      </c>
+      <c r="BB375">
+        <v>6</v>
+      </c>
+      <c r="BC375">
+        <v>14</v>
+      </c>
+      <c r="BD375">
+        <v>1.9</v>
+      </c>
+      <c r="BE375">
+        <v>6.25</v>
+      </c>
+      <c r="BF375">
+        <v>1.98</v>
+      </c>
+      <c r="BG375">
+        <v>1.3</v>
+      </c>
+      <c r="BH375">
+        <v>3.05</v>
+      </c>
+      <c r="BI375">
+        <v>1.53</v>
+      </c>
+      <c r="BJ375">
+        <v>2.3</v>
+      </c>
+      <c r="BK375">
+        <v>1.95</v>
+      </c>
+      <c r="BL375">
+        <v>1.77</v>
+      </c>
+      <c r="BM375">
+        <v>2.33</v>
+      </c>
+      <c r="BN375">
+        <v>1.5</v>
+      </c>
+      <c r="BO375">
+        <v>3.05</v>
+      </c>
+      <c r="BP375">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -80911,10 +80911,10 @@
         <v>7</v>
       </c>
       <c r="BB383">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC383">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD383">
         <v>1.75</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -82571,10 +82571,10 @@
         <v>5</v>
       </c>
       <c r="BB391">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC391">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD391">
         <v>1.49</v>
@@ -83392,13 +83392,13 @@
         <v>6</v>
       </c>
       <c r="BA395">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB395">
         <v>1</v>
       </c>
       <c r="BC395">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD395">
         <v>1.53</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2516" uniqueCount="578">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1168,6 +1168,9 @@
     <t>['53', '55', '67', '86']</t>
   </si>
   <si>
+    <t>['19', '40']</t>
+  </si>
+  <si>
     <t>['39', '82']</t>
   </si>
   <si>
@@ -2106,7 +2109,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP408"/>
+  <dimension ref="A1:BP409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3601,7 +3604,7 @@
         <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -3807,7 +3810,7 @@
         <v>106</v>
       </c>
       <c r="P9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -4013,7 +4016,7 @@
         <v>107</v>
       </c>
       <c r="P10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -4300,7 +4303,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -6279,7 +6282,7 @@
         <v>116</v>
       </c>
       <c r="P21" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -6485,7 +6488,7 @@
         <v>117</v>
       </c>
       <c r="P22" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -6691,7 +6694,7 @@
         <v>118</v>
       </c>
       <c r="P23" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -7309,7 +7312,7 @@
         <v>121</v>
       </c>
       <c r="P26" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -7515,7 +7518,7 @@
         <v>122</v>
       </c>
       <c r="P27" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -7721,7 +7724,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -8005,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ29">
         <v>0.86</v>
@@ -8339,7 +8342,7 @@
         <v>123</v>
       </c>
       <c r="P31" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q31">
         <v>2.37</v>
@@ -8751,7 +8754,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -9369,7 +9372,7 @@
         <v>128</v>
       </c>
       <c r="P36" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -9575,7 +9578,7 @@
         <v>129</v>
       </c>
       <c r="P37" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -9781,7 +9784,7 @@
         <v>130</v>
       </c>
       <c r="P38" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -10068,7 +10071,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ39">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR39">
         <v>1.7</v>
@@ -10193,7 +10196,7 @@
         <v>104</v>
       </c>
       <c r="P40" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -10399,7 +10402,7 @@
         <v>131</v>
       </c>
       <c r="P41" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -10811,7 +10814,7 @@
         <v>132</v>
       </c>
       <c r="P43" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q43">
         <v>2.05</v>
@@ -11017,7 +11020,7 @@
         <v>133</v>
       </c>
       <c r="P44" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -11223,7 +11226,7 @@
         <v>134</v>
       </c>
       <c r="P45" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -11507,7 +11510,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ46">
         <v>1.21</v>
@@ -12047,7 +12050,7 @@
         <v>138</v>
       </c>
       <c r="P49" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -12253,7 +12256,7 @@
         <v>139</v>
       </c>
       <c r="P50" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -13283,7 +13286,7 @@
         <v>144</v>
       </c>
       <c r="P55" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -13489,7 +13492,7 @@
         <v>145</v>
       </c>
       <c r="P56" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -14313,7 +14316,7 @@
         <v>149</v>
       </c>
       <c r="P60" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -15343,7 +15346,7 @@
         <v>154</v>
       </c>
       <c r="P65" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -15549,7 +15552,7 @@
         <v>155</v>
       </c>
       <c r="P66" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -15755,7 +15758,7 @@
         <v>104</v>
       </c>
       <c r="P67" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15961,7 +15964,7 @@
         <v>156</v>
       </c>
       <c r="P68" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -16373,7 +16376,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -16785,7 +16788,7 @@
         <v>159</v>
       </c>
       <c r="P72" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -17609,7 +17612,7 @@
         <v>162</v>
       </c>
       <c r="P76" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q76">
         <v>3.1</v>
@@ -17815,7 +17818,7 @@
         <v>163</v>
       </c>
       <c r="P77" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17896,7 +17899,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ77">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR77">
         <v>1.72</v>
@@ -18433,7 +18436,7 @@
         <v>166</v>
       </c>
       <c r="P80" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -18845,7 +18848,7 @@
         <v>168</v>
       </c>
       <c r="P82" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -19875,7 +19878,7 @@
         <v>172</v>
       </c>
       <c r="P87" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q87">
         <v>2.2</v>
@@ -20081,7 +20084,7 @@
         <v>173</v>
       </c>
       <c r="P88" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -20699,7 +20702,7 @@
         <v>176</v>
       </c>
       <c r="P91" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -20905,7 +20908,7 @@
         <v>177</v>
       </c>
       <c r="P92" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q92">
         <v>2.88</v>
@@ -21317,7 +21320,7 @@
         <v>179</v>
       </c>
       <c r="P94" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q94">
         <v>2.75</v>
@@ -21523,7 +21526,7 @@
         <v>180</v>
       </c>
       <c r="P95" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q95">
         <v>3.1</v>
@@ -22013,7 +22016,7 @@
         <v>1.4</v>
       </c>
       <c r="AP97">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ97">
         <v>0.71</v>
@@ -22141,7 +22144,7 @@
         <v>182</v>
       </c>
       <c r="P98" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -22347,7 +22350,7 @@
         <v>183</v>
       </c>
       <c r="P99" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -22965,7 +22968,7 @@
         <v>185</v>
       </c>
       <c r="P102" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q102">
         <v>3.1</v>
@@ -23171,7 +23174,7 @@
         <v>186</v>
       </c>
       <c r="P103" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q103">
         <v>2.3</v>
@@ -23377,7 +23380,7 @@
         <v>187</v>
       </c>
       <c r="P104" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -23789,7 +23792,7 @@
         <v>188</v>
       </c>
       <c r="P106" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23995,7 +23998,7 @@
         <v>189</v>
       </c>
       <c r="P107" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q107">
         <v>2.75</v>
@@ -24407,7 +24410,7 @@
         <v>190</v>
       </c>
       <c r="P109" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q109">
         <v>2.6</v>
@@ -24613,7 +24616,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q110">
         <v>2.88</v>
@@ -24819,7 +24822,7 @@
         <v>191</v>
       </c>
       <c r="P111" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -25231,7 +25234,7 @@
         <v>142</v>
       </c>
       <c r="P113" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -25437,7 +25440,7 @@
         <v>192</v>
       </c>
       <c r="P114" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q114">
         <v>1.91</v>
@@ -25643,7 +25646,7 @@
         <v>193</v>
       </c>
       <c r="P115" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q115">
         <v>2.1</v>
@@ -26055,7 +26058,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -26467,7 +26470,7 @@
         <v>104</v>
       </c>
       <c r="P119" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q119">
         <v>2.88</v>
@@ -26879,7 +26882,7 @@
         <v>196</v>
       </c>
       <c r="P121" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q121">
         <v>2.3</v>
@@ -27291,7 +27294,7 @@
         <v>198</v>
       </c>
       <c r="P123" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q123">
         <v>2.5</v>
@@ -27497,7 +27500,7 @@
         <v>104</v>
       </c>
       <c r="P124" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -27575,7 +27578,7 @@
         <v>3</v>
       </c>
       <c r="AP124">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ124">
         <v>1.71</v>
@@ -27703,7 +27706,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q125">
         <v>2.6</v>
@@ -27909,7 +27912,7 @@
         <v>199</v>
       </c>
       <c r="P126" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q126">
         <v>2.05</v>
@@ -28321,7 +28324,7 @@
         <v>201</v>
       </c>
       <c r="P128" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -28527,7 +28530,7 @@
         <v>202</v>
       </c>
       <c r="P129" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q129">
         <v>2.5</v>
@@ -29763,7 +29766,7 @@
         <v>206</v>
       </c>
       <c r="P135" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -30050,7 +30053,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ136">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR136">
         <v>1.75</v>
@@ -30587,7 +30590,7 @@
         <v>119</v>
       </c>
       <c r="P139" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -30793,7 +30796,7 @@
         <v>209</v>
       </c>
       <c r="P140" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -30999,7 +31002,7 @@
         <v>210</v>
       </c>
       <c r="P141" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -31205,7 +31208,7 @@
         <v>211</v>
       </c>
       <c r="P142" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -31617,7 +31620,7 @@
         <v>213</v>
       </c>
       <c r="P144" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q144">
         <v>2.88</v>
@@ -31823,7 +31826,7 @@
         <v>214</v>
       </c>
       <c r="P145" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q145">
         <v>2.38</v>
@@ -33346,7 +33349,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ152">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR152">
         <v>1.48</v>
@@ -33677,7 +33680,7 @@
         <v>104</v>
       </c>
       <c r="P154" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q154">
         <v>2.4</v>
@@ -33961,7 +33964,7 @@
         <v>1.67</v>
       </c>
       <c r="AP155">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ155">
         <v>1.36</v>
@@ -34089,7 +34092,7 @@
         <v>219</v>
       </c>
       <c r="P156" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -34501,7 +34504,7 @@
         <v>221</v>
       </c>
       <c r="P158" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -34707,7 +34710,7 @@
         <v>222</v>
       </c>
       <c r="P159" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q159">
         <v>2.1</v>
@@ -34913,7 +34916,7 @@
         <v>223</v>
       </c>
       <c r="P160" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q160">
         <v>2.5</v>
@@ -35119,7 +35122,7 @@
         <v>224</v>
       </c>
       <c r="P161" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q161">
         <v>3.4</v>
@@ -35325,7 +35328,7 @@
         <v>162</v>
       </c>
       <c r="P162" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -35737,7 +35740,7 @@
         <v>226</v>
       </c>
       <c r="P164" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q164">
         <v>2.75</v>
@@ -35943,7 +35946,7 @@
         <v>227</v>
       </c>
       <c r="P165" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q165">
         <v>2.3</v>
@@ -36149,7 +36152,7 @@
         <v>228</v>
       </c>
       <c r="P166" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q166">
         <v>2.3</v>
@@ -36355,7 +36358,7 @@
         <v>229</v>
       </c>
       <c r="P167" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q167">
         <v>2.5</v>
@@ -36767,7 +36770,7 @@
         <v>231</v>
       </c>
       <c r="P169" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q169">
         <v>3.2</v>
@@ -37179,7 +37182,7 @@
         <v>232</v>
       </c>
       <c r="P171" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q171">
         <v>3.1</v>
@@ -37385,7 +37388,7 @@
         <v>233</v>
       </c>
       <c r="P172" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -37797,7 +37800,7 @@
         <v>121</v>
       </c>
       <c r="P174" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q174">
         <v>2.5</v>
@@ -38209,7 +38212,7 @@
         <v>104</v>
       </c>
       <c r="P176" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q176">
         <v>2.75</v>
@@ -38415,7 +38418,7 @@
         <v>234</v>
       </c>
       <c r="P177" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q177">
         <v>2.63</v>
@@ -38827,7 +38830,7 @@
         <v>104</v>
       </c>
       <c r="P179" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q179">
         <v>3.1</v>
@@ -39445,7 +39448,7 @@
         <v>237</v>
       </c>
       <c r="P182" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q182">
         <v>2.3</v>
@@ -40269,7 +40272,7 @@
         <v>104</v>
       </c>
       <c r="P186" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q186">
         <v>3.2</v>
@@ -41093,7 +41096,7 @@
         <v>241</v>
       </c>
       <c r="P190" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q190">
         <v>2.25</v>
@@ -41505,7 +41508,7 @@
         <v>243</v>
       </c>
       <c r="P192" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q192">
         <v>2.63</v>
@@ -41586,7 +41589,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ192">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR192">
         <v>1.28</v>
@@ -41711,7 +41714,7 @@
         <v>244</v>
       </c>
       <c r="P193" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -41917,7 +41920,7 @@
         <v>245</v>
       </c>
       <c r="P194" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q194">
         <v>2.3</v>
@@ -42407,7 +42410,7 @@
         <v>1.67</v>
       </c>
       <c r="AP196">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ196">
         <v>1.71</v>
@@ -42741,7 +42744,7 @@
         <v>246</v>
       </c>
       <c r="P198" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q198">
         <v>3.3</v>
@@ -42947,7 +42950,7 @@
         <v>104</v>
       </c>
       <c r="P199" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Q199">
         <v>2.51</v>
@@ -43359,7 +43362,7 @@
         <v>104</v>
       </c>
       <c r="P201" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q201">
         <v>2.88</v>
@@ -43771,7 +43774,7 @@
         <v>247</v>
       </c>
       <c r="P203" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q203">
         <v>2.16</v>
@@ -43977,7 +43980,7 @@
         <v>248</v>
       </c>
       <c r="P204" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Q204">
         <v>3.4</v>
@@ -44183,7 +44186,7 @@
         <v>211</v>
       </c>
       <c r="P205" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q205">
         <v>2.88</v>
@@ -44389,7 +44392,7 @@
         <v>249</v>
       </c>
       <c r="P206" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q206">
         <v>2.5</v>
@@ -44595,7 +44598,7 @@
         <v>250</v>
       </c>
       <c r="P207" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Q207">
         <v>3</v>
@@ -44801,7 +44804,7 @@
         <v>251</v>
       </c>
       <c r="P208" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Q208">
         <v>2.38</v>
@@ -45088,7 +45091,7 @@
         <v>2</v>
       </c>
       <c r="AQ209">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR209">
         <v>1.48</v>
@@ -45625,7 +45628,7 @@
         <v>253</v>
       </c>
       <c r="P212" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q212">
         <v>2.2</v>
@@ -45831,7 +45834,7 @@
         <v>254</v>
       </c>
       <c r="P213" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Q213">
         <v>3</v>
@@ -46037,7 +46040,7 @@
         <v>104</v>
       </c>
       <c r="P214" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Q214">
         <v>2.4</v>
@@ -46243,7 +46246,7 @@
         <v>145</v>
       </c>
       <c r="P215" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q215">
         <v>2.05</v>
@@ -46449,7 +46452,7 @@
         <v>104</v>
       </c>
       <c r="P216" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q216">
         <v>2.5</v>
@@ -47067,7 +47070,7 @@
         <v>256</v>
       </c>
       <c r="P219" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q219">
         <v>2.75</v>
@@ -47479,7 +47482,7 @@
         <v>258</v>
       </c>
       <c r="P221" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q221">
         <v>2.6</v>
@@ -47557,7 +47560,7 @@
         <v>1.63</v>
       </c>
       <c r="AP221">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ221">
         <v>1.27</v>
@@ -47891,7 +47894,7 @@
         <v>260</v>
       </c>
       <c r="P223" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q223">
         <v>2.2</v>
@@ -48303,7 +48306,7 @@
         <v>138</v>
       </c>
       <c r="P225" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Q225">
         <v>1.91</v>
@@ -48509,7 +48512,7 @@
         <v>262</v>
       </c>
       <c r="P226" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Q226">
         <v>1.83</v>
@@ -48715,7 +48718,7 @@
         <v>263</v>
       </c>
       <c r="P227" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q227">
         <v>2.38</v>
@@ -49208,7 +49211,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ229">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR229">
         <v>1.8</v>
@@ -49333,7 +49336,7 @@
         <v>124</v>
       </c>
       <c r="P230" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Q230">
         <v>2.3</v>
@@ -50157,7 +50160,7 @@
         <v>269</v>
       </c>
       <c r="P234" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Q234">
         <v>2.75</v>
@@ -50363,7 +50366,7 @@
         <v>270</v>
       </c>
       <c r="P235" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Q235">
         <v>2.75</v>
@@ -51187,7 +51190,7 @@
         <v>272</v>
       </c>
       <c r="P239" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q239">
         <v>3.4</v>
@@ -51393,7 +51396,7 @@
         <v>273</v>
       </c>
       <c r="P240" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Q240">
         <v>2.75</v>
@@ -51805,7 +51808,7 @@
         <v>274</v>
       </c>
       <c r="P242" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Q242">
         <v>2.4</v>
@@ -52011,7 +52014,7 @@
         <v>173</v>
       </c>
       <c r="P243" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Q243">
         <v>2.38</v>
@@ -52217,7 +52220,7 @@
         <v>275</v>
       </c>
       <c r="P244" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Q244">
         <v>3</v>
@@ -52423,7 +52426,7 @@
         <v>258</v>
       </c>
       <c r="P245" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Q245">
         <v>3.1</v>
@@ -52835,7 +52838,7 @@
         <v>277</v>
       </c>
       <c r="P247" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Q247">
         <v>2.63</v>
@@ -53659,7 +53662,7 @@
         <v>280</v>
       </c>
       <c r="P251" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Q251">
         <v>2.1</v>
@@ -53740,7 +53743,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ251">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR251">
         <v>1.78</v>
@@ -53865,7 +53868,7 @@
         <v>281</v>
       </c>
       <c r="P252" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Q252">
         <v>3.25</v>
@@ -54149,7 +54152,7 @@
         <v>1.86</v>
       </c>
       <c r="AP253">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ253">
         <v>1.43</v>
@@ -54277,7 +54280,7 @@
         <v>283</v>
       </c>
       <c r="P254" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Q254">
         <v>2.88</v>
@@ -54483,7 +54486,7 @@
         <v>284</v>
       </c>
       <c r="P255" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Q255">
         <v>3.5</v>
@@ -54689,7 +54692,7 @@
         <v>285</v>
       </c>
       <c r="P256" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Q256">
         <v>2.75</v>
@@ -55307,7 +55310,7 @@
         <v>287</v>
       </c>
       <c r="P259" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Q259">
         <v>2.38</v>
@@ -55513,7 +55516,7 @@
         <v>119</v>
       </c>
       <c r="P260" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q260">
         <v>4</v>
@@ -55719,7 +55722,7 @@
         <v>288</v>
       </c>
       <c r="P261" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Q261">
         <v>3.1</v>
@@ -55925,7 +55928,7 @@
         <v>289</v>
       </c>
       <c r="P262" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -56131,7 +56134,7 @@
         <v>290</v>
       </c>
       <c r="P263" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Q263">
         <v>3.25</v>
@@ -56337,7 +56340,7 @@
         <v>104</v>
       </c>
       <c r="P264" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Q264">
         <v>2.5</v>
@@ -56749,7 +56752,7 @@
         <v>202</v>
       </c>
       <c r="P266" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Q266">
         <v>2.5</v>
@@ -57161,7 +57164,7 @@
         <v>293</v>
       </c>
       <c r="P268" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Q268">
         <v>2.38</v>
@@ -57367,7 +57370,7 @@
         <v>261</v>
       </c>
       <c r="P269" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Q269">
         <v>3</v>
@@ -57573,7 +57576,7 @@
         <v>104</v>
       </c>
       <c r="P270" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="Q270">
         <v>2.5</v>
@@ -57779,7 +57782,7 @@
         <v>232</v>
       </c>
       <c r="P271" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Q271">
         <v>2</v>
@@ -58066,7 +58069,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ272">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR272">
         <v>1.68</v>
@@ -58603,7 +58606,7 @@
         <v>202</v>
       </c>
       <c r="P275" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Q275">
         <v>2.63</v>
@@ -58809,7 +58812,7 @@
         <v>296</v>
       </c>
       <c r="P276" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q276">
         <v>2.1</v>
@@ -59221,7 +59224,7 @@
         <v>297</v>
       </c>
       <c r="P278" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Q278">
         <v>1.73</v>
@@ -59633,7 +59636,7 @@
         <v>299</v>
       </c>
       <c r="P280" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Q280">
         <v>2.25</v>
@@ -59711,7 +59714,7 @@
         <v>0.33</v>
       </c>
       <c r="AP280">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ280">
         <v>0.57</v>
@@ -59839,7 +59842,7 @@
         <v>300</v>
       </c>
       <c r="P281" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Q281">
         <v>2.4</v>
@@ -60045,7 +60048,7 @@
         <v>301</v>
       </c>
       <c r="P282" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Q282">
         <v>1.95</v>
@@ -60251,7 +60254,7 @@
         <v>302</v>
       </c>
       <c r="P283" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Q283">
         <v>3</v>
@@ -60457,7 +60460,7 @@
         <v>303</v>
       </c>
       <c r="P284" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q284">
         <v>2.15</v>
@@ -60663,7 +60666,7 @@
         <v>271</v>
       </c>
       <c r="P285" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Q285">
         <v>3.4</v>
@@ -61487,7 +61490,7 @@
         <v>306</v>
       </c>
       <c r="P289" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Q289">
         <v>2.38</v>
@@ -61693,7 +61696,7 @@
         <v>307</v>
       </c>
       <c r="P290" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Q290">
         <v>2.32</v>
@@ -62105,7 +62108,7 @@
         <v>309</v>
       </c>
       <c r="P292" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Q292">
         <v>2.25</v>
@@ -62311,7 +62314,7 @@
         <v>104</v>
       </c>
       <c r="P293" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Q293">
         <v>3</v>
@@ -62595,7 +62598,7 @@
         <v>0.78</v>
       </c>
       <c r="AP294">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ294">
         <v>0.79</v>
@@ -62929,7 +62932,7 @@
         <v>311</v>
       </c>
       <c r="P296" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Q296">
         <v>3.2</v>
@@ -63135,7 +63138,7 @@
         <v>304</v>
       </c>
       <c r="P297" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="Q297">
         <v>2.88</v>
@@ -63341,7 +63344,7 @@
         <v>312</v>
       </c>
       <c r="P298" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Q298">
         <v>2.75</v>
@@ -63547,7 +63550,7 @@
         <v>313</v>
       </c>
       <c r="P299" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q299">
         <v>2.75</v>
@@ -63753,7 +63756,7 @@
         <v>314</v>
       </c>
       <c r="P300" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Q300">
         <v>2.88</v>
@@ -64165,7 +64168,7 @@
         <v>316</v>
       </c>
       <c r="P302" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="Q302">
         <v>2.88</v>
@@ -64577,7 +64580,7 @@
         <v>318</v>
       </c>
       <c r="P304" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="Q304">
         <v>2.3</v>
@@ -64783,7 +64786,7 @@
         <v>319</v>
       </c>
       <c r="P305" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Q305">
         <v>2.63</v>
@@ -64989,7 +64992,7 @@
         <v>320</v>
       </c>
       <c r="P306" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="Q306">
         <v>2.1</v>
@@ -65070,7 +65073,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ306">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR306">
         <v>1.67</v>
@@ -65195,7 +65198,7 @@
         <v>204</v>
       </c>
       <c r="P307" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="Q307">
         <v>3.1</v>
@@ -65401,7 +65404,7 @@
         <v>321</v>
       </c>
       <c r="P308" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q308">
         <v>2.25</v>
@@ -65813,7 +65816,7 @@
         <v>109</v>
       </c>
       <c r="P310" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q310">
         <v>2.7</v>
@@ -66431,7 +66434,7 @@
         <v>324</v>
       </c>
       <c r="P313" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Q313">
         <v>2.05</v>
@@ -66921,7 +66924,7 @@
         <v>1.13</v>
       </c>
       <c r="AP315">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ315">
         <v>0.92</v>
@@ -67461,7 +67464,7 @@
         <v>329</v>
       </c>
       <c r="P318" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q318">
         <v>2.25</v>
@@ -68079,7 +68082,7 @@
         <v>332</v>
       </c>
       <c r="P321" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="Q321">
         <v>2.63</v>
@@ -68285,7 +68288,7 @@
         <v>295</v>
       </c>
       <c r="P322" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="Q322">
         <v>2.88</v>
@@ -68491,7 +68494,7 @@
         <v>117</v>
       </c>
       <c r="P323" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Q323">
         <v>2.25</v>
@@ -69109,7 +69112,7 @@
         <v>104</v>
       </c>
       <c r="P326" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q326">
         <v>3.1</v>
@@ -69727,7 +69730,7 @@
         <v>100</v>
       </c>
       <c r="P329" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Q329">
         <v>2.6</v>
@@ -70551,7 +70554,7 @@
         <v>244</v>
       </c>
       <c r="P333" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="Q333">
         <v>2.5</v>
@@ -70757,7 +70760,7 @@
         <v>211</v>
       </c>
       <c r="P334" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Q334">
         <v>2.6</v>
@@ -70838,7 +70841,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ334">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR334">
         <v>1.55</v>
@@ -71375,7 +71378,7 @@
         <v>339</v>
       </c>
       <c r="P337" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q337">
         <v>2</v>
@@ -71787,7 +71790,7 @@
         <v>341</v>
       </c>
       <c r="P339" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="Q339">
         <v>2</v>
@@ -72199,7 +72202,7 @@
         <v>343</v>
       </c>
       <c r="P341" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="Q341">
         <v>2.38</v>
@@ -72405,7 +72408,7 @@
         <v>344</v>
       </c>
       <c r="P342" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="Q342">
         <v>2.63</v>
@@ -72611,7 +72614,7 @@
         <v>104</v>
       </c>
       <c r="P343" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Q343">
         <v>2.88</v>
@@ -72898,7 +72901,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ344">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR344">
         <v>1.55</v>
@@ -73101,7 +73104,7 @@
         <v>0.5</v>
       </c>
       <c r="AP345">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ345">
         <v>0.57</v>
@@ -73435,7 +73438,7 @@
         <v>347</v>
       </c>
       <c r="P347" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="Q347">
         <v>2.3</v>
@@ -74259,7 +74262,7 @@
         <v>350</v>
       </c>
       <c r="P351" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="Q351">
         <v>3.1</v>
@@ -75701,7 +75704,7 @@
         <v>353</v>
       </c>
       <c r="P358" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="Q358">
         <v>2.75</v>
@@ -75907,7 +75910,7 @@
         <v>354</v>
       </c>
       <c r="P359" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Q359">
         <v>2.4</v>
@@ -76113,7 +76116,7 @@
         <v>104</v>
       </c>
       <c r="P360" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Q360">
         <v>3.1</v>
@@ -76191,7 +76194,7 @@
         <v>1.4</v>
       </c>
       <c r="AP360">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ360">
         <v>1.38</v>
@@ -76319,7 +76322,7 @@
         <v>355</v>
       </c>
       <c r="P361" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Q361">
         <v>2.5</v>
@@ -76525,7 +76528,7 @@
         <v>356</v>
       </c>
       <c r="P362" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Q362">
         <v>2.2</v>
@@ -76731,7 +76734,7 @@
         <v>357</v>
       </c>
       <c r="P363" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Q363">
         <v>3.1</v>
@@ -76937,7 +76940,7 @@
         <v>358</v>
       </c>
       <c r="P364" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="Q364">
         <v>2.25</v>
@@ -77143,7 +77146,7 @@
         <v>359</v>
       </c>
       <c r="P365" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="Q365">
         <v>2.38</v>
@@ -77349,7 +77352,7 @@
         <v>104</v>
       </c>
       <c r="P366" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="Q366">
         <v>2.5</v>
@@ -78379,7 +78382,7 @@
         <v>104</v>
       </c>
       <c r="P371" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="Q371">
         <v>2.75</v>
@@ -78585,7 +78588,7 @@
         <v>104</v>
       </c>
       <c r="P372" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="Q372">
         <v>1.83</v>
@@ -78997,7 +79000,7 @@
         <v>364</v>
       </c>
       <c r="P374" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Q374">
         <v>2.1</v>
@@ -79615,7 +79618,7 @@
         <v>211</v>
       </c>
       <c r="P377" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="Q377">
         <v>2.6</v>
@@ -79821,7 +79824,7 @@
         <v>104</v>
       </c>
       <c r="P378" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Q378">
         <v>2.25</v>
@@ -80027,7 +80030,7 @@
         <v>366</v>
       </c>
       <c r="P379" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="Q379">
         <v>2.25</v>
@@ -80851,7 +80854,7 @@
         <v>211</v>
       </c>
       <c r="P383" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="Q383">
         <v>3</v>
@@ -81057,7 +81060,7 @@
         <v>368</v>
       </c>
       <c r="P384" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="Q384">
         <v>2.88</v>
@@ -81469,7 +81472,7 @@
         <v>149</v>
       </c>
       <c r="P386" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="Q386">
         <v>2.63</v>
@@ -81675,7 +81678,7 @@
         <v>104</v>
       </c>
       <c r="P387" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="Q387">
         <v>2.2</v>
@@ -82087,7 +82090,7 @@
         <v>371</v>
       </c>
       <c r="P389" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q389">
         <v>3</v>
@@ -82374,7 +82377,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ390">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR390">
         <v>1.69</v>
@@ -82499,7 +82502,7 @@
         <v>104</v>
       </c>
       <c r="P391" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="Q391">
         <v>2.4</v>
@@ -82705,7 +82708,7 @@
         <v>372</v>
       </c>
       <c r="P392" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Q392">
         <v>2.63</v>
@@ -82911,7 +82914,7 @@
         <v>373</v>
       </c>
       <c r="P393" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="Q393">
         <v>2.6</v>
@@ -83529,7 +83532,7 @@
         <v>374</v>
       </c>
       <c r="P396" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q396">
         <v>2</v>
@@ -84052,13 +84055,13 @@
         <v>16</v>
       </c>
       <c r="BA398">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB398">
         <v>6</v>
       </c>
       <c r="BC398">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD398">
         <v>1.58</v>
@@ -84147,7 +84150,7 @@
         <v>377</v>
       </c>
       <c r="P399" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="Q399">
         <v>3.2</v>
@@ -84353,7 +84356,7 @@
         <v>378</v>
       </c>
       <c r="P400" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="Q400">
         <v>3</v>
@@ -84464,13 +84467,13 @@
         <v>7</v>
       </c>
       <c r="BA400">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB400">
         <v>3</v>
       </c>
       <c r="BC400">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD400">
         <v>1.7</v>
@@ -84559,7 +84562,7 @@
         <v>104</v>
       </c>
       <c r="P401" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Q401">
         <v>2.25</v>
@@ -85383,7 +85386,7 @@
         <v>169</v>
       </c>
       <c r="P405" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Q405">
         <v>2.6</v>
@@ -85589,7 +85592,7 @@
         <v>381</v>
       </c>
       <c r="P406" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q406">
         <v>2.5</v>
@@ -86001,7 +86004,7 @@
         <v>383</v>
       </c>
       <c r="P408" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Q408">
         <v>2.88</v>
@@ -86158,6 +86161,212 @@
       </c>
       <c r="BP408">
         <v>1.61</v>
+      </c>
+    </row>
+    <row r="409" spans="1:68">
+      <c r="A409" s="1">
+        <v>408</v>
+      </c>
+      <c r="B409">
+        <v>7295645</v>
+      </c>
+      <c r="C409" t="s">
+        <v>68</v>
+      </c>
+      <c r="D409" t="s">
+        <v>69</v>
+      </c>
+      <c r="E409" s="2">
+        <v>45550.84375</v>
+      </c>
+      <c r="F409">
+        <v>0</v>
+      </c>
+      <c r="G409" t="s">
+        <v>92</v>
+      </c>
+      <c r="H409" t="s">
+        <v>89</v>
+      </c>
+      <c r="I409">
+        <v>2</v>
+      </c>
+      <c r="J409">
+        <v>0</v>
+      </c>
+      <c r="K409">
+        <v>2</v>
+      </c>
+      <c r="L409">
+        <v>2</v>
+      </c>
+      <c r="M409">
+        <v>0</v>
+      </c>
+      <c r="N409">
+        <v>2</v>
+      </c>
+      <c r="O409" t="s">
+        <v>384</v>
+      </c>
+      <c r="P409" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q409">
+        <v>2.1</v>
+      </c>
+      <c r="R409">
+        <v>2.38</v>
+      </c>
+      <c r="S409">
+        <v>5</v>
+      </c>
+      <c r="T409">
+        <v>1.3</v>
+      </c>
+      <c r="U409">
+        <v>3.4</v>
+      </c>
+      <c r="V409">
+        <v>2.5</v>
+      </c>
+      <c r="W409">
+        <v>1.5</v>
+      </c>
+      <c r="X409">
+        <v>6</v>
+      </c>
+      <c r="Y409">
+        <v>1.13</v>
+      </c>
+      <c r="Z409">
+        <v>1.57</v>
+      </c>
+      <c r="AA409">
+        <v>4.23</v>
+      </c>
+      <c r="AB409">
+        <v>5.12</v>
+      </c>
+      <c r="AC409">
+        <v>1.01</v>
+      </c>
+      <c r="AD409">
+        <v>11</v>
+      </c>
+      <c r="AE409">
+        <v>1.19</v>
+      </c>
+      <c r="AF409">
+        <v>3.98</v>
+      </c>
+      <c r="AG409">
+        <v>1.62</v>
+      </c>
+      <c r="AH409">
+        <v>2.21</v>
+      </c>
+      <c r="AI409">
+        <v>1.75</v>
+      </c>
+      <c r="AJ409">
+        <v>2</v>
+      </c>
+      <c r="AK409">
+        <v>1.11</v>
+      </c>
+      <c r="AL409">
+        <v>1.18</v>
+      </c>
+      <c r="AM409">
+        <v>2.27</v>
+      </c>
+      <c r="AN409">
+        <v>1.77</v>
+      </c>
+      <c r="AO409">
+        <v>0.64</v>
+      </c>
+      <c r="AP409">
+        <v>1.86</v>
+      </c>
+      <c r="AQ409">
+        <v>0.6</v>
+      </c>
+      <c r="AR409">
+        <v>1.6</v>
+      </c>
+      <c r="AS409">
+        <v>1.19</v>
+      </c>
+      <c r="AT409">
+        <v>2.79</v>
+      </c>
+      <c r="AU409">
+        <v>6</v>
+      </c>
+      <c r="AV409">
+        <v>3</v>
+      </c>
+      <c r="AW409">
+        <v>10</v>
+      </c>
+      <c r="AX409">
+        <v>5</v>
+      </c>
+      <c r="AY409">
+        <v>16</v>
+      </c>
+      <c r="AZ409">
+        <v>8</v>
+      </c>
+      <c r="BA409">
+        <v>9</v>
+      </c>
+      <c r="BB409">
+        <v>11</v>
+      </c>
+      <c r="BC409">
+        <v>20</v>
+      </c>
+      <c r="BD409">
+        <v>1.4</v>
+      </c>
+      <c r="BE409">
+        <v>7</v>
+      </c>
+      <c r="BF409">
+        <v>3.05</v>
+      </c>
+      <c r="BG409">
+        <v>1.23</v>
+      </c>
+      <c r="BH409">
+        <v>3.65</v>
+      </c>
+      <c r="BI409">
+        <v>1.41</v>
+      </c>
+      <c r="BJ409">
+        <v>2.63</v>
+      </c>
+      <c r="BK409">
+        <v>1.67</v>
+      </c>
+      <c r="BL409">
+        <v>2.05</v>
+      </c>
+      <c r="BM409">
+        <v>2.06</v>
+      </c>
+      <c r="BN409">
+        <v>1.66</v>
+      </c>
+      <c r="BO409">
+        <v>2.6</v>
+      </c>
+      <c r="BP409">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -89044,13 +89044,13 @@
         <v>19</v>
       </c>
       <c r="BA422">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB422">
         <v>6</v>
       </c>
       <c r="BC422">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD422">
         <v>1.79</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -1192,16 +1192,22 @@
     <t>['21', '39']</t>
   </si>
   <si>
-    <t>['31', '90+7']</t>
+    <t>['39', '65', '77', '87']</t>
+  </si>
+  <si>
+    <t>['30', '51', '71', '85']</t>
   </si>
   <si>
     <t>['21', '74']</t>
   </si>
   <si>
-    <t>['39', '65', '77', '87']</t>
+    <t>['31', '90+7']</t>
   </si>
   <si>
-    <t>['30', '51', '71', '85']</t>
+    <t>['13', '16', '51', '69']</t>
+  </si>
+  <si>
+    <t>['32', '50', '69', '90+3']</t>
   </si>
   <si>
     <t>['10', '22', '89']</t>
@@ -1210,16 +1216,10 @@
     <t>['52', '90+1']</t>
   </si>
   <si>
-    <t>['32', '50', '69', '90+3']</t>
+    <t>['28', '60', '62']</t>
   </si>
   <si>
     <t>['4', '25']</t>
-  </si>
-  <si>
-    <t>['28', '60', '62']</t>
-  </si>
-  <si>
-    <t>['13', '16', '51', '69']</t>
   </si>
   <si>
     <t>['30', '81']</t>
@@ -1822,16 +1822,16 @@
     <t>['4', '15']</t>
   </si>
   <si>
-    <t>['51', '70']</t>
+    <t>['29', '59']</t>
+  </si>
+  <si>
+    <t>['53', '68']</t>
   </si>
   <si>
     <t>['15', '25', '31', '74', '85']</t>
   </si>
   <si>
-    <t>['29', '59']</t>
-  </si>
-  <si>
-    <t>['53', '68']</t>
+    <t>['51', '70']</t>
   </si>
   <si>
     <t>['33', '45+1']</t>
@@ -1846,25 +1846,25 @@
     <t>['15', '89']</t>
   </si>
   <si>
+    <t>['74', '78', '90+7']</t>
+  </si>
+  <si>
     <t>['45+3', '90+2']</t>
   </si>
   <si>
-    <t>['74', '78', '90+7']</t>
+    <t>['4', '13']</t>
+  </si>
+  <si>
+    <t>['63', '90+6']</t>
   </si>
   <si>
     <t>['62', '76', '90+2']</t>
   </si>
   <si>
-    <t>['63', '90+6']</t>
+    <t>['65', '90+4']</t>
   </si>
   <si>
     <t>['9', '52']</t>
-  </si>
-  <si>
-    <t>['65', '90+4']</t>
-  </si>
-  <si>
-    <t>['4', '13']</t>
   </si>
   <si>
     <t>['34', '73']</t>
@@ -86506,7 +86506,7 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>7295649</v>
+        <v>7295646</v>
       </c>
       <c r="C410" t="s">
         <v>68</v>
@@ -86521,82 +86521,82 @@
         <v>0</v>
       </c>
       <c r="G410" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H410" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I410">
         <v>0</v>
       </c>
       <c r="J410">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K410">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L410">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M410">
         <v>2</v>
       </c>
       <c r="N410">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O410" t="s">
-        <v>104</v>
+        <v>385</v>
       </c>
       <c r="P410" t="s">
         <v>602</v>
       </c>
       <c r="Q410">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="R410">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S410">
+        <v>3.1</v>
+      </c>
+      <c r="T410">
+        <v>1.3</v>
+      </c>
+      <c r="U410">
+        <v>3.4</v>
+      </c>
+      <c r="V410">
+        <v>2.5</v>
+      </c>
+      <c r="W410">
+        <v>1.5</v>
+      </c>
+      <c r="X410">
+        <v>6</v>
+      </c>
+      <c r="Y410">
+        <v>1.13</v>
+      </c>
+      <c r="Z410">
         <v>2.63</v>
       </c>
-      <c r="T410">
-        <v>1.29</v>
-      </c>
-      <c r="U410">
-        <v>3.5</v>
-      </c>
-      <c r="V410">
-        <v>2.25</v>
-      </c>
-      <c r="W410">
-        <v>1.57</v>
-      </c>
-      <c r="X410">
-        <v>5.5</v>
-      </c>
-      <c r="Y410">
-        <v>1.14</v>
-      </c>
-      <c r="Z410">
-        <v>3.4</v>
-      </c>
       <c r="AA410">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AB410">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="AC410">
         <v>1.01</v>
       </c>
       <c r="AD410">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE410">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AF410">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="AG410">
         <v>1.53</v>
@@ -86605,76 +86605,76 @@
         <v>2.35</v>
       </c>
       <c r="AI410">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AJ410">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AK410">
-        <v>1.78</v>
+        <v>1.52</v>
       </c>
       <c r="AL410">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="AM410">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="AN410">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AO410">
-        <v>1.79</v>
+        <v>2.23</v>
       </c>
       <c r="AP410">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ410">
-        <v>1.81</v>
+        <v>2.07</v>
       </c>
       <c r="AR410">
-        <v>1.36</v>
+        <v>1.61</v>
       </c>
       <c r="AS410">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AT410">
-        <v>2.74</v>
+        <v>2.93</v>
       </c>
       <c r="AU410">
+        <v>6</v>
+      </c>
+      <c r="AV410">
+        <v>8</v>
+      </c>
+      <c r="AW410">
+        <v>6</v>
+      </c>
+      <c r="AX410">
+        <v>4</v>
+      </c>
+      <c r="AY410">
+        <v>12</v>
+      </c>
+      <c r="AZ410">
+        <v>12</v>
+      </c>
+      <c r="BA410">
+        <v>3</v>
+      </c>
+      <c r="BB410">
         <v>5</v>
       </c>
-      <c r="AV410">
-        <v>5</v>
-      </c>
-      <c r="AW410">
-        <v>4</v>
-      </c>
-      <c r="AX410">
-        <v>2</v>
-      </c>
-      <c r="AY410">
-        <v>9</v>
-      </c>
-      <c r="AZ410">
-        <v>7</v>
-      </c>
-      <c r="BA410">
-        <v>5</v>
-      </c>
-      <c r="BB410">
-        <v>2</v>
-      </c>
       <c r="BC410">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD410">
-        <v>2.33</v>
+        <v>1.63</v>
       </c>
       <c r="BE410">
-        <v>6.25</v>
+        <v>6.4</v>
       </c>
       <c r="BF410">
-        <v>1.66</v>
+        <v>2.4</v>
       </c>
       <c r="BG410">
         <v>1.28</v>
@@ -86689,16 +86689,16 @@
         <v>2.4</v>
       </c>
       <c r="BK410">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="BL410">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="BM410">
         <v>2.23</v>
       </c>
       <c r="BN410">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="BO410">
         <v>2.9</v>
@@ -86712,7 +86712,7 @@
         <v>410</v>
       </c>
       <c r="B411">
-        <v>7295648</v>
+        <v>7295647</v>
       </c>
       <c r="C411" t="s">
         <v>68</v>
@@ -86727,43 +86727,43 @@
         <v>0</v>
       </c>
       <c r="G411" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H411" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="I411">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J411">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K411">
+        <v>2</v>
+      </c>
+      <c r="L411">
+        <v>2</v>
+      </c>
+      <c r="M411">
+        <v>2</v>
+      </c>
+      <c r="N411">
         <v>4</v>
       </c>
-      <c r="L411">
-        <v>1</v>
-      </c>
-      <c r="M411">
-        <v>5</v>
-      </c>
-      <c r="N411">
-        <v>6</v>
-      </c>
       <c r="O411" t="s">
-        <v>115</v>
+        <v>386</v>
       </c>
       <c r="P411" t="s">
         <v>603</v>
       </c>
       <c r="Q411">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R411">
         <v>2.4</v>
       </c>
       <c r="S411">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T411">
         <v>1.29</v>
@@ -86784,133 +86784,133 @@
         <v>1.14</v>
       </c>
       <c r="Z411">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AA411">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="AB411">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AC411">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD411">
-        <v>18.75</v>
+        <v>13</v>
       </c>
       <c r="AE411">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AF411">
-        <v>4.92</v>
+        <v>4.75</v>
       </c>
       <c r="AG411">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="AH411">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="AI411">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AJ411">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AK411">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AL411">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AM411">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="AN411">
-        <v>2</v>
+        <v>1.07</v>
       </c>
       <c r="AO411">
-        <v>1.21</v>
+        <v>0.71</v>
       </c>
       <c r="AP411">
-        <v>1.8</v>
+        <v>1.19</v>
       </c>
       <c r="AQ411">
-        <v>1.33</v>
+        <v>0.73</v>
       </c>
       <c r="AR411">
-        <v>1.68</v>
+        <v>1.34</v>
       </c>
       <c r="AS411">
-        <v>1.33</v>
+        <v>0.99</v>
       </c>
       <c r="AT411">
-        <v>3.01</v>
+        <v>2.33</v>
       </c>
       <c r="AU411">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV411">
+        <v>6</v>
+      </c>
+      <c r="AW411">
+        <v>5</v>
+      </c>
+      <c r="AX411">
+        <v>3</v>
+      </c>
+      <c r="AY411">
+        <v>13</v>
+      </c>
+      <c r="AZ411">
+        <v>9</v>
+      </c>
+      <c r="BA411">
         <v>8</v>
       </c>
-      <c r="AW411">
-        <v>9</v>
-      </c>
-      <c r="AX411">
-        <v>2</v>
-      </c>
-      <c r="AY411">
-        <v>19</v>
-      </c>
-      <c r="AZ411">
-        <v>10</v>
-      </c>
-      <c r="BA411">
-        <v>12</v>
-      </c>
       <c r="BB411">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BC411">
         <v>16</v>
       </c>
       <c r="BD411">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="BE411">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="BF411">
-        <v>2.55</v>
+        <v>3.05</v>
       </c>
       <c r="BG411">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="BH411">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="BI411">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="BJ411">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="BK411">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="BL411">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="BM411">
-        <v>2.43</v>
+        <v>2.48</v>
       </c>
       <c r="BN411">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="BO411">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="BP411">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="412" spans="1:68">
@@ -86918,7 +86918,7 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>7295646</v>
+        <v>7295648</v>
       </c>
       <c r="C412" t="s">
         <v>68</v>
@@ -86933,88 +86933,88 @@
         <v>0</v>
       </c>
       <c r="G412" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H412" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I412">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J412">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K412">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L412">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M412">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N412">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O412" t="s">
-        <v>385</v>
+        <v>115</v>
       </c>
       <c r="P412" t="s">
         <v>604</v>
       </c>
       <c r="Q412">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="R412">
+        <v>2.4</v>
+      </c>
+      <c r="S412">
+        <v>4.33</v>
+      </c>
+      <c r="T412">
+        <v>1.29</v>
+      </c>
+      <c r="U412">
+        <v>3.5</v>
+      </c>
+      <c r="V412">
+        <v>2.25</v>
+      </c>
+      <c r="W412">
+        <v>1.57</v>
+      </c>
+      <c r="X412">
+        <v>5.5</v>
+      </c>
+      <c r="Y412">
+        <v>1.14</v>
+      </c>
+      <c r="Z412">
+        <v>1.73</v>
+      </c>
+      <c r="AA412">
+        <v>4.2</v>
+      </c>
+      <c r="AB412">
+        <v>4</v>
+      </c>
+      <c r="AC412">
+        <v>1.03</v>
+      </c>
+      <c r="AD412">
+        <v>18.75</v>
+      </c>
+      <c r="AE412">
+        <v>1.18</v>
+      </c>
+      <c r="AF412">
+        <v>4.92</v>
+      </c>
+      <c r="AG412">
+        <v>1.55</v>
+      </c>
+      <c r="AH412">
         <v>2.3</v>
-      </c>
-      <c r="S412">
-        <v>3.1</v>
-      </c>
-      <c r="T412">
-        <v>1.3</v>
-      </c>
-      <c r="U412">
-        <v>3.4</v>
-      </c>
-      <c r="V412">
-        <v>2.5</v>
-      </c>
-      <c r="W412">
-        <v>1.5</v>
-      </c>
-      <c r="X412">
-        <v>6</v>
-      </c>
-      <c r="Y412">
-        <v>1.13</v>
-      </c>
-      <c r="Z412">
-        <v>2.63</v>
-      </c>
-      <c r="AA412">
-        <v>3.75</v>
-      </c>
-      <c r="AB412">
-        <v>2.38</v>
-      </c>
-      <c r="AC412">
-        <v>1.01</v>
-      </c>
-      <c r="AD412">
-        <v>11</v>
-      </c>
-      <c r="AE412">
-        <v>1.14</v>
-      </c>
-      <c r="AF412">
-        <v>4.8</v>
-      </c>
-      <c r="AG412">
-        <v>1.53</v>
-      </c>
-      <c r="AH412">
-        <v>2.35</v>
       </c>
       <c r="AI412">
         <v>1.57</v>
@@ -87023,100 +87023,100 @@
         <v>2.25</v>
       </c>
       <c r="AK412">
-        <v>1.52</v>
+        <v>1.25</v>
       </c>
       <c r="AL412">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM412">
-        <v>1.51</v>
+        <v>2.1</v>
       </c>
       <c r="AN412">
-        <v>1.29</v>
+        <v>2</v>
       </c>
       <c r="AO412">
-        <v>2.23</v>
+        <v>1.21</v>
       </c>
       <c r="AP412">
-        <v>1.27</v>
+        <v>1.8</v>
       </c>
       <c r="AQ412">
-        <v>2.07</v>
+        <v>1.33</v>
       </c>
       <c r="AR412">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AS412">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AT412">
-        <v>2.93</v>
+        <v>3.01</v>
       </c>
       <c r="AU412">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AV412">
         <v>8</v>
       </c>
       <c r="AW412">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AX412">
+        <v>2</v>
+      </c>
+      <c r="AY412">
+        <v>19</v>
+      </c>
+      <c r="AZ412">
+        <v>10</v>
+      </c>
+      <c r="BA412">
+        <v>12</v>
+      </c>
+      <c r="BB412">
         <v>4</v>
       </c>
-      <c r="AY412">
-        <v>12</v>
-      </c>
-      <c r="AZ412">
-        <v>12</v>
-      </c>
-      <c r="BA412">
-        <v>3</v>
-      </c>
-      <c r="BB412">
-        <v>5</v>
-      </c>
       <c r="BC412">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BD412">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="BE412">
         <v>6.4</v>
       </c>
       <c r="BF412">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="BG412">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="BH412">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="BI412">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="BJ412">
-        <v>2.4</v>
+        <v>2.23</v>
       </c>
       <c r="BK412">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="BL412">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="BM412">
-        <v>2.23</v>
+        <v>2.43</v>
       </c>
       <c r="BN412">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="BO412">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="BP412">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="413" spans="1:68">
@@ -87124,7 +87124,7 @@
         <v>412</v>
       </c>
       <c r="B413">
-        <v>7295647</v>
+        <v>7295649</v>
       </c>
       <c r="C413" t="s">
         <v>68</v>
@@ -87139,43 +87139,43 @@
         <v>0</v>
       </c>
       <c r="G413" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H413" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="I413">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J413">
         <v>0</v>
       </c>
       <c r="K413">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L413">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M413">
         <v>2</v>
       </c>
       <c r="N413">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O413" t="s">
-        <v>386</v>
+        <v>104</v>
       </c>
       <c r="P413" t="s">
         <v>605</v>
       </c>
       <c r="Q413">
-        <v>2.38</v>
+        <v>3.5</v>
       </c>
       <c r="R413">
         <v>2.4</v>
       </c>
       <c r="S413">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="T413">
         <v>1.29</v>
@@ -87196,13 +87196,13 @@
         <v>1.14</v>
       </c>
       <c r="Z413">
-        <v>1.83</v>
+        <v>3.4</v>
       </c>
       <c r="AA413">
         <v>3.8</v>
       </c>
       <c r="AB413">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="AC413">
         <v>1.01</v>
@@ -87211,118 +87211,118 @@
         <v>13</v>
       </c>
       <c r="AE413">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AF413">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AG413">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="AH413">
-        <v>2.63</v>
+        <v>2.35</v>
       </c>
       <c r="AI413">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AJ413">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AK413">
-        <v>1.26</v>
+        <v>1.78</v>
       </c>
       <c r="AL413">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AM413">
-        <v>1.99</v>
+        <v>1.42</v>
       </c>
       <c r="AN413">
-        <v>1.07</v>
+        <v>1.5</v>
       </c>
       <c r="AO413">
-        <v>0.71</v>
+        <v>1.79</v>
       </c>
       <c r="AP413">
-        <v>1.19</v>
+        <v>1.4</v>
       </c>
       <c r="AQ413">
-        <v>0.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR413">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AS413">
-        <v>0.99</v>
+        <v>1.38</v>
       </c>
       <c r="AT413">
+        <v>2.74</v>
+      </c>
+      <c r="AU413">
+        <v>5</v>
+      </c>
+      <c r="AV413">
+        <v>5</v>
+      </c>
+      <c r="AW413">
+        <v>4</v>
+      </c>
+      <c r="AX413">
+        <v>2</v>
+      </c>
+      <c r="AY413">
+        <v>9</v>
+      </c>
+      <c r="AZ413">
+        <v>7</v>
+      </c>
+      <c r="BA413">
+        <v>5</v>
+      </c>
+      <c r="BB413">
+        <v>2</v>
+      </c>
+      <c r="BC413">
+        <v>7</v>
+      </c>
+      <c r="BD413">
         <v>2.33</v>
       </c>
-      <c r="AU413">
-        <v>8</v>
-      </c>
-      <c r="AV413">
-        <v>6</v>
-      </c>
-      <c r="AW413">
-        <v>5</v>
-      </c>
-      <c r="AX413">
-        <v>3</v>
-      </c>
-      <c r="AY413">
-        <v>13</v>
-      </c>
-      <c r="AZ413">
-        <v>9</v>
-      </c>
-      <c r="BA413">
-        <v>8</v>
-      </c>
-      <c r="BB413">
-        <v>8</v>
-      </c>
-      <c r="BC413">
-        <v>16</v>
-      </c>
-      <c r="BD413">
-        <v>1.42</v>
-      </c>
       <c r="BE413">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="BF413">
-        <v>3.05</v>
+        <v>1.66</v>
       </c>
       <c r="BG413">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="BH413">
+        <v>3.2</v>
+      </c>
+      <c r="BI413">
+        <v>1.49</v>
+      </c>
+      <c r="BJ413">
+        <v>2.4</v>
+      </c>
+      <c r="BK413">
+        <v>1.8</v>
+      </c>
+      <c r="BL413">
+        <v>1.89</v>
+      </c>
+      <c r="BM413">
+        <v>2.23</v>
+      </c>
+      <c r="BN413">
+        <v>1.57</v>
+      </c>
+      <c r="BO413">
         <v>2.9</v>
       </c>
-      <c r="BI413">
-        <v>1.58</v>
-      </c>
-      <c r="BJ413">
-        <v>2.2</v>
-      </c>
-      <c r="BK413">
-        <v>1.95</v>
-      </c>
-      <c r="BL413">
-        <v>1.75</v>
-      </c>
-      <c r="BM413">
-        <v>2.48</v>
-      </c>
-      <c r="BN413">
-        <v>1.47</v>
-      </c>
-      <c r="BO413">
-        <v>3.2</v>
-      </c>
       <c r="BP413">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="414" spans="1:68">
@@ -87536,7 +87536,7 @@
         <v>414</v>
       </c>
       <c r="B415">
-        <v>7295651</v>
+        <v>7295654</v>
       </c>
       <c r="C415" t="s">
         <v>68</v>
@@ -87551,10 +87551,10 @@
         <v>0</v>
       </c>
       <c r="G415" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H415" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I415">
         <v>1</v>
@@ -87569,70 +87569,70 @@
         <v>1</v>
       </c>
       <c r="M415">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N415">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O415" t="s">
-        <v>276</v>
+        <v>119</v>
       </c>
       <c r="P415" t="s">
-        <v>306</v>
+        <v>104</v>
       </c>
       <c r="Q415">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="R415">
         <v>2.3</v>
       </c>
       <c r="S415">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T415">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U415">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V415">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W415">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X415">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y415">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z415">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="AA415">
         <v>3.6</v>
       </c>
       <c r="AB415">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="AC415">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD415">
         <v>13</v>
       </c>
       <c r="AE415">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AF415">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="AG415">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="AH415">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AI415">
         <v>1.62</v>
@@ -87641,100 +87641,100 @@
         <v>2.2</v>
       </c>
       <c r="AK415">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AL415">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM415">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="AN415">
-        <v>1.5</v>
+        <v>1.21</v>
       </c>
       <c r="AO415">
-        <v>1.71</v>
+        <v>0.79</v>
       </c>
       <c r="AP415">
-        <v>1.47</v>
+        <v>1.31</v>
       </c>
       <c r="AQ415">
-        <v>1.56</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR415">
-        <v>1.69</v>
+        <v>1.29</v>
       </c>
       <c r="AS415">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AT415">
-        <v>2.93</v>
+        <v>2.52</v>
       </c>
       <c r="AU415">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV415">
         <v>5</v>
       </c>
       <c r="AW415">
+        <v>1</v>
+      </c>
+      <c r="AX415">
+        <v>5</v>
+      </c>
+      <c r="AY415">
+        <v>4</v>
+      </c>
+      <c r="AZ415">
+        <v>10</v>
+      </c>
+      <c r="BA415">
+        <v>1</v>
+      </c>
+      <c r="BB415">
+        <v>2</v>
+      </c>
+      <c r="BC415">
         <v>3</v>
       </c>
-      <c r="AX415">
-        <v>3</v>
-      </c>
-      <c r="AY415">
-        <v>5</v>
-      </c>
-      <c r="AZ415">
-        <v>8</v>
-      </c>
-      <c r="BA415">
-        <v>13</v>
-      </c>
-      <c r="BB415">
-        <v>2</v>
-      </c>
-      <c r="BC415">
-        <v>15</v>
-      </c>
       <c r="BD415">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="BE415">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF415">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="BG415">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="BH415">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="BI415">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="BJ415">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="BK415">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="BL415">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="BM415">
-        <v>2.02</v>
+        <v>2.23</v>
       </c>
       <c r="BN415">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="BO415">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="BP415">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="416" spans="1:68">
@@ -87742,7 +87742,7 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>7295652</v>
+        <v>7295653</v>
       </c>
       <c r="C416" t="s">
         <v>68</v>
@@ -87757,43 +87757,43 @@
         <v>0</v>
       </c>
       <c r="G416" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H416" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I416">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J416">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K416">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L416">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M416">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N416">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O416" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="P416" t="s">
-        <v>111</v>
+        <v>606</v>
       </c>
       <c r="Q416">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="R416">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S416">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="T416">
         <v>1.25</v>
@@ -87802,43 +87802,43 @@
         <v>3.75</v>
       </c>
       <c r="V416">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="W416">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="X416">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y416">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="Z416">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AA416">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AB416">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AC416">
         <v>1.01</v>
       </c>
       <c r="AD416">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE416">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AF416">
-        <v>5.35</v>
+        <v>5.5</v>
       </c>
       <c r="AG416">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AH416">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="AI416">
         <v>1.44</v>
@@ -87847,100 +87847,100 @@
         <v>2.63</v>
       </c>
       <c r="AK416">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="AL416">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AM416">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AN416">
         <v>1.36</v>
       </c>
       <c r="AO416">
-        <v>1.21</v>
+        <v>2.15</v>
       </c>
       <c r="AP416">
         <v>1.38</v>
       </c>
       <c r="AQ416">
-        <v>1.06</v>
+        <v>2.13</v>
       </c>
       <c r="AR416">
         <v>1.55</v>
       </c>
       <c r="AS416">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT416">
-        <v>2.99</v>
+        <v>2.9</v>
       </c>
       <c r="AU416">
+        <v>6</v>
+      </c>
+      <c r="AV416">
+        <v>6</v>
+      </c>
+      <c r="AW416">
+        <v>5</v>
+      </c>
+      <c r="AX416">
+        <v>5</v>
+      </c>
+      <c r="AY416">
         <v>11</v>
       </c>
-      <c r="AV416">
-        <v>4</v>
-      </c>
-      <c r="AW416">
+      <c r="AZ416">
+        <v>11</v>
+      </c>
+      <c r="BA416">
+        <v>7</v>
+      </c>
+      <c r="BB416">
+        <v>5</v>
+      </c>
+      <c r="BC416">
         <v>12</v>
       </c>
-      <c r="AX416">
-        <v>3</v>
-      </c>
-      <c r="AY416">
-        <v>23</v>
-      </c>
-      <c r="AZ416">
-        <v>7</v>
-      </c>
-      <c r="BA416">
-        <v>11</v>
-      </c>
-      <c r="BB416">
-        <v>4</v>
-      </c>
-      <c r="BC416">
-        <v>15</v>
-      </c>
       <c r="BD416">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="BE416">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="BF416">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="BG416">
-        <v>1.46</v>
+        <v>1.19</v>
       </c>
       <c r="BH416">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="BI416">
-        <v>1.76</v>
+        <v>1.34</v>
       </c>
       <c r="BJ416">
-        <v>1.93</v>
+        <v>2.9</v>
       </c>
       <c r="BK416">
+        <v>1.57</v>
+      </c>
+      <c r="BL416">
         <v>2.23</v>
       </c>
-      <c r="BL416">
-        <v>1.56</v>
-      </c>
       <c r="BM416">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="BN416">
-        <v>1.34</v>
+        <v>1.78</v>
       </c>
       <c r="BO416">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="BP416">
-        <v>1.19</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="417" spans="1:68">
@@ -87948,7 +87948,7 @@
         <v>416</v>
       </c>
       <c r="B417">
-        <v>7295653</v>
+        <v>7295652</v>
       </c>
       <c r="C417" t="s">
         <v>68</v>
@@ -87963,43 +87963,43 @@
         <v>0</v>
       </c>
       <c r="G417" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H417" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I417">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J417">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K417">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L417">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M417">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N417">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O417" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="P417" t="s">
-        <v>606</v>
+        <v>111</v>
       </c>
       <c r="Q417">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="R417">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S417">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="T417">
         <v>1.25</v>
@@ -88008,43 +88008,43 @@
         <v>3.75</v>
       </c>
       <c r="V417">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W417">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="X417">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Y417">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="Z417">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AA417">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AB417">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AC417">
         <v>1.01</v>
       </c>
       <c r="AD417">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE417">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AF417">
-        <v>5.5</v>
+        <v>5.35</v>
       </c>
       <c r="AG417">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AH417">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="AI417">
         <v>1.44</v>
@@ -88053,100 +88053,100 @@
         <v>2.63</v>
       </c>
       <c r="AK417">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="AL417">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AM417">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AN417">
         <v>1.36</v>
       </c>
       <c r="AO417">
-        <v>2.15</v>
+        <v>1.21</v>
       </c>
       <c r="AP417">
         <v>1.38</v>
       </c>
       <c r="AQ417">
-        <v>2.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR417">
         <v>1.55</v>
       </c>
       <c r="AS417">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT417">
+        <v>2.99</v>
+      </c>
+      <c r="AU417">
+        <v>11</v>
+      </c>
+      <c r="AV417">
+        <v>4</v>
+      </c>
+      <c r="AW417">
+        <v>12</v>
+      </c>
+      <c r="AX417">
+        <v>3</v>
+      </c>
+      <c r="AY417">
+        <v>23</v>
+      </c>
+      <c r="AZ417">
+        <v>7</v>
+      </c>
+      <c r="BA417">
+        <v>11</v>
+      </c>
+      <c r="BB417">
+        <v>4</v>
+      </c>
+      <c r="BC417">
+        <v>15</v>
+      </c>
+      <c r="BD417">
+        <v>1.72</v>
+      </c>
+      <c r="BE417">
+        <v>5.8</v>
+      </c>
+      <c r="BF417">
+        <v>2.3</v>
+      </c>
+      <c r="BG417">
+        <v>1.46</v>
+      </c>
+      <c r="BH417">
+        <v>2.5</v>
+      </c>
+      <c r="BI417">
+        <v>1.76</v>
+      </c>
+      <c r="BJ417">
+        <v>1.93</v>
+      </c>
+      <c r="BK417">
+        <v>2.23</v>
+      </c>
+      <c r="BL417">
+        <v>1.56</v>
+      </c>
+      <c r="BM417">
         <v>2.9</v>
       </c>
-      <c r="AU417">
-        <v>6</v>
-      </c>
-      <c r="AV417">
-        <v>6</v>
-      </c>
-      <c r="AW417">
-        <v>5</v>
-      </c>
-      <c r="AX417">
-        <v>5</v>
-      </c>
-      <c r="AY417">
-        <v>11</v>
-      </c>
-      <c r="AZ417">
-        <v>11</v>
-      </c>
-      <c r="BA417">
-        <v>7</v>
-      </c>
-      <c r="BB417">
-        <v>5</v>
-      </c>
-      <c r="BC417">
-        <v>12</v>
-      </c>
-      <c r="BD417">
-        <v>1.64</v>
-      </c>
-      <c r="BE417">
-        <v>6.5</v>
-      </c>
-      <c r="BF417">
-        <v>2.33</v>
-      </c>
-      <c r="BG417">
+      <c r="BN417">
+        <v>1.34</v>
+      </c>
+      <c r="BO417">
+        <v>3.9</v>
+      </c>
+      <c r="BP417">
         <v>1.19</v>
-      </c>
-      <c r="BH417">
-        <v>4.1</v>
-      </c>
-      <c r="BI417">
-        <v>1.34</v>
-      </c>
-      <c r="BJ417">
-        <v>2.9</v>
-      </c>
-      <c r="BK417">
-        <v>1.57</v>
-      </c>
-      <c r="BL417">
-        <v>2.23</v>
-      </c>
-      <c r="BM417">
-        <v>1.9</v>
-      </c>
-      <c r="BN417">
-        <v>1.78</v>
-      </c>
-      <c r="BO417">
-        <v>2.4</v>
-      </c>
-      <c r="BP417">
-        <v>1.5</v>
       </c>
     </row>
     <row r="418" spans="1:68">
@@ -88154,7 +88154,7 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>7295654</v>
+        <v>7295651</v>
       </c>
       <c r="C418" t="s">
         <v>68</v>
@@ -88169,10 +88169,10 @@
         <v>0</v>
       </c>
       <c r="G418" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H418" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I418">
         <v>1</v>
@@ -88187,70 +88187,70 @@
         <v>1</v>
       </c>
       <c r="M418">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N418">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O418" t="s">
-        <v>119</v>
+        <v>276</v>
       </c>
       <c r="P418" t="s">
-        <v>104</v>
+        <v>306</v>
       </c>
       <c r="Q418">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="R418">
         <v>2.3</v>
       </c>
       <c r="S418">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T418">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U418">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V418">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W418">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X418">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y418">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z418">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AA418">
         <v>3.6</v>
       </c>
       <c r="AB418">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="AC418">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD418">
         <v>13</v>
       </c>
       <c r="AE418">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="AF418">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="AG418">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="AH418">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AI418">
         <v>1.62</v>
@@ -88259,100 +88259,100 @@
         <v>2.2</v>
       </c>
       <c r="AK418">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AL418">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM418">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="AN418">
-        <v>1.21</v>
+        <v>1.5</v>
       </c>
       <c r="AO418">
-        <v>0.79</v>
+        <v>1.71</v>
       </c>
       <c r="AP418">
-        <v>1.31</v>
+        <v>1.47</v>
       </c>
       <c r="AQ418">
-        <v>0.6899999999999999</v>
+        <v>1.56</v>
       </c>
       <c r="AR418">
-        <v>1.29</v>
+        <v>1.69</v>
       </c>
       <c r="AS418">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AT418">
-        <v>2.52</v>
+        <v>2.93</v>
       </c>
       <c r="AU418">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV418">
         <v>5</v>
       </c>
       <c r="AW418">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX418">
+        <v>3</v>
+      </c>
+      <c r="AY418">
         <v>5</v>
       </c>
-      <c r="AY418">
-        <v>4</v>
-      </c>
       <c r="AZ418">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA418">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="BB418">
         <v>2</v>
       </c>
       <c r="BC418">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="BD418">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="BE418">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF418">
+        <v>2.65</v>
+      </c>
+      <c r="BG418">
+        <v>1.23</v>
+      </c>
+      <c r="BH418">
+        <v>3.65</v>
+      </c>
+      <c r="BI418">
+        <v>1.4</v>
+      </c>
+      <c r="BJ418">
+        <v>2.65</v>
+      </c>
+      <c r="BK418">
+        <v>1.65</v>
+      </c>
+      <c r="BL418">
+        <v>2.08</v>
+      </c>
+      <c r="BM418">
+        <v>2.02</v>
+      </c>
+      <c r="BN418">
+        <v>1.68</v>
+      </c>
+      <c r="BO418">
         <v>2.55</v>
       </c>
-      <c r="BG418">
-        <v>1.28</v>
-      </c>
-      <c r="BH418">
-        <v>3.2</v>
-      </c>
-      <c r="BI418">
-        <v>1.49</v>
-      </c>
-      <c r="BJ418">
-        <v>2.4</v>
-      </c>
-      <c r="BK418">
-        <v>1.79</v>
-      </c>
-      <c r="BL418">
-        <v>1.9</v>
-      </c>
-      <c r="BM418">
-        <v>2.23</v>
-      </c>
-      <c r="BN418">
-        <v>1.57</v>
-      </c>
-      <c r="BO418">
-        <v>2.8</v>
-      </c>
       <c r="BP418">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="419" spans="1:68">
@@ -88566,7 +88566,7 @@
         <v>419</v>
       </c>
       <c r="B420">
-        <v>7295657</v>
+        <v>7295656</v>
       </c>
       <c r="C420" t="s">
         <v>68</v>
@@ -88581,190 +88581,190 @@
         <v>0</v>
       </c>
       <c r="G420" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H420" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I420">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J420">
         <v>1</v>
       </c>
       <c r="K420">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L420">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M420">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N420">
+        <v>2</v>
+      </c>
+      <c r="O420" t="s">
+        <v>145</v>
+      </c>
+      <c r="P420" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q420">
+        <v>1.95</v>
+      </c>
+      <c r="R420">
+        <v>2.5</v>
+      </c>
+      <c r="S420">
         <v>6</v>
       </c>
-      <c r="O420" t="s">
-        <v>390</v>
-      </c>
-      <c r="P420" t="s">
-        <v>608</v>
-      </c>
-      <c r="Q420">
-        <v>2.63</v>
-      </c>
-      <c r="R420">
-        <v>2.6</v>
-      </c>
-      <c r="S420">
-        <v>3.1</v>
-      </c>
       <c r="T420">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="U420">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="V420">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="W420">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="X420">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="Y420">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="Z420">
-        <v>2.05</v>
+        <v>1.35</v>
       </c>
       <c r="AA420">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB420">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AC420">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD420">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AE420">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="AF420">
-        <v>6.35</v>
+        <v>4.75</v>
       </c>
       <c r="AG420">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AH420">
-        <v>3</v>
+        <v>2.35</v>
       </c>
       <c r="AI420">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AJ420">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="AK420">
-        <v>1.42</v>
+        <v>1.12</v>
       </c>
       <c r="AL420">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AM420">
-        <v>1.68</v>
+        <v>2.55</v>
       </c>
       <c r="AN420">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AO420">
-        <v>1.36</v>
+        <v>0.86</v>
       </c>
       <c r="AP420">
         <v>2.07</v>
       </c>
       <c r="AQ420">
-        <v>1.27</v>
+        <v>0.87</v>
       </c>
       <c r="AR420">
-        <v>1.73</v>
+        <v>1.92</v>
       </c>
       <c r="AS420">
-        <v>1.35</v>
+        <v>0.99</v>
       </c>
       <c r="AT420">
-        <v>3.08</v>
+        <v>2.91</v>
       </c>
       <c r="AU420">
+        <v>7</v>
+      </c>
+      <c r="AV420">
+        <v>3</v>
+      </c>
+      <c r="AW420">
+        <v>6</v>
+      </c>
+      <c r="AX420">
+        <v>5</v>
+      </c>
+      <c r="AY420">
         <v>13</v>
       </c>
-      <c r="AV420">
+      <c r="AZ420">
         <v>8</v>
-      </c>
-      <c r="AW420">
-        <v>8</v>
-      </c>
-      <c r="AX420">
-        <v>11</v>
-      </c>
-      <c r="AY420">
-        <v>21</v>
-      </c>
-      <c r="AZ420">
-        <v>19</v>
       </c>
       <c r="BA420">
         <v>5</v>
       </c>
       <c r="BB420">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC420">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD420">
-        <v>1.79</v>
+        <v>1.28</v>
       </c>
       <c r="BE420">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="BF420">
-        <v>2.08</v>
+        <v>3.65</v>
       </c>
       <c r="BG420">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="BH420">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="BI420">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="BJ420">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="BK420">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="BL420">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="BM420">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="BN420">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="BO420">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="BP420">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="421" spans="1:68">
@@ -88772,7 +88772,7 @@
         <v>420</v>
       </c>
       <c r="B421">
-        <v>7295656</v>
+        <v>7295657</v>
       </c>
       <c r="C421" t="s">
         <v>68</v>
@@ -88787,190 +88787,190 @@
         <v>0</v>
       </c>
       <c r="G421" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H421" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I421">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J421">
         <v>1</v>
       </c>
       <c r="K421">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L421">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M421">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N421">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O421" t="s">
-        <v>145</v>
+        <v>390</v>
       </c>
       <c r="P421" t="s">
-        <v>233</v>
+        <v>608</v>
       </c>
       <c r="Q421">
-        <v>1.95</v>
+        <v>2.63</v>
       </c>
       <c r="R421">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S421">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="T421">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="U421">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="V421">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="W421">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="X421">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="Y421">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="Z421">
-        <v>1.35</v>
+        <v>2.05</v>
       </c>
       <c r="AA421">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB421">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC421">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD421">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AE421">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="AF421">
-        <v>4.75</v>
+        <v>6.35</v>
       </c>
       <c r="AG421">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AH421">
-        <v>2.35</v>
+        <v>3</v>
       </c>
       <c r="AI421">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AJ421">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="AK421">
-        <v>1.12</v>
+        <v>1.42</v>
       </c>
       <c r="AL421">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AM421">
-        <v>2.55</v>
+        <v>1.68</v>
       </c>
       <c r="AN421">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AO421">
-        <v>0.86</v>
+        <v>1.36</v>
       </c>
       <c r="AP421">
         <v>2.07</v>
       </c>
       <c r="AQ421">
-        <v>0.87</v>
+        <v>1.27</v>
       </c>
       <c r="AR421">
-        <v>1.92</v>
+        <v>1.73</v>
       </c>
       <c r="AS421">
-        <v>0.99</v>
+        <v>1.35</v>
       </c>
       <c r="AT421">
-        <v>2.91</v>
+        <v>3.08</v>
       </c>
       <c r="AU421">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AV421">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW421">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX421">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AY421">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AZ421">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="BA421">
         <v>5</v>
       </c>
       <c r="BB421">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC421">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD421">
-        <v>1.28</v>
+        <v>1.79</v>
       </c>
       <c r="BE421">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="BF421">
-        <v>3.65</v>
+        <v>2.08</v>
       </c>
       <c r="BG421">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="BH421">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="BI421">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="BJ421">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="BK421">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="BL421">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="BM421">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="BN421">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="BO421">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="BP421">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="422" spans="1:68">
@@ -89184,7 +89184,7 @@
         <v>422</v>
       </c>
       <c r="B423">
-        <v>7295663</v>
+        <v>7295659</v>
       </c>
       <c r="C423" t="s">
         <v>68</v>
@@ -89199,70 +89199,70 @@
         <v>0</v>
       </c>
       <c r="G423" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H423" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="I423">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J423">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K423">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L423">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M423">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N423">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O423" t="s">
-        <v>392</v>
+        <v>112</v>
       </c>
       <c r="P423" t="s">
-        <v>610</v>
+        <v>111</v>
       </c>
       <c r="Q423">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="R423">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S423">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="T423">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="U423">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="V423">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="W423">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X423">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y423">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Z423">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="AA423">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="AB423">
-        <v>4.5</v>
+        <v>2.67</v>
       </c>
       <c r="AC423">
         <v>1.01</v>
@@ -89271,52 +89271,52 @@
         <v>11</v>
       </c>
       <c r="AE423">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="AF423">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="AG423">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AH423">
-        <v>2.1</v>
+        <v>2.33</v>
       </c>
       <c r="AI423">
+        <v>1.53</v>
+      </c>
+      <c r="AJ423">
+        <v>2.38</v>
+      </c>
+      <c r="AK423">
+        <v>1.5</v>
+      </c>
+      <c r="AL423">
+        <v>1.25</v>
+      </c>
+      <c r="AM423">
+        <v>1.48</v>
+      </c>
+      <c r="AN423">
+        <v>1.86</v>
+      </c>
+      <c r="AO423">
+        <v>2.14</v>
+      </c>
+      <c r="AP423">
         <v>1.8</v>
       </c>
-      <c r="AJ423">
-        <v>1.95</v>
-      </c>
-      <c r="AK423">
-        <v>1.15</v>
-      </c>
-      <c r="AL423">
-        <v>1.2</v>
-      </c>
-      <c r="AM423">
-        <v>2.2</v>
-      </c>
-      <c r="AN423">
-        <v>1.93</v>
-      </c>
-      <c r="AO423">
-        <v>0.93</v>
-      </c>
-      <c r="AP423">
-        <v>1.75</v>
-      </c>
       <c r="AQ423">
-        <v>0.9399999999999999</v>
+        <v>2.07</v>
       </c>
       <c r="AR423">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="AS423">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="AT423">
-        <v>3.09</v>
+        <v>3.06</v>
       </c>
       <c r="AU423">
         <v>-1</v>
@@ -89346,13 +89346,13 @@
         <v>-1</v>
       </c>
       <c r="BD423">
-        <v>1.41</v>
+        <v>1.84</v>
       </c>
       <c r="BE423">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="BF423">
-        <v>3.05</v>
+        <v>2.05</v>
       </c>
       <c r="BG423">
         <v>1.34</v>
@@ -89361,28 +89361,28 @@
         <v>2.9</v>
       </c>
       <c r="BI423">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="BJ423">
-        <v>2.18</v>
+        <v>2.17</v>
       </c>
       <c r="BK423">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="BL423">
         <v>1.73</v>
       </c>
       <c r="BM423">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="BN423">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="BO423">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="BP423">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="424" spans="1:68">
@@ -89390,7 +89390,7 @@
         <v>423</v>
       </c>
       <c r="B424">
-        <v>7295662</v>
+        <v>7295660</v>
       </c>
       <c r="C424" t="s">
         <v>68</v>
@@ -89405,10 +89405,10 @@
         <v>0</v>
       </c>
       <c r="G424" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="H424" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="I424">
         <v>1</v>
@@ -89420,109 +89420,109 @@
         <v>1</v>
       </c>
       <c r="L424">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M424">
         <v>0</v>
       </c>
       <c r="N424">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O424" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P424" t="s">
         <v>104</v>
       </c>
       <c r="Q424">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="R424">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="S424">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="T424">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="U424">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V424">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="W424">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="X424">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="Y424">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="Z424">
-        <v>2.15</v>
+        <v>1.67</v>
       </c>
       <c r="AA424">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AB424">
-        <v>3.1</v>
+        <v>4.63</v>
       </c>
       <c r="AC424">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AD424">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AE424">
+        <v>1.28</v>
+      </c>
+      <c r="AF424">
+        <v>3.6</v>
+      </c>
+      <c r="AG424">
+        <v>1.63</v>
+      </c>
+      <c r="AH424">
+        <v>2.19</v>
+      </c>
+      <c r="AI424">
+        <v>1.8</v>
+      </c>
+      <c r="AJ424">
+        <v>1.95</v>
+      </c>
+      <c r="AK424">
         <v>1.18</v>
-      </c>
-      <c r="AF424">
-        <v>4.75</v>
-      </c>
-      <c r="AG424">
-        <v>1.65</v>
-      </c>
-      <c r="AH424">
-        <v>2.1</v>
-      </c>
-      <c r="AI424">
-        <v>1.5</v>
-      </c>
-      <c r="AJ424">
-        <v>2.5</v>
-      </c>
-      <c r="AK424">
-        <v>1.3</v>
       </c>
       <c r="AL424">
         <v>1.22</v>
       </c>
       <c r="AM424">
-        <v>1.77</v>
+        <v>2.05</v>
       </c>
       <c r="AN424">
-        <v>1.43</v>
+        <v>1.64</v>
       </c>
       <c r="AO424">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AP424">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="AQ424">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR424">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="AS424">
         <v>1.24</v>
       </c>
       <c r="AT424">
-        <v>2.56</v>
+        <v>2.44</v>
       </c>
       <c r="AU424">
         <v>-1</v>
@@ -89552,43 +89552,43 @@
         <v>-1</v>
       </c>
       <c r="BD424">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="BE424">
         <v>6.4</v>
       </c>
       <c r="BF424">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="BG424">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="BH424">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="BI424">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="BJ424">
-        <v>2.32</v>
+        <v>2.08</v>
       </c>
       <c r="BK424">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="BL424">
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="BM424">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="BN424">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="BO424">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="BP424">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="425" spans="1:68">
@@ -89596,7 +89596,7 @@
         <v>424</v>
       </c>
       <c r="B425">
-        <v>7295659</v>
+        <v>7295661</v>
       </c>
       <c r="C425" t="s">
         <v>68</v>
@@ -89611,49 +89611,49 @@
         <v>0</v>
       </c>
       <c r="G425" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H425" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I425">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J425">
         <v>0</v>
       </c>
       <c r="K425">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L425">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M425">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N425">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O425" t="s">
-        <v>112</v>
+        <v>393</v>
       </c>
       <c r="P425" t="s">
-        <v>111</v>
+        <v>610</v>
       </c>
       <c r="Q425">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="R425">
         <v>2.3</v>
       </c>
       <c r="S425">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="T425">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U425">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V425">
         <v>2.5</v>
@@ -89662,73 +89662,73 @@
         <v>1.5</v>
       </c>
       <c r="X425">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y425">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z425">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="AA425">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="AB425">
-        <v>2.67</v>
+        <v>4</v>
       </c>
       <c r="AC425">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AD425">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AE425">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AF425">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="AG425">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AH425">
-        <v>2.33</v>
+        <v>2.3</v>
       </c>
       <c r="AI425">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AJ425">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AK425">
+        <v>1.22</v>
+      </c>
+      <c r="AL425">
+        <v>1.22</v>
+      </c>
+      <c r="AM425">
+        <v>1.91</v>
+      </c>
+      <c r="AN425">
+        <v>1.92</v>
+      </c>
+      <c r="AO425">
         <v>1.5</v>
       </c>
-      <c r="AL425">
-        <v>1.25</v>
-      </c>
-      <c r="AM425">
-        <v>1.48</v>
-      </c>
-      <c r="AN425">
-        <v>1.86</v>
-      </c>
-      <c r="AO425">
-        <v>2.14</v>
-      </c>
       <c r="AP425">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ425">
-        <v>2.07</v>
+        <v>1.5</v>
       </c>
       <c r="AR425">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="AS425">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AT425">
-        <v>3.06</v>
+        <v>2.98</v>
       </c>
       <c r="AU425">
         <v>-1</v>
@@ -89758,43 +89758,43 @@
         <v>-1</v>
       </c>
       <c r="BD425">
-        <v>1.84</v>
+        <v>1.56</v>
       </c>
       <c r="BE425">
         <v>6.25</v>
       </c>
       <c r="BF425">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="BG425">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="BH425">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
       <c r="BI425">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="BJ425">
-        <v>2.17</v>
+        <v>2.02</v>
       </c>
       <c r="BK425">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
       <c r="BL425">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="BM425">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="BN425">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="BO425">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="BP425">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="426" spans="1:68">
@@ -89802,7 +89802,7 @@
         <v>425</v>
       </c>
       <c r="B426">
-        <v>7295660</v>
+        <v>7295662</v>
       </c>
       <c r="C426" t="s">
         <v>68</v>
@@ -89817,10 +89817,10 @@
         <v>0</v>
       </c>
       <c r="G426" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="H426" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I426">
         <v>1</v>
@@ -89832,13 +89832,13 @@
         <v>1</v>
       </c>
       <c r="L426">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M426">
         <v>0</v>
       </c>
       <c r="N426">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O426" t="s">
         <v>394</v>
@@ -89847,94 +89847,94 @@
         <v>104</v>
       </c>
       <c r="Q426">
+        <v>2.63</v>
+      </c>
+      <c r="R426">
         <v>2.4</v>
       </c>
-      <c r="R426">
-        <v>2.2</v>
-      </c>
       <c r="S426">
+        <v>3.5</v>
+      </c>
+      <c r="T426">
+        <v>1.29</v>
+      </c>
+      <c r="U426">
+        <v>3.5</v>
+      </c>
+      <c r="V426">
+        <v>2.25</v>
+      </c>
+      <c r="W426">
+        <v>1.57</v>
+      </c>
+      <c r="X426">
+        <v>5.5</v>
+      </c>
+      <c r="Y426">
+        <v>1.14</v>
+      </c>
+      <c r="Z426">
+        <v>2.15</v>
+      </c>
+      <c r="AA426">
+        <v>3.5</v>
+      </c>
+      <c r="AB426">
+        <v>3.1</v>
+      </c>
+      <c r="AC426">
+        <v>1.01</v>
+      </c>
+      <c r="AD426">
+        <v>13</v>
+      </c>
+      <c r="AE426">
+        <v>1.18</v>
+      </c>
+      <c r="AF426">
         <v>4.75</v>
       </c>
-      <c r="T426">
-        <v>1.36</v>
-      </c>
-      <c r="U426">
-        <v>3</v>
-      </c>
-      <c r="V426">
-        <v>2.75</v>
-      </c>
-      <c r="W426">
-        <v>1.4</v>
-      </c>
-      <c r="X426">
-        <v>8</v>
-      </c>
-      <c r="Y426">
-        <v>1.08</v>
-      </c>
-      <c r="Z426">
-        <v>1.67</v>
-      </c>
-      <c r="AA426">
-        <v>4</v>
-      </c>
-      <c r="AB426">
-        <v>4.63</v>
-      </c>
-      <c r="AC426">
-        <v>1.05</v>
-      </c>
-      <c r="AD426">
-        <v>9.5</v>
-      </c>
-      <c r="AE426">
-        <v>1.28</v>
-      </c>
-      <c r="AF426">
-        <v>3.6</v>
-      </c>
       <c r="AG426">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="AH426">
-        <v>2.19</v>
+        <v>2.1</v>
       </c>
       <c r="AI426">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AJ426">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="AK426">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="AL426">
         <v>1.22</v>
       </c>
       <c r="AM426">
-        <v>2.05</v>
+        <v>1.77</v>
       </c>
       <c r="AN426">
-        <v>1.64</v>
+        <v>1.43</v>
       </c>
       <c r="AO426">
-        <v>0.92</v>
+        <v>0.73</v>
       </c>
       <c r="AP426">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ426">
-        <v>0.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR426">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="AS426">
         <v>1.24</v>
       </c>
       <c r="AT426">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="AU426">
         <v>-1</v>
@@ -89964,43 +89964,43 @@
         <v>-1</v>
       </c>
       <c r="BD426">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="BE426">
         <v>6.4</v>
       </c>
       <c r="BF426">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="BG426">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="BH426">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="BI426">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="BJ426">
-        <v>2.08</v>
+        <v>2.32</v>
       </c>
       <c r="BK426">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="BL426">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="BM426">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="BN426">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="BO426">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="BP426">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="427" spans="1:68">
@@ -90008,7 +90008,7 @@
         <v>426</v>
       </c>
       <c r="B427">
-        <v>7295661</v>
+        <v>7295663</v>
       </c>
       <c r="C427" t="s">
         <v>68</v>
@@ -90023,28 +90023,28 @@
         <v>0</v>
       </c>
       <c r="G427" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="H427" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="I427">
         <v>1</v>
       </c>
       <c r="J427">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K427">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L427">
+        <v>2</v>
+      </c>
+      <c r="M427">
+        <v>2</v>
+      </c>
+      <c r="N427">
         <v>4</v>
-      </c>
-      <c r="M427">
-        <v>3</v>
-      </c>
-      <c r="N427">
-        <v>7</v>
       </c>
       <c r="O427" t="s">
         <v>395</v>
@@ -90053,94 +90053,94 @@
         <v>611</v>
       </c>
       <c r="Q427">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="R427">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S427">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T427">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U427">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V427">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="W427">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="X427">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y427">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z427">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA427">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AB427">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AC427">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AD427">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AE427">
         <v>1.22</v>
       </c>
       <c r="AF427">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AG427">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AH427">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AI427">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AJ427">
+        <v>1.95</v>
+      </c>
+      <c r="AK427">
+        <v>1.15</v>
+      </c>
+      <c r="AL427">
+        <v>1.2</v>
+      </c>
+      <c r="AM427">
         <v>2.2</v>
       </c>
-      <c r="AK427">
-        <v>1.22</v>
-      </c>
-      <c r="AL427">
-        <v>1.22</v>
-      </c>
-      <c r="AM427">
-        <v>1.91</v>
-      </c>
       <c r="AN427">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="AO427">
-        <v>1.5</v>
+        <v>0.93</v>
       </c>
       <c r="AP427">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ427">
-        <v>1.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR427">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AS427">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AT427">
-        <v>2.98</v>
+        <v>3.09</v>
       </c>
       <c r="AU427">
         <v>-1</v>
@@ -90170,43 +90170,43 @@
         <v>-1</v>
       </c>
       <c r="BD427">
-        <v>1.56</v>
+        <v>1.41</v>
       </c>
       <c r="BE427">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="BF427">
-        <v>2.55</v>
+        <v>3.05</v>
       </c>
       <c r="BG427">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="BH427">
-        <v>2.65</v>
+        <v>2.9</v>
       </c>
       <c r="BI427">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="BJ427">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="BK427">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="BL427">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="BM427">
-        <v>2.75</v>
+        <v>2.48</v>
       </c>
       <c r="BN427">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="BO427">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="BP427">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="428" spans="1:68">
@@ -90214,7 +90214,7 @@
         <v>427</v>
       </c>
       <c r="B428">
-        <v>7295669</v>
+        <v>7295672</v>
       </c>
       <c r="C428" t="s">
         <v>68</v>
@@ -90229,10 +90229,10 @@
         <v>0</v>
       </c>
       <c r="G428" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H428" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I428">
         <v>2</v>
@@ -90244,109 +90244,109 @@
         <v>2</v>
       </c>
       <c r="L428">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M428">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N428">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O428" t="s">
         <v>396</v>
       </c>
       <c r="P428" t="s">
-        <v>612</v>
+        <v>104</v>
       </c>
       <c r="Q428">
         <v>2.5</v>
       </c>
       <c r="R428">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S428">
+        <v>3.75</v>
+      </c>
+      <c r="T428">
+        <v>1.29</v>
+      </c>
+      <c r="U428">
+        <v>3.5</v>
+      </c>
+      <c r="V428">
+        <v>2.25</v>
+      </c>
+      <c r="W428">
+        <v>1.57</v>
+      </c>
+      <c r="X428">
+        <v>5.5</v>
+      </c>
+      <c r="Y428">
+        <v>1.14</v>
+      </c>
+      <c r="Z428">
+        <v>1.85</v>
+      </c>
+      <c r="AA428">
+        <v>4.1</v>
+      </c>
+      <c r="AB428">
         <v>3.6</v>
-      </c>
-      <c r="T428">
-        <v>1.25</v>
-      </c>
-      <c r="U428">
-        <v>3.75</v>
-      </c>
-      <c r="V428">
-        <v>2.2</v>
-      </c>
-      <c r="W428">
-        <v>1.62</v>
-      </c>
-      <c r="X428">
-        <v>5</v>
-      </c>
-      <c r="Y428">
-        <v>1.17</v>
-      </c>
-      <c r="Z428">
-        <v>1.77</v>
-      </c>
-      <c r="AA428">
-        <v>4.2</v>
-      </c>
-      <c r="AB428">
-        <v>3.82</v>
       </c>
       <c r="AC428">
         <v>1.01</v>
       </c>
       <c r="AD428">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AE428">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AF428">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="AG428">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AH428">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="AI428">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AJ428">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AK428">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AL428">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AM428">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="AN428">
-        <v>2.21</v>
+        <v>0.93</v>
       </c>
       <c r="AO428">
-        <v>0.86</v>
+        <v>1.21</v>
       </c>
       <c r="AP428">
-        <v>2.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ428">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="AR428">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="AS428">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="AT428">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="AU428">
         <v>-1</v>
@@ -90376,37 +90376,37 @@
         <v>-1</v>
       </c>
       <c r="BD428">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
       <c r="BE428">
         <v>6.4</v>
       </c>
       <c r="BF428">
-        <v>2.95</v>
+        <v>2.55</v>
       </c>
       <c r="BG428">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="BH428">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="BI428">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="BJ428">
-        <v>2.23</v>
+        <v>2.28</v>
       </c>
       <c r="BK428">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="BL428">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="BM428">
         <v>2.4</v>
       </c>
       <c r="BN428">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="BO428">
         <v>3.15</v>
@@ -90420,7 +90420,7 @@
         <v>428</v>
       </c>
       <c r="B429">
-        <v>7295668</v>
+        <v>7295671</v>
       </c>
       <c r="C429" t="s">
         <v>68</v>
@@ -90435,88 +90435,88 @@
         <v>0</v>
       </c>
       <c r="G429" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H429" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="I429">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J429">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K429">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L429">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M429">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N429">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O429" t="s">
-        <v>397</v>
+        <v>139</v>
       </c>
       <c r="P429" t="s">
-        <v>104</v>
+        <v>612</v>
       </c>
       <c r="Q429">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="R429">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S429">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="T429">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U429">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V429">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="W429">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="X429">
+        <v>5.5</v>
+      </c>
+      <c r="Y429">
+        <v>1.14</v>
+      </c>
+      <c r="Z429">
+        <v>2.35</v>
+      </c>
+      <c r="AA429">
+        <v>3.9</v>
+      </c>
+      <c r="AB429">
+        <v>2.61</v>
+      </c>
+      <c r="AC429">
+        <v>1.02</v>
+      </c>
+      <c r="AD429">
+        <v>17</v>
+      </c>
+      <c r="AE429">
+        <v>1.18</v>
+      </c>
+      <c r="AF429">
         <v>5</v>
       </c>
-      <c r="Y429">
-        <v>1.17</v>
-      </c>
-      <c r="Z429">
-        <v>1.72</v>
-      </c>
-      <c r="AA429">
-        <v>4.1</v>
-      </c>
-      <c r="AB429">
-        <v>4.17</v>
-      </c>
-      <c r="AC429">
-        <v>1.01</v>
-      </c>
-      <c r="AD429">
-        <v>21</v>
-      </c>
-      <c r="AE429">
-        <v>1.1</v>
-      </c>
-      <c r="AF429">
-        <v>4.75</v>
-      </c>
       <c r="AG429">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="AH429">
-        <v>2.46</v>
+        <v>2.63</v>
       </c>
       <c r="AI429">
         <v>1.5</v>
@@ -90525,100 +90525,100 @@
         <v>2.5</v>
       </c>
       <c r="AK429">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AL429">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="AM429">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="AN429">
-        <v>2.14</v>
+        <v>0.71</v>
       </c>
       <c r="AO429">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="AP429">
-        <v>2.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ429">
-        <v>0.9399999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="AR429">
-        <v>1.59</v>
+        <v>1.37</v>
       </c>
       <c r="AS429">
-        <v>1.06</v>
+        <v>1.4</v>
       </c>
       <c r="AT429">
-        <v>2.65</v>
+        <v>2.77</v>
       </c>
       <c r="AU429">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV429">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW429">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AX429">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY429">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AZ429">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BA429">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB429">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC429">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD429">
-        <v>1.38</v>
+        <v>1.8</v>
       </c>
       <c r="BE429">
         <v>6.75</v>
       </c>
       <c r="BF429">
-        <v>3.15</v>
+        <v>2.07</v>
       </c>
       <c r="BG429">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="BH429">
-        <v>3.05</v>
+        <v>4.6</v>
       </c>
       <c r="BI429">
-        <v>1.57</v>
+        <v>1.28</v>
       </c>
       <c r="BJ429">
-        <v>2.23</v>
+        <v>3.3</v>
       </c>
       <c r="BK429">
-        <v>1.93</v>
+        <v>1.48</v>
       </c>
       <c r="BL429">
-        <v>1.76</v>
+        <v>2.45</v>
       </c>
       <c r="BM429">
-        <v>2.4</v>
+        <v>1.74</v>
       </c>
       <c r="BN429">
-        <v>1.49</v>
+        <v>1.96</v>
       </c>
       <c r="BO429">
-        <v>3.15</v>
+        <v>2.15</v>
       </c>
       <c r="BP429">
-        <v>1.3</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="430" spans="1:68">
@@ -90665,7 +90665,7 @@
         <v>6</v>
       </c>
       <c r="O430" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P430" t="s">
         <v>613</v>
@@ -90761,31 +90761,31 @@
         <v>2.93</v>
       </c>
       <c r="AU430">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV430">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW430">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX430">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AY430">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ430">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA430">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB430">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BC430">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BD430">
         <v>1.5</v>
@@ -90832,7 +90832,7 @@
         <v>430</v>
       </c>
       <c r="B431">
-        <v>7295667</v>
+        <v>7295669</v>
       </c>
       <c r="C431" t="s">
         <v>68</v>
@@ -90847,187 +90847,187 @@
         <v>0</v>
       </c>
       <c r="G431" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H431" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I431">
         <v>2</v>
       </c>
       <c r="J431">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K431">
+        <v>2</v>
+      </c>
+      <c r="L431">
         <v>3</v>
       </c>
-      <c r="L431">
-        <v>2</v>
-      </c>
       <c r="M431">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N431">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O431" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P431" t="s">
         <v>614</v>
       </c>
       <c r="Q431">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="R431">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="S431">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="T431">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="U431">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V431">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="W431">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="X431">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y431">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="Z431">
-        <v>2.87</v>
+        <v>1.77</v>
       </c>
       <c r="AA431">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="AB431">
-        <v>2.32</v>
+        <v>3.82</v>
       </c>
       <c r="AC431">
         <v>1.01</v>
       </c>
       <c r="AD431">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="AE431">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AF431">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="AG431">
-        <v>1.7</v>
+        <v>1.38</v>
       </c>
       <c r="AH431">
-        <v>2.08</v>
+        <v>2.9</v>
       </c>
       <c r="AI431">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="AJ431">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="AK431">
-        <v>1.78</v>
+        <v>1.3</v>
       </c>
       <c r="AL431">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AM431">
+        <v>1.9</v>
+      </c>
+      <c r="AN431">
+        <v>2.21</v>
+      </c>
+      <c r="AO431">
+        <v>0.86</v>
+      </c>
+      <c r="AP431">
+        <v>2.13</v>
+      </c>
+      <c r="AQ431">
+        <v>0.88</v>
+      </c>
+      <c r="AR431">
+        <v>1.74</v>
+      </c>
+      <c r="AS431">
+        <v>1.21</v>
+      </c>
+      <c r="AT431">
+        <v>2.95</v>
+      </c>
+      <c r="AU431">
+        <v>3</v>
+      </c>
+      <c r="AV431">
+        <v>3</v>
+      </c>
+      <c r="AW431">
+        <v>13</v>
+      </c>
+      <c r="AX431">
+        <v>6</v>
+      </c>
+      <c r="AY431">
+        <v>16</v>
+      </c>
+      <c r="AZ431">
+        <v>9</v>
+      </c>
+      <c r="BA431">
+        <v>6</v>
+      </c>
+      <c r="BB431">
+        <v>3</v>
+      </c>
+      <c r="BC431">
+        <v>9</v>
+      </c>
+      <c r="BD431">
+        <v>1.43</v>
+      </c>
+      <c r="BE431">
+        <v>6.4</v>
+      </c>
+      <c r="BF431">
+        <v>2.95</v>
+      </c>
+      <c r="BG431">
         <v>1.33</v>
       </c>
-      <c r="AN431">
-        <v>1.33</v>
-      </c>
-      <c r="AO431">
-        <v>2.21</v>
-      </c>
-      <c r="AP431">
-        <v>1.31</v>
-      </c>
-      <c r="AQ431">
-        <v>2.13</v>
-      </c>
-      <c r="AR431">
-        <v>1.24</v>
-      </c>
-      <c r="AS431">
-        <v>1.35</v>
-      </c>
-      <c r="AT431">
-        <v>2.59</v>
-      </c>
-      <c r="AU431">
-        <v>-1</v>
-      </c>
-      <c r="AV431">
-        <v>-1</v>
-      </c>
-      <c r="AW431">
-        <v>-1</v>
-      </c>
-      <c r="AX431">
-        <v>-1</v>
-      </c>
-      <c r="AY431">
-        <v>-1</v>
-      </c>
-      <c r="AZ431">
-        <v>-1</v>
-      </c>
-      <c r="BA431">
-        <v>-1</v>
-      </c>
-      <c r="BB431">
-        <v>-1</v>
-      </c>
-      <c r="BC431">
-        <v>-1</v>
-      </c>
-      <c r="BD431">
-        <v>1.98</v>
-      </c>
-      <c r="BE431">
-        <v>6.1</v>
-      </c>
-      <c r="BF431">
+      <c r="BH431">
+        <v>2.95</v>
+      </c>
+      <c r="BI431">
+        <v>1.57</v>
+      </c>
+      <c r="BJ431">
+        <v>2.23</v>
+      </c>
+      <c r="BK431">
         <v>1.92</v>
       </c>
-      <c r="BG431">
-        <v>1.32</v>
-      </c>
-      <c r="BH431">
-        <v>3.05</v>
-      </c>
-      <c r="BI431">
-        <v>1.55</v>
-      </c>
-      <c r="BJ431">
-        <v>2.28</v>
-      </c>
-      <c r="BK431">
-        <v>1.89</v>
-      </c>
       <c r="BL431">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="BM431">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="BN431">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="BO431">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="BP431">
         <v>1.3</v>
@@ -91038,7 +91038,7 @@
         <v>431</v>
       </c>
       <c r="B432">
-        <v>7295665</v>
+        <v>7295668</v>
       </c>
       <c r="C432" t="s">
         <v>68</v>
@@ -91053,190 +91053,190 @@
         <v>0</v>
       </c>
       <c r="G432" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H432" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="I432">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J432">
         <v>0</v>
       </c>
       <c r="K432">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L432">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M432">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N432">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O432" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P432" t="s">
-        <v>179</v>
+        <v>104</v>
       </c>
       <c r="Q432">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="R432">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="S432">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="T432">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="U432">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="V432">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="W432">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="X432">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y432">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="Z432">
-        <v>2.9</v>
+        <v>1.72</v>
       </c>
       <c r="AA432">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="AB432">
-        <v>2.22</v>
+        <v>4.17</v>
       </c>
       <c r="AC432">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD432">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE432">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="AF432">
         <v>4.75</v>
       </c>
       <c r="AG432">
-        <v>1.65</v>
+        <v>1.51</v>
       </c>
       <c r="AH432">
-        <v>2.16</v>
+        <v>2.46</v>
       </c>
       <c r="AI432">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AJ432">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AK432">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AL432">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AM432">
-        <v>1.47</v>
+        <v>2.2</v>
       </c>
       <c r="AN432">
-        <v>1.86</v>
+        <v>2.14</v>
       </c>
       <c r="AO432">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="AP432">
-        <v>1.81</v>
+        <v>2.2</v>
       </c>
       <c r="AQ432">
-        <v>1.4</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR432">
-        <v>1.47</v>
+        <v>1.59</v>
       </c>
       <c r="AS432">
-        <v>1.44</v>
+        <v>1.06</v>
       </c>
       <c r="AT432">
-        <v>2.91</v>
+        <v>2.65</v>
       </c>
       <c r="AU432">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV432">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW432">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX432">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AY432">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ432">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="BA432">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB432">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC432">
         <v>8</v>
       </c>
       <c r="BD432">
-        <v>2.1</v>
+        <v>1.38</v>
       </c>
       <c r="BE432">
-        <v>6.1</v>
+        <v>6.75</v>
       </c>
       <c r="BF432">
-        <v>1.79</v>
+        <v>3.15</v>
       </c>
       <c r="BG432">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="BH432">
+        <v>3.05</v>
+      </c>
+      <c r="BI432">
+        <v>1.57</v>
+      </c>
+      <c r="BJ432">
+        <v>2.23</v>
+      </c>
+      <c r="BK432">
+        <v>1.93</v>
+      </c>
+      <c r="BL432">
+        <v>1.76</v>
+      </c>
+      <c r="BM432">
+        <v>2.4</v>
+      </c>
+      <c r="BN432">
+        <v>1.49</v>
+      </c>
+      <c r="BO432">
         <v>3.15</v>
       </c>
-      <c r="BI432">
-        <v>1.5</v>
-      </c>
-      <c r="BJ432">
-        <v>2.35</v>
-      </c>
-      <c r="BK432">
-        <v>1.83</v>
-      </c>
-      <c r="BL432">
-        <v>1.85</v>
-      </c>
-      <c r="BM432">
-        <v>2.32</v>
-      </c>
-      <c r="BN432">
-        <v>1.53</v>
-      </c>
-      <c r="BO432">
-        <v>2.95</v>
-      </c>
       <c r="BP432">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="433" spans="1:68">
@@ -91244,7 +91244,7 @@
         <v>432</v>
       </c>
       <c r="B433">
-        <v>7295666</v>
+        <v>7295665</v>
       </c>
       <c r="C433" t="s">
         <v>68</v>
@@ -91259,88 +91259,88 @@
         <v>0</v>
       </c>
       <c r="G433" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H433" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I433">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J433">
         <v>0</v>
       </c>
       <c r="K433">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L433">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M433">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N433">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O433" t="s">
-        <v>104</v>
+        <v>400</v>
       </c>
       <c r="P433" t="s">
-        <v>615</v>
+        <v>179</v>
       </c>
       <c r="Q433">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="R433">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S433">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T433">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U433">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V433">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="W433">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="X433">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y433">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="Z433">
-        <v>2.03</v>
+        <v>2.9</v>
       </c>
       <c r="AA433">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AB433">
-        <v>3.23</v>
+        <v>2.22</v>
       </c>
       <c r="AC433">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD433">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AE433">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="AF433">
-        <v>5.15</v>
+        <v>4.75</v>
       </c>
       <c r="AG433">
-        <v>1.47</v>
+        <v>1.65</v>
       </c>
       <c r="AH433">
-        <v>2.57</v>
+        <v>2.16</v>
       </c>
       <c r="AI433">
         <v>1.53</v>
@@ -91349,100 +91349,100 @@
         <v>2.38</v>
       </c>
       <c r="AK433">
-        <v>1.27</v>
+        <v>1.6</v>
       </c>
       <c r="AL433">
         <v>1.25</v>
       </c>
       <c r="AM433">
-        <v>1.96</v>
+        <v>1.47</v>
       </c>
       <c r="AN433">
+        <v>1.86</v>
+      </c>
+      <c r="AO433">
+        <v>1.38</v>
+      </c>
+      <c r="AP433">
+        <v>1.81</v>
+      </c>
+      <c r="AQ433">
+        <v>1.4</v>
+      </c>
+      <c r="AR433">
         <v>1.47</v>
       </c>
-      <c r="AO433">
-        <v>1.43</v>
-      </c>
-      <c r="AP433">
-        <v>1.38</v>
-      </c>
-      <c r="AQ433">
-        <v>1.53</v>
-      </c>
-      <c r="AR433">
-        <v>1.64</v>
-      </c>
       <c r="AS433">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="AT433">
-        <v>2.98</v>
+        <v>2.91</v>
       </c>
       <c r="AU433">
         <v>5</v>
       </c>
       <c r="AV433">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW433">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AX433">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AY433">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ433">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="BA433">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BB433">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BC433">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD433">
-        <v>1.52</v>
+        <v>2.1</v>
       </c>
       <c r="BE433">
-        <v>6.75</v>
+        <v>6.1</v>
       </c>
       <c r="BF433">
-        <v>2.6</v>
+        <v>1.79</v>
       </c>
       <c r="BG433">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="BH433">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="BI433">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="BJ433">
-        <v>2.8</v>
+        <v>2.35</v>
       </c>
       <c r="BK433">
-        <v>1.61</v>
+        <v>1.83</v>
       </c>
       <c r="BL433">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="BM433">
-        <v>1.98</v>
+        <v>2.32</v>
       </c>
       <c r="BN433">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="BO433">
-        <v>2.48</v>
+        <v>2.95</v>
       </c>
       <c r="BP433">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="434" spans="1:68">
@@ -91450,7 +91450,7 @@
         <v>433</v>
       </c>
       <c r="B434">
-        <v>7295664</v>
+        <v>7295666</v>
       </c>
       <c r="C434" t="s">
         <v>68</v>
@@ -91465,10 +91465,10 @@
         <v>0</v>
       </c>
       <c r="G434" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H434" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I434">
         <v>0</v>
@@ -91483,172 +91483,172 @@
         <v>0</v>
       </c>
       <c r="M434">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N434">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O434" t="s">
         <v>104</v>
       </c>
       <c r="P434" t="s">
-        <v>419</v>
+        <v>615</v>
       </c>
       <c r="Q434">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="R434">
+        <v>2.4</v>
+      </c>
+      <c r="S434">
+        <v>4</v>
+      </c>
+      <c r="T434">
+        <v>1.29</v>
+      </c>
+      <c r="U434">
+        <v>3.5</v>
+      </c>
+      <c r="V434">
         <v>2.25</v>
       </c>
-      <c r="S434">
-        <v>3.25</v>
-      </c>
-      <c r="T434">
-        <v>1.33</v>
-      </c>
-      <c r="U434">
-        <v>3.25</v>
-      </c>
-      <c r="V434">
-        <v>2.63</v>
-      </c>
       <c r="W434">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="X434">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y434">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="Z434">
-        <v>2.7</v>
+        <v>2.03</v>
       </c>
       <c r="AA434">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="AB434">
-        <v>2.5</v>
+        <v>3.23</v>
       </c>
       <c r="AC434">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD434">
-        <v>10.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE434">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AF434">
-        <v>3.78</v>
+        <v>5.15</v>
       </c>
       <c r="AG434">
-        <v>1.77</v>
+        <v>1.47</v>
       </c>
       <c r="AH434">
-        <v>1.98</v>
+        <v>2.57</v>
       </c>
       <c r="AI434">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AJ434">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AK434">
-        <v>1.45</v>
+        <v>1.27</v>
       </c>
       <c r="AL434">
         <v>1.25</v>
       </c>
       <c r="AM434">
-        <v>1.6</v>
+        <v>1.96</v>
       </c>
       <c r="AN434">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AO434">
+        <v>1.43</v>
+      </c>
+      <c r="AP434">
+        <v>1.38</v>
+      </c>
+      <c r="AQ434">
+        <v>1.53</v>
+      </c>
+      <c r="AR434">
         <v>1.64</v>
       </c>
-      <c r="AP434">
-        <v>1.44</v>
-      </c>
-      <c r="AQ434">
-        <v>1.63</v>
-      </c>
-      <c r="AR434">
-        <v>1.18</v>
-      </c>
       <c r="AS434">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AT434">
-        <v>2.5</v>
+        <v>2.98</v>
       </c>
       <c r="AU434">
         <v>5</v>
       </c>
       <c r="AV434">
+        <v>2</v>
+      </c>
+      <c r="AW434">
+        <v>13</v>
+      </c>
+      <c r="AX434">
+        <v>2</v>
+      </c>
+      <c r="AY434">
+        <v>18</v>
+      </c>
+      <c r="AZ434">
         <v>4</v>
       </c>
-      <c r="AW434">
-        <v>14</v>
-      </c>
-      <c r="AX434">
-        <v>11</v>
-      </c>
-      <c r="AY434">
-        <v>19</v>
-      </c>
-      <c r="AZ434">
-        <v>15</v>
-      </c>
       <c r="BA434">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BB434">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC434">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BD434">
-        <v>1.76</v>
+        <v>1.52</v>
       </c>
       <c r="BE434">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF434">
+        <v>2.6</v>
+      </c>
+      <c r="BG434">
+        <v>1.2</v>
+      </c>
+      <c r="BH434">
+        <v>3.9</v>
+      </c>
+      <c r="BI434">
+        <v>1.37</v>
+      </c>
+      <c r="BJ434">
+        <v>2.8</v>
+      </c>
+      <c r="BK434">
+        <v>1.61</v>
+      </c>
+      <c r="BL434">
         <v>2.15</v>
       </c>
-      <c r="BG434">
-        <v>1.26</v>
-      </c>
-      <c r="BH434">
-        <v>3.4</v>
-      </c>
-      <c r="BI434">
+      <c r="BM434">
+        <v>1.98</v>
+      </c>
+      <c r="BN434">
+        <v>1.72</v>
+      </c>
+      <c r="BO434">
+        <v>2.48</v>
+      </c>
+      <c r="BP434">
         <v>1.47</v>
-      </c>
-      <c r="BJ434">
-        <v>2.48</v>
-      </c>
-      <c r="BK434">
-        <v>1.76</v>
-      </c>
-      <c r="BL434">
-        <v>1.94</v>
-      </c>
-      <c r="BM434">
-        <v>2.18</v>
-      </c>
-      <c r="BN434">
-        <v>1.58</v>
-      </c>
-      <c r="BO434">
-        <v>2.8</v>
-      </c>
-      <c r="BP434">
-        <v>1.37</v>
       </c>
     </row>
     <row r="435" spans="1:68">
@@ -91656,7 +91656,7 @@
         <v>434</v>
       </c>
       <c r="B435">
-        <v>7295671</v>
+        <v>7295664</v>
       </c>
       <c r="C435" t="s">
         <v>68</v>
@@ -91665,196 +91665,196 @@
         <v>69</v>
       </c>
       <c r="E435" s="2">
-        <v>45556.97916666666</v>
+        <v>45556.875</v>
       </c>
       <c r="F435">
         <v>0</v>
       </c>
       <c r="G435" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="H435" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I435">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J435">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K435">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L435">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M435">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N435">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O435" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="P435" t="s">
-        <v>616</v>
+        <v>419</v>
       </c>
       <c r="Q435">
         <v>3</v>
       </c>
       <c r="R435">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S435">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="T435">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="U435">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V435">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="W435">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="X435">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y435">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="Z435">
-        <v>2.35</v>
+        <v>2.7</v>
       </c>
       <c r="AA435">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="AB435">
-        <v>2.61</v>
+        <v>2.5</v>
       </c>
       <c r="AC435">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD435">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="AE435">
         <v>1.18</v>
       </c>
       <c r="AF435">
+        <v>3.78</v>
+      </c>
+      <c r="AG435">
+        <v>1.77</v>
+      </c>
+      <c r="AH435">
+        <v>1.98</v>
+      </c>
+      <c r="AI435">
+        <v>1.57</v>
+      </c>
+      <c r="AJ435">
+        <v>2.25</v>
+      </c>
+      <c r="AK435">
+        <v>1.45</v>
+      </c>
+      <c r="AL435">
+        <v>1.25</v>
+      </c>
+      <c r="AM435">
+        <v>1.6</v>
+      </c>
+      <c r="AN435">
+        <v>1.57</v>
+      </c>
+      <c r="AO435">
+        <v>1.64</v>
+      </c>
+      <c r="AP435">
+        <v>1.44</v>
+      </c>
+      <c r="AQ435">
+        <v>1.63</v>
+      </c>
+      <c r="AR435">
+        <v>1.18</v>
+      </c>
+      <c r="AS435">
+        <v>1.32</v>
+      </c>
+      <c r="AT435">
+        <v>2.5</v>
+      </c>
+      <c r="AU435">
         <v>5</v>
       </c>
-      <c r="AG435">
-        <v>1.45</v>
-      </c>
-      <c r="AH435">
-        <v>2.63</v>
-      </c>
-      <c r="AI435">
-        <v>1.5</v>
-      </c>
-      <c r="AJ435">
-        <v>2.5</v>
-      </c>
-      <c r="AK435">
-        <v>1.5</v>
-      </c>
-      <c r="AL435">
-        <v>1.24</v>
-      </c>
-      <c r="AM435">
-        <v>1.55</v>
-      </c>
-      <c r="AN435">
-        <v>0.71</v>
-      </c>
-      <c r="AO435">
-        <v>0.57</v>
-      </c>
-      <c r="AP435">
-        <v>0.67</v>
-      </c>
-      <c r="AQ435">
-        <v>0.73</v>
-      </c>
-      <c r="AR435">
-        <v>1.37</v>
-      </c>
-      <c r="AS435">
-        <v>1.4</v>
-      </c>
-      <c r="AT435">
-        <v>2.77</v>
-      </c>
-      <c r="AU435">
-        <v>6</v>
-      </c>
       <c r="AV435">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW435">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AX435">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AY435">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AZ435">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BA435">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BB435">
         <v>4</v>
       </c>
       <c r="BC435">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BD435">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="BE435">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF435">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="BG435">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="BH435">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="BI435">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
       <c r="BJ435">
-        <v>3.3</v>
+        <v>2.48</v>
       </c>
       <c r="BK435">
-        <v>1.48</v>
+        <v>1.76</v>
       </c>
       <c r="BL435">
-        <v>2.45</v>
+        <v>1.94</v>
       </c>
       <c r="BM435">
-        <v>1.74</v>
+        <v>2.18</v>
       </c>
       <c r="BN435">
-        <v>1.96</v>
+        <v>1.58</v>
       </c>
       <c r="BO435">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="BP435">
-        <v>1.61</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="436" spans="1:68">
@@ -91862,7 +91862,7 @@
         <v>435</v>
       </c>
       <c r="B436">
-        <v>7295672</v>
+        <v>7295667</v>
       </c>
       <c r="C436" t="s">
         <v>68</v>
@@ -91871,31 +91871,31 @@
         <v>69</v>
       </c>
       <c r="E436" s="2">
-        <v>45557.80208333334</v>
+        <v>45556.875</v>
       </c>
       <c r="F436">
         <v>0</v>
       </c>
       <c r="G436" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H436" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I436">
         <v>2</v>
       </c>
       <c r="J436">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K436">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L436">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M436">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N436">
         <v>4</v>
@@ -91904,136 +91904,136 @@
         <v>401</v>
       </c>
       <c r="P436" t="s">
-        <v>104</v>
+        <v>616</v>
       </c>
       <c r="Q436">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="R436">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="S436">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="T436">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="U436">
+        <v>3.25</v>
+      </c>
+      <c r="V436">
+        <v>2.63</v>
+      </c>
+      <c r="W436">
+        <v>1.44</v>
+      </c>
+      <c r="X436">
+        <v>7</v>
+      </c>
+      <c r="Y436">
+        <v>1.1</v>
+      </c>
+      <c r="Z436">
+        <v>2.87</v>
+      </c>
+      <c r="AA436">
         <v>3.5</v>
       </c>
-      <c r="V436">
-        <v>2.25</v>
-      </c>
-      <c r="W436">
-        <v>1.57</v>
-      </c>
-      <c r="X436">
-        <v>5.5</v>
-      </c>
-      <c r="Y436">
-        <v>1.14</v>
-      </c>
-      <c r="Z436">
-        <v>1.85</v>
-      </c>
-      <c r="AA436">
-        <v>4.1</v>
-      </c>
       <c r="AB436">
-        <v>3.6</v>
+        <v>2.32</v>
       </c>
       <c r="AC436">
         <v>1.01</v>
       </c>
       <c r="AD436">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AE436">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="AF436">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="AG436">
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="AH436">
-        <v>2.6</v>
+        <v>2.08</v>
       </c>
       <c r="AI436">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AJ436">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AK436">
-        <v>1.28</v>
+        <v>1.78</v>
       </c>
       <c r="AL436">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AM436">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="AN436">
-        <v>0.93</v>
+        <v>1.33</v>
       </c>
       <c r="AO436">
-        <v>1.21</v>
+        <v>2.21</v>
       </c>
       <c r="AP436">
-        <v>1.06</v>
+        <v>1.31</v>
       </c>
       <c r="AQ436">
-        <v>1.13</v>
+        <v>2.13</v>
       </c>
       <c r="AR436">
-        <v>1.69</v>
+        <v>1.24</v>
       </c>
       <c r="AS436">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="AT436">
-        <v>2.88</v>
+        <v>2.59</v>
       </c>
       <c r="AU436">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AV436">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW436">
         <v>6</v>
       </c>
       <c r="AX436">
+        <v>9</v>
+      </c>
+      <c r="AY436">
+        <v>6</v>
+      </c>
+      <c r="AZ436">
+        <v>13</v>
+      </c>
+      <c r="BA436">
+        <v>2</v>
+      </c>
+      <c r="BB436">
         <v>7</v>
-      </c>
-      <c r="AY436">
-        <v>16</v>
-      </c>
-      <c r="AZ436">
-        <v>12</v>
-      </c>
-      <c r="BA436">
-        <v>4</v>
-      </c>
-      <c r="BB436">
-        <v>5</v>
       </c>
       <c r="BC436">
         <v>9</v>
       </c>
       <c r="BD436">
-        <v>1.56</v>
+        <v>1.98</v>
       </c>
       <c r="BE436">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="BF436">
-        <v>2.55</v>
+        <v>1.92</v>
       </c>
       <c r="BG436">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="BH436">
         <v>3.05</v>
@@ -92045,19 +92045,19 @@
         <v>2.28</v>
       </c>
       <c r="BK436">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="BL436">
         <v>1.8</v>
       </c>
       <c r="BM436">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="BN436">
         <v>1.5</v>
       </c>
       <c r="BO436">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="BP436">
         <v>1.3</v>
@@ -92077,7 +92077,7 @@
         <v>69</v>
       </c>
       <c r="E437" s="2">
-        <v>45563.85416666666</v>
+        <v>45562.875</v>
       </c>
       <c r="F437">
         <v>0</v>
@@ -92203,31 +92203,31 @@
         <v>3.01</v>
       </c>
       <c r="AU437">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AV437">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AW437">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AX437">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AY437">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="AZ437">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="BA437">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BB437">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BC437">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BD437">
         <v>1.88</v>
@@ -92283,7 +92283,7 @@
         <v>69</v>
       </c>
       <c r="E438" s="2">
-        <v>45563.85416666666</v>
+        <v>45562.875</v>
       </c>
       <c r="F438">
         <v>0</v>
@@ -92409,31 +92409,31 @@
         <v>2.96</v>
       </c>
       <c r="AU438">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AV438">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AW438">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AX438">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AY438">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AZ438">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BA438">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BB438">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BC438">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BD438">
         <v>2.1</v>
@@ -93430,13 +93430,13 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AR443">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="AS443">
         <v>1.42</v>
       </c>
       <c r="AT443">
-        <v>3.13</v>
+        <v>3.11</v>
       </c>
       <c r="AU443">
         <v>8</v>
@@ -93510,7 +93510,7 @@
         <v>443</v>
       </c>
       <c r="B444">
-        <v>7295685</v>
+        <v>7295673</v>
       </c>
       <c r="C444" t="s">
         <v>68</v>
@@ -93519,103 +93519,103 @@
         <v>69</v>
       </c>
       <c r="E444" s="2">
-        <v>45563.89583333334</v>
+        <v>45563.875</v>
       </c>
       <c r="F444">
         <v>0</v>
       </c>
       <c r="G444" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H444" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I444">
         <v>1</v>
       </c>
       <c r="J444">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K444">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L444">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M444">
         <v>1</v>
       </c>
       <c r="N444">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O444" t="s">
-        <v>405</v>
+        <v>173</v>
       </c>
       <c r="P444" t="s">
-        <v>472</v>
+        <v>140</v>
       </c>
       <c r="Q444">
         <v>2.4</v>
       </c>
       <c r="R444">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S444">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="T444">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="U444">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="V444">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W444">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X444">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Y444">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="Z444">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="AA444">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="AB444">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AC444">
         <v>1.01</v>
       </c>
       <c r="AD444">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE444">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AF444">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AG444">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AH444">
-        <v>2.7</v>
+        <v>2.99</v>
       </c>
       <c r="AI444">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="AJ444">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AK444">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AL444">
         <v>1.2</v>
@@ -93624,91 +93624,91 @@
         <v>1.9</v>
       </c>
       <c r="AN444">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="AO444">
-        <v>0.6</v>
+        <v>0.87</v>
       </c>
       <c r="AP444">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AQ444">
-        <v>0.5600000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="AR444">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AS444">
         <v>1.19</v>
       </c>
       <c r="AT444">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="AU444">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV444">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW444">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX444">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY444">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ444">
         <v>14</v>
       </c>
       <c r="BA444">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BB444">
         <v>8</v>
       </c>
       <c r="BC444">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD444">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="BE444">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="BF444">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="BG444">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="BH444">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="BI444">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="BJ444">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="BK444">
+        <v>1.86</v>
+      </c>
+      <c r="BL444">
         <v>1.82</v>
       </c>
-      <c r="BL444">
-        <v>1.86</v>
-      </c>
       <c r="BM444">
-        <v>2.28</v>
+        <v>2.33</v>
       </c>
       <c r="BN444">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="BO444">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="BP444">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="445" spans="1:68">
@@ -93716,7 +93716,7 @@
         <v>444</v>
       </c>
       <c r="B445">
-        <v>7295684</v>
+        <v>7295685</v>
       </c>
       <c r="C445" t="s">
         <v>68</v>
@@ -93731,10 +93731,10 @@
         <v>0</v>
       </c>
       <c r="G445" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H445" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I445">
         <v>1</v>
@@ -93749,31 +93749,31 @@
         <v>3</v>
       </c>
       <c r="M445">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N445">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O445" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P445" t="s">
-        <v>104</v>
+        <v>472</v>
       </c>
       <c r="Q445">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R445">
         <v>2.5</v>
       </c>
       <c r="S445">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T445">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U445">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V445">
         <v>2.1</v>
@@ -93782,139 +93782,139 @@
         <v>1.67</v>
       </c>
       <c r="X445">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Y445">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Z445">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="AA445">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AB445">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AC445">
         <v>1.01</v>
       </c>
       <c r="AD445">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE445">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="AF445">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AG445">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AH445">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="AI445">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AJ445">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AK445">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AL445">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AM445">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AN445">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="AO445">
-        <v>1.13</v>
+        <v>0.6</v>
       </c>
       <c r="AP445">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AQ445">
-        <v>1.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR445">
-        <v>1.55</v>
+        <v>1.69</v>
       </c>
       <c r="AS445">
-        <v>1.4</v>
+        <v>1.19</v>
       </c>
       <c r="AT445">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="AU445">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AV445">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AW445">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX445">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AY445">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AZ445">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="BA445">
         <v>5</v>
       </c>
       <c r="BB445">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BC445">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BD445">
-        <v>1.93</v>
+        <v>1.56</v>
       </c>
       <c r="BE445">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="BF445">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="BG445">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="BH445">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="BI445">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="BJ445">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="BK445">
-        <v>1.52</v>
+        <v>1.82</v>
       </c>
       <c r="BL445">
-        <v>2.49</v>
+        <v>1.86</v>
       </c>
       <c r="BM445">
-        <v>1.83</v>
+        <v>2.28</v>
       </c>
       <c r="BN445">
-        <v>1.98</v>
+        <v>1.54</v>
       </c>
       <c r="BO445">
-        <v>2.24</v>
+        <v>2.9</v>
       </c>
       <c r="BP445">
-        <v>1.62</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="446" spans="1:68">
@@ -93922,7 +93922,7 @@
         <v>445</v>
       </c>
       <c r="B446">
-        <v>7295683</v>
+        <v>7295684</v>
       </c>
       <c r="C446" t="s">
         <v>68</v>
@@ -93937,190 +93937,190 @@
         <v>0</v>
       </c>
       <c r="G446" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H446" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="I446">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J446">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K446">
         <v>1</v>
       </c>
       <c r="L446">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M446">
+        <v>0</v>
+      </c>
+      <c r="N446">
         <v>3</v>
       </c>
-      <c r="N446">
+      <c r="O446" t="s">
+        <v>406</v>
+      </c>
+      <c r="P446" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q446">
+        <v>2.5</v>
+      </c>
+      <c r="R446">
+        <v>2.5</v>
+      </c>
+      <c r="S446">
+        <v>3.5</v>
+      </c>
+      <c r="T446">
+        <v>1.22</v>
+      </c>
+      <c r="U446">
         <v>4</v>
       </c>
-      <c r="O446" t="s">
-        <v>407</v>
-      </c>
-      <c r="P446" t="s">
-        <v>620</v>
-      </c>
-      <c r="Q446">
-        <v>2.88</v>
-      </c>
-      <c r="R446">
-        <v>2.25</v>
-      </c>
-      <c r="S446">
-        <v>3.4</v>
-      </c>
-      <c r="T446">
-        <v>1.33</v>
-      </c>
-      <c r="U446">
-        <v>3.25</v>
-      </c>
       <c r="V446">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="W446">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="X446">
+        <v>4.5</v>
+      </c>
+      <c r="Y446">
+        <v>1.18</v>
+      </c>
+      <c r="Z446">
+        <v>2.05</v>
+      </c>
+      <c r="AA446">
+        <v>3.95</v>
+      </c>
+      <c r="AB446">
+        <v>2.75</v>
+      </c>
+      <c r="AC446">
+        <v>1.01</v>
+      </c>
+      <c r="AD446">
+        <v>17</v>
+      </c>
+      <c r="AE446">
+        <v>1.08</v>
+      </c>
+      <c r="AF446">
         <v>6.5</v>
       </c>
-      <c r="Y446">
-        <v>1.11</v>
-      </c>
-      <c r="Z446">
-        <v>2.32</v>
-      </c>
-      <c r="AA446">
-        <v>3.55</v>
-      </c>
-      <c r="AB446">
-        <v>2.6</v>
-      </c>
-      <c r="AC446">
-        <v>1.04</v>
-      </c>
-      <c r="AD446">
-        <v>13</v>
-      </c>
-      <c r="AE446">
-        <v>1.24</v>
-      </c>
-      <c r="AF446">
-        <v>4.2</v>
-      </c>
       <c r="AG446">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="AH446">
-        <v>2.12</v>
+        <v>2.82</v>
       </c>
       <c r="AI446">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="AJ446">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="AK446">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AL446">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AM446">
+        <v>1.78</v>
+      </c>
+      <c r="AN446">
+        <v>1.27</v>
+      </c>
+      <c r="AO446">
+        <v>1.13</v>
+      </c>
+      <c r="AP446">
+        <v>1.38</v>
+      </c>
+      <c r="AQ446">
+        <v>1.06</v>
+      </c>
+      <c r="AR446">
         <v>1.55</v>
       </c>
-      <c r="AN446">
-        <v>1.93</v>
-      </c>
-      <c r="AO446">
+      <c r="AS446">
         <v>1.4</v>
       </c>
-      <c r="AP446">
-        <v>1.81</v>
-      </c>
-      <c r="AQ446">
-        <v>1.5</v>
-      </c>
-      <c r="AR446">
-        <v>1.48</v>
-      </c>
-      <c r="AS446">
-        <v>1.36</v>
-      </c>
       <c r="AT446">
-        <v>2.84</v>
+        <v>2.95</v>
       </c>
       <c r="AU446">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AV446">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AW446">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AX446">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY446">
         <v>15</v>
       </c>
       <c r="AZ446">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BA446">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB446">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BC446">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BD446">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="BE446">
-        <v>5.8</v>
+        <v>8</v>
       </c>
       <c r="BF446">
-        <v>1.88</v>
+        <v>2.15</v>
       </c>
       <c r="BG446">
+        <v>1.17</v>
+      </c>
+      <c r="BH446">
+        <v>4.5</v>
+      </c>
+      <c r="BI446">
+        <v>1.3</v>
+      </c>
+      <c r="BJ446">
+        <v>3.2</v>
+      </c>
+      <c r="BK446">
         <v>1.52</v>
       </c>
-      <c r="BH446">
-        <v>2.32</v>
-      </c>
-      <c r="BI446">
-        <v>1.89</v>
-      </c>
-      <c r="BJ446">
-        <v>1.8</v>
-      </c>
-      <c r="BK446">
-        <v>2.43</v>
-      </c>
       <c r="BL446">
-        <v>1.48</v>
+        <v>2.49</v>
       </c>
       <c r="BM446">
-        <v>3.2</v>
+        <v>1.83</v>
       </c>
       <c r="BN446">
-        <v>1.28</v>
+        <v>1.98</v>
       </c>
       <c r="BO446">
-        <v>4.4</v>
+        <v>2.24</v>
       </c>
       <c r="BP446">
-        <v>1.16</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="447" spans="1:68">
@@ -94128,7 +94128,7 @@
         <v>446</v>
       </c>
       <c r="B447">
-        <v>7295682</v>
+        <v>7295683</v>
       </c>
       <c r="C447" t="s">
         <v>68</v>
@@ -94143,10 +94143,10 @@
         <v>0</v>
       </c>
       <c r="G447" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H447" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="I447">
         <v>0</v>
@@ -94161,25 +94161,25 @@
         <v>1</v>
       </c>
       <c r="M447">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N447">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O447" t="s">
-        <v>161</v>
+        <v>407</v>
       </c>
       <c r="P447" t="s">
-        <v>147</v>
+        <v>620</v>
       </c>
       <c r="Q447">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="R447">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S447">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="T447">
         <v>1.33</v>
@@ -94200,133 +94200,133 @@
         <v>1.11</v>
       </c>
       <c r="Z447">
-        <v>1.85</v>
+        <v>2.32</v>
       </c>
       <c r="AA447">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="AB447">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="AC447">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD447">
+        <v>13</v>
+      </c>
+      <c r="AE447">
+        <v>1.24</v>
+      </c>
+      <c r="AF447">
+        <v>4.2</v>
+      </c>
+      <c r="AG447">
+        <v>1.7</v>
+      </c>
+      <c r="AH447">
+        <v>2.12</v>
+      </c>
+      <c r="AI447">
+        <v>1.57</v>
+      </c>
+      <c r="AJ447">
+        <v>2.25</v>
+      </c>
+      <c r="AK447">
+        <v>1.44</v>
+      </c>
+      <c r="AL447">
+        <v>1.29</v>
+      </c>
+      <c r="AM447">
+        <v>1.55</v>
+      </c>
+      <c r="AN447">
+        <v>1.93</v>
+      </c>
+      <c r="AO447">
+        <v>1.4</v>
+      </c>
+      <c r="AP447">
+        <v>1.81</v>
+      </c>
+      <c r="AQ447">
+        <v>1.5</v>
+      </c>
+      <c r="AR447">
+        <v>1.48</v>
+      </c>
+      <c r="AS447">
+        <v>1.36</v>
+      </c>
+      <c r="AT447">
+        <v>2.84</v>
+      </c>
+      <c r="AU447">
+        <v>7</v>
+      </c>
+      <c r="AV447">
+        <v>8</v>
+      </c>
+      <c r="AW447">
+        <v>8</v>
+      </c>
+      <c r="AX447">
+        <v>3</v>
+      </c>
+      <c r="AY447">
         <v>15</v>
       </c>
-      <c r="AE447">
-        <v>1.18</v>
-      </c>
-      <c r="AF447">
-        <v>3.76</v>
-      </c>
-      <c r="AG447">
-        <v>1.61</v>
-      </c>
-      <c r="AH447">
-        <v>2.18</v>
-      </c>
-      <c r="AI447">
-        <v>1.67</v>
-      </c>
-      <c r="AJ447">
-        <v>2.1</v>
-      </c>
-      <c r="AK447">
-        <v>1.25</v>
-      </c>
-      <c r="AL447">
-        <v>1.25</v>
-      </c>
-      <c r="AM447">
-        <v>1.91</v>
-      </c>
-      <c r="AN447">
-        <v>1.2</v>
-      </c>
-      <c r="AO447">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AP447">
-        <v>1.19</v>
-      </c>
-      <c r="AQ447">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AR447">
-        <v>1.38</v>
-      </c>
-      <c r="AS447">
-        <v>1.06</v>
-      </c>
-      <c r="AT447">
-        <v>2.44</v>
-      </c>
-      <c r="AU447">
-        <v>4</v>
-      </c>
-      <c r="AV447">
-        <v>3</v>
-      </c>
-      <c r="AW447">
-        <v>3</v>
-      </c>
-      <c r="AX447">
-        <v>4</v>
-      </c>
-      <c r="AY447">
+      <c r="AZ447">
+        <v>11</v>
+      </c>
+      <c r="BA447">
+        <v>6</v>
+      </c>
+      <c r="BB447">
         <v>7</v>
       </c>
-      <c r="AZ447">
-        <v>7</v>
-      </c>
-      <c r="BA447">
-        <v>1</v>
-      </c>
-      <c r="BB447">
-        <v>2</v>
-      </c>
       <c r="BC447">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="BD447">
-        <v>1.57</v>
+        <v>2.05</v>
       </c>
       <c r="BE447">
-        <v>7.5</v>
+        <v>5.8</v>
       </c>
       <c r="BF447">
-        <v>2.95</v>
+        <v>1.88</v>
       </c>
       <c r="BG447">
-        <v>1.3</v>
+        <v>1.52</v>
       </c>
       <c r="BH447">
-        <v>3.15</v>
+        <v>2.32</v>
       </c>
       <c r="BI447">
-        <v>1.55</v>
+        <v>1.89</v>
       </c>
       <c r="BJ447">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="BK447">
-        <v>1.85</v>
+        <v>2.43</v>
       </c>
       <c r="BL447">
-        <v>1.83</v>
+        <v>1.48</v>
       </c>
       <c r="BM447">
-        <v>2.33</v>
+        <v>3.2</v>
       </c>
       <c r="BN447">
-        <v>1.52</v>
+        <v>1.28</v>
       </c>
       <c r="BO447">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="BP447">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="448" spans="1:68">
@@ -94334,7 +94334,7 @@
         <v>447</v>
       </c>
       <c r="B448">
-        <v>7295681</v>
+        <v>7295682</v>
       </c>
       <c r="C448" t="s">
         <v>68</v>
@@ -94349,70 +94349,70 @@
         <v>0</v>
       </c>
       <c r="G448" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H448" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="I448">
         <v>0</v>
       </c>
       <c r="J448">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K448">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L448">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M448">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N448">
+        <v>2</v>
+      </c>
+      <c r="O448" t="s">
+        <v>161</v>
+      </c>
+      <c r="P448" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q448">
+        <v>2.5</v>
+      </c>
+      <c r="R448">
+        <v>2.3</v>
+      </c>
+      <c r="S448">
         <v>4</v>
       </c>
-      <c r="O448" t="s">
-        <v>408</v>
-      </c>
-      <c r="P448" t="s">
-        <v>621</v>
-      </c>
-      <c r="Q448">
-        <v>2.88</v>
-      </c>
-      <c r="R448">
-        <v>2.38</v>
-      </c>
-      <c r="S448">
+      <c r="T448">
+        <v>1.33</v>
+      </c>
+      <c r="U448">
         <v>3.25</v>
       </c>
-      <c r="T448">
-        <v>1.3</v>
-      </c>
-      <c r="U448">
+      <c r="V448">
+        <v>2.63</v>
+      </c>
+      <c r="W448">
+        <v>1.44</v>
+      </c>
+      <c r="X448">
+        <v>6.5</v>
+      </c>
+      <c r="Y448">
+        <v>1.11</v>
+      </c>
+      <c r="Z448">
+        <v>1.85</v>
+      </c>
+      <c r="AA448">
+        <v>3.75</v>
+      </c>
+      <c r="AB448">
         <v>3.4</v>
-      </c>
-      <c r="V448">
-        <v>2.38</v>
-      </c>
-      <c r="W448">
-        <v>1.53</v>
-      </c>
-      <c r="X448">
-        <v>6</v>
-      </c>
-      <c r="Y448">
-        <v>1.13</v>
-      </c>
-      <c r="Z448">
-        <v>2.4</v>
-      </c>
-      <c r="AA448">
-        <v>3.6</v>
-      </c>
-      <c r="AB448">
-        <v>2.48</v>
       </c>
       <c r="AC448">
         <v>1.03</v>
@@ -94421,118 +94421,118 @@
         <v>15</v>
       </c>
       <c r="AE448">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AF448">
-        <v>4.75</v>
+        <v>3.76</v>
       </c>
       <c r="AG448">
         <v>1.61</v>
       </c>
       <c r="AH448">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="AI448">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AJ448">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="AK448">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AL448">
         <v>1.25</v>
       </c>
       <c r="AM448">
-        <v>1.63</v>
+        <v>1.91</v>
       </c>
       <c r="AN448">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="AO448">
-        <v>1.27</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP448">
-        <v>1.44</v>
+        <v>1.19</v>
       </c>
       <c r="AQ448">
-        <v>1.25</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR448">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="AS448">
-        <v>1.53</v>
+        <v>1.06</v>
       </c>
       <c r="AT448">
-        <v>2.76</v>
+        <v>2.44</v>
       </c>
       <c r="AU448">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV448">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW448">
+        <v>3</v>
+      </c>
+      <c r="AX448">
         <v>4</v>
       </c>
-      <c r="AX448">
-        <v>8</v>
-      </c>
       <c r="AY448">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AZ448">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="BA448">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BB448">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BC448">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="BD448">
-        <v>2.15</v>
+        <v>1.57</v>
       </c>
       <c r="BE448">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF448">
-        <v>1.93</v>
+        <v>2.95</v>
       </c>
       <c r="BG448">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="BH448">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="BI448">
-        <v>1.34</v>
+        <v>1.55</v>
       </c>
       <c r="BJ448">
-        <v>2.69</v>
+        <v>2.33</v>
       </c>
       <c r="BK448">
-        <v>1.69</v>
+        <v>1.85</v>
       </c>
       <c r="BL448">
-        <v>2.14</v>
+        <v>1.83</v>
       </c>
       <c r="BM448">
-        <v>2.08</v>
+        <v>2.33</v>
       </c>
       <c r="BN448">
-        <v>1.74</v>
+        <v>1.52</v>
       </c>
       <c r="BO448">
-        <v>2.71</v>
+        <v>3</v>
       </c>
       <c r="BP448">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="449" spans="1:68">
@@ -94540,7 +94540,7 @@
         <v>448</v>
       </c>
       <c r="B449">
-        <v>7295673</v>
+        <v>7295681</v>
       </c>
       <c r="C449" t="s">
         <v>68</v>
@@ -94549,196 +94549,196 @@
         <v>69</v>
       </c>
       <c r="E449" s="2">
-        <v>45563.97916666666</v>
+        <v>45563.89583333334</v>
       </c>
       <c r="F449">
         <v>0</v>
       </c>
       <c r="G449" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H449" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I449">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J449">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K449">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L449">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M449">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N449">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O449" t="s">
-        <v>173</v>
+        <v>408</v>
       </c>
       <c r="P449" t="s">
-        <v>140</v>
+        <v>621</v>
       </c>
       <c r="Q449">
+        <v>2.88</v>
+      </c>
+      <c r="R449">
+        <v>2.38</v>
+      </c>
+      <c r="S449">
+        <v>3.25</v>
+      </c>
+      <c r="T449">
+        <v>1.3</v>
+      </c>
+      <c r="U449">
+        <v>3.4</v>
+      </c>
+      <c r="V449">
+        <v>2.38</v>
+      </c>
+      <c r="W449">
+        <v>1.53</v>
+      </c>
+      <c r="X449">
+        <v>6</v>
+      </c>
+      <c r="Y449">
+        <v>1.13</v>
+      </c>
+      <c r="Z449">
         <v>2.4</v>
       </c>
-      <c r="R449">
-        <v>2.6</v>
-      </c>
-      <c r="S449">
+      <c r="AA449">
         <v>3.6</v>
       </c>
-      <c r="T449">
-        <v>1.2</v>
-      </c>
-      <c r="U449">
-        <v>4.33</v>
-      </c>
-      <c r="V449">
-        <v>2</v>
-      </c>
-      <c r="W449">
-        <v>1.73</v>
-      </c>
-      <c r="X449">
-        <v>4.33</v>
-      </c>
-      <c r="Y449">
-        <v>1.2</v>
-      </c>
-      <c r="Z449">
-        <v>1.84</v>
-      </c>
-      <c r="AA449">
-        <v>4.1</v>
-      </c>
       <c r="AB449">
-        <v>3.2</v>
+        <v>2.48</v>
       </c>
       <c r="AC449">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD449">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AE449">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AF449">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="AG449">
-        <v>1.36</v>
+        <v>1.61</v>
       </c>
       <c r="AH449">
-        <v>2.99</v>
+        <v>2.28</v>
       </c>
       <c r="AI449">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="AJ449">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="AK449">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AL449">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AM449">
-        <v>1.9</v>
+        <v>1.63</v>
       </c>
       <c r="AN449">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="AO449">
-        <v>0.87</v>
+        <v>1.27</v>
       </c>
       <c r="AP449">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AQ449">
-        <v>0.88</v>
+        <v>1.25</v>
       </c>
       <c r="AR449">
-        <v>1.65</v>
+        <v>1.23</v>
       </c>
       <c r="AS449">
-        <v>1.21</v>
+        <v>1.53</v>
       </c>
       <c r="AT449">
-        <v>2.86</v>
+        <v>2.76</v>
       </c>
       <c r="AU449">
+        <v>6</v>
+      </c>
+      <c r="AV449">
+        <v>8</v>
+      </c>
+      <c r="AW449">
         <v>4</v>
       </c>
-      <c r="AV449">
+      <c r="AX449">
+        <v>8</v>
+      </c>
+      <c r="AY449">
+        <v>10</v>
+      </c>
+      <c r="AZ449">
+        <v>16</v>
+      </c>
+      <c r="BA449">
+        <v>7</v>
+      </c>
+      <c r="BB449">
         <v>6</v>
       </c>
-      <c r="AW449">
-        <v>7</v>
-      </c>
-      <c r="AX449">
-        <v>4</v>
-      </c>
-      <c r="AY449">
-        <v>11</v>
-      </c>
-      <c r="AZ449">
-        <v>10</v>
-      </c>
-      <c r="BA449">
-        <v>2</v>
-      </c>
-      <c r="BB449">
+      <c r="BC449">
+        <v>13</v>
+      </c>
+      <c r="BD449">
+        <v>2.15</v>
+      </c>
+      <c r="BE449">
         <v>8</v>
       </c>
-      <c r="BC449">
-        <v>10</v>
-      </c>
-      <c r="BD449">
-        <v>1.63</v>
-      </c>
-      <c r="BE449">
-        <v>6.1</v>
-      </c>
       <c r="BF449">
-        <v>3</v>
+        <v>1.93</v>
       </c>
       <c r="BG449">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="BH449">
-        <v>3.15</v>
+        <v>3.9</v>
       </c>
       <c r="BI449">
-        <v>1.53</v>
+        <v>1.34</v>
       </c>
       <c r="BJ449">
-        <v>2.32</v>
+        <v>2.69</v>
       </c>
       <c r="BK449">
-        <v>1.86</v>
+        <v>1.69</v>
       </c>
       <c r="BL449">
-        <v>1.82</v>
+        <v>2.14</v>
       </c>
       <c r="BM449">
-        <v>2.33</v>
+        <v>2.08</v>
       </c>
       <c r="BN449">
-        <v>1.52</v>
+        <v>1.74</v>
       </c>
       <c r="BO449">
-        <v>3.05</v>
+        <v>2.71</v>
       </c>
       <c r="BP449">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="450" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -1231,16 +1231,16 @@
     <t>['28']</t>
   </si>
   <si>
-    <t>['33', '54', '75']</t>
+    <t>['78']</t>
+  </si>
+  <si>
+    <t>['81', '89']</t>
   </si>
   <si>
     <t>['16', '47', '82']</t>
   </si>
   <si>
-    <t>['78']</t>
-  </si>
-  <si>
-    <t>['81', '89']</t>
+    <t>['33', '54', '75']</t>
   </si>
   <si>
     <t>['39', '82']</t>
@@ -92068,7 +92068,7 @@
         <v>436</v>
       </c>
       <c r="B437">
-        <v>7295674</v>
+        <v>7295680</v>
       </c>
       <c r="C437" t="s">
         <v>68</v>
@@ -92083,124 +92083,124 @@
         <v>0</v>
       </c>
       <c r="G437" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H437" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="I437">
         <v>0</v>
       </c>
       <c r="J437">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K437">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L437">
         <v>1</v>
       </c>
       <c r="M437">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N437">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O437" t="s">
         <v>226</v>
       </c>
       <c r="P437" t="s">
-        <v>617</v>
+        <v>250</v>
       </c>
       <c r="Q437">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="R437">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="S437">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T437">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="U437">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="V437">
+        <v>2</v>
+      </c>
+      <c r="W437">
+        <v>1.73</v>
+      </c>
+      <c r="X437">
+        <v>4.33</v>
+      </c>
+      <c r="Y437">
+        <v>1.2</v>
+      </c>
+      <c r="Z437">
+        <v>1.64</v>
+      </c>
+      <c r="AA437">
+        <v>3.95</v>
+      </c>
+      <c r="AB437">
+        <v>4.25</v>
+      </c>
+      <c r="AC437">
+        <v>1.01</v>
+      </c>
+      <c r="AD437">
+        <v>17</v>
+      </c>
+      <c r="AE437">
+        <v>1.08</v>
+      </c>
+      <c r="AF437">
+        <v>6.5</v>
+      </c>
+      <c r="AG437">
+        <v>1.57</v>
+      </c>
+      <c r="AH437">
         <v>2.25</v>
       </c>
-      <c r="W437">
-        <v>1.57</v>
-      </c>
-      <c r="X437">
-        <v>5.5</v>
-      </c>
-      <c r="Y437">
-        <v>1.14</v>
-      </c>
-      <c r="Z437">
-        <v>2.2</v>
-      </c>
-      <c r="AA437">
-        <v>3.6</v>
-      </c>
-      <c r="AB437">
-        <v>2.7</v>
-      </c>
-      <c r="AC437">
-        <v>1.02</v>
-      </c>
-      <c r="AD437">
-        <v>18.75</v>
-      </c>
-      <c r="AE437">
-        <v>1.17</v>
-      </c>
-      <c r="AF437">
-        <v>4.87</v>
-      </c>
-      <c r="AG437">
-        <v>1.59</v>
-      </c>
-      <c r="AH437">
-        <v>2.21</v>
-      </c>
       <c r="AI437">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AJ437">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AK437">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AL437">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AM437">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="AN437">
-        <v>1.6</v>
+        <v>1.07</v>
       </c>
       <c r="AO437">
-        <v>1.29</v>
+        <v>0.93</v>
       </c>
       <c r="AP437">
-        <v>1.5</v>
+        <v>1.06</v>
       </c>
       <c r="AQ437">
-        <v>1.4</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR437">
-        <v>1.56</v>
+        <v>1.69</v>
       </c>
       <c r="AS437">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT437">
-        <v>3.01</v>
+        <v>3.11</v>
       </c>
       <c r="AU437">
         <v>-1</v>
@@ -92230,43 +92230,43 @@
         <v>-1</v>
       </c>
       <c r="BD437">
-        <v>1.88</v>
+        <v>1.54</v>
       </c>
       <c r="BE437">
         <v>6.4</v>
       </c>
       <c r="BF437">
-        <v>1.98</v>
+        <v>2.55</v>
       </c>
       <c r="BG437">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="BH437">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="BI437">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="BJ437">
+        <v>2.55</v>
+      </c>
+      <c r="BK437">
+        <v>1.72</v>
+      </c>
+      <c r="BL437">
+        <v>1.97</v>
+      </c>
+      <c r="BM437">
+        <v>2.14</v>
+      </c>
+      <c r="BN437">
+        <v>1.62</v>
+      </c>
+      <c r="BO437">
         <v>2.7</v>
       </c>
-      <c r="BK437">
-        <v>1.65</v>
-      </c>
-      <c r="BL437">
-        <v>2.08</v>
-      </c>
-      <c r="BM437">
-        <v>2.02</v>
-      </c>
-      <c r="BN437">
-        <v>1.68</v>
-      </c>
-      <c r="BO437">
-        <v>2.55</v>
-      </c>
       <c r="BP437">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="438" spans="1:68">
@@ -92274,7 +92274,7 @@
         <v>437</v>
       </c>
       <c r="B438">
-        <v>7295675</v>
+        <v>7295674</v>
       </c>
       <c r="C438" t="s">
         <v>68</v>
@@ -92289,82 +92289,82 @@
         <v>0</v>
       </c>
       <c r="G438" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H438" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I438">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J438">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K438">
         <v>1</v>
       </c>
       <c r="L438">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M438">
         <v>2</v>
       </c>
       <c r="N438">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O438" t="s">
-        <v>402</v>
+        <v>226</v>
       </c>
       <c r="P438" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Q438">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="R438">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S438">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="T438">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U438">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V438">
+        <v>2.25</v>
+      </c>
+      <c r="W438">
+        <v>1.57</v>
+      </c>
+      <c r="X438">
+        <v>5.5</v>
+      </c>
+      <c r="Y438">
+        <v>1.14</v>
+      </c>
+      <c r="Z438">
         <v>2.2</v>
       </c>
-      <c r="W438">
-        <v>1.62</v>
-      </c>
-      <c r="X438">
-        <v>5</v>
-      </c>
-      <c r="Y438">
+      <c r="AA438">
+        <v>3.6</v>
+      </c>
+      <c r="AB438">
+        <v>2.7</v>
+      </c>
+      <c r="AC438">
+        <v>1.02</v>
+      </c>
+      <c r="AD438">
+        <v>18.75</v>
+      </c>
+      <c r="AE438">
         <v>1.17</v>
       </c>
-      <c r="Z438">
-        <v>2.85</v>
-      </c>
-      <c r="AA438">
-        <v>3.4</v>
-      </c>
-      <c r="AB438">
-        <v>2.2</v>
-      </c>
-      <c r="AC438">
-        <v>1.01</v>
-      </c>
-      <c r="AD438">
-        <v>13</v>
-      </c>
-      <c r="AE438">
-        <v>1.11</v>
-      </c>
       <c r="AF438">
-        <v>5.5</v>
+        <v>4.87</v>
       </c>
       <c r="AG438">
         <v>1.59</v>
@@ -92373,40 +92373,40 @@
         <v>2.21</v>
       </c>
       <c r="AI438">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AJ438">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AK438">
-        <v>1.58</v>
+        <v>1.35</v>
       </c>
       <c r="AL438">
         <v>1.28</v>
       </c>
       <c r="AM438">
-        <v>1.42</v>
+        <v>1.78</v>
       </c>
       <c r="AN438">
-        <v>1.07</v>
+        <v>1.6</v>
       </c>
       <c r="AO438">
-        <v>1.87</v>
+        <v>1.29</v>
       </c>
       <c r="AP438">
-        <v>1.06</v>
+        <v>1.5</v>
       </c>
       <c r="AQ438">
-        <v>1.81</v>
+        <v>1.4</v>
       </c>
       <c r="AR438">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AS438">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="AT438">
-        <v>2.96</v>
+        <v>3.01</v>
       </c>
       <c r="AU438">
         <v>-1</v>
@@ -92436,43 +92436,43 @@
         <v>-1</v>
       </c>
       <c r="BD438">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="BE438">
         <v>6.4</v>
       </c>
       <c r="BF438">
-        <v>1.79</v>
+        <v>1.98</v>
       </c>
       <c r="BG438">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="BH438">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="BI438">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="BJ438">
-        <v>2.48</v>
+        <v>2.7</v>
       </c>
       <c r="BK438">
-        <v>1.77</v>
+        <v>1.65</v>
       </c>
       <c r="BL438">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="BM438">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="BN438">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="BO438">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="BP438">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="439" spans="1:68">
@@ -92480,7 +92480,7 @@
         <v>438</v>
       </c>
       <c r="B439">
-        <v>7295676</v>
+        <v>7295675</v>
       </c>
       <c r="C439" t="s">
         <v>68</v>
@@ -92489,187 +92489,187 @@
         <v>69</v>
       </c>
       <c r="E439" s="2">
-        <v>45563.85416666666</v>
+        <v>45562.875</v>
       </c>
       <c r="F439">
         <v>0</v>
       </c>
       <c r="G439" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H439" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I439">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J439">
         <v>0</v>
       </c>
       <c r="K439">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L439">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M439">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N439">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O439" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="P439" t="s">
-        <v>151</v>
+        <v>618</v>
       </c>
       <c r="Q439">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="R439">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S439">
+        <v>2.75</v>
+      </c>
+      <c r="T439">
+        <v>1.25</v>
+      </c>
+      <c r="U439">
+        <v>3.75</v>
+      </c>
+      <c r="V439">
+        <v>2.2</v>
+      </c>
+      <c r="W439">
+        <v>1.62</v>
+      </c>
+      <c r="X439">
         <v>5</v>
       </c>
-      <c r="T439">
-        <v>1.22</v>
-      </c>
-      <c r="U439">
-        <v>4</v>
-      </c>
-      <c r="V439">
-        <v>2</v>
-      </c>
-      <c r="W439">
-        <v>1.73</v>
-      </c>
-      <c r="X439">
-        <v>4.33</v>
-      </c>
       <c r="Y439">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="Z439">
-        <v>1.49</v>
+        <v>2.85</v>
       </c>
       <c r="AA439">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="AB439">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="AC439">
         <v>1.01</v>
       </c>
       <c r="AD439">
-        <v>26.5</v>
+        <v>13</v>
       </c>
       <c r="AE439">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AF439">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AG439">
-        <v>1.45</v>
+        <v>1.59</v>
       </c>
       <c r="AH439">
-        <v>2.7</v>
+        <v>2.21</v>
       </c>
       <c r="AI439">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AJ439">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AK439">
-        <v>1.15</v>
+        <v>1.58</v>
       </c>
       <c r="AL439">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AM439">
-        <v>2.53</v>
+        <v>1.42</v>
       </c>
       <c r="AN439">
-        <v>2.2</v>
+        <v>1.07</v>
       </c>
       <c r="AO439">
-        <v>1</v>
+        <v>1.87</v>
       </c>
       <c r="AP439">
-        <v>2.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ439">
-        <v>1</v>
+        <v>1.81</v>
       </c>
       <c r="AR439">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="AS439">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AT439">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="AU439">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AV439">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AW439">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AX439">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AY439">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="AZ439">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BA439">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BB439">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BC439">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BD439">
-        <v>1.58</v>
+        <v>2.1</v>
       </c>
       <c r="BE439">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF439">
-        <v>2.48</v>
+        <v>1.79</v>
       </c>
       <c r="BG439">
         <v>1.27</v>
       </c>
       <c r="BH439">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="BI439">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="BJ439">
-        <v>2.65</v>
+        <v>2.48</v>
       </c>
       <c r="BK439">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="BL439">
-        <v>2.07</v>
+        <v>1.92</v>
       </c>
       <c r="BM439">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="BN439">
         <v>1.58</v>
@@ -92686,7 +92686,7 @@
         <v>439</v>
       </c>
       <c r="B440">
-        <v>7295677</v>
+        <v>7295676</v>
       </c>
       <c r="C440" t="s">
         <v>68</v>
@@ -92695,16 +92695,16 @@
         <v>69</v>
       </c>
       <c r="E440" s="2">
-        <v>45563.85416666666</v>
+        <v>45562.875</v>
       </c>
       <c r="F440">
         <v>0</v>
       </c>
       <c r="G440" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="H440" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="I440">
         <v>0</v>
@@ -92716,73 +92716,73 @@
         <v>0</v>
       </c>
       <c r="L440">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M440">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N440">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O440" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="P440" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="Q440">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="R440">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S440">
+        <v>5</v>
+      </c>
+      <c r="T440">
+        <v>1.22</v>
+      </c>
+      <c r="U440">
         <v>4</v>
       </c>
-      <c r="T440">
-        <v>1.25</v>
-      </c>
-      <c r="U440">
-        <v>3.75</v>
-      </c>
       <c r="V440">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="W440">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="X440">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Y440">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="Z440">
-        <v>1.88</v>
+        <v>1.49</v>
       </c>
       <c r="AA440">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="AB440">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="AC440">
         <v>1.01</v>
       </c>
       <c r="AD440">
-        <v>13</v>
+        <v>26.5</v>
       </c>
       <c r="AE440">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AF440">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AG440">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AH440">
-        <v>2.54</v>
+        <v>2.7</v>
       </c>
       <c r="AI440">
         <v>1.5</v>
@@ -92791,100 +92791,100 @@
         <v>2.5</v>
       </c>
       <c r="AK440">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="AL440">
+        <v>1.18</v>
+      </c>
+      <c r="AM440">
+        <v>2.53</v>
+      </c>
+      <c r="AN440">
+        <v>2.2</v>
+      </c>
+      <c r="AO440">
+        <v>1</v>
+      </c>
+      <c r="AP440">
+        <v>2.13</v>
+      </c>
+      <c r="AQ440">
+        <v>1</v>
+      </c>
+      <c r="AR440">
+        <v>1.51</v>
+      </c>
+      <c r="AS440">
         <v>1.25</v>
       </c>
-      <c r="AM440">
-        <v>1.88</v>
-      </c>
-      <c r="AN440">
-        <v>1.53</v>
-      </c>
-      <c r="AO440">
-        <v>0.53</v>
-      </c>
-      <c r="AP440">
-        <v>1.63</v>
-      </c>
-      <c r="AQ440">
-        <v>0.5</v>
-      </c>
-      <c r="AR440">
-        <v>1.32</v>
-      </c>
-      <c r="AS440">
-        <v>1.14</v>
-      </c>
       <c r="AT440">
-        <v>2.46</v>
+        <v>2.76</v>
       </c>
       <c r="AU440">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AV440">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AW440">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AX440">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AY440">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="AZ440">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="BA440">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BB440">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BC440">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BD440">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="BE440">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="BF440">
-        <v>2.15</v>
+        <v>2.48</v>
       </c>
       <c r="BG440">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="BH440">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="BI440">
+        <v>1.41</v>
+      </c>
+      <c r="BJ440">
+        <v>2.65</v>
+      </c>
+      <c r="BK440">
+        <v>1.66</v>
+      </c>
+      <c r="BL440">
+        <v>2.07</v>
+      </c>
+      <c r="BM440">
+        <v>2.04</v>
+      </c>
+      <c r="BN440">
+        <v>1.58</v>
+      </c>
+      <c r="BO440">
+        <v>2.8</v>
+      </c>
+      <c r="BP440">
         <v>1.37</v>
-      </c>
-      <c r="BJ440">
-        <v>2.8</v>
-      </c>
-      <c r="BK440">
-        <v>1.61</v>
-      </c>
-      <c r="BL440">
-        <v>2.15</v>
-      </c>
-      <c r="BM440">
-        <v>1.96</v>
-      </c>
-      <c r="BN440">
-        <v>1.74</v>
-      </c>
-      <c r="BO440">
-        <v>2.45</v>
-      </c>
-      <c r="BP440">
-        <v>1.48</v>
       </c>
     </row>
     <row r="441" spans="1:68">
@@ -92892,7 +92892,7 @@
         <v>440</v>
       </c>
       <c r="B441">
-        <v>7295678</v>
+        <v>7295677</v>
       </c>
       <c r="C441" t="s">
         <v>68</v>
@@ -92901,16 +92901,16 @@
         <v>69</v>
       </c>
       <c r="E441" s="2">
-        <v>45563.85416666666</v>
+        <v>45562.875</v>
       </c>
       <c r="F441">
         <v>0</v>
       </c>
       <c r="G441" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H441" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="I441">
         <v>0</v>
@@ -92922,175 +92922,175 @@
         <v>0</v>
       </c>
       <c r="L441">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M441">
         <v>0</v>
       </c>
       <c r="N441">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O441" t="s">
-        <v>179</v>
+        <v>403</v>
       </c>
       <c r="P441" t="s">
         <v>104</v>
       </c>
       <c r="Q441">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="R441">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="S441">
+        <v>4</v>
+      </c>
+      <c r="T441">
+        <v>1.25</v>
+      </c>
+      <c r="U441">
         <v>3.75</v>
       </c>
-      <c r="T441">
-        <v>1.33</v>
-      </c>
-      <c r="U441">
+      <c r="V441">
+        <v>2.2</v>
+      </c>
+      <c r="W441">
+        <v>1.62</v>
+      </c>
+      <c r="X441">
+        <v>5</v>
+      </c>
+      <c r="Y441">
+        <v>1.17</v>
+      </c>
+      <c r="Z441">
+        <v>1.88</v>
+      </c>
+      <c r="AA441">
+        <v>3.85</v>
+      </c>
+      <c r="AB441">
         <v>3.25</v>
-      </c>
-      <c r="V441">
-        <v>2.5</v>
-      </c>
-      <c r="W441">
-        <v>1.5</v>
-      </c>
-      <c r="X441">
-        <v>6.5</v>
-      </c>
-      <c r="Y441">
-        <v>1.11</v>
-      </c>
-      <c r="Z441">
-        <v>1.85</v>
-      </c>
-      <c r="AA441">
-        <v>3.8</v>
-      </c>
-      <c r="AB441">
-        <v>3.4</v>
       </c>
       <c r="AC441">
         <v>1.01</v>
       </c>
       <c r="AD441">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE441">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="AF441">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AG441">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="AH441">
-        <v>2.3</v>
+        <v>2.54</v>
       </c>
       <c r="AI441">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AJ441">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AK441">
+        <v>1.3</v>
+      </c>
+      <c r="AL441">
+        <v>1.25</v>
+      </c>
+      <c r="AM441">
+        <v>1.88</v>
+      </c>
+      <c r="AN441">
+        <v>1.53</v>
+      </c>
+      <c r="AO441">
+        <v>0.53</v>
+      </c>
+      <c r="AP441">
+        <v>1.63</v>
+      </c>
+      <c r="AQ441">
+        <v>0.5</v>
+      </c>
+      <c r="AR441">
         <v>1.32</v>
       </c>
-      <c r="AL441">
-        <v>1.24</v>
-      </c>
-      <c r="AM441">
-        <v>1.8</v>
-      </c>
-      <c r="AN441">
-        <v>1.07</v>
-      </c>
-      <c r="AO441">
-        <v>0.86</v>
-      </c>
-      <c r="AP441">
-        <v>1.19</v>
-      </c>
-      <c r="AQ441">
-        <v>0.8</v>
-      </c>
-      <c r="AR441">
-        <v>1.37</v>
-      </c>
       <c r="AS441">
-        <v>0.99</v>
+        <v>1.14</v>
       </c>
       <c r="AT441">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="AU441">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AV441">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AW441">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AX441">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AY441">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AZ441">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BA441">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BB441">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BC441">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BD441">
-        <v>1.52</v>
+        <v>1.75</v>
       </c>
       <c r="BE441">
         <v>6.4</v>
       </c>
       <c r="BF441">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="BG441">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="BH441">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="BI441">
+        <v>1.37</v>
+      </c>
+      <c r="BJ441">
+        <v>2.8</v>
+      </c>
+      <c r="BK441">
+        <v>1.61</v>
+      </c>
+      <c r="BL441">
+        <v>2.15</v>
+      </c>
+      <c r="BM441">
+        <v>1.96</v>
+      </c>
+      <c r="BN441">
+        <v>1.74</v>
+      </c>
+      <c r="BO441">
+        <v>2.45</v>
+      </c>
+      <c r="BP441">
         <v>1.48</v>
-      </c>
-      <c r="BJ441">
-        <v>2.43</v>
-      </c>
-      <c r="BK441">
-        <v>1.67</v>
-      </c>
-      <c r="BL441">
-        <v>2.05</v>
-      </c>
-      <c r="BM441">
-        <v>2.18</v>
-      </c>
-      <c r="BN441">
-        <v>1.66</v>
-      </c>
-      <c r="BO441">
-        <v>2.55</v>
-      </c>
-      <c r="BP441">
-        <v>1.37</v>
       </c>
     </row>
     <row r="442" spans="1:68">
@@ -93098,7 +93098,7 @@
         <v>441</v>
       </c>
       <c r="B442">
-        <v>7295679</v>
+        <v>7295678</v>
       </c>
       <c r="C442" t="s">
         <v>68</v>
@@ -93107,46 +93107,46 @@
         <v>69</v>
       </c>
       <c r="E442" s="2">
-        <v>45563.85416666666</v>
+        <v>45562.875</v>
       </c>
       <c r="F442">
         <v>0</v>
       </c>
       <c r="G442" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H442" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I442">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J442">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K442">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L442">
         <v>1</v>
       </c>
       <c r="M442">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N442">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O442" t="s">
-        <v>404</v>
+        <v>179</v>
       </c>
       <c r="P442" t="s">
-        <v>619</v>
+        <v>104</v>
       </c>
       <c r="Q442">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="R442">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="S442">
         <v>3.75</v>
@@ -93155,148 +93155,148 @@
         <v>1.33</v>
       </c>
       <c r="U442">
-        <v>3.16</v>
+        <v>3.25</v>
       </c>
       <c r="V442">
-        <v>2.41</v>
+        <v>2.5</v>
       </c>
       <c r="W442">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X442">
-        <v>5.6</v>
+        <v>6.5</v>
       </c>
       <c r="Y442">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="Z442">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="AA442">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="AB442">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AC442">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD442">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE442">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AF442">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AG442">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AH442">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="AI442">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AJ442">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AK442">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AL442">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="AM442">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AN442">
-        <v>1.87</v>
+        <v>1.07</v>
       </c>
       <c r="AO442">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="AP442">
-        <v>1.75</v>
+        <v>1.19</v>
       </c>
       <c r="AQ442">
-        <v>1.06</v>
+        <v>0.8</v>
       </c>
       <c r="AR442">
-        <v>1.67</v>
+        <v>1.37</v>
       </c>
       <c r="AS442">
-        <v>1.16</v>
+        <v>0.99</v>
       </c>
       <c r="AT442">
-        <v>2.83</v>
+        <v>2.36</v>
       </c>
       <c r="AU442">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV442">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AW442">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AX442">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AY442">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AZ442">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BA442">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BB442">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BC442">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BD442">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="BE442">
         <v>6.4</v>
       </c>
       <c r="BF442">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="BG442">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="BH442">
-        <v>2.8</v>
+        <v>3.65</v>
       </c>
       <c r="BI442">
-        <v>1.63</v>
+        <v>1.48</v>
       </c>
       <c r="BJ442">
-        <v>2.12</v>
+        <v>2.43</v>
       </c>
       <c r="BK442">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="BL442">
-        <v>1.71</v>
+        <v>2.05</v>
       </c>
       <c r="BM442">
+        <v>2.18</v>
+      </c>
+      <c r="BN442">
+        <v>1.66</v>
+      </c>
+      <c r="BO442">
         <v>2.55</v>
       </c>
-      <c r="BN442">
-        <v>1.44</v>
-      </c>
-      <c r="BO442">
-        <v>3.4</v>
-      </c>
       <c r="BP442">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="443" spans="1:68">
@@ -93304,7 +93304,7 @@
         <v>442</v>
       </c>
       <c r="B443">
-        <v>7295680</v>
+        <v>7295679</v>
       </c>
       <c r="C443" t="s">
         <v>68</v>
@@ -93313,196 +93313,196 @@
         <v>69</v>
       </c>
       <c r="E443" s="2">
-        <v>45563.85416666666</v>
+        <v>45562.875</v>
       </c>
       <c r="F443">
         <v>0</v>
       </c>
       <c r="G443" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="H443" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I443">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J443">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K443">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L443">
         <v>1</v>
       </c>
       <c r="M443">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N443">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O443" t="s">
-        <v>226</v>
+        <v>404</v>
       </c>
       <c r="P443" t="s">
-        <v>250</v>
+        <v>619</v>
       </c>
       <c r="Q443">
-        <v>2.25</v>
+        <v>2.64</v>
       </c>
       <c r="R443">
-        <v>2.6</v>
+        <v>2.22</v>
       </c>
       <c r="S443">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T443">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="U443">
-        <v>4</v>
+        <v>3.16</v>
       </c>
       <c r="V443">
-        <v>2</v>
+        <v>2.41</v>
       </c>
       <c r="W443">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="X443">
-        <v>4.33</v>
+        <v>5.6</v>
       </c>
       <c r="Y443">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="Z443">
-        <v>1.64</v>
+        <v>1.93</v>
       </c>
       <c r="AA443">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="AB443">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="AC443">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD443">
         <v>17</v>
       </c>
       <c r="AE443">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="AF443">
-        <v>6.5</v>
+        <v>4.1</v>
       </c>
       <c r="AG443">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="AH443">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AI443">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="AJ443">
-        <v>2.63</v>
+        <v>2.29</v>
       </c>
       <c r="AK443">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AL443">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AM443">
-        <v>2.06</v>
+        <v>1.71</v>
       </c>
       <c r="AN443">
-        <v>1.07</v>
+        <v>1.87</v>
       </c>
       <c r="AO443">
         <v>0.93</v>
       </c>
       <c r="AP443">
+        <v>1.75</v>
+      </c>
+      <c r="AQ443">
         <v>1.06</v>
       </c>
-      <c r="AQ443">
-        <v>0.9399999999999999</v>
-      </c>
       <c r="AR443">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="AS443">
-        <v>1.42</v>
+        <v>1.16</v>
       </c>
       <c r="AT443">
-        <v>3.11</v>
+        <v>2.83</v>
       </c>
       <c r="AU443">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AV443">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AW443">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AX443">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AY443">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="AZ443">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BA443">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BB443">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BC443">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="BD443">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="BE443">
         <v>6.4</v>
       </c>
       <c r="BF443">
+        <v>2.65</v>
+      </c>
+      <c r="BG443">
+        <v>1.36</v>
+      </c>
+      <c r="BH443">
+        <v>2.8</v>
+      </c>
+      <c r="BI443">
+        <v>1.63</v>
+      </c>
+      <c r="BJ443">
+        <v>2.12</v>
+      </c>
+      <c r="BK443">
+        <v>2</v>
+      </c>
+      <c r="BL443">
+        <v>1.71</v>
+      </c>
+      <c r="BM443">
         <v>2.55</v>
       </c>
-      <c r="BG443">
+      <c r="BN443">
+        <v>1.44</v>
+      </c>
+      <c r="BO443">
+        <v>3.4</v>
+      </c>
+      <c r="BP443">
         <v>1.26</v>
-      </c>
-      <c r="BH443">
-        <v>3.4</v>
-      </c>
-      <c r="BI443">
-        <v>1.44</v>
-      </c>
-      <c r="BJ443">
-        <v>2.55</v>
-      </c>
-      <c r="BK443">
-        <v>1.72</v>
-      </c>
-      <c r="BL443">
-        <v>1.97</v>
-      </c>
-      <c r="BM443">
-        <v>2.14</v>
-      </c>
-      <c r="BN443">
-        <v>1.62</v>
-      </c>
-      <c r="BO443">
-        <v>2.7</v>
-      </c>
-      <c r="BP443">
-        <v>1.38</v>
       </c>
     </row>
     <row r="444" spans="1:68">
@@ -93510,7 +93510,7 @@
         <v>443</v>
       </c>
       <c r="B444">
-        <v>7295673</v>
+        <v>7295683</v>
       </c>
       <c r="C444" t="s">
         <v>68</v>
@@ -93525,190 +93525,190 @@
         <v>0</v>
       </c>
       <c r="G444" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H444" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I444">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J444">
         <v>1</v>
       </c>
       <c r="K444">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L444">
         <v>1</v>
       </c>
       <c r="M444">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N444">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O444" t="s">
-        <v>173</v>
+        <v>405</v>
       </c>
       <c r="P444" t="s">
-        <v>140</v>
+        <v>620</v>
       </c>
       <c r="Q444">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="R444">
+        <v>2.25</v>
+      </c>
+      <c r="S444">
+        <v>3.4</v>
+      </c>
+      <c r="T444">
+        <v>1.33</v>
+      </c>
+      <c r="U444">
+        <v>3.25</v>
+      </c>
+      <c r="V444">
+        <v>2.63</v>
+      </c>
+      <c r="W444">
+        <v>1.44</v>
+      </c>
+      <c r="X444">
+        <v>6.5</v>
+      </c>
+      <c r="Y444">
+        <v>1.11</v>
+      </c>
+      <c r="Z444">
+        <v>2.32</v>
+      </c>
+      <c r="AA444">
+        <v>3.55</v>
+      </c>
+      <c r="AB444">
         <v>2.6</v>
       </c>
-      <c r="S444">
-        <v>3.6</v>
-      </c>
-      <c r="T444">
-        <v>1.2</v>
-      </c>
-      <c r="U444">
-        <v>4.33</v>
-      </c>
-      <c r="V444">
-        <v>2</v>
-      </c>
-      <c r="W444">
-        <v>1.73</v>
-      </c>
-      <c r="X444">
-        <v>4.33</v>
-      </c>
-      <c r="Y444">
-        <v>1.2</v>
-      </c>
-      <c r="Z444">
-        <v>1.84</v>
-      </c>
-      <c r="AA444">
-        <v>4.1</v>
-      </c>
-      <c r="AB444">
-        <v>3.2</v>
-      </c>
       <c r="AC444">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD444">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AE444">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
       <c r="AF444">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="AG444">
+        <v>1.7</v>
+      </c>
+      <c r="AH444">
+        <v>2.12</v>
+      </c>
+      <c r="AI444">
+        <v>1.57</v>
+      </c>
+      <c r="AJ444">
+        <v>2.25</v>
+      </c>
+      <c r="AK444">
+        <v>1.44</v>
+      </c>
+      <c r="AL444">
+        <v>1.29</v>
+      </c>
+      <c r="AM444">
+        <v>1.55</v>
+      </c>
+      <c r="AN444">
+        <v>1.93</v>
+      </c>
+      <c r="AO444">
+        <v>1.4</v>
+      </c>
+      <c r="AP444">
+        <v>1.81</v>
+      </c>
+      <c r="AQ444">
+        <v>1.5</v>
+      </c>
+      <c r="AR444">
+        <v>1.48</v>
+      </c>
+      <c r="AS444">
         <v>1.36</v>
-      </c>
-      <c r="AH444">
-        <v>2.99</v>
-      </c>
-      <c r="AI444">
-        <v>1.36</v>
-      </c>
-      <c r="AJ444">
-        <v>3</v>
-      </c>
-      <c r="AK444">
-        <v>1.33</v>
-      </c>
-      <c r="AL444">
-        <v>1.2</v>
-      </c>
-      <c r="AM444">
-        <v>1.9</v>
-      </c>
-      <c r="AN444">
-        <v>1.62</v>
-      </c>
-      <c r="AO444">
-        <v>0.87</v>
-      </c>
-      <c r="AP444">
-        <v>1.57</v>
-      </c>
-      <c r="AQ444">
-        <v>0.88</v>
-      </c>
-      <c r="AR444">
-        <v>1.65</v>
-      </c>
-      <c r="AS444">
-        <v>1.19</v>
       </c>
       <c r="AT444">
         <v>2.84</v>
       </c>
       <c r="AU444">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AV444">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AW444">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AX444">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AY444">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AZ444">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="BA444">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BB444">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BC444">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BD444">
-        <v>1.63</v>
+        <v>2.05</v>
       </c>
       <c r="BE444">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="BF444">
-        <v>3</v>
+        <v>1.88</v>
       </c>
       <c r="BG444">
-        <v>1.3</v>
+        <v>1.52</v>
       </c>
       <c r="BH444">
-        <v>3.15</v>
+        <v>2.32</v>
       </c>
       <c r="BI444">
-        <v>1.53</v>
+        <v>1.89</v>
       </c>
       <c r="BJ444">
-        <v>2.32</v>
+        <v>1.8</v>
       </c>
       <c r="BK444">
-        <v>1.86</v>
+        <v>2.43</v>
       </c>
       <c r="BL444">
-        <v>1.82</v>
+        <v>1.48</v>
       </c>
       <c r="BM444">
-        <v>2.33</v>
+        <v>3.2</v>
       </c>
       <c r="BN444">
-        <v>1.52</v>
+        <v>1.28</v>
       </c>
       <c r="BO444">
-        <v>3.05</v>
+        <v>4.4</v>
       </c>
       <c r="BP444">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="445" spans="1:68">
@@ -93716,7 +93716,7 @@
         <v>444</v>
       </c>
       <c r="B445">
-        <v>7295685</v>
+        <v>7295681</v>
       </c>
       <c r="C445" t="s">
         <v>68</v>
@@ -93725,196 +93725,196 @@
         <v>69</v>
       </c>
       <c r="E445" s="2">
-        <v>45563.89583333334</v>
+        <v>45563.875</v>
       </c>
       <c r="F445">
         <v>0</v>
       </c>
       <c r="G445" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H445" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I445">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J445">
         <v>0</v>
       </c>
       <c r="K445">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L445">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M445">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N445">
         <v>4</v>
       </c>
       <c r="O445" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P445" t="s">
-        <v>472</v>
+        <v>621</v>
       </c>
       <c r="Q445">
+        <v>2.88</v>
+      </c>
+      <c r="R445">
+        <v>2.38</v>
+      </c>
+      <c r="S445">
+        <v>3.25</v>
+      </c>
+      <c r="T445">
+        <v>1.3</v>
+      </c>
+      <c r="U445">
+        <v>3.4</v>
+      </c>
+      <c r="V445">
+        <v>2.38</v>
+      </c>
+      <c r="W445">
+        <v>1.53</v>
+      </c>
+      <c r="X445">
+        <v>6</v>
+      </c>
+      <c r="Y445">
+        <v>1.13</v>
+      </c>
+      <c r="Z445">
         <v>2.4</v>
       </c>
-      <c r="R445">
-        <v>2.5</v>
-      </c>
-      <c r="S445">
-        <v>3.75</v>
-      </c>
-      <c r="T445">
+      <c r="AA445">
+        <v>3.6</v>
+      </c>
+      <c r="AB445">
+        <v>2.48</v>
+      </c>
+      <c r="AC445">
+        <v>1.03</v>
+      </c>
+      <c r="AD445">
+        <v>15</v>
+      </c>
+      <c r="AE445">
+        <v>1.19</v>
+      </c>
+      <c r="AF445">
+        <v>4.75</v>
+      </c>
+      <c r="AG445">
+        <v>1.61</v>
+      </c>
+      <c r="AH445">
+        <v>2.28</v>
+      </c>
+      <c r="AI445">
+        <v>1.53</v>
+      </c>
+      <c r="AJ445">
+        <v>2.38</v>
+      </c>
+      <c r="AK445">
+        <v>1.44</v>
+      </c>
+      <c r="AL445">
         <v>1.25</v>
       </c>
-      <c r="U445">
-        <v>3.75</v>
-      </c>
-      <c r="V445">
-        <v>2.1</v>
-      </c>
-      <c r="W445">
-        <v>1.67</v>
-      </c>
-      <c r="X445">
-        <v>5</v>
-      </c>
-      <c r="Y445">
-        <v>1.17</v>
-      </c>
-      <c r="Z445">
-        <v>1.87</v>
-      </c>
-      <c r="AA445">
-        <v>3.9</v>
-      </c>
-      <c r="AB445">
-        <v>3.25</v>
-      </c>
-      <c r="AC445">
-        <v>1.01</v>
-      </c>
-      <c r="AD445">
-        <v>21</v>
-      </c>
-      <c r="AE445">
-        <v>1.15</v>
-      </c>
-      <c r="AF445">
-        <v>5.5</v>
-      </c>
-      <c r="AG445">
-        <v>1.43</v>
-      </c>
-      <c r="AH445">
-        <v>2.7</v>
-      </c>
-      <c r="AI445">
-        <v>1.44</v>
-      </c>
-      <c r="AJ445">
-        <v>2.63</v>
-      </c>
-      <c r="AK445">
-        <v>1.32</v>
-      </c>
-      <c r="AL445">
-        <v>1.2</v>
-      </c>
       <c r="AM445">
-        <v>1.9</v>
+        <v>1.63</v>
       </c>
       <c r="AN445">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="AO445">
-        <v>0.6</v>
+        <v>1.27</v>
       </c>
       <c r="AP445">
         <v>1.44</v>
       </c>
       <c r="AQ445">
-        <v>0.5600000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="AR445">
+        <v>1.23</v>
+      </c>
+      <c r="AS445">
+        <v>1.53</v>
+      </c>
+      <c r="AT445">
+        <v>2.76</v>
+      </c>
+      <c r="AU445">
+        <v>-1</v>
+      </c>
+      <c r="AV445">
+        <v>-1</v>
+      </c>
+      <c r="AW445">
+        <v>-1</v>
+      </c>
+      <c r="AX445">
+        <v>-1</v>
+      </c>
+      <c r="AY445">
+        <v>-1</v>
+      </c>
+      <c r="AZ445">
+        <v>-1</v>
+      </c>
+      <c r="BA445">
+        <v>-1</v>
+      </c>
+      <c r="BB445">
+        <v>-1</v>
+      </c>
+      <c r="BC445">
+        <v>-1</v>
+      </c>
+      <c r="BD445">
+        <v>2.15</v>
+      </c>
+      <c r="BE445">
+        <v>8</v>
+      </c>
+      <c r="BF445">
+        <v>1.93</v>
+      </c>
+      <c r="BG445">
+        <v>1.16</v>
+      </c>
+      <c r="BH445">
+        <v>3.9</v>
+      </c>
+      <c r="BI445">
+        <v>1.34</v>
+      </c>
+      <c r="BJ445">
+        <v>2.69</v>
+      </c>
+      <c r="BK445">
         <v>1.69</v>
       </c>
-      <c r="AS445">
-        <v>1.19</v>
-      </c>
-      <c r="AT445">
-        <v>2.88</v>
-      </c>
-      <c r="AU445">
-        <v>5</v>
-      </c>
-      <c r="AV445">
-        <v>7</v>
-      </c>
-      <c r="AW445">
-        <v>5</v>
-      </c>
-      <c r="AX445">
-        <v>7</v>
-      </c>
-      <c r="AY445">
-        <v>10</v>
-      </c>
-      <c r="AZ445">
-        <v>14</v>
-      </c>
-      <c r="BA445">
-        <v>5</v>
-      </c>
-      <c r="BB445">
-        <v>8</v>
-      </c>
-      <c r="BC445">
-        <v>13</v>
-      </c>
-      <c r="BD445">
-        <v>1.56</v>
-      </c>
-      <c r="BE445">
-        <v>6.4</v>
-      </c>
-      <c r="BF445">
-        <v>2.5</v>
-      </c>
-      <c r="BG445">
-        <v>1.28</v>
-      </c>
-      <c r="BH445">
-        <v>3.2</v>
-      </c>
-      <c r="BI445">
-        <v>1.5</v>
-      </c>
-      <c r="BJ445">
-        <v>2.4</v>
-      </c>
-      <c r="BK445">
-        <v>1.82</v>
-      </c>
       <c r="BL445">
-        <v>1.86</v>
+        <v>2.14</v>
       </c>
       <c r="BM445">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="BN445">
-        <v>1.54</v>
+        <v>1.74</v>
       </c>
       <c r="BO445">
-        <v>2.9</v>
+        <v>2.71</v>
       </c>
       <c r="BP445">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="446" spans="1:68">
@@ -93922,7 +93922,7 @@
         <v>445</v>
       </c>
       <c r="B446">
-        <v>7295684</v>
+        <v>7295682</v>
       </c>
       <c r="C446" t="s">
         <v>68</v>
@@ -93931,196 +93931,196 @@
         <v>69</v>
       </c>
       <c r="E446" s="2">
-        <v>45563.89583333334</v>
+        <v>45563.875</v>
       </c>
       <c r="F446">
         <v>0</v>
       </c>
       <c r="G446" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H446" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I446">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J446">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K446">
         <v>1</v>
       </c>
       <c r="L446">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M446">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N446">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O446" t="s">
-        <v>406</v>
+        <v>161</v>
       </c>
       <c r="P446" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="Q446">
         <v>2.5</v>
       </c>
       <c r="R446">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="S446">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T446">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="U446">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="V446">
+        <v>2.63</v>
+      </c>
+      <c r="W446">
+        <v>1.44</v>
+      </c>
+      <c r="X446">
+        <v>6.5</v>
+      </c>
+      <c r="Y446">
+        <v>1.11</v>
+      </c>
+      <c r="Z446">
+        <v>1.85</v>
+      </c>
+      <c r="AA446">
+        <v>3.75</v>
+      </c>
+      <c r="AB446">
+        <v>3.4</v>
+      </c>
+      <c r="AC446">
+        <v>1.03</v>
+      </c>
+      <c r="AD446">
+        <v>15</v>
+      </c>
+      <c r="AE446">
+        <v>1.18</v>
+      </c>
+      <c r="AF446">
+        <v>3.76</v>
+      </c>
+      <c r="AG446">
+        <v>1.61</v>
+      </c>
+      <c r="AH446">
+        <v>2.18</v>
+      </c>
+      <c r="AI446">
+        <v>1.67</v>
+      </c>
+      <c r="AJ446">
         <v>2.1</v>
       </c>
-      <c r="W446">
-        <v>1.67</v>
-      </c>
-      <c r="X446">
-        <v>4.5</v>
-      </c>
-      <c r="Y446">
-        <v>1.18</v>
-      </c>
-      <c r="Z446">
-        <v>2.05</v>
-      </c>
-      <c r="AA446">
-        <v>3.95</v>
-      </c>
-      <c r="AB446">
-        <v>2.75</v>
-      </c>
-      <c r="AC446">
-        <v>1.01</v>
-      </c>
-      <c r="AD446">
-        <v>17</v>
-      </c>
-      <c r="AE446">
-        <v>1.08</v>
-      </c>
-      <c r="AF446">
-        <v>6.5</v>
-      </c>
-      <c r="AG446">
-        <v>1.4</v>
-      </c>
-      <c r="AH446">
-        <v>2.82</v>
-      </c>
-      <c r="AI446">
-        <v>1.4</v>
-      </c>
-      <c r="AJ446">
-        <v>2.75</v>
-      </c>
       <c r="AK446">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AL446">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM446">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="AN446">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AO446">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP446">
+        <v>1.19</v>
+      </c>
+      <c r="AQ446">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR446">
         <v>1.38</v>
       </c>
-      <c r="AQ446">
+      <c r="AS446">
         <v>1.06</v>
       </c>
-      <c r="AR446">
+      <c r="AT446">
+        <v>2.44</v>
+      </c>
+      <c r="AU446">
+        <v>-1</v>
+      </c>
+      <c r="AV446">
+        <v>-1</v>
+      </c>
+      <c r="AW446">
+        <v>-1</v>
+      </c>
+      <c r="AX446">
+        <v>-1</v>
+      </c>
+      <c r="AY446">
+        <v>-1</v>
+      </c>
+      <c r="AZ446">
+        <v>-1</v>
+      </c>
+      <c r="BA446">
+        <v>-1</v>
+      </c>
+      <c r="BB446">
+        <v>-1</v>
+      </c>
+      <c r="BC446">
+        <v>-1</v>
+      </c>
+      <c r="BD446">
+        <v>1.57</v>
+      </c>
+      <c r="BE446">
+        <v>7.5</v>
+      </c>
+      <c r="BF446">
+        <v>2.95</v>
+      </c>
+      <c r="BG446">
+        <v>1.3</v>
+      </c>
+      <c r="BH446">
+        <v>3.15</v>
+      </c>
+      <c r="BI446">
         <v>1.55</v>
       </c>
-      <c r="AS446">
-        <v>1.4</v>
-      </c>
-      <c r="AT446">
-        <v>2.95</v>
-      </c>
-      <c r="AU446">
-        <v>11</v>
-      </c>
-      <c r="AV446">
-        <v>2</v>
-      </c>
-      <c r="AW446">
-        <v>4</v>
-      </c>
-      <c r="AX446">
-        <v>2</v>
-      </c>
-      <c r="AY446">
-        <v>15</v>
-      </c>
-      <c r="AZ446">
-        <v>4</v>
-      </c>
-      <c r="BA446">
-        <v>5</v>
-      </c>
-      <c r="BB446">
+      <c r="BJ446">
+        <v>2.33</v>
+      </c>
+      <c r="BK446">
+        <v>1.85</v>
+      </c>
+      <c r="BL446">
+        <v>1.83</v>
+      </c>
+      <c r="BM446">
+        <v>2.33</v>
+      </c>
+      <c r="BN446">
+        <v>1.52</v>
+      </c>
+      <c r="BO446">
         <v>3</v>
       </c>
-      <c r="BC446">
-        <v>8</v>
-      </c>
-      <c r="BD446">
-        <v>1.93</v>
-      </c>
-      <c r="BE446">
-        <v>8</v>
-      </c>
-      <c r="BF446">
-        <v>2.15</v>
-      </c>
-      <c r="BG446">
-        <v>1.17</v>
-      </c>
-      <c r="BH446">
-        <v>4.5</v>
-      </c>
-      <c r="BI446">
-        <v>1.3</v>
-      </c>
-      <c r="BJ446">
-        <v>3.2</v>
-      </c>
-      <c r="BK446">
-        <v>1.52</v>
-      </c>
-      <c r="BL446">
-        <v>2.49</v>
-      </c>
-      <c r="BM446">
-        <v>1.83</v>
-      </c>
-      <c r="BN446">
-        <v>1.98</v>
-      </c>
-      <c r="BO446">
-        <v>2.24</v>
-      </c>
       <c r="BP446">
-        <v>1.62</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="447" spans="1:68">
@@ -94128,7 +94128,7 @@
         <v>446</v>
       </c>
       <c r="B447">
-        <v>7295683</v>
+        <v>7295673</v>
       </c>
       <c r="C447" t="s">
         <v>68</v>
@@ -94137,196 +94137,196 @@
         <v>69</v>
       </c>
       <c r="E447" s="2">
-        <v>45563.89583333334</v>
+        <v>45563.875</v>
       </c>
       <c r="F447">
         <v>0</v>
       </c>
       <c r="G447" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H447" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I447">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J447">
         <v>1</v>
       </c>
       <c r="K447">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L447">
         <v>1</v>
       </c>
       <c r="M447">
+        <v>1</v>
+      </c>
+      <c r="N447">
+        <v>2</v>
+      </c>
+      <c r="O447" t="s">
+        <v>173</v>
+      </c>
+      <c r="P447" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q447">
+        <v>2.4</v>
+      </c>
+      <c r="R447">
+        <v>2.6</v>
+      </c>
+      <c r="S447">
+        <v>3.6</v>
+      </c>
+      <c r="T447">
+        <v>1.2</v>
+      </c>
+      <c r="U447">
+        <v>4.33</v>
+      </c>
+      <c r="V447">
+        <v>2</v>
+      </c>
+      <c r="W447">
+        <v>1.73</v>
+      </c>
+      <c r="X447">
+        <v>4.33</v>
+      </c>
+      <c r="Y447">
+        <v>1.2</v>
+      </c>
+      <c r="Z447">
+        <v>1.84</v>
+      </c>
+      <c r="AA447">
+        <v>4.1</v>
+      </c>
+      <c r="AB447">
+        <v>3.2</v>
+      </c>
+      <c r="AC447">
+        <v>1.01</v>
+      </c>
+      <c r="AD447">
+        <v>26</v>
+      </c>
+      <c r="AE447">
+        <v>1.12</v>
+      </c>
+      <c r="AF447">
+        <v>6.5</v>
+      </c>
+      <c r="AG447">
+        <v>1.36</v>
+      </c>
+      <c r="AH447">
+        <v>2.99</v>
+      </c>
+      <c r="AI447">
+        <v>1.36</v>
+      </c>
+      <c r="AJ447">
         <v>3</v>
       </c>
-      <c r="N447">
-        <v>4</v>
-      </c>
-      <c r="O447" t="s">
-        <v>407</v>
-      </c>
-      <c r="P447" t="s">
-        <v>620</v>
-      </c>
-      <c r="Q447">
-        <v>2.88</v>
-      </c>
-      <c r="R447">
-        <v>2.25</v>
-      </c>
-      <c r="S447">
-        <v>3.4</v>
-      </c>
-      <c r="T447">
+      <c r="AK447">
         <v>1.33</v>
       </c>
-      <c r="U447">
-        <v>3.25</v>
-      </c>
-      <c r="V447">
-        <v>2.63</v>
-      </c>
-      <c r="W447">
-        <v>1.44</v>
-      </c>
-      <c r="X447">
-        <v>6.5</v>
-      </c>
-      <c r="Y447">
-        <v>1.11</v>
-      </c>
-      <c r="Z447">
-        <v>2.32</v>
-      </c>
-      <c r="AA447">
-        <v>3.55</v>
-      </c>
-      <c r="AB447">
-        <v>2.6</v>
-      </c>
-      <c r="AC447">
-        <v>1.04</v>
-      </c>
-      <c r="AD447">
-        <v>13</v>
-      </c>
-      <c r="AE447">
-        <v>1.24</v>
-      </c>
-      <c r="AF447">
-        <v>4.2</v>
-      </c>
-      <c r="AG447">
-        <v>1.7</v>
-      </c>
-      <c r="AH447">
-        <v>2.12</v>
-      </c>
-      <c r="AI447">
+      <c r="AL447">
+        <v>1.2</v>
+      </c>
+      <c r="AM447">
+        <v>1.9</v>
+      </c>
+      <c r="AN447">
+        <v>1.62</v>
+      </c>
+      <c r="AO447">
+        <v>0.87</v>
+      </c>
+      <c r="AP447">
         <v>1.57</v>
       </c>
-      <c r="AJ447">
-        <v>2.25</v>
-      </c>
-      <c r="AK447">
-        <v>1.44</v>
-      </c>
-      <c r="AL447">
-        <v>1.29</v>
-      </c>
-      <c r="AM447">
-        <v>1.55</v>
-      </c>
-      <c r="AN447">
-        <v>1.93</v>
-      </c>
-      <c r="AO447">
-        <v>1.4</v>
-      </c>
-      <c r="AP447">
-        <v>1.81</v>
-      </c>
       <c r="AQ447">
-        <v>1.5</v>
+        <v>0.88</v>
       </c>
       <c r="AR447">
-        <v>1.48</v>
+        <v>1.65</v>
       </c>
       <c r="AS447">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="AT447">
         <v>2.84</v>
       </c>
       <c r="AU447">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AV447">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW447">
         <v>8</v>
       </c>
       <c r="AX447">
+        <v>8</v>
+      </c>
+      <c r="AY447">
+        <v>11</v>
+      </c>
+      <c r="AZ447">
+        <v>14</v>
+      </c>
+      <c r="BA447">
+        <v>2</v>
+      </c>
+      <c r="BB447">
+        <v>8</v>
+      </c>
+      <c r="BC447">
+        <v>10</v>
+      </c>
+      <c r="BD447">
+        <v>1.63</v>
+      </c>
+      <c r="BE447">
+        <v>6.1</v>
+      </c>
+      <c r="BF447">
         <v>3</v>
       </c>
-      <c r="AY447">
-        <v>15</v>
-      </c>
-      <c r="AZ447">
-        <v>11</v>
-      </c>
-      <c r="BA447">
-        <v>6</v>
-      </c>
-      <c r="BB447">
-        <v>7</v>
-      </c>
-      <c r="BC447">
-        <v>13</v>
-      </c>
-      <c r="BD447">
-        <v>2.05</v>
-      </c>
-      <c r="BE447">
-        <v>5.8</v>
-      </c>
-      <c r="BF447">
-        <v>1.88</v>
-      </c>
       <c r="BG447">
+        <v>1.3</v>
+      </c>
+      <c r="BH447">
+        <v>3.15</v>
+      </c>
+      <c r="BI447">
+        <v>1.53</v>
+      </c>
+      <c r="BJ447">
+        <v>2.32</v>
+      </c>
+      <c r="BK447">
+        <v>1.86</v>
+      </c>
+      <c r="BL447">
+        <v>1.82</v>
+      </c>
+      <c r="BM447">
+        <v>2.33</v>
+      </c>
+      <c r="BN447">
         <v>1.52</v>
       </c>
-      <c r="BH447">
-        <v>2.32</v>
-      </c>
-      <c r="BI447">
-        <v>1.89</v>
-      </c>
-      <c r="BJ447">
-        <v>1.8</v>
-      </c>
-      <c r="BK447">
-        <v>2.43</v>
-      </c>
-      <c r="BL447">
-        <v>1.48</v>
-      </c>
-      <c r="BM447">
-        <v>3.2</v>
-      </c>
-      <c r="BN447">
-        <v>1.28</v>
-      </c>
       <c r="BO447">
-        <v>4.4</v>
+        <v>3.05</v>
       </c>
       <c r="BP447">
-        <v>1.16</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="448" spans="1:68">
@@ -94334,7 +94334,7 @@
         <v>447</v>
       </c>
       <c r="B448">
-        <v>7295682</v>
+        <v>7295684</v>
       </c>
       <c r="C448" t="s">
         <v>68</v>
@@ -94349,190 +94349,190 @@
         <v>0</v>
       </c>
       <c r="G448" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H448" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I448">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J448">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K448">
         <v>1</v>
       </c>
       <c r="L448">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M448">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N448">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O448" t="s">
-        <v>161</v>
+        <v>407</v>
       </c>
       <c r="P448" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="Q448">
         <v>2.5</v>
       </c>
       <c r="R448">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="S448">
+        <v>3.5</v>
+      </c>
+      <c r="T448">
+        <v>1.22</v>
+      </c>
+      <c r="U448">
         <v>4</v>
       </c>
-      <c r="T448">
-        <v>1.33</v>
-      </c>
-      <c r="U448">
-        <v>3.25</v>
-      </c>
       <c r="V448">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="W448">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="X448">
+        <v>4.5</v>
+      </c>
+      <c r="Y448">
+        <v>1.18</v>
+      </c>
+      <c r="Z448">
+        <v>2.05</v>
+      </c>
+      <c r="AA448">
+        <v>3.95</v>
+      </c>
+      <c r="AB448">
+        <v>2.75</v>
+      </c>
+      <c r="AC448">
+        <v>1.01</v>
+      </c>
+      <c r="AD448">
+        <v>17</v>
+      </c>
+      <c r="AE448">
+        <v>1.08</v>
+      </c>
+      <c r="AF448">
         <v>6.5</v>
       </c>
-      <c r="Y448">
-        <v>1.11</v>
-      </c>
-      <c r="Z448">
-        <v>1.85</v>
-      </c>
-      <c r="AA448">
-        <v>3.75</v>
-      </c>
-      <c r="AB448">
-        <v>3.4</v>
-      </c>
-      <c r="AC448">
-        <v>1.03</v>
-      </c>
-      <c r="AD448">
+      <c r="AG448">
+        <v>1.4</v>
+      </c>
+      <c r="AH448">
+        <v>2.82</v>
+      </c>
+      <c r="AI448">
+        <v>1.4</v>
+      </c>
+      <c r="AJ448">
+        <v>2.75</v>
+      </c>
+      <c r="AK448">
+        <v>1.35</v>
+      </c>
+      <c r="AL448">
+        <v>1.22</v>
+      </c>
+      <c r="AM448">
+        <v>1.78</v>
+      </c>
+      <c r="AN448">
+        <v>1.27</v>
+      </c>
+      <c r="AO448">
+        <v>1.13</v>
+      </c>
+      <c r="AP448">
+        <v>1.38</v>
+      </c>
+      <c r="AQ448">
+        <v>1.06</v>
+      </c>
+      <c r="AR448">
+        <v>1.55</v>
+      </c>
+      <c r="AS448">
+        <v>1.4</v>
+      </c>
+      <c r="AT448">
+        <v>2.95</v>
+      </c>
+      <c r="AU448">
+        <v>11</v>
+      </c>
+      <c r="AV448">
+        <v>2</v>
+      </c>
+      <c r="AW448">
+        <v>4</v>
+      </c>
+      <c r="AX448">
+        <v>2</v>
+      </c>
+      <c r="AY448">
         <v>15</v>
       </c>
-      <c r="AE448">
-        <v>1.18</v>
-      </c>
-      <c r="AF448">
-        <v>3.76</v>
-      </c>
-      <c r="AG448">
-        <v>1.61</v>
-      </c>
-      <c r="AH448">
-        <v>2.18</v>
-      </c>
-      <c r="AI448">
-        <v>1.67</v>
-      </c>
-      <c r="AJ448">
-        <v>2.1</v>
-      </c>
-      <c r="AK448">
-        <v>1.25</v>
-      </c>
-      <c r="AL448">
-        <v>1.25</v>
-      </c>
-      <c r="AM448">
-        <v>1.91</v>
-      </c>
-      <c r="AN448">
-        <v>1.2</v>
-      </c>
-      <c r="AO448">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AP448">
-        <v>1.19</v>
-      </c>
-      <c r="AQ448">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AR448">
-        <v>1.38</v>
-      </c>
-      <c r="AS448">
-        <v>1.06</v>
-      </c>
-      <c r="AT448">
-        <v>2.44</v>
-      </c>
-      <c r="AU448">
+      <c r="AZ448">
         <v>4</v>
       </c>
-      <c r="AV448">
+      <c r="BA448">
+        <v>5</v>
+      </c>
+      <c r="BB448">
         <v>3</v>
       </c>
-      <c r="AW448">
-        <v>3</v>
-      </c>
-      <c r="AX448">
-        <v>4</v>
-      </c>
-      <c r="AY448">
-        <v>7</v>
-      </c>
-      <c r="AZ448">
-        <v>7</v>
-      </c>
-      <c r="BA448">
-        <v>1</v>
-      </c>
-      <c r="BB448">
-        <v>2</v>
-      </c>
       <c r="BC448">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BD448">
-        <v>1.57</v>
+        <v>1.93</v>
       </c>
       <c r="BE448">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BF448">
-        <v>2.95</v>
+        <v>2.15</v>
       </c>
       <c r="BG448">
+        <v>1.17</v>
+      </c>
+      <c r="BH448">
+        <v>4.5</v>
+      </c>
+      <c r="BI448">
         <v>1.3</v>
       </c>
-      <c r="BH448">
-        <v>3.15</v>
-      </c>
-      <c r="BI448">
-        <v>1.55</v>
-      </c>
       <c r="BJ448">
-        <v>2.33</v>
+        <v>3.2</v>
       </c>
       <c r="BK448">
-        <v>1.85</v>
+        <v>1.52</v>
       </c>
       <c r="BL448">
+        <v>2.49</v>
+      </c>
+      <c r="BM448">
         <v>1.83</v>
       </c>
-      <c r="BM448">
-        <v>2.33</v>
-      </c>
       <c r="BN448">
-        <v>1.52</v>
+        <v>1.98</v>
       </c>
       <c r="BO448">
-        <v>3</v>
+        <v>2.24</v>
       </c>
       <c r="BP448">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="449" spans="1:68">
@@ -94540,7 +94540,7 @@
         <v>448</v>
       </c>
       <c r="B449">
-        <v>7295681</v>
+        <v>7295685</v>
       </c>
       <c r="C449" t="s">
         <v>68</v>
@@ -94555,25 +94555,25 @@
         <v>0</v>
       </c>
       <c r="G449" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H449" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I449">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J449">
         <v>0</v>
       </c>
       <c r="K449">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L449">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M449">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N449">
         <v>4</v>
@@ -94582,163 +94582,163 @@
         <v>408</v>
       </c>
       <c r="P449" t="s">
-        <v>621</v>
+        <v>472</v>
       </c>
       <c r="Q449">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="R449">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S449">
+        <v>3.75</v>
+      </c>
+      <c r="T449">
+        <v>1.25</v>
+      </c>
+      <c r="U449">
+        <v>3.75</v>
+      </c>
+      <c r="V449">
+        <v>2.1</v>
+      </c>
+      <c r="W449">
+        <v>1.67</v>
+      </c>
+      <c r="X449">
+        <v>5</v>
+      </c>
+      <c r="Y449">
+        <v>1.17</v>
+      </c>
+      <c r="Z449">
+        <v>1.87</v>
+      </c>
+      <c r="AA449">
+        <v>3.9</v>
+      </c>
+      <c r="AB449">
         <v>3.25</v>
       </c>
-      <c r="T449">
-        <v>1.3</v>
-      </c>
-      <c r="U449">
-        <v>3.4</v>
-      </c>
-      <c r="V449">
-        <v>2.38</v>
-      </c>
-      <c r="W449">
-        <v>1.53</v>
-      </c>
-      <c r="X449">
-        <v>6</v>
-      </c>
-      <c r="Y449">
-        <v>1.13</v>
-      </c>
-      <c r="Z449">
-        <v>2.4</v>
-      </c>
-      <c r="AA449">
-        <v>3.6</v>
-      </c>
-      <c r="AB449">
-        <v>2.48</v>
-      </c>
       <c r="AC449">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD449">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AE449">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AF449">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AG449">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
       <c r="AH449">
-        <v>2.28</v>
+        <v>2.7</v>
       </c>
       <c r="AI449">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AJ449">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AK449">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="AL449">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AM449">
-        <v>1.63</v>
+        <v>1.9</v>
       </c>
       <c r="AN449">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="AO449">
-        <v>1.27</v>
+        <v>0.6</v>
       </c>
       <c r="AP449">
         <v>1.44</v>
       </c>
       <c r="AQ449">
-        <v>1.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR449">
-        <v>1.23</v>
+        <v>1.69</v>
       </c>
       <c r="AS449">
-        <v>1.53</v>
+        <v>1.19</v>
       </c>
       <c r="AT449">
-        <v>2.76</v>
+        <v>2.88</v>
       </c>
       <c r="AU449">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV449">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW449">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX449">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY449">
         <v>10</v>
       </c>
       <c r="AZ449">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA449">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB449">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC449">
         <v>13</v>
       </c>
       <c r="BD449">
-        <v>2.15</v>
+        <v>1.56</v>
       </c>
       <c r="BE449">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="BF449">
-        <v>1.93</v>
+        <v>2.5</v>
       </c>
       <c r="BG449">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="BH449">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="BI449">
+        <v>1.5</v>
+      </c>
+      <c r="BJ449">
+        <v>2.4</v>
+      </c>
+      <c r="BK449">
+        <v>1.82</v>
+      </c>
+      <c r="BL449">
+        <v>1.86</v>
+      </c>
+      <c r="BM449">
+        <v>2.28</v>
+      </c>
+      <c r="BN449">
+        <v>1.54</v>
+      </c>
+      <c r="BO449">
+        <v>2.9</v>
+      </c>
+      <c r="BP449">
         <v>1.34</v>
-      </c>
-      <c r="BJ449">
-        <v>2.69</v>
-      </c>
-      <c r="BK449">
-        <v>1.69</v>
-      </c>
-      <c r="BL449">
-        <v>2.14</v>
-      </c>
-      <c r="BM449">
-        <v>2.08</v>
-      </c>
-      <c r="BN449">
-        <v>1.74</v>
-      </c>
-      <c r="BO449">
-        <v>2.71</v>
-      </c>
-      <c r="BP449">
-        <v>1.38</v>
       </c>
     </row>
     <row r="450" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -96371,31 +96371,31 @@
         <v>2.9</v>
       </c>
       <c r="AU457">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AV457">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AW457">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AX457">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AY457">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AZ457">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="BA457">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BB457">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BC457">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BD457">
         <v>1.9</v>
@@ -96577,31 +96577,31 @@
         <v>3.28</v>
       </c>
       <c r="AU458">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV458">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AW458">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AX458">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AY458">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="AZ458">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BA458">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BB458">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BC458">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BD458">
         <v>1.42</v>
@@ -96783,31 +96783,31 @@
         <v>2.49</v>
       </c>
       <c r="AU459">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AV459">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AW459">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AX459">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AY459">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AZ459">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="BA459">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BB459">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BC459">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BD459">
         <v>1.58</v>
@@ -96989,31 +96989,31 @@
         <v>2.78</v>
       </c>
       <c r="AU460">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AV460">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AW460">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AX460">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AY460">
-        <v>28</v>
+        <v>-1</v>
       </c>
       <c r="AZ460">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BA460">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BB460">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BC460">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="BD460">
         <v>1.5</v>
@@ -97195,31 +97195,31 @@
         <v>3.05</v>
       </c>
       <c r="AU461">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV461">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AW461">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AX461">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AY461">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AZ461">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="BA461">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BB461">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BC461">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BD461">
         <v>1.46</v>
@@ -97401,31 +97401,31 @@
         <v>2.42</v>
       </c>
       <c r="AU462">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV462">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AW462">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AX462">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AY462">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="AZ462">
-        <v>29</v>
+        <v>-1</v>
       </c>
       <c r="BA462">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BB462">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="BC462">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="BD462">
         <v>1.68</v>
@@ -97607,31 +97607,31 @@
         <v>2.91</v>
       </c>
       <c r="AU463">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AV463">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AW463">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AX463">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AY463">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="AZ463">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="BA463">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BB463">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BC463">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BD463">
         <v>1.42</v>
@@ -97813,31 +97813,31 @@
         <v>3.01</v>
       </c>
       <c r="AU464">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AV464">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AW464">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AX464">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AY464">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="AZ464">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="BA464">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BB464">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BC464">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BD464">
         <v>1.58</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3062" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3068" uniqueCount="675">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1324,10 +1324,10 @@
     <t>['2', '60']</t>
   </si>
   <si>
-    <t>['32', '52', '54', '75', '87']</t>
+    <t>['32', '76']</t>
   </si>
   <si>
-    <t>['32', '76']</t>
+    <t>['32', '52', '54', '75', '87']</t>
   </si>
   <si>
     <t>['30', '57']</t>
@@ -2400,7 +2400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP500"/>
+  <dimension ref="A1:BP501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3358,7 +3358,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -5209,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14">
         <v>0.9399999999999999</v>
@@ -7478,7 +7478,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR25">
         <v>1.45</v>
@@ -10771,7 +10771,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ41">
         <v>1.35</v>
@@ -14685,10 +14685,10 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR60">
         <v>1.57</v>
@@ -17778,7 +17778,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ75">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR75">
         <v>1.58</v>
@@ -20041,7 +20041,7 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ86">
         <v>1.12</v>
@@ -29517,7 +29517,7 @@
         <v>1.6</v>
       </c>
       <c r="AP132">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ132">
         <v>0.9399999999999999</v>
@@ -35494,7 +35494,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ161">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR161">
         <v>1.51</v>
@@ -37345,7 +37345,7 @@
         <v>0.5</v>
       </c>
       <c r="AP170">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ170">
         <v>1</v>
@@ -38172,7 +38172,7 @@
         <v>1</v>
       </c>
       <c r="AQ174">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR174">
         <v>1.71</v>
@@ -40435,7 +40435,7 @@
         <v>0.8</v>
       </c>
       <c r="AP185">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ185">
         <v>0.65</v>
@@ -43734,7 +43734,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ201">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR201">
         <v>1.32</v>
@@ -45791,7 +45791,7 @@
         <v>0.4</v>
       </c>
       <c r="AP211">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ211">
         <v>0.88</v>
@@ -55679,7 +55679,7 @@
         <v>1.75</v>
       </c>
       <c r="AP259">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ259">
         <v>1.18</v>
@@ -56918,7 +56918,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ265">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR265">
         <v>1.79</v>
@@ -58151,7 +58151,7 @@
         <v>0.86</v>
       </c>
       <c r="AP271">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ271">
         <v>0.71</v>
@@ -58772,7 +58772,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ274">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR274">
         <v>1.33</v>
@@ -65979,7 +65979,7 @@
         <v>2.36</v>
       </c>
       <c r="AP309">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ309">
         <v>2.18</v>
@@ -67012,7 +67012,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ314">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR314">
         <v>1.25</v>
@@ -68451,7 +68451,7 @@
         <v>1</v>
       </c>
       <c r="AP321">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ321">
         <v>1.06</v>
@@ -69690,7 +69690,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ327">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR327">
         <v>1.47</v>
@@ -71544,7 +71544,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ336">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR336">
         <v>1.62</v>
@@ -71747,7 +71747,7 @@
         <v>0.64</v>
       </c>
       <c r="AP337">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ337">
         <v>0.65</v>
@@ -75458,7 +75458,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ355">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR355">
         <v>1.47</v>
@@ -79990,7 +79990,7 @@
         <v>2</v>
       </c>
       <c r="AQ377">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR377">
         <v>1.68</v>
@@ -80193,7 +80193,7 @@
         <v>0.77</v>
       </c>
       <c r="AP378">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ378">
         <v>0.82</v>
@@ -84728,7 +84728,7 @@
         <v>1</v>
       </c>
       <c r="AQ400">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR400">
         <v>1.62</v>
@@ -85137,7 +85137,7 @@
         <v>1.85</v>
       </c>
       <c r="AP402">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ402">
         <v>1.88</v>
@@ -92553,7 +92553,7 @@
         <v>1.29</v>
       </c>
       <c r="AP438">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ438">
         <v>1.59</v>
@@ -93586,7 +93586,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ443">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR443">
         <v>1.71</v>
@@ -98733,7 +98733,7 @@
         <v>1.5</v>
       </c>
       <c r="AP468">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ468">
         <v>1.59</v>
@@ -101826,7 +101826,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ483">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR483">
         <v>1.34</v>
@@ -104596,7 +104596,7 @@
         <v>69</v>
       </c>
       <c r="E497" s="2">
-        <v>45590.875</v>
+        <v>45590.89583333334</v>
       </c>
       <c r="F497">
         <v>0</v>
@@ -104793,7 +104793,7 @@
         <v>497</v>
       </c>
       <c r="B498">
-        <v>7729411</v>
+        <v>7727673</v>
       </c>
       <c r="C498" t="s">
         <v>68</v>
@@ -104808,10 +104808,10 @@
         <v>0</v>
       </c>
       <c r="G498" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H498" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="I498">
         <v>1</v>
@@ -104823,13 +104823,13 @@
         <v>1</v>
       </c>
       <c r="L498">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M498">
         <v>0</v>
       </c>
       <c r="N498">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O498" t="s">
         <v>436</v>
@@ -104838,160 +104838,160 @@
         <v>104</v>
       </c>
       <c r="Q498">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="R498">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="S498">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="T498">
+        <v>1.29</v>
+      </c>
+      <c r="U498">
+        <v>3.5</v>
+      </c>
+      <c r="V498">
+        <v>2.38</v>
+      </c>
+      <c r="W498">
+        <v>1.53</v>
+      </c>
+      <c r="X498">
+        <v>5.5</v>
+      </c>
+      <c r="Y498">
+        <v>1.14</v>
+      </c>
+      <c r="Z498">
+        <v>1.74</v>
+      </c>
+      <c r="AA498">
+        <v>3.95</v>
+      </c>
+      <c r="AB498">
+        <v>4.53</v>
+      </c>
+      <c r="AC498">
+        <v>1.01</v>
+      </c>
+      <c r="AD498">
+        <v>13</v>
+      </c>
+      <c r="AE498">
+        <v>1.14</v>
+      </c>
+      <c r="AF498">
+        <v>4.8</v>
+      </c>
+      <c r="AG498">
+        <v>1.55</v>
+      </c>
+      <c r="AH498">
+        <v>2.36</v>
+      </c>
+      <c r="AI498">
+        <v>1.62</v>
+      </c>
+      <c r="AJ498">
+        <v>2.2</v>
+      </c>
+      <c r="AK498">
         <v>1.2</v>
       </c>
-      <c r="U498">
-        <v>4.33</v>
-      </c>
-      <c r="V498">
-        <v>1.91</v>
-      </c>
-      <c r="W498">
-        <v>1.8</v>
-      </c>
-      <c r="X498">
+      <c r="AL498">
+        <v>1.2</v>
+      </c>
+      <c r="AM498">
+        <v>2</v>
+      </c>
+      <c r="AN498">
+        <v>1.53</v>
+      </c>
+      <c r="AO498">
+        <v>1.5</v>
+      </c>
+      <c r="AP498">
+        <v>1.57</v>
+      </c>
+      <c r="AQ498">
+        <v>1.46</v>
+      </c>
+      <c r="AR498">
+        <v>1.47</v>
+      </c>
+      <c r="AS498">
+        <v>1.31</v>
+      </c>
+      <c r="AT498">
+        <v>2.78</v>
+      </c>
+      <c r="AU498">
+        <v>7</v>
+      </c>
+      <c r="AV498">
+        <v>3</v>
+      </c>
+      <c r="AW498">
+        <v>5</v>
+      </c>
+      <c r="AX498">
         <v>4</v>
       </c>
-      <c r="Y498">
-        <v>1.22</v>
-      </c>
-      <c r="Z498">
-        <v>1.51</v>
-      </c>
-      <c r="AA498">
-        <v>4.24</v>
-      </c>
-      <c r="AB498">
-        <v>4.33</v>
-      </c>
-      <c r="AC498">
-        <v>0</v>
-      </c>
-      <c r="AD498">
-        <v>0</v>
-      </c>
-      <c r="AE498">
-        <v>1.11</v>
-      </c>
-      <c r="AF498">
-        <v>6.25</v>
-      </c>
-      <c r="AG498">
-        <v>1.32</v>
-      </c>
-      <c r="AH498">
-        <v>3.4</v>
-      </c>
-      <c r="AI498">
-        <v>1.44</v>
-      </c>
-      <c r="AJ498">
-        <v>2.63</v>
-      </c>
-      <c r="AK498">
-        <v>1.17</v>
-      </c>
-      <c r="AL498">
-        <v>1.15</v>
-      </c>
-      <c r="AM498">
-        <v>2.35</v>
-      </c>
-      <c r="AN498">
-        <v>1.88</v>
-      </c>
-      <c r="AO498">
-        <v>1.47</v>
-      </c>
-      <c r="AP498">
-        <v>1.91</v>
-      </c>
-      <c r="AQ498">
-        <v>1.43</v>
-      </c>
-      <c r="AR498">
-        <v>1.58</v>
-      </c>
-      <c r="AS498">
-        <v>1.47</v>
-      </c>
-      <c r="AT498">
-        <v>3.05</v>
-      </c>
-      <c r="AU498">
+      <c r="AY498">
+        <v>18</v>
+      </c>
+      <c r="AZ498">
         <v>10</v>
       </c>
-      <c r="AV498">
-        <v>0</v>
-      </c>
-      <c r="AW498">
-        <v>7</v>
-      </c>
-      <c r="AX498">
-        <v>2</v>
-      </c>
-      <c r="AY498">
-        <v>19</v>
-      </c>
-      <c r="AZ498">
-        <v>2</v>
-      </c>
       <c r="BA498">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BB498">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC498">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BD498">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="BE498">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="BF498">
         <v>2.65</v>
       </c>
       <c r="BG498">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="BH498">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="BI498">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="BJ498">
-        <v>2.55</v>
+        <v>2.32</v>
       </c>
       <c r="BK498">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="BL498">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="BM498">
-        <v>2.12</v>
+        <v>2.33</v>
       </c>
       <c r="BN498">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="BO498">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
       <c r="BP498">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="499" spans="1:68">
@@ -104999,7 +104999,7 @@
         <v>498</v>
       </c>
       <c r="B499">
-        <v>7727673</v>
+        <v>7729411</v>
       </c>
       <c r="C499" t="s">
         <v>68</v>
@@ -105008,16 +105008,16 @@
         <v>69</v>
       </c>
       <c r="E499" s="2">
-        <v>45592.85416666666</v>
+        <v>45592</v>
       </c>
       <c r="F499">
         <v>0</v>
       </c>
       <c r="G499" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H499" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="I499">
         <v>1</v>
@@ -105029,13 +105029,13 @@
         <v>1</v>
       </c>
       <c r="L499">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M499">
         <v>0</v>
       </c>
       <c r="N499">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O499" t="s">
         <v>437</v>
@@ -105044,160 +105044,160 @@
         <v>104</v>
       </c>
       <c r="Q499">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="R499">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="S499">
+        <v>4.75</v>
+      </c>
+      <c r="T499">
+        <v>1.2</v>
+      </c>
+      <c r="U499">
         <v>4.33</v>
       </c>
-      <c r="T499">
-        <v>1.29</v>
-      </c>
-      <c r="U499">
-        <v>3.5</v>
-      </c>
       <c r="V499">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="W499">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="X499">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Y499">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="Z499">
-        <v>1.74</v>
+        <v>1.51</v>
       </c>
       <c r="AA499">
-        <v>3.95</v>
+        <v>4.24</v>
       </c>
       <c r="AB499">
-        <v>4.53</v>
+        <v>4.33</v>
       </c>
       <c r="AC499">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AD499">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AE499">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AF499">
-        <v>4.8</v>
+        <v>6.25</v>
       </c>
       <c r="AG499">
-        <v>1.55</v>
+        <v>1.32</v>
       </c>
       <c r="AH499">
-        <v>2.36</v>
+        <v>3.4</v>
       </c>
       <c r="AI499">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="AJ499">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="AK499">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AL499">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AM499">
-        <v>2</v>
+        <v>2.35</v>
       </c>
       <c r="AN499">
-        <v>1.53</v>
+        <v>1.88</v>
       </c>
       <c r="AO499">
+        <v>1.47</v>
+      </c>
+      <c r="AP499">
+        <v>1.91</v>
+      </c>
+      <c r="AQ499">
+        <v>1.43</v>
+      </c>
+      <c r="AR499">
+        <v>1.58</v>
+      </c>
+      <c r="AS499">
+        <v>1.47</v>
+      </c>
+      <c r="AT499">
+        <v>3.05</v>
+      </c>
+      <c r="AU499">
+        <v>10</v>
+      </c>
+      <c r="AV499">
+        <v>0</v>
+      </c>
+      <c r="AW499">
+        <v>7</v>
+      </c>
+      <c r="AX499">
+        <v>2</v>
+      </c>
+      <c r="AY499">
+        <v>19</v>
+      </c>
+      <c r="AZ499">
+        <v>2</v>
+      </c>
+      <c r="BA499">
+        <v>3</v>
+      </c>
+      <c r="BB499">
+        <v>2</v>
+      </c>
+      <c r="BC499">
+        <v>5</v>
+      </c>
+      <c r="BD499">
         <v>1.5</v>
       </c>
-      <c r="AP499">
-        <v>1.57</v>
-      </c>
-      <c r="AQ499">
-        <v>1.46</v>
-      </c>
-      <c r="AR499">
-        <v>1.47</v>
-      </c>
-      <c r="AS499">
-        <v>1.31</v>
-      </c>
-      <c r="AT499">
-        <v>2.78</v>
-      </c>
-      <c r="AU499">
-        <v>7</v>
-      </c>
-      <c r="AV499">
-        <v>3</v>
-      </c>
-      <c r="AW499">
-        <v>5</v>
-      </c>
-      <c r="AX499">
-        <v>4</v>
-      </c>
-      <c r="AY499">
-        <v>18</v>
-      </c>
-      <c r="AZ499">
-        <v>10</v>
-      </c>
-      <c r="BA499">
-        <v>8</v>
-      </c>
-      <c r="BB499">
-        <v>4</v>
-      </c>
-      <c r="BC499">
-        <v>12</v>
-      </c>
-      <c r="BD499">
-        <v>1.49</v>
-      </c>
       <c r="BE499">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF499">
         <v>2.65</v>
       </c>
       <c r="BG499">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="BH499">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="BI499">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="BJ499">
-        <v>2.32</v>
+        <v>2.55</v>
       </c>
       <c r="BK499">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="BL499">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="BM499">
-        <v>2.33</v>
+        <v>2.12</v>
       </c>
       <c r="BN499">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="BO499">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
       <c r="BP499">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="500" spans="1:68">
@@ -105214,7 +105214,7 @@
         <v>69</v>
       </c>
       <c r="E500" s="2">
-        <v>45592.94791666666</v>
+        <v>45592.875</v>
       </c>
       <c r="F500">
         <v>0</v>
@@ -105404,6 +105404,212 @@
       </c>
       <c r="BP500">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="501" spans="1:68">
+      <c r="A501" s="1">
+        <v>500</v>
+      </c>
+      <c r="B501">
+        <v>7727674</v>
+      </c>
+      <c r="C501" t="s">
+        <v>68</v>
+      </c>
+      <c r="D501" t="s">
+        <v>69</v>
+      </c>
+      <c r="E501" s="2">
+        <v>45593.82291666666</v>
+      </c>
+      <c r="F501">
+        <v>0</v>
+      </c>
+      <c r="G501" t="s">
+        <v>82</v>
+      </c>
+      <c r="H501" t="s">
+        <v>94</v>
+      </c>
+      <c r="I501">
+        <v>0</v>
+      </c>
+      <c r="J501">
+        <v>0</v>
+      </c>
+      <c r="K501">
+        <v>0</v>
+      </c>
+      <c r="L501">
+        <v>1</v>
+      </c>
+      <c r="M501">
+        <v>0</v>
+      </c>
+      <c r="N501">
+        <v>1</v>
+      </c>
+      <c r="O501" t="s">
+        <v>333</v>
+      </c>
+      <c r="P501" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q501">
+        <v>2.4</v>
+      </c>
+      <c r="R501">
+        <v>2.4</v>
+      </c>
+      <c r="S501">
+        <v>4</v>
+      </c>
+      <c r="T501">
+        <v>1.29</v>
+      </c>
+      <c r="U501">
+        <v>3.5</v>
+      </c>
+      <c r="V501">
+        <v>2.25</v>
+      </c>
+      <c r="W501">
+        <v>1.57</v>
+      </c>
+      <c r="X501">
+        <v>5.5</v>
+      </c>
+      <c r="Y501">
+        <v>1.14</v>
+      </c>
+      <c r="Z501">
+        <v>1.9</v>
+      </c>
+      <c r="AA501">
+        <v>3.85</v>
+      </c>
+      <c r="AB501">
+        <v>3.77</v>
+      </c>
+      <c r="AC501">
+        <v>1.01</v>
+      </c>
+      <c r="AD501">
+        <v>13</v>
+      </c>
+      <c r="AE501">
+        <v>1.12</v>
+      </c>
+      <c r="AF501">
+        <v>4.4</v>
+      </c>
+      <c r="AG501">
+        <v>1.55</v>
+      </c>
+      <c r="AH501">
+        <v>2.3</v>
+      </c>
+      <c r="AI501">
+        <v>1.53</v>
+      </c>
+      <c r="AJ501">
+        <v>2.38</v>
+      </c>
+      <c r="AK501">
+        <v>1.28</v>
+      </c>
+      <c r="AL501">
+        <v>1.2</v>
+      </c>
+      <c r="AM501">
+        <v>1.85</v>
+      </c>
+      <c r="AN501">
+        <v>1.74</v>
+      </c>
+      <c r="AO501">
+        <v>1.47</v>
+      </c>
+      <c r="AP501">
+        <v>1.77</v>
+      </c>
+      <c r="AQ501">
+        <v>1.43</v>
+      </c>
+      <c r="AR501">
+        <v>1.48</v>
+      </c>
+      <c r="AS501">
+        <v>1.45</v>
+      </c>
+      <c r="AT501">
+        <v>2.93</v>
+      </c>
+      <c r="AU501">
+        <v>8</v>
+      </c>
+      <c r="AV501">
+        <v>4</v>
+      </c>
+      <c r="AW501">
+        <v>9</v>
+      </c>
+      <c r="AX501">
+        <v>4</v>
+      </c>
+      <c r="AY501">
+        <v>23</v>
+      </c>
+      <c r="AZ501">
+        <v>8</v>
+      </c>
+      <c r="BA501">
+        <v>9</v>
+      </c>
+      <c r="BB501">
+        <v>5</v>
+      </c>
+      <c r="BC501">
+        <v>14</v>
+      </c>
+      <c r="BD501">
+        <v>1.49</v>
+      </c>
+      <c r="BE501">
+        <v>6.5</v>
+      </c>
+      <c r="BF501">
+        <v>2.7</v>
+      </c>
+      <c r="BG501">
+        <v>1.27</v>
+      </c>
+      <c r="BH501">
+        <v>3.3</v>
+      </c>
+      <c r="BI501">
+        <v>1.47</v>
+      </c>
+      <c r="BJ501">
+        <v>2.48</v>
+      </c>
+      <c r="BK501">
+        <v>1.76</v>
+      </c>
+      <c r="BL501">
+        <v>1.94</v>
+      </c>
+      <c r="BM501">
+        <v>2.17</v>
+      </c>
+      <c r="BN501">
+        <v>1.6</v>
+      </c>
+      <c r="BO501">
+        <v>2.8</v>
+      </c>
+      <c r="BP501">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3068" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3074" uniqueCount="675">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -2400,7 +2400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP501"/>
+  <dimension ref="A1:BP502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8299,7 +8299,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ29">
         <v>0.9399999999999999</v>
@@ -11801,7 +11801,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ46">
         <v>0.9399999999999999</v>
@@ -16130,7 +16130,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ67">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR67">
         <v>1.06</v>
@@ -21486,7 +21486,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ93">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR93">
         <v>1.63</v>
@@ -22307,7 +22307,7 @@
         <v>1.4</v>
       </c>
       <c r="AP97">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ97">
         <v>0.82</v>
@@ -24370,7 +24370,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ107">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR107">
         <v>1.55</v>
@@ -27869,7 +27869,7 @@
         <v>3</v>
       </c>
       <c r="AP124">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ124">
         <v>1.39</v>
@@ -30550,7 +30550,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ137">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR137">
         <v>1.63</v>
@@ -34255,7 +34255,7 @@
         <v>1.67</v>
       </c>
       <c r="AP155">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ155">
         <v>1.29</v>
@@ -36318,7 +36318,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ165">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR165">
         <v>1.45</v>
@@ -39202,7 +39202,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ179">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR179">
         <v>1.26</v>
@@ -42701,7 +42701,7 @@
         <v>1.67</v>
       </c>
       <c r="AP196">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ196">
         <v>1.39</v>
@@ -45382,7 +45382,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ209">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR209">
         <v>1.77</v>
@@ -47645,7 +47645,7 @@
         <v>1.63</v>
       </c>
       <c r="AP220">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ220">
         <v>1.35</v>
@@ -50532,7 +50532,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ234">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR234">
         <v>1.45</v>
@@ -52180,7 +52180,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ242">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR242">
         <v>1.66</v>
@@ -54031,7 +54031,7 @@
         <v>1.86</v>
       </c>
       <c r="AP251">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ251">
         <v>1.59</v>
@@ -57948,7 +57948,7 @@
         <v>1</v>
       </c>
       <c r="AQ270">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR270">
         <v>1.65</v>
@@ -60005,7 +60005,7 @@
         <v>0.33</v>
       </c>
       <c r="AP280">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ280">
         <v>0.53</v>
@@ -62889,7 +62889,7 @@
         <v>0.78</v>
       </c>
       <c r="AP294">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ294">
         <v>0.65</v>
@@ -64952,7 +64952,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ304">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR304">
         <v>1.7</v>
@@ -67215,7 +67215,7 @@
         <v>1.13</v>
       </c>
       <c r="AP315">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ315">
         <v>0.71</v>
@@ -73395,7 +73395,7 @@
         <v>0.5</v>
       </c>
       <c r="AP345">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ345">
         <v>0.65</v>
@@ -73604,7 +73604,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ346">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR346">
         <v>1.49</v>
@@ -76485,7 +76485,7 @@
         <v>1.4</v>
       </c>
       <c r="AP360">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ360">
         <v>1.59</v>
@@ -76694,7 +76694,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ361">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR361">
         <v>1.56</v>
@@ -81844,7 +81844,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ386">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR386">
         <v>1.95</v>
@@ -86579,7 +86579,7 @@
         <v>0.64</v>
       </c>
       <c r="AP409">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ409">
         <v>0.53</v>
@@ -89257,7 +89257,7 @@
         <v>0.5</v>
       </c>
       <c r="AP422">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ422">
         <v>0.47</v>
@@ -90702,7 +90702,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ429">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR429">
         <v>1.18</v>
@@ -95025,10 +95025,10 @@
         <v>1.73</v>
       </c>
       <c r="AP450">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ450">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR450">
         <v>1.61</v>
@@ -99766,7 +99766,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ473">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR473">
         <v>1.66</v>
@@ -104089,7 +104089,7 @@
         <v>0.88</v>
       </c>
       <c r="AP494">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ494">
         <v>0.83</v>
@@ -105610,6 +105610,212 @@
       </c>
       <c r="BP501">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="502" spans="1:68">
+      <c r="A502" s="1">
+        <v>501</v>
+      </c>
+      <c r="B502">
+        <v>7729412</v>
+      </c>
+      <c r="C502" t="s">
+        <v>68</v>
+      </c>
+      <c r="D502" t="s">
+        <v>69</v>
+      </c>
+      <c r="E502" s="2">
+        <v>45593.875</v>
+      </c>
+      <c r="F502">
+        <v>0</v>
+      </c>
+      <c r="G502" t="s">
+        <v>92</v>
+      </c>
+      <c r="H502" t="s">
+        <v>79</v>
+      </c>
+      <c r="I502">
+        <v>0</v>
+      </c>
+      <c r="J502">
+        <v>0</v>
+      </c>
+      <c r="K502">
+        <v>0</v>
+      </c>
+      <c r="L502">
+        <v>0</v>
+      </c>
+      <c r="M502">
+        <v>0</v>
+      </c>
+      <c r="N502">
+        <v>0</v>
+      </c>
+      <c r="O502" t="s">
+        <v>104</v>
+      </c>
+      <c r="P502" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q502">
+        <v>2.3</v>
+      </c>
+      <c r="R502">
+        <v>2.25</v>
+      </c>
+      <c r="S502">
+        <v>5</v>
+      </c>
+      <c r="T502">
+        <v>1.36</v>
+      </c>
+      <c r="U502">
+        <v>3</v>
+      </c>
+      <c r="V502">
+        <v>2.75</v>
+      </c>
+      <c r="W502">
+        <v>1.4</v>
+      </c>
+      <c r="X502">
+        <v>8</v>
+      </c>
+      <c r="Y502">
+        <v>1.08</v>
+      </c>
+      <c r="Z502">
+        <v>1.78</v>
+      </c>
+      <c r="AA502">
+        <v>3.6</v>
+      </c>
+      <c r="AB502">
+        <v>4.33</v>
+      </c>
+      <c r="AC502">
+        <v>1.05</v>
+      </c>
+      <c r="AD502">
+        <v>12</v>
+      </c>
+      <c r="AE502">
+        <v>1.3</v>
+      </c>
+      <c r="AF502">
+        <v>3.6</v>
+      </c>
+      <c r="AG502">
+        <v>1.91</v>
+      </c>
+      <c r="AH502">
+        <v>1.8</v>
+      </c>
+      <c r="AI502">
+        <v>1.8</v>
+      </c>
+      <c r="AJ502">
+        <v>1.95</v>
+      </c>
+      <c r="AK502">
+        <v>1.2</v>
+      </c>
+      <c r="AL502">
+        <v>1.24</v>
+      </c>
+      <c r="AM502">
+        <v>2.1</v>
+      </c>
+      <c r="AN502">
+        <v>1.68</v>
+      </c>
+      <c r="AO502">
+        <v>1.59</v>
+      </c>
+      <c r="AP502">
+        <v>1.66</v>
+      </c>
+      <c r="AQ502">
+        <v>1.57</v>
+      </c>
+      <c r="AR502">
+        <v>1.44</v>
+      </c>
+      <c r="AS502">
+        <v>1.48</v>
+      </c>
+      <c r="AT502">
+        <v>2.92</v>
+      </c>
+      <c r="AU502">
+        <v>4</v>
+      </c>
+      <c r="AV502">
+        <v>0</v>
+      </c>
+      <c r="AW502">
+        <v>10</v>
+      </c>
+      <c r="AX502">
+        <v>6</v>
+      </c>
+      <c r="AY502">
+        <v>21</v>
+      </c>
+      <c r="AZ502">
+        <v>8</v>
+      </c>
+      <c r="BA502">
+        <v>8</v>
+      </c>
+      <c r="BB502">
+        <v>1</v>
+      </c>
+      <c r="BC502">
+        <v>9</v>
+      </c>
+      <c r="BD502">
+        <v>1.45</v>
+      </c>
+      <c r="BE502">
+        <v>6.75</v>
+      </c>
+      <c r="BF502">
+        <v>2.9</v>
+      </c>
+      <c r="BG502">
+        <v>1.23</v>
+      </c>
+      <c r="BH502">
+        <v>3.65</v>
+      </c>
+      <c r="BI502">
+        <v>1.4</v>
+      </c>
+      <c r="BJ502">
+        <v>2.65</v>
+      </c>
+      <c r="BK502">
+        <v>1.65</v>
+      </c>
+      <c r="BL502">
+        <v>2.07</v>
+      </c>
+      <c r="BM502">
+        <v>2.04</v>
+      </c>
+      <c r="BN502">
+        <v>1.68</v>
+      </c>
+      <c r="BO502">
+        <v>2.55</v>
+      </c>
+      <c r="BP502">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3074" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3086" uniqueCount="676">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1324,10 +1324,10 @@
     <t>['2', '60']</t>
   </si>
   <si>
-    <t>['32', '76']</t>
+    <t>['32', '52', '54', '75', '87']</t>
   </si>
   <si>
-    <t>['32', '52', '54', '75', '87']</t>
+    <t>['32', '76']</t>
   </si>
   <si>
     <t>['30', '57']</t>
@@ -2040,6 +2040,9 @@
   <si>
     <t>['29', '44']</t>
   </si>
+  <si>
+    <t>['25']</t>
+  </si>
 </sst>
 </file>
 
@@ -2400,7 +2403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP502"/>
+  <dimension ref="A1:BP504"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2943,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -4182,7 +4185,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ9">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -5418,7 +5421,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ15">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -6033,7 +6036,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ18">
         <v>1.59</v>
@@ -7066,7 +7069,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ23">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR23">
         <v>1.42</v>
@@ -9126,7 +9129,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ33">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR33">
         <v>1.61</v>
@@ -9741,7 +9744,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ36">
         <v>0.65</v>
@@ -10153,7 +10156,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ38">
         <v>0.9399999999999999</v>
@@ -12007,10 +12010,10 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ47">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR47">
         <v>1.86</v>
@@ -16954,7 +16957,7 @@
         <v>1</v>
       </c>
       <c r="AQ71">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR71">
         <v>1.95</v>
@@ -17984,7 +17987,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ76">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR76">
         <v>1.96</v>
@@ -19011,7 +19014,7 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ81">
         <v>0.65</v>
@@ -20044,7 +20047,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ86">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR86">
         <v>1.49</v>
@@ -20247,7 +20250,7 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ87">
         <v>1.35</v>
@@ -24573,7 +24576,7 @@
         <v>0.67</v>
       </c>
       <c r="AP108">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ108">
         <v>1.88</v>
@@ -25809,7 +25812,7 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ114">
         <v>0.83</v>
@@ -27666,7 +27669,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ123">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR123">
         <v>2.06</v>
@@ -28078,7 +28081,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ125">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR125">
         <v>1.42</v>
@@ -29929,7 +29932,7 @@
         <v>1.17</v>
       </c>
       <c r="AP134">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ134">
         <v>0.82</v>
@@ -31992,7 +31995,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ144">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR144">
         <v>1.66</v>
@@ -32610,7 +32613,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ147">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR147">
         <v>1.86</v>
@@ -33637,7 +33640,7 @@
         <v>1.25</v>
       </c>
       <c r="AP152">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ152">
         <v>0.53</v>
@@ -35697,7 +35700,7 @@
         <v>2.17</v>
       </c>
       <c r="AP162">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ162">
         <v>2.06</v>
@@ -37554,7 +37557,7 @@
         <v>1</v>
       </c>
       <c r="AQ171">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR171">
         <v>1.72</v>
@@ -39611,7 +39614,7 @@
         <v>1</v>
       </c>
       <c r="AP181">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ181">
         <v>1.53</v>
@@ -40850,7 +40853,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ187">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR187">
         <v>1.79</v>
@@ -42289,7 +42292,7 @@
         <v>1.57</v>
       </c>
       <c r="AP194">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ194">
         <v>0.9399999999999999</v>
@@ -44764,7 +44767,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ206">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR206">
         <v>1.47</v>
@@ -48060,7 +48063,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ222">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR222">
         <v>2.02</v>
@@ -49911,7 +49914,7 @@
         <v>0.86</v>
       </c>
       <c r="AP231">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ231">
         <v>0.9399999999999999</v>
@@ -50944,7 +50947,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ236">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR236">
         <v>1.32</v>
@@ -54034,7 +54037,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ251">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR251">
         <v>1.56</v>
@@ -54652,7 +54655,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ254">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR254">
         <v>1.22</v>
@@ -56094,7 +56097,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ261">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR261">
         <v>1.5</v>
@@ -58357,7 +58360,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP272">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ272">
         <v>0.53</v>
@@ -59387,7 +59390,7 @@
         <v>1.3</v>
       </c>
       <c r="AP277">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ277">
         <v>1.29</v>
@@ -62480,7 +62483,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ292">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR292">
         <v>1.5</v>
@@ -64743,7 +64746,7 @@
         <v>1.13</v>
       </c>
       <c r="AP303">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ303">
         <v>0.88</v>
@@ -64949,7 +64952,7 @@
         <v>1.4</v>
       </c>
       <c r="AP304">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ304">
         <v>1.5</v>
@@ -66185,7 +66188,7 @@
         <v>0.82</v>
       </c>
       <c r="AP310">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ310">
         <v>0.9399999999999999</v>
@@ -66600,7 +66603,7 @@
         <v>1</v>
       </c>
       <c r="AQ312">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR312">
         <v>1.72</v>
@@ -66803,7 +66806,7 @@
         <v>1</v>
       </c>
       <c r="AP313">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ313">
         <v>1</v>
@@ -68042,7 +68045,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ319">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR319">
         <v>1.68</v>
@@ -70308,7 +70311,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ330">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR330">
         <v>1.71</v>
@@ -70514,7 +70517,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ331">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR331">
         <v>1.65</v>
@@ -71953,7 +71956,7 @@
         <v>1.18</v>
       </c>
       <c r="AP338">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ338">
         <v>1.06</v>
@@ -77518,7 +77521,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ365">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR365">
         <v>1.16</v>
@@ -78957,7 +78960,7 @@
         <v>0.33</v>
       </c>
       <c r="AP372">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ372">
         <v>0.47</v>
@@ -79987,7 +79990,7 @@
         <v>1</v>
       </c>
       <c r="AP377">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ377">
         <v>0.9399999999999999</v>
@@ -81635,7 +81638,7 @@
         <v>1.09</v>
       </c>
       <c r="AP385">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ385">
         <v>0.71</v>
@@ -82256,7 +82259,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ388">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR388">
         <v>1.42</v>
@@ -82665,7 +82668,7 @@
         <v>1.21</v>
       </c>
       <c r="AP390">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ390">
         <v>1.53</v>
@@ -85346,7 +85349,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ403">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR403">
         <v>1.39</v>
@@ -85758,7 +85761,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ405">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR405">
         <v>1.69</v>
@@ -88639,7 +88642,7 @@
         <v>0.57</v>
       </c>
       <c r="AP419">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ419">
         <v>0.53</v>
@@ -89875,7 +89878,7 @@
         <v>1.5</v>
       </c>
       <c r="AP425">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ425">
         <v>1.59</v>
@@ -91114,7 +91117,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ431">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR431">
         <v>1.64</v>
@@ -91317,7 +91320,7 @@
         <v>0.86</v>
       </c>
       <c r="AP432">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ432">
         <v>0.83</v>
@@ -95440,7 +95443,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ452">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR452">
         <v>1.35</v>
@@ -96261,7 +96264,7 @@
         <v>2.07</v>
       </c>
       <c r="AP456">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ456">
         <v>2.18</v>
@@ -97085,10 +97088,10 @@
         <v>1.53</v>
       </c>
       <c r="AP460">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ460">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR460">
         <v>1.72</v>
@@ -98527,7 +98530,7 @@
         <v>1.25</v>
       </c>
       <c r="AP467">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ467">
         <v>1.18</v>
@@ -99148,7 +99151,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ470">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR470">
         <v>1.64</v>
@@ -99354,7 +99357,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ471">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR471">
         <v>1.58</v>
@@ -100999,7 +101002,7 @@
         <v>0.8</v>
       </c>
       <c r="AP479">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ479">
         <v>0.71</v>
@@ -103883,7 +103886,7 @@
         <v>1.56</v>
       </c>
       <c r="AP493">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ493">
         <v>1.39</v>
@@ -104793,7 +104796,7 @@
         <v>497</v>
       </c>
       <c r="B498">
-        <v>7727673</v>
+        <v>7729411</v>
       </c>
       <c r="C498" t="s">
         <v>68</v>
@@ -104802,16 +104805,16 @@
         <v>69</v>
       </c>
       <c r="E498" s="2">
-        <v>45591.875</v>
+        <v>45592</v>
       </c>
       <c r="F498">
         <v>0</v>
       </c>
       <c r="G498" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H498" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="I498">
         <v>1</v>
@@ -104823,13 +104826,13 @@
         <v>1</v>
       </c>
       <c r="L498">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M498">
         <v>0</v>
       </c>
       <c r="N498">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O498" t="s">
         <v>436</v>
@@ -104838,160 +104841,160 @@
         <v>104</v>
       </c>
       <c r="Q498">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="R498">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="S498">
+        <v>4.75</v>
+      </c>
+      <c r="T498">
+        <v>1.2</v>
+      </c>
+      <c r="U498">
         <v>4.33</v>
       </c>
-      <c r="T498">
-        <v>1.29</v>
-      </c>
-      <c r="U498">
-        <v>3.5</v>
-      </c>
       <c r="V498">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="W498">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="X498">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Y498">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="Z498">
-        <v>1.74</v>
+        <v>1.51</v>
       </c>
       <c r="AA498">
-        <v>3.95</v>
+        <v>4.24</v>
       </c>
       <c r="AB498">
-        <v>4.53</v>
+        <v>4.33</v>
       </c>
       <c r="AC498">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AD498">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AE498">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AF498">
-        <v>4.8</v>
+        <v>6.25</v>
       </c>
       <c r="AG498">
-        <v>1.55</v>
+        <v>1.32</v>
       </c>
       <c r="AH498">
-        <v>2.36</v>
+        <v>3.4</v>
       </c>
       <c r="AI498">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="AJ498">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="AK498">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AL498">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AM498">
-        <v>2</v>
+        <v>2.35</v>
       </c>
       <c r="AN498">
-        <v>1.53</v>
+        <v>1.88</v>
       </c>
       <c r="AO498">
+        <v>1.47</v>
+      </c>
+      <c r="AP498">
+        <v>1.91</v>
+      </c>
+      <c r="AQ498">
+        <v>1.43</v>
+      </c>
+      <c r="AR498">
+        <v>1.58</v>
+      </c>
+      <c r="AS498">
+        <v>1.47</v>
+      </c>
+      <c r="AT498">
+        <v>3.05</v>
+      </c>
+      <c r="AU498">
+        <v>10</v>
+      </c>
+      <c r="AV498">
+        <v>0</v>
+      </c>
+      <c r="AW498">
+        <v>7</v>
+      </c>
+      <c r="AX498">
+        <v>2</v>
+      </c>
+      <c r="AY498">
+        <v>19</v>
+      </c>
+      <c r="AZ498">
+        <v>2</v>
+      </c>
+      <c r="BA498">
+        <v>3</v>
+      </c>
+      <c r="BB498">
+        <v>2</v>
+      </c>
+      <c r="BC498">
+        <v>5</v>
+      </c>
+      <c r="BD498">
         <v>1.5</v>
       </c>
-      <c r="AP498">
-        <v>1.57</v>
-      </c>
-      <c r="AQ498">
-        <v>1.46</v>
-      </c>
-      <c r="AR498">
-        <v>1.47</v>
-      </c>
-      <c r="AS498">
-        <v>1.31</v>
-      </c>
-      <c r="AT498">
-        <v>2.78</v>
-      </c>
-      <c r="AU498">
-        <v>7</v>
-      </c>
-      <c r="AV498">
-        <v>3</v>
-      </c>
-      <c r="AW498">
-        <v>5</v>
-      </c>
-      <c r="AX498">
-        <v>4</v>
-      </c>
-      <c r="AY498">
-        <v>18</v>
-      </c>
-      <c r="AZ498">
-        <v>10</v>
-      </c>
-      <c r="BA498">
-        <v>8</v>
-      </c>
-      <c r="BB498">
-        <v>4</v>
-      </c>
-      <c r="BC498">
-        <v>12</v>
-      </c>
-      <c r="BD498">
-        <v>1.49</v>
-      </c>
       <c r="BE498">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF498">
         <v>2.65</v>
       </c>
       <c r="BG498">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="BH498">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="BI498">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="BJ498">
-        <v>2.32</v>
+        <v>2.55</v>
       </c>
       <c r="BK498">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="BL498">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="BM498">
-        <v>2.33</v>
+        <v>2.12</v>
       </c>
       <c r="BN498">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="BO498">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
       <c r="BP498">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="499" spans="1:68">
@@ -104999,7 +105002,7 @@
         <v>498</v>
       </c>
       <c r="B499">
-        <v>7729411</v>
+        <v>7727673</v>
       </c>
       <c r="C499" t="s">
         <v>68</v>
@@ -105008,16 +105011,16 @@
         <v>69</v>
       </c>
       <c r="E499" s="2">
-        <v>45592</v>
+        <v>45592.85416666666</v>
       </c>
       <c r="F499">
         <v>0</v>
       </c>
       <c r="G499" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H499" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="I499">
         <v>1</v>
@@ -105029,13 +105032,13 @@
         <v>1</v>
       </c>
       <c r="L499">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M499">
         <v>0</v>
       </c>
       <c r="N499">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O499" t="s">
         <v>437</v>
@@ -105044,160 +105047,160 @@
         <v>104</v>
       </c>
       <c r="Q499">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="R499">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="S499">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="T499">
+        <v>1.29</v>
+      </c>
+      <c r="U499">
+        <v>3.5</v>
+      </c>
+      <c r="V499">
+        <v>2.38</v>
+      </c>
+      <c r="W499">
+        <v>1.53</v>
+      </c>
+      <c r="X499">
+        <v>5.5</v>
+      </c>
+      <c r="Y499">
+        <v>1.14</v>
+      </c>
+      <c r="Z499">
+        <v>1.74</v>
+      </c>
+      <c r="AA499">
+        <v>3.95</v>
+      </c>
+      <c r="AB499">
+        <v>4.53</v>
+      </c>
+      <c r="AC499">
+        <v>1.01</v>
+      </c>
+      <c r="AD499">
+        <v>13</v>
+      </c>
+      <c r="AE499">
+        <v>1.14</v>
+      </c>
+      <c r="AF499">
+        <v>4.8</v>
+      </c>
+      <c r="AG499">
+        <v>1.55</v>
+      </c>
+      <c r="AH499">
+        <v>2.36</v>
+      </c>
+      <c r="AI499">
+        <v>1.62</v>
+      </c>
+      <c r="AJ499">
+        <v>2.2</v>
+      </c>
+      <c r="AK499">
         <v>1.2</v>
       </c>
-      <c r="U499">
-        <v>4.33</v>
-      </c>
-      <c r="V499">
-        <v>1.91</v>
-      </c>
-      <c r="W499">
-        <v>1.8</v>
-      </c>
-      <c r="X499">
+      <c r="AL499">
+        <v>1.2</v>
+      </c>
+      <c r="AM499">
+        <v>2</v>
+      </c>
+      <c r="AN499">
+        <v>1.53</v>
+      </c>
+      <c r="AO499">
+        <v>1.5</v>
+      </c>
+      <c r="AP499">
+        <v>1.57</v>
+      </c>
+      <c r="AQ499">
+        <v>1.46</v>
+      </c>
+      <c r="AR499">
+        <v>1.47</v>
+      </c>
+      <c r="AS499">
+        <v>1.31</v>
+      </c>
+      <c r="AT499">
+        <v>2.78</v>
+      </c>
+      <c r="AU499">
+        <v>7</v>
+      </c>
+      <c r="AV499">
+        <v>3</v>
+      </c>
+      <c r="AW499">
+        <v>5</v>
+      </c>
+      <c r="AX499">
         <v>4</v>
       </c>
-      <c r="Y499">
-        <v>1.22</v>
-      </c>
-      <c r="Z499">
-        <v>1.51</v>
-      </c>
-      <c r="AA499">
-        <v>4.24</v>
-      </c>
-      <c r="AB499">
-        <v>4.33</v>
-      </c>
-      <c r="AC499">
-        <v>0</v>
-      </c>
-      <c r="AD499">
-        <v>0</v>
-      </c>
-      <c r="AE499">
-        <v>1.11</v>
-      </c>
-      <c r="AF499">
-        <v>6.25</v>
-      </c>
-      <c r="AG499">
-        <v>1.32</v>
-      </c>
-      <c r="AH499">
-        <v>3.4</v>
-      </c>
-      <c r="AI499">
-        <v>1.44</v>
-      </c>
-      <c r="AJ499">
-        <v>2.63</v>
-      </c>
-      <c r="AK499">
-        <v>1.17</v>
-      </c>
-      <c r="AL499">
-        <v>1.15</v>
-      </c>
-      <c r="AM499">
-        <v>2.35</v>
-      </c>
-      <c r="AN499">
-        <v>1.88</v>
-      </c>
-      <c r="AO499">
-        <v>1.47</v>
-      </c>
-      <c r="AP499">
-        <v>1.91</v>
-      </c>
-      <c r="AQ499">
-        <v>1.43</v>
-      </c>
-      <c r="AR499">
-        <v>1.58</v>
-      </c>
-      <c r="AS499">
-        <v>1.47</v>
-      </c>
-      <c r="AT499">
-        <v>3.05</v>
-      </c>
-      <c r="AU499">
+      <c r="AY499">
+        <v>18</v>
+      </c>
+      <c r="AZ499">
         <v>10</v>
       </c>
-      <c r="AV499">
-        <v>0</v>
-      </c>
-      <c r="AW499">
-        <v>7</v>
-      </c>
-      <c r="AX499">
-        <v>2</v>
-      </c>
-      <c r="AY499">
-        <v>19</v>
-      </c>
-      <c r="AZ499">
-        <v>2</v>
-      </c>
       <c r="BA499">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BB499">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC499">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BD499">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="BE499">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="BF499">
         <v>2.65</v>
       </c>
       <c r="BG499">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="BH499">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="BI499">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="BJ499">
-        <v>2.55</v>
+        <v>2.32</v>
       </c>
       <c r="BK499">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="BL499">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="BM499">
-        <v>2.12</v>
+        <v>2.33</v>
       </c>
       <c r="BN499">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="BO499">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
       <c r="BP499">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="500" spans="1:68">
@@ -105214,7 +105217,7 @@
         <v>69</v>
       </c>
       <c r="E500" s="2">
-        <v>45592.875</v>
+        <v>45592.94791666666</v>
       </c>
       <c r="F500">
         <v>0</v>
@@ -105626,7 +105629,7 @@
         <v>69</v>
       </c>
       <c r="E502" s="2">
-        <v>45593.875</v>
+        <v>45593.90972222222</v>
       </c>
       <c r="F502">
         <v>0</v>
@@ -105816,6 +105819,418 @@
       </c>
       <c r="BP502">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="503" spans="1:68">
+      <c r="A503" s="1">
+        <v>502</v>
+      </c>
+      <c r="B503">
+        <v>7727675</v>
+      </c>
+      <c r="C503" t="s">
+        <v>68</v>
+      </c>
+      <c r="D503" t="s">
+        <v>69</v>
+      </c>
+      <c r="E503" s="2">
+        <v>45594.82291666666</v>
+      </c>
+      <c r="F503">
+        <v>0</v>
+      </c>
+      <c r="G503" t="s">
+        <v>71</v>
+      </c>
+      <c r="H503" t="s">
+        <v>96</v>
+      </c>
+      <c r="I503">
+        <v>0</v>
+      </c>
+      <c r="J503">
+        <v>1</v>
+      </c>
+      <c r="K503">
+        <v>1</v>
+      </c>
+      <c r="L503">
+        <v>0</v>
+      </c>
+      <c r="M503">
+        <v>1</v>
+      </c>
+      <c r="N503">
+        <v>1</v>
+      </c>
+      <c r="O503" t="s">
+        <v>104</v>
+      </c>
+      <c r="P503" t="s">
+        <v>675</v>
+      </c>
+      <c r="Q503">
+        <v>2.2</v>
+      </c>
+      <c r="R503">
+        <v>2.4</v>
+      </c>
+      <c r="S503">
+        <v>4.5</v>
+      </c>
+      <c r="T503">
+        <v>1.29</v>
+      </c>
+      <c r="U503">
+        <v>3.5</v>
+      </c>
+      <c r="V503">
+        <v>2.25</v>
+      </c>
+      <c r="W503">
+        <v>1.57</v>
+      </c>
+      <c r="X503">
+        <v>5.5</v>
+      </c>
+      <c r="Y503">
+        <v>1.14</v>
+      </c>
+      <c r="Z503">
+        <v>1.67</v>
+      </c>
+      <c r="AA503">
+        <v>3.95</v>
+      </c>
+      <c r="AB503">
+        <v>4.6</v>
+      </c>
+      <c r="AC503">
+        <v>1.04</v>
+      </c>
+      <c r="AD503">
+        <v>10</v>
+      </c>
+      <c r="AE503">
+        <v>1.18</v>
+      </c>
+      <c r="AF503">
+        <v>4.75</v>
+      </c>
+      <c r="AG503">
+        <v>1.57</v>
+      </c>
+      <c r="AH503">
+        <v>2.31</v>
+      </c>
+      <c r="AI503">
+        <v>1.57</v>
+      </c>
+      <c r="AJ503">
+        <v>2.25</v>
+      </c>
+      <c r="AK503">
+        <v>1.18</v>
+      </c>
+      <c r="AL503">
+        <v>1.2</v>
+      </c>
+      <c r="AM503">
+        <v>2.15</v>
+      </c>
+      <c r="AN503">
+        <v>1.94</v>
+      </c>
+      <c r="AO503">
+        <v>1.38</v>
+      </c>
+      <c r="AP503">
+        <v>1.89</v>
+      </c>
+      <c r="AQ503">
+        <v>1.43</v>
+      </c>
+      <c r="AR503">
+        <v>1.52</v>
+      </c>
+      <c r="AS503">
+        <v>1.52</v>
+      </c>
+      <c r="AT503">
+        <v>3.04</v>
+      </c>
+      <c r="AU503">
+        <v>9</v>
+      </c>
+      <c r="AV503">
+        <v>4</v>
+      </c>
+      <c r="AW503">
+        <v>4</v>
+      </c>
+      <c r="AX503">
+        <v>3</v>
+      </c>
+      <c r="AY503">
+        <v>17</v>
+      </c>
+      <c r="AZ503">
+        <v>12</v>
+      </c>
+      <c r="BA503">
+        <v>5</v>
+      </c>
+      <c r="BB503">
+        <v>4</v>
+      </c>
+      <c r="BC503">
+        <v>9</v>
+      </c>
+      <c r="BD503">
+        <v>1.45</v>
+      </c>
+      <c r="BE503">
+        <v>6.4</v>
+      </c>
+      <c r="BF503">
+        <v>2.9</v>
+      </c>
+      <c r="BG503">
+        <v>1.33</v>
+      </c>
+      <c r="BH503">
+        <v>2.95</v>
+      </c>
+      <c r="BI503">
+        <v>1.57</v>
+      </c>
+      <c r="BJ503">
+        <v>2.23</v>
+      </c>
+      <c r="BK503">
+        <v>1.93</v>
+      </c>
+      <c r="BL503">
+        <v>1.76</v>
+      </c>
+      <c r="BM503">
+        <v>2.43</v>
+      </c>
+      <c r="BN503">
+        <v>1.48</v>
+      </c>
+      <c r="BO503">
+        <v>3.15</v>
+      </c>
+      <c r="BP503">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="504" spans="1:68">
+      <c r="A504" s="1">
+        <v>503</v>
+      </c>
+      <c r="B504">
+        <v>7729413</v>
+      </c>
+      <c r="C504" t="s">
+        <v>68</v>
+      </c>
+      <c r="D504" t="s">
+        <v>69</v>
+      </c>
+      <c r="E504" s="2">
+        <v>45594.90972222222</v>
+      </c>
+      <c r="F504">
+        <v>0</v>
+      </c>
+      <c r="G504" t="s">
+        <v>86</v>
+      </c>
+      <c r="H504" t="s">
+        <v>85</v>
+      </c>
+      <c r="I504">
+        <v>0</v>
+      </c>
+      <c r="J504">
+        <v>0</v>
+      </c>
+      <c r="K504">
+        <v>0</v>
+      </c>
+      <c r="L504">
+        <v>0</v>
+      </c>
+      <c r="M504">
+        <v>0</v>
+      </c>
+      <c r="N504">
+        <v>0</v>
+      </c>
+      <c r="O504" t="s">
+        <v>104</v>
+      </c>
+      <c r="P504" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q504">
+        <v>2.5</v>
+      </c>
+      <c r="R504">
+        <v>2.5</v>
+      </c>
+      <c r="S504">
+        <v>3.75</v>
+      </c>
+      <c r="T504">
+        <v>1.25</v>
+      </c>
+      <c r="U504">
+        <v>3.75</v>
+      </c>
+      <c r="V504">
+        <v>2.2</v>
+      </c>
+      <c r="W504">
+        <v>1.62</v>
+      </c>
+      <c r="X504">
+        <v>5</v>
+      </c>
+      <c r="Y504">
+        <v>1.17</v>
+      </c>
+      <c r="Z504">
+        <v>1.95</v>
+      </c>
+      <c r="AA504">
+        <v>3.65</v>
+      </c>
+      <c r="AB504">
+        <v>3.55</v>
+      </c>
+      <c r="AC504">
+        <v>1.02</v>
+      </c>
+      <c r="AD504">
+        <v>19</v>
+      </c>
+      <c r="AE504">
+        <v>1.17</v>
+      </c>
+      <c r="AF504">
+        <v>5</v>
+      </c>
+      <c r="AG504">
+        <v>1.47</v>
+      </c>
+      <c r="AH504">
+        <v>2.57</v>
+      </c>
+      <c r="AI504">
+        <v>1.5</v>
+      </c>
+      <c r="AJ504">
+        <v>2.5</v>
+      </c>
+      <c r="AK504">
+        <v>1.32</v>
+      </c>
+      <c r="AL504">
+        <v>1.22</v>
+      </c>
+      <c r="AM504">
+        <v>1.87</v>
+      </c>
+      <c r="AN504">
+        <v>1.74</v>
+      </c>
+      <c r="AO504">
+        <v>1.53</v>
+      </c>
+      <c r="AP504">
+        <v>1.71</v>
+      </c>
+      <c r="AQ504">
+        <v>1.51</v>
+      </c>
+      <c r="AR504">
+        <v>1.62</v>
+      </c>
+      <c r="AS504">
+        <v>1.44</v>
+      </c>
+      <c r="AT504">
+        <v>3.06</v>
+      </c>
+      <c r="AU504">
+        <v>7</v>
+      </c>
+      <c r="AV504">
+        <v>8</v>
+      </c>
+      <c r="AW504">
+        <v>4</v>
+      </c>
+      <c r="AX504">
+        <v>3</v>
+      </c>
+      <c r="AY504">
+        <v>12</v>
+      </c>
+      <c r="AZ504">
+        <v>13</v>
+      </c>
+      <c r="BA504">
+        <v>3</v>
+      </c>
+      <c r="BB504">
+        <v>6</v>
+      </c>
+      <c r="BC504">
+        <v>9</v>
+      </c>
+      <c r="BD504">
+        <v>1.45</v>
+      </c>
+      <c r="BE504">
+        <v>7</v>
+      </c>
+      <c r="BF504">
+        <v>2.8</v>
+      </c>
+      <c r="BG504">
+        <v>1.19</v>
+      </c>
+      <c r="BH504">
+        <v>4.1</v>
+      </c>
+      <c r="BI504">
+        <v>1.33</v>
+      </c>
+      <c r="BJ504">
+        <v>2.95</v>
+      </c>
+      <c r="BK504">
+        <v>1.54</v>
+      </c>
+      <c r="BL504">
+        <v>2.28</v>
+      </c>
+      <c r="BM504">
+        <v>1.86</v>
+      </c>
+      <c r="BN504">
+        <v>1.82</v>
+      </c>
+      <c r="BO504">
+        <v>2.3</v>
+      </c>
+      <c r="BP504">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3086" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3098" uniqueCount="677">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -2043,6 +2043,9 @@
   <si>
     <t>['25']</t>
   </si>
+  <si>
+    <t>['8', '45+3', '90+1', '90+3']</t>
+  </si>
 </sst>
 </file>
 
@@ -2403,7 +2406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP504"/>
+  <dimension ref="A1:BP506"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3358,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ5">
         <v>0.9399999999999999</v>
@@ -6245,7 +6248,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ19">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR19">
         <v>1.77</v>
@@ -7684,7 +7687,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ26">
         <v>0.88</v>
@@ -8099,7 +8102,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ28">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -10983,7 +10986,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ42">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR42">
         <v>0.83</v>
@@ -14073,7 +14076,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ57">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR57">
         <v>2.19</v>
@@ -14894,7 +14897,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ61">
         <v>1.88</v>
@@ -15927,7 +15930,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ66">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR66">
         <v>1.39</v>
@@ -16130,7 +16133,7 @@
         <v>0</v>
       </c>
       <c r="AP67">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ67">
         <v>1.5</v>
@@ -17160,7 +17163,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ72">
         <v>1.59</v>
@@ -17366,7 +17369,7 @@
         <v>3</v>
       </c>
       <c r="AP73">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ73">
         <v>2.06</v>
@@ -21077,7 +21080,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ91">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR91">
         <v>2.05</v>
@@ -22928,7 +22931,7 @@
         <v>1</v>
       </c>
       <c r="AP100">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ100">
         <v>0.9399999999999999</v>
@@ -23137,7 +23140,7 @@
         <v>1</v>
       </c>
       <c r="AQ101">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR101">
         <v>1.9</v>
@@ -24785,7 +24788,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ109">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR109">
         <v>1.44</v>
@@ -26227,7 +26230,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ116">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR116">
         <v>1.35</v>
@@ -27460,7 +27463,7 @@
         <v>0.33</v>
       </c>
       <c r="AP122">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ122">
         <v>0.53</v>
@@ -28078,7 +28081,7 @@
         <v>2</v>
       </c>
       <c r="AP125">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ125">
         <v>1.56</v>
@@ -28493,7 +28496,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ127">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR127">
         <v>1.28</v>
@@ -32404,7 +32407,7 @@
         <v>0.83</v>
       </c>
       <c r="AP146">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ146">
         <v>0.83</v>
@@ -34261,7 +34264,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ155">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR155">
         <v>1.55</v>
@@ -34670,7 +34673,7 @@
         <v>0.33</v>
       </c>
       <c r="AP157">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ157">
         <v>0.88</v>
@@ -35291,7 +35294,7 @@
         <v>1</v>
       </c>
       <c r="AQ160">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR160">
         <v>1.52</v>
@@ -36524,7 +36527,7 @@
         <v>0.17</v>
       </c>
       <c r="AP166">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ166">
         <v>0.47</v>
@@ -38793,7 +38796,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ177">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR177">
         <v>1.64</v>
@@ -39408,7 +39411,7 @@
         <v>2</v>
       </c>
       <c r="AP180">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ180">
         <v>1.39</v>
@@ -40232,10 +40235,10 @@
         <v>1.5</v>
       </c>
       <c r="AP184">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ184">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR184">
         <v>1.27</v>
@@ -42501,7 +42504,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ195">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR195">
         <v>1.38</v>
@@ -43116,7 +43119,7 @@
         <v>1.86</v>
       </c>
       <c r="AP198">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ198">
         <v>1.18</v>
@@ -44764,7 +44767,7 @@
         <v>2.4</v>
       </c>
       <c r="AP206">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ206">
         <v>1.56</v>
@@ -47033,7 +47036,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ217">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR217">
         <v>1.37</v>
@@ -48887,7 +48890,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ226">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR226">
         <v>1.69</v>
@@ -49299,7 +49302,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ228">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR228">
         <v>1.41</v>
@@ -52386,7 +52389,7 @@
         <v>0.88</v>
       </c>
       <c r="AP243">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ243">
         <v>1.35</v>
@@ -53828,7 +53831,7 @@
         <v>0.75</v>
       </c>
       <c r="AP250">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ250">
         <v>0.9399999999999999</v>
@@ -55476,10 +55479,10 @@
         <v>1.38</v>
       </c>
       <c r="AP258">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ258">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR258">
         <v>1.15</v>
@@ -59184,7 +59187,7 @@
         <v>0.9</v>
       </c>
       <c r="AP276">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ276">
         <v>0.82</v>
@@ -59393,7 +59396,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ277">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR277">
         <v>1.69</v>
@@ -60217,7 +60220,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ281">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR281">
         <v>1.69</v>
@@ -62689,7 +62692,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ293">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR293">
         <v>1.53</v>
@@ -63307,7 +63310,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ296">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR296">
         <v>1.48</v>
@@ -63510,7 +63513,7 @@
         <v>2.3</v>
       </c>
       <c r="AP297">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ297">
         <v>2.18</v>
@@ -65364,7 +65367,7 @@
         <v>0.5</v>
       </c>
       <c r="AP306">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ306">
         <v>0.53</v>
@@ -67836,7 +67839,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP318">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ318">
         <v>0.65</v>
@@ -69075,7 +69078,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ324">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR324">
         <v>1.38</v>
@@ -70105,7 +70108,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ329">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR329">
         <v>1.47</v>
@@ -70514,7 +70517,7 @@
         <v>1.17</v>
       </c>
       <c r="AP331">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ331">
         <v>1.22</v>
@@ -72783,7 +72786,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ342">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR342">
         <v>1.27</v>
@@ -76282,7 +76285,7 @@
         <v>1.46</v>
       </c>
       <c r="AP359">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ359">
         <v>1.35</v>
@@ -77518,7 +77521,7 @@
         <v>1.15</v>
       </c>
       <c r="AP365">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ365">
         <v>1.22</v>
@@ -78345,7 +78348,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ369">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR369">
         <v>1.55</v>
@@ -79784,7 +79787,7 @@
         <v>0.77</v>
       </c>
       <c r="AP376">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ376">
         <v>1</v>
@@ -82465,7 +82468,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ389">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR389">
         <v>1.72</v>
@@ -85964,7 +85967,7 @@
         <v>0.92</v>
       </c>
       <c r="AP406">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ406">
         <v>0.83</v>
@@ -89057,7 +89060,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ421">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR421">
         <v>1.73</v>
@@ -89672,7 +89675,7 @@
         <v>0.92</v>
       </c>
       <c r="AP424">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ424">
         <v>0.71</v>
@@ -89881,7 +89884,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ425">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR425">
         <v>1.62</v>
@@ -91526,7 +91529,7 @@
         <v>1</v>
       </c>
       <c r="AP433">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ433">
         <v>0.9399999999999999</v>
@@ -94207,7 +94210,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ446">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR446">
         <v>1.48</v>
@@ -96058,7 +96061,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP455">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ455">
         <v>0.65</v>
@@ -96882,10 +96885,10 @@
         <v>1.27</v>
       </c>
       <c r="AP459">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ459">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR459">
         <v>1.59</v>
@@ -98739,7 +98742,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ468">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR468">
         <v>1.57</v>
@@ -98942,7 +98945,7 @@
         <v>0.88</v>
       </c>
       <c r="AP469">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ469">
         <v>0.82</v>
@@ -99972,7 +99975,7 @@
         <v>1.44</v>
       </c>
       <c r="AP474">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ474">
         <v>1.53</v>
@@ -103271,7 +103274,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ490">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR490">
         <v>1.67</v>
@@ -104916,10 +104919,10 @@
         <v>1.47</v>
       </c>
       <c r="AP498">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="AQ498">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="AR498">
         <v>1.58</v>
@@ -105122,10 +105125,10 @@
         <v>1.5</v>
       </c>
       <c r="AP499">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="AQ499">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AR499">
         <v>1.47</v>
@@ -106231,6 +106234,418 @@
       </c>
       <c r="BP504">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="505" spans="1:68">
+      <c r="A505" s="1">
+        <v>504</v>
+      </c>
+      <c r="B505">
+        <v>7727676</v>
+      </c>
+      <c r="C505" t="s">
+        <v>68</v>
+      </c>
+      <c r="D505" t="s">
+        <v>69</v>
+      </c>
+      <c r="E505" s="2">
+        <v>45596.875</v>
+      </c>
+      <c r="F505">
+        <v>0</v>
+      </c>
+      <c r="G505" t="s">
+        <v>73</v>
+      </c>
+      <c r="H505" t="s">
+        <v>75</v>
+      </c>
+      <c r="I505">
+        <v>0</v>
+      </c>
+      <c r="J505">
+        <v>0</v>
+      </c>
+      <c r="K505">
+        <v>0</v>
+      </c>
+      <c r="L505">
+        <v>0</v>
+      </c>
+      <c r="M505">
+        <v>0</v>
+      </c>
+      <c r="N505">
+        <v>0</v>
+      </c>
+      <c r="O505" t="s">
+        <v>104</v>
+      </c>
+      <c r="P505" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q505">
+        <v>2.88</v>
+      </c>
+      <c r="R505">
+        <v>2.3</v>
+      </c>
+      <c r="S505">
+        <v>3.4</v>
+      </c>
+      <c r="T505">
+        <v>1.3</v>
+      </c>
+      <c r="U505">
+        <v>3.4</v>
+      </c>
+      <c r="V505">
+        <v>2.5</v>
+      </c>
+      <c r="W505">
+        <v>1.5</v>
+      </c>
+      <c r="X505">
+        <v>6</v>
+      </c>
+      <c r="Y505">
+        <v>1.13</v>
+      </c>
+      <c r="Z505">
+        <v>2.25</v>
+      </c>
+      <c r="AA505">
+        <v>3.3</v>
+      </c>
+      <c r="AB505">
+        <v>2.7</v>
+      </c>
+      <c r="AC505">
+        <v>1.03</v>
+      </c>
+      <c r="AD505">
+        <v>15</v>
+      </c>
+      <c r="AE505">
+        <v>1.2</v>
+      </c>
+      <c r="AF505">
+        <v>4.5</v>
+      </c>
+      <c r="AG505">
+        <v>1.6</v>
+      </c>
+      <c r="AH505">
+        <v>2.1</v>
+      </c>
+      <c r="AI505">
+        <v>1.53</v>
+      </c>
+      <c r="AJ505">
+        <v>2.38</v>
+      </c>
+      <c r="AK505">
+        <v>1.45</v>
+      </c>
+      <c r="AL505">
+        <v>1.25</v>
+      </c>
+      <c r="AM505">
+        <v>1.6</v>
+      </c>
+      <c r="AN505">
+        <v>1.46</v>
+      </c>
+      <c r="AO505">
+        <v>1.57</v>
+      </c>
+      <c r="AP505">
+        <v>1.44</v>
+      </c>
+      <c r="AQ505">
+        <v>1.56</v>
+      </c>
+      <c r="AR505">
+        <v>1.3</v>
+      </c>
+      <c r="AS505">
+        <v>1.47</v>
+      </c>
+      <c r="AT505">
+        <v>2.77</v>
+      </c>
+      <c r="AU505">
+        <v>4</v>
+      </c>
+      <c r="AV505">
+        <v>2</v>
+      </c>
+      <c r="AW505">
+        <v>7</v>
+      </c>
+      <c r="AX505">
+        <v>0</v>
+      </c>
+      <c r="AY505">
+        <v>13</v>
+      </c>
+      <c r="AZ505">
+        <v>4</v>
+      </c>
+      <c r="BA505">
+        <v>11</v>
+      </c>
+      <c r="BB505">
+        <v>3</v>
+      </c>
+      <c r="BC505">
+        <v>14</v>
+      </c>
+      <c r="BD505">
+        <v>1.49</v>
+      </c>
+      <c r="BE505">
+        <v>6.4</v>
+      </c>
+      <c r="BF505">
+        <v>2.7</v>
+      </c>
+      <c r="BG505">
+        <v>1.3</v>
+      </c>
+      <c r="BH505">
+        <v>3.05</v>
+      </c>
+      <c r="BI505">
+        <v>1.54</v>
+      </c>
+      <c r="BJ505">
+        <v>2.3</v>
+      </c>
+      <c r="BK505">
+        <v>1.88</v>
+      </c>
+      <c r="BL505">
+        <v>1.81</v>
+      </c>
+      <c r="BM505">
+        <v>2.35</v>
+      </c>
+      <c r="BN505">
+        <v>1.5</v>
+      </c>
+      <c r="BO505">
+        <v>3.05</v>
+      </c>
+      <c r="BP505">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="506" spans="1:68">
+      <c r="A506" s="1">
+        <v>505</v>
+      </c>
+      <c r="B506">
+        <v>7729414</v>
+      </c>
+      <c r="C506" t="s">
+        <v>68</v>
+      </c>
+      <c r="D506" t="s">
+        <v>69</v>
+      </c>
+      <c r="E506" s="2">
+        <v>45597.875</v>
+      </c>
+      <c r="F506">
+        <v>0</v>
+      </c>
+      <c r="G506" t="s">
+        <v>90</v>
+      </c>
+      <c r="H506" t="s">
+        <v>84</v>
+      </c>
+      <c r="I506">
+        <v>1</v>
+      </c>
+      <c r="J506">
+        <v>2</v>
+      </c>
+      <c r="K506">
+        <v>3</v>
+      </c>
+      <c r="L506">
+        <v>1</v>
+      </c>
+      <c r="M506">
+        <v>4</v>
+      </c>
+      <c r="N506">
+        <v>5</v>
+      </c>
+      <c r="O506" t="s">
+        <v>119</v>
+      </c>
+      <c r="P506" t="s">
+        <v>676</v>
+      </c>
+      <c r="Q506">
+        <v>2.8</v>
+      </c>
+      <c r="R506">
+        <v>2.6</v>
+      </c>
+      <c r="S506">
+        <v>2.95</v>
+      </c>
+      <c r="T506">
+        <v>1.2</v>
+      </c>
+      <c r="U506">
+        <v>4.75</v>
+      </c>
+      <c r="V506">
+        <v>1.92</v>
+      </c>
+      <c r="W506">
+        <v>1.87</v>
+      </c>
+      <c r="X506">
+        <v>3.75</v>
+      </c>
+      <c r="Y506">
+        <v>1.26</v>
+      </c>
+      <c r="Z506">
+        <v>2.2</v>
+      </c>
+      <c r="AA506">
+        <v>3.7</v>
+      </c>
+      <c r="AB506">
+        <v>2.5</v>
+      </c>
+      <c r="AC506">
+        <v>1.01</v>
+      </c>
+      <c r="AD506">
+        <v>34</v>
+      </c>
+      <c r="AE506">
+        <v>1.09</v>
+      </c>
+      <c r="AF506">
+        <v>7.5</v>
+      </c>
+      <c r="AG506">
+        <v>1.32</v>
+      </c>
+      <c r="AH506">
+        <v>3.21</v>
+      </c>
+      <c r="AI506">
+        <v>1.3</v>
+      </c>
+      <c r="AJ506">
+        <v>3.4</v>
+      </c>
+      <c r="AK506">
+        <v>1.53</v>
+      </c>
+      <c r="AL506">
+        <v>1.2</v>
+      </c>
+      <c r="AM506">
+        <v>1.6</v>
+      </c>
+      <c r="AN506">
+        <v>1.43</v>
+      </c>
+      <c r="AO506">
+        <v>1.91</v>
+      </c>
+      <c r="AP506">
+        <v>1.39</v>
+      </c>
+      <c r="AQ506">
+        <v>1.94</v>
+      </c>
+      <c r="AR506">
+        <v>1.44</v>
+      </c>
+      <c r="AS506">
+        <v>1.6</v>
+      </c>
+      <c r="AT506">
+        <v>3.04</v>
+      </c>
+      <c r="AU506">
+        <v>5</v>
+      </c>
+      <c r="AV506">
+        <v>10</v>
+      </c>
+      <c r="AW506">
+        <v>2</v>
+      </c>
+      <c r="AX506">
+        <v>2</v>
+      </c>
+      <c r="AY506">
+        <v>9</v>
+      </c>
+      <c r="AZ506">
+        <v>14</v>
+      </c>
+      <c r="BA506">
+        <v>6</v>
+      </c>
+      <c r="BB506">
+        <v>3</v>
+      </c>
+      <c r="BC506">
+        <v>9</v>
+      </c>
+      <c r="BD506">
+        <v>1.64</v>
+      </c>
+      <c r="BE506">
+        <v>6.5</v>
+      </c>
+      <c r="BF506">
+        <v>2.33</v>
+      </c>
+      <c r="BG506">
+        <v>1.2</v>
+      </c>
+      <c r="BH506">
+        <v>3.95</v>
+      </c>
+      <c r="BI506">
+        <v>1.36</v>
+      </c>
+      <c r="BJ506">
+        <v>2.85</v>
+      </c>
+      <c r="BK506">
+        <v>1.6</v>
+      </c>
+      <c r="BL506">
+        <v>2.17</v>
+      </c>
+      <c r="BM506">
+        <v>1.95</v>
+      </c>
+      <c r="BN506">
+        <v>1.75</v>
+      </c>
+      <c r="BO506">
+        <v>2.43</v>
+      </c>
+      <c r="BP506">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -1339,13 +1339,13 @@
     <t>['58', '90+4']</t>
   </si>
   <si>
+    <t>['53']</t>
+  </si>
+  <si>
     <t>['64', '80']</t>
   </si>
   <si>
     <t>['90+3']</t>
-  </si>
-  <si>
-    <t>['53']</t>
   </si>
   <si>
     <t>['10', '13', '68']</t>
@@ -43262,7 +43262,7 @@
         <v>246</v>
       </c>
       <c r="P199" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="Q199">
         <v>2.16</v>
@@ -48206,7 +48206,7 @@
         <v>260</v>
       </c>
       <c r="P223" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="Q223">
         <v>2.2</v>
@@ -59124,7 +59124,7 @@
         <v>296</v>
       </c>
       <c r="P276" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="Q276">
         <v>2.1</v>
@@ -98058,7 +98058,7 @@
         <v>104</v>
       </c>
       <c r="P465" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q465">
         <v>2.75</v>
@@ -107080,7 +107080,7 @@
         <v>508</v>
       </c>
       <c r="B509">
-        <v>7727678</v>
+        <v>7729415</v>
       </c>
       <c r="C509" t="s">
         <v>68</v>
@@ -107089,16 +107089,16 @@
         <v>69</v>
       </c>
       <c r="E509" s="2">
-        <v>45598.875</v>
+        <v>45598.91666666666</v>
       </c>
       <c r="F509">
         <v>0</v>
       </c>
       <c r="G509" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H509" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="I509">
         <v>0</v>
@@ -107110,28 +107110,28 @@
         <v>0</v>
       </c>
       <c r="L509">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M509">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N509">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O509" t="s">
         <v>441</v>
       </c>
       <c r="P509" t="s">
-        <v>681</v>
+        <v>111</v>
       </c>
       <c r="Q509">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="R509">
         <v>2.4</v>
       </c>
       <c r="S509">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T509">
         <v>1.29</v>
@@ -107152,19 +107152,19 @@
         <v>1.14</v>
       </c>
       <c r="Z509">
-        <v>2.18</v>
+        <v>1.95</v>
       </c>
       <c r="AA509">
-        <v>3.82</v>
+        <v>3.7</v>
       </c>
       <c r="AB509">
-        <v>3.01</v>
+        <v>3.6</v>
       </c>
       <c r="AC509">
         <v>1.02</v>
       </c>
       <c r="AD509">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE509">
         <v>1.18</v>
@@ -107173,112 +107173,112 @@
         <v>5</v>
       </c>
       <c r="AG509">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="AH509">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AI509">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AJ509">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AK509">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="AL509">
         <v>1.22</v>
       </c>
       <c r="AM509">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="AN509">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="AO509">
-        <v>1.89</v>
+        <v>1.71</v>
       </c>
       <c r="AP509">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AQ509">
-        <v>1.86</v>
+        <v>1.69</v>
       </c>
       <c r="AR509">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="AS509">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT509">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="AU509">
+        <v>6</v>
+      </c>
+      <c r="AV509">
+        <v>3</v>
+      </c>
+      <c r="AW509">
         <v>7</v>
-      </c>
-      <c r="AV509">
-        <v>5</v>
-      </c>
-      <c r="AW509">
-        <v>2</v>
       </c>
       <c r="AX509">
         <v>7</v>
       </c>
       <c r="AY509">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ509">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="BA509">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB509">
         <v>5</v>
       </c>
       <c r="BC509">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD509">
         <v>1.74</v>
       </c>
       <c r="BE509">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="BF509">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="BG509">
-        <v>1.34</v>
+        <v>1.2</v>
       </c>
       <c r="BH509">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="BI509">
-        <v>1.58</v>
+        <v>1.36</v>
       </c>
       <c r="BJ509">
-        <v>2.18</v>
+        <v>2.8</v>
       </c>
       <c r="BK509">
-        <v>1.96</v>
+        <v>1.6</v>
       </c>
       <c r="BL509">
-        <v>1.73</v>
+        <v>2.17</v>
       </c>
       <c r="BM509">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="BN509">
-        <v>1.46</v>
+        <v>1.75</v>
       </c>
       <c r="BO509">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="BP509">
-        <v>1.27</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="510" spans="1:68">
@@ -107286,7 +107286,7 @@
         <v>509</v>
       </c>
       <c r="B510">
-        <v>7729416</v>
+        <v>7727678</v>
       </c>
       <c r="C510" t="s">
         <v>68</v>
@@ -107295,16 +107295,16 @@
         <v>69</v>
       </c>
       <c r="E510" s="2">
-        <v>45598.875</v>
+        <v>45599.77083333334</v>
       </c>
       <c r="F510">
         <v>0</v>
       </c>
       <c r="G510" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="H510" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="I510">
         <v>0</v>
@@ -107316,175 +107316,175 @@
         <v>0</v>
       </c>
       <c r="L510">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M510">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N510">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O510" t="s">
         <v>442</v>
       </c>
       <c r="P510" t="s">
-        <v>173</v>
+        <v>681</v>
       </c>
       <c r="Q510">
+        <v>2.75</v>
+      </c>
+      <c r="R510">
+        <v>2.4</v>
+      </c>
+      <c r="S510">
+        <v>3.4</v>
+      </c>
+      <c r="T510">
+        <v>1.29</v>
+      </c>
+      <c r="U510">
+        <v>3.5</v>
+      </c>
+      <c r="V510">
+        <v>2.25</v>
+      </c>
+      <c r="W510">
+        <v>1.57</v>
+      </c>
+      <c r="X510">
+        <v>5.5</v>
+      </c>
+      <c r="Y510">
+        <v>1.14</v>
+      </c>
+      <c r="Z510">
+        <v>2.18</v>
+      </c>
+      <c r="AA510">
+        <v>3.82</v>
+      </c>
+      <c r="AB510">
+        <v>3.01</v>
+      </c>
+      <c r="AC510">
+        <v>1.02</v>
+      </c>
+      <c r="AD510">
+        <v>21</v>
+      </c>
+      <c r="AE510">
+        <v>1.18</v>
+      </c>
+      <c r="AF510">
+        <v>5</v>
+      </c>
+      <c r="AG510">
+        <v>1.57</v>
+      </c>
+      <c r="AH510">
+        <v>2.25</v>
+      </c>
+      <c r="AI510">
+        <v>1.5</v>
+      </c>
+      <c r="AJ510">
+        <v>2.5</v>
+      </c>
+      <c r="AK510">
+        <v>1.44</v>
+      </c>
+      <c r="AL510">
+        <v>1.22</v>
+      </c>
+      <c r="AM510">
+        <v>1.68</v>
+      </c>
+      <c r="AN510">
+        <v>1.43</v>
+      </c>
+      <c r="AO510">
+        <v>1.89</v>
+      </c>
+      <c r="AP510">
+        <v>1.42</v>
+      </c>
+      <c r="AQ510">
+        <v>1.86</v>
+      </c>
+      <c r="AR510">
+        <v>1.51</v>
+      </c>
+      <c r="AS510">
+        <v>1.53</v>
+      </c>
+      <c r="AT510">
+        <v>3.04</v>
+      </c>
+      <c r="AU510">
+        <v>7</v>
+      </c>
+      <c r="AV510">
+        <v>5</v>
+      </c>
+      <c r="AW510">
+        <v>2</v>
+      </c>
+      <c r="AX510">
+        <v>7</v>
+      </c>
+      <c r="AY510">
+        <v>13</v>
+      </c>
+      <c r="AZ510">
+        <v>19</v>
+      </c>
+      <c r="BA510">
         <v>3</v>
       </c>
-      <c r="R510">
-        <v>2.1</v>
-      </c>
-      <c r="S510">
-        <v>3.75</v>
-      </c>
-      <c r="T510">
-        <v>1.44</v>
-      </c>
-      <c r="U510">
-        <v>2.63</v>
-      </c>
-      <c r="V510">
-        <v>3</v>
-      </c>
-      <c r="W510">
-        <v>1.36</v>
-      </c>
-      <c r="X510">
-        <v>9</v>
-      </c>
-      <c r="Y510">
-        <v>1.07</v>
-      </c>
-      <c r="Z510">
-        <v>2.31</v>
-      </c>
-      <c r="AA510">
-        <v>3.67</v>
-      </c>
-      <c r="AB510">
-        <v>2.91</v>
-      </c>
-      <c r="AC510">
-        <v>1.06</v>
-      </c>
-      <c r="AD510">
-        <v>10</v>
-      </c>
-      <c r="AE510">
-        <v>1.33</v>
-      </c>
-      <c r="AF510">
+      <c r="BB510">
+        <v>5</v>
+      </c>
+      <c r="BC510">
+        <v>8</v>
+      </c>
+      <c r="BD510">
+        <v>1.74</v>
+      </c>
+      <c r="BE510">
+        <v>6.1</v>
+      </c>
+      <c r="BF510">
+        <v>2.23</v>
+      </c>
+      <c r="BG510">
+        <v>1.34</v>
+      </c>
+      <c r="BH510">
+        <v>2.9</v>
+      </c>
+      <c r="BI510">
+        <v>1.58</v>
+      </c>
+      <c r="BJ510">
+        <v>2.18</v>
+      </c>
+      <c r="BK510">
+        <v>1.96</v>
+      </c>
+      <c r="BL510">
+        <v>1.73</v>
+      </c>
+      <c r="BM510">
+        <v>2.5</v>
+      </c>
+      <c r="BN510">
+        <v>1.46</v>
+      </c>
+      <c r="BO510">
         <v>3.3</v>
       </c>
-      <c r="AG510">
-        <v>1.91</v>
-      </c>
-      <c r="AH510">
-        <v>1.89</v>
-      </c>
-      <c r="AI510">
-        <v>1.8</v>
-      </c>
-      <c r="AJ510">
-        <v>1.95</v>
-      </c>
-      <c r="AK510">
-        <v>1.38</v>
-      </c>
-      <c r="AL510">
-        <v>1.28</v>
-      </c>
-      <c r="AM510">
-        <v>1.63</v>
-      </c>
-      <c r="AN510">
-        <v>1.57</v>
-      </c>
-      <c r="AO510">
-        <v>1.66</v>
-      </c>
-      <c r="AP510">
-        <v>1.56</v>
-      </c>
-      <c r="AQ510">
-        <v>1.64</v>
-      </c>
-      <c r="AR510">
-        <v>1.46</v>
-      </c>
-      <c r="AS510">
-        <v>1.45</v>
-      </c>
-      <c r="AT510">
-        <v>2.91</v>
-      </c>
-      <c r="AU510">
-        <v>8</v>
-      </c>
-      <c r="AV510">
-        <v>2</v>
-      </c>
-      <c r="AW510">
-        <v>8</v>
-      </c>
-      <c r="AX510">
-        <v>5</v>
-      </c>
-      <c r="AY510">
-        <v>19</v>
-      </c>
-      <c r="AZ510">
-        <v>16</v>
-      </c>
-      <c r="BA510">
-        <v>7</v>
-      </c>
-      <c r="BB510">
-        <v>8</v>
-      </c>
-      <c r="BC510">
-        <v>15</v>
-      </c>
-      <c r="BD510">
-        <v>1.84</v>
-      </c>
-      <c r="BE510">
-        <v>6.4</v>
-      </c>
-      <c r="BF510">
-        <v>2.05</v>
-      </c>
-      <c r="BG510">
-        <v>1.24</v>
-      </c>
-      <c r="BH510">
-        <v>3.55</v>
-      </c>
-      <c r="BI510">
-        <v>1.43</v>
-      </c>
-      <c r="BJ510">
-        <v>2.55</v>
-      </c>
-      <c r="BK510">
-        <v>1.71</v>
-      </c>
-      <c r="BL510">
-        <v>2</v>
-      </c>
-      <c r="BM510">
-        <v>2.1</v>
-      </c>
-      <c r="BN510">
-        <v>1.64</v>
-      </c>
-      <c r="BO510">
-        <v>2.65</v>
-      </c>
       <c r="BP510">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="511" spans="1:68">
@@ -107492,7 +107492,7 @@
         <v>510</v>
       </c>
       <c r="B511">
-        <v>7729415</v>
+        <v>7729416</v>
       </c>
       <c r="C511" t="s">
         <v>68</v>
@@ -107501,16 +107501,16 @@
         <v>69</v>
       </c>
       <c r="E511" s="2">
-        <v>45598.91666666666</v>
+        <v>45599.85416666666</v>
       </c>
       <c r="F511">
         <v>0</v>
       </c>
       <c r="G511" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H511" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="I511">
         <v>0</v>
@@ -107534,163 +107534,163 @@
         <v>443</v>
       </c>
       <c r="P511" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="Q511">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="R511">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="S511">
         <v>3.75</v>
       </c>
       <c r="T511">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="U511">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="V511">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="W511">
+        <v>1.36</v>
+      </c>
+      <c r="X511">
+        <v>9</v>
+      </c>
+      <c r="Y511">
+        <v>1.07</v>
+      </c>
+      <c r="Z511">
+        <v>2.31</v>
+      </c>
+      <c r="AA511">
+        <v>3.67</v>
+      </c>
+      <c r="AB511">
+        <v>2.91</v>
+      </c>
+      <c r="AC511">
+        <v>1.06</v>
+      </c>
+      <c r="AD511">
+        <v>10</v>
+      </c>
+      <c r="AE511">
+        <v>1.33</v>
+      </c>
+      <c r="AF511">
+        <v>3.3</v>
+      </c>
+      <c r="AG511">
+        <v>1.91</v>
+      </c>
+      <c r="AH511">
+        <v>1.89</v>
+      </c>
+      <c r="AI511">
+        <v>1.8</v>
+      </c>
+      <c r="AJ511">
+        <v>1.95</v>
+      </c>
+      <c r="AK511">
+        <v>1.38</v>
+      </c>
+      <c r="AL511">
+        <v>1.28</v>
+      </c>
+      <c r="AM511">
+        <v>1.63</v>
+      </c>
+      <c r="AN511">
         <v>1.57</v>
       </c>
-      <c r="X511">
-        <v>5.5</v>
-      </c>
-      <c r="Y511">
-        <v>1.14</v>
-      </c>
-      <c r="Z511">
-        <v>1.95</v>
-      </c>
-      <c r="AA511">
-        <v>3.7</v>
-      </c>
-      <c r="AB511">
-        <v>3.6</v>
-      </c>
-      <c r="AC511">
-        <v>1.02</v>
-      </c>
-      <c r="AD511">
+      <c r="AO511">
+        <v>1.66</v>
+      </c>
+      <c r="AP511">
+        <v>1.56</v>
+      </c>
+      <c r="AQ511">
+        <v>1.64</v>
+      </c>
+      <c r="AR511">
+        <v>1.46</v>
+      </c>
+      <c r="AS511">
+        <v>1.45</v>
+      </c>
+      <c r="AT511">
+        <v>2.91</v>
+      </c>
+      <c r="AU511">
+        <v>8</v>
+      </c>
+      <c r="AV511">
+        <v>2</v>
+      </c>
+      <c r="AW511">
+        <v>8</v>
+      </c>
+      <c r="AX511">
+        <v>5</v>
+      </c>
+      <c r="AY511">
         <v>19</v>
       </c>
-      <c r="AE511">
-        <v>1.18</v>
-      </c>
-      <c r="AF511">
-        <v>5</v>
-      </c>
-      <c r="AG511">
-        <v>1.58</v>
-      </c>
-      <c r="AH511">
-        <v>2.4</v>
-      </c>
-      <c r="AI511">
-        <v>1.53</v>
-      </c>
-      <c r="AJ511">
-        <v>2.38</v>
-      </c>
-      <c r="AK511">
-        <v>1.33</v>
-      </c>
-      <c r="AL511">
-        <v>1.22</v>
-      </c>
-      <c r="AM511">
-        <v>1.85</v>
-      </c>
-      <c r="AN511">
-        <v>1.51</v>
-      </c>
-      <c r="AO511">
-        <v>1.71</v>
-      </c>
-      <c r="AP511">
-        <v>1.5</v>
-      </c>
-      <c r="AQ511">
-        <v>1.69</v>
-      </c>
-      <c r="AR511">
-        <v>1.44</v>
-      </c>
-      <c r="AS511">
-        <v>1.61</v>
-      </c>
-      <c r="AT511">
-        <v>3.05</v>
-      </c>
-      <c r="AU511">
-        <v>6</v>
-      </c>
-      <c r="AV511">
-        <v>3</v>
-      </c>
-      <c r="AW511">
+      <c r="AZ511">
+        <v>16</v>
+      </c>
+      <c r="BA511">
         <v>7</v>
       </c>
-      <c r="AX511">
-        <v>7</v>
-      </c>
-      <c r="AY511">
+      <c r="BB511">
+        <v>8</v>
+      </c>
+      <c r="BC511">
         <v>15</v>
       </c>
-      <c r="AZ511">
-        <v>11</v>
-      </c>
-      <c r="BA511">
-        <v>5</v>
-      </c>
-      <c r="BB511">
-        <v>5</v>
-      </c>
-      <c r="BC511">
-        <v>10</v>
-      </c>
       <c r="BD511">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="BE511">
         <v>6.4</v>
       </c>
       <c r="BF511">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="BG511">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="BH511">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="BI511">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="BJ511">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="BK511">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="BL511">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="BM511">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="BN511">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="BO511">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="BP511">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="512" spans="1:68">
@@ -107707,7 +107707,7 @@
         <v>69</v>
       </c>
       <c r="E512" s="2">
-        <v>45599.875</v>
+        <v>45599.94791666666</v>
       </c>
       <c r="F512">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3146" uniqueCount="682">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -2421,7 +2421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP512"/>
+  <dimension ref="A1:BP514"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3170,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ4">
         <v>1.5</v>
@@ -3379,7 +3379,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ5">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -5230,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ14">
         <v>0.9399999999999999</v>
@@ -7499,7 +7499,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ25">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR25">
         <v>1.45</v>
@@ -10380,7 +10380,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ39">
         <v>0.53</v>
@@ -10589,7 +10589,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ40">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR40">
         <v>1.38</v>
@@ -10792,7 +10792,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ41">
         <v>1.35</v>
@@ -13267,7 +13267,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ53">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR53">
         <v>1.92</v>
@@ -14706,10 +14706,10 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ60">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR60">
         <v>1.57</v>
@@ -16354,7 +16354,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ68">
         <v>0.88</v>
@@ -17799,7 +17799,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ75">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR75">
         <v>1.58</v>
@@ -20062,7 +20062,7 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ86">
         <v>1.22</v>
@@ -21092,7 +21092,7 @@
         <v>2.33</v>
       </c>
       <c r="AP91">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ91">
         <v>1.39</v>
@@ -27684,7 +27684,7 @@
         <v>1.6</v>
       </c>
       <c r="AP123">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ123">
         <v>1.22</v>
@@ -27893,7 +27893,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ124">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR124">
         <v>1.78</v>
@@ -29335,7 +29335,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ131">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR131">
         <v>1.71</v>
@@ -29538,7 +29538,7 @@
         <v>1.6</v>
       </c>
       <c r="AP132">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ132">
         <v>0.9399999999999999</v>
@@ -31186,7 +31186,7 @@
         <v>1</v>
       </c>
       <c r="AP140">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ140">
         <v>0.83</v>
@@ -35515,7 +35515,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ161">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR161">
         <v>1.51</v>
@@ -36954,10 +36954,10 @@
         <v>2.5</v>
       </c>
       <c r="AP168">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ168">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR168">
         <v>2.08</v>
@@ -37366,7 +37366,7 @@
         <v>0.5</v>
       </c>
       <c r="AP170">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ170">
         <v>1</v>
@@ -38193,7 +38193,7 @@
         <v>1</v>
       </c>
       <c r="AQ174">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR174">
         <v>1.71</v>
@@ -39429,7 +39429,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ180">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR180">
         <v>1.4</v>
@@ -40456,7 +40456,7 @@
         <v>0.8</v>
       </c>
       <c r="AP185">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ185">
         <v>0.65</v>
@@ -42725,7 +42725,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ196">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR196">
         <v>1.58</v>
@@ -43755,7 +43755,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ201">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR201">
         <v>1.32</v>
@@ -45812,7 +45812,7 @@
         <v>0.4</v>
       </c>
       <c r="AP211">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ211">
         <v>0.88</v>
@@ -47463,7 +47463,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ219">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR219">
         <v>1.48</v>
@@ -48078,7 +48078,7 @@
         <v>2.17</v>
       </c>
       <c r="AP222">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ222">
         <v>1.56</v>
@@ -50344,7 +50344,7 @@
         <v>0.29</v>
       </c>
       <c r="AP233">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ233">
         <v>0.53</v>
@@ -52819,7 +52819,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ245">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR245">
         <v>1.34</v>
@@ -55700,7 +55700,7 @@
         <v>1.75</v>
       </c>
       <c r="AP259">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ259">
         <v>1.18</v>
@@ -56939,7 +56939,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ265">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR265">
         <v>1.79</v>
@@ -58172,7 +58172,7 @@
         <v>0.86</v>
       </c>
       <c r="AP271">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ271">
         <v>0.71</v>
@@ -58793,7 +58793,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ274">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR274">
         <v>1.33</v>
@@ -59614,7 +59614,7 @@
         <v>0.44</v>
       </c>
       <c r="AP278">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ278">
         <v>0.47</v>
@@ -59823,7 +59823,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ279">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR279">
         <v>1.47</v>
@@ -62292,7 +62292,7 @@
         <v>1.27</v>
       </c>
       <c r="AP291">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ291">
         <v>0.9399999999999999</v>
@@ -64355,7 +64355,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ301">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR301">
         <v>1.64</v>
@@ -66000,7 +66000,7 @@
         <v>2.36</v>
       </c>
       <c r="AP309">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ309">
         <v>2.06</v>
@@ -66415,7 +66415,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ311">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR311">
         <v>1.24</v>
@@ -67033,7 +67033,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ314">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR314">
         <v>1.25</v>
@@ -68472,7 +68472,7 @@
         <v>1</v>
       </c>
       <c r="AP321">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ321">
         <v>1.06</v>
@@ -69505,7 +69505,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ326">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR326">
         <v>1.76</v>
@@ -69711,7 +69711,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ327">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR327">
         <v>1.47</v>
@@ -70944,7 +70944,7 @@
         <v>1.8</v>
       </c>
       <c r="AP333">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ333">
         <v>1.83</v>
@@ -71565,7 +71565,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ336">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR336">
         <v>1.62</v>
@@ -71768,7 +71768,7 @@
         <v>0.64</v>
       </c>
       <c r="AP337">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ337">
         <v>0.65</v>
@@ -74034,7 +74034,7 @@
         <v>1.5</v>
       </c>
       <c r="AP348">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ348">
         <v>1.33</v>
@@ -75479,7 +75479,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ355">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR355">
         <v>1.47</v>
@@ -80011,7 +80011,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ377">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR377">
         <v>1.68</v>
@@ -80214,7 +80214,7 @@
         <v>0.77</v>
       </c>
       <c r="AP378">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ378">
         <v>0.82</v>
@@ -81453,7 +81453,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ384">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR384">
         <v>1.23</v>
@@ -81862,7 +81862,7 @@
         <v>1.54</v>
       </c>
       <c r="AP386">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ386">
         <v>1.5</v>
@@ -84749,7 +84749,7 @@
         <v>1</v>
       </c>
       <c r="AQ400">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR400">
         <v>1.62</v>
@@ -85158,7 +85158,7 @@
         <v>1.85</v>
       </c>
       <c r="AP402">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ402">
         <v>1.83</v>
@@ -88457,7 +88457,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ418">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR418">
         <v>1.69</v>
@@ -88866,7 +88866,7 @@
         <v>0.86</v>
       </c>
       <c r="AP420">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ420">
         <v>0.9399999999999999</v>
@@ -91753,7 +91753,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ434">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR434">
         <v>1.71</v>
@@ -92574,7 +92574,7 @@
         <v>1.29</v>
       </c>
       <c r="AP438">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ438">
         <v>1.5</v>
@@ -93607,7 +93607,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ443">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR443">
         <v>1.71</v>
@@ -97312,7 +97312,7 @@
         <v>0.73</v>
       </c>
       <c r="AP461">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ461">
         <v>0.65</v>
@@ -98754,7 +98754,7 @@
         <v>1.5</v>
       </c>
       <c r="AP468">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ468">
         <v>1.56</v>
@@ -101847,7 +101847,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ483">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR483">
         <v>1.34</v>
@@ -103492,7 +103492,7 @@
         <v>0.5</v>
       </c>
       <c r="AP491">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ491">
         <v>0.47</v>
@@ -103907,7 +103907,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ493">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR493">
         <v>1.69</v>
@@ -104522,7 +104522,7 @@
         <v>1.38</v>
       </c>
       <c r="AP496">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="AQ496">
         <v>1.34</v>
@@ -105346,10 +105346,10 @@
         <v>1.43</v>
       </c>
       <c r="AP500">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="AQ500">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="AR500">
         <v>1.68</v>
@@ -105552,10 +105552,10 @@
         <v>1.47</v>
       </c>
       <c r="AP501">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="AQ501">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="AR501">
         <v>1.48</v>
@@ -106788,10 +106788,10 @@
         <v>1.77</v>
       </c>
       <c r="AP507">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="AQ507">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="AR507">
         <v>1.44</v>
@@ -107818,10 +107818,10 @@
         <v>1.91</v>
       </c>
       <c r="AP512">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="AQ512">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="AR512">
         <v>1.39</v>
@@ -107897,6 +107897,418 @@
       </c>
       <c r="BP512">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="513" spans="1:68">
+      <c r="A513" s="1">
+        <v>512</v>
+      </c>
+      <c r="B513">
+        <v>7731785</v>
+      </c>
+      <c r="C513" t="s">
+        <v>68</v>
+      </c>
+      <c r="D513" t="s">
+        <v>69</v>
+      </c>
+      <c r="E513" s="2">
+        <v>45604.875</v>
+      </c>
+      <c r="F513">
+        <v>0</v>
+      </c>
+      <c r="G513" t="s">
+        <v>72</v>
+      </c>
+      <c r="H513" t="s">
+        <v>87</v>
+      </c>
+      <c r="I513">
+        <v>0</v>
+      </c>
+      <c r="J513">
+        <v>0</v>
+      </c>
+      <c r="K513">
+        <v>0</v>
+      </c>
+      <c r="L513">
+        <v>1</v>
+      </c>
+      <c r="M513">
+        <v>0</v>
+      </c>
+      <c r="N513">
+        <v>1</v>
+      </c>
+      <c r="O513" t="s">
+        <v>145</v>
+      </c>
+      <c r="P513" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q513">
+        <v>2</v>
+      </c>
+      <c r="R513">
+        <v>2.6</v>
+      </c>
+      <c r="S513">
+        <v>5.5</v>
+      </c>
+      <c r="T513">
+        <v>1.25</v>
+      </c>
+      <c r="U513">
+        <v>3.75</v>
+      </c>
+      <c r="V513">
+        <v>2.2</v>
+      </c>
+      <c r="W513">
+        <v>1.62</v>
+      </c>
+      <c r="X513">
+        <v>5</v>
+      </c>
+      <c r="Y513">
+        <v>1.17</v>
+      </c>
+      <c r="Z513">
+        <v>1.61</v>
+      </c>
+      <c r="AA513">
+        <v>4.25</v>
+      </c>
+      <c r="AB513">
+        <v>5.16</v>
+      </c>
+      <c r="AC513">
+        <v>1.01</v>
+      </c>
+      <c r="AD513">
+        <v>13</v>
+      </c>
+      <c r="AE513">
+        <v>1.11</v>
+      </c>
+      <c r="AF513">
+        <v>4.6</v>
+      </c>
+      <c r="AG513">
+        <v>1.4</v>
+      </c>
+      <c r="AH513">
+        <v>2.75</v>
+      </c>
+      <c r="AI513">
+        <v>1.62</v>
+      </c>
+      <c r="AJ513">
+        <v>2.2</v>
+      </c>
+      <c r="AK513">
+        <v>1.16</v>
+      </c>
+      <c r="AL513">
+        <v>1.21</v>
+      </c>
+      <c r="AM513">
+        <v>2.42</v>
+      </c>
+      <c r="AN513">
+        <v>1.86</v>
+      </c>
+      <c r="AO513">
+        <v>1.43</v>
+      </c>
+      <c r="AP513">
+        <v>1.89</v>
+      </c>
+      <c r="AQ513">
+        <v>1.39</v>
+      </c>
+      <c r="AR513">
+        <v>1.67</v>
+      </c>
+      <c r="AS513">
+        <v>1.38</v>
+      </c>
+      <c r="AT513">
+        <v>3.05</v>
+      </c>
+      <c r="AU513">
+        <v>3</v>
+      </c>
+      <c r="AV513">
+        <v>3</v>
+      </c>
+      <c r="AW513">
+        <v>7</v>
+      </c>
+      <c r="AX513">
+        <v>6</v>
+      </c>
+      <c r="AY513">
+        <v>15</v>
+      </c>
+      <c r="AZ513">
+        <v>13</v>
+      </c>
+      <c r="BA513">
+        <v>7</v>
+      </c>
+      <c r="BB513">
+        <v>1</v>
+      </c>
+      <c r="BC513">
+        <v>8</v>
+      </c>
+      <c r="BD513">
+        <v>1.36</v>
+      </c>
+      <c r="BE513">
+        <v>7</v>
+      </c>
+      <c r="BF513">
+        <v>3.15</v>
+      </c>
+      <c r="BG513">
+        <v>1.23</v>
+      </c>
+      <c r="BH513">
+        <v>3.65</v>
+      </c>
+      <c r="BI513">
+        <v>1.4</v>
+      </c>
+      <c r="BJ513">
+        <v>2.7</v>
+      </c>
+      <c r="BK513">
+        <v>1.65</v>
+      </c>
+      <c r="BL513">
+        <v>2.08</v>
+      </c>
+      <c r="BM513">
+        <v>2</v>
+      </c>
+      <c r="BN513">
+        <v>1.71</v>
+      </c>
+      <c r="BO513">
+        <v>2.55</v>
+      </c>
+      <c r="BP513">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="514" spans="1:68">
+      <c r="A514" s="1">
+        <v>513</v>
+      </c>
+      <c r="B514">
+        <v>7727680</v>
+      </c>
+      <c r="C514" t="s">
+        <v>68</v>
+      </c>
+      <c r="D514" t="s">
+        <v>69</v>
+      </c>
+      <c r="E514" s="2">
+        <v>45605.75</v>
+      </c>
+      <c r="F514">
+        <v>0</v>
+      </c>
+      <c r="G514" t="s">
+        <v>82</v>
+      </c>
+      <c r="H514" t="s">
+        <v>94</v>
+      </c>
+      <c r="I514">
+        <v>0</v>
+      </c>
+      <c r="J514">
+        <v>0</v>
+      </c>
+      <c r="K514">
+        <v>0</v>
+      </c>
+      <c r="L514">
+        <v>0</v>
+      </c>
+      <c r="M514">
+        <v>0</v>
+      </c>
+      <c r="N514">
+        <v>0</v>
+      </c>
+      <c r="O514" t="s">
+        <v>104</v>
+      </c>
+      <c r="P514" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q514">
+        <v>2.4</v>
+      </c>
+      <c r="R514">
+        <v>2.38</v>
+      </c>
+      <c r="S514">
+        <v>4.33</v>
+      </c>
+      <c r="T514">
+        <v>1.3</v>
+      </c>
+      <c r="U514">
+        <v>3.4</v>
+      </c>
+      <c r="V514">
+        <v>2.5</v>
+      </c>
+      <c r="W514">
+        <v>1.5</v>
+      </c>
+      <c r="X514">
+        <v>6</v>
+      </c>
+      <c r="Y514">
+        <v>1.13</v>
+      </c>
+      <c r="Z514">
+        <v>1.89</v>
+      </c>
+      <c r="AA514">
+        <v>4.3</v>
+      </c>
+      <c r="AB514">
+        <v>3.51</v>
+      </c>
+      <c r="AC514">
+        <v>1.01</v>
+      </c>
+      <c r="AD514">
+        <v>12</v>
+      </c>
+      <c r="AE514">
+        <v>1.17</v>
+      </c>
+      <c r="AF514">
+        <v>3.82</v>
+      </c>
+      <c r="AG514">
+        <v>1.6</v>
+      </c>
+      <c r="AH514">
+        <v>2.2</v>
+      </c>
+      <c r="AI514">
+        <v>1.62</v>
+      </c>
+      <c r="AJ514">
+        <v>2.2</v>
+      </c>
+      <c r="AK514">
+        <v>1.25</v>
+      </c>
+      <c r="AL514">
+        <v>1.22</v>
+      </c>
+      <c r="AM514">
+        <v>2</v>
+      </c>
+      <c r="AN514">
+        <v>1.72</v>
+      </c>
+      <c r="AO514">
+        <v>1.47</v>
+      </c>
+      <c r="AP514">
+        <v>1.7</v>
+      </c>
+      <c r="AQ514">
+        <v>1.46</v>
+      </c>
+      <c r="AR514">
+        <v>1.5</v>
+      </c>
+      <c r="AS514">
+        <v>1.43</v>
+      </c>
+      <c r="AT514">
+        <v>2.93</v>
+      </c>
+      <c r="AU514">
+        <v>5</v>
+      </c>
+      <c r="AV514">
+        <v>2</v>
+      </c>
+      <c r="AW514">
+        <v>8</v>
+      </c>
+      <c r="AX514">
+        <v>3</v>
+      </c>
+      <c r="AY514">
+        <v>16</v>
+      </c>
+      <c r="AZ514">
+        <v>7</v>
+      </c>
+      <c r="BA514">
+        <v>1</v>
+      </c>
+      <c r="BB514">
+        <v>5</v>
+      </c>
+      <c r="BC514">
+        <v>6</v>
+      </c>
+      <c r="BD514">
+        <v>1.5</v>
+      </c>
+      <c r="BE514">
+        <v>6.4</v>
+      </c>
+      <c r="BF514">
+        <v>2.65</v>
+      </c>
+      <c r="BG514">
+        <v>1.3</v>
+      </c>
+      <c r="BH514">
+        <v>3.05</v>
+      </c>
+      <c r="BI514">
+        <v>1.54</v>
+      </c>
+      <c r="BJ514">
+        <v>2.3</v>
+      </c>
+      <c r="BK514">
+        <v>1.89</v>
+      </c>
+      <c r="BL514">
+        <v>1.8</v>
+      </c>
+      <c r="BM514">
+        <v>2.38</v>
+      </c>
+      <c r="BN514">
+        <v>1.5</v>
+      </c>
+      <c r="BO514">
+        <v>3.05</v>
+      </c>
+      <c r="BP514">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>
